--- a/communication_data_bow.xlsx
+++ b/communication_data_bow.xlsx
@@ -636,388 +636,328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>8</v>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>10</v>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>11</v>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>12</v>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>13</v>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>14</v>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>15</v>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>16</v>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>17</v>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>18</v>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>19</v>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
-    <hyperlink ref="E13" r:id="rId12"/>
-    <hyperlink ref="E14" r:id="rId13"/>
-    <hyperlink ref="E15" r:id="rId14"/>
-    <hyperlink ref="E16" r:id="rId15"/>
-    <hyperlink ref="E17" r:id="rId16"/>
-    <hyperlink ref="E18" r:id="rId17"/>
-    <hyperlink ref="E19" r:id="rId18"/>
-    <hyperlink ref="E20" r:id="rId19"/>
-    <hyperlink ref="E21" r:id="rId20"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/communication_data_bow.xlsx
+++ b/communication_data_bow.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="187">
   <si>
     <t>Originator</t>
   </si>
@@ -25,7 +25,10 @@
     <t>Corpus</t>
   </si>
   <si>
-    <t>Source</t>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Text Type</t>
   </si>
   <si>
     <t>Chimamanda Ngozi Adichie</t>
@@ -58,6 +61,48 @@
     <t>Elizabeth Gilbert</t>
   </si>
   <si>
+    <t>Albert E. N. Gray</t>
+  </si>
+  <si>
+    <t>Bill Gurley</t>
+  </si>
+  <si>
+    <t>Richard Hamming</t>
+  </si>
+  <si>
+    <t>Steve Jobs</t>
+  </si>
+  <si>
+    <t>Peter Kaufman</t>
+  </si>
+  <si>
+    <t>Admiral William H. McRaven</t>
+  </si>
+  <si>
+    <t>Arno Rafael Minkkinen</t>
+  </si>
+  <si>
+    <t>Charlie Munger</t>
+  </si>
+  <si>
+    <t>Nathan Myhrvold</t>
+  </si>
+  <si>
+    <t>Randy Pausch</t>
+  </si>
+  <si>
+    <t>Anna Quindlen</t>
+  </si>
+  <si>
+    <t>John Roberts</t>
+  </si>
+  <si>
+    <t>Ken Robinson</t>
+  </si>
+  <si>
+    <t>J.K. Rowling</t>
+  </si>
+  <si>
     <t>Michael Jackson</t>
   </si>
   <si>
@@ -88,6 +133,33 @@
     <t>The Beatles</t>
   </si>
   <si>
+    <t>Whitney Houston</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Bee Gees</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>Santana</t>
+  </si>
+  <si>
+    <t>Adele</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Prince &amp; The Revolution</t>
+  </si>
+  <si>
+    <t>Bon Jovi</t>
+  </si>
+  <si>
     <t>The Danger of a Single Story</t>
   </si>
   <si>
@@ -118,6 +190,48 @@
     <t>Your Elusive Creative Genius</t>
   </si>
   <si>
+    <t>The Common Denominator of Success</t>
+  </si>
+  <si>
+    <t>Runnin’ Down a Dream: How to Succeed and Thrive in a Career You Love</t>
+  </si>
+  <si>
+    <t>Learning to Learn</t>
+  </si>
+  <si>
+    <t>2005 Stanford Commencement Address</t>
+  </si>
+  <si>
+    <t>The Multidisciplinary Approach to Thinking</t>
+  </si>
+  <si>
+    <t>Make Your Bed</t>
+  </si>
+  <si>
+    <t>Finding Your Own Vision</t>
+  </si>
+  <si>
+    <t>2007 USC Law School Commencement Address</t>
+  </si>
+  <si>
+    <t>Roadkill on the Information Highway</t>
+  </si>
+  <si>
+    <t>Achieving Your Childhood Dreams</t>
+  </si>
+  <si>
+    <t>1999 Mount Holyoke Commencement Speech</t>
+  </si>
+  <si>
+    <t>I Wish You Bad Luck</t>
+  </si>
+  <si>
+    <t>Do Schools Kill Creativity?</t>
+  </si>
+  <si>
+    <t>The Fringe Benefits of Failure</t>
+  </si>
+  <si>
     <t>"Thriller"</t>
   </si>
   <si>
@@ -148,64 +262,184 @@
     <t>"The Beatles (The White Album)"</t>
   </si>
   <si>
-    <t>storyteller. would like tell personal stories like call danger single story. grew university campus eastern nigeria. mother says started reading age two, although think four probably close truth. early reader, read british american children books. also early writer, began write, age seven, stories pencil crayon illustrations poor mother obligated read, wrote exactly kinds stories reading characters white blue eyed, played snow, ate apples, talked lot weather, lovely sun come out. now, despite fact lived nigeria. never outside nigeria. snow, ate mangoes, never talked weather, need to. characters also drank lot ginger beer, characters british books read drank ginger beer. never mind idea ginger beer was. many years afterwards, would desperate desire taste ginger beer. another story. demonstrates, think, impressionable vulnerable face story, particularly children. read books characters foreign, become convinced books nature foreigners things could personally identify. now, things changed discovered african books. many available, quite easy find foreign books. writers like chinua achebe camara laye, went mental shift perception literature. realized people like me, girls skin color chocolate, whose kinky hair could form ponytails, could also exist literature. started write things recognized. now, loved american british books read. stirred imagination. opened new worlds me. unintended consequence know people like could exist literature. discovery african writers saved single story books are. come conventional, middle class nigerian family. father professor. mother administrator. had, norm, live domestic help, would often come nearby rural villages. so, year turned eight, got new house boy. name fide. thing mother told family poor. mother sent yams rice, old clothes, family. finish dinner, mother would say, finish food! know? people like fide family nothing. felt enormous pity fide family. one saturday, went village visit, mother showed beautifully patterned basket made dyed raffia brother made. startled. occurred anybody family could actually make something. heard poor were, become impossible see anything else poor. poverty single story them. years later, thought left nigeria university united states. american roommate shocked me. asked learned speak english well, confused said nigeria happened english official language. asked could listen called tribal music, consequently disappointed produced tape mariah carey. assumed know use stove. struck felt sorry even saw me. default position toward me, african, kind patronizing, well meaning pity. roommate single story africa single story catastrophe. single story, possibility africans similar way, possibility feelings complex pity, possibility connection human equals. must say went u.s., consciously identify african. u.s., whenever africa came up, people turned me. never mind knew nothing places like namibia. come embrace new identity, many ways think african. although still get quite irritable africa referred country, recent example otherwise wonderful flight lagos two days ago, announcement virgin flight charity work india, africa countries. so, spent years u.s. african, began understand roommate response me. grown nigeria, knew africa popular images, would think africa place beautiful landscapes, beautiful animals, incomprehensible people, fighting senseless wars, dying poverty aids, unable speak waiting saved kind, white foreigner. would see africans way child, seen fide family. single story africa ultimately comes, think, western literature. now, quote writing london merchant called john lok, sailed west africa kept fascinating account voyage. referring black africans beasts houses, writes, also people without heads, mouth eyes breasts. now, laughed every time read this. one must admire imagination john lok. important writing represents beginning tradition telling african stories west tradition sub saharan africa place negatives, difference, darkness, people who, words wonderful poet rudyard kipling, half devil, half child. so, began realize american roommate must have, throughout life, seen heard different versions single story, professor, told novel authentically african. now, quite willing contend number things wrong novel, failed number places, quite imagined failed achieving something called african authenticity. fact, know african authenticity was. professor told characters much like him, educated middle class man. characters drove cars. starving. therefore authentically african. must quickly add guilty question single story. years ago, visited mexico u.s. political climate u.s. time tense, debates going immigration. and, often happens america, immigration became synonymous mexicans. endless stories mexicans people fleecing healthcare system, sneaking across border, arrested border, sort thing. remember walking around first day guadalajara, watching people going work, rolling tortillas marketplace, smoking, laughing. remember first feeling slight surprise. then, overwhelmed shame. realized immersed media coverage mexicans become one thing mind, abject immigrant. bought single story mexicans could ashamed myself. create single story, show people one thing, one thing, again, become. impossible talk single story without talking power. word, igbo word, think whenever think power structures world, nkali. noun loosely translates greater another. like economic political worlds, stories defined principle nkali told, tells them, told, many stories told, really dependent power. power ability tell story another person, make definitive story person. palestinian poet mourid barghouti writes want dispossess people, simplest way tell story start with, secondly. start story arrows native americans, arrival british, entirely different story. start story failure african state, colonial creation african state, entirely different story. recently spoke university student told shame nigerian men physical abusers like father character novel. told read novel called american psycho shame young americans serial murderers. now, obviously, said fit mild irritation. would never occurred think read novel character serial killer somehow representative americans. better person student, america cultural economic power. many stories america. read tyler updike steinbeck gaitskill. single story america. learned, years ago, writers expected really unhappy childhoods successful, began think could invent horrible things parents done me. truth happy childhood, full laughter love, close knit family. also grandfathers died refugee camps. cousin polle died could get adequate healthcare. one closest friends, okoloma, died plane crash fire trucks water. grew repressive military governments devalued education, sometimes, parents paid salaries. so, child, saw jam disappear breakfast table, margarine disappeared, bread became expensive, milk became rationed. all, kind normalized political fear invaded lives. stories make am. insist negative stories flatten experience overlook many stories formed me. single story creates stereotypes, problem stereotypes untrue, incomplete. make one story become story. course, africa continent full catastrophes immense ones, horrific rapes congo depressing ones, fact people apply one job vacancy nigeria. stories catastrophe, important, important, talk them. always felt impossible engage properly place person without engaging stories place person. consequence single story robs people dignity. makes recognition equal humanity difficult. emphasizes different rather similar. mexican trip, followed immigration debate sides, u.s. mexican? mother told fide family poor hardworking? african television network broadcast diverse african stories world? nigerian writer chinua achebe calls balance stories. roommate knew nigerian publisher, muhtar bakare, remarkable man left job bank follow dream start publishing house? now, conventional wisdom nigerians read literature. disagreed. felt people could read, would read, made literature affordable available them. shortly published first novel, went station lagos interview, woman worked messenger came said, really liked novel. like ending. now, must write sequel, happen went tell write sequel. charmed, moved. woman, part ordinary masses nigerians, supposed readers. read book, taken ownership felt justified telling write sequel. now, roommate knew friend funmi iyanda, fearless woman hosts show lagos, determined tell stories prefer forget? roommate knew heart procedure performed lagos hospital last week? roommate knew contemporary nigerian music, talented people singing english pidgin, igbo yoruba ijo, mixing influences jay fela bob marley grandfathers. roommate knew female lawyer recently went court nigeria challenge ridiculous law required women get husband consent renewing passports? roommate knew nollywood, full innovative people making films despite great technical odds, films popular really best example nigerians consuming produce? roommate knew wonderfully ambitious hair braider, started business selling hair extensions? millions nigerians start businesses sometimes fail, continue nurse ambition? every time home confronted usual sources irritation nigerians failed infrastructure, failed government, also incredible resilience people thrive despite government, rather it. teach writing workshops lagos every summer, amazing many people apply, many people eager write, tell stories. nigerian publisher started non profit called farafina trust, big dreams building libraries refurbishing libraries already exist providing books state schools anything libraries, also organizing lots lots workshops, reading writing, people eager tell many stories. stories matter. many stories matter. stories used dispossess malign, stories also used empower humanize. stories break dignity people, stories also repair broken dignity. american writer alice walker wrote southern relatives moved north. introduced book southern life left behind. sat around, reading book themselves, listening read book, kind paradise regained. would like end thought reject single story, realize never single story place, regain kind paradise. thank you.</t>
-  </si>
-  <si>
-    <t>kid, spent summers grandparents ranch texas. helped fix windmills, vaccinate cattle, chores. also watched soap operas every afternoon, especially days lives. grandparents belonged caravan club, group airstream trailer owners travel together around u.s. canada. every summers, would join caravan. would hitch airstream trailer grandfather car, would go, line airstream adventurers. loved worshipped grandparents really looked forward trips. one particular trip, years old. rolling around big bench seat back car. grandfather driving. grandmother passenger seat. smoked throughout trips, hated smell. age, would take excuse make estimates minor arithmetic. would calculate gas mileage figure useless statistics things like grocery spending. would hearing campaign smoking. remember details, basically said, every puff cigarette takes number minutes life think might two minutes per puff. rate, decided math grandmother. estimated number cigarettes per days, estimated number puffs per cigarette on. satisfied would come reasonable number, poked head front car, tapped grandmother shoulder, proudly proclaimed, two minutes per puff, taken nine years life! vivid memory happened, expected. expected applauded cleverness arithmetic skills. jeff, smart. made tricky estimates, figure number minutes year division. happened. instead, grandmother burst tears. sat backseat know do. grandmother sat crying, grandfather, driving silence, pulled onto shoulder highway. got car came around opened door waited follow. trouble? grandfather highly intelligent, quiet man. never said harsh word me, maybe first time? maybe would ask get back car apologize grandmother. experience realm grandparents way gauge consequences might be. stopped beside trailer. grandfather looked me, bit silence, gently calmly said, jeff, one day understand harder kind clever. want talk today difference gifts choices. cleverness gift, kindness choice. gifts easy given all. choices hard. seduce gifts careful, do, probably detriment choices. group many gifts. sure one gifts gift smart capable brain. confident case admission competitive signs clever, dean admission would let in. smarts come handy travel land marvels. humans plodding astonish ourselves. invent ways generate clean energy lot it. atom atom, assemble tiny machines enter cell walls make repairs. month comes extraordinary also inevitable news synthesized life. coming years, synthesize it, engineer specifications. believe even see understand human brain. jules verne, mark twain, galileo, newton curious ages would wanted alive right now. civilization, many gifts, individuals many individual gifts sit me. use gifts? take pride gifts pride choices? got idea start amazon years ago. came across fact web usage growing percent per year. would never seen heard anything grew fast, idea building online bookstore millions titles something simply could exist physical world exciting me. turned years old, would married year. told wife mackenzie wanted quit job crazy thing probably would work since startups don't, sure would happen that. mackenzie also princeton grad sitting second row told it. young boy, would garage inventor. would invented automatic gate closer cement filled tires, solar cooker work well umbrella tinfoil, baking pan alarms entrap siblings. would always wanted inventor, wanted follow passion. working financial firm new york city bunch smart people, brilliant boss much admired. went boss told wanted start company selling books internet. took long walk central park, listened carefully me, finally said, sounds like really good idea, would even better idea someone already good job. logic made sense me, convinced think hours making final decision. seen light, really difficult choice, ultimately, decided give shot. think would regret trying failing. suspected would always haunted decision try all. much consideration, took less safe path follow passion, proud choice. tomorrow, real sense, life life author scratch begins. use gifts? choices make? inertia guide, follow passions? follow dogma, original? choose life ease, life service adventure? wilt criticism, follow convictions? bluff wrong, apologize? guard heart rejection, act fall love? play safe, little bit swashbuckling? tough, give up, relentless? cynic, builder? clever expense others, kind? hazard prediction. years old, quiet moment reflection narrating personal version life story, telling compact meaningful series choices made. end, choices. build great story. thank good luck!</t>
-  </si>
-  <si>
-    <t>recall wonderful story sets theme remarks today party given billionaire shelter island, late kurt vonnegut informs pal, author joseph heller, host, hedge fund manager, made money single day heller earned wildly popular novel catch whole history. heller responds, yes, something never enough. enough. stunned simple eloquence, say nothing relevance vital issues arising american society today. many revolve around money yes, money increasingly, bottom line society, great god prestige, great measure man woman morning temerity ask soon minted mba graduates, enter world commerce, consider role enough business entrepreneurship society, enough dominant role financial system economy, enough values bring fields choose careers. kurt vonnegut loved speak college students. believed, may paraphrase here, catch young people become ceos, investment bankers, consultants, money managers especially hedge fund managers best poison minds humanity. remarks morning, try poison minds little bit humanity. past two centuries, nation moved agricultural economy, manufacturing economy, service economy, predominantly financial economy. financial economy, definition, subtracts value created productive businesses. think owners business enjoy dividend yields earnings growth capitalistic system creates, play financial markets capture investment gains costs financial intermediation deducted. thus, investing american business winner game, beating stock market costs zero sum game. intermediation costs deducted, beating market group becomes loser game. yes, financial system takes, less investors make. yet financial field money made modern day america, breeding ground wealthiest citizens. made less million dollars last year, make enough rank among highest paid hedge fund managers. add hedge fund fees, mutual fund management fees operating expenses commissions brokerage firms fees financial advisors investment banking legal fees mergers ipos enormous marketing advertising expenses entailed distribution financial products, talking billion dollars per year. sum, extracted whatever returns stock bond markets generous enough deliver investors, surely enough, will, seriously undermine odds favor success citizens accumulating savings retirement. yet fact finance sector become far nation largest generator corporate profits, larger even combined profits huge energy health care sectors, almost three times much either manufacturing information technology. twenty five years ago, financials accounted percent earnings giant corporations compose standard poor stock index. ten years ago, financial sector share risen percent. last year, financial sector profits soared time high percent. add earnings financial affiliates giant manufacturers think general electric capital, example, auto financing arms general motors ford total, financial earnings likely exceed percent earnings share may may enough, seems likely continue grow, least while. moving, seems, world longer making anything country merely trading pieces paper, swapping stocks bonds back forth one another, paying financial croupiers veritable fortune. also adding even costs creating ever complex financial derivatives huge unfathomable risks built financial system. enterprise becomes mere bubble whirlpool speculation, great british economist john maynard keynes warned years ago, consequences may dire. capital development country becomes product activities casino, job capitalism likely ill done. profession business subservient, field money management wall street become business profession subservient. harvard business school professor rakesh khurana right defined conduct true professional words create value society, rather extract it. yet money management, definition, extracts value returns earned business enterprises. warren buffett wise partner charlie munger lays line money making activity contains profoundly antisocial effects high cost modalities become ever popular activity exacerbates current harmful trend ever nation ethical young brain power attracted lucrative money management attendant modern frictions, distinguished work providing much value others. telling highly profitable field managing money. rather, present three caveats commencement speakers like sum citing eminent philosopher endorse message. exception. offer new masters business administration words socrates, spoken years ago, challenged citizens athens. honor love citizens great mighty nation care much laying greatest amount money honor reputation, little wisdom truth greatest improvement soul. ashamed this? nothing persuading all, take thought persons properties, first chiefly care greatest improvement soul. tell virtue given money, virtue comes money every good man. close returning kurt vonnegut story, which, finally tracked down, turned poem. delightful even better, words long true story, word honor joseph heller, important funny writer dead, party given billionaire shelter island. said, joe, make feel know host yesterday may made money novel catch earned entire history? joe said, got something never have. said, earth could be, joe? joe said, knowledge got enough. bad! rest peace! time rest peace, rest way. bright futures lie you. world work done, never enough citizens determined hearts, courageous character, intelligent minds, idealistic souls it. yes, world already quite enough guns, political platitudes, arrogance, disingenuousness, self interest, snobbishness, superficiality, war, certainty god one side other. never enough conscience, enough tolerance, idealism, justice, compassion, wisdom, humility, self sacrifice greater good, integrity, courtesy, poetry, laughter, generosity substance spirit. elements urge carry careers, remember great game life money best build world anew. enough least today.</t>
-  </si>
-  <si>
-    <t>oh, feels like incredible understatement say grateful you. feel like relationship many social media, like, minus two days. like, coming! going together. grateful you. going talk trust going start saying one favorite parts job get research topics mean something me. one least favorite parts job normally come findings kicked butt make change entire life. hard part. get dig stuff think matters life life people around me. topic trust something think probably would eventually started look closely study shame vulnerability. personal reason jumped trust early research career, personal experience. one day, daughter, ellen, came home school. third grade. minute closed front door, literally started sobbing slid door kind heap crying floor. course scared me, said, wrong ellen? happened? happened? pulled together enough say, something really hard happened today school, shared couple friends recess. time got back classroom, everyone class knew happened, laughing pointing calling names. bad, kids disruptive, teacher even take marbles marble jar. marble jar classroom jar kids making great choices together, teacher adds marbles. making great choices, teacher takes marbles. jar gets filled up, celebration class. so, said, one worst moments life. laughing pointing. miss bacchum, teacher, kept saying, going take marbles out. know happening. looked face seared mind said, never trust anyone again. first reaction, really honest you, was, damn straight, tell anybody anything mama. yeah, right? it. mean, tell me. grow school, mama too. get little apartment. thing thinking quite honest is, find kids were. going beat nine year old, know mamas. know, place to. like, going explain trust third grader front me? took deep breath said, ellen, trust like marble jar. said, mean? said, share hard stories hard things happening friends, who, time, filled marble jar. done thing thing thing like, know share person. make sense? yes! ellen said, yes, makes sense. said, marble jar friends? said, yeah. totally. hannah lorna marble jar friends. said things got interesting. said, tell mean. earn marbles you? like, well, lorna, seat lunch cafeteria, scoot give half heinie seat. like, will? like, yeah. sit like that, sit her. said, big deal. expecting hear. said, know hannah, sunday soccer game? waiting story said, got hit ball laying field, hannah picked ran first aid. like, yeah? said, hannah looked saw oma opa, parents, grandparents, said, look, oma opa here. like like, boy, got marble that? goes, well, know, friends eight grandparents. parents divorced remarried, husband parents divorced remarried. said, nice remembered names.</t>
-  </si>
-  <si>
-    <t>know, video arts asked would like talk creativity said problem! problem! telling people creative easy, difficult. knew would particularly easy spent last years watching various creative people produce stuff, fascinating see could figure makes folk, including me, creative. more, couple years ago got excited friend mine runs psychology department sussex university, brian bates, showed research creativity done berkley brilliant psychologist called donald mackinnon seemed confirm impressively scientific way vague observations intuitions would years. prospect settling quite serious study creativity purpose tonight gossip delightful. spent several weeks it, state categorically tell tonight become creative complete waste time. think would much better told jokes instead. know lightbulb jokes? many poles take screw lightbulb? one hold bulb, four turn table. many folksingers take change lightbulb? answer five, one change bulb four sing much better old one was. many socialists take change lightbulb? answer going change it, think works. many creative art reason futile talk creativity simply cannot explained, like mozart music van gogh painting saddam hussein propaganda. literally inexplicable. freud, analyzed practically everything else, repeatedly denied psychoanalysis could shed light whatsoever mysteries creativity. brian bates wrote recently best research creativity done quite dramatic drop quantity then, largely, suspect researchers began feel reached limits science could discover it. fact, thing research could tell creative sort childhood had, limited help point lives. however one negative thing say, negative easier say creativity isn't. bit like sculptor asked sculpted fine elephant, explained would taken big block marble knocked away bits look like elephant. negative thing creativity talent. talent, way operating. many actors take screw lightbulb? answer thousands. one thousands say could done that. many jewish mothers take screw lightbulb? answer mind me, sit dark, nobody cares many surgeons see say way operating mean creativity ability either have. is, example, may surprise absolutely unrelated provided intelligent certain minimal level mackinnon showed investigating scientists, architects, engineers, writers regarded peers creative way whatsoever different less creative colleagues. way different? mackinnon showed creative simply acquired facility getting particular mood way operating allowed natural creativity function. fact, mackinnon described particular facility ability play. indeed described creative mood childlike. able play ideas explore immediate practical purpose enjoyment. play sake. now, mood. working moment dr. robin skynner successor psychiatry book families survive comparing ways psychologically healthy families function ways families function ways successful corporations organizations function. become fascinated fact usually describe way people function work terms two modes open closed. add creativity possible closed mode. ok, many american network executives take screw lightbulb? answer lightbulb? many doorke let explain little. closed mode mean mode time work. inside feeling lots done get going get all. active probably slightly anxious mode, although anxiety exciting pleasurable. mode probably little impatient, ourselves. little tension it, much humor. mode purposeful, mode get stressed even bit manic, creative. contrast, open mode, relaxed expansive less purposeful mode probably contemplative, inclined humor always accompanies wider perspective and, consequently, playful. mood curiosity sake operate pressure get specific thing done quickly. play, allows natural creativity surface. let give example mean. alexander fleming thought led discovery penicillin, must open mode. previous day, would arranged number dishes culture would grow upon them. day question, glanced dishes, discovered one culture appeared. now, would closed mode would focused upon need dishes cultures grown upon saw one dish use purpose would quite simply thrown away. thank goodness, open mode became curious culture grown particular dish. curiosity, world knows, led lightbulb sorry, penicillin. closed mode uncultured dish irrelevance. open mode, clue. now, one example one alfred hitchcock regular writers described working screenplays. says, came block discussions became heated intense, hitchcock would suddenly stop tell story nothing work hand. first, almost outraged, discovered intentionally. mistrusted working pressure. would say pressing, pressing, working hard. relax, come. and, says writer, course finally always did. let make one thing quite clear need open mode pondering problem come solution, must switch closed mode implement it. made decision, efficient decisively, undistracted doubts correctness. example, decide leap ravine, moment take bad time start reviewing alternative strategies. attacking machine gun post make particular effort see funny side doing. humor natural concomitant open mode, luxury closed. no, taken decision narrow focus implementing it, carried switch back open mode review feedback rising action, order decide whether course taken successful, whether continue next stage plan. whether create alternative plan correct error perceive. back closed mode implement next stage, on. words, efficient need able switch backwards forwards two modes. problem often get stuck closed mode. pressures familiar tend maintain tunnel vision times really need step back contemplate wider view. particularly true, example, politicians. main complaint non political colleagues become addicted adrenaline get reacting events hour hour basis almost completely lose desire ability ponder problems open mode. it. well minutes so, many women libbers take change lightbulb? answer one screw in, make documentary it. many psychiatrists take change lightbulb? answer one, lightbulb really got want change. oh, one, one, thing say creativity. certain conditions make likely get open mode, something creative occur. likely guarantee anything occur. might sit around hours last tuesday, nothing. zilch. bupkis. sausage. nevertheless least tell get open mode. need five things sorry, mind wondering. getting open mode quickly. instead inch waist, need humor. beg pardon. let take space first become playful therefore creative usual pressures, cope got closed mode. create space away demands. means sealing off. must make quiet space undisturbed. next time. enough create space, create space specific period time. know space last exactly moment normal life start again. specific moment space starts equally specific moment space stops seal every day closed mode habitually operate. would never realized vital read historical study play dutch historian called johan huizinga says play distinct ordinary life, locality duration. main characteristic secludedness, limitedness. play begins certain moment over. otherwise, play. combining first two factors create oasis quiet setting boundaries space time. creativity happen, play possible separate everyday life. so, arranged take calls, closed door, sat somewhere comfortable, take couple deep breaths anything like me, pondered problem want turn opportunity seconds, find thinking forgot got call jim oh, must tell tina need report wednesday thursday means must move lunch joe damn! called st. paul getting joe daughter interview must pop afternoon get birthday present plants need watering none pencils sharpened right! got much do, going start sorting paper clips shall make phone calls thinking tomorrow got everything way. because, know, easier trivial things urgent important things urgent, like thinking. also easier little things know start big things sure about. say create oasis quiet know have, mind pretty soon start racing again. going take seriously, sit bit tolerating racing slight anxiety comes that, time mind quiet again. now, takes time mind quiet absolutely use arranging space time oasis lasting minutes, getting quieter getting open mode stop deeply frustrating. must allow good chunk time. would suggest hour half. gotten open mode, hour left something happen, lucky. put whole morning aside. experience hour half need break. far better hour half hour half next thursday maybe hour half week that, fix one four half hour session now. another reason that, factor number three time. yes, know done time, half creating oasis. going tell use oasis created. still need time? well, let tell story. always intrigued one monty python colleagues seemed talented never produce scripts original mine. watched time began see why. faced problem, fairly soon saw solution, inclined take it. even though think knew solution original. whereas situation, although sorely tempted take easy way out, finish o'clock, couldn't. would sit problem another hour quarter, sticking would, end, almost always come something original. simple. work creative simply prepared stick problem longer. imagine excitement found exactly mackinnon found research. discovered creative professionals always played problem much longer tried resolve it, prepared tolerate slight discomfort anxiety experience solved problem. know mean, problem need solve it, do, feel inside kind internal agitation, tension, uncertainty makes plain uncomfortable. want get rid discomfort. so, order so, take decision. sure best decision, taking make feel better. well, creative people learned tolerate discomfort much longer. so, put pondering time, solutions creative. people find hardest creative people need time project image decisive. feel create image need decide everything quickly great show confidence. well, behavior suggest sincerely, effective way strangling creativity birth. please note arguing real decisiveness. favor taking decision taken sticking implemented. suggesting take decision, always ask question, decision taken? answered that, defer decision then, order give maximum pondering time, lead creative solution. if, pondering, somebody accuses indecision say, look, babycakes, decide tuesday, chickening creative discomfort taking snap decision then, easy. so, summarize third factor facilitates creativity time, giving mind long possible come something original. next factor, number confidence. space time oasis, getting open mode, nothing stop creative effectively fear making mistake. think play, see why. play experiment happens this? would happen that? essence playfulness openness anything may happen. feeling whatever happens, ok. cannot playful frightened moving direction wrong something done. well, either free play, not. alan watts puts it, spontaneous within reason. got risk saying things silly illogical wrong, best way get confidence know creative, nothing wrong. thing mistake, drivel may lead break through. now, last factor, fifth humor. well, happen think main evolutionary significance humor gets closed mode open mode quicker anything else. think know laughter brings relaxation, humor makes playful, yet many times important discussions held really original creative ideas desperately needed solve important problems, humor taboo subject discussed air quotes serious attitude seems stem basic misunderstanding difference serious solemn'. suggest group could sitting around dinner, discussing matters extremely serious like education children, marriages, meaning life talking film could laughing, would make discussing one bit less serious. solemnity, hand know for. mean, point it? two beautiful memorial services ever attended lot humor, somehow freed all, made services inspiring cathartic. solemnity? serves pomposity, self important always know level consciousness egotism going punctured humor see threat. dishonestly pretend deficiency makes views substantial, makes feel bigger. no, humor essential part spontaneity, essential part playfulness, essential part creativity need solve problems, matter serious may be. set space time oasis, giggle want. there, ladies gentlemen, five factors arrange make lives creative space, time, time, confidence, lord jeffrey archer. so, know get open mode, requirement keep mind gently around subject pondering. daydream, course, keep bringing mind back, like meditation. because, extraordinary thing creativity, keep mind resting subject friendly persistent way, sooner later get reward unconscious, probably shower later. breakfast next morning, suddenly rewarded, blue new thought mysteriously appears. put pondering time first. so, many cecil parkinsons take change lightbulb? answer two, one screw in, one screw up. many account executives take screw lightbulb? answer get back that? many norwei oh, sorry, many yugoslav many malt many dutch jokes. oh! one thing! looking reminds me, think easy creative got people play with. always find two throw ideas backwards forwards get interesting original places could ever gotten own. danger, real danger, one person around makes feel defensive, lose confidence play, goodbye creativity. always make sure play friends people like trust. never say anything squash either, never say wrong like that. always positive, build said would even better quite understand that, explain again? let pretend try establish free atmosphere possible. sometimes wonder success japanese partly due instinctive understanding use groups creatively. westerners often amazed unstructured nature japanese meetings maybe lack structure, absence time pressure, frees solve problems creatively. clever japanese sometimes plan structured ness by, example, insisting first people give views junior, speak freely without possibility contradicting already said somebody important. four minutes left many irish sorry, sorry well, look, last thing say creativity like humor. joke, laugh comes moment connect two different frameworks reference new way. example old story woman survey sexual attitudes stops airline pilot asks him, amongst things, last sexual intercourse. replies nineteen fifty eight. now, knowing airline pilots, researcher surprised, queries this. well, says pilot, twenty one ten now. laugh, eventually, moment contact two frameworks reference way express year hour clock. now, idea, new idea, exactly thing. connecting two hitherto separate ideas way generates new meaning. now, connecting different ideas difficult, connect cheese motorcycles moral courage light green, bananas international cooperation. get computer make billion random connection you, new connections juxtapositions significant generate new meaning. play deliberately try inventing random juxtapositions, use intuition tell whether seem significance you. bit computer do. produce millions new connections, tell one smells interesting. and, course, produce juxtapositions absolutely ridiculous, absurd. good you! edward bono invented notion lateral thinking specifically suggests book beyond yes try loosening assumptions playing deliberately crazy connections. calls absurd ideas intermediate impossibles. points use intermediate impossible completely contrary ordinary logical thinking right stage. matter intermediate impossible right absurd, nevertheless used stepping stone another idea right. another example how, playing, nothing wrong. so, summarize really know start, got stuck, start generating random connections, allow intuition tell one might lead somewhere interesting. well, really tell help creative. everything. now, two minutes left, come important part, is, stop subordinates becoming creative too, real threat. because, believe one appreciates better trouble creative people are. stop decisive, hard nosed bastards like running businesses efficiently. mean, know, encourage someone creative, next thing rocking boat, coming ideas, asking questions. nip kind thing bud, start justifying decisions reasoned argument. sharing information concealment gives considerable advantages power struggles. so, stamp creativity rest organization get bit respect going. one allow subordinates humor, threatens self importance especially omniscience. treat humor frivolous subversive. subversive is, course, humor setup, way people express opposition, since express openly like ton bricks. let get clear blame humor resistance way working creates. blame way working. important. mean solemnly. dignity laughing matter. second keeping feeling irreplaceable involves cutting everybody else size, miss opportunity undermine employees confidence. perfect opportunity comes reviewing work done. use authority zero immediately things find wrong. never, never balance negatives positives, criticize, school teachers did. always remember praise makes people uppity. third demand people always actively things. catch anyone pondering, accuse laziness indecision. starve employees thinking time leads creativity insurrection. demand urgency times, use lots fighting talk war analogies, establish permanent atmosphere stress, breathless anxiety, crisis. phrase keep mode closed. way nonsense types sure tiny, tiny, microscopic quantity creativity organization ours! but! let vigilance slip one moment, could find surrounded happy, enthusiastic, creative people might never able completely control ever again! careful. thank you, good night. thank you.</t>
-  </si>
-  <si>
-    <t>title must seem like contradiction. solitude leadership? solitude means alone, leadership necessitates presence others people leading. think leadership american history likely think washington, head army, lincoln, head nation, king, head movement people multitudes behind them, looking direction. think solitude, apt think thoreau, man alone woods, keeping journal communing nature silence. leadership learn qualities character mind make fit command platoon, beyond that, perhaps, company, battalion, or, leave military, corporation, foundation, department government. solitude least here, especially plebes. even privacy, opportunity simply physically alone, never mind solitude, ability alone thoughts. yet submit solitude one important necessities true leadership. lecture attempt explain why. need begin talking leadership really means. spent years teaching another institution that, like west point, liked talk lot leadership, yale university. school might gone come here, friends might going to. yale, harvard, stanford, mit, forth. institutions, like west point, also see role training leaders, constantly encourage students, like west point, regard leaders among peers future leaders society. indeed, look around american elite, people charge government, business, academia, major institutions senators, judges, ceos, college presidents, forth find come overwhelmingly either ivy league peer institutions service academies, especially west point. began wonder, taught yale, leadership really consists of. students, like you, energetic, accomplished, smart, often ferociously ambitious, enough make leaders? them, much liked even admired them, certainly seem like leaders. leader, wondered, mean accomplished, successful? getting straight make leader? think so. great heart surgeons great novelists great shortstops may terrific do, mean leaders. leadership aptitude, leadership achievement, leadership even cellence different things, otherwise concept leadership meaning. seemed especially true kind excellence saw students around me. see, things changed since went college everything gotten much intense. much get top school like yale west point, start lot earlier. begin thinking college juniors, maybe couple extracurriculars. know like guys now. endless series hoops jump through, starting way back, maybe early junior high school. classes, standardized tests, extracurriculars school, extracurriculars outside school. test prep courses, admissions coaches, private tutors. sat yale college admissions committee couple years ago. first thing admissions officer would presenting case rest committee read call brag admissions lingo, list student extracurriculars. well, turned student six seven extracurriculars already trouble. students got addition perfect grades top scores usually saw around great kids trained world class hoop jumpers. goal set them, could achieve. test gave them, could pass flying colors. were, one put herself, excellent sheep. doubt would continue jump hoops ace tests harvard business school, michigan law school, johns hopkins medical school, goldman sachs, mckinsey consulting, whatever. approach would indeed take far life. would come back reunion partner white case, attending physician mass general, assistant secretary department state. exactly places like yale mean talk training leaders. educating people make big name world, people impressive titles, people university brag about. people make top. people climb greasy pole whatever hierarchy decide attach to. think something desperately wrong, even dangerous, idea. explain why, want spend minutes talking novel many may read, heart darkness. read it, probably seen apocalypse now, based it. marlow novel becomes captain willard, played martin sheen. kurtz novel becomes colonel kurtz, played marlon brando. novel vietnam colonialism belgian congo three generations vietnam. marlow, military officer merchant marine, civilian ship captain, sent company running country charter belgian crown sail deep upriver, congo river, retrieve manager ensconced jungle gone rogue, like colonel kurtz movie. everyone knows novel imperialism colonialism race relations darkness lies human heart, became clear certain point, taught novel, also bureaucracy called, minute ago, hierarchy. company, all, company, rules procedures ranks people power people scrambling power, like bureaucracy. like big law firm governmental department or, matter, university. like telling like bureaucracy join. word bureaucracy tends negative connotations, say way criticism, merely description, u.s. army bureaucracy one largest famously bureaucratic bureaucracies world. all, army gave us, among things, indispensable bureaucratic acronym snafu situation normal fucked fouled cleaned version. comes u.s. army world war ii. need know get commission, joining bureaucracy, however long stay army, operating within bureaucracy. different armed forces many ways every institution society, respect same. need know bureaucracies operate, kind behavior kind character reward, kind punish. so, back novel. marlow proceeds upriver stages, like captain willard movie. first gets outer station. kurtz inner station. central station, marlow spends time, get best look bureaucracy action kind people succeed it. marlow description manager central station, big boss commonplace complexion, features, manners, voice. middle size ordinary build. eyes, usual blue, perhaps remarkably cold. otherwise indefinable, faint expression lips, something stealthy smile smile remember it, explain. common trader, youth employed parts nothing more. obeyed, yet inspired neither love fear, even respect. inspired uneasiness. it! uneasiness. definite mistrust uneasiness nothing more. idea effective faculty be. genius organizing, initiative, order even. learning, intelligence. position come why? originated nothing, could keep routine going all. great. great little thing impossible tell could control man. never gave secret away. perhaps nothing within him. suspicion made one pause. note adjectives commonplace, ordinary, usual, common. nothing distinguished person. time read passage, realized perfect description kind person tends prosper bureaucratic environment. reason suddenly struck perfect description head bureaucracy part of, chairman academic department exact smile, like shark, exact ability make uneasy, like something wrong, ever going tell what. like manager sorry say this, like many people meet negotiate bureaucracy army matter whatever institution end giving talents army, whether microsoft world bank whatever head department genius organizing initiative even order, particular learning intelligence, distinguishing characteristics all. ability keep routine going, beyond that, marlow says, position come why? really great mystery bureaucracies. often best people stuck middle people running things leaders mediocrities? excellence usually gets greasy pole. gets talent maneuvering. kissing people you, kicking people you. pleasing teachers, pleasing superiors, picking powerful mentor riding coattails time stab back. jumping hoops. getting along going along. whatever people want be, finally comes seem that, like manager central station, nothing inside all. taking stupid risks like trying change things done question done. keeping routine going. tell forewarn you, promise meet people find environments rewarded conformity. tell decide different kind leader. tell one reason. thought things put pieces together kind students had, kind leadership trained for, kind leaders saw institution realized national problem. crisis leadership country, every institution. government. look happened american corporations recent decades, old dinosaurs like general motors twa u.s. steel fell apart. look happened wall street last couple years. finally know sensitive ground look happened first four years iraq war. stuck. fault enlisted ranks noncoms junior officers. fault senior leadership, whether military civilian both. winning, even changing direction. crisis leadership america overwhelming power wealth, earned earlier generations leaders, made complacent, long training leaders know keep routine going. answer questions, know ask them. fulfill goals, know set them. think get things done, whether worth first place. greatest technocrats world ever seen, people trained incredibly good one specific thing, interest anything beyond area exper tise. leaders. have, words, thinkers. people think themselves. people formulate new direction country, corporation college, army new way things, new way looking things. people, words, vision. people would say, great. tell kids yale, bother telling ones west point? people, think institution, assume last place anyone would want talk thinking creatively cultivating independence mind. army, all. accident word regiment root word regimentation. surely come must ultimate conformists. must people bought way things interest changing it. kind young people think world, ponder big issues, question authority. were, would gone amherst pomona. west point told think. know true. know it, otherwise would never invited talk you, even convinced spent days campus. quote colonel scott krawczyk, course director, lecture gave last year english earliest days country, model officers, built model citizenry reflective democratic ideals, different. possessed democratic spirit marked independent judgment, freedom measure action express disagreement, crucial responsibility never tolerate tyranny. now. anyone paying attention last years understands changing nature warfare means officers, including junior officers, required ever able think independently, creatively, flexibly. deploy whole range skills fluid complex situation. lieutenant colonels essentially functioning provincial governors iraq, captains find charge remote town somewhere afghanistan. people know follow orders execute routines. look successful, acclaimed, perhaps finest soldier generation, general david petraeus. one rare people rises bureaucracy right reasons. thinker. intellectual. fact, prospect magazine named public intellectual year world. ph.d. princeton, makes thinker ph.d. went princeton even taught west point. assure personal experience lot highly educated people know think all. no, makes thinker leader precisely able think things himself. can, confidence, courage, argue ideas even popular. even please superiors. courage physical courage, possess abundance, another kind courage, moral courage, courage stand believe. always easy him. path straight one. running mosul commander airborne developing strategy would later formulate counterinsurgency field manual ultimately apply throughout iraq, pissed lot people off. way ahead leadership baghdad washington, bureaucracies like sort thing. was, another two star, saying, implicitly loudly, leadership wrong way running war. indeed, rewarded first. put charge training iraqi army, considered blow career, dead end job. stuck guns, ultimately vindicated. ironically, one central elements counterinsurgency strategy precisely idea officers need think flexibly, creatively, independently. first half lecture idea true leadership means able think act convictions. learn that? learn think? let start learn think. study team researchers stanford came couple months ago. investigators wanted figure today college students able multitask much effectively adults. manage it, researchers asked? answer, discovered means expected don't. enhanced cognitive abilities investigators expected find, mental faculties enable people multitask effectively, simply there. words, people multitask effectively. really surprising finding people multitask, worse are, mental abilities, multitasking itself. one thing made study different others researchers test people cognitive functions multitasking. separated subject group high multitaskers low multitaskers used different set tests measure kinds cognitive abilities involved multitasking. found every case high multitaskers scored worse. worse distinguishing relevant irrelevant information ignoring latter. words, distractible. worse might call mental filing keeping information right conceptual boxes able retrieve quickly. words, minds disorganized. even worse thing defines multitasking switching tasks. multitasking, short, thinking, impairs ability think. thinking means concentrating one thing long enough develop idea it. learning people ideas, memorizing body information, however much may sometimes useful. developing ideas. short, thinking yourself. simply cannot bursts seconds time, constantly interrupted facebook messages twitter tweets, fiddling ipod, watching something youtube. find first thought never best thought. first thought always someone else always already heard subject, always conventional wisdom. concentrating, sticking question, patient, letting parts mind come play, arrive original idea. giving brain chance make associations, draw connections, take surprise. often even idea turn good. need time think it, too, make mistakes recognize them, make false starts correct them, outlast impulses, defeat desire declare job done move next thing. used students bragged fast wrote papers. would tell great german novelist thomas mann said writer someone writing difficult people. best writers write much slowly everyone else, better are, slower write. james joyce wrote ulysses, greatest novel century, rate hundred words day half length selection read earlier heart darkness seven years. eliot, one greatest poets country ever produced, wrote pages poetry course entire year career. half page month. form thought. best thinking slowing concentrating. third time used word, concentrating. concentrating, focusing. easily consider lecture concentration solitude. think word means. means gathering together single point rather letting dispersed everywhere cloud electronic social input. seems facebook twitter youtube think generational thing, radio magazines even newspapers, ultimately elaborate excuse run away yourself. avoid difficult troubling questions human throws way. right thing life? believe things taught child? words live words like duty, honor, country really mean? happy? members service academies unique position among college students, especially today. know going job graduate, even know employer going be. happens fulfill commitment army? unless know are, figure want rest life? unless able listen yourself, quiet voice inside tells really care about, really believe indeed, things might evolving pressure experiences. students everywhere else agonize questions, may now, postponing years. maybe agonizing now. everyone starts decides finish here. wonder cause shame. put demanding training anyone ask people age, committing work awesome responsibility mortal danger. rigor regimentation quite properly subject naturally tendency make lose touch passion brought first place. saw exactly kind thing yale. students robots. quite reverse. tensely idealistic, overwhelming weight practical responsibilities, hoops jump through, often made lose sight ideals were. first place. perfectly natural doubts, questions, even difficulties. question is, them? suppress them, distract them, pretend exist? confront directly, honestly, courageously? decide so, find answers dilemmas found twitter comedy central even new york times. found within without distractions, without peer pressure, solitude. let clear solitude always mean introspection. let back heart darkness. solitude concentration saves marlow amidst madness central station. gets finds steamboat supposed sail upriver giant hole it, one going help fix it. let run on, says, papier mephistopheles talking manager assistant, even worse, since still trying kiss way hierarchy, raving away him. think internet, ever present social buzz, chattering away let run on, papier mephistopheles seemed tried could poke forefinger him, would find nothing inside little loose dirt. great comfort turn chap battered, twisted, ruined, tin pot steamboat. expended enough hard work make love her. influential friend would served better. given chance come bit find could do. no, like work. rather laze think fine things done. like work man like work, chance find yourself. reality yourself, others man ever know. chance find yourself. phrase, finding yourself, acquired bad reputation. suggests aimless liberal arts college graduate english major, doubt, someone went place like amherst pomona spoiled get job spends time staring space. marlow, mariner, ship captain. practical, hardheaded person could find. say marlow creator, conrad, spent years merchant marine, eight ship captain, became writer, artist idea sailor. marlow believes need find much anyone does, way it, says, work, solitary work. concentration. climbing steamboat spending uninterrupted hours hammering shape. building house, cooking meal, even writing college paper, really put it. reality yourself, others. thinking means finding yourself, finding reality. problem facebook twitter even new york times. expose things, especially constant way people older people well younger people continuously bombarding stream people thoughts. marinating conventional wisdom. people reality others, yourself. creating cacophony impossible hear voice, whether thinking anything else. emerson meant said inspire lead race must defended travelling souls men, living, breathing, reading, writing daily, time worn yoke opinions. notice uses word lead. leadership means finding new direction, simply putting front herd heading toward cliff. reading books better reading tweets wall posts? well, sometimes isn't. sometimes, need put book, think reading, think reading. book two advantages tweet. first, person wrote thought lot carefully. book result solitude, attempt think himself. second, books old. disadvantage precisely makes valuable. stand conventional wisdom today simply today. even merely reflect conventional wisdom day, say something different hear time. great books, ones find syllabus, ones people continued read, reflect conventional wisdom day. say things permanent power disrupt habits thought. revolutionary time, still revolutionary today. say revolutionary, deliberately evoking american revolution, result precisely kind independent thinking. without solitude solitude adams jefferson hamilton madison thomas paine would america. solitude mean introspection, mean concentration focused work, mean sustained reading. help know better. one thing going include form solitude, seem counterintuitive friendship. course friendship opposite solitude means people. talking one kind friendship particular, deep friendship intimate conversation. long, uninterrupted talk one person. skyping three people texting two others time hang friend room listening music studying. emerson meant said soul environs friends, may enter grander self acquaintance solitude. introspection means talking yourself, one best ways talking talking another person. one person trust, one person unfold soul. one person feel safe enough allow acknowledge things acknowledge things otherwise can't. doubts supposed have, questions supposed ask. feelings opinions would get laughed group reprimanded authorities. call thinking loud, discovering believe course articulating it. takes much time much patience solitude strict sense. new electronic world disrupted violently. instead one two true friends sit talk three hours time, friends never actually talk instead bounce one line messages hundred times day. friendship, distraction. know none easy you. even threw away cell phones unplugged computers, rigors training keep busy make solitude, forms, anything less difficult find. highest reason need try precisely job training demand you. probably heard hazing scandal u.s. naval base bahrain news recently. terrible, abusive stuff involved entire unit orchestrated, allegedly, head unit, senior noncommissioned officer. going confronted situation like going unit? courage right? even know right thing is? easy read code conduct, easy put practice, especially risk losing loyalty people serving you, trust peer officers, approval superiors. commanding officer, see superiors condoning something think wrong? find strength wisdom challenge unwise order question wrongheaded policy? first time write letter mother slain soldier? find words comfort empty formulas? truly formidable dilemmas, people ever face lives, let alone time start preparing now. way thinking issues morality, mortality, honor strength deal arise. waiting confront practice would like waiting first firefight learn shoot weapon. situation upon you, late. prepar</t>
-  </si>
-  <si>
-    <t>want talk tonight strictly speaking character physical laws. one might imagine least one talking nature, one talking character physical laws. want talk nature, rather stand relative nature now. want tell think know guess one goes guessing it. someone suggested would ideal if, went along, would slowly explain guess laws create new law right went along. know whether able that. first, want tell present situation is, know physics. think told everything already, lectures, told great principles known. principles must principles something. principles spoke of, conservation energy energy something quantum mechanical laws quantum mechanical principles something. principles added together still tell content nature, is, talking about. tell little bit stuff, principles supposed working. first matter, remarkably enough, matter same. matter stars made known matter earth, character light emitted stars give kind fingerprint, tell kind atoms stars. earth, kind atoms appear living creatures non living creatures. frogs made goop different arrangement rocks. makes problem simpler. nothing atoms, same, everywhere. atoms seem made general constitution. nucleus, around nucleus electrons. begin list parts world think know about. one electrons, particles outside atoms. nuclei. understood today made two things, called neutrons protons. two particles. incidentally, see stars see atoms emit light. light described particles, themselves, called photons. beginning, spoke gravitation. quantum theory right, gravitation kind waves, behave like particles too. call gravitons. believe that, read gravity here, same. finally, mention called beta decay, neutron disintegrate proton electron neutrino alien anti neutrino another particle, here, neutrino. addition particles listing, course anti particles. quick statement takes care doubling number particles immediately. complications. particles listed here, low energy phenomena, fact ordinary phenomena happen everywhere universe far know, exception high energy particle something, laboratory able peculiar things. leave special cases, ordinary phenomena presumably explained action emotions kinds things. example, life supposedly made, understood mean understandable principle action movements atoms. atoms made neutrons, protons, electrons. must immediately say say, understand principle, mean think would, could figure everything out, find nothing new physics discovered, order understand phenomena light. or, instance, fact stars emit energy solar energy stellar energy presumably also understood terms nuclear reactions among particles on. kinds details way atoms behave accurately described kind model, least far know present. fact, say range phenomena today, far know phenomena sure cannot explained way, even deep mystery about. always possible. was, instance, phenomenon called super conductivity still phenomenon metals conduct electricity without resistance low temperatures. first obvious consequence known laws particles. turns thought carefully enough. seen, fact, consequence known laws. phenomena, extrasensory perception, cannot explained known knowledge physics here. interesting, however, phenomena well established, cannot guarantee there. could demonstrated, course would prove physics incomplete. therefore, extremely interesting physicists, whether right wrong. many, many experiments exist show work. goes astrological influences. true stars could affect day good dentist, america kind astrology would wrong. physics theory would wrong, mechanism understandable principle things would make go. reason skepticism among scientists, regard ideas. hand, case hypnotism, first looked like also would impossible, described incompletely. known better, realized absolutely impossible hypnosis could occur normal physiological unknown processes. require special, new kind course. now, today although knowledge theory goes outside nucleus atom seems precise complete enough, sense given enough time, calculate anything accurately measured, turns forces neutrons protons, constitute nucleus, completely known understood well. mean is, cannot today, today understand forces neutrons protons extent wanted to, give enough time computers, could calculate exactly energy levels carbon something like that. know enough that. although corresponding thing energy levels outside electrons atom, cannot nuclei. nuclear forces still understood well. order find that, experimenters gone on. study phenomena high energy, hit neutrons protons together high energy produced peculiar things. studying peculiar things, hope understand better forces neutrons protons. well, pandora box opened experiments, although really wanted get better idea forces neutrons protons. hit things together hard, discover particles world. matter fact, column plus four dozen particles dredged attempt understand these. four dozen put column, relevant neutron proton problem. interact much neutrons protons. got something force neutrons protons. got little bit much. addition that, dredge digging mud here, picked couple pieces wanted irrelevant problem nuclear forces. one called meson, muon. neutrino, goes it. two kinds neutrinos, one goes electron, one goes meson. incidentally, amazingly, laws muon neutrino known. far tell experimentally, law behave precisely electron neutrino, except mass meson times heavier electron. difference known objects. rather curious. say anymore, nobody knows anymore. four dozen particles frightening array plus anti particles frightening array things. turns out, various names, mesons, pions, kaons, lambda, sigma four dozen particles, going lot names. turns particles come families, helps little bit. actually, called particles last short time debates whether fact possible define existence whether particle not. enter debate. order illustrate family idea, take two part cases neutron proton. neutron proton mass, within so. one times heavy electron roughly, remember numbers. thing remarkable this. nuclear forces, strong forces inside nucleus, force pair protons two protons proton neutron neutron neutron. words, strong nuclear forces, tell proton neutron. symmetry law neutrons may substituted protons, without changing anything, provided talking strong forces. talking electrical forces, no. change neutron proton, terrible difference. proton carries electrical charge, neutron doesn't. electric measurement, immediately see difference proton neutron. symmetry, replace neutrons protons, call approximate symmetry. right strong interactions nuclear forces. right deep sense nature, work electricity. called partial symmetry. struggle partial symmetries. families extended. turns substitution neutron proton extended substitution wider range particles. accuracy still lower. see, neutrons always substituted protons approximate. true electricity. wider substitutions discovered legitimate still poor, poor symmetry, accurate. helped gather particles families, thus locate places particles missing help discover new ones. kind game, roughly guessing family relations on, illustrative kind preliminary sparring one nature, really discovering deep fundamental law. get deeper discoveries, examples important previous history science. instance, mendeleev discovery periodic table elements analogous game. first step, complete description reason periodic table came much later, atomic theory. way, organization knowledge nuclear levels characteristics made maria mayer jensen, call shell model nuclei years ago. analogous game, reduction complexity made approximate guesses. way stands today. addition things, principles talking before. principle relativity, things must behave quantum mechanically. combining relativity conservation laws must local. put principles together, discover many. inconsistent other. seems if, add quantum mechanics plus relativity plus proposition everything local plus number tacit assumptions really find out, prejudiced, see are, hard say are. adding together get inconsistency, really get infinity various things calculate them. well, get infinity, ever agree agrees nature? turns possible sweep infinities rug certain crude skill. temporarily, able keep calculating. fact matter principles told till now, put together, plus tacit assumptions know, gives trouble. cannot mutually consistent, nice problem. example tacit assumptions know significance is, propositions following. calculate chance every possibility probably happen, happen add one. add alternatives, get probability. seems reasonable, reasonable things trouble always is. another proposition energy something must always positive, negative. another proposition probably added in, order get inconsistency, called causality, something like idea effects cannot proceed causes. actually, one made model, disregard proposition probability, disregard causality, also consistent quantum mechanics, relativity, locality, on. really know exactly assuming gives difficulty producing infinities. ok, present situation. going discuss would look new law. general, look new law following process. first, guess it. then, compute well, laugh, really true. compute consequences guess, see what, right, law guessed right, see would imply. compare computation results nature. say, compare experiment experience. compare directly observation, see works. disagrees experiment, wrong. simple statement key science. make difference beautiful guess is, make difference smart are, made guess, name is. disagrees experiment, wrong. it. true, however, one check little bit, make sure wrong. someone experiment may reported incorrectly. may feature experiment noticed, like kind dirt on. obviously check. furthermore, man computed consequences may one made guesses, may made mistake analysis. obvious remarks. say, disagrees experiment, wrong, mean experiment checked, calculations checked, thing rubbed back forth times make sure consequences logical consequences guess, that, fact, disagrees carefully checked experiment. give somewhat wrong impression science. means keep guessing possibilities comparing experiments. put experiment little bit weak position. turns experimenters certain individual character. like experiments, even nobody guessed yet. often true experiments region people know theorist know anything, nobody guessed yet instance, may guessed laws, know whether really work high energy good guess work high energy. experimenters say, let try higher energy. therefore experiment produces trouble every while. produces discovery one things thought wrong, experiment produce unexpected results. starts guessing again. instance, unexpected result meson neutrino, guessed anybody, whatever, discovered. still nobody method guessing, natural thing. see, course, method, disprove definite theory. definite theory real guess, really compute consequences, could compared experiment, principle, get rid theory. always prove definite theory wrong. notice, however, never prove right. suppose invent good guess, calculate consequences, discover every consequence calculate agrees experiment. theory right? no, simply proved wrong. future, could wider range experiments, compute wider range consequences. may discover, then, thing wrong. laws like newton laws motion planets lasts long time. guessed law gravitation, tackling kinds consequences solar system on, compared experiment, took several years slight error motion mercury developed. time, theory failed proved wrong could taken temporarily right. never proved right, tomorrow experiment may succeed proving thought right, wrong. never right. sure wrong. however, rather remarkable last long, mean idea last long. incidentally, people, one ways stopping science would experiments region know laws. experimenters search diligently greatest effort exactly places seems likely prove theories wrong. words, trying prove wrong quickly possible. way find workers progress. example, today among ordinary low energy phenomena, know look trouble. think everything right. particular big program looking trouble nuclear reactions superconductivity. must say, concentrating discovering fundamental laws. whole range physics, interesting understanding another level phenomena like super conductivity nuclear reactions. talking discovering trouble, something wrong fundamental law. nobody knows look there, therefore experiments today field, finding new law high energy. must also point cannot prove vague theory wrong. guess make poorly expressed rather vague, method used figuring consequences rather vague, sure, say think everything due moogles, moogles that, less. sort explain works. say theory good, proved wrong. process computing consequences indefinite, little skill, experimental result made look like expected consequence. probably familiar fields. example, hates mother. reason is, course, caress love enough child. actually, investigate, find matter fact, love much. everything right. well, then, overindulgent young. vague theory, possible get either result. wait, cure one following. would possible say possible state ahead time much love enough, much love overindulgent exactly, would perfectly legitimate theory, could make tests. usually said pointed out, much love on, oh, dealing psychological matters, things defined precisely. yes, claim know anything it. now, examples, horrified hear, physics exactly kind. approximate symmetries. works something like this. approximate symmetry, suppose perfect. calculate consequences, easy suppose perfect. compare experiment, course agree. symmetry supposed expect approximate. agreement pretty good, say, nice. agreement poor, say, well particular thing must especially sensitive failure symmetry. laugh, make progress way. beginning, subject first new, particles new us, jockeying around, feeling way guessing result. beginning science. thing true psychology symmetry propositions physics. laugh hard, necessary beginning careful. easy fall deep end kind vague theory. hard prove wrong. takes certain skill experience walk plank game. process guessing, computing consequences, comparing experiment, get stuck various stages. example, may guess stage get stuck. ideas, guess idea. may get computing stage stuck. example, yukawa guessed idea nuclear forces nobody could compute consequences, mathematics difficult. therefore, could compare experiments successfully. theory remained long time, discovered junk. junk contemplated yukawa, therefore, undoubtedly simple, least, way yukawa it. another place get stuck experimental end. example, quantum theory gravitation going slowly, all, use. experiments never involve quantum mechanics gravitation time, gravity force weak, compared electrical forces. want concentrate theoretical physicist, delighted end problem make guesses. strictly, said before, importance guess comes from. important agree experiment definite possible. say simple. set machine, great computing machine, random wheel it, makes succession guesses. time guesses hypothesis nature work, computes immediately consequences makes comparison list experimental results end. words, guessing dumb man job. actually, quite opposite. try explain why. first problem start. say, start known principles. principles known inconsistent other. something removed. get lot letters people. always getting letters people insisting ought make holes guesses. make hole make room new guess. somebody says, know, people always say space continuous. know get small enough dimension really enough points between, lot dots separated little distances? say, know, quantum mechanical amplitudes told about, complicated absurd. makes think right? maybe right. get lot letters content. must say remarks perfectly obvious perfectly clear anybody working problem. good point out. problem might wrong, might substituted precisely place it. say anything precise, example case continuous space, suppose precise proposition space really consists series dots only. space mean anything. dots cubic array. prove immediately wrong, work. see, problem change say something might wrong replace something. easy. soon real, definite idea substituted, becomes almost immediately apparent work. secondly, infinite number possibilities simple types. something like this. sitting, working hard. work long time, trying open safe. joe comes along, know anything anything, except trying open safe. says, know, try combination busy, trying lot things. maybe already tried maybe know middle number already maybe know matter fact five digit combination. letters good. please send letters, trying tell thing going work. read make sure already thought that. takes long answer them, usually class try usual, nature imagination far surpasses own. seen theories, really quite subtle deep. get subtle deep guess easy. one must really clever guess. possible blindly, machine. wanted discuss art guessing nature laws. art. done? one way, might think, well, look history. guys it? look history. let first start newton. situation incomplete knowledge. able get laws, putting together ideas, relatively close experiment. great distance observations test. first, work good. next guy something well, another man something great maxwell, obtained laws electricity magnetism. this. put together laws electricity, due faraday people came him. looked them, realized mutually inconsistent. mathematically inconsistent. order straighten out, add one term equation. way, inventing model idle wheels gears space. found new law was. nobody paid much attention, believe idle wheels. believe idle wheels today. equations obtained correct. logic may wrong, answer right. case relativity, discovery relativity completely different. accumulation paradoxes. known laws gave inconsistent results. new kind thinking, thinking terms discussing possible symmetries laws. especially difficult, first time realized long something like newton laws could right still, ultimately, wrong. second, ordinary ideas time space seems instinctive could wrong. quantum mechanics discovered two independent ways, lesson. there, again, even so, enormous number paradoxes discovered experimentally. things absolutely could explained way known. knowledge incomplete, knowledge complete. prediction happen, didn't. two different roots one schrodinger, guessed equations. another heisenberg, argued must analyze measurable. two different philosophical methods reduced discovery end. recently, discovery laws interaction, still partly known, quite somewhat different situation. again, time, case incomplete knowledge. equation guessed. special difficulty time experiments wrong. experiments wrong. guess right answer? calculate results disagrees experiment, courage say, experiments must wrong. explain courage comes minute. today, paradoxes, maybe. infinity comes put laws together. rug sweeping people clever one sometimes thinks serious paradox. fact particles tell anything, except knowledge incomplete. sure history repeat physics, see list. reason this. scheme like think symmetry laws, put equations mathematical form, schemes, guess equations, known everybody now. tried time. place get stuck that, try right away. try looking symmetries, try things tried before. stuck. must another way next time. time get log jam many problems, methods using like ones used before. try right away. new scheme, new discovery going made completely different way. history help much. would like talk little bit heisenberg idea. talk measure, lot people talk without understanding well. say physics talk measure. mean this, interpret sense, constructs inventions make talk about, must kind consequences compute must comparable experiment. is, compute consequence like moo must three goos. nobody knows moo goo is, good. consequences compared experiment, necessary. necessary moos goos appear guess. perfectly right. much junk guess want, provided compare experiment. fully appreciated, usually said, example, people usually complain unwarranted extension ideas particles paths forth, atomic realm. all. nothing unwarranted extens</t>
-  </si>
-  <si>
-    <t>never really expected find giving advice people graduating establishment higher education. never graduated establishment. never even started one. escaped school soon could, prospect four years enforced learning would become writer wanted stifling. got world, wrote, became better writer wrote, wrote more, nobody ever seemed mind making went along, read wrote paid it, didn't, often commissioned write something else them. left healthy respect fondness higher education friends family, attended universities, cured long ago. looking back, remarkable ride. sure call career, career implies kind career plan, never did. nearest thing list made everything wanted write adult novel, children book, comic, movie, record audiobook, write episode doctor on. career. next thing list. thought would tell everything wish would known starting out, things that, looking back it, suppose know. would also give best piece advice would ever got, completely failed follow. first start career arts idea doing. great. people know know rules, know possible impossible. not. not. rules possible impossible arts made people tested bounds possible going beyond them. can. know impossible easier do. nobody done before, made rules stop anyone again, yet. secondly, idea want make, put do, that. much harder sounds and, sometimes end, much easier might imagine. normally, things get place want be. wanted write comics novels stories films, became journalist, journalists allowed ask questions, simply find world works, besides, things needed write write well, paid learn write economically, crisply, sometimes adverse conditions, time. sometimes way hope clear cut, sometimes almost impossible decide whether correct thing, balance goals hopes feeding yourself, paying debts, finding work, settling get. something worked imagining wanted author, primarily fiction, making good books, making good comics supporting words mountain. distant mountain. goal. knew long kept walking towards mountain would right. truly sure do, could stop, think whether taking towards away mountain. said editorial jobs magazines, proper jobs would paid proper money knew that, attractive though were, would walking away mountain. job offers come along earlier might taken them, still would closer mountain time. learned write writing. tended anything long felt like adventure, stop felt like work, meant life feel like work. thirdly, start off, deal problems failure. need thickskinned, learn every project survive. freelance life, life arts, sometimes like putting messages bottles, desert island, hoping someone find one bottles open read it, put something bottle wash way back appreciation, commission, money, love. accept may put hundred things every bottle winds coming back. problems failure problems discouragement, hopelessness, hunger. want everything happen want now, things wrong. first book piece journalism done money, already bought electric typewriter advance bestseller. paid lot money. publisher gone involuntary liquidation first print run selling second printing, royalties could paid, would done. shrugged, still electric typewriter enough money pay rent couple months, decided would best future write books money. get money, anything. work proud of, get money, least would work. every again, forget rule, whenever do, universe kicks hard reminds me. know issue anybody me, true nothing reason money ever worth it, except bitter experience. usually wind getting money, either. things excited, wanted see exist reality never let down, never regretted time spent them. problems failure hard. problems success harder, nobody warns them. first problem kind even limited success unshakable conviction getting away something, moment discover you. imposter syndrome, something wife amanda christened fraud police. case, convinced would knock door, man clipboard know carried clipboard, head, would there, tell over, caught me, would get real job, one consist making things writing down, reading books wanted read. would away quietly get kind job make things more. problems success. real, luck experience them. point stop saying yes everything, bottles threw ocean coming back, learn say no. watched peers, friends, ones older watch miserable would listen telling could envisage world always wanted more, earn certain amount every month keep were. could things mattered, really wanted seemed big tragedy problem failure. that, biggest problem success world conspires stop thing do, successful. day looked realised become someone professionally replied email, wrote hobby. started answering fewer emails, relieved find writing much more. fourthly, hope make mistakes. making mistakes, means something. mistakes useful. misspelled caroline, letter, transposing thought, coraline looks like real name remember whatever discipline in, whether musician photographer, fine artist cartoonist, writer, dancer, designer, whatever one thing unique. ability make art. me, many people known, lifesaver. ultimate lifesaver. gets good times gets ones. life sometimes hard. things wrong, life love business friendship health ways life wrong. things get tough, do. make good art. serious. husband runs politician? make good art. leg crushed eaten mutated boa constrictor? make good art. irs trail? make good art. cat exploded? make good art. somebody internet thinks stupid evil done before? make good art. probably things work somehow, eventually time take sting away, matter. best. make good art. make good days too. fifthly, it, make art. stuff do. urge, starting out, copy. bad thing. find voices sounded like lot people. one thing nobody else you. voice, mind, story, vision. write draw build play dance live can. moment feel that, possibly, walking street naked, exposing much heart mind exists inside, showing much yourself. moment may starting get right. things done worked best things least certain about, stories sure would either work, likely kinds embarrassing failures people would gather together talk end time. always common looking back them, people explain inevitable successes. them, idea. still don't. would fun making something knew going work? sometimes things really work. stories mine never reprinted. never even left house. learned much things worked. sixthly. pass secret freelancer knowledge. secret knowledge always good. useful anyone ever plans create art people, enter freelance world kind. learned comics, applies fields too. people get hired because, somehow, get hired. case something days would easy check, would get trouble, started out, pre internet days, seemed like sensible career strategy asked editors would worked for, lied. listed handful magazines sounded likely, sounded confident, got jobs. made point honour written something magazines would listed get first job, actually lied, would chronologically challenged get work however get work. people keep working, freelance world, today world freelance, work good, easy get along with, deliver work time. even need three. two three fine. people tolerate unpleasant work good deliver time. forgive lateness work good, like you. good others time always pleasure hear you. agreed give address, started trying think best advice would given years was. came stephen king twenty years ago, height success sandman. writing comic people loved taking seriously. king liked sandman novel terry pratchett, good omens, saw madness, long signing lines, that, advice really great. enjoy it. didn't. best advice got ignored.instead worried it. worried next deadline, next idea, next story. moment next fourteen fifteen years writing something head, wondering it. stop look around go, really fun. wish would enjoyed more. amazing ride. parts ride missed, worried things going wrong, came next, enjoy bit on. hardest lesson me, think let enjoy ride, ride takes remarkable unexpected places. here, platform, today, one places. enjoying immensely. today graduates wish luck. luck useful. often discover harder work, wisely work, luckier get. luck, helps. transitional world right now, kind artistic field, nature distribution changing, models creators got work world, got keep roof heads buy sandwiches that, changing. talked people top food chain publishing, bookselling, areas, nobody knows landscape look like two years now, let alone decade away. distribution channels people built last century flux print, visual artists, musicians, creative people kinds. is, one hand, intimidating, other, immensely liberating. rules, assumptions, supposed get work seen, then, breaking down. gatekeepers leaving gates. creative need get work seen. youtube web whatever comes youtube web give people watching television ever did. old rules crumbling nobody knows new rules are. make rules. someone asked recently something thought going difficult, case recording audio book, suggested pretend someone could it. pretend it, pretend someone could. put notice effect studio wall, said helped. wise, world needs wisdom, cannot wise, pretend someone wise, behave like would. go, make interesting mistakes, make amazing mistakes, make glorious fantastic mistakes. break rules. leave world interesting here. make good art.</t>
-  </si>
-  <si>
-    <t>going talk self renewal. one fundamental tasks renewal organizations serve, usually includes persuading top officers accomplish certain amount self renewal. help think others primary mission morning. want help think yourselves. take mission seriously, written say want every sentence hit target. know good deal kind work know demanding is. going talk special problems kind career going talk basic problems life cycle surely hit ready them. wrote book called self renewal deals decay renewal societies, organizations individuals. explored question civilizations die sometimes renew themselves, puzzle men women seed others remain vital lives. latter question shall deal time. know individual going seed. person seated right may fairly serious danger. long ago, read splendid article barnacles. want give wrong impression focus reading interests. sometimes days without reading barnacles, much less remembering read. article unforgettable opening paragraph. barnacle author explained confronted existential decision going live. decides.. spends rest life head cemented rock.. end quote. good many us, comes that. seen men women, even ones fortunate circumstances responsible positions seem run steam midcareer. one must compassionate assessing reasons. perhaps life presented tougher problems could solve. happens. perhaps something inflicted major wound confidence self esteem. perhaps pulled hidden resentments grievances grow adult life, sometimes luxuriantly that, like tangled vines, immobilize victim. known people feeling secretly defeated, maybe somewhat sour cynical, perhaps vaguely dispirited. maybe ran hard long somewhere along line forgot running for. talking people fail get top achievement. get top, point life anyway. talking people matter busy seem stopped learning growing. many going motions. deride that. life hard. keep keeping sometimes act courage. worry men women functioning far level potential. face fact men women world work stale know, bored would care admit. boredom secret ailment large scale organizations. someone said day bored busy? said let count ways. logan pearsall smith said boredom rise level mystical experience, true know busy middle level executives among great mystics time. write danger complacency, growing rigidity, imprisonment comfortable habits opinions. look around you. many people know well people even younger already trapped fixed attitudes habits. famous french writer said people whose clocks stop certain point lives. could without trouble name half dozen national figures resident washington, d.c., would recognize, could tell roughly year clock stopped. still deal periodically. watched lot mid career people, yogi berra says observe lot watching. concluded people enjoy learning growing. many dearly troubled self assessments mid career. self assessments great problem age. young moving up. drama rise enough. reach middle age, energies used be, begin wonder added begin look figure carpet life. simple advice begin process. hard yourself. look ahead. someone said life art drawing without eraser. imagine story over. life lot chapters. conscious danger going seed, resort countervailing measures. almost age. need run like unwound clock. clock unwound, wind again. stay alive every sense word fail physically. know pretty successful people feel possible them, life trapped them. really know that. life takes unexpected turns. said book, self renewal, build prisons serve jail keepers. longer completely agree that. still think jailkeepers, concluded parents society large hand building prisons. create roles self images hold captive long time. individual intent self renewal deal ghosts past memory earlier failures, remnants childhood dramas rebellions, accumulated grievances resentments long outlived cause. sometimes people cling ghosts something almost approaching pleasure hampering effect growth inescapable. jim whitaker, climbed mount everest, said never conquer mountain, conquer yourself. see human lives, believe business growing much longer drawn pretend. achieve 's, even well. parents teenagers, say sorry that. myth learning young people. proverb says, learn know counts. middle years great, great learning years. even years past middle years. took new job birthday still learning. learn life. learn failures. learn successes, hit spell trouble, ask trying teach me? lessons always happy ones, keep coming. bad idea pause occasionally inward look. midlife, accomplished fugitives ourselves. learn jobs, friends families. learn accepting commitments life, playing roles life hands necessarily roles would chosen learn growing older, suffering, loving, bearing things change, taking risks. things learn maturity simple things acquiring information skills. learn engage self destructive behavior. leant burn energy anxiety. discover manage tensions, any, do. learn self pity resentment among toxic drugs. find world loves talent, pays character. come understand people neither you, thinking themselves. learn matter hard try please, people world going love you, lesson first troubling really quite relaxing. things hard learn early life, rule picked mileage dents fenders understand. norman douglas said things learn others. pass fire. come terms yourself. finally grasp behrman meant said end every road meet yourself. may get rid hang ups, learn control point function productively hurt others. learn arts mutual dependence, meeting needs loved ones letting need them. even unaffected quality often takes years acquire. achieve simplicity lies beyond sophistication. come understand impact others. interesting even first year life learn impact variety others you, late middle age many people imperfect understanding impact others. hostile person keeps asking people hard get along with? measure create environment. may yet grasp power truth change life. course failures part story too. everyone fails, joe louis said everyone figure get beat time. question fail pick move ahead? one little question collaborate defeat? lot people do. learn to. one enemies sound, lifelong motivation rather childish conception kind concrete, describable goal toward efforts drive us. want believe point feel arrived. want scoring system tells piled enough points count successful. scramble sweat climb reach thought goal. get top stand look around chances feel little empty. maybe little empty. wonder whether climbed wrong mountain. life mountain summit, suppose riddle answer. game final score. life endless unfolding, wish be, endless process self discovery, endless unpredictable dialogue potentialities life situations find ourselves. potentialities mean intellectual gifts full range one capacities learning, sensing, wondering, understanding, loving aspiring. perhaps imagine age even explored potentialities pretty fully. kid yourself! thing understand capacities actually develop full come result interplay life challenges challenges keep changing. life pulls things you. something know may may know yourself. within resources energy ever tapped, talent ever exploited, strength ever tested, give ever given. know gifts left undeveloped. would believe gifts possibilities even know about? true. beginning recognize even every advantage opportunity unconsciously put ceiling growth, underestimate potentialities hide risk growth involves. discussed renewal length, possible talk renewal without touching subject motivation. someone defined horse sense good judgment horses prevents betting people. bet people place bets often high motivation quality except judgment. perfection techniques substitute lift spirit heightened performance comes strong motivation, world moved highly motivated people, enthusiasts, men women want something much believe much. talking anything narrow ambition. all, ambition eventually wears probably should. keep zest day die. may offer simple maxim, interesting, everyone wants interesting vitalizing thing interested. keep sense curiosity. discover new things. care. risk failure. reach out. nature one personal commitments powerful element renewal, let say word subject. lived house could look window worked desk observe small herd cattle browsing neighboring field. struck thought must occurred earliest herdsmen tens thousands years ago. never get impression cow nervous breakdown. puzzling meaning life. humans never mastered kind complacency. worriers puzzlers, want meaning lives. speaking idealistically stating plainly observable fact men women. rare person life like homeless alley cat, living day day, taking pleasures dying unnoticed. say known alley cats. norm. way built. robert louis stevenson said, old young, last cruise. want mean something. many life vale tears one free pain. designed cope live context meaning. given powerful help, draw deep springs human spirit, see suffering framework human suffering, accept gifts life thanks endure life indignities dignity. stable periods history, meaning supplied context coherent communities traditionally prescribed patterns culture. today count heritage. build meaning life, build commitments whether religion, ethical order conceive it, life work, loved ones, fellow humans. young people run around searching identity, handed free transient, rootless, pluralistic society. identity committed to. may mean better job whatever doing. men women make world better kind people kind commitment. gift kindness courage loyalty integrity. matters little whether behind wheel truck running country store bringing family. must pause say word statement men women make world better kind people are. first wrote sentence years ago widely quoted. one day looking mail order gift catalogue included small ornamental bronze plaques brief sayings them, one sayings one read you, name author. well overcome idea sentence mine cast bronze ordered it, could figure world it. finally sent friend. tend think youth active middle years years commitment. get little older, told earned right think yourself. deadly prescription! people every age need commitments beyond self, need meaning commitments provide. self preoccupation prison, every self absorbed person finally knows. commitments larger purposes get prison. another significant ingredient motivation one attitude toward future. optimism unfashionable today, particularly among intellectuals. everyone makes fun it. someone said pessimists got way financing optimists. pessimistic advise be. fellow said, would pessimist would never work. tell renewal, tough minded optimism best. future shaped people really believe future. men women vitality always prepared bet futures, even lives, ventures unknown outcome. looked leaped, would still crouched caves sketching animal pictures wall, say tough minded optimism. high hopes dashed first failure precisely need. believe ourselves, must suppose path easy, tough. life painful, rain falls just, mr. churchill pessimist said nothing offer, blood, toil, tears sweat. great deal offer, good leader saying going easy, also saying something great leaders say constantly failure simply reason strengthen resolve. cannot dream utopia arrangements ideal everyone flawless. life tumultuous endless losing regaining balance, continuous struggle, never assured victory. nothing ever finally safe. every important battle fought fought. need develop resilient, indomitable morale enables face realities still strive every ounce energy prevail. may wonder struggle endless uncertain outcome humans bear. history suggests human spirit well fitted cope kind world. remember mentioned earlier myth learning young people. want give examples, piece wrote reader digest long ago, gave seemed particularly interesting true example renewal. man question years old. adult life losing struggle debt misfortune. military service received battlefield injury denied use left arm. seized held captivity five years. later held two government jobs, succeeding neither. prison first time. prison, decided write book, driven heaven knows motive boredom, hope gain, emotional release, creative impulse, say? book turned one greatest ever written, book enthralled world ever years. prisoner cervantes book quixote. another example pope john xxiii, serious man found lot laugh about. son peasant farmers, said italy three roads poverty drinking, gambling fanning. family chose slowest three. someone asked many people worked vatican said oh, half. years old elected pope. lifetime bureaucracy, spark spirit imagination remained undimmed, reached top launched vigorous renewal church known century. still another example winston churchill. age correspondent boer war became prisoner war dramatic escape made national hero. elected parliament performed brilliantly, held high cabinet posts distinction became first lord admiralty. discredited, unjustly, believe, dardanelles expedition defeat gallipoli lost admiralty post. followed years ups downs. often verdict brilliant erratic steady, dependable. blame. friend described man jaywalked life. moment flowering came. someone said right late bloomer miss flower show. churchill miss it. well, give examples. given hope clear door opportunity really close long reasonably healthy. mean opportunity high status, opportunity grow enrich life every dimension. know ahead you. remember words bronze plaque men women make world better kind people are. kind person would worth years living learning. many years ago concluded speech paragraph meaning life. speech reprinted years, years later final paragraph came back rather dramatic way, really heartbreaking way. man wrote colorado saying year old daughter killed auto accident weeks carrying billfold paragraph speech mine. said grateful paragraph fact kept close told something might otherwise known values concerns. imagine came across paragraph, meaning something stumble across, like answer riddle prize treasure hunt. meaning something build life. build past, affections loyalties, experience humankind passed you, talent understanding, things believe in, things people love, values willing sacrifice something. ingredients there. one put together unique pattern life. let life dignity meaning you. does, particular balance success failure less account.</t>
-  </si>
-  <si>
-    <t>writer. writing books profession that, course. also great lifelong love fascination. expect ever going change. but, said, something kind peculiar happened recently life career, caused recalibrate whole relationship work. peculiar thing recently wrote book, memoir called eat, pray, love which, decidedly unlike previous books, went world reason, became big, mega sensation, international bestseller thing. result everywhere now, people treat like doomed. seriously doomed, doomed! like, come now, worried, say, afraid never going able top that? afraid going keep writing whole life never going create book anybody world cares all, ever again? reassuring, know. would worse, except happen remember years ago, teenager, first started telling people wanted writer, met sort fear based reaction. people would say, afraid never going success? afraid humiliation rejection kill you? afraid going work whole life craft nothing ever going come going die scrap heap broken dreams mouth filled bitter ash failure? answer short answer questions is, yes. yes, afraid things. always been. afraid many, many things besides people even guess at, like seaweed things scary. but, comes writing, thing sort thinking lately, wondering lately, why? know, rational? logical anybody expected afraid work feel put earth do? specifically creative ventures seems make really nervous mental health way careers kind do, know? like dad, example, chemical engineer recall years chemical engineering anybody asking afraid chemical engineer, know? chemical engineering block, john, going? come like that, know? fair, chemical engineers group really earned reputation centuries alcoholic manic depressives. writers, kind reputation, writers, creative people across genres, seems, reputation enormously mentally unstable. look grim death count century alone, really magnificent creative minds died young often hands, know? even ones literally commit suicide seem really undone gifts, know. norman mailer, died, last interview, said, every one books killed little more. extraordinary statement make life work. even blink hear somebody say this, heard kind stuff long somehow completely internalized accepted collectively notion creativity suffering somehow inherently linked artistry, end, always ultimately lead anguish. question want ask everybody today guys cool idea? comfortable that? look even inch away and, know comfortable assumption. think odious. also think dangerous, want see perpetuated next century. think better encourage great creative minds live. definitely know that, case situation would dangerous start sort leaking dark path assumption, particularly given circumstance right career. pretty young, years old. still maybe another four decades work left me. exceedingly likely anything write point forward going judged world work came freakish success last book, right? put bluntly, sort friends exceedingly likely greatest success behind me. jesus, thought! kind thought could lead person start drinking gin nine o'clock morning, want there. would prefer keep work love. so, question becomes, how? seems me, upon lot reflection, way work now, order continue writing, create sort protective psychological construct. sort find way safe distance me, writing, natural anxiety reaction writing going be, on. looking, last year, models that, sort looking across time, trying find societies see might better saner ideas help creative people sort manage inherent emotional risks creativity. search led ancient greece ancient rome. stay me, circle around back. ancient greece ancient rome people happen believe creativity came human beings. people believed creativity divine attendant spirit came human beings distant unknowable source, distant unknowable reasons. greeks famously called divine attendant spirits creativity daemons. socrates, famously, believed daemon spoke wisdom afar. romans idea, called sort disembodied creative spirit genius. great, romans actually think genius particularly clever individual. believed genius this, sort magical divine entity, believed literally live walls artist studio, kind like dobby house elf, would come sort invisibly assist artist work would shape outcome work. brilliant is, right there, distance talking psychological construct protect results work. everyone knew functioned, right? ancient artist protected certain things, like, example, much narcissism, right? work brilliant, could take credit it, everybody knew disembodied genius helped you. work bombed, entirely fault, know? everyone knew genius kind lame. people thought creativity west really long time. renaissance came everything changed. big idea, big idea was, let put individual human center universe gods mysteries, room mystical creatures take dictation divine. beginning rational humanism, people started believe creativity came completely self individual. first time history, start hear people referring artist genius, rather genius. got tell you, think huge error. think allowing somebody, one mere person believe like, vessel, know, like font essence source divine, creative, unknowable, eternal mystery smidge much responsibility put one fragile, human psyche. like asking somebody swallow sun. completely warps distorts egos, creates unmanageable expectations performance. think pressure killing artists last years. and, true, think true, question becomes, now? differently? maybe back ancient understanding relationship humans creative mystery. maybe not. maybe erase years rational humanistic thought one minute speech. probably people audience would raise really legitimate scientific suspicions notion of, basically, fairies follow people around rubbing fairy juice projects stuff. not, probably, going bring along this. question kind want pose know, not? think way? makes much sense anything else ever heard terms explaining utter maddening capriciousness creative process. process which, anybody ever tried make something say basically everyone knows always behave rationally. and, fact, sometimes feel downright paranormal. encounter recently met extraordinary american poet ruth stone, poet entire life told growing rural virginia, would working fields, said would feel hear poem coming landscape. said like thunderous train air. would come barreling landscape. felt coming, would shake earth feet. knew one thing point, to, words, run like hell. would run like hell house would getting chased poem, whole deal get piece paper pencil fast enough thundered her, could collect grab page. times would fast enough, would running running, would get house poem would barrel would miss said would continue across landscape, looking, put another poet. times piece never forgot said moments would almost miss it, right? so, running house looking paper poem passes her, grabs pencil going her, said, like would reach hand would catch it. would catch poem tail, would pull backwards body transcribing page. instances, poem would come page perfect intact backwards, last word first. creative process pipeline! mule, way work get time every day, sweat labor barrel really awkwardly. even mulishness, even brushed thing, times. would imagine lot too. know, even work ideas come source honestly cannot identify. thing? relate way make lose minds, but, fact, might actually keep sane? me, best contemporary example musician tom waits, got interview several years ago magazine assignment. talking this, know, tom, life, pretty much embodiment tormented contemporary modern artist, trying control manage dominate sort uncontrollable creative impulses totally internalized. got older, got calmer, one day driving freeway los angeles, changed him. speeding along, sudden hears little fragment melody, comes head inspiration often comes, elusive tantalizing, wants it, gorgeous, longs it, way get it. piece paper, pencil, tape recorder. starts feel old anxiety start rise like, going lose thing, haunted song forever. good enough, it. instead panicking, stopped. stopped whole mental process something completely novel. looked sky, said, excuse me, see driving? look like write song right now? really want exist, come back opportune moment take care you. otherwise, bother somebody else today. bother leonard cohen. whole work process changed that. work, work still oftentimes dark ever. process, heavy anxiety around released took genie, genius causing nothing trouble, released back came from, realized internalized, tormented thing. could peculiar, wondrous, bizarre collaboration, kind conversation tom strange, external thing quite tom. heard story, started shift little bit way worked too, idea already saved once. saved middle writing eat, pray, love, fell one sort pits despair fall working something coming start think going disaster, worst book ever written. bad, worst book ever written. started think dump project. remembered tom talking open air tried it. lifted face manuscript directed comments empty corner room. said aloud, listen you, thing, know book brilliant entirely fault, right? see putting everything this, this. want better, got show part deal. that, know what, hell it. going keep writing anyway job. would please like record reflect today showed part job. end like centuries ago deserts north africa, people used gather moonlight dances sacred dance music would hours hours, dawn. always magnificent, dancers professionals terrific, right? every while, rarely, something would happen, one performers would actually become transcendent. know know talking about, know seen, point life, performance like this. like time would stop, dancer would sort step kind portal anything different ever done, nights before, everything would align. sudden, would longer appear merely human. would lit within, lit lit fire divinity. happened, back then, people knew was, know, called name. would put hands together would start chant, allah, allah, allah, god, god, god. god, know. curious historical footnote moors invaded southern spain, took custom pronunciation changed centuries allah, allah, allah, still hear bullfights flamenco dances. spain, performer done something impossible magic, allah, allah, magnificent, bravo, incomprehensible, glimpse god. great, need that. but, tricky bit comes next morning, dancer himself, wakes discovers tuesday a.m., longer glimpse god. aging mortal really bad knees, maybe never going ascend height again. maybe nobody ever chant god name spins, rest life? hard. one painful reconciliations make creative life. maybe quite full anguish never happened believe, first place, extraordinary aspects came you. maybe believed loan unimaginable source exquisite portion life passed along finished, somebody else. and, know, think way, starts change everything. started think, certainly thinking last months working book soon published, dangerously, frighteningly anticipated follow freakish success. sort keep telling get really psyched afraid. daunted. job. continue show piece it, whatever might be. job dance, dance. divine, cockeyed genius assigned case decides let sort wonderment glimpsed, one moment efforts, not, dance anyhow. you, nonetheless. believe feel must teach it. you, nonetheless, sheer human love stubbornness keep showing up. thank you.</t>
-  </si>
-  <si>
-    <t>said want starting something got starting something said want starting something got starting something high get yeah, yeah low get yeah, yeah stuck middle yeah, yeah pain thunder yeah, yeah high get yeah, yeah low get yeah, yeah stuck middle yeah, yeah pain thunder yeah, yeah took baby doctor fever, nothing found time hit street said breakdown someone always trying start baby crying talkin', squealin', lying saying want starting something said want starting something got starting something said want starting something got starting something high get yeah, yeah low get yeah, yeah stuck middle yeah, yeah pain thunder yeah, yeah high get yeah, yeah low get yeah, yeah stuck middle yeah, yeah pain thunder yeah, yeah love pretend good always good really make hate tongue became razor someone always trying keep baby crying treacherous, cunnin', declining got baby crying said want starting something got starting something said want starting something got starting something high get yeah, yeah low get yeah, yeah stuck middle yeah, yeah pain thunder yeah, yeah high get yeah, yeah low get yeah, yeah stuck middle yeah, yeah pain thunder yeah, yeah vegetable, vegetable still hate you, vegetable buffet, vegetable eat you, vegetable billie jean always talking nobody else talking telling lies rubbing shoulders called mouth motor someone always trying start baby crying talkin', squealin', spying saying want starting something said want starting something got starting something said want starting something got starting something high get yeah, yeah low get yeah, yeah stuck middle yeah, yeah pain thunder yeah, yeah high get yeah, yeah low get yeah, yeah stuck middle yeah, yeah pain thunder yeah, yeah vegetable, vegetable still hate you, vegetable buffet, vegetable eat you, vegetable feed baby yeah, yeah baby yeah, yeah think maybe yeah, yeah feed baby yeah, yeah always trying stop child crying hustlin', stealin', lying baby slowly dying said want starting something got starting something said want starting something got starting something high get yeah, yeah low get yeah, yeah stuck middle yeah, yeah pain thunder yeah, yeah high get yeah, yeah low get yeah, yeah stuck middle yeah, yeah pain thunder yeah, yeah lift head high scream world know someone let truth unfurl one hurt know true yes, believe believe help sing it, se, sa, coo se, sa, coo help sing it! sing world sing loud help sing it! se, sa, coo se, sa, coo woo hoo, help sing it! woo hoo, sing world se, sa, coo se, sa, coo woo hoo, help sing baby! sing world sing loud need dreams side every moment takes paradise darling let hold warm arms melt fears away show magic perfect love make need night day baby mine baby gotta mine girl give got give baby girl time share ecstasy long believe love give reason change mind guess still thrill baby mine future desire girl need hold share feelings heat love embrace show passion burning heart today never gonna fade baby mine baby gotta mine girl give got give baby girl time everything world could reason live stay morning sun promise dawn different lady see heaven begun living inside hearts mountains climb still thrill baby mine love lasting time girl got hold touch sky light darkest day hold make sweet love way say baby mine baby gotta mine tell love girl give got give say thinking baby mine time show everything world could reason live every night feels alright baby girl tell love girl give got give say thinking baby, mine, baby, mine show everything world could every night feels alright come girl come girl tell love say thinking baby mine show everything world could every night feels alright every night walks right dreams since met start proud one special heart girl mine doggone girl mine know mine doggone girl mine understand way think saying mine sending roses silly dreams really waste time mine doggone girl mine waste time doggone girl mine love take anywhere love endlessly loving share come two town cannot one one day discover girl forever ever build hopes let really feel time know tell one said blow mind girl mine doggone girl mine waste time doggone girl mine mine, mine no, no, no, mine girl mine, girl mine girl mine, girl mine girl mine mine, mine yep mine mine, mine girl mine mine, mine yep mine mine, mine waste time doggone girl mine girl mine, girl mine michael, gonna fight this, okay? paul, think told you, lover fighter heard before, michael told forever lover, know, remember? well, loving me, said could love another said? yes, said it, keep dreaming believe mine, mine girl mine mine, mine no, mine no, mine mine, mine mine mine mine mine mine mine, mine, mine girl mine mine, mine girl mine mine, mine close midnight something evil lurking dark moonlight see sight almost stops heart try scream terror takes sound make start freeze horror looks right eyes, paralyzed thriller, thriller night one gonna save beast strike know thriller, thriller night fighting life inside killer, thriller tonight hear door slam realize nowhere left run feel cold hand wonder ever see sun close eyes hope imagination, girl hear creature creeping behind outta time thriller, thriller night second chance thing forty eyes, girl thriller, thriller night fighting life inside killer, thriller tonight night creatures call dead start walk masquerade escaping jaws alien time open wide end life get you, demons closing every side possess unless change number dial time cuddle close together night save terror screen, make see thriller, thriller night thrill ghoul could ever dare try thriller, thriller night let hold tight share killer, thriller, chiller thriller tonight thriller, thriller night girl, thrill ghoul could ever dare try thriller, thriller night let hold tight share killer, thriller gonna thrill tonight darkness falls across land midnight hour close hand creatures crawl search blood terrorize neighborhood whomsoever shall found without soul getting must stand face hounds hell rot inside corpse shell gonna thrill tonight... foulest stench air funk forty thousand years grisly ghouls every tomb closing seal doom though fight stay alive body starts shiver mere mortal resist evil thriller told him, ever come around here. want see face. better disappear. fire eyes words really clear beat it, beat better run, better want see blood, macho man want tough, better beat it, want bad beat it, beat it, beat it, beat one wants defeated showing funky strong fight matter wrong right beat it, beat get you, better leave want boy, want man want stay alive, better beat it, beat show really scared playing life, truth dare kick you, beat you, tell fair beat it, want bad beat it, beat it, beat it, beat one wants defeated showing funky strong fight matter wrong right beat it, beat it, beat it, beat it, beat beat it, beat it, beat it, beat one wants defeated showing funky strong fight matter wrong right beat it, beat it, beat it, beat one wants defeated showing funky strong fight matter wrong right beat it, beat beat it, beat it, beat like beauty queen movie scene said, mind, mean one dance floor round? said one dance floor round told name billie jean caused scene every head turned eyes dreamed one dance floor round people always told me, careful do. around breaking young girls hearts. mother always told me, careful love, careful lie becomes truth. billie jean lover girl claims one kid son says one kid son forty days forty nights law side stand demand schemes plans danced floor round take strong advice remember always think twice think twice, think twice. told, baby, would danced three. looked showed photo baby cry eyes looked like mine, oh, dance floor round, baby people always told me, careful around breaking young girls hearts. break heart. came stood right smell sweet perfume happened much soon called room billie jean lover girl claims one kid son no, no, no, no, no, no, no, no. billie jean lover girl claims one kid son says one kid son says one kid son no, no, billie jean lover girl claims one no, me, baby. kid son no, no, no, no, no, no, no. says one no, babe. kid son, no, no, says one know says son breaking heart, babe says one billie jean lover billie jean lover billie jean lover one billie jean lover one call billie jean billie jean lover one stumbled onto scene billie jean lover billie jean lover looking across night time city winks sleepless eye hear voice shake window sweet seducing sighs get night time four walls hold tonight town apple let take bite say, why? why? tell human nature why, way? say, why? why? tell human nature why, way? reaching touch stranger electric eyes everywhere see girl knows watching likes way stare say, why? why? tell human nature why, way? say, why? why? really like around? tell human nature why, way? like living way like loving way way way was. way way was. looking across morning city heart begins beat reaching touch shoulder dreaming street say, why? why? tell human nature why, way? say, why? why? tell like around. ooh, tell why, way? say, why? why? why, way? say, why? why? tell like around. ooh, tell why, way? say, why? why? ooh, tell why, way? say, why? why? tell like around. why, way? like living way way way know, make feel good inside always wanted girl like p.y.t. pretty young thing come baby ooh take there? right away baby tenderoni got spark nature sugar fly know perfect time make right hit city lights tonight ease love pain let take max want love p.y.t. pretty young thing need loving t.l.c. tender love, care take want love p.y.t. pretty young thing need loving t.l.c. tender love, care take anywhere want yes, will. nothing stop burning desire gotta get baby come, emergency cool fire yearning honey, come set free know perfect time dim lights make right night hit loving spot give got want love p.y.t. pretty young thing need loving t.l.c. tender love, care take yes, will. want love p.y.t. pretty young thing need loving t.l.c. tender love, care take yes, pretty young thing make say pretty young thing make say pretty young things, repeat say na, na, na. na, na, na, na, na, na, na, na, say na, na, na. na, na, na, na, na, na, na, na, na, na, take there, take want love p.y.t. pretty young thing need loving t.l.c. tender love, care take take take want love p.y.t. pretty young thing need loving t.l.c. tender love, care take take want love p.y.t. pretty young thing oh, baby need loving t.l.c. pretty young thing oh, darling know think really, really nice could've, could put together p.y.t. pretty young thing want love you, know, would give darkness tonight lady love shine lighting night put trust heart meet paradise time girl, every wonder world treasure time steal away listen heart lay body close mine let fill dreams make feel alright baby years gonna love day promise tonight always lady life lay back tenderness let make night forget girl, need sweet caress, reach fantasy two hearts beat ecstasy come me, girl keep warm shadows night let touch love make feel right baby years even old gray love day always lady life stay want stay need side nowhere ooh girl let keep warm let keep warm lady life lady fill sweetest love sweetest love always lady life want touch baby lay back tenderness lady life doo doo doo rock sweet caress always lady life lady love girl ooh girl let keep warm lady life nowhere fill sweetest love love love always lady life need want you, baby lay back tenderness stay lady life rock sweet caress love baby always lady life woo ooh baby nowhere lady night ooh girl let keep warm want give lady life life fill sweetest love let fill baby always lady life lay back tenderness lay back lady life let touch girl rock sweet caress lay back always lady life ooh girl let keep warm baby lady life woo fill sweetest love always lady life lady lay back tenderness lady baby world popcorn candy pony rides dime little children laughing world disappointments confusions want mine started talking kept walking disappeared crowd lost heart carousel circus girl left heart pieces lost heart carousel circus girl ran away. clown dancer knew would work took chances recall girl imagination? still remember faces memories. lost heart carousel circus girl left heart pieces lost heart carousel circus girl ran away. two different people love instant see circus came today sometimes hear calliope hear calling me. know? lost heart carousel circus girl left heart pieces lost heart carousel circus girl ran away</t>
-  </si>
-  <si>
-    <t>dark desert highway, cool wind hair warm smell colitas, rising air ahead distance, saw shimmering light head grew heavy sight grew dim stop night stood doorway heard mission bell thinking could heaven could hell lit candle showed way voices corridor thought heard say welcome hotel california lovely place lovely place lovely face plenty room hotel california time year time year find mind tiffany twisted, got mercedes bends got lot pretty, pretty boys calls friends dance courtyard, sweet summer sweat dance remember, dance forget called captain please bring wine. said, spirit since nineteen sixty nine. still voices calling far away wake middle night hear say welcome hotel california lovely place lovely place lovely face living hotel california nice surprise nice surprise bring alibis mirrors ceiling pink champagne ice said prisoners here, device master chambers gathered feast stab steely knives kill beast last thing remember running door find passage back place relax, said night man programmed receive check time like never leave! talk street sounds familiar great expectations, everybody watching people meet seem know even old friends treat like something new johnny come lately, new kid town everybody loves you, let look eyes music begins play hopeless romantics, awhile looking way restless hearts never mend johnny come lately, new kid town still love around? many things told night night willing hold hold tears shoulder talk street remind really matter side walking away talking behind never forget somebody new comes along lately? new kid town everybody loves they? holding her, still around oh, my, new kid town another new kid town everybody talking new kid town everybody walking like new kid town new kid town want hear new kid town want hear new kid town new kid town new kid town everybody talking new kid town people started walking new kid town new kid town hard headed man, brutally handsome, terminally pretty held up, held ransom heart cold, cold city nasty reputation cruel dude said ruthless, said crude one thing common, good bed would say, faster, faster. lights turning red. life fast lane surely make lose mind life fast lane far? eager action, hot game coming attraction, drop name knew right people, took right pills threw outrageous parties, paid heavenly bills lines mirror, lines face pretended notice, caught race every evening, light tired make it, tired fight life fast lane surely make lose mind life fast lane life fast lane, everything time life fast lane blowing burnin', blinded thirst see stop sign, took turn worst said, listen, baby. hear engine ring. highway seen goddamn thing. said, call doctor. think gonna crash. doctor say comin', gotta pay cash. went rushing freeway, messed around got lost care dying get was... life fast lane surely make lose mind life fast lane life fast lane, everything time life fast lane, life fast lane life fast lane well, baby, stand little head hand oh, god, believe happening baby gone, alone looks like end. back street. trying remember. start over? know can. care much stranger touch, hold man. never thought would alone far line know mind afraid wasted time autumn leaves got thinking first time fell love boy much, no, no, loved boy well, well, well. live day day, dream tomorrow hours like minutes shadows come stay take little something make away could done many things, baby could stop mind wondering left behind worrying wasted time another love come gone years keep rushing remember told went own, sometimes keep together, got leave alone. get search, baby, get mine maybe someday find really wasted time kind love got? home, room full noise dangerous boys still makes thirsty hot heard man one thing understand say liar put fire come still got gun hand? victim love, see broken heart got stories tell victim love, easy part know play well people never come clean think know mean walking wire pain desire looking love tell secrets, tell mine time cool tell girlfriends, around world friends talk losers fools victim love, see broken heart could wrong, not, no, victim love, far apart show me, kind love got? victim love, see broken heart could wrong, victim love, far apart kind love got? victim love, victim love could wrong, not, no, victim love, victim love kind love got? kind love got? kind love got? there. 'ya? long time seems like come long way my, learn slow heroes, come leave behind supposed know give hearts past? must grow fast? wishing well fools fortunes someone send rose love friend, nice hear storybook comes close gone ribbons bows things remember places pretty maids row memories find like circle goes around lost found comes one one lonely feelings come day day, slowly fade away oh, look eyes never know might found dancing right time moves made fine like music surrounds stay go? really want know would lose win try love again? gonna try love gonna try love gonna try love right wrong, done done moments borrow thoughts linger lady song sun comes tomorrow well, might take years see tears let find know oh, gonna try love oh, gonna try love oh, gonna try love sometimes lose, sometimes win, sometimes need friend gonna try, gonna try gonna try, gonna try came providence one rhode island old world shadows hang heavy air packed hopes dreams like refugee father came across sea heard place people smiling spoke red man way loved land came everywhere great divide seeking place stand place hide crowded bars good time wait tell like called paradise know somebody laid mountains low town got high chilly winds blew across desert canyons coast malibu pretty people play hungry power light neon way give things rich men came raped land nobody caught put bunch ugly boxes jesus people bought called paradise place watched hazy sun sinking sea leave behind sail lahaina like missionaries many years ago even brought neon sign jesus coming brought white man burden brought white man reign provide grand design? mine? new frontier got make satisfy endless needs justify bloody deeds name destiny name god see sunday morning stand sing like call paradise know call someplace paradise kiss goodbye</t>
-  </si>
-  <si>
-    <t>hey, hey mama, said way move gonna make sweat, gonna make groove child, way shake thing gonna make burn, gonna make sting hey, hey, baby, walk way watch honey drip, keep away ah, yeah, ah, yeah, ah, ah, ah, yeah, ah, yeah, ah, ah, gotta roll, stand still got flaming heart, get fill eyes shine, burning red dreams head ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, hey hey, baby, oh, baby, pretty baby darling now? hey, baby, oh, baby, pretty baby move take long found people mean spent money, took car started telling friends gonna star know, told big legged woman got soul oh, yeah, oh, yeah, ah, ah, oh, yeah, oh, yeah, ah, ah, yeah ask for, pray steady loaded woman gonna come way need woman, gonna hold hand tell lies, make happy man ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, yes will. and, yes, really, really do, baby, baby, baby really you, huh? ooh, wow, it, baby push it, baby, push it, baby, push it, baby, push it, baby push it, baby, push it, babe, babe ooh, ooh, aah ooh. ooh. would really like would really like long time since rock rolled. long time since stroll. ooh, let get back, let get back, let get back, baby, come from. long time, long time, long lonely, lonely, lonely, lonely, lonely time. yes, has. long time since book love. count tears life love. carry back, carry back, carry back, baby, come from. long time, long time, long lonely, lonely, lonely, lonely, lonely time. seems long since walked moonlight, making vows work right. open arms, open arms, open arms, baby, let love come running in. long time, long time, long lonely, lonely, lonely, lonely, lonely time. long time, long time, long lonely, lonely, lonely, lonely, lonely time. queen light took bow, turned go, prince peace embraced gloom, walked night alone. oh, dance dark night, sing morning light. dark lord rides force tonight, time tell all. oh, throw plow hoe, rest lock homes. side side wait might darkest all. hear horses thunder valley below, waiting angels avalon, waiting eastern glow. apples valley hold seeds happiness, ground rich tender care, repay, forget, no, no. dance dark night, sing morning light. apples turn brown black, tyrant face red. war common cry, pick swords fly. sky filled good bad mortals never know. oh, well, night long, beads time pass slow, tired eyes sunrise, waiting eastern glow. pain war cannot exceed woe aftermath, drums shake castle wall, ringwraiths ride black, ride on. sing raise bow, ride shoot straighter before. comfort fire night lights face cold. dance dark night, sing morning light. magic runes writ gold bring balance back. bring back. last sun shining, clouds blue roll by, flames dragon darkness, sunlight blinds eyes. bring back, bring back, bring back, bring back, bring back, bring back, bring back, bring back oh, bring back, bring back, bring back, bring back oh, bring bring bring bring bring lady sure glitters gold buying stairway heaven. gets knows, stores closed word get came for. ooh, ooh, buying stairway heaven. sign wall wants sure know sometimes words two meanings. tree brook, songbird sings, sometimes thoughts misgiven. ooh, makes wonder, ooh, makes wonder. feeling get look west, spirit crying leaving. thoughts seen rings smoke trees, voices stand looking. ooh, makes wonder, ooh, really makes wonder. whispered soon, call tune, piper lead reason. new day dawn stand long, forests echo laughter. bustle hedgerow, alarmed now, spring clean may queen. yes, two paths by, long run still time change road on. makes wonder. head humming go, case know, piper calling join him, dear lady, hear wind blow, know stairway lies whispering wind? wind road shadows taller soul. walks lady know shines white light wants show everything still turns gold. listen hard tune come last. one one rock roll. buying stairway heaven. walking park day, baby, you, think saw? crowds people sitting grass flowers hair said, hey, boy, want score? know really know time was, woh, oh, asked could stay awhile. notice got dark really, really mind. policeman stepped asked said, please, hey, would care get line, get line. well know, asked stay tea fun, oh, oh, said friends would drop by, ooh. take good look describe see, baby, baby, baby, like it? sit, sitting spare like book shelf rusting ah, trying fight it. really care coming, oh, oh, know state mind, ooh. streets today, baby, better, better open eyes. folk really care, really care, care, really which, way pressure lies, decided gonna now. packing bags misty mountains spirits now, hills spirits fly, ooh. really know. one, two, three, four, five, six. one, two, three. one. oh, baby, crying time, oh, baby, got fly. got try find way, got try get away, know gotta get away you, babe. oh, baby, river red, oh, baby, head. funny feeling going on. think hold long. owls cry night, oh, baby, baby, pines begin cry, baby, baby, baby, feel? rivers run dry, baby, would feel? craze, baby, rainbow end, mm, baby, den hide, hide love depths life ruin dreams knew so, babe. owls cry night, oh, baby, baby, pines begin cry, baby, baby, baby, feel? rivers run dry, baby, feel? baby, feel? ooh yeah, brave endure. ooh yeah, strong shields lore. hold wrath walk, boots march, baby, roads time long ago. spent days woman unkind smoked stuff drank wine made mind make new start going california aching heart someone told girl love eyes flowers hair took chances big jet plane never let tell sea red sky grey wondered tomorrow could ever follow today mountains canyons start tremble shake children sun begin awake watch seems wrath gods got punch nose started flow think might sinking throw line reach time meet path runs straight high find queen without king say plays guitar cries sings ride white mare footsteps dawn trying find woman never, never, never born standing hill mountain dreams telling hard, hard, hard seems keeps rainin', levee going break keeps rainin', levee going break levee breaks place stay mean old levee taught weep moan mean old levee taught weep moan got takes make mountain man leave home oh, well, oh, well, oh, well make feel bad trying find way home know way go? going south work going north chicago crying help you, praying good now, crying help you, praying good levee breaks, mama, got move last night sat levee moaned last night sat levee moaned thinking baby happy home going, going chicago going chicago sorry take going down... going going down... going going going going going going going going going going going going</t>
-  </si>
-  <si>
-    <t>came thought might like show feel warm thrill confusion space cadet glow tell something eluding sunshine? expected see? want find behind cold eyes claw way disguise momma loves baby daddy loves sea may look warm you, babe sky may look blue ooh, babe ooh, baby blue ooh, babe skating thin ice modern life dragging behind silent reproach million tear stained eyes surprised, crack ice appears feet slip depth mind fear flowing behind claw thin ice daddy flown across ocean leaving memory snap shot family album daddy else leave me? daddy would leave behind me? brick wall bricks wall you! yes, you! stand still, laddy! grew went school certain teachers would hurt children way could pouring derision upon anything exposing every weakness however carefully hidden kids town well known got home night, fat psychopathic wives would thrash within inches lives need education need thought control dark sarcasm classroom teacher, leave kids alone hey, teacher, leave kids alone another brick wall another brick wall need education need thought control dark sarcasm classroom teachers, leave kids alone hey, teacher, leave kids alone another brick wall another brick wall wrong! again! wrong! again! eat meat, pudding! pudding eat meat?! you! yes, you, behind bike sheds, stand still, laddy! mother, think drop bomb? mother, think like song? mother, think try break balls? ooh, aah, mother, build wall? mother, run president? mother, trust government? mother, put firing line? ooh, aah, waste time? hush now, baby, baby, cry mama gonna make nightmares come true mama gonna put fears mama gonna keep right wing let fly might let sing mama gonna keep baby cozy warm ooh, babe, ooh, babe, ooh, babe course mama gonna help build wall mother, think good enough me? mother, think dangerous me? mother, tear little boy apart? ooh, aah, mother, break heart? hush now, baby, baby, cry mama gonna check girlfriends mama let anyone dirty get mama gonna wait get mama always find mamma gonna keep baby healthy clean ooh, babe, ooh, babe, ooh, babe always baby mother, need high? look, mummy. airplane sky. did, did, did, see frightened ones? did, did, did, hear falling bombs? did, did, did, ever wonder run shelter promise brave new world unfurled beneath clear blue sky? did, did, did, see frightened ones? did, did, did, hear falling bombs? flames long gone pain lingers goodbye blue sky goodbye blue sky goodbye goodbye hello, luka ... congratulations. discovered secret message. please send answer old pink, care funny farm, chalfont... roger! carolyne phone! okay shall use fill empty spaces used talk? shall fill final places? complete wall new boy stranger town good times gonna show stranger around? ooooooooh need dirty woman ooooooooh need dirty girl woman desert land make feel like real man take rock roll refugee oooh babe set free ooooooooh need dirty woman ooooooooh need dirty girl. ooooooooh need dirty woman ooooooooh need dirty girl. god! fabulous room! guitars? sorry sir, mean startle you! what? place bigger apartment! let know entering room. yes, sir! get drink water? wondering dinner, sir. want some, huh? yes? guests want dine? inform kitchen staff. wow, look tub? want take bath? yes, aware duties dobbs. yes, sir. find mrs. bancroft time wants eat. maid, needless say, meal kitchen help. watching? good, sir. let know soon mrs bancroft want eat. mrs. bancroft dining alone. hello? why? understand, sir. staying dinner. feeling okay?... surprised hear that, sir, since arrived. yes, little surprised myself. day day, love turns grey like skin dying man night night, pretend right grown older grown colder nothing much fun feel one turns coming feel cold razor blade tight tourniquet dry funeral drum run bedroom suitcase left find favourite axe look frightened passing phase one bad days would like watch t.v.? get sheets? contemplate silent freeway? would like something eat? would like learn fly? would you? would like see try? would like call cops? think time stopped? running away? ooh babe leave say end road remember flowers sent need babe put shredder front friends ooh babe leave could know need you? beat pulp saturday night ooh babe leave treat way running away ooh babe running away? ooh babe! need arms around need drugs calm seen writing wall think need anything no, think need anything bricks wall bricks wall goodbye cruel world leaving today goodbye goodbye goodbye goodbye people nothing say make change mind goodbye. hey, you! cold getting lonely, getting old. feel me? hey, you! standing aisles itchy feet fading smiles. feel me? hey, you! help bury light. give without fight. hey, you! sitting naked phone. would touch me? hey, you! ear wall waiting someone call out. would touch me? hey, you! would help carry stone? open heart, coming home fantasy. wall high see. matter tried could break free. worms ate brain. hey, you! road, always told. help me? hey, you! beyond wall, breaking bottles hall. help me? hey, you! tell hope all. together stand, divided fall. anybody there? anybody there? anybody there? anybody there? got little black book poems got bag toothbrush comb good dog sometimes throw bone got elastic bands keeping shoes got swollen hand blues. got thirteen channels shit t.v. choose got electric light got second sight got amazing powers observation know try get telephone nobody home got obligatory hendrix perm inevitable pinhole burns front favourite satin shirt got nicotine stains fingers got silver spoon chain got grand piano prop mortal remains got wild staring eyes got strong urge fly got nowhere fly ooh, babe, pick phone still nobody home got pair gohills boots got fading roots. anybody remember vera lynn? remember said would meet sunny day? vera! vera! become you? anybody else feel way do? bring boys back home bring boys back home leave children bring boys back home hello anybody there? nod hear anyone home? come hear feeling well, ease pain get feet relax need information first basic facts show hurts? pain, receding distant ship smoke horizon coming waves lips move hear saying child fever hands felt like two balloons got feeling explain, would understand become comfortably numb become comfortably numb o.k. little pin prick aaaaaaaah! may feel little sick stand up? believe working, good keep going show come on, time pain receding distant ship smoke horizon coming waves lips move hear saying child caught fleeting glimpse corner eye turned look gone cannot put finger child grown dream gone become comfortably numb ooh ooh must show on? ooh take home ooh let must mistake mean let take away soul old? late? ooh ooh feeling gone? ooh ooh remember songs? ooh show must on. thought might like show feel warm thrill confusion space cadet glow got bad news sunshine pink well, stayed back hotel sent along surrogate band gonna find fans really stand queers theatre tonight? get wall wall one spotlight, look right get wall the... one looks jewish one coon let riff raff room? one smoking joint another spots way would shot run, run, run, run better make face favourite disguise button lips roller blind eyes empty smile hungry heart feel bile rising guilty past nerves tatters cockleshell shatters hammers batter door better run run, run, run, run better run day run night keep dirty feelings deep inside. taking girlfriend tonight better park car well sight catch back seat trying pick locks gonna send back mother cardboard box better run eins, zwei, drei, alle ooh ooh, cannot reach ooh ooh, matter try goodbye, cruel world, walk sitting bunker behind wall waiting worms come worms come perfect isolation behind wall waiting worms come waiting cut deadwood waiting clean city waiting follow worms waiting put black shirt waiting weed weaklings waiting smash windows kick doors waiting final solution strengthen strain waiting follow worms waiting turn showers fire ovens waiting queens coons reds jews waiting follow worms would like see britannia rule friend? follow worms would like send coloured cousins home friend? need follow worms stop want home take uniform leave show waiting cell know guilty time good morning, worm honour crown plainly show prisoner stands caught red handed showing feelings showing feelings almost human nature call schoolmaster! always said would come good end, honour would let way could flayed shape hands tied bleeding hearts artists let get away murder let hammer today crazy toys attic, crazy truly gone fishing must taken marbles away crazy toys attic crazy little shit, hope throw away key talked often did, no, way. broken homes lately? five minutes, worm honour, alone babe come mother, baby, let hold arms lord never wanted get trouble would ever leave me? worm honour, let take home crazy rainbow crazy bars window must door wall came crazy rainbow crazy evidence court incontrovertible. need jury retire. years judging never heard someone deserving full penalty law. way made suffer exquisite wife mother fills urge defecate on, judge. shit him. since, friend, revealed deepest fear sentence exposed peers. tear wall tear wall alone twos ones really love walk outside wall hand hand gathered together bands bleeding hearts artists make stand given stagger fall, easy banging heart mad bugger wall we...</t>
-  </si>
-  <si>
-    <t>rolling thunder pouring rain coming like hurricane lightning flashing across sky young gonna die take prisoners spare lives nobody putting fight got bell gonna take hell gonna get satan get hells bells hells bells, got ringing hells bells, temperature high hells bells give black sensations spine evil friend mine see white light flashing split night cause good left sticking right take prisoners spare lives nobody putting fight got bell gonna take hell gonna get satan get hells bells hells bells, got ringing hells bells, temperature high hells bells hells bells, satan coming hells bells, ringing hells bells, temperature high hells bells, across sky hells bells, taking hells bells, dragging hells bells, gonna split night hells bells, way fight hells bells women want man street know way want turn keep coming put hand cause one gonna make burn gonna take fool around gonna pull it, pull pull trigger shoot thrill play kill many women many pills, yeah shoot thrill play kill got gun ready gonna fire like evil get skin like bomb ready blow cause illegal got everything women might need know gonna take yeah down, down, fool around gonna pull it, pull pull trigger shoot thrill play kill many women many pills shoot thrill play, kill got gun ready gonna fire cause shoot thrill ready kill get enough get fill shoot thrill, play kill pull trigger, pull pull pull pull trigger shoot thrill play kill many women many pills, said shoot thrill play kill got gun ready gonna fire cause shoot thrill ready kill get enough get fill cause shoot thrill, play kill yeah shoot down, yeah gonna get bottom girl shoot you, gonna shoot yeah, yeah, yeah, yeah gonna shoot down, yeah yeah gonna get down, shoot you, shoot you, shoot you, shoot shoot you, shoot you, shoot gonna shoot thrill play kill shoot thrill working bars riding cars never gonna give free apartment view finest avenue looking beat street always pushin', shovin', satisfied nothing bitch must getting old stop life road digging gold make wonder yes wonder wonder honey, money honey, money get kicks loving take always make squeezing blood outta men standing queue spend night business usual always grabbin', stabbing trying get back girl must getting slow stop life road digging gold make wonder yes wonder yes wonder honey, money honey, money money honey get kicks money honey get licks honey, money, said honey, money, yeah honey, money honey, gotta money honey, money gotta gotta take easy going knees going devil ninety degrees oh, blowing crazy blowing crazy ammunition dry oh, using head using head oh, using head giving dog bone giving dog bone, giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone oh, mona lisa playboy star send heaven explode mars oh, using head using head oh, using head giving dog bone giving dog bone, giving dog bone giving dog bone, giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone got power union hits hot likes give lot give everything got giving dog bone giving dog bone, giving dog bone giving dog bone, giving dog bone giving dog bone, giving dog bone giving dog bone giving dog bone giving dog bone, giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog giving dog giving dog bone flying free flight driving night machinery cause got power hour show man got reputations blown pieces artillery well guiding riding giving got struggle fight worry cause turn tonight let put love babe let put love line let put love babe let cut cake knife like fever burning faster spark fire crazy feelings got reeling got raising steam struggle fight worry cause turn tonight, yeah let put love babe let put love line let put love babe let cut cake knife oh! come on! let me, let let put love babe let put love line let put love babe let cut cake knife let put love babe let put love line let put love babe let give let give give back black hit sack long glad back yes let loose noose kept hanging kept looking sky cause getting high forget hearse cause never die got nine lives cat eyes abusing every one running wild cause back yes back well back yes back well back back well back black yes back black back back cadillac number one bullet power pack yes bang gang got catch want hang cause back track beating flack nobody gonna get another rap look making play try push luck get way cause back yes back well back yes back well back back well back black yes back black well back yes back well back yes back well back back well back black yes back black yeah yeah yes yeah, yeah yeah back well back, back back, back back, back back, back back, back back back black yes back black outta sight fast machine kept motor clean best damn woman ever seen sightless eyes telling lies knocking american thighs taking share fighting air told come already cause walls start shaking earth quaking mind aching making shook night long yeah shook night long working double time seduction line one kind mine mine wanted applause another course made meal outta come back cool take another round back ring take another swing cause walls shaking earth quaking mind aching making shook night long yeah shook night long knocked said shook night long shaking shook night long yeah shook took really took shook night long shook night long yeah, yeah, shook night long really got shook night long yeah shook yeah shook night long whiskey gin brandy glass pretty handy trying walk straight line sour mash cheap wine join drink boys gonna make big noise worry tomorrow take today forget check get hell pay drink yeah drink yeah drink drink dizzy drunk fightin tequila white lightnin glass getting shorter whiskey ice water come good time get blinded outta mind worry tomorrow take today forget check get hell pay drink yeah drink yeah drink drink get stoned drink drink drink come gonna roll around gonna hit ground take another swig another drink gonna drink dry gonna get high come boys make noise drink drink drink drink drink drink drink idle juvenile street street kicking everything feet feet fighting wrong side law law kick fight sleep night shake leg shake leg shake leg shake keeping outta trouble eyes back face kicking ass class tell damn disgrace tell think stink really care got mind move get outta hair shake leg shake head shake leg wake dead shake leg get stuck shake leg shake leg mob scenes, wet dreams, dirty women machines big licks skin flicks tricky dicks chemistry going grain tryin keep sane stop grinning drop linen shake leg shake head shake leg wake dead shake leg get stuck shake leg shake leg shake idle juvenile street street kicking everything feet feet fighting wrong side law law spitting biting kicking fighting shake leg shake head shake leg wake dead shake leg get stuck shake leg play win shake leg shake head shake leg wake dead shake leg get stuck shake leg shake leg shake hey middle men throw away fancy clothes sitting fence get arse come cause rock roll riddle man makes good good sense good sense yeah let heavy decibels playing guitar got vibrations coming floor listening rock giving much noise deaf want hear talking future forget past always never gonna die never gonna die rock roll noise pollution rock roll gonna die rock roll noise pollution rock roll survive yes took look inside bedroom door looked good lying bed well asked wanted rhythm love said want rock roll instead talking future forget past always never gonna die never gonna die rock roll noise pollution rock roll gonna die rock roll noise pollution rock roll rock roll rock roll noise pollution rock roll gonna die rock roll noise pollution rock rolling survive rock roll noise pollution rock roll never die rock roll noise pollution rock roll rock roll rock roll</t>
-  </si>
-  <si>
-    <t>came party tonight gonna get left get right, child forget troubles forget news gonna pull plug black blues tie tight adjust noose gonna hang tight, cut loose tearing buring hey daddy hide daughters sun come back around came party came come unwound tell everybody boys back town tear burn love hear stomp sing swamp little southeast western swing thing grab unto let make little midnight moonlight magic happens let hang want join fun shout tearing buring hey daddy hide daughters sun come back around came party came come unwound tell everybody boys back town tear burn tearing buring hey daddy hide daughters sun come back around came party came come unwound tell everybody boys back town tear burn know like party know like throw tell everybody let get around gonna tear burn johnny grew dark side law living shadow light never saw rosie came around way true love looking elsewhere thing never wild wind wild wind wild wind love wild wind wild wind wild wind love team traveled thier way looking forever every yesterday brings hope way angels taking heaven ways never knew wild wind wild wind wild wind love wild wind wild wind wild wind love wild wind every often gets stray look eye knows hold without ever asking wild wind wild wind wild wind love wild wind wild wind wild wind love wild wind wild wind wild wind love wild wind wild wind wild wind love standing spotlight perfect night knowing listening remember one time afraid think courage stand stage reached heart found melody ever somebody made believe song made sing voice gave wings light shined guiding heart find place belong song every night pray music starts play best let times stood feeling feels brand new time doubt think song made sing voice gave wings light shined guiding heart find place belong song dreams come true god great angels like song made sing voice gave wings light shined guiding heart find place belong song song always song</t>
-  </si>
-  <si>
-    <t>got big girl got young one wondering day could way remember crazy remarks would get drunk dark searching someone could take home want alone want see sun want open door see one step tomorrow comes two steps someone three steps know gone, gone gonna one else there, friend hold strong, let never one take place want reach take hand little love, tenderness walk upon water rise mess little peace, harmony take world together take hand got hand want run yesterday, saw standing head down, eyes red comb touched hair said get up, let see smile take walk together walk road awhile, got hand got hand want run let run you? yeah hold hand want hold hand hold hand take place hold hand anything want want love best that, best see wasted, wasting time thought problems, thought crimes stood up, screamed aloud want part problems want part crowd, got hand got hand want run ah, let run you? hold hand want hold hand hold hand take promised land hold hand maybe change world want love best that, best can, yeah hold hand want hold hand hold hand take place hold hand anything want i...oh...no, no, no, no, hold hand want hold hand hold hand take promised land hold hand maybe change world want love best that, best oh, best sits alone lamp post trying find thought escaped mind says dar one love stipe far behind never lets tell much drink say care run hands dark hair pray god gotta help fly away just... let cry, tears fall like rain let sing, eases pain let go, let walk right sun comes tomorrow let be, let be. morning woke alone found note standing phone saying maybe, maybe back day wanted look walked know sat back beer felt sorry saying... let cry, tears fall like rain let sing, eases pain let go, let walk right sun comes tomorrow let be, let be. let cry, tears fall like rain let sing, eases pain let go, let walk right sun comes tomorrow let be, oh, oh. last night tried leave cried much could believe girl fell love long ago went back get high sat couch cried yelling mama please help hold hand and... let cry, tears fall like rain let sing, eases pain let go, let walk right sun comes tomorrow let be, oh, oh. let cry, tears fall like rain let sing, eases pain let go, let walk right sun comes tomorrow let be, oh, let be. come different worlds like laugh look girls sometimes crazy wonder baby dolphins make cry well, nothing looking girl like look me, got nothing left say gonna pout get way dance, sing want love you, want wear ring well, nothing want call fool want put little dylan sitting fence say, line great. ask meant said shot man named gray took wife italy inherited million bucks died came help lucky want bobby cool? want yeah, tangled blue want call fool want sometimes wonder ever end get mad friends sometimes crazy wonder baby, yeah dolphins make cry well, nothing want call fool want yeah, tangled blue want want want want look gift horse mouth come try tell talkin things dealing with, living lie every time see makes want cry sometimes would laugh talk, seems like yesterday let white horse come take away came get you, cold black wheels motion, turning back running angel, runnin devil looked long time ago something want know lying cheating really tore apart please come home gonna break momma heart mama please stay one day boy long much still say sky rips open, hold heart hand like soldier last day cried sleep night, listened heard angels sing sha sha la, going home. sha sha la, going home. something inside makes scream could god take little boy alright, side little boy, pride joy summer radio phone rings jeanette said boy let begged no, yet left six fend guess part someone master plan see laughing, best friend light lamb, cried angels sing trouble world busy think it, right rebel flag hanging state house walls? tired hearing shit heritage hate time make world better place must hate one another? well matter gotta live together look like me, tell see pass street want see p.e. coming gotta say want turn run away telling see right wrong care, wish would quit drowning sea tears hatred trying hide fears living hating everybody else cause look like nanci singing hard life wherever fat racist living chicago trying teach kids hate everyone well tell something want teach son? must hate one another? people church, tell brother walk like me, ... talk like me, saying back africa, understand trying someone could look to, walk street, tell see man, man, man like hate know, know, know hating everybody else cause look like time, punish me? like wave crashing shore wash away dreams time, walk away? like friend somewhere left crying teach tomorrow pain sorrow running free? tomorrow another day believe time time, understand children killing street dying color rag time, take red blue wash ocean, make clean maybe mothers cry tonight teach tomorrow pain sorrow running free? tomorrow another day believe time wasting time walking friend mine know going think mind thinking time die tomorrow, yeah lay sleep time wasting time walking friend mine know going think mind thinking time time, left standing like tree growing alone wind stripped bare, stripped bare time, past come gone future far away lasts one second, one second teach tomorrow pain sorrow running free? tomorrow another day believe time time, friend mine know going think outta mind walkin', wasting friend mine know going no, no, time without courage power without faith wasted, wasted, wasted time time, punish me? saw standing tears upon cheek told something wrong asked looked away said daddy home. knew meant meant could never see seen want deal anymore look away said, turned tried hold her, could let let be, let said why, make cry said love so, look away want know saw standing tears upon cheek told something wrong said baby looked away said daddy home look away said, turned darling, loved her, could let let be, let look away, said love so, look away. alone sit watch trees tell scream bend listen makes wonder know words come laugh run little boy says me, going son said, know going boy know makes wonder stars shine eyes close brothers heart cry know stranger home everybody gone someone please talk cause feel cry sitting know never see lying charleston carolina sky see tired feeling pain tired living little lie makes wonder see dreams mean anything trying talk stranger home tell feeling alone someone tell feeling strong wonder feel realize pain real see dreams wonder looking smiling right want know true looks tell realize came took soon days short nights long lay memories keep keep going on, going makes wonder sit stare see face tell me, care stranger home living life right see feeling weak sould begins bleed one listening me, even trees tomorrow used day away love gone someone far away. never thought day would come would see hand, mine, holding onto could find time. deny nothing lasts forever want leave see tear drops eyes want live see day say goodbye comes another part life call alone sitting bar chris leave house home, no. want touch girl want feel close without love would give walk away easily. maybe young figure together even pain, remedy right want live see day say goodbye. first met could love anyone stole dreams made see walk sun still deny nothing lasts forever. want leave see teardrops eyes baby young let figure together even pain remedy right. want live see day say goodbye, say goodbye, goodbye, goodbye.</t>
-  </si>
-  <si>
-    <t>know nothing say someone taken place times bad times rough lay tall grass let stuff know got nothing know nothing times bad get enough lay tall grass let stuff one thing think know gonna miss long tossed around enough could let stuff know hoping find someone gonna give peace mind times bad times rough lay tall grass let stuff second hand news second hand news say want freedom well, keep down? right play way feel listen carefully sound loneliness like heartbeat... drives mad stillness remembering lost... had... lost thunder happens raining players love playing say... women... come rain washes clean... know, know again, see crystal visions keep visions wants wrap around dreams and... dreams would like sell? dreams loneliness... like heartbeat... drives mad... stillness remembering had... lost... had... lost thunder happens raining players love playing women come rain washes clean, know oh, thunder happens raining players love playing say women come rain washes clean, know, know know, know broke let made see one time two times never going back know means win come see one time two times never going back wake want smile takes little open eyes look day see things different way stop thinking tomorrow stop, soon better yesterday gone, yesterday gone think times come? things done? life bad think tomorrow stop thinking tomorrow stop, soon better yesterday gone, yesterday gone want see smile takes little know believe true never meant harm stop thinking tomorrow stop, soon better yesterday gone, yesterday gone stop thinking tomorrow stop, soon better yesterday gone, yesterday gone look back look back look back look back loving right thing ever change things feel? could baby would give world take me? way way call another lonely day way way tell everything turned around packing shacking want could baby would give world open everything waiting way way call another lonely day way way you, crying you, sun shining feel alright, know right you, give world you, never cold feel alright, know right songbirds singing like know score love you, love you, love like never wish love world all, wish songbirds keep singing like know score love you, love you, love like never like never like never listen wind blow watch sun rise run shadows damn love damn lies love never love still hear saying would never break chain listen wind blow comes night run shadows damn love damn lies break silence damn dark damn light love never love still hear saying would never break chain chain, keep together running shadows sweet wonderful you, make happy things do. oh, so? feeling follows wherever go. never believe miracles, feeling time try. never believe ways magic, beginning wonder why. never believe miracles, feeling time try. never believe ways magic, beginning wonder why. don't, break spell. would different, know will. you, make loving fun, tell you, one. you, make loving fun. want do. you, make loving fun. want do. you, make loving fun. want do. you, make loving fun. want do. want know reasons love keeps right walking line want stand love, honey want feel fine want know reasons love keeps right walking line want stand love, honey want feel fine finally baby truth come take listen spirit crying loud try believe say love me, know got rocking reeling want know reasons love keeps right walking line want stand love, honey want feel fine want know reasons love keeps right walking line want stand love, honey want feel fine finally baby truth told tell crazy nothing know trying survive say love me, know got rocking reeling hanging onto want know reasons love keeps right walking line want stand love, honey, take little time oh, want know daddy, know make cry, love me, understand why. daddy, make see, fool around, got me. daddy, soothe smile, letting know, best thing life. daddy, make see, fool around, got me. right wrong, weak strong, everything alright, walk away you, baby tried. rock on, gold dust woman take silver spoon dig grave heartless challenge pick path pray wake morning see sunrise loves lousy lovers pick prey never cry loud, cry well, make cry, make break down, shatter illusions love? now? know how? pick pieces home rock on, ancient queen follow pale shadow rulers make bad lovers better put kingdom sale, sale well, make cry, make break down, shatter illusions love? now? know how? pick pieces home well, make cry, make break down, shatter illusions love? tell now? know how? pick pieces home home home ooh, pale shadow woman, black widow, pale shadow dragon, dust woman. ooh, pale shadow woman, black widow, ooh, pale shadow, dragon, gold dust woman</t>
-  </si>
-  <si>
-    <t>let girls! come on. going tonight feeling alright gonna let hang want make noise really raise voice yeah, want scream shout inhibitions make conditions get little outta line gonna act politically correct want good time best thing woman prerogative little fun oh, oh, oh, totally crazy forget lady men shirts short skirts oh, oh, oh, really wild yeah, style oh, oh, oh, get action feel attraction color hair dare oh, oh, oh, want free yeah, feel way feel man! feel like woman! girls need break tonight gonna take chance get town need romance want dance gonna let hair hang best thing woman prerogative little fun oh, oh, oh, totally crazy forget lady men shirts short skirts oh, oh, oh, really wild yeah, style oh, oh, oh, get action feel attraction color hair dare oh, oh, oh, want free yeah, feel way feel man! feel like woman! best thing woman prerogative little fun fun, fun oh, oh, oh, totally crazy forget lady men shirts short skirts oh, oh, oh, really wild yeah, style oh, oh, oh, get action feel attraction color hair dare oh, oh, oh, want free yeah, feel way feel man! feel like woman! get totally crazy feel come, come, come baby feel like woman need shrink tell think missing link love life alright, uptight need psychic really like someone tries tell future holds already know love keeps alive need survive got side holding feeling strong baby one life! yeah holding doubt live without life! holding love save life need get caught net already set understand already got man need proof show truth, even dr. ruth gonna tell feel know love real love keeps alive need survive got side holding feeling strong baby one life! yeah holding doubt live without life! holding love save life holding love save life love keeps alive need survive got side holding feeling strong baby one life! yeah holding doubt live without life! holding love save life save me, save me, save save life life going great love gonna wait hurry worries staying single plan need steady man covered discovered love gets every time heart changed mind gol darn gone done gone done gone done guess fell love gone done must way walked gone done sweet, sweet talk gone done guess gol darn gone done quite content paying rent place needed space free shop around rush settle covered discovered love gets every time heart changed mind gol darn gone done gone done gone done guess fell love gone done must way walked gone done sweet, sweet talk gone done guess gol darn gone done love gets every time heart changed mind gol darn gone done gone done gone done guess fell love gone done must way walked gone done sweet, sweet talk gone done way calls name gone done know never gone done love gets every time heart changed mind gol darn gone done thought covered life going great well gol darn gone done complicated hang shoulder read mail appreciate talk guys think tail get aggravated get phone get third degree really feeling frustrated take pill put little trust see freak know facts relax stupid know love ridiculous know need absurd know want impossible mad mad live without live without crazy crazy stupid know love stop overreacting even get suspicious paint nails definitely distracting way dramatize every little small detail freak know facts relax max stupid know love ridiculous know need absurd know want impossible mad mad live without live without crazy crazy stupid know love stupid baby mad mad live without live without crazy crazy stupid know love ridiculous know need absurd know want impossible swear always would give anything everything always care weakness strength, happiness sorrow, better worse, love every beat heart moment life begun moment one right beside belong moment moment blessed live happiness love would give last breath moment give hand heart wait live life wait start never apart dreams came true moment long live love you, promise nothing would give moment reason believe love answer prayers need two dreams came true moment long live love you, promise nothing would give moment love long live moment get life get grip get away somewhere, take trip take break take control take advice someone know come come pull seat take load feet come come unwind take load mind make wish make move make mind choose need laugh come around come come pull seat take load feet come come unwind take load mind oh, oh, oh... winner star happy gotta gotta make plan gotta come come pull seat take load feet come come unwind take load mind get life get grip get away somewhere, take trip take break take control take advice someone know come come pull seat take load feet come come unwind take load mind oh, oh, oh... elephants could fly would little optimistic see happening anytime soon mean sound pessimistic think cow really jumped moon wake up? break up? make up? money grows trees people live peace everyone agrees happiness free love guarantee come back would love wake smiling full joys spring hear cnn elvis lives john back beatles going tour first line tickets gotta see show sure wake up? break up? make up? money grows trees people live peace everyone agrees happiness free love guarantee come back wake up? break up? make up? money grows trees people live peace everyone agrees happiness free love guarantee come back deep denialville trying fight way feel jello smile start blushing head rushing stand close might melt heat look way one time gonna mind whatever do... even think it! get started! dare drive crazy! baby! stop tracks heart pumping max sucker eyes permanently paralyze whatever do... even think it! get started! dare drive crazy! baby! whatever do, got heart attack give shivers back would walk way do? get weak watching whatever do... even think it! get started! dare drive crazy! baby! let let secret treat woman right looking place heart gonna happen overnight first gotta learn listen understand deepest thoughts needs know friends give got start heart see love gonna play part want get know really get inside mind want move closer take slow, yeah take time must start heart then... want touch really want touch want touch her, ask! little physical attraction romantic, old fashioned charm lot love tenderness gonna get arms start heart see love gonna play part want get know really get inside mind want move closer take slow, yeah take time must start heart then... want touch really want touch want touch her, ask! let let secret treat woman right looking place heart gonna happen overnight want get know really get inside mind want move closer take slow, yeah take time must start heart then... want touch really want touch want touch her, ask! first saw you, saw love first time touched me, felt love time, still one love looks like made look far come, baby mighta took long way knew would get someday said, bet never make look holding still together, still going strong still one still one run one belong still one want life still one still one love one dream still one kiss good night nothing better beat odds together glad listen look would missing said, bet never make look holding still together still going strong still one still one run one belong still one want life still one still one love one dream still one kiss good night still one still one still one run one belong still one want life still one still one love one dream still one kiss good night glad made look far come, baby car start falling apart late work boss got smart pantyline shows got run hose hair went flat man, hate thought things could get worse realized forgot purse stress must confess could worse pms job worth pay wait end day honey, way hey! hey! hey! hey! honey, home hard day pour cold one oh, way rub feet, gimme something eat fix favorite treat honey, back, head killing need relax watch get phone give dog bone hey! hey! honey, home! broke nail opening mail cursed loud hurt like hell job pain mundane sure stimulate brain job worth pay wait end day honey, way hey! hey! hey! hey! honey, home hard day pour cold one oh, way rub feet, gimme something eat fix favorite treat honey, back, head killing need relax watch get phone give dog bone hey! hey! honey, home! oh, rub neck honey, home hard day pour cold one oh, way rub feet, gimme something eat fix favorite treat honey, back, head killing need relax watch get phone give dog bone hey! hey! honey, home! home, feels much better known guys thought pretty smart got right art think genius, drive wall regular original, know oh, think special oh, think something else ok, rocket scientist impress much got brain got touch? get wrong, yeah, think alright keep warm middle night impress much never knew guy carried mirror pocket comb sleeve case extra hold gel hair oughtta lock heaven forbid fall outta place oh, think special oh, think something else ok, brad pitt impress much got looks got touch? get wrong, yeah, think alright keep warm middle night impress much one guys likes shine machine make take shoes let get believe kiss car good night now, c'mon, baby, tell me? must jokin', right? oh, think special oh, think something else ok, got car impress much got moves got touch? get wrong, yeah, think alright keep warm middle night impress much think cool got touch? get wrong, yeah, think alright keep warm long, cold, lonely night impress much ok. so, think? elvis something? impress much! impress much! black eyes, need blue tears, gimme freedom positively never going back live things whack rolling punches using abusing would rather die standing live knees begging please black eyes need blue tears gimme freedom black eyes behind blue tears never find definitley found self esteem finally forever free dream crying corner excuses bruises would rather die standing live knees begging please black eyes need blue tears gimme freedom black eyes behind blue tears never find would rather die standing live knees, begging please... black eyes need blue tears gimme freedom black eyes behind blue tears never find behind me, never find find self esteem forever free dream together midnight summer air much warmer falling love starlight holding tight together leave lonely tonight want hold night gonna alright leave lonely tonight imagine air filled jasmine breeze blows passion dance desire moon fire imagine leave lonely tonight want hold night gonna alright leave lonely tonight love beaucoup mon amour one adore leave lonely tonight want hold night gonna alright lonely tonight na... amo mucho amor one adore amo woke morning buzz rolling around brain drinking feels pretty good must contagious looks like going around cool catch keep feet ground c'mon, come let get something started c'mon, come let start something gonna rock country gonna rock country every brown eyed boy every blue eyed girl gotta really psycho give whirl gonna rock country right world na... utah texas, minnesota, mississippi nevada, matter live buzz c'mon, come let get something started c'mon, come let start something gonna rock country gonna rock country every brown eyed boy every blue eyed girl gotta really psycho give whirl gonna rock country right world na... na... plugging power cranking sound coming direction heading town kicking dust blowing steam let get nuts everybody scream gonna rock country gonna rock country every brown eyed boy every blue eyed girl gotta really psycho give whirl gonna rock country right world na... got way somehow got believe everything could gotta say really got way got way seems gave faith find dreams never know means see... got way way want way hold way show love made way make love got way words get smiling even hurts way measure love worth believe way get way want way hold way show love made way make love oh, adore like one love way way want way hold way show love made way make love way</t>
-  </si>
-  <si>
-    <t>oh, flew miami beach b.o.a.c. get bed last night way paper bag knee man dreadful flight back u.s.s.r. know lucky boy back u.s.s.r. yeah away long hardly knew place gee good back home leave tomorrow unpack case honey disconnect phone back u.s.s.r. know lucky boy back u.s. back u.s. back u.s.s.r. well ukraine girls really knock leave west behind moscow girls make sing shout georgia always mind come on! yeah! yeah! yeah! yeah yeah! yeah back u.s.s.r. know lucky boys back u.s.s.r. well ukraine girls really knock leave west behind moscow girls make sing shout georgia always mind oh, show around snow peaked mountains way south take daddy farm let hear balalaikas ringing come keep comrade warm back u.s.s.r. hey know lucky boys back u.s.s.r. let tell you, honey hey, back! back u.s.s.r. yes, free! yeah, back u.s.s.r. dear prudence, come play? dear prudence, greet brand new day sun up, sky blue beautiful dear prudence, come play? dear prudence, open eyes dear prudence, see sunny skies wind low, birds sing part everything dear prudence, open eyes? look around round look around round round look around dear prudence, let see smile dear prudence, like little child clouds daisy chain let see smile dear prudence, let see smile? dear prudence, come play? dear prudence, greet brand new day sun up, sky blue beautiful dear prudence, come play? told strawberry fields know place nothing real well another place everything flows looking bent backed tulips see half live looking glass onion told walrus me, man know close be, man well another clue walrus paul standing cast iron shore, yeah lady madonna trying make ends meet, yeah looking glass onion yeah yeah yeah looking glass onion told fool hill tell man living still well another place listen fixing hole ocean trying make dove tail joint, yeah looking glass onion desmond barrow market place molly singer band desmond says molly, girl, like face molly says takes hand life goes bra life goes life goes bra life goes desmond takes trolley jeweler stores buys twenty carat golden ring golden ring? takes back molly waiting door gives begins sing sing life goes bra life goes life goes bra life goes on, yeah couple years built home sweet home couple kids running yard desmond molly jones happy ever market place desmond lets children lend hand arm! leg! molly stays home pretty face evening still sings band yes, life goes bra life goes hey, life goes bra life goes couple years built home sweet home couple kids running yard desmond molly jones yeah, happy ever market place molly lets children lend hand foot! desmond stays home pretty face evening singer band yeah, life goes bra life goes yeah, life goes bra life goes want fun take thank you, uh, ha! honey pie honey pie honey pie honey pie honey pie honey pie honey pie honey pie love you, honey pie hey, bungalow bill kill, bungalow bill? hey, bungalow bill kill, bungalow bill? went tiger hunting elephant gun case accidents always took mum american bullet headed saxon mother son children sing hey, bungalow bill kill, bungalow bill? hey, bungalow bill kill, bungalow bill? deep jungle mighty tiger lies bill elephants taken surprise captain marvel zapped right eyes, zap! children sing hey, bungalow bill kill, bungalow bill? hey, bungalow bill kill, bungalow bill? children asked kill sin looked fierce mummy butted looks could kill would instead children sing hey, bungalow bill kill, bungalow bill? hey, bungalow bill kill, bungalow bill? ho! hey, bungalow bill kill, bungalow bill? hey, bungalow bill kill, bungalow bill? hey, bungalow bill kill, bungalow bill? hey, bungalow bill kill, bungalow bill? hey, bungalow bill kill, bungalow bill? hey, bungalow bill kill, bungalow bill? op! look all, see love sleeping guitar gently weeps look floor see needs sweeping still guitar gently weeps know nobody told unfold love know someone controlled bought sold look world notice turning guitar gently weeps every mistake must surely learning still guitar gently weeps well... know diverted perverted know inverted one alerted look all, see love sleeping look wings play staging. guitar gently weeps look sitting nothing aging still guitar gently weeps oh, oh, oh, oh, oh, oh, oh, oh, oh, oh, yeah, yeah, yeah, yeah, yeah yeah, yeah, yeah, yeah, oh, ooh girl misses much do, yeah well acquainted touch velvet hand like lizard window pane man crowd multicoloured mirrors hobnail boots lying eyes hands busy working overtime soap impression wife ate donated national trust need fix going bits left uptown need fix going mother superior jump gun mother superior jump gun mother superior jump gun mother superior jump gun mother superior jump gun mother superior jump gun happiness warm gun happiness bang, bang, shoot, shoot happiness warm gun, mama happiness bang, bang, shoot, shoot hold arms yeah feel finger trigger yeah know nobody harm yeah happiness warm gun, mama happiness bang, bang, shoot, shoot happiness warm gun, yes happiness bang, bang, shoot, shoot happiness warm, yes is, gun happiness bang, bang, shoot, shoot well, know happiness warm gun, mama? happiness warm gun, yeah martha dear though spend days conversation please remember martha love forget martha dear hold head silly girl look done find thick help bit around silly girl take good look around take good look bound see meant silly girl hold hand silly girl see done find thick help bit around silly girl martha dear always inspiration please good martha love forget martha dear tired, slept wink tired, mind blink wonder get fix drink no, no, tired know tired mind set wonder call know would would say putting joke, harm know sleep, stop brain know three weeks, going insane know would give everything got little peace mind tired, feeling upset although tired another cigarette curse sir walter raleigh stupid git would say putting joke, harm know sleep, stop brain know three weeks, going insane know would give everything got little peace mind would give everything got little peace mind would give everything got little peace mind monsieur, monsieur, monsieur, another one? blackbird singing dead night take broken wings learn fly life waiting moment arise blackbird singing dead night take sunken eyes learn see life waiting moment free black bird fly, black bird fly light dark black night black bird fly, black bird fly light dark black night blackbird singing dead night take broken wings learn fly life waiting moment arise waiting moment arise waiting moment arise seen little piggies crawling dirt? little piggies life getting worse always dirt play around seen bigger piggies starched white shirts? find bigger piggies stirring dirt always clean shirts play around styes backing care goes around eyes something lacking need damn good whacking everywhere lots piggies living piggy lives see dinner piggy wives clutching forks knives eat bacon one time... somewhere black mountain hills dakota lived young boy named rocky raccoon one day woman ran another guy hit young rocky eye rocky like said gonna get boy one day walked town booked room local saloon rocky raccoon checked room find gideon bible rocky come, equipped gun shoot legs rival rival, seems, broken dreams stealing girl fancy name magill, called lil everyone knew nancy man, called dan next room hoedown rocky burst in, grinning grin said, danny boy, showdown daniel hot, drew first shot rocky collapsed corner, now, doctor came in, stinking gin proceeded lie table said, rocky, met match rocky said, doc, scratch better, better, doc, soon able rocky raccoon, fell back room find gideon bible gideon checked left doubt help good rocky revival, yeah, yeah do, come on, rocky boy do, come on, rocky boy story rocky listen footsteps coming drive listen footsteps arrive waiting knock, dear old front door hear mean love more? hear clock ticking mantel shelf see hands moving wonder tonight see mean love more? pass by, make cry, make blue cause know darling love never know hurt hate see pass by, make cry sorry doubted unfair car crash lost hair said would late hour two said alright waiting waiting hear pass by, make cry, make blue cause know darling love never know hurt hate see pass by, make cry road? road? road? road? one watching road? road? road? road? road? one watching road? ooh road? road? it, road? road? one watching road? knows long loved know love still wait lonely lifetime want to, ever saw catch name never really mattered always feel love forever forever love heart love whenever together love apart last find song fill air sing loud hear make easy near things endear oh, know half say meaningless say reach you, julia julia, julia, oceanchild, calls sing song love, julia julia, seashell eyes, windy smile, calls sing song love, julia hair floating sky shimmering, glimmering sun julia, julia, morning moon, touch sing song love, julia cannot sing heart speak mind, julia julia, sleeping sand, silent cloud, touch sing song love, julia hum hum hum hum... calls sing song love julia, julia, julia say birthday birthday too, yeah say birthday gonna good time glad birthday happy birthday come come yes going party party yes going party party yes going party party would like dance birthday take cha cha cha chance birthday would like dance birthday dance yeah come would like dance birthday take cha cha cha chance birthday would like dance birthday dance! dance say birthday well birthday too, yeah say birthday gonna good time glad birthday happy birthday two, three yes lonely want die yes lonely want die dead already ooh girl know reason morning want die evening want die dead already ooh girl know reason mother sky father earth universe know worth lonely want die dead already ooh girl know reason eagle picks eye worm licks bone feel suicidal like dylan mr. jones lonely want die dead already ooh girl know reason black cloud crossed mind blue mist around soul feel suicidal even hate rock roll want die yeah want die dead already ooh girl know reason want die yes, lonely want die reason want die born poor young country boy, mother nature son day long sitting singing songs everyone sit beside mountain stream, see waters rise listen pretty sound music flies doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo find field grass, mother nature son swaying daisies sing lazy song beneath sun doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo yeah yeah yeah mm, ooh ooh ooh mm, wah wah wah wah, mother nature son come come come come come joy come joy come let take easy come let take easy take easy take easy everybody got something hide except monkey ooh deeper higher fly higher fly deeper come come come come joy come joy come let make easy come let take easy take easy yeh yeh yeh take easy hoo everybody got something hide except monkey, yeah oh! inside outside outside inside come come come joy come joy come let make easy come let make easy make easy hoo make easy hoo everybody got something hide except monkey hey! come on, come on, come on, come on, come come on, come on, come on... come on, come on, come on, come on, come come on, come on, come on... sexy sadie done made fool everyone made fool everyone sexy sadie ooh done sexy sadie broke rules layed see layed see sexy sadie oooh broke rules one sunny day world waiting lover came along turn everyone sexy sadie greatest sexy sadie know world waiting world waiting sexy sadie oooh know sexy sadie get yet however big think however big think sexy sadie oooh get yet gave everything owned sit table smile would lighten everything sexy sadie latest greatest made fool everyone sexy sadie however big think sexy sadie get bottom back top slide stop turn ride till get bottom see yeah yeah yeah hey you, want love coming fast miles tell tell tell come tell answer well may lover dancer helter skelter helter skelter helter skelter yeah ooh! you, want make coming fast let break tell tell tell answer may lover dancer look helter skelter helter skelter helter skelter ooh look out, cos comes get bottom back top slide stop turn ride get bottom see yeah yeah yeah well you, want make coming fast let break tell tell tell answer may lover dancer look helter skelter helter skelter helter skelter look helter skelter coming fast yes yes coming fast head spinning, ooh... ha, ha, alright! got blisters fingers! long long long time could ever lost loved took long long long time happy found love many tears searching many tears wasting, see you, ever misplace want love know need ooh love ah, take ok! say want revolution well know want change world tell evolution well know want change world talk destruction know count know gonna alright know gonna alright know gonna alright say got real solution well know would love see plan ask contribution well know want money people minds hate tell brother wait know gonna alright know gonna alright know gonna alright say change constitution well know would love change head tell institution well know better free mind instead carrying pictures chairman mao going make anyone anyhow know gonna alright know gonna alright know gonna alright oh, oh, oh, oh, oh, oh, oh, oh, oh, alright, alright, alright, alright, alright alright, alright, alright, alright, alright oh, oh, oh, oh, oh, alright, alright, alright alright alright working girl north england way hit big time usa could hear would say honey pie making crazy love lazy please come home honey pie position tragic come show magic hollywood song became legend silver screen thought meeting makes weak knee honey pie driving frantic sail across atlantic belong honey pie come back me, yeah like like that, like kind hot kind music hot kind music play me, play me, honey, blues wind blew boat across sea kindly send sailing back honey pie making crazy love lazy please come home come, come back me, honey pie oooooooooooh honey pie, honey pie creme tangerine montelimar ginger sling pineapple heart coffee dessert, yes, know good news pulled savoy truffle cool cherry cream, nice apple tart feel taste time apart coconut fudge really blows blues pulled savoy truffle might feel pain cuts going know sweat going fill head becomes much shout aloud pulled savoy truffle know eat sweet turns sour know obla dibla show are? creme tangerine montelimar ginger sling pineapple heart coffee dessert, yes, know good news pulled savoy truffle yes pulled savoy truffle cry baby cry make mother sigh old enough know better king marigold kitchen cooking breakfast queen queen parlour playing piano children king cry baby cry make mother sigh old enough know better cry baby cry king garden picking flowers friend came play queen playroom painting pictures childrens holiday cry baby cry make mother sigh old enough know better cry baby cry duchess kircaldy always smiling arriving late tea duke problems message local bird bee cry baby cry make mother sigh old enough know better cry baby cry twelve o'clock meeting round table seance dark voices nowhere put specially children lark cry baby cry make mother sigh old enough know better cry baby cry cry cry cry baby make mother sigh old enough know better cry baby cry cry cry cry make mother sigh old enough know better cry baby cry bottle claret realised well, next time. forgot it, george, sorry. forgive me? yes. cheeky bitch! number number number number number number number number number number number number number number number welsh rarebit wearing brown underpants shortage grain hertfordshire everyone knew time went would get little bit older little bit slower thing, case manufactured someone always umpteen father giving diddly dee district leaving, intended pay number number know? know? number number number number number number number number number number number number sustained nothing worse also example whatever business deal falls informed third night fortune gives number number number people right, people right right, right, right, right, right right! right! number number number missed makes days late compared with, like, wow! weird stuff like taking sides sometimes floral bark rouge doctors brought specimen nobody short cuts, aha number situation standing still plan, telegram ooh ooh number number ooh man without terrors beard false headmaster reported son really try find function tell saying, voice low hive high eyes low alright! head fire, glasses saved was... enables move number number number number number number number number number number number wife called would better see surgeon whatever price yellow underclothes so, road, went see dentist instead gave pair teeth good instead joined fucking navy went sea broken chair, wings broken hair mood whirling aaah how? gathered france dogs dogging, hands clapping birds birding fish fishing themming whimming find night watchman unaware presence building onion soup number number number number number number industrial output financial imbalance thrusting shoulder blades watusi twist eldorado take brother, may serve well maybe nothing aaah maybe nothing what? what? maybe even impervious london could difficult thing hold line! hold line! hold line! hold line! quick like rush peace much like naked alright, alright, alright become naked block kick! block kick! block kick! block kick! block kick! block kick! block kick! block kick! block kick! block kick! time say good night good night, sleep tight sun turns light good night, sleep tight dream sweet dreams dream sweet dream sweet dreams close eyes close mine good night, sleep tight moon begins shine good night, sleep tight dream sweet dreams dream sweet dream sweet dreams mmmmmm mmmmmm mmmmmmmmmm close eyes close mine good night, sleep tight sun turns light good night, sleep tight dream sweet dreams dream sweet dream sweet dreams good night, good night, everybody everybody everywhere good night</t>
+    <t>"The Bodyguard"</t>
+  </si>
+  <si>
+    <t>"Boston"</t>
+  </si>
+  <si>
+    <t>"No Fences"</t>
+  </si>
+  <si>
+    <t>"Saturday Night Fever"</t>
+  </si>
+  <si>
+    <t>"Physical Graffiti"</t>
+  </si>
+  <si>
+    <t>"Born In The U.S.A."</t>
+  </si>
+  <si>
+    <t>"Supernatural"</t>
+  </si>
+  <si>
+    <t>"21"</t>
+  </si>
+  <si>
+    <t>"...Baby One More Time"</t>
+  </si>
+  <si>
+    <t>"Ropin' The Wind"</t>
+  </si>
+  <si>
+    <t>"Purple Rain"</t>
+  </si>
+  <si>
+    <t>"Whitney Houston"</t>
+  </si>
+  <si>
+    <t>"Slippery When Wet"</t>
+  </si>
+  <si>
+    <t>storyteller would like tell personal stories like call danger single story grew university campus eastern nigeria mother says started reading age two although think four probably close truth early reader read british american children books also early writer began write age seven stories pencil crayon illustrations poor mother obligated read wrote exactly kinds stories reading characters white blue eyed played snow ate apples talked lot weather lovely sun come despite fact lived nigeria never outside nigeria snow ate mangoes never talked weather need characters also drank lot ginger beer characters british books read drank ginger beer never mind idea ginger beer many years afterwards would desperate desire taste ginger beer another story demonstrates think impressionable vulnerable face story particularly children read books characters foreign become convinced books nature foreigners things could personally identify things changed discovered african books many available quite easy find foreign books writers like chinua achebe camara laye went mental shift perception literature realized people like girls skin color chocolate whose kinky hair could form ponytails could also exist literature started write things recognized loved american british books read stirred imagination opened new worlds unintended consequence know people like could exist literature discovery african writers saved single story books come conventional middle class nigerian family father professor mother administrator norm live domestic help would often come nearby rural villages year turned eight got new house boy name fide thing mother told family poor mother sent yams rice old clothes family finish dinner mother would say finish food know people like fide family nothing felt enormous pity fide family one saturday went village visit mother showed beautifully patterned basket made dyed raffia brother made startled occurred anybody family could actually make something heard poor become impossible see anything else poor poverty single story years later thought left nigeria university united states american roommate shocked asked learned speak english well confused said nigeria happened english official language asked could listen called tribal music consequently disappointed produced tape mariah carey assumed know use stove struck felt sorry even saw default position toward african kind patronizing well meaning pity roommate single story africa single story catastrophe single story possibility africans similar way possibility feelings complex pity possibility connection human equals must say went consciously identify african whenever africa came people turned never mind knew nothing places like namibia come embrace new identity many ways think african although still get quite irritable africa referred country recent example otherwise wonderful flight lagos two days ago announcement virgin flight charity work india africa countries spent years african began understand roommate response grown nigeria knew africa popular images would think africa place beautiful landscapes beautiful animals incomprehensible people fighting senseless wars dying poverty aids unable speak waiting saved kind white foreigner would see africans way child seen fide family single story africa ultimately comes think western literature quote writing london merchant called john lok sailed west africa kept fascinating account voyage referring black africans beasts houses writes also people without heads mouth eyes breasts laughed every time read one must admire imagination john lok important writing represents beginning tradition telling african stories west tradition sub saharan africa place negatives difference darkness people words wonderful poet rudyard kipling half devil half child began realize american roommate must throughout life seen heard different versions single story professor told novel authentically african quite willing contend number things wrong novel failed number places quite imagined failed achieving something called african authenticity fact know african authenticity professor told characters much like educated middle class man characters drove cars starving therefore authentically african must quickly add guilty question single story years ago visited mexico political climate time tense debates going immigration often happens america immigration became synonymous mexicans endless stories mexicans people fleecing healthcare system sneaking across border arrested border sort thing remember walking around first day guadalajara watching people going work rolling tortillas marketplace smoking laughing remember first feeling slight surprise overwhelmed shame realized immersed media coverage mexicans become one thing mind abject immigrant bought single story mexicans could ashamed create single story show people one thing one thing become impossible talk single story without talking power word igbo word think whenever think power structures world nkali noun loosely translates greater another like economic political worlds stories defined principle nkali told tells told many stories told really dependent power power ability tell story another person make definitive story person palestinian poet mourid barghouti writes want dispossess people simplest way tell story start secondly start story arrows native americans arrival british entirely different story start story failure african state colonial creation african state entirely different story recently spoke university student told shame nigerian men physical abusers like father character novel told read novel called american psycho shame young americans serial murderers obviously said fit mild irritation would never occurred think read novel character serial killer somehow representative americans better person student america cultural economic power many stories america read tyler updike steinbeck gaitskill single story america learned years ago writers expected really unhappy childhoods successful began think could invent horrible things parents done truth happy childhood full laughter love close knit family also grandfathers died refugee camps cousin polle died could get adequate healthcare one closest friends okoloma died plane crash fire trucks water grew repressive military governments devalued education sometimes parents paid salaries child saw jam disappear breakfast table margarine disappeared bread became expensive milk became rationed kind normalized political fear invaded lives stories make insist negative stories flatten experience overlook many stories formed single story creates stereotypes problem stereotypes untrue incomplete make one story become story course africa continent full catastrophes immense ones horrific rapes congo depressing ones fact people apply one job vacancy nigeria stories catastrophe important important talk always felt impossible engage properly place person without engaging stories place person consequence single story robs people dignity makes recognition equal humanity difficult emphasizes different rather similar mexican trip followed immigration debate sides mexican mother told fide family poor hardworking african television network broadcast diverse african stories world nigerian writer chinua achebe calls balance stories roommate knew nigerian publisher muhtar bakare remarkable man left job bank follow dream start publishing house conventional wisdom nigerians read literature disagreed felt people could read would read made literature affordable available shortly published first novel went station lagos interview woman worked messenger came said really liked novel like ending must write sequel happen went tell write sequel charmed moved woman part ordinary masses nigerians supposed readers read book taken ownership felt justified telling write sequel roommate knew friend funmi iyanda fearless woman hosts show lagos determined tell stories prefer forget roommate knew heart procedure performed lagos hospital last week roommate knew contemporary nigerian music talented people singing english pidgin igbo yoruba ijo mixing influences jay fela bob marley grandfathers roommate knew female lawyer recently went court nigeria challenge ridiculous law required women get husband consent renewing passports roommate knew nollywood full innovative people making films despite great technical odds films popular really best example nigerians consuming produce roommate knew wonderfully ambitious hair braider started business selling hair extensions millions nigerians start businesses sometimes fail continue nurse ambition every time home confronted usual sources irritation nigerians failed infrastructure failed government also incredible resilience people thrive despite government rather teach writing workshops lagos every summer amazing many people apply many people eager write tell stories nigerian publisher started non profit called farafina trust big dreams building libraries refurbishing libraries already exist providing books state schools anything libraries also organizing lots lots workshops reading writing people eager tell many stories stories matter many stories matter stories used dispossess malign stories also used empower humanize stories break dignity people stories also repair broken dignity american writer alice walker wrote southern relatives moved north introduced book southern life left behind sat around reading book listening read book kind paradise regained would like end thought reject single story realize never single story place regain kind paradise thank</t>
+  </si>
+  <si>
+    <t>kid spent summers grandparents ranch texas helped fix windmills vaccinate cattle chores also watched soap operas every afternoon especially days lives grandparents belonged caravan club group airstream trailer owners travel together around canada every summers would join caravan would hitch airstream trailer grandfather car would line airstream adventurers loved worshipped grandparents really looked forward trips one particular trip years old rolling around big bench seat back car grandfather driving grandmother passenger seat smoked throughout trips hated smell age would take excuse make estimates minor arithmetic would calculate gas mileage figure useless statistics things like grocery spending would hearing campaign smoking remember details basically said every puff cigarette takes number minutes life think might two minutes per puff rate decided math grandmother estimated number cigarettes per days estimated number puffs per cigarette satisfied would come reasonable number poked head front car tapped grandmother shoulder proudly proclaimed two minutes per puff taken nine years life vivid memory happened expected expected applauded cleverness arithmetic skills jeff smart made tricky estimates figure number minutes year division happened instead grandmother burst tears sat backseat know grandmother sat crying grandfather driving silence pulled onto shoulder highway got car came around opened door waited follow trouble grandfather highly intelligent quiet man never said harsh word maybe first time maybe would ask get back car apologize grandmother experience realm grandparents way gauge consequences might stopped beside trailer grandfather looked bit silence gently calmly said jeff one day understand harder kind clever want talk today difference gifts choices cleverness gift kindness choice gifts easy given choices hard seduce gifts careful probably detriment choices group many gifts sure one gifts gift smart capable brain confident case admission competitive signs clever dean admission would let smarts come handy travel land marvels humans plodding astonish invent ways generate clean energy lot atom atom assemble tiny machines enter cell walls make repairs month comes extraordinary also inevitable news synthesized life coming years synthesize engineer specifications believe even see understand human brain jules verne mark twain galileo newton curious ages would wanted alive right civilization many gifts individuals many individual gifts sit use gifts take pride gifts pride choices got idea start amazon years ago came across fact web usage growing percent per year would never seen heard anything grew fast idea building online bookstore millions titles something simply could exist physical world exciting turned years old would married year told wife mackenzie wanted quit job crazy thing probably would work since startups sure would happen mackenzie also princeton grad sitting second row told young boy would garage inventor would invented automatic gate closer cement filled tires solar cooker work well umbrella tinfoil baking pan alarms entrap siblings would always wanted inventor wanted follow passion working financial firm new york city bunch smart people brilliant boss much admired went boss told wanted start company selling books internet took long walk central park listened carefully finally said sounds like really good idea would even better idea someone already good job logic made sense convinced think hours making final decision seen light really difficult choice ultimately decided give shot think would regret trying failing suspected would always haunted decision try much consideration took less safe path follow passion proud choice tomorrow real sense life life author scratch begins use gifts choices make inertia guide follow passions follow dogma original choose life ease life service adventure wilt criticism follow convictions bluff wrong apologize guard heart rejection act fall love play safe little bit swashbuckling tough give relentless cynic builder clever expense others kind hazard prediction years old quiet moment reflection narrating personal version life story telling compact meaningful series choices made end choices build great story thank good luck</t>
+  </si>
+  <si>
+    <t>recall wonderful story sets theme remarks today party given billionaire shelter island late kurt vonnegut informs pal author joseph heller host hedge fund manager made money single day heller earned wildly popular novel catch whole history heller responds yes something never enough enough stunned simple eloquence say nothing relevance vital issues arising american society today many revolve around money yes money increasingly bottom line society great god prestige great measure man woman morning temerity ask soon minted mba graduates enter world commerce consider role enough business entrepreneurship society enough dominant role financial system economy enough values bring fields choose careers kurt vonnegut loved speak college students believed may paraphrase catch young people become ceos investment bankers consultants money managers especially hedge fund managers best poison minds humanity remarks morning try poison minds little bit humanity past two centuries nation moved agricultural economy manufacturing economy service economy predominantly financial economy financial economy definition subtracts value created productive businesses think owners business enjoy dividend yields earnings growth capitalistic system creates play financial markets capture investment gains costs financial intermediation deducted thus investing american business winner game beating stock market costs zero sum game intermediation costs deducted beating market group becomes loser game yes financial system takes less investors make yet financial field money made modern day america breeding ground wealthiest citizens made less million dollars last year make enough rank among highest paid hedge fund managers add hedge fund fees mutual fund management fees operating expenses commissions brokerage firms fees financial advisors investment banking legal fees mergers ipos enormous marketing advertising expenses entailed distribution financial products talking billion dollars per year sum extracted whatever returns stock bond markets generous enough deliver investors surely enough seriously undermine odds favor success citizens accumulating savings retirement yet fact finance sector become far nation largest generator corporate profits larger even combined profits huge energy health care sectors almost three times much either manufacturing information technology twenty five years ago financials accounted percent earnings giant corporations compose standard poor stock index ten years ago financial sector share risen percent last year financial sector profits soared time high percent add earnings financial affiliates giant manufacturers think general electric capital example auto financing arms general motors ford total financial earnings likely exceed percent earnings share may may enough seems likely continue grow least moving seems world longer making anything country merely trading pieces paper swapping stocks bonds back forth one another paying financial croupiers veritable fortune also adding even costs creating ever complex financial derivatives huge unfathomable risks built financial system enterprise becomes mere bubble whirlpool speculation great british economist john maynard keynes warned years ago consequences may dire capital development country becomes product activities casino job capitalism likely ill done profession business subservient field money management wall street become business profession subservient harvard business school professor rakesh khurana right defined conduct true professional words create value society rather extract yet money management definition extracts value returns earned business enterprises warren buffett wise partner charlie munger lays line money making activity contains profoundly antisocial effects high cost modalities become ever popular activity exacerbates current harmful trend ever nation ethical young brain power attracted lucrative money management attendant modern frictions distinguished work providing much value others telling highly profitable field managing money rather present three caveats commencement speakers like sum citing eminent philosopher endorse message exception offer new masters business administration words socrates spoken years ago challenged citizens athens honor love citizens great mighty nation care much laying greatest amount money honor reputation little wisdom truth greatest improvement soul ashamed nothing persuading take thought persons properties first chiefly care greatest improvement soul tell virtue given money virtue comes money every good man close returning kurt vonnegut story finally tracked turned poem delightful even better words long true story word honor joseph heller important funny writer dead party given billionaire shelter island said joe make feel know host yesterday may made money novel catch earned entire history joe said got something never said earth could joe joe said knowledge got enough bad rest peace time rest peace rest way bright futures lie world work done never enough citizens determined hearts courageous character intelligent minds idealistic souls yes world already quite enough guns political platitudes arrogance disingenuousness self interest snobbishness superficiality war certainty god one side never enough conscience enough tolerance idealism justice compassion wisdom humility self sacrifice greater good integrity courtesy poetry laughter generosity substance spirit elements urge carry careers remember great game life money best build world anew enough least today</t>
+  </si>
+  <si>
+    <t>feels like incredible understatement say grateful feel like relationship many social media like minus two days like coming going together grateful going talk trust going start saying one favorite parts job get research topics mean something one least favorite parts job normally come findings kicked butt make change entire life hard part get dig stuff think matters life life people around topic trust something think probably would eventually started look closely study shame vulnerability personal reason jumped trust early research career personal experience one day daughter ellen came home school third grade minute closed front door literally started sobbing slid door kind heap crying floor course scared said wrong ellen happened happened pulled together enough say something really hard happened today school shared couple friends recess time got back classroom everyone class knew happened laughing pointing calling names bad kids disruptive teacher even take marbles marble jar marble jar classroom jar kids making great choices together teacher adds marbles making great choices teacher takes marbles jar gets filled celebration class said one worst moments life laughing pointing miss bacchum teacher kept saying going take marbles know happening looked face seared mind said never trust anyone first reaction really honest damn straight tell anybody anything mama yeah right mean tell grow school mama get little apartment thing thinking quite honest find kids going beat nine year old know mamas know place like going explain trust third grader front took deep breath said ellen trust like marble jar said mean said share hard stories hard things happening friends time filled marble jar done thing thing thing like know share person make sense yes ellen said yes makes sense said marble jar friends said yeah totally hannah lorna marble jar friends said things got interesting said tell mean earn marbles like well lorna seat lunch cafeteria scoot give half heinie seat like like yeah sit like sit said big deal expecting hear said know hannah sunday soccer game waiting story said got hit ball laying field hannah picked ran first aid like yeah said hannah looked saw oma opa parents grandparents said look oma opa like like boy got marble goes well know friends eight grandparents parents divorced remarried husband parents divorced remarried said nice remembered names like hmm said marble jar friends said yeah couple marble jar friends said well kind things get marbles feeling came thought first thing could think talking soccer game game good friend eileen walked parents said diane david good see remember felt like like certainly trust cannot built small insignificant moments lives gotta grander gesture researcher start looking data gather doctoral students worked start looking crystal clear trust built small moments started looking examples people talked trust research said things like yeah really trust boss even asked mom chemotherapy going trust neighbor something going kid matter come help figure know one number one things emerged around trust small things people attend funerals someone showed sister funeral another huge marble jar moment people trust ask help needs many better giving help asking help right asking help one moments one ways work grounded theory researcher look data first see researchers talking saying believe best theories built existing theories lived experiences looked said let see research says went john gottman studying relationship years amazing work trust betrayal first thing read trust built smallest moments calls sliding door moments sliding doors movie gwyneth paltrow seen movie really tough movie happens follows life seemingly unimportant moment trying get train makes train movie stops splits two parts makes train make train follows radically different endings would argue trust sliding door moment example gives powerful said lying bed one night pages left murder mystery feeling knew killer dying finish book said even want want get brush teeth bathroom get back get know feeling want get situated read end book gets walks past wife bathroom brushing hair looks really sad said first thought keep walking keep walking many moment walk past someone like god look avert eyes look caller cell phone like yeah know big mess right time pick phone right yes looks like guilty laughter said sliding door moment struck story said opportunity build trust opportunity betray small moments trust moments betrayal well choose connect opportunity betrayal took brush hand started brushing hair said going right babe moment trust right fast forward five years clear trust talk trust marble jar got really share stories hard stuff people whose jars full people time really done small things helped believe worth story new question marbles trust talk talk trust trust big word right hear trust trust even know means wanted know anatomy trust mean started looking research found definition charles feldman think beautiful definition ever heard simply trust choosing make something important vulnerable actions someone else choosing make something important vulnerable actions someone else feldman says distrust shared important safe thought true feldman really calls let understand trust went back data find figure trust know trust data think know trust put together acronym braving braving trust braving connection someone parts trust boundaries trust boundaries hold clear boundaries respect trust without boundaries reliability trust say going reliability let tell reliability research terms always looking things valid reliable researchers research kind geeks okay would say scale weigh valid get accurate weight okay would valid scale would pay lot money scale actually valid scale pretend sake valid scale reliable scale scale got hundred times gonna say thing every time reliability say going cannot gain earn trust reliable definition reliability working lives reliability means clear limitations take much come short deliver commitments personal life means thing say someone god great seeing going give call lunch yes really great seeing moment discomfort goodbye right honest boundaries reliability huge accountability trust make mistake willing apologize make amends trust make mistake allowed apologize make amends accountability trust one shook core vault vault share hold confidence share hold confidence know understand came research understand side vault one door vault lose trust people good friend comes says god hear caroline getting divorce ugly pretty sure partner cheating shared something share trust even though gossiping giving juice trust completely diminished make sense vault fact hold confidences relationship see acknowledge confidentiality tricky thing vault lot times share things share way hot wire connection friend right anything nice say come sit next know yes closeness built talking bad people know call common enemy intimacy real intimacy built hating people counterfeit counterfeit trust real vault means respect story respect people story integrity cannot trust trusting relationship act place integrity encourage integrity came definition like ones like look data say integrity think integrity three pieces choosing courage comfort choosing right fun fast easy practicing values professing values right mean integrity non judgment fall apart ask help struggle without judged fall apart struggle ask help without judged really hard better helping asking help think set trusting relationships people really trust always help let tell ask help cannot reciprocate trusting relationship period assign value needing help think less needing help whether conscious offer help someone think less cannot judge needing help judge others needing help somewhere like getting value helper relationship think worth real trust exist unless help reciprocal non judgment last one generosity relationship trusting relationship assume generous thing words intentions behaviors check screw say something forget something make generous assumption say yesterday mom one year anniversary death really tough talked last month really hoping would called know care know think big deal wanted let know thinking opposed returning calls returning emails waiting moment spring well forgot call important know make generous assumption check make sense got boundaries reliability accountability vault integrity non judgment generosity anatomy trust complex need break simple reason many ever struggled trust relationship professional personal everybody statistically right end saying someone trust mean trust love dependable mean trust talk trust break understanding trust gives words say struggle reliable say going something count maybe issue non judgment break talk ask need specifically instead using huge word tons weight value around say specifically working working got boundaries issue one things interesting think one biggest casualties heartbreak disappointment failure struggle loss trust people loss self trust something hard happens lives first thing say trust stupid naive braving acronym works self trust something happens recently went really tough failure ask honor boundaries reliable count hold accountable really protective stories stay integrity judgmental toward give benefit doubt generous toward braving relationships people braving connection self trust braving self love self respect wildest adventure ever take whole lives would invite think think trust marble jar full count ask people give start self trust great quote maya angelou says trust people love say love right quotes african proverb said said wary naked man offering shirt lot times find struggle trust thing examine first marble jar treat ask people give something believe worthy receiving know worthy receiving trust everyone else thank much honored thank thank</t>
+  </si>
+  <si>
+    <t>know video arts asked would like talk creativity said problem problem telling people creative easy difficult knew would particularly easy spent last years watching various creative people produce stuff fascinating see could figure makes folk including creative couple years ago got excited friend mine runs psychology department sussex university brian bates showed research creativity done berkley brilliant psychologist called donald mackinnon seemed confirm impressively scientific way vague observations intuitions would years prospect settling quite serious study creativity purpose tonight gossip delightful spent several weeks state categorically tell tonight become creative complete waste time think would much better told jokes instead know lightbulb jokes many poles take screw lightbulb one hold bulb four turn table many folksingers take change lightbulb answer five one change bulb four sing much better old one many socialists take change lightbulb answer going change think works many creative art reason futile talk creativity simply cannot explained like mozart music van gogh painting saddam hussein propaganda literally inexplicable freud analyzed practically everything else repeatedly denied psychoanalysis could shed light whatsoever mysteries creativity brian bates wrote recently best research creativity done quite dramatic drop quantity largely suspect researchers began feel reached limits science could discover fact thing research could tell creative sort childhood limited help point lives however one negative thing say negative easier say creativity bit like sculptor asked sculpted fine elephant explained would taken big block marble knocked away bits look like elephant negative thing creativity talent talent way operating many actors take screw lightbulb answer thousands one thousands say could done many jewish mothers take screw lightbulb answer mind sit dark nobody cares many surgeons see say way operating mean creativity ability either example may surprise absolutely unrelated provided intelligent certain minimal level mackinnon showed investigating scientists architects engineers writers regarded peers creative way whatsoever different less creative colleagues way different mackinnon showed creative simply acquired facility getting particular mood way operating allowed natural creativity function fact mackinnon described particular facility ability play indeed described creative mood childlike able play ideas explore immediate practical purpose enjoyment play sake mood working moment robin skynner successor psychiatry book families survive comparing ways psychologically healthy families function ways families function ways successful corporations organizations function become fascinated fact usually describe way people function work terms two modes open closed add creativity possible closed mode many american network executives take screw lightbulb answer lightbulb many doorke let explain little closed mode mean mode time work inside feeling lots done get going get active probably slightly anxious mode although anxiety exciting pleasurable mode probably little impatient little tension much humor mode purposeful mode get stressed even bit manic creative contrast open mode relaxed expansive less purposeful mode probably contemplative inclined humor always accompanies wider perspective consequently playful mood curiosity sake operate pressure get specific thing done quickly play allows natural creativity surface let give example mean alexander fleming thought led discovery penicillin must open mode previous day would arranged number dishes culture would grow upon day question glanced dishes discovered one culture appeared would closed mode would focused upon need dishes cultures grown upon saw one dish use purpose would quite simply thrown away thank goodness open mode became curious culture grown particular dish curiosity world knows led lightbulb sorry penicillin closed mode uncultured dish irrelevance open mode clue one example one alfred hitchcock regular writers described working screenplays says came block discussions became heated intense hitchcock would suddenly stop tell story nothing work hand first almost outraged discovered intentionally mistrusted working pressure would say pressing pressing working hard relax come says writer course finally always let make one thing quite clear need open mode pondering problem come solution must switch closed mode implement made decision efficient decisively undistracted doubts correctness example decide leap ravine moment take bad time start reviewing alternative strategies attacking machine gun post make particular effort see funny side humor natural concomitant open mode luxury closed taken decision narrow focus implementing carried switch back open mode review feedback rising action order decide whether course taken successful whether continue next stage plan whether create alternative plan correct error perceive back closed mode implement next stage words efficient need able switch backwards forwards two modes problem often get stuck closed mode pressures familiar tend maintain tunnel vision times really need step back contemplate wider view particularly true example politicians main complaint non political colleagues become addicted adrenaline get reacting events hour hour basis almost completely lose desire ability ponder problems open mode well minutes many women libbers take change lightbulb answer one screw make documentary many psychiatrists take change lightbulb answer one lightbulb really got want change one one thing say creativity certain conditions make likely get open mode something creative occur likely guarantee anything occur might sit around hours last tuesday nothing zilch bupkis sausage nevertheless least tell get open mode need five things sorry mind wondering getting open mode quickly instead inch waist need humor beg pardon let take space first become playful therefore creative usual pressures cope got closed mode create space away demands means sealing must make quiet space undisturbed next time enough create space create space specific period time know space last exactly moment normal life start specific moment space starts equally specific moment space stops seal every day closed mode habitually operate would never realized vital read historical study play dutch historian called johan huizinga says play distinct ordinary life locality duration main characteristic secludedness limitedness play begins certain moment otherwise play combining first two factors create oasis quiet setting boundaries space time creativity happen play possible separate everyday life arranged take calls closed door sat somewhere comfortable take couple deep breaths anything like pondered problem want turn opportunity seconds find thinking forgot got call jim must tell tina need report wednesday thursday means must move lunch joe damn called paul getting joe daughter interview must pop afternoon get birthday present plants need watering none pencils sharpened right got much going start sorting paper clips shall make phone calls thinking tomorrow got everything way know easier trivial things urgent important things urgent like thinking also easier little things know start big things sure say create oasis quiet know mind pretty soon start racing going take seriously sit bit tolerating racing slight anxiety comes time mind quiet takes time mind quiet absolutely use arranging space time oasis lasting minutes getting quieter getting open mode stop deeply frustrating must allow good chunk time would suggest hour half gotten open mode hour left something happen lucky put whole morning aside experience hour half need break far better hour half hour half next thursday maybe hour half week fix one four half hour session another reason factor number three time yes know done time half creating oasis going tell use oasis created still need time well let tell story always intrigued one monty python colleagues seemed talented never produce scripts original mine watched time began see faced problem fairly soon saw solution inclined take even though think knew solution original whereas situation although sorely tempted take easy way finish clock could would sit problem another hour quarter sticking would end almost always come something original simple work creative simply prepared stick problem longer imagine excitement found exactly mackinnon found research discovered creative professionals always played problem much longer tried resolve prepared tolerate slight discomfort anxiety experience solved problem know mean problem need solve feel inside kind internal agitation tension uncertainty makes plain uncomfortable want get rid discomfort order take decision sure best decision taking make feel better well creative people learned tolerate discomfort much longer put pondering time solutions creative people find hardest creative people need time project image decisive feel create image need decide everything quickly great show confidence well behavior suggest sincerely effective way strangling creativity birth please note arguing real decisiveness favor taking decision taken sticking implemented suggesting take decision always ask question decision taken answered defer decision order give maximum pondering time lead creative solution pondering somebody accuses indecision say look babycakes decide tuesday chickening creative discomfort taking snap decision easy summarize third factor facilitates creativity time giving mind long possible come something original next factor number confidence space time oasis getting open mode nothing stop creative effectively fear making mistake think play see play experiment happens would happen essence playfulness openness anything may happen feeling whatever happens cannot playful frightened moving direction wrong something done well either free play alan watts puts spontaneous within reason got risk saying things silly illogical wrong best way get confidence know creative nothing wrong thing mistake drivel may lead break last factor fifth humor well happen think main evolutionary significance humor gets closed mode open mode quicker anything else think know laughter brings relaxation humor makes playful yet many times important discussions held really original creative ideas desperately needed solve important problems humor taboo subject discussed air quotes serious attitude seems stem basic misunderstanding difference serious solemn suggest group could sitting around dinner discussing matters extremely serious like education children marriages meaning life talking film could laughing would make discussing one bit less serious solemnity hand know mean point two beautiful memorial services ever attended lot humor somehow freed made services inspiring cathartic solemnity serves pomposity self important always know level consciousness egotism going punctured humor see threat dishonestly pretend deficiency makes views substantial makes feel bigger humor essential part spontaneity essential part playfulness essential part creativity need solve problems matter serious may set space time oasis giggle want ladies gentlemen five factors arrange make lives creative space time time confidence lord jeffrey archer know get open mode requirement keep mind gently around subject pondering daydream course keep bringing mind back like meditation extraordinary thing creativity keep mind resting subject friendly persistent way sooner later get reward unconscious probably shower later breakfast next morning suddenly rewarded blue new thought mysteriously appears put pondering time first many cecil parkinsons take change lightbulb answer two one screw one screw many account executives take screw lightbulb answer get back many norwei sorry many yugoslav many malt many dutch jokes one thing looking reminds think easy creative got people play always find two throw ideas backwards forwards get interesting original places could ever gotten danger real danger one person around makes feel defensive lose confidence play goodbye creativity always make sure play friends people like trust never say anything squash either never say wrong like always positive build said would even better quite understand explain let pretend try establish free atmosphere possible sometimes wonder success japanese partly due instinctive understanding use groups creatively westerners often amazed unstructured nature japanese meetings maybe lack structure absence time pressure frees solve problems creatively clever japanese sometimes plan structured ness example insisting first people give views junior speak freely without possibility contradicting already said somebody important four minutes left many irish sorry sorry well look last thing say creativity like humor joke laugh comes moment connect two different frameworks reference new way example old story woman survey sexual attitudes stops airline pilot asks amongst things last sexual intercourse replies nineteen fifty eight knowing airline pilots researcher surprised queries well says pilot twenty one ten laugh eventually moment contact two frameworks reference way express year hour clock idea new idea exactly thing connecting two hitherto separate ideas way generates new meaning connecting different ideas difficult connect cheese motorcycles moral courage light green bananas international cooperation get computer make billion random connection new connections juxtapositions significant generate new meaning play deliberately try inventing random juxtapositions use intuition tell whether seem significance bit computer produce millions new connections tell one smells interesting course produce juxtapositions absolutely ridiculous absurd good edward bono invented notion lateral thinking specifically suggests book beyond yes try loosening assumptions playing deliberately crazy connections calls absurd ideas intermediate impossibles points use intermediate impossible completely contrary ordinary logical thinking right stage matter intermediate impossible right absurd nevertheless used stepping stone another idea right another example playing nothing wrong summarize really know start got stuck start generating random connections allow intuition tell one might lead somewhere interesting well really tell help creative everything two minutes left come important part stop subordinates becoming creative real threat believe one appreciates better trouble creative people stop decisive hard nosed bastards like running businesses efficiently mean know encourage someone creative next thing rocking boat coming ideas asking questions nip kind thing bud start justifying decisions reasoned argument sharing information concealment gives considerable advantages power struggles stamp creativity rest organization get bit respect going one allow subordinates humor threatens self importance especially omniscience treat humor frivolous subversive subversive course humor setup way people express opposition since express openly like ton bricks let get clear blame humor resistance way working creates blame way working important mean solemnly dignity laughing matter second keeping feeling irreplaceable involves cutting everybody else size miss opportunity undermine employees confidence perfect opportunity comes reviewing work done use authority zero immediately things find wrong never never balance negatives positives criticize school teachers always remember praise makes people uppity third demand people always actively things catch anyone pondering accuse laziness indecision starve employees thinking time leads creativity insurrection demand urgency times use lots fighting talk war analogies establish permanent atmosphere stress breathless anxiety crisis phrase keep mode closed way nonsense types sure tiny tiny microscopic quantity creativity organization let vigilance slip one moment could find surrounded happy enthusiastic creative people might never able completely control ever careful thank good night thank</t>
+  </si>
+  <si>
+    <t>title must seem like contradiction solitude leadership solitude means alone leadership necessitates presence others people leading think leadership american history likely think washington head army lincoln head nation king head movement people multitudes behind looking direction think solitude apt think thoreau man alone woods keeping journal communing nature silence leadership learn qualities character mind make fit command platoon beyond perhaps company battalion leave military corporation foundation department government solitude least especially plebes even privacy opportunity simply physically alone never mind solitude ability alone thoughts yet submit solitude one important necessities true leadership lecture attempt explain need begin talking leadership really means spent years teaching another institution like west point liked talk lot leadership yale university school might gone come friends might going yale harvard stanford mit forth institutions like west point also see role training leaders constantly encourage students like west point regard leaders among peers future leaders society indeed look around american elite people charge government business academia major institutions senators judges ceos college presidents forth find come overwhelmingly either ivy league peer institutions service academies especially west point began wonder taught yale leadership really consists students like energetic accomplished smart often ferociously ambitious enough make leaders much liked even admired certainly seem like leaders leader wondered mean accomplished successful getting straight make leader think great heart surgeons great novelists great shortstops may terrific mean leaders leadership aptitude leadership achievement leadership even cellence different things otherwise concept leadership meaning seemed especially true kind excellence saw students around see things changed since went college everything gotten much intense much get top school like yale west point start lot earlier begin thinking college juniors maybe couple extracurriculars know like guys endless series hoops jump starting way back maybe early junior high school classes standardized tests extracurriculars school extracurriculars outside school test prep courses admissions coaches private tutors sat yale college admissions committee couple years ago first thing admissions officer would presenting case rest committee read call brag admissions lingo list student extracurriculars well turned student six seven extracurriculars already trouble students got addition perfect grades top scores usually saw around great kids trained world class hoop jumpers goal set could achieve test gave could pass flying colors one put excellent sheep doubt would continue jump hoops ace tests harvard business school michigan law school johns hopkins medical school goldman sachs mckinsey consulting whatever approach would indeed take far life would come back reunion partner white case attending physician mass general assistant secretary department state exactly places like yale mean talk training leaders educating people make big name world people impressive titles people university brag people make top people climb greasy pole whatever hierarchy decide attach think something desperately wrong even dangerous idea explain want spend minutes talking novel many may read heart darkness read probably seen apocalypse based marlow novel becomes captain willard played martin sheen kurtz novel becomes colonel kurtz played marlon brando novel vietnam colonialism belgian congo three generations vietnam marlow military officer merchant marine civilian ship captain sent company running country charter belgian crown sail deep upriver congo river retrieve manager ensconced jungle gone rogue like colonel kurtz movie everyone knows novel imperialism colonialism race relations darkness lies human heart became clear certain point taught novel also bureaucracy called minute ago hierarchy company company rules procedures ranks people power people scrambling power like bureaucracy like big law firm governmental department matter university like telling like bureaucracy join word bureaucracy tends negative connotations say way criticism merely description army bureaucracy one largest famously bureaucratic bureaucracies world army gave among things indispensable bureaucratic acronym snafu situation normal fucked fouled cleaned version comes army world war need know get commission joining bureaucracy however long stay army operating within bureaucracy different armed forces many ways every institution society respect need know bureaucracies operate kind behavior kind character reward kind punish back novel marlow proceeds upriver stages like captain willard movie first gets outer station kurtz inner station central station marlow spends time get best look bureaucracy action kind people succeed marlow description manager central station big boss commonplace complexion features manners voice middle size ordinary build eyes usual blue perhaps remarkably cold otherwise indefinable faint expression lips something stealthy smile smile remember explain common trader youth employed parts nothing obeyed yet inspired neither love fear even respect inspired uneasiness uneasiness definite mistrust uneasiness nothing idea effective faculty genius organizing initiative order even learning intelligence position come originated nothing could keep routine going great great little thing impossible tell could control man never gave secret away perhaps nothing within suspicion made one pause note adjectives commonplace ordinary usual common nothing distinguished person time read passage realized perfect description kind person tends prosper bureaucratic environment reason suddenly struck perfect description head bureaucracy part chairman academic department exact smile like shark exact ability make uneasy like something wrong ever going tell like manager sorry say like many people meet negotiate bureaucracy army matter whatever institution end giving talents army whether microsoft world bank whatever head department genius organizing initiative even order particular learning intelligence distinguishing characteristics ability keep routine going beyond marlow says position come really great mystery bureaucracies often best people stuck middle people running things leaders mediocrities excellence usually gets greasy pole gets talent maneuvering kissing people kicking people pleasing teachers pleasing superiors picking powerful mentor riding coattails time stab back jumping hoops getting along going along whatever people want finally comes seem like manager central station nothing inside taking stupid risks like trying change things done question done keeping routine going tell forewarn promise meet people find environments rewarded conformity tell decide different kind leader tell one reason thought things put pieces together kind students kind leadership trained kind leaders saw institution realized national problem crisis leadership country every institution government look happened american corporations recent decades old dinosaurs like general motors twa steel fell apart look happened wall street last couple years finally know sensitive ground look happened first four years iraq war stuck fault enlisted ranks noncoms junior officers fault senior leadership whether military civilian winning even changing direction crisis leadership america overwhelming power wealth earned earlier generations leaders made complacent long training leaders know keep routine going answer questions know ask fulfill goals know set think get things done whether worth first place greatest technocrats world ever seen people trained incredibly good one specific thing interest anything beyond area exper tise leaders words thinkers people think people formulate new direction country corporation college army new way things new way looking things people words vision people would say great tell kids yale bother telling ones west point people think institution assume last place anyone would want talk thinking creatively cultivating independence mind army accident word regiment root word regimentation surely come must ultimate conformists must people bought way things interest changing kind young people think world ponder big issues question authority would gone amherst pomona west point told think know true know otherwise would never invited talk even convinced spent days campus quote colonel scott krawczyk course director lecture gave last year english earliest days country model officers built model citizenry reflective democratic ideals different possessed democratic spirit marked independent judgment freedom measure action express disagreement crucial responsibility never tolerate tyranny anyone paying attention last years understands changing nature warfare means officers including junior officers required ever able think independently creatively flexibly deploy whole range skills fluid complex situation lieutenant colonels essentially functioning provincial governors iraq captains find charge remote town somewhere afghanistan people know follow orders execute routines look successful acclaimed perhaps finest soldier generation general david petraeus one rare people rises bureaucracy right reasons thinker intellectual fact prospect magazine named public intellectual year world princeton makes thinker went princeton even taught west point assure personal experience lot highly educated people know think makes thinker leader precisely able think things confidence courage argue ideas even popular even please superiors courage physical courage possess abundance another kind courage moral courage courage stand believe always easy path straight one running mosul commander airborne developing strategy would later formulate counterinsurgency field manual ultimately apply throughout iraq pissed lot people way ahead leadership baghdad washington bureaucracies like sort thing another two star saying implicitly loudly leadership wrong way running war indeed rewarded first put charge training iraqi army considered blow career dead end job stuck guns ultimately vindicated ironically one central elements counterinsurgency strategy precisely idea officers need think flexibly creatively independently first half lecture idea true leadership means able think act convictions learn learn think let start learn think study team researchers stanford came couple months ago investigators wanted figure today college students able multitask much effectively adults manage researchers asked answer discovered means expected enhanced cognitive abilities investigators expected find mental faculties enable people multitask effectively simply words people multitask effectively really surprising finding people multitask worse mental abilities multitasking one thing made study different others researchers test people cognitive functions multitasking separated subject group high multitaskers low multitaskers used different set tests measure kinds cognitive abilities involved multitasking found every case high multitaskers scored worse worse distinguishing relevant irrelevant information ignoring latter words distractible worse might call mental filing keeping information right conceptual boxes able retrieve quickly words minds disorganized even worse thing defines multitasking switching tasks multitasking short thinking impairs ability think thinking means concentrating one thing long enough develop idea learning people ideas memorizing body information however much may sometimes useful developing ideas short thinking simply cannot bursts seconds time constantly interrupted facebook messages twitter tweets fiddling ipod watching something youtube find first thought never best thought first thought always someone else always already heard subject always conventional wisdom concentrating sticking question patient letting parts mind come play arrive original idea giving brain chance make associations draw connections take surprise often even idea turn good need time think make mistakes recognize make false starts correct outlast impulses defeat desire declare job done move next thing used students bragged fast wrote papers would tell great german novelist thomas mann said writer someone writing difficult people best writers write much slowly everyone else better slower write james joyce wrote ulysses greatest novel century rate hundred words day half length selection read earlier heart darkness seven years eliot one greatest poets country ever produced wrote pages poetry course entire year career half page month form thought best thinking slowing concentrating third time used word concentrating concentrating focusing easily consider lecture concentration solitude think word means means gathering together single point rather letting dispersed everywhere cloud electronic social input seems facebook twitter youtube think generational thing radio magazines even newspapers ultimately elaborate excuse run away avoid difficult troubling questions human throws way right thing life believe things taught child words live words like duty honor country really mean happy members service academies unique position among college students especially today know going job graduate even know employer going happens fulfill commitment army unless know figure want rest life unless able listen quiet voice inside tells really care really believe indeed things might evolving pressure experiences students everywhere else agonize questions may postponing years maybe agonizing everyone starts decides finish wonder cause shame put demanding training anyone ask people age committing work awesome responsibility mortal danger rigor regimentation quite properly subject naturally tendency make lose touch passion brought first place saw exactly kind thing yale students robots quite reverse tensely idealistic overwhelming weight practical responsibilities hoops jump often made lose sight ideals first place perfectly natural doubts questions even difficulties question suppress distract pretend exist confront directly honestly courageously decide find answers dilemmas found twitter comedy central even new york times found within without distractions without peer pressure solitude let clear solitude always mean introspection let back heart darkness solitude concentration saves marlow amidst madness central station gets finds steamboat supposed sail upriver giant hole one going help fix let run says papier mephistopheles talking manager assistant even worse since still trying kiss way hierarchy raving away think internet ever present social buzz chattering away let run papier mephistopheles seemed tried could poke forefinger would find nothing inside little loose dirt great comfort turn chap battered twisted ruined tin pot steamboat expended enough hard work make love influential friend would served better given chance come bit find could like work rather laze think fine things done like work man like work chance find reality others man ever know chance find phrase finding acquired bad reputation suggests aimless liberal arts college graduate english major doubt someone went place like amherst pomona spoiled get job spends time staring space marlow mariner ship captain practical hardheaded person could find say marlow creator conrad spent years merchant marine eight ship captain became writer artist idea sailor marlow believes need find much anyone way says work solitary work concentration climbing steamboat spending uninterrupted hours hammering shape building house cooking meal even writing college paper really put reality others thinking means finding finding reality problem facebook twitter even new york times expose things especially constant way people older people well younger people continuously bombarding stream people thoughts marinating conventional wisdom people reality others creating cacophony impossible hear voice whether thinking anything else emerson meant said inspire lead race must defended travelling souls men living breathing reading writing daily time worn yoke opinions notice uses word lead leadership means finding new direction simply putting front herd heading toward cliff reading books better reading tweets wall posts well sometimes sometimes need put book think reading think reading book two advantages tweet first person wrote thought lot carefully book result solitude attempt think second books old disadvantage precisely makes valuable stand conventional wisdom today simply today even merely reflect conventional wisdom day say something different hear time great books ones find syllabus ones people continued read reflect conventional wisdom day say things permanent power disrupt habits thought revolutionary time still revolutionary today say revolutionary deliberately evoking american revolution result precisely kind independent thinking without solitude solitude adams jefferson hamilton madison thomas paine would america solitude mean introspection mean concentration focused work mean sustained reading help know better one thing going include form solitude seem counterintuitive friendship course friendship opposite solitude means people talking one kind friendship particular deep friendship intimate conversation long uninterrupted talk one person skyping three people texting two others time hang friend room listening music studying emerson meant said soul environs friends may enter grander self acquaintance solitude introspection means talking one best ways talking talking another person one person trust one person unfold soul one person feel safe enough allow acknowledge things acknowledge things otherwise doubts supposed questions supposed ask feelings opinions would get laughed group reprimanded authorities call thinking loud discovering believe course articulating takes much time much patience solitude strict sense new electronic world disrupted violently instead one two true friends sit talk three hours time friends never actually talk instead bounce one line messages hundred times day friendship distraction know none easy even threw away cell phones unplugged computers rigors training keep busy make solitude forms anything less difficult find highest reason need try precisely job training demand probably heard hazing scandal naval base bahrain news recently terrible abusive stuff involved entire unit orchestrated allegedly head unit senior noncommissioned officer going confronted situation like going unit courage right even know right thing easy read code conduct easy put practice especially risk losing loyalty people serving trust peer officers approval superiors commanding officer see superiors condoning something think wrong find strength wisdom challenge unwise order question wrongheaded policy first time write letter mother slain soldier find words comfort empty formulas truly formidable dilemmas people ever face lives let alone time start preparing way thinking issues morality mortality honor strength deal arise waiting confront practice would like waiting first firefight learn shoot weapon situation</t>
+  </si>
+  <si>
+    <t>want talk tonight strictly speaking character physical laws one might imagine least one talking nature one talking character physical laws want talk nature rather stand relative nature want tell think know guess one goes guessing someone suggested would ideal went along would slowly explain guess laws create new law right went along know whether able first want tell present situation know physics think told everything already lectures told great principles known principles must principles something principles spoke conservation energy energy something quantum mechanical laws quantum mechanical principles something principles added together still tell content nature talking tell little bit stuff principles supposed working first matter remarkably enough matter matter stars made known matter earth character light emitted stars give kind fingerprint tell kind atoms stars earth kind atoms appear living creatures non living creatures frogs made goop different arrangement rocks makes problem simpler nothing atoms everywhere atoms seem made general constitution nucleus around nucleus electrons begin list parts world think know one electrons particles outside atoms nuclei understood today made two things called neutrons protons two particles incidentally see stars see atoms emit light light described particles called photons beginning spoke gravitation quantum theory right gravitation kind waves behave like particles call gravitons believe read gravity finally mention called beta decay neutron disintegrate proton electron neutrino alien anti neutrino another particle neutrino addition particles listing course anti particles quick statement takes care doubling number particles immediately complications particles listed low energy phenomena fact ordinary phenomena happen everywhere universe far know exception high energy particle something laboratory able peculiar things leave special cases ordinary phenomena presumably explained action emotions kinds things example life supposedly made understood mean understandable principle action movements atoms atoms made neutrons protons electrons must immediately say say understand principle mean think would could figure everything find nothing new physics discovered order understand phenomena light instance fact stars emit energy solar energy stellar energy presumably also understood terms nuclear reactions among particles kinds details way atoms behave accurately described kind model least far know present fact say range phenomena today far know phenomena sure cannot explained way even deep mystery always possible instance phenomenon called super conductivity still phenomenon metals conduct electricity without resistance low temperatures first obvious consequence known laws particles turns thought carefully enough seen fact consequence known laws phenomena extrasensory perception cannot explained known knowledge physics interesting however phenomena well established cannot guarantee could demonstrated course would prove physics incomplete therefore extremely interesting physicists whether right wrong many many experiments exist show work goes astrological influences true stars could affect day good dentist america kind astrology would wrong physics theory would wrong mechanism understandable principle things would make reason skepticism among scientists regard ideas hand case hypnotism first looked like also would impossible described incompletely known better realized absolutely impossible hypnosis could occur normal physiological unknown processes require special new kind course today although knowledge theory goes outside nucleus atom seems precise complete enough sense given enough time calculate anything accurately measured turns forces neutrons protons constitute nucleus completely known understood well mean cannot today today understand forces neutrons protons extent wanted give enough time computers could calculate exactly energy levels carbon something like know enough although corresponding thing energy levels outside electrons atom cannot nuclei nuclear forces still understood well order find experimenters gone study phenomena high energy hit neutrons protons together high energy produced peculiar things studying peculiar things hope understand better forces neutrons protons well pandora box opened experiments although really wanted get better idea forces neutrons protons hit things together hard discover particles world matter fact column plus four dozen particles dredged attempt understand four dozen put column relevant neutron proton problem interact much neutrons protons got something force neutrons protons got little bit much addition dredge digging mud picked couple pieces wanted irrelevant problem nuclear forces one called meson muon neutrino goes two kinds neutrinos one goes electron one goes meson incidentally amazingly laws muon neutrino known far tell experimentally law behave precisely electron neutrino except mass meson times heavier electron difference known objects rather curious say anymore nobody knows anymore four dozen particles frightening array plus anti particles frightening array things turns various names mesons pions kaons lambda sigma four dozen particles going lot names turns particles come families helps little bit actually called particles last short time debates whether fact possible define existence whether particle enter debate order illustrate family idea take two part cases neutron proton neutron proton mass within one times heavy electron roughly remember numbers thing remarkable nuclear forces strong forces inside nucleus force pair protons two protons proton neutron neutron neutron words strong nuclear forces tell proton neutron symmetry law neutrons may substituted protons without changing anything provided talking strong forces talking electrical forces change neutron proton terrible difference proton carries electrical charge neutron electric measurement immediately see difference proton neutron symmetry replace neutrons protons call approximate symmetry right strong interactions nuclear forces right deep sense nature work electricity called partial symmetry struggle partial symmetries families extended turns substitution neutron proton extended substitution wider range particles accuracy still lower see neutrons always substituted protons approximate true electricity wider substitutions discovered legitimate still poor poor symmetry accurate helped gather particles families thus locate places particles missing help discover new ones kind game roughly guessing family relations illustrative kind preliminary sparring one nature really discovering deep fundamental law get deeper discoveries examples important previous history science instance mendeleev discovery periodic table elements analogous game first step complete description reason periodic table came much later atomic theory way organization knowledge nuclear levels characteristics made maria mayer jensen call shell model nuclei years ago analogous game reduction complexity made approximate guesses way stands today addition things principles talking principle relativity things must behave quantum mechanically combining relativity conservation laws must local put principles together discover many inconsistent seems add quantum mechanics plus relativity plus proposition everything local plus number tacit assumptions really find prejudiced see hard say adding together get inconsistency really get infinity various things calculate well get infinity ever agree agrees nature turns possible sweep infinities rug certain crude skill temporarily able keep calculating fact matter principles told till put together plus tacit assumptions know gives trouble cannot mutually consistent nice problem example tacit assumptions know significance propositions following calculate chance every possibility probably happen happen add one add alternatives get probability seems reasonable reasonable things trouble always another proposition energy something must always positive negative another proposition probably added order get inconsistency called causality something like idea effects cannot proceed causes actually one made model disregard proposition probability disregard causality also consistent quantum mechanics relativity locality really know exactly assuming gives difficulty producing infinities present situation going discuss would look new law general look new law following process first guess compute well laugh really true compute consequences guess see right law guessed right see would imply compare computation results nature say compare experiment experience compare directly observation see works disagrees experiment wrong simple statement key science make difference beautiful guess make difference smart made guess name disagrees experiment wrong true however one check little bit make sure wrong someone experiment may reported incorrectly may feature experiment noticed like kind dirt obviously check furthermore man computed consequences may one made guesses may made mistake analysis obvious remarks say disagrees experiment wrong mean experiment checked calculations checked thing rubbed back forth times make sure consequences logical consequences guess fact disagrees carefully checked experiment give somewhat wrong impression science means keep guessing possibilities comparing experiments put experiment little bit weak position turns experimenters certain individual character like experiments even nobody guessed yet often true experiments region people know theorist know anything nobody guessed yet instance may guessed laws know whether really work high energy good guess work high energy experimenters say let try higher energy therefore experiment produces trouble every produces discovery one things thought wrong experiment produce unexpected results starts guessing instance unexpected result meson neutrino guessed anybody whatever discovered still nobody method guessing natural thing see course method disprove definite theory definite theory real guess really compute consequences could compared experiment principle get rid theory always prove definite theory wrong notice however never prove right suppose invent good guess calculate consequences discover every consequence calculate agrees experiment theory right simply proved wrong future could wider range experiments compute wider range consequences may discover thing wrong laws like newton laws motion planets lasts long time guessed law gravitation tackling kinds consequences solar system compared experiment took several years slight error motion mercury developed time theory failed proved wrong could taken temporarily right never proved right tomorrow experiment may succeed proving thought right wrong never right sure wrong however rather remarkable last long mean idea last long incidentally people one ways stopping science would experiments region know laws experimenters search diligently greatest effort exactly places seems likely prove theories wrong words trying prove wrong quickly possible way find workers progress example today among ordinary low energy phenomena know look trouble think everything right particular big program looking trouble nuclear reactions superconductivity must say concentrating discovering fundamental laws whole range physics interesting understanding another level phenomena like super conductivity nuclear reactions talking discovering trouble something wrong fundamental law nobody knows look therefore experiments today field finding new law high energy must also point cannot prove vague theory wrong guess make poorly expressed rather vague method used figuring consequences rather vague sure say think everything due moogles moogles less sort explain works say theory good proved wrong process computing consequences indefinite little skill experimental result made look like expected consequence probably familiar fields example hates mother reason course caress love enough child actually investigate find matter fact love much everything right well overindulgent young vague theory possible get either result wait cure one following would possible say possible state ahead time much love enough much love overindulgent exactly would perfectly legitimate theory could make tests usually said pointed much love dealing psychological matters things defined precisely yes claim know anything examples horrified hear physics exactly kind approximate symmetries works something like approximate symmetry suppose perfect calculate consequences easy suppose perfect compare experiment course agree symmetry supposed expect approximate agreement pretty good say nice agreement poor say well particular thing must especially sensitive failure symmetry laugh make progress way beginning subject first new particles new jockeying around feeling way guessing result beginning science thing true psychology symmetry propositions physics laugh hard necessary beginning careful easy fall deep end kind vague theory hard prove wrong takes certain skill experience walk plank game process guessing computing consequences comparing experiment get stuck various stages example may guess stage get stuck ideas guess idea may get computing stage stuck example yukawa guessed idea nuclear forces nobody could compute consequences mathematics difficult therefore could compare experiments successfully theory remained long time discovered junk junk contemplated yukawa therefore undoubtedly simple least way yukawa another place get stuck experimental end example quantum theory gravitation going slowly use experiments never involve quantum mechanics gravitation time gravity force weak compared electrical forces want concentrate theoretical physicist delighted end problem make guesses strictly said importance guess comes important agree experiment definite possible say simple set machine great computing machine random wheel makes succession guesses time guesses hypothesis nature work computes immediately consequences makes comparison list experimental results end words guessing dumb man job actually quite opposite try explain first problem start say start known principles principles known inconsistent something removed get lot letters people always getting letters people insisting ought make holes guesses make hole make room new guess somebody says know people always say space continuous know get small enough dimension really enough points lot dots separated little distances say know quantum mechanical amplitudes told complicated absurd makes think right maybe right get lot letters content must say remarks perfectly obvious perfectly clear anybody working problem good point problem might wrong might substituted precisely place say anything precise example case continuous space suppose precise proposition space really consists series dots space mean anything dots cubic array prove immediately wrong work see problem change say something might wrong replace something easy soon real definite idea substituted becomes almost immediately apparent work secondly infinite number possibilities simple types something like sitting working hard work long time trying open safe joe comes along know anything anything except trying open safe says know try combination busy trying lot things maybe already tried maybe know middle number already maybe know matter fact five digit combination letters good please send letters trying tell thing going work read make sure already thought takes long answer usually class try usual nature imagination far surpasses seen theories really quite subtle deep get subtle deep guess easy one must really clever guess possible blindly machine wanted discuss art guessing nature laws art done one way might think well look history guys look history let first start newton situation incomplete knowledge able get laws putting together ideas relatively close experiment great distance observations test first work good next guy something well another man something great maxwell obtained laws electricity magnetism put together laws electricity due faraday people came looked realized mutually inconsistent mathematically inconsistent order straighten add one term equation way inventing model idle wheels gears space found new law nobody paid much attention believe idle wheels believe idle wheels today equations obtained correct logic may wrong answer right case relativity discovery relativity completely different accumulation paradoxes known laws gave inconsistent results new kind thinking thinking terms discussing possible symmetries laws especially difficult first time realized long something like newton laws could right still ultimately wrong second ordinary ideas time space seems instinctive could wrong quantum mechanics discovered two independent ways lesson even enormous number paradoxes discovered experimentally things absolutely could explained way known knowledge incomplete knowledge complete prediction happen two different roots one schrodinger guessed equations another heisenberg argued must analyze measurable two different philosophical methods reduced discovery end recently discovery laws interaction still partly known quite somewhat different situation time case incomplete knowledge equation guessed special difficulty time experiments wrong experiments wrong guess right answer calculate results disagrees experiment courage say experiments must wrong explain courage comes minute today paradoxes maybe infinity comes put laws together rug sweeping people clever one sometimes thinks serious paradox fact particles tell anything except knowledge incomplete sure history repeat physics see list reason scheme like think symmetry laws put equations mathematical form schemes guess equations known everybody tried time place get stuck try right away try looking symmetries try things tried stuck must another way next time time get log jam many problems methods using like ones used try right away new scheme new discovery going made completely different way history help much would like talk little bit heisenberg idea talk measure lot people talk without understanding well say physics talk measure mean interpret sense constructs inventions make talk must kind consequences compute must comparable experiment compute consequence like moo must three goos nobody knows moo goo good consequences compared experiment necessary necessary moos goos appear guess perfectly right much junk guess want provided compare experiment fully appreciated usually said example people usually complain unwarranted extension ideas particles pat</t>
+  </si>
+  <si>
+    <t>never really expected find giving advice people graduating establishment higher education never graduated establishment never even started one escaped school soon could prospect four years enforced learning would become writer wanted stifling got world wrote became better writer wrote wrote nobody ever seemed mind making went along read wrote paid often commissioned write something else left healthy respect fondness higher education friends family attended universities cured long ago looking back remarkable ride sure call career career implies kind career plan never nearest thing list made everything wanted write adult novel children book comic movie record audiobook write episode doctor career next thing list thought would tell everything wish would known starting things looking back suppose know would also give best piece advice would ever got completely failed follow first start career arts idea great people know know rules know possible impossible rules possible impossible arts made people tested bounds possible going beyond know impossible easier nobody done made rules stop anyone yet secondly idea want make put much harder sounds sometimes end much easier might imagine normally things get place want wanted write comics novels stories films became journalist journalists allowed ask questions simply find world works besides things needed write write well paid learn write economically crisply sometimes adverse conditions time sometimes way hope clear cut sometimes almost impossible decide whether correct thing balance goals hopes feeding paying debts finding work settling get something worked imagining wanted author primarily fiction making good books making good comics supporting words mountain distant mountain goal knew long kept walking towards mountain would right truly sure could stop think whether taking towards away mountain said editorial jobs magazines proper jobs would paid proper money knew attractive though would walking away mountain job offers come along earlier might taken still would closer mountain time learned write writing tended anything long felt like adventure stop felt like work meant life feel like work thirdly start deal problems failure need thickskinned learn every project survive freelance life life arts sometimes like putting messages bottles desert island hoping someone find one bottles open read put something bottle wash way back appreciation commission money love accept may put hundred things every bottle winds coming back problems failure problems discouragement hopelessness hunger want everything happen want things wrong first book piece journalism done money already bought electric typewriter advance bestseller paid lot money publisher gone involuntary liquidation first print run selling second printing royalties could paid would done shrugged still electric typewriter enough money pay rent couple months decided would best future write books money get money anything work proud get money least would work every forget rule whenever universe kicks hard reminds know issue anybody true nothing reason money ever worth except bitter experience usually wind getting money either things excited wanted see exist reality never let never regretted time spent problems failure hard problems success harder nobody warns first problem kind even limited success unshakable conviction getting away something moment discover imposter syndrome something wife amanda christened fraud police case convinced would knock door man clipboard know carried clipboard head would tell caught would get real job one consist making things writing reading books wanted read would away quietly get kind job make things problems success real luck experience point stop saying yes everything bottles threw ocean coming back learn say watched peers friends ones older watch miserable would listen telling could envisage world always wanted earn certain amount every month keep could things mattered really wanted seemed big tragedy problem failure biggest problem success world conspires stop thing successful day looked realised become someone professionally replied email wrote hobby started answering fewer emails relieved find writing much fourthly hope make mistakes making mistakes means something mistakes useful misspelled caroline letter transposing thought coraline looks like real name remember whatever discipline whether musician photographer fine artist cartoonist writer dancer designer whatever one thing unique ability make art many people known lifesaver ultimate lifesaver gets good times gets ones life sometimes hard things wrong life love business friendship health ways life wrong things get tough make good art serious husband runs politician make good art leg crushed eaten mutated boa constrictor make good art irs trail make good art cat exploded make good art somebody internet thinks stupid evil done make good art probably things work somehow eventually time take sting away matter best make good art make good days fifthly make art stuff urge starting copy bad thing find voices sounded like lot people one thing nobody else voice mind story vision write draw build play dance live moment feel possibly walking street naked exposing much heart mind exists inside showing much moment may starting get right things done worked best things least certain stories sure would either work likely kinds embarrassing failures people would gather together talk end time always common looking back people explain inevitable successes idea still would fun making something knew going work sometimes things really work stories mine never reprinted never even left house learned much things worked sixthly pass secret freelancer knowledge secret knowledge always good useful anyone ever plans create art people enter freelance world kind learned comics applies fields people get hired somehow get hired case something days would easy check would get trouble started pre internet days seemed like sensible career strategy asked editors would worked lied listed handful magazines sounded likely sounded confident got jobs made point honour written something magazines would listed get first job actually lied would chronologically challenged get work however get work people keep working freelance world today world freelance work good easy get along deliver work time even need three two three fine people tolerate unpleasant work good deliver time forgive lateness work good like good others time always pleasure hear agreed give address started trying think best advice would given years came stephen king twenty years ago height success sandman writing comic people loved taking seriously king liked sandman novel terry pratchett good omens saw madness long signing lines advice really great enjoy best advice got ignored instead worried worried next deadline next idea next story moment next fourteen fifteen years writing something head wondering stop look around really fun wish would enjoyed amazing ride parts ride missed worried things going wrong came next enjoy bit hardest lesson think let enjoy ride ride takes remarkable unexpected places platform today one places enjoying immensely today graduates wish luck luck useful often discover harder work wisely work luckier get luck helps transitional world right kind artistic field nature distribution changing models creators got work world got keep roof heads buy sandwiches changing talked people top food chain publishing bookselling areas nobody knows landscape look like two years let alone decade away distribution channels people built last century flux print visual artists musicians creative people kinds one hand intimidating immensely liberating rules assumptions supposed get work seen breaking gatekeepers leaving gates creative need get work seen youtube web whatever comes youtube web give people watching television ever old rules crumbling nobody knows new rules make rules someone asked recently something thought going difficult case recording audio book suggested pretend someone could pretend pretend someone could put notice effect studio wall said helped wise world needs wisdom cannot wise pretend someone wise behave like would make interesting mistakes make amazing mistakes make glorious fantastic mistakes break rules leave world interesting make good art</t>
+  </si>
+  <si>
+    <t>going talk self renewal one fundamental tasks renewal organizations serve usually includes persuading top officers accomplish certain amount self renewal help think others primary mission morning want help think take mission seriously written say want every sentence hit target know good deal kind work know demanding going talk special problems kind career going talk basic problems life cycle surely hit ready wrote book called self renewal deals decay renewal societies organizations individuals explored question civilizations die sometimes renew puzzle men women seed others remain vital lives latter question shall deal time know individual going seed person seated right may fairly serious danger long ago read splendid article barnacles want give wrong impression focus reading interests sometimes days without reading barnacles much less remembering read article unforgettable opening paragraph barnacle author explained confronted existential decision going live decides spends rest life head cemented rock end quote good many comes seen men women even ones fortunate circumstances responsible positions seem run steam midcareer one must compassionate assessing reasons perhaps life presented tougher problems could solve happens perhaps something inflicted major wound confidence self esteem perhaps pulled hidden resentments grievances grow adult life sometimes luxuriantly like tangled vines immobilize victim known people feeling secretly defeated maybe somewhat sour cynical perhaps vaguely dispirited maybe ran hard long somewhere along line forgot running talking people fail get top achievement get top point life anyway talking people matter busy seem stopped learning growing many going motions deride life hard keep keeping sometimes act courage worry men women functioning far level potential face fact men women world work stale know bored would care admit boredom secret ailment large scale organizations someone said day bored busy said let count ways logan pearsall smith said boredom rise level mystical experience true know busy middle level executives among great mystics time write danger complacency growing rigidity imprisonment comfortable habits opinions look around many people know well people even younger already trapped fixed attitudes habits famous french writer said people whose clocks stop certain point lives could without trouble name half dozen national figures resident washington would recognize could tell roughly year clock stopped still deal periodically watched lot mid career people yogi berra says observe lot watching concluded people enjoy learning growing many dearly troubled self assessments mid career self assessments great problem age young moving drama rise enough reach middle age energies used begin wonder added begin look figure carpet life simple advice begin process hard look ahead someone said life art drawing without eraser imagine story life lot chapters conscious danger going seed resort countervailing measures almost age need run like unwound clock clock unwound wind stay alive every sense word fail physically know pretty successful people feel possible life trapped really know life takes unexpected turns said book self renewal build prisons serve jail keepers longer completely agree still think jailkeepers concluded parents society large hand building prisons create roles self images hold captive long time individual intent self renewal deal ghosts past memory earlier failures remnants childhood dramas rebellions accumulated grievances resentments long outlived cause sometimes people cling ghosts something almost approaching pleasure hampering effect growth inescapable jim whitaker climbed mount everest said never conquer mountain conquer see human lives believe business growing much longer drawn pretend achieve even well parents teenagers say sorry myth learning young people proverb says learn know counts middle years great great learning years even years past middle years took new job birthday still learning learn life learn failures learn successes hit spell trouble ask trying teach lessons always happy ones keep coming bad idea pause occasionally inward look midlife accomplished fugitives learn jobs friends families learn accepting commitments life playing roles life hands necessarily roles would chosen learn growing older suffering loving bearing things change taking risks things learn maturity simple things acquiring information skills learn engage self destructive behavior leant burn energy anxiety discover manage tensions learn self pity resentment among toxic drugs find world loves talent pays character come understand people neither thinking learn matter hard try please people world going love lesson first troubling really quite relaxing things hard learn early life rule picked mileage dents fenders understand norman douglas said things learn others pass fire come terms finally grasp behrman meant said end every road meet may get rid hang ups learn control point function productively hurt others learn arts mutual dependence meeting needs loved ones letting need even unaffected quality often takes years acquire achieve simplicity lies beyond sophistication come understand impact others interesting even first year life learn impact variety others late middle age many people imperfect understanding impact others hostile person keeps asking people hard get along measure create environment may yet grasp power truth change life course failures part story everyone fails joe louis said everyone figure get beat time question fail pick move ahead one little question collaborate defeat lot people learn one enemies sound lifelong motivation rather childish conception kind concrete describable goal toward efforts drive want believe point feel arrived want scoring system tells piled enough points count successful scramble sweat climb reach thought goal get top stand look around chances feel little empty maybe little empty wonder whether climbed wrong mountain life mountain summit suppose riddle answer game final score life endless unfolding wish endless process self discovery endless unpredictable dialogue potentialities life situations find potentialities mean intellectual gifts full range one capacities learning sensing wondering understanding loving aspiring perhaps imagine age even explored potentialities pretty fully kid thing understand capacities actually develop full come result interplay life challenges challenges keep changing life pulls things something know may may know within resources energy ever tapped talent ever exploited strength ever tested give ever given know gifts left undeveloped would believe gifts possibilities even know true beginning recognize even every advantage opportunity unconsciously put ceiling growth underestimate potentialities hide risk growth involves discussed renewal length possible talk renewal without touching subject motivation someone defined horse sense good judgment horses prevents betting people bet people place bets often high motivation quality except judgment perfection techniques substitute lift spirit heightened performance comes strong motivation world moved highly motivated people enthusiasts men women want something much believe much talking anything narrow ambition ambition eventually wears probably keep zest day die may offer simple maxim interesting everyone wants interesting vitalizing thing interested keep sense curiosity discover new things care risk failure reach nature one personal commitments powerful element renewal let say word subject lived house could look window worked desk observe small herd cattle browsing neighboring field struck thought must occurred earliest herdsmen tens thousands years ago never get impression cow nervous breakdown puzzling meaning life humans never mastered kind complacency worriers puzzlers want meaning lives speaking idealistically stating plainly observable fact men women rare person life like homeless alley cat living day day taking pleasures dying unnoticed say known alley cats norm way built robert louis stevenson said old young last cruise want mean something many life vale tears one free pain designed cope live context meaning given powerful help draw deep springs human spirit see suffering framework human suffering accept gifts life thanks endure life indignities dignity stable periods history meaning supplied context coherent communities traditionally prescribed patterns culture today count heritage build meaning life build commitments whether religion ethical order conceive life work loved ones fellow humans young people run around searching identity handed free transient rootless pluralistic society identity committed may mean better job whatever men women make world better kind people kind commitment gift kindness courage loyalty integrity matters little whether behind wheel truck running country store bringing family must pause say word statement men women make world better kind people first wrote sentence years ago widely quoted one day looking mail order gift catalogue included small ornamental bronze plaques brief sayings one sayings one read name author well overcome idea sentence mine cast bronze ordered could figure world finally sent friend tend think youth active middle years years commitment get little older told earned right think deadly prescription people every age need commitments beyond self need meaning commitments provide self preoccupation prison every self absorbed person finally knows commitments larger purposes get prison another significant ingredient motivation one attitude toward future optimism unfashionable today particularly among intellectuals everyone makes fun someone said pessimists got way financing optimists pessimistic advise fellow said would pessimist would never work tell renewal tough minded optimism best future shaped people really believe future men women vitality always prepared bet futures even lives ventures unknown outcome looked leaped would still crouched caves sketching animal pictures wall say tough minded optimism high hopes dashed first failure precisely need believe must suppose path easy tough life painful rain falls churchill pessimist said nothing offer blood toil tears sweat great deal offer good leader saying going easy also saying something great leaders say constantly failure simply reason strengthen resolve cannot dream utopia arrangements ideal everyone flawless life tumultuous endless losing regaining balance continuous struggle never assured victory nothing ever finally safe every important battle fought fought need develop resilient indomitable morale enables face realities still strive every ounce energy prevail may wonder struggle endless uncertain outcome humans bear history suggests human spirit well fitted cope kind world remember mentioned earlier myth learning young people want give examples piece wrote reader digest long ago gave seemed particularly interesting true example renewal man question years old adult life losing struggle debt misfortune military service received battlefield injury denied use left arm seized held captivity five years later held two government jobs succeeding neither prison first time prison decided write book driven heaven knows motive boredom hope gain emotional release creative impulse say book turned one greatest ever written book enthralled world ever years prisoner cervantes book quixote another example pope john xxiii serious man found lot laugh son peasant farmers said italy three roads poverty drinking gambling fanning family chose slowest three someone asked many people worked vatican said half years old elected pope lifetime bureaucracy spark spirit imagination remained undimmed reached top launched vigorous renewal church known century still another example winston churchill age correspondent boer war became prisoner war dramatic escape made national hero elected parliament performed brilliantly held high cabinet posts distinction became first lord admiralty discredited unjustly believe dardanelles expedition defeat gallipoli lost admiralty post followed years ups downs often verdict brilliant erratic steady dependable blame friend described man jaywalked life moment flowering came someone said right late bloomer miss flower show churchill miss well give examples given hope clear door opportunity really close long reasonably healthy mean opportunity high status opportunity grow enrich life every dimension know ahead remember words bronze plaque men women make world better kind people kind person would worth years living learning many years ago concluded speech paragraph meaning life speech reprinted years years later final paragraph came back rather dramatic way really heartbreaking way man wrote colorado saying year old daughter killed auto accident weeks carrying billfold paragraph speech mine said grateful paragraph fact kept close told something might otherwise known values concerns imagine came across paragraph meaning something stumble across like answer riddle prize treasure hunt meaning something build life build past affections loyalties experience humankind passed talent understanding things believe things people love values willing sacrifice something ingredients one put together unique pattern life let life dignity meaning particular balance success failure less account</t>
+  </si>
+  <si>
+    <t>writer writing books profession course also great lifelong love fascination expect ever going change said something kind peculiar happened recently life career caused recalibrate whole relationship work peculiar thing recently wrote book memoir called eat pray love decidedly unlike previous books went world reason became big mega sensation international bestseller thing result everywhere people treat like doomed seriously doomed doomed like come worried say afraid never going able top afraid going keep writing whole life never going create book anybody world cares ever reassuring know would worse except happen remember years ago teenager first started telling people wanted writer met sort fear based reaction people would say afraid never going success afraid humiliation rejection kill afraid going work whole life craft nothing ever going come going die scrap heap broken dreams mouth filled bitter ash failure answer short answer questions yes yes afraid things always afraid many many things besides people even guess like seaweed things scary comes writing thing sort thinking lately wondering lately know rational logical anybody expected afraid work feel put earth specifically creative ventures seems make really nervous mental health way careers kind know like dad example chemical engineer recall years chemical engineering anybody asking afraid chemical engineer know chemical engineering block john going come like know fair chemical engineers group really earned reputation centuries alcoholic manic depressives writers kind reputation writers creative people across genres seems reputation enormously mentally unstable look grim death count century alone really magnificent creative minds died young often hands know even ones literally commit suicide seem really undone gifts know norman mailer died last interview said every one books killed little extraordinary statement make life work even blink hear somebody say heard kind stuff long somehow completely internalized accepted collectively notion creativity suffering somehow inherently linked artistry end always ultimately lead anguish question want ask everybody today guys cool idea comfortable look even inch away know comfortable assumption think odious also think dangerous want see perpetuated next century think better encourage great creative minds live definitely know case situation would dangerous start sort leaking dark path assumption particularly given circumstance right career pretty young years old still maybe another four decades work left exceedingly likely anything write point forward going judged world work came freakish success last book right put bluntly sort friends exceedingly likely greatest success behind jesus thought kind thought could lead person start drinking gin nine clock morning want would prefer keep work love question becomes seems upon lot reflection way work order continue writing create sort protective psychological construct sort find way safe distance writing natural anxiety reaction writing going looking last year models sort looking across time trying find societies see might better saner ideas help creative people sort manage inherent emotional risks creativity search led ancient greece ancient rome stay circle around back ancient greece ancient rome people happen believe creativity came human beings people believed creativity divine attendant spirit came human beings distant unknowable source distant unknowable reasons greeks famously called divine attendant spirits creativity daemons socrates famously believed daemon spoke wisdom afar romans idea called sort disembodied creative spirit genius great romans actually think genius particularly clever individual believed genius sort magical divine entity believed literally live walls artist studio kind like dobby house elf would come sort invisibly assist artist work would shape outcome work brilliant right distance talking psychological construct protect results work everyone knew functioned right ancient artist protected certain things like example much narcissism right work brilliant could take credit everybody knew disembodied genius helped work bombed entirely fault know everyone knew genius kind lame people thought creativity west really long time renaissance came everything changed big idea big idea let put individual human center universe gods mysteries room mystical creatures take dictation divine beginning rational humanism people started believe creativity came completely self individual first time history start hear people referring artist genius rather genius got tell think huge error think allowing somebody one mere person believe like vessel know like font essence source divine creative unknowable eternal mystery smidge much responsibility put one fragile human psyche like asking somebody swallow sun completely warps distorts egos creates unmanageable expectations performance think pressure killing artists last years true think true question becomes differently maybe back ancient understanding relationship humans creative mystery maybe maybe erase years rational humanistic thought one minute speech probably people audience would raise really legitimate scientific suspicions notion basically fairies follow people around rubbing fairy juice projects stuff probably going bring along question kind want pose know think way makes much sense anything else ever heard terms explaining utter maddening capriciousness creative process process anybody ever tried make something say basically everyone knows always behave rationally fact sometimes feel downright paranormal encounter recently met extraordinary american poet ruth stone poet entire life told growing rural virginia would working fields said would feel hear poem coming landscape said like thunderous train air would come barreling landscape felt coming would shake earth feet knew one thing point words run like hell would run like hell house would getting chased poem whole deal get piece paper pencil fast enough thundered could collect grab page times would fast enough would running running would get house poem would barrel would miss said would continue across landscape looking put another poet times piece never forgot said moments would almost miss right running house looking paper poem passes grabs pencil going said like would reach hand would catch would catch poem tail would pull backwards body transcribing page instances poem would come page perfect intact backwards last word first creative process pipeline mule way work get time every day sweat labor barrel really awkwardly even mulishness even brushed thing times would imagine lot know even work ideas come source honestly cannot identify thing relate way make lose minds fact might actually keep sane best contemporary example musician tom waits got interview several years ago magazine assignment talking know tom life pretty much embodiment tormented contemporary modern artist trying control manage dominate sort uncontrollable creative impulses totally internalized got older got calmer one day driving freeway los angeles changed speeding along sudden hears little fragment melody comes head inspiration often comes elusive tantalizing wants gorgeous longs way get piece paper pencil tape recorder starts feel old anxiety start rise like going lose thing haunted song forever good enough instead panicking stopped stopped whole mental process something completely novel looked sky said excuse see driving look like write song right really want exist come back opportune moment take care otherwise bother somebody else today bother leonard cohen whole work process changed work work still oftentimes dark ever process heavy anxiety around released took genie genius causing nothing trouble released back came realized internalized tormented thing could peculiar wondrous bizarre collaboration kind conversation tom strange external thing quite tom heard story started shift little bit way worked idea already saved saved middle writing eat pray love fell one sort pits despair fall working something coming start think going disaster worst book ever written bad worst book ever written started think dump project remembered tom talking open air tried lifted face manuscript directed comments empty corner room said aloud listen thing know book brilliant entirely fault right see putting everything want better got show part deal know hell going keep writing anyway job would please like record reflect today showed part job end like centuries ago deserts north africa people used gather moonlight dances sacred dance music would hours hours dawn always magnificent dancers professionals terrific right every rarely something would happen one performers would actually become transcendent know know talking know seen point life performance like like time would stop dancer would sort step kind portal anything different ever done nights everything would align sudden would longer appear merely human would lit within lit lit fire divinity happened back people knew know called name would put hands together would start chant allah allah allah god god god god know curious historical footnote moors invaded southern spain took custom pronunciation changed centuries allah allah allah still hear bullfights flamenco dances spain performer done something impossible magic allah allah magnificent bravo incomprehensible glimpse god great need tricky bit comes next morning dancer wakes discovers tuesday longer glimpse god aging mortal really bad knees maybe never going ascend height maybe nobody ever chant god name spins rest life hard one painful reconciliations make creative life maybe quite full anguish never happened believe first place extraordinary aspects came maybe believed loan unimaginable source exquisite portion life passed along finished somebody else know think way starts change everything started think certainly thinking last months working book soon published dangerously frighteningly anticipated follow freakish success sort keep telling get really psyched afraid daunted job continue show piece whatever might job dance dance divine cockeyed genius assigned case decides let sort wonderment glimpsed one moment efforts dance anyhow nonetheless believe feel must teach nonetheless sheer human love stubbornness keep showing thank</t>
+  </si>
+  <si>
+    <t>several years ago brought face face disturbing realization trying supervise direct efforts large number men women trying achieve success without knowing secret success really naturally brought face face realization regardless knowledge might brought job definitely lacking important knowledge course like brought popular belief secret success hard work seen many people work hard without succeeding many people succeed without working hard become convinced hard work real secret even though cases might one requirements set voyage discovery carried biographies autobiographies sorts dissertations success lives successful individuals finally reached point realized secret trying discover lay individuals also made realized secret searching must apply every definition success since must apply everyone offered must also apply everyone ever successful short looking common denominator success exactly looking exactly found common denominator success big powerful vitally important future mine going make speech going lay line words one syllable simple everyone understand common denominator success secret success every individual ever successful lies fact formed habit things failures like true sounds simple seems hold light put acid test kick around worn still common denominator success whether like still explain individuals come business every apparent qualification success given disappointing failures others come achieved outstanding success spite many obvious handicaps since also explain future would seem mighty good idea use determining sort future going words let take big embracing secret boil fit individual secret success lies forming habit things failures like let start boiling process determining things failures like things failures like things human beings including successful people naturally like words got realize right start success something achieved minority people therefore unnatural achieved following natural likes dislikes guided natural preferences prejudices things failures like general many obvious discuss since success achieved sale life insurance let move discussion things life insurance agents like things like many permit specific discussion think disposed saying emanate one basic dislike peculiar type selling like call people want see talk something want talk reluctance follow prospecting program use prepared sales talks organize time organize effort caused one basic dislike perhaps wondered behind peculiar lack welcome pan prospective buyers due fact prospects human true average human beings big enough buy life insurance accord therefore prone escape efforts make bigger persuade something want striking important weakness possess namely desire appreciated perhaps discouraged feeling born subject certain dislikes peculiar successful agents business afflicted perhaps wondered biggest producers seem like things like think encouraging statement ever offered group life insurance agents like things things like accomplish things want accomplish successful people influenced desire pleasing results failures influenced desire pleasing methods included satis results obtained things like successful people able things like failures successful people purpose strong enough make form habit things like order accomplish purpose want accomplish sometimes even best producers get slump people slump simply means reached point time things like become important reasons may pause suggest managers agents one good producers goes slump less talk production talk purpose sooner pull agent slump many people discussed common denominator success said point family support make living family enough purpose sufficiently strong purpose make form habit things like simple reason easier adjust hardships poor living adjust hardships making better one doubt think things willing without order avoid things like seems prove strength holds purpose strength strength purpose let see habit belongs importantly common denominator success people creatures habit machines creatures momentum habit nothing less momentum translated concrete abstract picture problem would face mechanical engineers things momentum speed would impossible highest speed vehicle could moved would first speed could broken away standstill elevators could made rise airplanes could made fly entire world mechanics would find total state helplessness think human nature finest engineers world could finest machinery ever built every single qualification success acquired habit people form habits habits form futures deliberately form good habits unconsciously form bad ones kind person formed habit kind person way change habit success habits life insurance selling divided four main groups prospecting habits calling habits selling habits working habits let discuss habit groups order successful life insurance agent tell easier sell life insurance people want find people want deliberately formed habit prospecting needs regardless wants unconsciously formed habit limiting prospecting people want life insurance therein lies one real reason lack prospects calling habits unless deliberately formed habit calling people able buy unwilling listen unconsciously formed habit calling people willing listen unable buy selling habits unless deliberately formed habit calling prospects determined make see reasons buying life insurance unconsciously formed habit calling prospects state mind willing let make see reasons buying working habits take care three groups working habits generally take care working habits included study preparation organization time efforts records analyses etc certainly going take trouble learn interest arousing approaches sales talks unless going use going plan day work know heart going carry plans certainly going keep honest record things done results achieved let worry much fourth group success habits taking care first three groups working habits take care able afford secretary take care rest decide adopt success habits let warn importance habit decision attended many sales meetings sales congresses past ten years often wondered spite fact much good many people seem get little lasting good perhaps attended sales meetings past left meetings determined things would make successful successful find decision determination waning time put effect practice answer resolution decision make simply promise worth tinker damn formed habit making keeping form habit making keeping unless right start link definite purpose accomplished keeping words resolution decision make today made tomorrow next day next next made day kept day miss one day making keeping got back begin continue process making morning keeping day finally wake morning different person different world wonder happened world used live happened resolution decision become habit make particular morning reason seeming like different person living different world lies fact first time life control control likes dislikes surrendering purpose life behind every success must purpose makes purpose important future last analysis future going depend economic conditions outside influences circumstances control future going depend purpose life let talk purpose first purpose must practical visionary time ago talked woman thought purpose important income interested people suffering wanted placed position alleviate suffering analyzed real feelings discovered admitted really wanted real nice job dispensing charity people money well paid along appreciation feeling importance would naturally job making purpose practical careful make logical make purpose sentimental emotional type remember needs logical wants desires sentimental emotional needs push far needs satis stop pushing however purpose terms wants desires wants desires fulfilled recently talking young man long ago discovered common denominator success without identifying discovery definite purpose life definitely sentimental emotional purpose wanted children college without work way done wanted wife mother children enjoy luxuries comforts even necessities denied mother willing form habit things like order accomplish purpose discourage rather encourage said going little far thing logical reason children willing able work way college father course miss many things missed college life probably heartaches disappointments good come end logical reason slave order wife enjoy comforts luxuries mother never looked rather pitying look said gray inspiration logic courage logic even happiness logic satisfaction place logic life realization willing family shall able imagine hearing story told find purpose identify surrender big purpose big accomplishment unselfish purpose unselfish accomplishing honest purpose honest honorable accomplishment long live ever forget may succeed beyond fondest hopes greatest expectations never succeed beyond purpose willing surrender furthermore surrender complete formed habit things failures like</t>
+  </si>
+  <si>
+    <t>thanks believe thinking giving particular presentation decade talking administration inspired studying stories three people might call luminaries probably heroes mine read noticed overlap pattern amongst talk many people room heard phrase dream job raise hand right everybody heard phrase know means means chasing career immense passion partner kevin harvey phrase love says life use lose proposition humans take one career path got one shot makes happy way one reasons audience want thank audience wanted presentation first think coming mba program amazingly unique opportunity undergrad degree worked little bit chance whatever want amazing pivot point opportune audience obviously wanted come back texas thanks going first going start telling three stories luminaries going walk five guidelines inferred special stories end well going start orville ohio anyone know company founded orville give bucks anybody knows smucker nothing presentation first gentleman talking guy named robert montgomery grew orville town looked like attended orville high school three sport letter man baseball football basketball lucky enough one neighbors knew coach fred taylor ohio state able get spot really good basketball team robert number point guard peering huddle fred taylor coach ohio state time robert starter came bench get ton minutes team john havlicek john cuzzie sophomore year national championship played national championship junior senior year two players mentioned went onto nba robert went coaching spent first year coach high school finagled way onto staff army assistant army black knights played gillis field house head coach retired begged job signing contract became head coach school ended making robert successful point view happened inside four walls gym practiced every day outside first five years coaching career befriended five top basketball minds east coast red auerbach havlicek went boston red coach time able build relationship joe lapchick clair bee coached long island university best record coach basketball hall fame robert met clair robert drove clair clair induction basketball hall fame sat next next one henry iba coached years oklahoma state time probably one successful basketball coaches time evert dean indiana met became friends two lapchick iba went coaches luncheon knew going begged said sit next met kept following hanging year later met pete newell pete greatest basketball mind west coast time became fast friends years later pete would induct robert basketball hall fame limit peer network basketball coaches met football coaches well coach cincinnati bengals schembechler would coach michigan assistant basketball team army met bill parcells around time way bill became star national league doc counsilman long time swimming coach indiana also someone robert became friends using name robert obscure things little bit talking bobby knight age bobby knight became head coach indiana university five years later went undefeated regular season post season national championship never repeated since four decades indiana would win three national championships four coach year awards big titles retired victories coach time said pete newell inducted bobby hall fame going move onto next story circle back see going going start hibbing minnesota two three hours north minnesota another robert robert zimmerman grew hibbing hibbing looked like young even though pretty far north minnesota bit urban environment robert loved music early photo got drum got guitar years old high school playing band regularly used cover elvis little richard yearbook says likely join little richard happen happened went university minnesota class hanging place called dinky town photo right time late early lot new stuff happening even though grew playing rock roll fell love folk music would say eight nine months studied every folk album possibly could lot money back time could walk record store listen booth would hours hours hours became friends people also liked folk music money would house listen record collection even accused borrowed records returned point controversy even still today next thing happened think one ambitious actions anyone know taken pursue dream job hitch hiked minneapolis new york city guitar suitcase miles ask today talk little bit chasing performers dave van ronk peggy seeger new lost city ramblers people listening minnesota people new york city wanted see really one person wanted see woody guthrie woody guthrie become hero wikipedia find know already went new york find woody guthrie pursuit come affection love way woody played wanted know everything possibly could went new york found woody guthrie used perform started hanging three venues caf wha gaslight caf gerde folk city epicenter folk music time would sit venues hours upon hours study artists years later liam clancy would say could perform one songs like including tonality tempo everything mimic studying studying studying got big break asked open john lee hooker gerde one day career got started gentleman joe hammond producer aretha franklin billie holiday count basie one day walked found gentleman think something like next year robert zimmerman changes name bob dylan john releases first album album okay released freewheeling bob dylan album goes number number one everything races performed march washington joan baez martin luther king spoke famous speech year later performed first time johnny cash another one heroes johnny gave guitar asked could record several song johnny asked bob could record songs rest history say million albums sold grammys oscar emmy introduced rock roll hall fame took whole new level kennedy center award clinton barack obama gave medal freedom topped something never done nobel prize literature musician ever given award happened two years ago amazing story right one know well equally inspiring saint louis missouri person time named daniel grew saint louis father intelligence officer military moved around europe quite bit war ended father became travel agent mother worked traveled quite bit travel agents mom told journal everything forced vacation take notes interested travel loved food went back looked journal notes always taken always food eating wherever started associate different places food went went john boroughs high school saint louis ended trinity college connecticut would spend every weekend new york city eating food passionate got poly sci major went work campaign year interesting went back new york robert zimmerman chasing folk music danny chasing food personal life could going different restaurants exploring went work check point make things attach clothes store walk beeper goes early check point life incredibly well within year making year salesman spent food new york city one night eat uncle aunt grandmother elio restaurant open told studying lsat going take lsat next year career ladder become lawyer uncle replied stop open restaurant know supposed caught little guard woke next day took lsat never sent scores single school never applied single school quit job salesman went work restaurant called pesca front office year took salary reduction reason chose pesca chef coming chef called michael romano wanted around gentleman would work day front office night would beg slop work kitchen could get exposure happening also taking wine class night met gentleman happened head one top restaurant critics new york times started hanging together going different restaurants talking learning something really interesting made list icons restaurant industry new people innovative things around opening new high end restaurants wolfgang puck first one different lot people celebrity chef shows today started studying created notebook every one makes special unique started looking recipes got even bolder decided europe took every single one connections restaurant industry travel industry parents plus trinity would tours europe parents lot connections look presentation stagiaire think fancy french word work restaurant free one restaurants worked pay month ran math equal negative thousand year salary gone making upside think would studies every one places every one restaurants watching chef watching recipes goes sourcing trips see pick food markets different fish markets takes tons notes looks cor looks wine list way home nine month journey said took entire eight half hour flight organize notes gets back new york spend another six seven months searching hundred locations find best location launch first restaurant years old opened union square caf danny meyer might know love quote proud studying studying trinity college viewed best work ever done student union square caf still open today times zagat said best restaurant new york danny meyer would launch high end restaurants new york city four michelin stars undisputed king high end restaurants new york city done lot restaurants danny would open areas needed gentrification philosophy could build restaurant could become bespoke place people community would evolve would get lift alongside typically would look areas rise needed help one area needed lot help madison square park far union square bunch business people helped launch madison square conservancy rebuilt park years happened started improving park decision made allow restaurant center park applied got bid location first shake shack later going something see work went launching first shake shack first shake shack look like want eat looks like open always line got know danny open table board worked together decade used tell keep secret single venue made way profit white table cloth restaurants owned course fast forward today shake shacks around world took shake shack public nysc worth billion think one austin correct three stories read independently noticed similar strain running every one stories organized want talk first one one provide least amount help know passions first piece advice would find passion pick profession deep personal interest nothing going make successful love going work harder anybody else going feel like work going feel like fun think important decision possibly make career make sure immense passion personal passion parents sister family generation expectation needs something might passionate thing parents run need know something also mention status compensation lot high profile careers make lot money generally perceived areas successful people run things passion going burn eventually going want last point fake somebody else sitting mba program deep passion whatever career path going going smoke one favorite quotes bobby knight says everybody win people practice think test whether actually pursuing dream job essence would considered studying work practice enjoy part enjoy preparation everybody enjoys winning enjoy preparation second five guidelines would hone craft constantly extremely important obsessive understanding everything possibly craft consider obligation hold accountable requires keep learning time study history know pioneers bedrock foundation going build upon help networking able talk language people came strive know everyone else particular craft subgroup mean let say love sports let say decided multiplayer gaming sports like grew gaming love right within first six months program knowledgeable person mccombs sports doable able end first year top five mba students hopefully exit second year number one mba student mean best sports person world separated everyone else make smartest brightest quite doable knowledgeable possible gather information somebody else especially today lastly bit caveat depending chasing might want epicenter reason networking available great people next two bullet points tie interesting story bobby knight biography second time met pete newell walked room guy like pete newell one famous basketball coaches ever walks room plays diagrammed three five cards sits middle floor says hey pete come know audacious brilliant people would consider top get number one mentor possibly find make amount tedious work pete learned interesting quotes movie direction home martin scorsese dylan really highlight point trying drive home people would think bob dylan folk singer probably dna got lucky something studying used word musical expeditionary looked expeditionary expedition travel scientific research exploration dylan one knew folk music broke knew anybody another guy minneapolis knew called sponge ruthlessness way dylan finds sources uses moves constantly gathering information putting repertoire going read danny book want drive home point studying see huge fan danny got markers one genuine humans ever met restaurant new york called blue smoke actually barbecue place thinking launching says barbecue within mile radius austin texas hill country lie five towns revere distinctly different style barbecue elements barbecue limited ribs brisket pulled pork chop mince pork sausage chicken coleslaw beans handful sides become american culinary language thousands dialects accents tried understand variation one hour road trip north carolina tasted variations chopped pork defined subtle dramatic differences texture degree type smoke used amount tomato vinegar sauce much heat applied meat well much little crackling got chopped tossed level detail thinks food really like one shake shack soon bid richard corrine enthusiastic researcher road food set study burger shake stands country started course ted drew steak shake saint lewis grew eating continued kansas city individually made stops michigan culver los angeles burger napa taylor automatic refreshers chicago gold coast dogs plus eight establishments connecticut names three four always search best breed research shake shack think drives home point like understand anybody else bit aside anybody know painting painting called first communion painted pablo picasso years old people think brought told picasso first art class look cubism pictures someone say seven year old could know picasso trained classic artist mastered time spent time studying way would set greatest painter world made statement greatness random earned going research something lucky day information freely available internet good news bad news zero excuse knowledgeable subject want right fingertip free excellent three develop mentors field know ever dare aggressive dylan hitch hiking miles find mentor might type attitude want think back mind pursue mentors take every chance find somebody teach field want excel work way stack jump straight top day one treat respect debate things learn document hear share others try get mentors interested development send notes tell use advice successful send gifts accomplishments get bought one reason american idol works start voting cheering somebody sudden feel like part process right get feel way success mentor thing never stop got keep pursuing remarkable fortune year year investor meet stan druckenmiller howard marks two people admired long time read everything write time speak got sit couple hours talk investing awesome things pushed changed actions taking today work would already walked examples every one three luminaries mentor important funny story last week preparing presentation rereading danny book went back notion made list people considered icons industry texted said danny many icons ended establishing relationship sent emoji back thrilled knew use emojis went tell four become close personal friends think documents point making searching mentors leaning mentors never ending task four embrace peers field develop relationship discussions arguments way learn way ideas get shared way hone innovate ideas one thing wish someone told got mba school everybody said network network network thought social activity thought telling need develop social skills want randomly talk people similar interests come realize connecting people overlap able help along way along journey always share best practices worry giving proprietary knowledge good trade smart get caught worrying going fail advance activity sharing mentors peers lead many positive things help whatever negative costs going come anywhere close celebrate peers accomplishments cheer send notes happy come back spades lastly peers need exact field bobby knight sat swimming coach got knowledge entrepreneurs work ceos find interesting conference topic little bit far away get innovative ideas bring back field close spread know way supposed network online certainly linkedin profile certainly connect people give one piece advice would little stingy link rule want link people would call trust advice searching candidate want reference something get random answers get people know going use think people proliferate linkedin account yesterday think much incredible resource alternative twitter twitter amazing networking learning network ever built someone pursuing dream job chasing group mentors peers remarkable given field top experts field twitter sharing ideas connect follow personal feed get lucky enough say something find interesting might follow reason becomes super interesting unlocks direct message sudden communicate directly electronically whenever want individual powerful using twitter missing even shares anymore last one obvious people always give majority credit people helped along way one right thing two keep asshole successful find greats right thing send letters send gifts anytime accomplish something career take time send messages back people helped tell personal story quite serious help reinforce favorite professor jim fredrickson many know passed away year along way along journey three four times took time write letter send note send gift tell impact passed anxiety like get chance tell took chances tell would encourage guys type stuff along way lastly eventually got pay back become mentor people start reaching make sure take time examples bobby knight shortly one sessions pete newell next year indiana playing one pete teams end tournament together bobby uses stuff pete taught beats pete field recalled notion book said know pete willing got everybody else let show statistically little bit impact bobby later career wikipedia bobby former players coaching either nba former coaches coaching nba immense legacy people developed went successful deep deep basketball fans room know point guard army none mike krzyzewski one two people passed career wins krzyzewski asked bobby knight induct hall fame moving video watch youtube interested danny probably wonderful human certainly one wonderful humans ever met life talks graciousness evident every single thing talks people treats staff book worth reading get chance see huge fan going tell two stories time reason wanted talk mba class bec</t>
+  </si>
+  <si>
+    <t>first lecture orientation trying purpose course prepare technical future really course technical content although going talk digital fillers kinds things things presumably know concerned style studied great scientists ever since los alamos war different significant things mainly manner style many person known worked hard others much show problem instill something called style amount something navy paying large sum money wants money back later performance examine criticize talk various people style mainly people use many things going tell wish somebody told find course normal technical course topics never told class course taught way large amount falls trying pick style cannot put words approach particular examples let infer belief probably anything talked goes back socrates plato aristotle early greek times thought could talk gods truth beauty justice love things time saying things mystery cults greece said must experience cannot talk remember middle ages various saints said talk god got experience way mohammedans allah portray put pictures must sense long minuscule says cannot put everything words one style really cannot say mean give examples struggle hopefully get idea effective course like found talk make abstract remarks sounds like many pious words talk done maybe penetrate gives course attitude bragging always talking tell several mistakes made sort thing similarly get quit modesty get individually respond challenge going great say yes guy hammond become great scientist become great person get say want worth effort going try something average person speak teachers really coaches cannot run mile four minute mile comment upon style know must work way cannot make great scientist criticize style things cannot mere words make great scientist running four minute mile must work means take hear read think carefully discuss friends see adapt one style successful painters paint many different styles find style fits means take fragments people use adapt become copy directly get away use analogy painting example painting learned color mixing form sketching study master temporarily accept knowing talking well limits done know copy master style exactly great painter know also paint style late future wants different style thus tell style used past style cope future must manufacturer style make significant person future easy talk past ones make references possible future ones problem face would make successful starting predecessor got successful things could get successful another practice difficult went build laboratories looked around since already interested made great scientists looked looked become famous look difficult tend easy problems found course time couple holes left fundamentally easy problems generation somewhat harder ones left others harder still every generation difficulty stand shoulders extent yet task harder got man moon next real good feet space gonna lot harder therefore difficulty definite came bell labs four time came time age within year probably called four young turks many many years later discovered top management called troublemakers things way previous generation new things previous generation like things right example boss henry boda network theory made reputation network complex variable knew things made famous guy hamming comes keeps using computing machines way eyes thing needed done lesson want get across regularly supposing successful rise top would please remember made great appropriate next generation know get great great things may appropriate next generation often troubled bosses know god way got top must right often wrong want think seriously rise top method success appropriate world changed want talk education education things training year courses training trying talk education part easy school allowed great deal latitude putting course together concentrating education one without much good able technical people reporting apply technology methods wrong problem undone people kinds theory could anything use either need theory guide skill technique one without good certain sense engaged meta education talking education constantly going going educate constantly future says going constantly try project forward world gonna like let look back first history modern era science engineering began sir isaac newton roughly born christmas day year galileo died lived say around newton time double knowledge every years doubling period science roughly bell laboratories trying shrink war size people watched years management putting hiring freeze everything else like double every years small wiggles hire two people keep expanding knowledge publications books journals example think numbers guess going make digression thing situation scientists ever lived alive common statement going turn back envelope calculation learned watching family people shockley people used get lunch going suppose first exponential growth number scientists comes differential equation rate change proportional much solution know exponential growth assume amount knowledge generated proportional number scientists amount rate years ago much generated put minus infinity matter lower limit put small matter exponential small cares well would simply work would integration come statement half stuff done doubling every years years ago doubled says ratio half got farm formula take statement scientists ever lived alive back years going take lifetime scientist probably mean living scientist two years old probably mean science alive become beginning scientist decay somewhere deserve sign years reasonable number put whole scientists ever lived come using come close enough let see happened got clear idea talking answer question thought mean lifetime scientist see two statements compatible double every years scientists ever lived alive seen enormous growth science newton time well let project well let say good estimate number various branches science developed newton time one thing called natural philosophy lots specialties something like specialties certainly almost certainly less good number could check forward doubling every years years million fold would make million fields especially believe believe years billion fields specialty consequently science cannot way next years doubling growth cannot one things done got exponential number people field either everyone would scientist know past good guide future reason want put back envelope widely used observed fairmi shockley use eat lunch back envelope saw also two things puts thing firmer mind shown calculation may retain little longer plus gives practice quick modeling nobody pretends really accurate pretend exactly number somewhere around back envelope calculations useful find useful hear things something else radio read newspapers quick modeling ask numbers possible frequently two things emerge either possible even know talking make model father failed tell talking gave spectacular answer back envelope modeling big help doubling business serious one lived life fact put table double years triple four five six seven eight nine ten times years something like hey read one way ask time retirement look column much knowledge much times way face rather horrendous future another way look suppose child born child goes college four times much knowledge mathematical theorems recording beethoven ninth skiing channels read listen going four times much knowledge poor child face remember hit college much seemed surprised children somewhat disoriented god knows sometimes disoriented means furthermore doubling doubling occurs worst last period almost half half episodes occur last doubling period causes saturation saturation comes quite rapidly another way looking doubling simply table disconcerting think chief staff say years say years five times much knowledge needed run navy needed face answer answer learning learn thing could things become obsolete something like half taught loving courses obsolete years either longer replaced something else consider lived came bell laboratories running back due important part started mathematical background studying light engineering back tubes song years began eating physics department ate guy perfecting started developing engineering side transistors great deal calculation transistors absolutely needed knowledge knew see could long walks friends office keeps going around show suits vacuum tube see often say well original transistor roll tin cans three legs minimalist ship sides los alamos calculate bomb designs really calculus probably averaged maybe operation second maybe second half round clock six half days week month sometimes three months typically month get one solution punch modern machine boop boop answer live tremendous change furthermore educated mathematician certainly course numerical analysis never knew computer knew little physics los alamos taught fundamentally went bell labs believe computing understand nature problem learn something breadth physical sciences chemistry well lot physics social science little bit biological science laboratories departments sub social science spent lifetime getting background knowledge something background knowledge enough penetrate jargon talk extensively later date one thing could try claim fundamentals glib ask mean fundamentals well two criteria adequate one fundamental derive rest field secondly around time fundamentals application vacuum tubes count true formula gain trouble names frequently come pretty soon nyquist formulas still good game form used back tubes still useful although apply things feedback still lot things need discuss science versus engineering science know know science science supposed exploration know engineering unless know well nothing pure science involves great deal engineering engineering involves great deal new material great blend painful going worse two fields growing together simple fact going back first candy bell labs suddenly discovered physics telephone company greater hurry get developed field pretty much monopoly hurry know willing wait scientific principles develop want field tomorrow two fields come together like leisure use long ago still using extent develop ideas first apply going less less acceptable ideas first around want apply read last night one presidents museum one world fair shot boat back right back doctors refused operate know bullet booth thing ray demonstrated use new technique right ready available kind wheeled kind picture conservative allow much anymore pushing hard going pushed much idea develop item get market rapidly read different methods predicting future engaged extent one predict tomorrow like today whatever temperature today predict tomorrow pretty good prediction somewhat better one note linear trend predict linear trend good long furthermore depends variable pick linear pick coefficient linear one thing pick exponent something else work well made many predictions much computing pretty soon need know much capacity would need regularly raw low side one time said predict high got form predicted real high couple years later paper turned desk looked low growth computing unbelievable hand side take artificial intelligence predictions made almost experts years ago realized always things none less saying short term predictions optimistic long term predictions pessimistic reason simple long term pessimistic nobody believe geometric regression say got transistors going nobody right mind would predicted million transistors ship big nobody beyond belief know predict future hard business history important people believe history repeats people believe exactly opposite one thing sure regard past people future think future past time history books yes live long enough enough end history books think future become past another thing history henry ford senior remark history bunk think said two reasons one history rarely reported correctly great main description happened last almost war two agree agree think happened indeed one time math teacher wrote experience matter publisher guy came last almost regular summer visit said friend read william book remembered said remember either going say remember suddenly realized two people remember familiar accident several witnesses see report different things reliable report happened past come accepted secondly think affords mine fact past rapidly disconnected future invention computer tells much world different computers appear change way things engineering great extent getting computer job writing program putting terminal equipment around defect real world heart much engineering computer historians read give impression inevitable going happen inevitable rome would fall hand tell future open ended many things possible true past determined future open seems unlikely left saying maybe past determined example individual lives alexander great napoleon hitler died childhood would world different intellectual side pythagoras aristotle newton maxwell einstein examples people died youth world would rather different individuals matter suggest past less determine historians like make future less open ended would like believe great many possibilities future got great possibilities one thing history unforeseen technological inventions ruin anything like told transistors development vacuum tubes practically cut technological invention change completely history something one could hardly foresee technological inventions also social inventions important people trained mainly physical side got make sensitive fact life takes place social society restraints thus claim future technology less determined technology social legal restraints stop think highway controlled computer control highway traffic sounds good ask sue accident begin decide know going difficult thing get going difficult social conventions going stop great things happening want talk another thing story use several times story drunken sailor staggered couple steps way staggers way staggers way staggers way steps typically get square root distance steps get steps times may right started maybe way typical hand pretty girl talking like back like like going disproportional end create vision headed make progress proportional end vision wander like drunken sailor get little one major purposes get form reasonable vision going future kind person going gonna say hannick know future gonna say matter much examine life goal set want march way way way goal get somewhere near goal drunken sailor problem make form goals except try achieve make something important rather drifting comfortable drift life great many people one question closely assert perfectly content drift life think good idea whole thing none business goal take business force one way another set reasonably decent goals try achieve something life society paying great deal money education entitled something something generally kind goals see headed lives add bunch isolated events nothing nothing added promise get choose goals even want mary great guitar player mind long set goal struggling essential part really course extent forcing somehow rather would done otherwise standard method teaching departments departments break things something better like calculus linear linear programming much falls course attempt one way plug holes engineering courses lot engineering courses taught mean vast holes optimizing combos individual courses optimizing total education come system engineering another goal show spite different departments essential unity knowledge face difficult problem unknown type matter whether comes chemistry physics anything else find answer knowledge pretty homogeneous longer divided courses longer divided apartments although bell labs math department almost time fact great many things statistics computing physics lot chemistry observed tied division purpose organization structure want get new minds sort homogeneous body specialized certain names reconnected together course center around computing like think prejudiced life computing rather fact going dominate science engineering reasons powerful reasons economics example computers far cheaper human beings far cheaper getting cheaper year humans getting expensive year speed far far faster nervous system drop something toe signals head meters per second like kilometers per second walk league even touch electronic speeds way come near speed overwhelmingly side machine accuracy number ditches arithmetic carry yes quite precise double precision necessary trouble double precision take probably tried work would trouble reliability far far ahead god nature however want make reliable thing walking years still every trip stumble anything really reliable man ended top heap flexibility built ever try get humans something reliable take example bowling throw ball alley exactly way every time perfect game perfect games rare even among skill experts precision flying things hard recognize precise drill teams something remarkable human animal really designed designed something else repeated repetitive control machines got rapid control building airplanes basically unstable computer every millisecond correcting usability get better performance pilot could computer goes pilot pilot left large scale abroad planning millisecond millisecond left better computer human act act fast another one tried well much freedom boarding sounds trivial cannot put human job look something three years happens respond properly put computer job put computer job watch rare event episode happens atomic pile happened four years human going well guys know looking think last two half years even get humans freed boredom machines know word bandwidth rapidly changing situation person charge get much information general belief really process bits per second maybe something like process bits per second machines got enormous bandwidth visual auditory pull inputs together match modern machine bandwidth coming getting orders central control humans simply cannot complicated situation compete machine merely bandwidth bandwidth making judgments sell story machines simply cannot cope longer crew aiming gun airplane self contained human slow much good need much rapid things humans cope bandwidth speed getting information fundamental computers got ease retraining training old ways learn something changed equipment gotta unlearn old habits learn new ones got repeat many many times learn computer changed program done elaborate training endless hours constant practice put new progra</t>
+  </si>
+  <si>
+    <t>honored today commencement one finest universities world never graduated college truth told closest ever gotten college graduation today want tell three stories life big deal three stories first story connecting dots dropped reed college first months stayed around drop another months really quit drop started born biological mother young unwed college graduate student decided put adoption felt strongly adopted college graduates everything set adopted birth lawyer wife except popped decided last minute really wanted girl parents waiting list got call middle night asking unexpected baby boy want said course biological mother later found mother never graduated college father never graduated high school refused sign final adoption papers relented months later parents promised would someday college years later college naively chose college almost expensive stanford working class parents savings spent college tuition six months could see value idea wanted life idea college going help figure spending money parents saved entire life decided drop trust would work pretty scary time looking back one best decisions ever made minute dropped could stop taking required classes interest begin dropping ones looked interesting romantic dorm room slept floor friends rooms returned coke bottles deposits buy food would walk miles across town every sunday night get one good meal week hare krishna temple loved much stumbled following curiosity intuition turned priceless later let give one example reed college time offered perhaps best calligraphy instruction country throughout campus every poster every label every drawer beautifully hand calligraphed dropped take normal classes decided take calligraphy class learn learned serif sans serif typefaces varying amount space different letter combinations makes great typography great beautiful historical artistically subtle way science capture found fascinating none even hope practical application life years later designing first macintosh computer came back designed mac first computer beautiful typography never dropped single course college mac would never multiple typefaces proportionally spaced fonts since windows copied mac likely personal computer would never dropped would never dropped calligraphy class personal computers might wonderful typography course impossible connect dots looking forward college clear looking backward years later connect dots looking forward connect looking backward trust dots somehow connect future trust something gut destiny life karma whatever approach never let made difference life second story love loss lucky found loved early life woz started apple parents garage worked hard years apple grown two garage billion company employees released finest creation macintosh year earlier turned got fired get fired company started well apple grew hired someone thought talented run company first year things went well visions future began diverge eventually falling board directors sided publicly focus entire adult life gone devastating really know months felt let previous generation entrepreneurs dropped baton passed met david packard bob noyce tried apologize screwing badly public failure even thought running away valley something slowly began dawn still loved turn events apple changed one bit rejected still love decided start see turned getting fired apple best thing could ever happened heaviness successful replaced lightness beginner less sure everything freed enter one creative periods life next five years started company named next another company named pixar fell love amazing woman would become wife pixar went create world first computer animated feature film toy story successful animation studio world remarkable turn events apple bought next returned apple technology developed next heart apple current renaissance laurene wonderful family together pretty sure none would happened fired apple awful tasting medicine guess patient needed sometimes life hits head brick lose faith convinced thing kept going loved got find love true work lovers work going fill large part life way truly satisfied believe great work way great work love found yet keep looking settle matters heart know find like great relationship gets better better years roll keep looking find settle third story death read quote went something like live day last someday certainly right made impression since past years looked mirror every morning asked today last day life would want today whenever answer many days row know need change something remembering dead soon important tool ever encountered help make big choices life almost everything external expectations pride fear embarrassment failure things fall away face death leaving truly important remembering going die best way know avoid trap thinking something lose already naked reason follow heart year ago diagnosed cancer scan morning clearly showed tumor pancreas even know pancreas doctors told almost certainly type cancer incurable expect live longer three six months doctor advised home get affairs order doctor code prepare die means try tell kids everything thought would next years tell months means make sure everything buttoned easy possible family means say goodbyes lived diagnosis day later evening biopsy stuck endoscope throat stomach intestines put needle pancreas got cells tumor sedated wife told viewed cells microscope doctors started crying turned rare form pancreatic cancer curable surgery surgery fine closest facing death hope closest get decades lived say bit certainty death useful purely intellectual concept one wants die even people want heaven want die get yet death destination share one ever escaped death likely single best invention life life change agent clears old make way new right new someday long gradually become old cleared away sorry dramatic quite true time limited waste living someone else life trapped dogma living results people thinking let noise others opinions drown inner voice important courage follow heart intuition somehow already know truly want become everything else secondary young amazing publication called whole earth catalog one bibles generation created fellow named stewart brand far menlo park brought life poetic touch late personal computers desktop publishing made typewriters scissors polaroid cameras sort like google paperback form years google came along idealistic overflowing neat tools great notions stewart team put several issues whole earth catalog run course put final issue mid age back cover final issue photograph early morning country road kind might find hitchhiking adventurous beneath words stay hungry stay foolish farewell message signed stay hungry stay foolish always wished graduate begin anew wish stay hungry stay foolish thank much</t>
+  </si>
+  <si>
+    <t>asked talk multidisciplinary approach thinking start guys get bored something say well thought supposed fun listening today raise hand say could talk leadership team building business strategy ethics something else gave talk recently google fact given three talks google first talk gave said going talk said well want talk said whatever want usually talk well usually talk leadership culture team building strategy ethics said want hear team building crap get time want hear self improvement mix multidisciplinary topic little bit self improvement well important multidisciplinary thinker answer comes austrian philosopher ludwig wittgenstein said understand know could anything sounds simpler yet genius line understand know many mistakes make understand something make mistakes mistakes come come blind spots lack understanding need multidisciplinary thinking japanese proverb says frog well knows nothing mighty ocean may know everything know specialty silo well going make good decisions life complex systems life dynamic system life know one well tried learn munger calls big ideas different disciplines right front want tell trick try way enough time life impossible fields big books thick trick learn big ideas science biology etc found science magazine called discover magazine show hands anybody ever heard discover magazine people found magazine every month really good interview somebody aspect science every month six seven pages long layperson terms person trying get ideas across would using good stories clear language would never fail get big ideas interview mean given chance interviewed discover magazine field nanoparticles something going try best get good ideas interview best stories discovered internet years discover magazine articles available archives printed years times months interviews interviews put big three ring binders filled three big binders next six months went coffee shop hour two every morning read read index fund style means read pick choose universe going whole universe read every single one tell articles would selecting reading material probably would read would never million years read six pages nanoparticles guess end six months inside head every single big idea every single domain science biology took months hard written layperson terms really really get like index fund captured parabolic ideas one else anybody else ideas world would read interview nanoparticles yet got best ideas would read arcane subject god saw exactly works biology exactly works human nature know big ideas alternative find somebody get ideas age school thought asymmetry unfair work every time back meet group students change asymmetry around work multiple examples models derived call three buckets let see got three buckets three buckets use ideas one else world uses yet comfortable right statistician best friend large relevant sample size principle derived large relevant sample size wrong way could wrong sample size small sample relevant want tell three buckets derive models multidisciplinary models number one billion years large sample largest one whole universe larger sample inorganic universe physics geology anything living goes bucket number billion years bucket number billion years biology planet earth big sample size relevant biological creatures let ask inorganic bucket number one relevant live bucket number one live billion years bucket number two part biology billion years number three years recorded human history relevant story going take couple examples multidisciplinary thinking ask question simple two word description accurately describes everything world works would useful would know everything works two words bucket number one everything work newton third law motion getting multidisciplinary anybody room know newton third law motion says answer every action always equal opposite reaction beautiful wins one pens answering question correctly always give rewards like operant conditioning psychology right yes put bottle water table newton third law motion says bottle pushes table force also strangely says table pushes back equal force strange know long true billion years true push twice hard table well push twenty one half times hard table twenty one half good word catchall word describe talking pushes thing pushes back yeah reciprocation mere reciprocation perfectly mirrored reciprocation harder push harder pushes back everybody buy bucket number one world works mirrored reciprocation everything inorganic universe works way bucket number going introduce little humor even though dog pretend cat cat time mark twain said man picks cat tail learn lesson learn way cat going try going answer attack yeah going try scratch sharp claws find picked tail agreeable start swinging cat around tail cat trying scratch eyes said escalated pal going escalate back sound lot like mirrored reciprocation instead something disagreeable cat something agreeable cat cat sitting come gently pick tummy put crook elbow gently stroke cat try scratch licks hands long sit stroke going continue try lick hand wants show like agreeable good guy keep man mirrored reciprocation act disagreeable way cat cat acts disagreeable way back mirrored act agreeable way think going find bucket number three exactly thing entire life every interaction another human merely mirrored reciprocation going say simple simple simple mean sophisticated sophisticated model derived multidisciplinary fashion looked three largest sample sizes exist three relevant said exactly thing think bank percent bank think things complex sophisticated like people think complex sophisticated want remember best say important albert einstein listed said five ascending levels cognitive prowess nobody room want level number one right want level number five want level number one wait hear levels going blow mind number said bottom smart lowest level cognitive prowess smart next level level intelligent level next brilliant next level level said genius higher genius must backward wait hear number one according albert einstein demonstrated number one simple simple transcends genius simple right kind simple better genius understand bought book usually take giving talk like ethics spinoza spinoza ethics book written true genius guess understand anything understand walked mirrored reciprocation economics club right everybody interested economics let give example model derived multidisciplinary way pure economic model find going ask question powerful force human beings individuals groups potentially harness towards achieving ends life bucket number one ask powerful force bucket number one going quote albert einstein said powerful force universe compound interest said compound interest said powerful force universe said greatest mathematical discovery time said eighth wonder world said understand get paid pay said things albert einstein compound interest good working definition compound interest propose one mine say compound interest dogged incremental constant progress long time frame fair definition alright think answer bucket number powerful force could potentially harnessed dogged incremental constant progress long time frame bucket number billion years biology powerful force three half billion years biology machine evolution work dogged incremental constant progress long time frame beauty deriving things multidisciplinary wrong see things lined like three bars slot machine boy hit jackpot think going find bucket number three years human experience earth want win gold medal olympics want learn musical instrument want learn foreign language want build berkshire hathaway formula dogged incremental constant progress long time frame look simple genius absolutely genius understand somebody drawing formulas things know numbers multiply amplify time problem human beings like constant think one terms dogged incremental constant progress long time frame nobody wants constant functional equivalent sisyphus pushing boulder mountain push half way come back another time goes back got great idea going really work hard push half way know get back next month human condition geometric terms called variance drain whenever interrupt constant increase certain level threshold lose compounding longer log curve fall back onto linear curve god forbid step curve constant many people know constant know couple warren buffett charlie munger everybody wants rich like warren buffett charlie munger telling got rich constant intermittent let give example intermittency perhaps important thing lives whether realize begin example bringing home puppy pet shop brand spanking new puppy pet shop kids excited excited goal bringing home puppy household say engaged contributing new member household night number one disaster thing corner shaking like leaf anything engaged anything contributing anything shaking like leaf human beings really good solving problem know need create calm reassuring secure safe environment know even though puppy understand saying need communicate soothing tones also know need provide food water puppy underlying things stitching together really know constant feed puppy one day happens well puppy freaks puppy becomes neurotic puppy know whether trust trust puppy needs dependent upon constant behaviors everybody accept constant usually seven days less constant little puppy trot side attach rest life willing die puppy went idea want engaged contributing new member household even know idea puppy idea let tie lives google really could figure afterwards said know really good eight dollar crystal ball really good trick eight dollar crystal ball trick told rows bigger one full smartest people world said guess going eight dollar crystal ball said going psychic reading anybody room anybody said google think got stooge room got prearranged corridor bring somebody psychic reading eight dollars spent amazon best money ever spent going select name answer emily going take emily going psychic reading emily right front going believe going nail going guy nutcase spencer going man invite guy patient spencer good stuff pull going tell emily looking whole life anybody thinks well wait hear answer rest life going know everybody world looking emily entire life quest odyssey search individual percent absolutely completely trust trustworthy principled courageous competent kind loyal understanding forgiving unselfish right answer dead know else eight dollar crystal ball tells ever think may encountered person going probe probe test test make sure real fooled paradox looks like probing weakness probing strength worst day life instead strength get back weakness feel betrayed know got start search worst thing whole world everybody agree look simple second course leadership takes business school need books need guest speakers take list emily head every single person room every single person whole world list head trustworthy principled courageous competent loyal kind understanding forgiving unselfish every single one interactions others list remember puppy went human beings encounter life going idea people spend day long trying get people like wrong list able keep people away everybody going want attach willing like puppy would willing die looking whole lives pretty profound look picture love picture woman look like good time helped teach high school class los angeles first class semester brand new group like guys make following exercise believe like eight dollar crystal ball afterwards going really glad heard really understand things level understand understand know clear blind spots human beings asked group show hands many think human beings alike answer basic needs express differently tremendous diversity meeting ultimately needs get two pens beautiful answer going identify needs name answer craig craig nailed show hands many want paid attention mean really anybody want paid attention different kind human many want listened many want respected many want meaning satisfaction fulfillment life sense matter tell high school kids number five put number five even though important five put last put first would raise hands awkward going think weird raise hand soften many want loved everybody exactly difference craig said strategy employing try get fulfill needs going tell strategy dogs use dog going unhappy telling ratting dog backyard goes fence house next house talks dog next door going tell says one ever divulged first group hear dog says dog next door believe easy manipulate human beings get whatever want dog next door goes know piece cake dog says yeah every single time come home greet door biggest unconditional show attention ever gotten whole life like seconds back whatever completely ignore rest evening however every single time come home person take care anything dog think woman feels paid attention listened respected think getting meaning satisfaction fulfillment think matters dog think thinks dog loves dog get return everything want everything life everybody else first pay attention listen show respect give meaning satisfaction fulfillment convey matter show love first going get back mirrored reciprocation right see tie together world damn simple complicated every single person planet looking thing act simple things example use class elevator example famous elevator story standing front elevator doors open inside elevator one solitary stranger never met person whole life walk elevator three choices going behave walk elevator choice number one smile say good morning say least california percent time person smile say good morning back test guess going find percent time people say good morning choice number two walk scowl hiss stranger elevator idea scowling hissing say percent time may hiss back scowl back option number three wisdom comes walk elevator nothing get percent time walk elevator nothing stranger elevator nothing mirrored reciprocation first going get back whatever put bars full people drowning sorrows knocking drinks world going give something man going get mine well ever ever get morning smile world either nothing scowled hissed world getting back exactly would expect get back understood world really works study multidisciplinary things right wrong mirrored reciprocation want want positive want first obstacle big obstacle economics club certainly heard daniel kahneman nobel prize winner economics behavioral economics win nobel prize answering question would people positive first percent chance going benefit percent chance person going tell screw going feel horrible lose face rest real said huge asymmetry standard human desire gain standard human desire avoid loss one think powerful percent versus gave talk fairfax toronto prem watsa outfit berkshire hathaway canada said people whole world guys making mistake insurance business insurance work supposed spend percent protect percent right look spending percent protect percent probability somebody makes look foolish lou brock set major league record stolen bases louis cardinals many years ago said show man afraid appearing foolish show man beat every time getting beat life chances afraid appearing foolish life risk two percent proud day reading bono bono bono lead singer person ever encountered entire life asked cronies anybody else ever encountered elevator model peter said know said guess got exact model bono well got numbers wrong guy really squared away hope day squared away incredible think figured guy great life goes know know percent people going screw willing vulnerable expose going miss make sense charlie munger one day know turned whole life upside house one day said peter hearing going around giving talks around country telling people make money said well charlie nimble feet said catch tell make money way things get people whatnot make money made really give second half message good person name answer albert albert many lifetimes albert answer one correct get pen see albert lucked got easy question lifetime important albert answer one important absolutely know economics economics model know need use decision making prism whenever something finite like one important like life make decisions mankiw right talk opportunity cost heard opportunity cost classic illustration opportunity cost finite number something important means means evaluate different alternatives pick one optimal fair got one lifetime want spend one lifetime want spend one lifetime like people fighting everybody around told avoid exchange celebratory life instead antagonistic fighting life positive first patient enough know patient week puppy know long usually takes human probing testing emily going find real takes six months nobody takes long compared look plan everybody uses terrible work spend whole lives fighting everybody three hallmarks great investment superior returns low risk long duration whole world concentrates category leader merit treating three priorities get low risk long duration win win biggest blind spot business people actually proud win lose relationship yeah really beat crap suppliers know got employees know got visa work anywhere else three years proud total win lose take game theory insert word lose scenario game theory suboptimal outcome happens insert win win game theory scenario get optimal every time must necessarily interested achieving win win frameworks important counterparties life must understand basic axiom clinical psychology know multidisciplinary also learned psychology basic axiom clinical psychology reads could see world way see would understand behave way pretty good two corollaries axiom say buy axiom must buy two corollaries well logical extensions undeniable corollary number one axiom true want understand way someone behaving must see world see corollary number two want change human behavior accept axiom must necessarily get change change see world sounds impossible really hard take business employees business see world</t>
+  </si>
+  <si>
+    <t>president powers provost fenves deans members faculty family friends importantly class congratulations achievement almost years day graduated remember lot things day remember throbbing headache party night remember serious girlfriend later married important remember way remember getting commissioned navy day things remember clue commencement speaker evening certainly remember anything said acknowledging fact make commencement speech memorable least try make short university slogan starts changes world admit kinda like starts changes world tonight almost students graduating great paragon analytical rigor ask com says average american meet people lifetime lot folks every one changed lives people one folks changed lives another people five generations years class changed lives million people million people think twice population united states one generation change entire population world eight billion people think hard change lives people change lives forever wrong saw happen every day iraq afghanistan young army officer makes decision left instead right road baghdad soldiers squad saved close ambush kandahar province afghanistan non commissioned officer female engagement team senses something right directs infantry platoon away pound ied saving lives dozen soldiers think soldiers saved decisions one person children yet unborn also saved children children saved generations saved one decision one person changing world happen anywhere anyone starts indeed change world question world look like change well confident look much much better humor old sailor moment suggestions may help way better world lessons learned time military assure matters whether ever served day uniform matters gender ethnic religious background orientation social status struggles world similar lessons overcome struggles move forward changing world around apply equally navy seal years began left basic seal training coronado california basic seal training six months long torturous runs soft sand midnight swims cold water san diego obstacles courses unending calisthenics days without sleep always cold wet miserable six months constantly harrassed professionally trained warriors seek find weak mind body eliminate ever becoming navy seal training also seeks find students lead environment constant stress chaos failure hardships basic seal training lifetime challenges crammed six months lessons learned basic seal training hopefully value move forward life every morning basic seal training instructors time vietnam veterans would show barracks room first thing would inspect bed right corners would square covers pulled tight pillow centered headboard extra blanket folded neatly foot rack navy talk bed simple task mundane best every morning required make bed perfection seemed little ridiculous time particularly light fact aspiring real warriors tough battle hardened seals wisdom simple act proven many times make bed every morning accomplished first task day give small sense pride encourage another task another another end day one task completed turned many tasks completed making bed also reinforce fact little things life matter little things right never big things right chance miserable day come home bed made made made bed gives encouragement tomorrow better want change world start making bed seal training students broken boat crews crew seven students three side small rubber boat one coxswain help guide dingy every day boat crew forms beach instructed get surfzone paddle several miles coast winter surf san diego get feet high exceedingly difficult paddle plunging surf unless everyone digs every paddle must synchronized stroke count coxswain everyone must exert equal effort boat turn wave unceremoniously tossed back beach boat make destination everyone must paddle change world alone need help truly get starting point destination takes friends colleagues good strangers strong coxswain guide want change world find someone help paddle weeks difficult training seal class started men six boat crews seven men boat tall guys best boat crew made little guys munchkin crew called one five foot five munchkin boat crew one american indian one african american one polish american one greek american one italian american two tough kids midwest paddled ran swam boat crews big men boat crews would always make good natured fun tiny little flippers munchkins put tiny little feet prior every swim somehow little guys every corner nation world always last laugh swimming faster everyone reaching shore long rest seal training great equalizer nothing mattered succeed color ethnic background education social status want change world measure person size heart size flippers several times week instructors would line class uniform inspection exceptionally thorough hat perfectly starched uniform immaculately pressed belt buckle shiny void smudges seemed matter much effort put starching hat pressing uniform polishing belt buckle good enough instructors would find something wrong failing uniform inspection student run fully clothed surfzone wet head toe roll around beach every part body covered sand effect known sugar cookie stayed uniform rest day cold wet sandy many student could accept fact effort vain matter hard tried get uniform right unappreciated students make training students understand purpose drill never going succeed never going perfect uniform sometimes matter well prepare well perform still end sugar cookie way life sometimes want change world get sugar cookie keep moving forward every day training challenged multiple physical events long runs long swims obstacle courses hours calisthenics something designed test mettle every event standards times meet failed meet standards name posted list end day list invited circus circus two hours additional calisthenics designed wear break spirit force quit one wanted circus circus meant day measure circus meant fatigue fatigue meant following day would difficult circuses likely time seal training everyone everyone made circus list interesting thing happened constantly list time students two hours extra calisthenics got stronger stronger pain circuses built inner strength built physical resiliency life filled circuses fail likely fail often painful discouraging times test core want change world afraid circuses least twice week trainees required run obstacle course obstacle course contained obstacles including foot high wall foot cargo net barbed wire crawl name challenging obstacle slide life three level foot tower one end one level tower foot long rope climb three tiered tower top grabbed rope swung underneath rope pulled hand hand got end record obstacle course stood years class began training record seemed unbeatable one day student decided slide life head first instead swinging body underneath rope inching way bravely mounted top rope thrust forward dangerous move seemingly foolish fraught risk failure could mean injury dropped training without hesitation student slid rope perilously fast instead several minutes took half time end course broken record want change world sometimes slide obstacle head first land warfare phase training students flown san clemente island lies coast san diego waters san clemente breeding ground great white sharks pass seal training series long swims must completed one night swim swim instructors joyfully brief trainees species sharks inhabit waters san clemente assure however student ever eaten shark least recently also taught shark begins circle position stand ground swim away act afraid shark hungry midnight snack darts towards summon strength punch snout turn swim away lot sharks world hope complete swim deal want change world back sharks navy seals one jobs conduct underwater attacks enemy shipping practiced technique extensively basic training ship attack mission pair seal divers dropped outside enemy harbor swims well two miles underwater using nothing depth gauge compass get target entire swim even well surface light comes comforting know open water approach ship tied pier light begins fade steel structure ship blocks moonlight blocks surrounding street lamps blocks ambient light successful mission swim ship find keel centerline deepest part ship objective keel also darkest part ship cannot see hand front face noise ship machinery deafening easy get disoriented fail every seal knows keel darkest moment mission time must calm composed tactical skills physical power inner strength must brought bear want change world must best darkest moment ninth week training referred hell week six days sleep constant physical mental harassment one special day mud flats mud flats area san diego tijuana water runs creates tijuana slues swampy patch terrain mud engulf wednesday hell week paddle mud flats spend next hours trying survive freezing cold mud howling wind incessant pressure quit instructors sun began set wednesday evening training class committed egregious infraction rules ordered mud mud consumed man till nothing visible heads instructors told could leave mud five men would quit five men could get oppressive cold looking around mud flat apparent students give still eight hours till sun came eight hours bone chilling cold chattering teeth shivering moans trainees loud hard hear anything one voice began echo night one voice raised song song terribly tune sung great enthusiasm one voice became two two became three long everyone class singing knew one man could rise misery others could well instructors threatened time mud kept singingbut singing persisted somehow mud seemed little warmer wind little tamer dawn far away learned anything time traveling world power hope power one person washington lincoln king mandela even young girl pakistan malala one person change world giving people hope want change world start singing neck mud finally seal training bell brass bell hangs center compound students see quit ring bell ring bell longer wake clock ring bell longer freezing cold swims ring bell longer runs obstacle course longer endure hardships training ring bell want change world ever ever ring bell graduating class moments away graduating moments away beginning journey life moments away starting change world better easy class class affect lives million people next century start day task completed find someone help life respect everyone know life fair fail often take take risks step times toughest face bullies lift downtrodden never ever give things next generation generations follow live world far better one today started indeed changed world better thank much hook horns</t>
+  </si>
+  <si>
+    <t>midst sea change tidal wave might accurate medium photography lens still firmly fixed camera body body appears imploded inner workings guts camera talbot days cameras called mousetraps wife always tripping changed faster anyone expected digital camera slr become new tool lens based professionals artists almost overnight everywhere pictures changed ground rules making need pictures make mark lives give meaning experience park deep consciousness way new music always never greater appetite lens based visual culture stands mediums communication hands art world photography stepped forward important art medium times roberta smith writing new york times years back put way paraphrasing last years medium profound effect art medium photography mind comes one america foremost critics sculpture bus station helsinki want introduce bus station next eliel saarinen famous train station surrounded jugenstil architectural gems like national theater national art museum bus station makes cool backdrop magnum wannabees armed slrs vintage leica might find sometime getting back bus station makes famous least among students teach umass lowell university art design helsinki cole art appliqu lausanne many workshops give tuscany maine santa metaphor offers students professionals alike creative continuity life long journey photography metaphor provides young artists seeking discover unique vision one day helsinki bus station let describe happens two dozen platforms laid square heart city head platform sign posting numbers buses leave particular platform bus numbers might read follows bus takes route city least kilometer stopping bus stop intervals along way numbers repeated let say metaphorically speaking bus stop represents one year life photographer meaning third bus stop would represent three years photographic activity working three years making platinum studies nudes call bus take three years work nude museum fine arts boston curator asks familiar nudes irving penn bus line take gallery paris reminded check bill brandt bus shocked realize three years others already done hop bus grab cab life short head straight back bus station looking another platform time going make view camera color snapshots people lying beach cherry picker crane spend three years three grand produce series works elicit comment seen work richard misrach steamy black white camera view palm trees swaying beachfront seen work sally mann get bus grab cab race back find new platform goes creative life always showing new work always compared others simple stay bus stay cking bus time begin see difference buses move helsinki stay line maybe kilometer two begin separate number heading unique destination bus suddenly goes north bus southwest time maybe dovetail one another soon split well irving penn headed elsewhere separation makes difference start see difference work work admire chose platform time look breakthrough suddenly work starts get noticed working making difference work influenced vision takes years mount work takes begins pile long critics become intrigued separates work sally mann ralph gibson first got started regain whole bus route fact vintage prints made twenty years ago suddenly evaluated worth start selling premium end line bus comes rest driver get smoke better yet cup coffee work done could end career artist end life matter total output early called imitations breakthroughs peaks valleys closing masterpieces stamp unique vision stayed bus began photography enamored work ralph gibson duane michals jerry uelsmann platforms told possible use mind make pictures copywriter minolta account became photographer wrote happens inside mind happen inside camera took credo made multiple images like uelsmann sequences like michals ralph gibson images haunted one picture particular hands coming prow boat made loved picture foot coming prow finnish rowboat way made sure image inspired mine even though thinking made picture show antibes called three masters surreal eikoh hosoe great japanese master ralph gibson humbly party vernissage told ralph trepidations first began photography nodded head said first saw work thereabouts feeling something familiar quick add know take long find way found difference ralph went photograph women walls color surreal light continued bus route less haunted assured best chance making voice vision heard find common attribute work recognized audiences made curious happen early teacher harry callahan stated never get much better first important works come soon auction london sotheby years back one pieces came bidding shows upside face mouth wide open boardwalk narragansett rhode island auctioneer announced piece certainly describe student work fact made harry class teach teachers say student work maybe think twice teaching georges braque said limited means new forms emerge say find knowing heart set platinum landscapes misty southern terrains work way inspire ride bus route damn would say merely repeating done wait months years pass soon differences begin appear clarity intelligence originality become visible even works first years trepidation everything seemed done whole lot things art become ten different artists great danger communicate little end say ride bus dreams stay course closing want take switzerland also teach stand back stand back far enough see mountain top head straight knowing disappear sight life meander hidden forest trails lift ever higher even many sections force drop mountainside pockets disappointment even despair climbing soon enough always headed towards goal special occasions may many fruits labors suddenly made visible celebrated see peak closer giving confidence step forward ever briskly bravely one point tree line thin way hair top old man begins bald away air clear path sure top delight accomplished much become aware peaks far higher ever dreamed peaks distance first saw hard judge heights see way climbing days done look lofty peaks raging jealousy end days sadness regret look path came become proud even arrogant like every step took skim horizon eyes take gorgeous sweep panorama know peace rare humility number one world number one special peace comes humility one showers respect peers reach peak life reached highest peak god bless sides football field bless one country another number one without number deux tres quatro funf lesson back classrooms america learning think hope see bumper stickers read son made dean list see sons daughters tracey moffatt poignant series works dedicated athletes come fourth place gold silver even bronze number uno stardom dream chase need good make good work caretaker vision make famous remember art risk made visible good luck see going great</t>
+  </si>
+  <si>
+    <t>well doubt many wondering speaker old well answer obviously died yet speaker chosen well know either like think development department nothing whatever reason think fitting sitting see one crowd faces rear wearing robes know educated army descendants really deserves lot honors given people upfront sacrifice wisdom value transfer comes one generation next never underrated gives enormous pleasure look sea asian faces left life admired confucius like idea filial piety idea values taught duties come naturally passed next generation people think anything idea please note fast asian faces rising american life think something right scratched notes going try give account ideas attitudes worked well claim perfect everybody although think many pretty close universal values many fail ideas core ideas helped well luckily got early age idea safest way try get want try deserve want simple idea golden rule speak want deliver world would buy end ethos opinion better lawyer person large people ethos win life win money honors emoluments win respect deserved trust people deal huge pleasure life obtained getting deserved trust way get deliver would want buy circumstances reversed occasionally find perfect rogue person dies rich widely known mostly people fully understood surrounding civilization cathedral full people funeral ceremony celebrate fact person dead reminds story time one people died minister said time someone say something nice deceased nobody came forward nobody came forward nobody came forward finally one man came said well brother worse want kind funeral want leave entirely wrong example second idea got early love right admiration based love love include instructive dead somehow got idea lived life useful love like celebrated somerset maugham book human bondage sick kind love disease find disease like advice turn around fix eliminate another idea got may remind confucius wisdom acquisition moral duty something advance life wisdom acquisition moral duty corollary proposition important means hooked lifetime learning without lifetime learning people going well going get far life based already know going advance life going learn leave take berkshire hathaway certainly one best regarded corporations world may best long term investment record entire history civilization skill got berkshire one decade would sufficed get next decade achievements made without warren buffett learning machine continuous learning machine record would absolutely impossible true lower walks life constantly see people rise life smartest sometimes even diligent learning machines bed every night little wiser got boy help particularly long run ahead alfred north whitehead said one time rapid advance civilization came man invented method invention course referring huge growth gdp per capita good things take granted started hundred years ago stasis civilization progress invents method invention progress learn method learning lucky came law school learned method learning nothing served better long life continuous learning take warren buffett watched time clock would say half time spends sitting ass reading big chunk rest time spent talking one one either telephone personally highly gifted people trusts trust words looks quite academic worldly success academia many wonderful values came across value long ago several years ago capacity hospital board chairman dealing medical school academic man years hard work made know bone tumor pathology almost anybody else world wanted pass knowledge rest going well decided write textbook would useful people think textbook like sells two thousand copies two thousand copies major cancer centers world took year sabbatical sat front computer slides saved organized filed worked hours day days week year sabbatical end year one great bone tumor pathology textbooks world around values like want pick much another idea hugely useful listened law school wag said legal mind mind two things twisted together interacting feasible think responsibly one thing well could see one sentence perfectly ridiculous pushed natural drift learning big ideas big disciplines would perfect damn fool trying think one aspect something could removed totality situation constructive fashion noted since really big ideas carry percent freight hard pick big ideas big disciplines make standard part mental routines ideas course good practice practice lose went life constantly practicing model disciplinary approach well tell done made life fun made constructive made helpful others made enormously rich name attitude really helps dangers works well frequently find sitting presence expert maybe even expert superior supervising know specialty lot see correct answer missed dangerous position cause enormous offense helpfully right way causes somebody else lose face never found perfect way solve problem great poker player young good enough poker player people failed sense thought knew subjects gave lot offense regarded eccentric difficult period advice learn sometimes keep light bushel one colleagues also number one class law school great success life worked supreme court etc knew lot tended show young lawyer one day senior partner called said listen chuck want explain something duty circumstances behave way client thinks smartest person world little energy insight available use make senior partner look like smartest person world satisfied two obligations want light shine well may good advice rising large firm always obeyed drift nature people like need adored everybody another idea way talk multidisciplinary attitude really following key idea greatest lawyer antiquity marcus tullius cicero cicero famous saying man know happened born goes life like child correct idea cicero right ridicule somebody foolish know happened born generalize cicero think one things know addition history things big ideas disciplines help know enough prattle back exam get learn things way mental latticework head automatically use rest life solemnly promise one day walking street look right left think heavenly days one competent people whole age forward many brightest live middle ranks shallows another idea got encapsulated story dean recounted man wanted know going die would rustic let idea profound truth hand way complex adaptive systems work way mental constructs work problems frequently get easier would even say usually easier solve turn around reverse words want help india question ask help india think worst damage india would automatically worst damage avoid would think logically thing mastered algebra know inversion frequently solve problems nothing else solve life unless gifted einstein inversion help solve problems solve ways use little inversion really fail life want avoid easy answer sloth unreliability unreliable matter virtues going crater immediately faithfully engaged automatic part conduct want avoid sloth unreliability another thing think avoided extremely intense ideology cabbages one mind seen see lot know preachers instance know got different ideas theology lot minds made cabbage happen political ideology young easy drift loyalties announce loyal member start shouting orthodox ideology pounding pounding gradually ruining mind want careful ideology big danger mind got little example use whenever think ideology scandinavian canoeists succeeded taming rapids scandinavia thought would tackle whirlpools aaron rapids united states death rate percent big whirlpool something want think true really deep ideology call iron prescription helps keep sane naturally drift toward preferring one ideology another say entitled opinion subject unless state arguments position better people supporting think reach stage qualified speak say much iron discipline much iron discipline even hard sounds lot like iron prescription ferdinand great necessary hope order persevere probably tough people think tough tough people business drifting extreme ideology important thing life want correct knowledge wiser people heavy ideology likely another thing course one self serving bias subject think little entitled wants instance true little overspend income well man became famous composer world utterly miserable time one reasons always overspent income mozart mozart get kind asinine conduct think try generally speaking envy resentment revenge self pity disastrous modes thought self pity gets pretty close paranoia paranoia one hardest things reverse want drift self pity friend carried big stack linen cards thick somebody would make comment reflected self pity would take one cards take top one stack hand person card said story touched heart never heard anyone many misfortunes well say waggery suggest every time find drifting self pity care cause child could dying cancer self pity going improve situation give one cards ridiculous way behave avoid get great advantage everybody else almost everybody else self pity standard condition yet train course self serving bias want get thinking good good wider civilization rationalizing ridiculous conclusions based subconscious tendency serve one self terribly inaccurate way think course want drive want wise foolish also allow self serving bias everybody else people gonna remove successfully condition allow self serving bias conduct fool watched brilliant harvard law review trained general counsel salomon lose career ceo aware underling done something wrong general counsel said gee legal duty report think moral duty course general counsel totally correct course work unpleasant thing ceo put put course everything eroded major scandal went ceo general counsel correct answer situations like given ben franklin said want persuade appeal interest reason self serving bias extreme general counsel said look going erupt something destroy take away money take away status perfect disaster would worked want appeal interest want lofty motives avoid appealing interest another thing perverse incentives want perverse incentive system causing behave foolishly worse worse incentives powerful controller human cognition human behavior one things going find modern law firms billable hour quotas could lived billable hour quota hours year would caused serious problems would done solution figure significant problem particularly want avoid working directly somebody really admire want like dangerous subject control extent authority figures particularly authority figures rewarding requires talent way solved figured people admire maneuvered cleverly without criticizing anybody working entirely people admired lot law firms permit shrewd enough work outcome life way satisfactory way better work people really admire alternative good idea objectivity maintenance well remember darwin paid special attention disconfirming evidence particularly disconfirm something believed loved well objectivity maintenance routines totally required life going correct thinker talking darwin attitude special attention disconfirming evidence also checklist routines checklist routines avoid lot errors elementary wisdom checklist order use procedure work well last idea found important realized early non egality would work better parts world wanted inhabit mean non egality mean john wooden number one basketball coach world said bottom five players get play sparring partners top seven playing well top seven learned remember learning machine playing got system wooden would ever think game life many respects getting lot practice hands people aptitude learn tendency learning machines want highest reaches human civilization want choose brain surgeon child among fifty applicants take turns procedure want airplanes designed way want berkshire hathaway run way want get power right people frequently tell story max planck nobel prize went around germany giving lectures quantum mechanics chauffeur gradually memorized lecture said would mind professor planck boring staying routines would mind gave lecture time sat front chauffeur hat planck said sure chauffeur got gave long lecture quantum mechanics physics professor stood rear asked perfectly ghastly question chauffeur said well surprised advanced city like munich get elementary question going ask chauffeur reply well reason tell story entirely celebrate quick wittiness protagonist world two kinds knowledge one planck knowledge people really know paid dues aptitude got chauffeur knowledge learned prattle talk big head hair may fine timbre voice really make hell impression end got chauffeur knowledge think described practically every politician united states going problem life getting responsibility people planck knowledge away people chauffeur knowledge huge forces working generation failed extent delivering california legislature certified nuts left certified nuts right allowed serve none removable generation done would like easy would another thing found intense interest subject indispensable really going excel could force fairly good lot things could really good anything intense interest extent going follow feasible want drift something really natural interest another thing course lot assiduity like word means sit ass marvelous partners life think got partly tried deserve partly wise enough select partly maybe luck two partners chose one little phase life following rule created little design build construction team sat said two man partnership divide everything equally rule whenever behind commitments people work hours day caught well needless say firm fail people died rich simple idea another thing course life terrible blows horrible blows unfair blows matter people recover others think attitude epictetus best thought every mischance life opportunity behave well every mischance life opportunity learn something duty submerged self pity utilize terrible blow constructive fashion good idea may remember epitaph epictetus left lies epictetus slave maimed body ultimate poverty favored gods well way epictetus remembered said big consequences favorite gods favored became wise became manly good idea got final little idea prudence well opportunism grandfather federal judge city nearly forty years really admired namesake confucian enough even sit saying well judge munger would pleased see confucian enough years grandfather dead carry torch grandfather values grandfather munger federal judge time pensions widows federal judges save income grandmother would penury kind man underspent income life left comfortable circumstances along way thirties uncle bank failed could reopen grandfather saved bank taking third assets good assets putting bank taking horrible assets exchange course save bank grandfather took loss got money back eventually always remembered example got college came across houseman remember little poem houseman went something like thoughts others light fleeting lovers meeting luck fame mine trouble mine steady ready trouble came say wants life anticipating trouble well life gone life anticipating trouble well along eighty fourth year like epictetus favored life make unhappy anticipate trouble time ready perform adequately trouble came hurt fact helped quick claim houseman judge munger last idea want give profession frequently puts lot procedure lot precautions lot mumbo jumbo highest form civilization reach highest form civilization reach seamless web deserved trust much procedure totally reliable people correctly trusting one another way operating room works mayo clinic bunch lawyers introduce lot process patients would die never forget lawyer may rewarded selling stuff buy life want seamless web deserved trust proposed marriage contract forty seven pages suggestion enter well enough one graduation hope ruminations old man useful end like old valiant truth pilgrim progress sword leave wear</t>
+  </si>
+  <si>
+    <t>nathan myhrvold gonna talk today roadkill information highway sufficiently complex interesting topic always reduced series silly cliches set technology winds referred press information highway presented choice either completely choose silly clich wallow see probably wallow little bit today serious issue computing communication come together change world change landscape people involved competitively change technology ultimately change society foundations information highway phenomena really rest two fundamental technologies vlsi chip technology gives raw power computing software harnesses raw power end users needs primarily software guy talk bunch hardware today important understand capabilities hardware gonna provide last years explosion price performance ratio meaning constant price performance computers gone enormously constant level performance price dropped precipitously factor million increase last years tell next years another factor million luck years thereafter another factor million tossing factors million around hard get grasp really means reference factor million takes year seconds says computer years seconds today computers would take year years hence computers seconds one today machines comparable cost would take million years realm increase performance large stretches credulity almost ridiculous people eyes glaze say could something gonna happen basically today say think something unusual happen think get factors changed computing world today microprocessors digital electronics computers increasingly lives next years going change even ability store information also gone ram memory semiconductor memory increases density every months happened historically long time price ram drops per year steady fashion hard disks magnetic storage decreases well per year general rule thumb size hard disk may computer today computer user much ram years size hard disk expand accordingly rule true long computer involved technologies moving direction remain true even without breakthroughs optical storage technology could revolutionize fast main memory storage things like holographic memory mass storage new kinds rom writeable optical media able compute able store gonna fundamental piece happens information highway chart shows talking shows number bytes get dynamic ram memory per dollar semi log chart logarithmic scale see nice straight line line goes back almost years remarkably steady exponential decreases price per bit memory last data points chart extrapolated year think every reason believe phenomena gonna continue fact look solid state physics involved find people already good idea gonna continue improve density ram continue improve price performance ratio processors fundamental physics people need learn make cost effective manufacture volume make reliable cheap people good fundamental capability real lesson behind importance exponential know anything exponential growth know asymptotic scaling matters anything fixed threshold performance fixed amount computing power rapidly overwhelmed even things grow grow exponentially overwhelmed growth rate winds slower mainframe computers lost microprocessors exponential increase performance growth rate microprocessor based systems leads fascinating phenomena unimaginable performance going blow fixed thresholds hand still problems gonna hard amount computing power years years years hence able solve example class problems called hard problems computer science consider simple example objects take combinations objects different orderings well number three objects number six grows rapidly number take objects put possible combinations really many objects little larger number cards deck playing cards total number combinations cosmologists estimate number baryons heavy particles protons neutrons things like entire universe manage calculate number could print unless used matter energy universe actually make printout clearly problem gonna solved anywhere near finite period time make number larger gets worse trick going forward gonna figure problems fall exponential rise computing communications remain real challenge coming decades another interesting chart chart microsoft stock price like chart semi log chart exponential growth arithmetic version showing well whenever talk stock market analysts people say gee microsoft stock going lot come unusual circumstance well really unusual take first principle perspective recognize surfing wave wave computing created increase performance semiconductors price performance basically every time new processor comes twice fast opportunity add value creating new products every time ram gets larger opportunity develop larger programs sell people show effect took microsoft stock price divided previous graph memory price get almost flat takes price dynamic rams account also took cpu price hard disk price made overall index curve would absolutely flat conclusion draw software gas expands fit container case container vlsi technology cpu cycles software gets burn memory get store things god bless guys making containers long keep making larger gonna keep ability add value software used cosmologist actually another way viewing like selling real estate inflationary universe keep selling stuff universe keeps expanding exponentially specific business strategy follow want keep surfing wave exponential growth measure success traditional means revenue profit market share measure success percentage cpu cycles consume percentage ram occupy strategy microsoft say let follow microprocessor change mix products move company first wrote programming language basic developing operating systems dos windows developing graphical applications recently seen announcements may seen announcements multimedia titles encyclopedias titles baseball dinosaurs variety things finally group working variety new platforms intelligent televisions servers sit broadband networks talk little bit tiny computers fit pocket wherever microprocessors memory job software want maintain share world cycles change software product mix order follow vlsi wherever goes bottlenecks talked enormous exponential growth turns key network gonna grow fast enough become major bottleneck things bottleneck others network talking phone network cable network human nervous system see input output limited growing capabilities exponentially human beings take certain amount information certain amount information fixed number one fixed thresholds computing gonna blow know build peripherals used system get touch sense things built estimate would peripherals hard pure computing task far away ultimate data types complete perfect human interface mimics reality much possible unreality manages saturate bus gets maximum amount information interesting actually look couple senses figure hard would sort limits might come let take look taste smell appropriate many programs using means computer program gonna somewhat specialized know earth gonna connect computer manage whether jack central nervous system weird peripheral puts little drops chemicals tongues calculate fundamental data type estimate much would take compute synthesize manipulate turns people done variety physiological experiments see many unique tastes actually taste dropped little drops stuff people tongues asked fill questionnaires forth turns range taste also smell quite limited something order unique different tastes smell elements people actually break smaller conservatively let say different elements turns time resolution smell taste low thousands tastes smells per second order tastes smells per second compare say audio audio two bit samples times second talking one bit sample get different tastes smells got bits amplitude top probably sample times times second total bandwidth far less audio presumably far easier synthesize calculate store day jack get taste smell discover really hard computing power necessary today require great breakthroughs terms computing aspect problem touch another great one obviously video something quite common computers days video screen tend divide screen bunch pixels picture elements well let estimate many touch elements touchels need assume little discreet elements well physiological tests done people try estimate touch resolution people various parts bodies poke people rods various sizes shapes surprising conclusion poor touch resolution everywhere except hands lips couple places otherwise resolution quite low replicating experiments poking various rods see could tell difference somebody walked room explain really research work turns total size body high resolution stuff also quite limited fact experiment took paper towels covered size monitor use computer got dots per inch resolution decent quality computer monitor days also resolution high sensitivity parts body touchels per inch would maximum density question screen greater area body course cutting paper towel applying sensitive parts body really want get caught experiment turns fact assume somewhere bits resolution per touchel total number touchels high res computer screen bandwidth video maybe wrong maybe additional factors suppose video remember double every year factor takes three half years story although know get touch sensitivity computers total data feed big deal gonna harder synthesize harder ship around store video put together taste already know video reasonably well making stereo completely saturating humans ability input output gonna within years means computing gonna move challenges providing ultimate user interface temporary desirable hardly final state talked bunch computing storing information calculating stuff communicating well world communication one followed laws exponential growth fact make strong analogy central office telephone switch mainframe giant systems similar kind culture similar sorts margins costs cetera make analogy pbx people inside company smaller scale switch lot like minicomputer literally based minicomputer technology aspects industry similar aspects minicomputer world well minicomputers mainframes ruled world computing wise microprocessor based systems came starting personal computers workstations large servers microprocessor decimated ranks mainframe minicomputer world think similar thing gonna happening communications two key technologies first atm switching fiber optics many years fiber optics ability pipe huge amounts information long distances modulate lasers used fiber well getting information one point another via fiber commonplace essentially long distance phone calls way today problem could get high speed switched delivered right place could move bits point point okay could actually network would get information one point another atm switches come believe atm switches whole technology area equivalent communications world microprocessor computing atm switches follow vsli price performance curves based small number large number replicated cheap pieces vlsi atm switching allows new entrants come market variety start companies came revolutionized world personal computing gonna find dozens start companies coming atm switch area think variety existing switch people gonna also making great switches mean limited gonna see change people happy get isdn lines today high tech wide area networking whereas gonna ridiculous years industry gonna restructure completely result technology level also interesting service aspects call communications rollercoaster phone bill followed exponential price curve dropped factor two every year amount data send expanded factor two cost basically static well atm technology fiber optics third factor competition coming three things gonna combine make communications world change overnight overnight may take five years may take years historical context gonna voice expensive sort service voice essentially free fact calculate numbers lot people communications world gearing video demand service say offer pay per view movie home charge nobody knows exactly charge charge something like charged would competitive existing blockbuster store pay tom cruise guys hollywood whoever stars guys get money distributors get money raw communications cost probably cents per hour cents per hour megabits per second compare today voice get vod service costs long distance calls cents minute factor different price believe see time voice calls even long distance voice calls free free someone say hey sign video demand service video telephone service sign let voice side free betting move across one factors consider economics communications business gonna turned head way public utility commissions networking companies today think terms enormous value installed equipment well valuable remember new equipment probably factor two better price every year whoever operating networks intense schedule upgrading also worry schedule upgrading also worry upgrade new guy going come pay fraction paid put things originally much better service going hell ride ultimately think companies business consumers going real thrill sort network talking sort talked around edges think overall system foresee switched digital network offers point point high bandwidth digital communications hang wide variety different devices interesting analogy electrical system thomas edison invented light bulb became killer app key thing focused people minds electrification electricity first installed american homes installed dedicated lighting system fact large cities replaced earlier dedicated lighting system based gas gas lights think electricity dedicated lighting system anymore sure lights also plug cuisinart stereo computer electric razor general utility thing happened communications world today two dedicated networks cable network dedicated notion deliver video telephone network dedicated notion delivers point point communications going evolve look forward general information utility bit socket like jack today bit socket plug personal computer plug camcorder want send pictures kids grandma smart smart cable box dumb cable boxes wireless phones smart phones wide variety servers systems set order supply information telephone taking world set top box taking world personal computer taking world talking general information utility people like talk win win water heater connected every electrical device ultimately connected information utility offer ability demand side power management security wide variety different kinds information usage fact think information fundamentally utility think electricity today looking world going evolve variety aspects information mean information kinds information alter think one interesting ways look divide things two sides pure information addressing aspects sending something one person many people point point one one one many also look temporal aspects time synchronous like telephone call parties line time asynchronous offline two parties completely decoupled time well make list things examples online one many service would include things like television radio simpsons start start without synced telephones computer networks examples point point communications sending something one place another place telephone certainly synchronous example online example offline side book magazine classic one many offline thing care book written could written hundred years born fundamentally written wide audience finally point point line electronic mail fax ordinary postal service decoupling time point point address within categories described variety different information utilities different characteristics today going away kind information transmittal means storage means hand wind finding everything within box winds becoming quite similar difference say record album one kind one many offline thing book well different kinds data storing digitally matter fundamentally see world collapsing two kinds services digital data online digital phone call digital video call cetera digital data offline either via store forward system perhaps optical storage disc think see lot things move online category offline wait simpsons come particular time made slaves machines slaves system able watch show movie anytime like mean everything offline course still late breaking news stories come going want watch point time large many things multicast online move offline similarly many things long time constant going able get instantaneously ultimately look forward kinds information discover factors survive best generic addressing capabilities temporal aspects get information going happen look analogies hard find something characteristics information highway explosion unless far back back first information revolution johann gutenberg invented printing press completely changed way people thought information got analysis based call document demographics consider total number documents say published year versus total number readers information dedicated zero column notes people take notes intended reader author kind distribution really memory aid well got letters personal letters person business letters cetera exist one small number copies get higher volume hundred probably sending letters probably things like ads brochures newsletters finally get books magazines newspapers things sort estimate shape curve figuring much notebook paper sold many post notes sold combined circulation newspapers magazines books cetera got schematic curve sort illustrating thing fascinating curve print media basically talking mature print media driven fundamental desire people using technology although technology played important role gives interesting way looking might happen believe happen online digital information within different ranges documents characteristic technology used reproduction making copies actually getting copies people zero case pen pencil document gets distribution author written one copy hundred copies another realm realm photocopier xerox machine revolutionized area copies really realm desktop publishing laser printers important smaller range laser printers small offset presses desktop publishing really come copies finally get say copies realm commercial printing say around minimum number really serious commercial printing books regardless whether popular book obscure scientific tome printed less copies worth starting presses addition reproduction characteristic distribution technology take copies made people physically get people need see well distribution problem zero case zero hundred probably either using hand physically handing people interoffice mail taking perhaps mailing copies kind awkward phase send copies something small number commercial distribution instead pretty much use mail good way getting documents either given free ads sold usually fairly expensive subscribe industry newsletter usually cost year quite expensive compared say popular magazine get copies commercial world distribution retail cetera people either use mail case magazines use newsstands bookstores paperboys specialty distribution system set domain fundamental lesson learn technology characteristic economics economics shapes whole field may think terms fact price per copy enormous barrier people making photocopies one time changed enormously xerox addition direct economic costs convenience ability machine press button changed things enormously fact back look effects kinds information delivery would technology changed economics fact lesson change economics information distribution change world chart superimposed original one used xerox desktop publishing gutenberg well xerox could make photostat mimeograph ways making copies could use carbon paper hit keys awful hard make two copies fact hugely fewer number copies made estimate looking sales copiers copier paper people basically without large numbers copies soon xerox made feasible exploded people found need hard imagine see use xerox machines today</t>
+  </si>
+  <si>
+    <t>wonderful tell lecture series used called last lecture one last lecture give died would thought damn finally nailed venue renamed case anybody wandered know back story dad always taught elephant room introduce look cat scans approximately tumors liver doctors told three six months good health left month ago math best doctors world change decide going respond change cards dealt play hand seem depressed morose sorry disappoint assure denial like aware going family three kids wife decamped bought lovely house chesapeake virginia near norfolk better place family road thing phenomenally good health right mean greatest thing cognitive dissonance ever see fact really good shape fact better shape anybody wants cry pity come may pity right talking today talking cancer spend lot time talking really interested herbal supplements remedies please stay away going talk things even important achieving childhood dreams going talk wife gonna talk kids good good enough talk without tearing gonna take table much important gonna talk spirituality religion although tell experienced death bed conversion bought macintosh knew would get nine percent audience right today talk childhood dreams achieved fortunate way believe able enable dreams others degree lessons learned professor lessons learned use stuff hear today achieve dreams enable dreams others get older may find enable dreams others thing even fun childhood dreams well know really good childhood mean kidding around going back family archives really amazing could find pictures kid smiling right gratifying thing dog awe thank actually picture dreaming lot know lot wake know easy time dream born right eight nine years old look set men landing moon anything possible something lose sight inspiration permission dream huge childhood dreams may agree list zero gravity playing national football league authoring article world book encyclopedia guess tell nerds early captain kirk anybody childhood dream cmu wanted become one guys big stuffed animals amusement park wanted imagineer disney sorted particular order although think get harder except maybe first one okay zero gravity important specific dreams dream astronaut little kid wore glasses told astronauts glasses like really want whole astronaut gig wanted floating child prototype zero point zero work well turns nasa something called vomit comet use train astronauts thing parabolic arcs top arc get seconds ballistic get rough equivalent weightlessness seconds program college students submit proposals win competition get fly thought really cool team put team together got fly excited gonna hit first brick wall made clear circumstances faculty members allowed fly teams know heartbroken right like worked hard read literature carefully turns nasa part outreach publicity program turns students allowed bring local media journalist hometown randy pausch web journalist really easy get press pass call guys nasa said need know fax documents said documents going fax said resignation faculty advisor application journalist said little transparent think said yeah project virtual reality gonna bring whole bunch headsets students teams going experience real journalists going get film jim foley going bastard yes guy said fax number indeed kept end bargain one themes hear later talk something bring table right make welcomed right let talk football dream play national football league know actually make national football league probably got dream accomplishing got ones accomplish coach signed nine years old smallest kid league far coach jim graham six foot four played linebacker penn state hulk guy old school mean really old school like thought forward pass trick play showed practice first day know big hulking guy scared death brought footballs gonna practice without footballs one kids said excuse coach cut football coach graham said right many men football field time said team coach graham said right many people touching football given time one said right gonna work guys really good story fundamentals fundamentals fundamentals fundamentals gotta get fundamentals otherwise fancy stuff gonna work jim graham story one practice rode practice wrong wrong back owe pushups practice one assistant coaches came said yeah coach graham rode pretty hard said yeah said good thing said screwing nobody saying anything anymore means gave lesson stuck whole life see something badly nobody bothering tell anymore bad place critics ones telling still love care coach graham another coach coach setliff taught lot power enthusiasm one thing one play time would put people like horrifically wrong position like short guys would become receivers right laughable went one play right boy team never knew hit one play supposed freedom another word nothing left lose boy gonna clean somebody clock one play kind enthusiasm great day comfortable football field mean one things working hard problem people see wandering halls one things know something young enough train becomes part glad football part life get dream playing nfl okay probably got stuff valuable looking going nfl sure guys great right okay one expressions learned electronic arts love pertains experience get get wanted think absolutely lovely thing football send kids play football soccer swimming whatever first example gonna call head fake indirect learning actually want kids learn football mean yeah really nice wonderful three point stance know chop block kind stuff send kids learn much important things team work sportsmanship perseverance cetera cetera kinds head fake learnings absolutely important keep eye everywhere right simple one author world book encyclopedia kid world book encyclopedia shelf freshman paper used things called books become somewhat authority virtual reality like really important one level people world book would badger called wrote article katelyn kellaher article local library still copies world book look virtual reality say selected author world book encyclopedia know believe wikipedia perfectly fine source information know quality control real encyclopedias let right next one certain point realize things gonna maybe want stand close people mean god role model young people mean everything want learned carried forward leadership later know smartest guy ship mean spock pretty smart mccoy doctor scottie engineer sort skill set get damn thing run clearly skill set called leadership whether like series doubt lot learned lead people watching guy action coolest damn toys right mean god thought fascinating kid thing could talk ship thought spectacular course one smaller kind cool got achieve dream james kirk alter ego william shatner wrote book think actually pretty cool book chip walter pittsburgh based author quite good wrote book basically science star trek come true went around top places around country looked various things came study virtual reality set built virtual reality looks something like put put red alert good sport like saw one coming really cool meet boyhood idol even cooler comes see cool stuff lab great moment right winning stuffed animals may seems mundane little kid see big buff guys walking around amusement park got big stuffed animals right lovely wife lot pictures stuffed animals dad posing one lot animals dad win one credit big part life family life know hear cynics know age digitally manipulated things maybe bears really picture maybe paid somebody five bucks take picture theme park next bear said age cynicism convince people said know show bears bring put right put back wall bears quite enough room moving truck chesapeake anybody would like little piece end feel free come first come first serve right next one imagineer hard one believe getting zero gravity easier becoming imagineer kid eight years old family took trip cross country see disneyland ever seen movie national lampoon vacation lot like quest real vintage photographs front castle foreshadowing alice ride thought coolest environment would ever instead saying gee want experience said want make stuff like bided time graduated phd carnegie mellon thinking meant infinitely qualified anything dashed letters application walt disney imagineering sent damn nicest hell letters ever gotten mean carefully reviewed application presently positions available require particular qualifications think fact getting place famous guys sweep street bit set back remember brick walls reason right brick walls keep brick walls give chance show badly want something brick walls stop people want badly enough stop people right fast forward system back university virginia called virtual reality five dollars day one unbelievable spectacular things scared back days junior academic jim foley love tell story knew undergraduate advisor andy vandamm first conference scared death icon user interface community walks nowhere gives huge bear hug says andy thought okay maybe make maybe belong similar story unbelievable hit time everybody needed half million dollars virtual reality everybody felt frustrated literally hacked together system parts made working system people like god like hewlett packard garage thing awesome giving talk room gone wild guy named tom ferness one big names virtual reality time goes microphone introduces know looked like sure hell knew name asked question like sorry say tom ferness said yes said would love answer question first lunch tomorrow lot little moment lot humility also asking person possibly say imagineering couple years later working virtual reality project top secret denying existence virtual reality attraction time publicity department running commercials imagineering really nailed one tight aladdin attraction would fly magic carpet head mounted display sometimes known gator vision soon project know started running commercials asked brief secretary defense state virtual reality okay fred brooks asked brief secretary defense gave excuse called called imagineering said look briefing secretary defense would like materials best systems world kind pushed back said look patriotism stuff parks farce like okay said new department footage gonna connect straight team work jackpot find phone guy named john snoddy one impressive guys ever met guy running team surprising done impressive things sent stuff talked briefly sent stuff said hey gonna area conference shortly would like get together lunch translation going lie say excuse area look anxious would neptune lunch john said sure spent something like hours talking experts world saying access one unbelievable project would ask compiled memorize anybody knows knows memory cause could looking like dweeb question went like two hour lunch john must thought talking phenomenal person channeling fred brooks ivan sutherland andy vandamm people like henry fooks pretty easy smart parodying smart people end lunch john sort say business made ask said know sabbatical coming said beginnings culture clash talked possibility coming working said really good except know business telling people stuff business keeping secrets made john snoddy john snoddy said work really loved thing learned john snoddy could easily hour long talk learned john snoddy one things told wait long enough people surprise impress said pissed somebody angry given enough time give little time almost always impress really stuck think absolutely right one make long story short negotiated legal contract going first people referred first last paper ever published imagineering deal provide funding six months work project publish paper meet villain sweetness light credibility somebody head gonna stick turns person gets head stick dean back university virginia name important let call dean wormer dena wormer meeting say want sabbatical thing actually gotten imagineering guys let academic insane mean john gone nuts would never possibility secretive organization dean wormer looks paperwork says well says gonna intellectual property said yeah got agreement publish paper patentable stuff says yeah might deal get change little clause come back like excuse said want understand important work going take unpaid leave absence gonna gonna thing said hey know might even let mean got head already maybe gonna suck gonna fly either important know pissing match important get quickly possible said well let back think good idea said idea good idea like okay well got common ground said well really call call dean sponsored research issue said yeah true said happy happy yeah would fine like wile coyote find gene block office fantastic man world start talking gene block say let start high level since want back said let start high level think good idea said well asking good idea much information know one start faculty members office really excited tell lesson everybody administration said thing think said thing think said right know well much information one star faculty members excited want learn ways saying know boy good way bad way anyway got worked went imagineering sweetness light well ends well brick walls made flesh worked aladdin project absolutely spectacular mean unbelievable nephew christopher apparatus would sit sort motorcycle type thing would steer magic carpet would put head mounted display head mounted display interesting two parts clever design get throughput part touched guests head little cap everything else clicked onto expensive hardware could replicate caps basically free manufacture really cap cleaner loved imagineering spectacular place spectacular everything dreamed love model shop people crawling around things size room big physical models incredible place walk around inspired always reminded went people said think expectations high said ever see movie charlie chocolate factory willie wonka chocolate factory gene wilder says little boy charlie give chocolate factory says well charlie anybody ever tell story little boy suddenly got everything ever wanted charlie eyes get like saucers says happened gene wilder says lived happily ever okay working aladdin describe every five years opportunity stand assessment forever changed good work got part got place working real people real hci user interface issues hci people live fantasy world white collar laborers phds masters degrees know got ice cream spilled field work right anything else jon snoddy learned put artists engineers together real legacy published paper nice academic cultural scandal wrote paper guys imagineering said well let nice big picture like would magazine siggraph committee accepted paper like big scandal allowed rule published paper amazingly since tradition siggraph papers color figures first page changed world small way end six months came said want real stay said one times life surprised father like said since know wanted got like huh bottle maalox desk drawer careful wish particularly stressful place imagineering general actually maalox laden lab jon left middle lot like soviet union little dicey worked okay said stay never walk building would done would walked away tenure would done made easy said cake eat basically become day week consultant imagineering ten years one reasons become professors cake eat okay went consulted things like disneyquest virtual jungle cruise best interactive experience think ever done jesse schell gets credit pirates caribbean wonderful disneyquest childhood dreams know pretty good felt good question becomes enable childhood dreams others boy glad became professor better place enable childhood dreams maybe working know would probably good close second started concrete realization could young man named tommy burnett university virginia came interested joining research group talked said childhood dream gets pretty easy recognize tell said yes tommy childhood dream said want work next star wars film gotta remember timing tommy tommy today year would sophomore year tommy around randy pausch breaking anything back young man okay right said tommy know probably going make next movies said tommy worked number years undergraduate staff member moved carnegie mellon every single member team came virginia carnegie mellon except tommy got better offer indeed work three films said well nice know one time kind inefficient people know know efficiency freak said masse get people turned way turned onto childhood dreams created course came carnegie mellon created course called building virtual worlds simple course many people ever shows okay idea course simple students drawn different departments university randomly chosen randomly chosen teams four people per team change every project project lasts two weeks something make something show something shuffle teams get three new playmates every two weeks five projects semester first year taught course impossible describe much tiger tail running course wanted see could learned texture mapping graphics could make stuff looked half decent know running really weak computers current standards said give try new university made couple phone calls said want cross list course get people within hours cross listed five departments love university mean amazing place said kids said well content make said hell know make whatever want two rules shooting violence pornography opposed particular know done right would amazed many year old boys completely ideas take table anyway taught course first assignment gave came back two weeks blew away mean work beyond literally imagination copied process imagineering lab idea could could undergraduates tools weaker came back first assignment something spectacular literally ten years professor idea next called mentor called andy van dam said andy</t>
+  </si>
+  <si>
+    <t>look today cannot help see twenty five years ago barnard commencement sometimes seem mind much common girl stranger might pass doorway starbucks aisle airplane cannot remember wore felt day tell without question perfect let clear mean mean got every day tried perfect every possible way test studied paper written done smiled everyone dorm hallways important friendly made fun behind backs important witty worked residence counselor sat housing council anyone ever stopped asked things well sure would said tell today perfect every possible way perfect hard work hell rules changed arrived college trunk full perfect pleated kilts perfect monogrammed sweaters christmas vacation another perfect uniform overalls turtlenecks doc martens perfect new york city barnard college affect part hyperintellectual part ennui hard work indeed read neither sartre sappho closest ever came bored falling asleep finally harder become perfect realized barnard smartest girl world eventually perfect day day year year became like always carrying backpack filled bricks back secretly longed lay burden want say today sounds way familiar trying perfect one way another make today moment grades gotten classmates met terrain scouted positioning arranged make today day put backpack trying perfect may sort inevitable people like smart ambitious interested world good opinion one level hard another cheap easy really requires mainly read zeitgeist wherever whenever happen assume masks necessary best whatever zeitgeist dictates requires requirements shapeshift sure clever read imitation required nothing important meaningful beautiful interesting great ever came imitations thing really hard really amazing giving perfect beginning work becoming difficult zeitgeist read template follow mask wear set aside friends expect parents demand acquaintances require set aside messages culture sends advertising entertainment disdain disapproval behave set aside old traditional notion female nurturer male leader set aside new traditional notions female superwoman male oppressor begin terrifying things clean slate look every day choices making ask making find answer mean hard work life world make along acknowledge introvert clown artist reserved distraught goofball thinker bend march music great theys pipe flutes want professional school wear khakis pierce navel bare soul fashionable ways music tinny listen close enough look inside way lies dancing melodies spun heart symphony rest jingles always struggle whether twenty one fifty one know experience quit new york timesto full time mother voices world said nuts quit full time novelist said nuts nuts happy successful terms success terms looks good world feel good heart success remember words lily tomlin win rat race still rat look fingers hold front face one crowned abstract design completely different anyone crowd country world metaphor different fingerprints world march lockstep lockstep easier cannot march nothing great even good ever came young writers write following footsteps string together nouns verbs living tell every story already told read anna karenina bleak house sound fury kill mockingbirdand wrinkle time understand really reason ever write another novel except writer brings table let something one else history time ever personality voice faulkner imitations stay home giving readers thinks want instead stop typing books reflect character really giving new wonderful gift giving true music art teaching medicine someone sent shirt long ago read well behaved women make history make good lawyers either doctors businesswomen imitations redundant wanted already know need remind think back think back first second grade could still hear sound voice head young unformed fantastic understand supposed take protective coloration expectations around think writer catherine drinker bowen wrote half century ago many man known ten forgets utterly ten thirty many woman alone parents forgotten way sometimes say deeply committed often flawed mother three first born great glory thinking absolutely distinct every baby ever born miracle singularity knew every fiber human parent difficult job difficult requires shaping people act extraordinary hubris years learned want things want learned want lead play acceptance college straight narrow path often leads absolutely nowhere sometimes wanted things convinced would make life better least easier sometimes hard time distinguishing ended began another reason must give perfect take hold sometime distant future may want parents bring children self truly opposed amalgam manners mannerisms expectations fears acquired carapace along way give great gift teach example terrorized narrow parsimonious expectations world world often likes color within lines spray paint scrawl crayon truly wanted remember days younger rougher wilder scrawl straight line remember flaws faults well many strengths carl jung said people educated see lowly side natures may hoped also learn understand love fellow men better little less hypocrisy little tolerance toward oneself good results respect neighbors prone transfer fellows injustice violence inflict upon natures commencement speeches suggest take something challenge future vision twenty first century instead would like give give backpack give nonsensical punishing quest perfection dogs many much lives quest causes doubt denigrate true selves quirks foibles great leaps unknown bad enough worse someday sometime somewhere maybe day like today berm overlooking pond vermont lip grand canyon sunset maybe something bad happened lost someone loved failed something wanted succeed much sitting fall center look core sustain perfect life managed meet expectations family friends community society chances excellent black hole core ought take chance begin say greek chorus thinks knows parameters happy life knows homogenization human experience listen small voice inside tells another way george eliot wrote never late might never early either make difference world take someone left backpack full bricks far behind every day feels light feather</t>
+  </si>
+  <si>
+    <t>rain somebody said like confetti heaven even heavens celebrating morning joining rest wonderful commencement ceremony graduates important task perform behind parents guardians two three four years ago drove cardigan dropped helped get settled turned around drove back gates extraordinary sacrifice drove trail tears back emptier lonelier house decision education knew sacrifice others made brought point morning also hope stand turn around give great round applause please somebody asks remarks cardigan went able say interrupted applause congratulations class reached important milestone important stage life behind sorry one tell easiest stage life books cardigan part important international community well think needs particularly recognized time roberts gave brief remarks languages around country today colleges high schools middle schools commencement speakers standing impatient graduates almost always saying things say today commencement exercise beginning end look forward think true enough however think going look forward figure going good know look back well think look back first afternoon cardigan perhaps recall lonely perhaps recall little scared little anxious look surrounded friends call brothers confident facing next step education worth trying think think may appreciate support classmates classroom athletic field dorms far confidence goes think appreciate succeeded everything help friends afraid fail fail got tried failed got tried failed might time think something else success afraid fail brought point commencement speakers typically also wish good luck extend good wishes tell time time years come hope treated unfairly come know value justice hope suffer betrayal teach importance loyalty sorry say hope lonely time time take friends granted wish bad luck time time conscious role chance life understand success completely deserved failure others completely deserved either lose time time hope every opponent gloat failure way understand importance sportsmanship hope ignored know importance listening others hope enough pain learn compassion whether wish things going happen whether benefit depend upon ability see message misfortunes commencement speakers also expected give advice give grand advice give useful tips common grand advice give odd piece advice give people dressed identically understand means unless perfect mean make changes certain sense try become something better people say want resist impulse conform others want learn learn unless think greek philosopher socrates said unexamined life worth living might good motto things good motto trying figure live life one important clue living good life try live good life best way lose values central frankly think deep advice tips get ready new school last couple years gotten know many young men pretty well know good guys also privileged young men privileged came privileged advice act like get new school walk introduce person raking leaves shoveling snow emptying trash learn name call name time school another piece advice pass people recognize walks smile look eye say hello worst thing happen become known young man smiles says hello bad thing start school boys going school girls advice last bit advice give simple think could make big difference life week write note someone email note piece paper take exactly minutes talk adult let tell stamp put stamp envelope minutes week help right dictate first note write say dear say started new school reading english football soccer practice hard enjoying thank teaching put envelope put stamp send mean great deal people reasons cannot contemplate dedicated teaching middle school boys said take exactly minutes week end school year sent notes people forty people feel little special think special one else going carry dividend time school enough advice would like end reading important lyrics cited greek philosopher socrates earlier lyrics great american philosopher bob dylan almost years old wrote son jesse missing tour lists hopes parent might son daughter also good goals son daughter wishes beautiful timeless universal good true except one wish gives song title refrain wish parent lament good wish lyrics forever young bob dylan may god bless keep always may wishes come true may always others let others may build ladder stars climb every rung may stay forever young may grow righteous may grow true may always know truth see lights surrounding may always courageous stand upright strong may stay forever young may hands always busy may feet always swift may strong foundation winds changes shift may heart always joyful may song always sung may stay forever young thank</t>
+  </si>
+  <si>
+    <t>good morning great blown away whole thing fact leaving three themes running conference relevant want talk one extraordinary evidence human creativity presentations people variety range second put place idea going happen terms future idea may play interest education actually find everybody interest education find interesting dinner party say work education actually often dinner parties frankly work education asked never asked back curiously strange say somebody know say say work education see blood run face like god know one night week ask education pin wall one things goes deep people right like religion money things big interest education think huge vested interest partly education meant take future grasp think children starting school year retiring nobody clue despite expertise parade past four days world look like five years time yet meant educating unpredictability think extraordinary third part agreed nonetheless really extraordinary capacities children capacities innovation mean sirena last night marvel seeing could exceptional think speak exceptional whole childhood person extraordinary dedication found talent contention kids tremendous talents squander pretty ruthlessly want talk education want talk creativity contention creativity important education literacy treat status applause thank way thank much minutes left well born heard great story recently love telling little girl drawing lesson six back drawing teacher said girl hardly ever paid attention drawing lesson teacher fascinated went said drawing girl said drawing picture god teacher said nobody knows god looks like girl said minute son four england actually four everywhere honest strict wherever went four year nativity play remember story big big story mel gibson sequel may seen nativity james got part joseph thrilled considered one lead parts place crammed full agents shirts james robinson joseph laughter speak know bit three kings come come bearing gifts gold frankincense myrrh really happened sitting think went sequence talked little boy afterward said said yeah wrong switched three boys came four year olds tea towels heads put boxes first boy said bring gold second boy said bring myrrh third boy said frank sent things common kids take chance know right frightened wrong mean say wrong thing creative know prepared wrong never come anything original prepared wrong time get adults kids lost capacity become frightened wrong run companies like stigmatize mistakes running national education systems mistakes worst thing make result educating people creative capacities picasso said said children born artists problem remain artist grow believe passionately grow creativity grow rather get educated lived stratford avon five years ago fact moved stratford los angeles imagine seamless transition actually lived place called snitterfield outside stratford shakespeare father born struck new thought think shakespeare father think shakespeare child shakespeare seven never thought mean seven point somebody english class annoying would must try harder sent bed dad know shakespeare bed put pencil stop speaking like confusing everybody anyway moved stratford los angeles want say word transition son want come got two kids daughter want come los angeles loved girlfriend england love life sarah would known month mind would fourth anniversary long time really upset plane said never find another girl like sarah rather pleased frankly main reason leaving country something strikes move america travel around world every education system earth hierarchy subjects every one matter would think would otherwise top mathematics languages humanities bottom arts everywhere earth pretty much every system hierarchy within arts art music normally given higher status schools drama dance education system planet teaches dance everyday children way teach mathematics think rather important think math important dance children dance time allowed bodies miss meeting truthfully happens children grow start educate progressively waist focus heads slightly one side visit education alien say public education think would conclude look output really succeeds everything gets brownie points winners think would conclude whole purpose public education throughout world produce university professors people come top used one like university professors know hold high water mark human achievement form life another form life rather curious say affection something curious professors experience typically live heads live slightly one side disembodied know kind literal way look upon body form transport heads way getting head meetings want real evidence body experiences get along residential conference senior academics pop discotheque final night see grown men women writhing uncontrollably beat waiting ends home write paper education system predicated idea academic ability reason around world public systems education really century came meet needs industrialism hierarchy rooted two ideas number one useful subjects work top probably steered benignly away things school kid things liked grounds would never get job right music going musician art artist benign advice profoundly mistaken whole world engulfed revolution second academic ability really come dominate view intelligence universities designed system image think whole system public education around world protracted process university entrance consequence many highly talented brilliant creative people think thing good school valued actually stigmatized think afford way next years according unesco people worldwide graduating education since beginning history people combination things talked technology transformation effect work demography huge explosion population suddenly degrees worth anything true student degree job job want one want one frankly laughter kids degrees often heading home carry playing video games need previous job required need phd process academic inflation indicates whole structure education shifting beneath feet need radically rethink view intelligence know three things intelligence one diverse think world ways experience think visually think sound think kinesthetically think abstract terms think movement secondly intelligence dynamic look interactions human brain heard yesterday number presentations intelligence wonderfully interactive brain divided compartments fact creativity define process original ideas value often comes interaction different disciplinary ways seeing things way shaft nerves joins two halves brain called corpus callosum thicker women following helen yesterday probably women better multi tasking raft research know personal life wife cooking meal home often thankfully good things cooking dealing people phone talking kids painting ceiling open heart surgery cooking door shut kids phone hook comes get annoyed say terry please trying fry egg give break actually know old philosophical thing tree falls forest nobody hears happen remember old chestnut saw great shirt recently said man speaks mind forest woman hears still wrong third thing intelligence distinct new book moment called epiphany based series interviews people discovered talent fascinated people got really prompted conversation wonderful woman maybe people never heard gillian lynne heard choreographer everybody knows work cats phantom opera wonderful used board royal ballet see anyway gillian lunch one day said get dancer interesting school really hopeless school wrote parents said think gillian learning disorder could concentrate fidgeting think would say adhd would adhd invented point available condition people aware could anyway went see specialist oak paneled room mother led sat chair end sat hands minutes man talked mother problems gillian school disturbing people homework always late little kid eight end doctor went sat next gillian said listened things mother told need speak privately wait back long went left went room turned radio sitting desk got said mother stand watch minute left room feet moving music watched minutes turned mother said mrs lynne gillian sick dancer take dance school said happened said tell wonderful walked room full people like people could sit still people move think move think ballet tap jazz modern contemporary eventually auditioned royal ballet school became soloist wonderful career royal ballet eventually graduated royal ballet school founded gillian lynne dance company met andrew lloyd webber responsible successful musical theater productions history given pleasure millions multi millionaire somebody else might put medication told calm think comes gore spoke night ecology revolution triggered rachel carson believe hope future adopt new conception human ecology one start reconstitute conception richness human capacity education system mined minds way strip mine earth particular commodity future serve rethink fundamental principles educating children wonderful quote jonas salk said insects disappear earth within years life earth would end human beings disappeared earth within years forms life would flourish right ted celebrates gift human imagination careful use gift wisely avert scenarios talked way seeing creative capacities richness seeing children hope task educate whole face future way may see future job help make something thank much</t>
+  </si>
+  <si>
+    <t>president faust members harvard corporation board overseers members faculty proud parents graduates first thing would like say thank harvard given extraordinary honour weeks fear nausea endured thought giving commencement address made lose weight win win situation take deep breaths squint red banners convince world largest gryffindor reunion delivering commencement address great responsibility thought cast mind back graduation commencement speaker day distinguished british philosopher baroness mary warnock reflecting speech helped enormously writing one turns remember single word said liberating discovery enables proceed without fear might inadvertently influence abandon promising careers business law politics giddy delights becoming gay wizard see remember years come gay wizard joke come ahead baroness mary warnock achievable goals first step self improvement actually wracked mind heart ought say today asked wish known graduation important lessons learned years expired day come two answers wonderful day gathered together celebrate academic success decided talk benefits failure stand threshold sometimes called real life want extol crucial importance imagination may seem quixotic paradoxical choices please bear looking back year old graduation slightly uncomfortable experience year old become half lifetime ago striking uneasy balance ambition closest expected convinced thing wanted ever write novels however parents came impoverished backgrounds neither college took view overactive imagination amusing personal quirk would never pay mortgage secure pension know irony strikes force cartoon anvil hoped would take vocational degree wanted study english literature compromise reached retrospect satisfied nobody went study modern languages hardly parents car rounded corner end road ditched german scuttled classics corridor cannot remember telling parents studying classics might well found first time graduation day subjects planet think would hard put name one less useful greek mythology came securing keys executive bathroom would like make clear parenthesis blame parents point view expiry date blaming parents steering wrong direction moment old enough take wheel responsibility lies cannot criticise parents hoping would never experience poverty poor since poor quite agree ennobling experience poverty entails fear stress sometimes depression means thousand petty humiliations hardships climbing poverty efforts indeed something pride poverty romanticised fools feared age poverty failure age spite distinct lack motivation university spent far long coffee bar writing stories far little time lectures knack passing examinations years measure success life peers dull enough suppose young gifted well educated never known hardship heartbreak talent intelligence never yet inoculated anyone caprice fates moment suppose everyone enjoyed existence unruffled privilege contentment however fact graduating harvard suggests well acquainted failure might driven fear failure quite much desire success indeed conception failure might far average person idea success high already flown ultimately decide constitutes failure world quite eager give set criteria let think fair say conventional measure mere seven years graduation day failed epic scale exceptionally short lived marriage imploded jobless lone parent poor possible modern britain without homeless fears parents come pass every usual standard biggest failure knew going stand tell failure fun period life dark one idea going press since represented kind fairy tale resolution idea far tunnel extended long time light end hope rather reality talk benefits failure simply failure meant stripping away inessential stopped pretending anything began direct energy finishing work mattered really succeeded anything else might never found determination succeed one arena believed truly belonged set free greatest fear realised still alive still daughter adored old typewriter big idea rock bottom became solid foundation rebuilt life might never fail scale failure life inevitable impossible live without failing something unless live cautiously might well lived case fail default failure gave inner security never attained passing examinations failure taught things could learned way discovered strong discipline suspected also found friends whose value truly price rubies knowledge emerged wiser stronger setbacks means ever secure ability survive never truly know strength relationships tested adversity knowledge true gift painfully worth qualification ever earned given time turner would tell year old self personal happiness lies knowing life check list acquisition achievement qualifications life though meet many people age older confuse two life difficult complicated beyond anyone total control humility know enable survive vicissitudes might think chose second theme importance imagination part played rebuilding life wholly though personally defend value bedtime stories last gasp learned value imagination much broader sense imagination uniquely human capacity envision therefore fount invention innovation arguably transformative revelatory capacity power enables empathise humans whose experiences never shared one greatest formative experiences life preceded harry potter though informed much subsequently wrote books revelation came form one earliest day jobs though sloping write stories lunch hours paid rent early working african research department amnesty international headquarters london little office read hastily scribbled letters smuggled totalitarian regimes men women risking imprisonment inform outside world happening saw photographs disappeared without trace sent amnesty desperate families friends read testimony torture victims saw pictures injuries opened handwritten eye witness accounts summary trials executions kidnappings rapes many workers political prisoners people displaced homes fled exile temerity speak governments visitors offices included come give information try find happened left behind shall never forget african torture victim young man older time become mentally ill endured homeland trembled uncontrollably spoke video camera brutality inflicted upon foot taller seemed fragile child given job escorting back underground station afterwards man whose life shattered cruelty took hand exquisite courtesy wished future happiness long live shall remember walking along empty corridor suddenly hearing behind closed door scream pain horror never heard since door opened researcher poked head told run make hot drink young man sitting give news retaliation outspokenness country regime mother seized executed every day working week early reminded incredibly fortunate live country democratically elected government legal representation public trial rights everyone every day saw evidence evils humankind inflict fellow humans gain maintain power began nightmares literal nightmares things saw heard read yet also learned human goodness amnesty international ever known amnesty mobilises thousands people never tortured imprisoned beliefs act behalf power human empathy leading collective action saves lives frees prisoners ordinary people whose personal well security assured join together huge numbers save people know never meet small participation process one humbling inspiring experiences life unlike creature planet humans learn understand without experienced think people places course power like brand fictional magic morally neutral one might use ability manipulate control much understand sympathise many prefer exercise imaginations choose remain comfortably within bounds experience never troubling wonder would feel born refuse hear screams peer inside cages close minds hearts suffering touch personally refuse know might tempted envy people live way except think fewer nightmares choosing live narrow spaces leads form mental agoraphobia brings terrors think wilfully unimaginative see monsters often afraid choose empathise enable real monsters without ever committing act outright evil collude apathy one many things learned end classics corridor ventured age search something could define written greek author plutarch achieve inwardly change outer reality astonishing statement yet proven thousand times every day lives expresses part inescapable connection outside world fact touch people lives simply existing much harvard graduates likely touch people lives intelligence capacity hard work education earned received give unique status unique responsibilities even nationality sets apart great majority belong world remaining superpower way vote way live way protest pressure bring bear government impact way beyond borders privilege burden choose use status influence raise voice behalf voice choose identify powerful powerless retain ability imagine lives advantages proud families celebrate existence thousands millions people whose reality helped change need magic change world carry power need inside already power imagine better nearly finished one last hope something already friends sat graduation day friends life children godparents people able turn times trouble people kind enough sue took names death eaters graduation bound enormous affection shared experience time could never come course knowledge held certain photographic evidence would exceptionally valuable ran prime minister today wish nothing better similar friendships tomorrow hope even remember single word mine remember seneca another old romans met fled classics corridor retreat career ladders search ancient wisdom tale life long good matters wish good lives thank much</t>
+  </si>
+  <si>
+    <t>said want starting something got starting something said want starting something got starting something high get yeah yeah low get yeah yeah stuck middle yeah yeah pain thunder yeah yeah high get yeah yeah low get yeah yeah stuck middle yeah yeah pain thunder yeah yeah took baby doctor fever nothing found time hit street said breakdown someone always trying start baby crying talking squealing lying saying want starting something said want starting something got starting something said want starting something got starting something high get yeah yeah low get yeah yeah stuck middle yeah yeah pain thunder yeah yeah high get yeah yeah low get yeah yeah stuck middle yeah yeah pain thunder yeah yeah love pretend good always good really make hate tongue became razor someone always trying keep baby crying treacherous cunning declining got baby crying said want starting something got starting something said want starting something got starting something high get yeah yeah low get yeah yeah stuck middle yeah yeah pain thunder yeah yeah high get yeah yeah low get yeah yeah stuck middle yeah yeah pain thunder yeah yeah vegetable vegetable still hate vegetable buffet vegetable eat vegetable billie jean always talking nobody else talking telling lies rubbing shoulders called mouth motor someone always trying start baby crying talking squealing spying saying want starting something said want starting something got starting something said want starting something got starting something high get yeah yeah low get yeah yeah stuck middle yeah yeah pain thunder yeah yeah high get yeah yeah low get yeah yeah stuck middle yeah yeah pain thunder yeah yeah vegetable vegetable still hate vegetable buffet vegetable eat vegetable feed baby yeah yeah baby yeah yeah think maybe yeah yeah feed baby yeah yeah always trying stop child crying hustling stealing lying baby slowly dying said want starting something got starting something said want starting something got starting something high get yeah yeah low get yeah yeah stuck middle yeah yeah pain thunder yeah yeah high get yeah yeah low get yeah yeah stuck middle yeah yeah pain thunder yeah yeah lift head high scream world know someone let truth unfurl one hurt know true yes believe believe help sing coo coo help sing sing world sing loud help sing coo coo woo hoo help sing woo hoo sing world coo coo woo hoo help sing baby sing world sing loud need dreams side every moment takes paradise darling let hold warm arms melt fears away show magic perfect love make need night day baby mine baby gotta mine girl give got give baby girl time share ecstasy long believe love give reason change mind guess still thrill baby mine future desire girl need hold share feelings heat love embrace show passion burning heart today never gonna fade baby mine baby gotta mine girl give got give baby girl time everything world could reason live stay morning sun promise dawn different lady see heaven begun living inside hearts mountains climb still thrill baby mine love lasting time girl got hold touch sky light darkest day hold make sweet love way say baby mine baby gotta mine tell love girl give got give say thinking baby mine time show everything world could reason live every night feels alright baby girl tell love girl give got give say thinking baby mine baby mine show everything world could every night feels alright come girl come girl tell love say thinking baby mine show everything world could every night feels alright every night walks right dreams since met start proud one special heart girl mine doggone girl mine know mine doggone girl mine understand way think saying mine sending roses silly dreams really waste time mine doggone girl mine waste time doggone girl mine love take anywhere love endlessly loving share come two town cannot one one day discover girl forever ever build hopes let really feel time know tell one said blow mind girl mine doggone girl mine waste time doggone girl mine mine mine mine girl mine girl mine girl mine girl mine girl mine mine mine yep mine mine mine girl mine mine mine yep mine mine mine waste time doggone girl mine girl mine girl mine michael gonna fight okay paul think told lover fighter heard michael told forever lover know remember well loving said could love another said yes said keep dreaming believe mine mine girl mine mine mine mine mine mine mine mine mine mine mine mine mine mine mine girl mine mine mine girl mine mine mine close midnight something evil lurking dark moonlight see sight almost stops heart try scream terror takes sound make start freeze horror looks right eyes paralyzed thriller thriller night one gonna save beast strike know thriller thriller night fighting life inside killer thriller tonight hear door slam realize nowhere left run feel cold hand wonder ever see sun close eyes hope imagination girl hear creature creeping behind outta time thriller thriller night second chance thing forty eyes girl thriller thriller night fighting life inside killer thriller tonight night creatures call dead start walk masquerade escaping jaws alien time open wide end life get demons closing every side possess unless change number dial time cuddle close together night save terror screen make see thriller thriller night thrill ghoul could ever dare try thriller thriller night let hold tight share killer thriller chiller thriller tonight thriller thriller night girl thrill ghoul could ever dare try thriller thriller night let hold tight share killer thriller gonna thrill tonight darkness falls across land midnight hour close hand creatures crawl search blood terrorize neighborhood whomsoever shall found without soul getting must stand face hounds hell rot inside corpse shell gonna thrill tonight foulest stench air funk forty thousand years grisly ghouls every tomb closing seal doom though fight stay alive body starts shiver mere mortal resist evil thriller told ever come around want see face better disappear fire eyes words really clear beat beat better run better want see blood macho man want tough better beat want bad beat beat beat beat one wants defeated showing funky strong fight matter wrong right beat beat get better leave want boy want man want stay alive better beat beat show really scared playing life truth dare kick beat tell fair beat want bad beat beat beat beat one wants defeated showing funky strong fight matter wrong right beat beat beat beat beat beat beat beat beat one wants defeated showing funky strong fight matter wrong right beat beat beat beat one wants defeated showing funky strong fight matter wrong right beat beat beat beat beat like beauty queen movie scene said mind mean one dance floor round said one dance floor round told name billie jean caused scene every head turned eyes dreamed one dance floor round people always told careful around breaking young girls hearts mother always told careful love careful lie becomes truth billie jean lover girl claims one kid son says one kid son forty days forty nights law side stand demand schemes plans danced floor round take strong advice remember always think twice think twice think twice told baby would danced three looked showed photo baby cry eyes looked like mine dance floor round baby people always told careful around breaking young girls hearts break heart came stood right smell sweet perfume happened much soon called room billie jean lover girl claims one kid son billie jean lover girl claims one kid son says one kid son says one kid son billie jean lover girl claims one baby kid son says one babe kid son says one know says son breaking heart babe says one billie jean lover billie jean lover billie jean lover one billie jean lover one call billie jean billie jean lover one stumbled onto scene billie jean lover billie jean lover looking across night time city winks sleepless eye hear voice shake window sweet seducing sighs get night time four walls hold tonight town apple let take bite say tell human nature way say tell human nature way reaching touch stranger electric eyes everywhere see girl knows watching likes way stare say tell human nature way say really like around tell human nature way like living way like loving way way way way way looking across morning city heart begins beat reaching touch shoulder dreaming street say tell human nature way say tell like around ooh tell way say way say tell like around ooh tell way say ooh tell way say tell like around way like living way way way know make feel good inside always wanted girl like pretty young thing come baby ooh take right away baby tenderoni got spark nature sugar fly know perfect time make right hit city lights tonight ease love pain let take max want love pretty young thing need loving tender love care take want love pretty young thing need loving tender love care take anywhere want yes nothing stop burning desire gotta get baby come emergency cool fire yearning honey come set free know perfect time dim lights make right night hit loving spot give got want love pretty young thing need loving tender love care take yes want love pretty young thing need loving tender love care take yes pretty young thing make say pretty young thing make say pretty young things repeat say say take take want love pretty young thing need loving tender love care take take take want love pretty young thing need loving tender love care take take want love pretty young thing baby need loving pretty young thing darling know think really really nice could could put together pretty young thing want love know would give darkness tonight lady love shine lighting night put trust heart meet paradise time girl every wonder world treasure time steal away listen heart lay body close mine let fill dreams make feel alright baby years gonna love day promise tonight always lady life lay back tenderness let make night forget girl need sweet caress reach fantasy two hearts beat ecstasy come girl keep warm shadows night let touch love make feel right baby years even old gray love day always lady life stay want stay need side nowhere ooh girl let keep warm let keep warm lady life lady fill sweetest love sweetest love always lady life want touch baby lay back tenderness lady life doo doo doo rock sweet caress always lady life lady love girl ooh girl let keep warm lady life nowhere fill sweetest love love love always lady life need want baby lay back tenderness stay lady life rock sweet caress love baby always lady life woo ooh baby nowhere lady night ooh girl let keep warm want give lady life life fill sweetest love let fill baby always lady life lay back tenderness lay back lady life let touch girl rock sweet caress lay back always lady life ooh girl let keep warm baby lady life woo fill sweetest love always lady life lady lay back tenderness lady baby world popcorn candy pony rides dime little children laughing world disappointments confusions want mine started talking kept walking disappeared crowd lost heart carousel circus girl left heart pieces lost heart carousel circus girl ran away clown dancer knew would work took chances recall girl imagination still remember faces memories lost heart carousel circus girl left heart pieces lost heart carousel circus girl ran away two different people love instant see circus came today sometimes hear calliope hear calling know lost heart carousel circus girl left heart pieces lost heart carousel circus girl ran away</t>
+  </si>
+  <si>
+    <t>dark desert highway cool wind hair warm smell colitas rising air ahead distance saw shimmering light head grew heavy sight grew dim stop night stood doorway heard mission bell thinking could heaven could hell lit candle showed way voices corridor thought heard say welcome hotel california lovely place lovely place lovely face plenty room hotel california time year time year find mind tiffany twisted got mercedes bends got lot pretty pretty boys calls friends dance courtyard sweet summer sweat dance remember dance forget called captain please bring wine said spirit since nineteen sixty nine still voices calling far away wake middle night hear say welcome hotel california lovely place lovely place lovely face living hotel california nice surprise nice surprise bring alibis mirrors ceiling pink champagne ice said prisoners device master chambers gathered feast stab steely knives kill beast last thing remember running door find passage back place relax said night man programmed receive check time like never leave talk street sounds familiar great expectations everybody watching people meet seem know even old friends treat like something new johnny come lately new kid town everybody loves let look eyes music begins play hopeless romantics awhile looking way restless hearts never mend johnny come lately new kid town still love around many things told night night willing hold hold tears shoulder talk street remind really matter side walking away talking behind never forget somebody new comes along lately new kid town everybody loves holding still around new kid town another new kid town everybody talking new kid town everybody walking like new kid town new kid town want hear new kid town want hear new kid town new kid town new kid town everybody talking new kid town people started walking new kid town new kid town hard headed man brutally handsome terminally pretty held held ransom heart cold cold city nasty reputation cruel dude said ruthless said crude one thing common good bed would say faster faster lights turning red life fast lane surely make lose mind life fast lane far eager action hot game coming attraction drop name knew right people took right pills threw outrageous parties paid heavenly bills lines mirror lines face pretended notice caught race every evening light tired make tired fight life fast lane surely make lose mind life fast lane life fast lane everything time life fast lane blowing burning blinded thirst see stop sign took turn worst said listen baby hear engine ring highway seen goddamn thing said call doctor think gonna crash doctor say coming gotta pay cash went rushing freeway messed around got lost care dying get life fast lane surely make lose mind life fast lane life fast lane everything time life fast lane life fast lane life fast lane well baby stand little head hand god believe happening baby gone alone looks like end back street trying remember start know care much stranger touch hold man never thought would alone far line know mind afraid wasted time autumn leaves got thinking first time fell love boy much loved boy well well well live day day dream tomorrow hours like minutes shadows come stay take little something make away could done many things baby could stop mind wondering left behind worrying wasted time another love come gone years keep rushing remember told went sometimes keep together got leave alone get search baby get mine maybe someday find really wasted time kind love got home room full noise dangerous boys still makes thirsty hot heard man one thing understand say liar put fire come still got gun hand victim love see broken heart got stories tell victim love easy part know play well people never come clean think know mean walking wire pain desire looking love tell secrets tell mine time cool tell girlfriends around world friends talk losers fools victim love see broken heart could wrong victim love far apart show kind love got victim love see broken heart could wrong victim love far apart kind love got victim love victim love could wrong victim love victim love kind love got kind love got kind love got long time seems like come long way learn slow heroes come leave behind supposed know give hearts past must grow fast wishing well fools fortunes someone send rose love friend nice hear storybook comes close gone ribbons bows things remember places pretty maids row memories find like circle goes around lost found comes one one lonely feelings come day day slowly fade away look eyes never know might found dancing right time moves made fine like music surrounds stay really want know would lose win try love gonna try love gonna try love gonna try love right wrong done done moments borrow thoughts linger lady song sun comes tomorrow well might take years see tears let find know gonna try love gonna try love gonna try love sometimes lose sometimes win sometimes need friend gonna try gonna try gonna try gonna try came providence one rhode island old world shadows hang heavy air packed hopes dreams like refugee father came across sea heard place people smiling spoke red man way loved land came everywhere great divide seeking place stand place hide crowded bars good time wait tell like called paradise know somebody laid mountains low town got high chilly winds blew across desert canyons coast malibu pretty people play hungry power light neon way give things rich men came raped land nobody caught put bunch ugly boxes jesus people bought called paradise place watched hazy sun sinking sea leave behind sail lahaina like missionaries many years ago even brought neon sign jesus coming brought white man burden brought white man reign provide grand design mine new frontier got make satisfy endless needs justify bloody deeds name destiny name god see sunday morning stand sing like call paradise know call someplace paradise kiss goodbye</t>
+  </si>
+  <si>
+    <t>hey hey mama said way move gonna make sweat gonna make groove child way shake thing gonna make burn gonna make sting hey hey baby walk way watch honey drip keep away yeah yeah yeah yeah gotta roll stand still got flaming heart get fill eyes shine burning red dreams head hey hey baby baby pretty baby darling hey baby baby pretty baby move take long found people mean spent money took car started telling friends gonna star know told big legged woman got soul yeah yeah yeah yeah yeah ask pray steady loaded woman gonna come way need woman gonna hold hand tell lies make happy man yes yes really really baby baby baby really huh ooh wow baby push baby push baby push baby push baby push baby push babe babe ooh ooh aah ooh ooh would really like would really like long time since rock rolled long time since stroll ooh let get back let get back let get back baby come long time long time long lonely lonely lonely lonely lonely time yes long time since book love count tears life love carry back carry back carry back baby come long time long time long lonely lonely lonely lonely lonely time seems long since walked moonlight making vows work right open arms open arms open arms baby let love come running long time long time long lonely lonely lonely lonely lonely time long time long time long lonely lonely lonely lonely lonely time queen light took bow turned prince peace embraced gloom walked night alone dance dark night sing morning light dark lord rides force tonight time tell throw plow hoe rest lock homes side side wait might darkest hear horses thunder valley waiting angels avalon waiting eastern glow apples valley hold seeds happiness ground rich tender care repay forget dance dark night sing morning light apples turn brown black tyrant face red war common cry pick swords fly sky filled good bad mortals never know well night long beads time pass slow tired eyes sunrise waiting eastern glow pain war cannot exceed woe aftermath drums shake castle wall ringwraiths ride black ride sing raise bow ride shoot straighter comfort fire night lights face cold dance dark night sing morning light magic runes writ gold bring balance back bring back last sun shining clouds blue roll flames dragon darkness sunlight blinds eyes bring back bring back bring back bring back bring back bring back bring back bring back bring back bring back bring back bring back bring bring bring bring bring lady sure glitters gold buying stairway heaven gets knows stores closed word get came ooh ooh buying stairway heaven sign wall wants sure know sometimes words two meanings tree brook songbird sings sometimes thoughts misgiven ooh makes wonder ooh makes wonder feeling get look west spirit crying leaving thoughts seen rings smoke trees voices stand looking ooh makes wonder ooh really makes wonder whispered soon call tune piper lead reason new day dawn stand long forests echo laughter bustle hedgerow alarmed spring clean may queen yes two paths long run still time change road makes wonder head humming case know piper calling join dear lady hear wind blow know stairway lies whispering wind wind road shadows taller soul walks lady know shines white light wants show everything still turns gold listen hard tune come last one one rock roll buying stairway heaven walking park day baby think saw crowds people sitting grass flowers hair said hey boy want score know really know time woh asked could stay awhile notice got dark really really mind policeman stepped asked said please hey would care get line get line well know asked stay tea fun said friends would drop ooh take good look describe see baby baby baby like sit sitting spare like book shelf rusting trying fight really care coming know state mind ooh streets today baby better better open eyes folk really care really care care really way pressure lies decided gonna packing bags misty mountains spirits hills spirits fly ooh really know one two three four five six one two three one baby crying time baby got fly got try find way got try get away know gotta get away babe baby river red baby head funny feeling going think hold long owls cry night baby baby pines begin cry baby baby baby feel rivers run dry baby would feel craze baby rainbow end baby den hide hide love depths life ruin dreams knew babe owls cry night baby baby pines begin cry baby baby baby feel rivers run dry baby feel baby feel ooh yeah brave endure ooh yeah strong shields lore hold wrath walk boots march baby roads time long ago spent days woman unkind smoked stuff drank wine made mind make new start going california aching heart someone told girl love eyes flowers hair took chances big jet plane never let tell sea red sky grey wondered tomorrow could ever follow today mountains canyons start tremble shake children sun begin awake watch seems wrath gods got punch nose started flow think might sinking throw line reach time meet path runs straight high find queen without king say plays guitar cries sings ride white mare footsteps dawn trying find woman never never never born standing hill mountain dreams telling hard hard hard seems keeps raining levee going break keeps raining levee going break levee breaks place stay mean old levee taught weep moan mean old levee taught weep moan got takes make mountain man leave home well well well make feel bad trying find way home know way going south work going north chicago crying help praying good crying help praying good levee breaks mama got move last night sat levee moaned last night sat levee moaned thinking baby happy home going going chicago going chicago sorry take going going going going going going going going going going going going going going going</t>
+  </si>
+  <si>
+    <t>came thought might like show feel warm thrill confusion space cadet glow tell something eluding sunshine expected see want find behind cold eyes claw way disguise momma loves baby daddy loves sea may look warm babe sky may look blue ooh babe ooh baby blue ooh babe skating thin ice modern life dragging behind silent reproach million tear stained eyes surprised crack ice appears feet slip depth mind fear flowing behind claw thin ice daddy flown across ocean leaving memory snap shot family album daddy else leave daddy would leave behind brick wall bricks wall yes stand still laddy grew went school certain teachers would hurt children way could pouring derision upon anything exposing every weakness however carefully hidden kids town well known got home night fat psychopathic wives would thrash within inches lives need education need thought control dark sarcasm classroom teacher leave kids alone hey teacher leave kids alone another brick wall another brick wall need education need thought control dark sarcasm classroom teachers leave kids alone hey teacher leave kids alone another brick wall another brick wall wrong wrong eat meat pudding pudding eat meat yes behind bike sheds stand still laddy mother think drop bomb mother think like song mother think try break balls ooh aah mother build wall mother run president mother trust government mother put firing line ooh aah waste time hush baby baby cry mama gonna make nightmares come true mama gonna put fears mama gonna keep right wing let fly might let sing mama gonna keep baby cozy warm ooh babe ooh babe ooh babe course mama gonna help build wall mother think good enough mother think dangerous mother tear little boy apart ooh aah mother break heart hush baby baby cry mama gonna check girlfriends mama let anyone dirty get mama gonna wait get mama always find mamma gonna keep baby healthy clean ooh babe ooh babe ooh babe always baby mother need high look mummy airplane sky see frightened ones hear falling bombs ever wonder run shelter promise brave new world unfurled beneath clear blue sky see frightened ones hear falling bombs flames long gone pain lingers goodbye blue sky goodbye blue sky goodbye goodbye hello luka congratulations discovered secret message please send answer old pink care funny farm chalfont roger carolyne phone okay shall use fill empty spaces used talk shall fill final places complete wall new boy stranger town good times gonna show stranger around ooooooooh need dirty woman ooooooooh need dirty girl woman desert land make feel like real man take rock roll refugee oooh babe set free ooooooooh need dirty woman ooooooooh need dirty girl ooooooooh need dirty woman ooooooooh need dirty girl hello yes collect call mrs floyd floyd accept charges united states hung residence right wonder hung supposed someone else besides wife answer hello united states calling reaching see keeps hanging man answering god fabulous room guitars sorry sir mean startle god place bigger apartment let know entering room yes sir get drink water wondering dinner sir want huh yes guests want dine inform kitchen staff wow look tub want take bath yes aware duties dobbs yes sir find mrs bancroft time wants eat maid needless say meal kitchen help watching good sir let know soon mrs bancroft want eat mrs bancroft dining alone hello understand sir staying dinner feeling okay surprised hear sir since arrived yes little surprised day day love turns grey like skin dying man night night pretend right grown older grown colder nothing much fun feel one turns coming feel cold razor blade tight tourniquet dry funeral drum run bedroom suitcase left find favourite axe look frightened passing phase one bad days would like watch get sheets contemplate silent freeway would like something eat would like learn fly would would like see try would like call cops think time stopped running away ooh babe leave say end road remember flowers sent need babe put shredder front friends ooh babe leave could know need beat pulp saturday night ooh babe leave treat way running away ooh babe running away ooh babe need arms around need drugs calm seen writing wall think need anything think need anything bricks wall bricks wall goodbye cruel world leaving today goodbye goodbye goodbye goodbye people nothing say make change mind goodbye hey cold getting lonely getting old feel hey standing aisles itchy feet fading smiles feel hey help bury light give without fight hey sitting naked phone would touch hey ear wall waiting someone call would touch hey would help carry stone open heart coming home fantasy wall high see matter tried could break free worms ate brain hey road always told help hey beyond wall breaking bottles hall help hey tell hope together stand divided fall anybody anybody anybody anybody got little black book poems got bag toothbrush comb good dog sometimes throw bone got elastic bands keeping shoes got swollen hand blues got thirteen channels shit choose got electric light got second sight got amazing powers observation know try get telephone nobody home got obligatory hendrix perm inevitable pinhole burns front favourite satin shirt got nicotine stains fingers got silver spoon chain got grand piano prop mortal remains got wild staring eyes got strong urge fly got nowhere fly ooh babe pick phone still nobody home got pair gohills boots got fading roots anybody remember vera lynn remember said would meet sunny day vera vera become anybody else feel way bring boys back home bring boys back home leave children bring boys back home hello anybody nod hear anyone home come hear feeling well ease pain get feet relax need information first basic facts show hurts pain receding distant ship smoke horizon coming waves lips move hear saying child fever hands felt like two balloons got feeling explain would understand become comfortably numb become comfortably numb little pin prick aaaaaaaah may feel little sick stand believe working good keep going show come time pain receding distant ship smoke horizon coming waves lips move hear saying child caught fleeting glimpse corner eye turned look gone cannot put finger child grown dream gone become comfortably numb ooh ooh must show ooh take home ooh let must mistake mean let take away soul old late ooh ooh feeling gone ooh ooh remember songs ooh show must thought might like show feel warm thrill confusion space cadet glow got bad news sunshine pink well stayed back hotel sent along surrogate band gonna find fans really stand queers theatre tonight get wall wall one spotlight look right get wall one looks jewish one coon let riff raff room one smoking joint another spots way would shot run run run run better make face favourite disguise button lips roller blind eyes empty smile hungry heart feel bile rising guilty past nerves tatters cockleshell shatters hammers batter door better run run run run run better run day run night keep dirty feelings deep inside taking girlfriend tonight better park car well sight catch back seat trying pick locks gonna send back mother cardboard box better run eins zwei drei alle ooh ooh cannot reach ooh ooh matter try goodbye cruel world walk sitting bunker behind wall waiting worms come worms come perfect isolation behind wall waiting worms come waiting cut deadwood waiting clean city waiting follow worms waiting put black shirt waiting weed weaklings waiting smash windows kick doors waiting final solution strengthen strain waiting follow worms waiting turn showers fire ovens waiting queens coons reds jews waiting follow worms would like see britannia rule friend follow worms would like send coloured cousins home friend need follow worms stop want home take uniform leave show waiting cell know guilty time good morning worm honour crown plainly show prisoner stands caught red handed showing feelings showing feelings almost human nature call schoolmaster always said would come good end honour would let way could flayed shape hands tied bleeding hearts artists let get away murder let hammer today crazy toys attic crazy truly gone fishing must taken marbles away crazy toys attic crazy little shit hope throw away key talked often way broken homes lately five minutes worm honour alone babe come mother baby let hold arms lord never wanted get trouble would ever leave worm honour let take home crazy rainbow crazy bars window must door wall came crazy rainbow crazy evidence court incontrovertible need jury retire years judging never heard someone deserving full penalty law way made suffer exquisite wife mother fills urge defecate judge shit since friend revealed deepest fear sentence exposed peers tear wall tear wall alone twos ones really love walk outside wall hand hand gathered together bands bleeding hearts artists make stand given stagger fall easy banging heart mad bugger wall</t>
+  </si>
+  <si>
+    <t>rolling thunder pouring rain coming like hurricane lightning flashing across sky young gonna die take prisoners spare lives nobody putting fight got bell gonna take hell gonna get satan get hells bells hells bells got ringing hells bells temperature high hells bells give black sensations spine evil friend mine see white light flashing split night cause good left sticking right take prisoners spare lives nobody putting fight got bell gonna take hell gonna get satan get hells bells hells bells got ringing hells bells temperature high hells bells hells bells satan coming hells bells ringing hells bells temperature high hells bells across sky hells bells taking hells bells dragging hells bells gonna split night hells bells way fight hells bells women want man street know way want turn keep coming put hand cause one gonna make burn gonna take fool around gonna pull pull pull trigger shoot thrill play kill many women many pills yeah shoot thrill play kill got gun ready gonna fire like evil get skin like bomb ready blow cause illegal got everything women might need know gonna take yeah fool around gonna pull pull pull trigger shoot thrill play kill many women many pills shoot thrill play kill got gun ready gonna fire cause shoot thrill ready kill get enough get fill shoot thrill play kill pull trigger pull pull pull pull trigger shoot thrill play kill many women many pills said shoot thrill play kill got gun ready gonna fire cause shoot thrill ready kill get enough get fill cause shoot thrill play kill yeah shoot yeah gonna get bottom girl shoot gonna shoot yeah yeah yeah yeah gonna shoot yeah yeah gonna get shoot shoot shoot shoot shoot shoot shoot gonna shoot thrill play kill shoot thrill working bars riding cars never gonna give free apartment view finest avenue looking beat street always pushing shoving satisfied nothing bitch must getting old stop life road digging gold make wonder yes wonder wonder honey money honey money get kicks loving take always make squeezing blood outta men standing queue spend night business usual always grabbing stabbing trying get back girl must getting slow stop life road digging gold make wonder yes wonder yes wonder honey money honey money money honey get kicks money honey get licks honey money said honey money yeah honey money honey gotta money honey money gotta gotta take easy going knees going devil ninety degrees blowing crazy blowing crazy ammunition dry using head using head using head giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone mona lisa playboy star send heaven explode mars using head using head using head giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone got power union hits hot likes give lot give everything got giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog giving dog giving dog bone flying free flight driving night machinery cause got power hour show man got reputations blown pieces artillery well guiding riding giving got struggle fight worry cause turn tonight let put love babe let put love line let put love babe let cut cake knife like fever burning faster spark fire crazy feelings got reeling got raising steam struggle fight worry cause turn tonight yeah let put love babe let put love line let put love babe let cut cake knife come let let let put love babe let put love line let put love babe let cut cake knife let put love babe let put love line let put love babe let give let give give back black hit sack long glad back yes let loose noose kept hanging kept looking sky cause getting high forget hearse cause never die got nine lives cat eyes abusing every one running wild cause back yes back well back yes back well back back well back black yes back black back back cadillac number one bullet power pack yes bang gang got catch want hang cause back track beating flack nobody gonna get another rap look making play try push luck get way cause back yes back well back yes back well back back well back black yes back black well back yes back well back yes back well back back well back black yes back black yeah yeah yes yeah yeah yeah back well back back back back back back back back back back back back black yes back black outta sight fast machine kept motor clean best damn woman ever seen sightless eyes telling lies knocking american thighs taking share fighting air told come already cause walls start shaking earth quaking mind aching making shook night long yeah shook night long working double time seduction line one kind mine mine wanted applause another course made meal outta come back cool take another round back ring take another swing cause walls shaking earth quaking mind aching making shook night long yeah shook night long knocked said shook night long shaking shook night long yeah shook took really took shook night long shook night long yeah yeah shook night long really got shook night long yeah shook yeah shook night long whiskey gin brandy glass pretty handy trying walk straight line sour mash cheap wine join drink boys gonna make big noise worry tomorrow take today forget check get hell pay drink yeah drink yeah drink drink dizzy drunk fightin tequila white lightnin glass getting shorter whiskey ice water come good time get blinded outta mind worry tomorrow take today forget check get hell pay drink yeah drink yeah drink drink get stoned drink drink drink come gonna roll around gonna hit ground take another swig another drink gonna drink dry gonna get high come boys make noise drink drink drink drink drink drink drink idle juvenile street street kicking everything feet feet fighting wrong side law law kick fight sleep night shake leg shake leg shake leg shake keeping outta trouble eyes back face kicking ass class tell damn disgrace tell think stink really care got mind move get outta hair shake leg shake head shake leg wake dead shake leg get stuck shake leg shake leg mob scenes wet dreams dirty women machines big licks skin flicks tricky dicks chemistry going grain tryin keep sane stop grinning drop linen shake leg shake head shake leg wake dead shake leg get stuck shake leg shake leg shake idle juvenile street street kicking everything feet feet fighting wrong side law law spitting biting kicking fighting shake leg shake head shake leg wake dead shake leg get stuck shake leg play win shake leg shake head shake leg wake dead shake leg get stuck shake leg shake leg shake hey middle men throw away fancy clothes sitting fence get arse come cause rock roll riddle man makes good good sense good sense yeah let heavy decibels playing guitar got vibrations coming floor listening rock giving much noise deaf want hear talking future forget past always never gonna die never gonna die rock roll noise pollution rock roll gonna die rock roll noise pollution rock roll survive yes took look inside bedroom door looked good lying bed well asked wanted rhythm love said want rock roll instead talking future forget past always never gonna die never gonna die rock roll noise pollution rock roll gonna die rock roll noise pollution rock roll rock roll rock roll noise pollution rock roll gonna die rock roll noise pollution rock rolling survive rock roll noise pollution rock roll never die rock roll noise pollution rock roll rock roll rock roll</t>
+  </si>
+  <si>
+    <t>came party tonight gonna get left get right child forget troubles forget news gonna pull plug black blues tie tight adjust noose gonna hang tight cut loose tearing buring hey daddy hide daughters sun come back around came party came come unwound tell everybody boys back town tear burn love hear stomp sing swamp little southeast western swing thing grab unto let make little midnight moonlight magic happens let hang want join fun shout tearing buring hey daddy hide daughters sun come back around came party came come unwound tell everybody boys back town tear burn tearing buring hey daddy hide daughters sun come back around came party came come unwound tell everybody boys back town tear burn know like party know like throw tell everybody let get around gonna tear burn johnny grew dark side law living shadow light never saw rosie came around way true love looking elsewhere thing never wild wind wild wind wild wind love wild wind wild wind wild wind love team traveled thier way looking forever every yesterday brings hope way angels taking heaven ways never knew wild wind wild wind wild wind love wild wind wild wind wild wind love wild wind every often gets stray look eye knows hold without ever asking wild wind wild wind wild wind love wild wind wild wind wild wind love wild wind wild wind wild wind love wild wind wild wind wild wind love standing spotlight perfect night knowing listening remember one time afraid think courage stand stage reached heart found melody ever somebody made believe song made sing voice gave wings light shined guiding heart find place belong song every night pray music starts play best let times stood feeling feels brand new time doubt think song made sing voice gave wings light shined guiding heart find place belong song dreams come true god great angels like song made sing voice gave wings light shined guiding heart find place belong song song always song</t>
+  </si>
+  <si>
+    <t>got big girl got young one wondering day could way remember crazy remarks would get drunk dark searching someone could take home want alone want see sun want open door see one step tomorrow comes two steps someone three steps know gone gone gonna one else friend hold strong let never one take place want reach take hand little love tenderness walk upon water rise mess little peace harmony take world together take hand got hand want run yesterday saw standing head eyes red comb touched hair said get let see smile take walk together walk road awhile got hand got hand want run let run yeah hold hand want hold hand hold hand take place hold hand anything want want love best best see wasted wasting time thought problems thought crimes stood screamed aloud want part problems want part crowd got hand got hand want run let run hold hand want hold hand hold hand take promised land hold hand maybe change world want love best best yeah hold hand want hold hand hold hand take place hold hand anything want hold hand want hold hand hold hand take promised land hold hand maybe change world want love best best best sits alone lamp post trying find thought escaped mind says dar one love stipe far behind never lets tell much drink say care run hands dark hair pray god gotta help fly away let cry tears fall like rain let sing eases pain let let walk right sun comes tomorrow let let morning woke alone found note standing phone saying maybe maybe back day wanted look walked know sat back beer felt sorry saying let cry tears fall like rain let sing eases pain let let walk right sun comes tomorrow let let let cry tears fall like rain let sing eases pain let let walk right sun comes tomorrow let last night tried leave cried much could believe girl fell love long ago went back get high sat couch cried yelling mama please help hold hand let cry tears fall like rain let sing eases pain let let walk right sun comes tomorrow let let cry tears fall like rain let sing eases pain let let walk right sun comes tomorrow let let come different worlds like laugh look girls sometimes crazy wonder baby dolphins make cry well nothing looking girl like look got nothing left say gonna pout get way dance sing want love want wear ring well nothing want call fool want put little dylan sitting fence say line great ask meant said shot man named gray took wife italy inherited million bucks died came help lucky want bobby cool want yeah tangled blue want call fool want sometimes wonder ever end get mad friends sometimes crazy wonder baby yeah dolphins make cry well nothing want call fool want yeah tangled blue want want want want look gift horse mouth come try tell talkin things dealing living lie every time see makes want cry sometimes would laugh talk seems like yesterday let white horse come take away came get cold black wheels motion turning back running angel runnin devil looked long time ago something want know lying cheating really tore apart please come home gonna break momma heart mama please stay one day boy long much still say sky rips open hold heart hand like soldier last day cried sleep night listened heard angels sing sha sha going home sha sha going home something inside makes scream could god take little boy alright side little boy pride joy summer radio phone rings jeanette said boy let begged yet left six fend guess part someone master plan see laughing best friend light lamb cried angels sing trouble world busy think right rebel flag hanging state house walls tired hearing shit heritage hate time make world better place must hate one another well matter gotta live together look like tell see pass street want see coming gotta say want turn run away telling see right wrong care wish would quit drowning sea tears hatred trying hide fears living hating everybody else cause look like nanci singing hard life wherever fat racist living chicago trying teach kids hate everyone well tell something want teach son must hate one another people church tell brother walk like talk like saying back africa understand trying someone could look walk street tell see man man man like hate know know know hating everybody else cause look like time punish like wave crashing shore wash away dreams time walk away like friend somewhere left crying teach tomorrow pain sorrow running free tomorrow another day believe time time understand children killing street dying color rag time take red blue wash ocean make clean maybe mothers cry tonight teach tomorrow pain sorrow running free tomorrow another day believe time wasting time walking friend mine know going think mind thinking time die tomorrow yeah lay sleep time wasting time walking friend mine know going think mind thinking time time left standing like tree growing alone wind stripped bare stripped bare time past come gone future far away lasts one second one second teach tomorrow pain sorrow running free tomorrow another day believe time time friend mine know going think outta mind walking wasting friend mine know going time without courage power without faith wasted wasted wasted time time punish saw standing tears upon cheek told something wrong asked looked away said daddy home knew meant meant could never see seen want deal anymore look away said turned tried hold could let let let said make cry said love look away want know saw standing tears upon cheek told something wrong said baby looked away said daddy home look away said turned darling loved could let let let look away said love look away alone sit watch trees tell scream bend listen makes wonder know words come laugh run little boy says going son said know going boy know makes wonder stars shine eyes close brothers heart cry know stranger home everybody gone someone please talk cause feel cry sitting know never see lying charleston carolina sky see tired feeling pain tired living little lie makes wonder see dreams mean anything trying talk stranger home tell feeling alone someone tell feeling strong wonder feel realize pain real see dreams wonder looking smiling right want know true looks tell realize came took soon days short nights long lay memories keep keep going going makes wonder sit stare see face tell care stranger home living life right see feeling weak sould begins bleed one listening even trees tomorrow used day away love gone someone far away never thought day would come would see hand mine holding onto could find time deny nothing lasts forever want leave see tear drops eyes want live see day say goodbye comes another part life call alone sitting bar chris leave house home want touch girl want feel close without love would give walk away easily maybe young figure together even pain remedy right want live see day say goodbye first met could love anyone stole dreams made see walk sun still deny nothing lasts forever want leave see teardrops eyes baby young let figure together even pain remedy right want live see day say goodbye say goodbye goodbye goodbye</t>
+  </si>
+  <si>
+    <t>know nothing say someone taken place times bad times rough lay tall grass let stuff know got nothing know nothing times bad get enough lay tall grass let stuff one thing think know gonna miss long tossed around enough could let stuff know hoping find someone gonna give peace mind times bad times rough lay tall grass let stuff second hand news second hand news say want freedom well keep right play way feel listen carefully sound loneliness like heartbeat drives mad stillness remembering lost lost thunder happens raining players love playing say women come rain washes clean know know see crystal visions keep visions wants wrap around dreams dreams would like sell dreams loneliness like heartbeat drives mad stillness remembering lost lost thunder happens raining players love playing women come rain washes clean know thunder happens raining players love playing say women come rain washes clean know know know know broke let made see one time two times never going back know means win come see one time two times never going back wake want smile takes little open eyes look day see things different way stop thinking tomorrow stop soon better yesterday gone yesterday gone think times come things done life bad think tomorrow stop thinking tomorrow stop soon better yesterday gone yesterday gone want see smile takes little know believe true never meant harm stop thinking tomorrow stop soon better yesterday gone yesterday gone stop thinking tomorrow stop soon better yesterday gone yesterday gone look back look back look back look back loving right thing ever change things feel could baby would give world take way way call another lonely day way way tell everything turned around packing shacking want could baby would give world open everything waiting way way call another lonely day way way crying sun shining feel alright know right give world never cold feel alright know right songbirds singing like know score love love love like never wish love world wish songbirds keep singing like know score love love love like never like never like never listen wind blow watch sun rise run shadows damn love damn lies love never love still hear saying would never break chain listen wind blow comes night run shadows damn love damn lies break silence damn dark damn light love never love still hear saying would never break chain chain keep together running shadows sweet wonderful make happy things feeling follows wherever never believe miracles feeling time try never believe ways magic beginning wonder never believe miracles feeling time try never believe ways magic beginning wonder break spell would different know make loving fun tell one make loving fun want make loving fun want make loving fun want make loving fun want want know reasons love keeps right walking line want stand love honey want feel fine want know reasons love keeps right walking line want stand love honey want feel fine finally baby truth come take listen spirit crying loud try believe say love know got rocking reeling want know reasons love keeps right walking line want stand love honey want feel fine want know reasons love keeps right walking line want stand love honey want feel fine finally baby truth told tell crazy nothing know trying survive say love know got rocking reeling hanging onto want know reasons love keeps right walking line want stand love honey take little time want know daddy know make cry love understand daddy make see fool around got daddy soothe smile letting know best thing life daddy make see fool around got right wrong weak strong everything alright walk away baby tried rock gold dust woman take silver spoon dig grave heartless challenge pick path pray wake morning see sunrise loves lousy lovers pick prey never cry loud cry well make cry make break shatter illusions love know pick pieces home rock ancient queen follow pale shadow rulers make bad lovers better put kingdom sale sale well make cry make break shatter illusions love know pick pieces home well make cry make break shatter illusions love tell know pick pieces home home home ooh pale shadow woman black widow pale shadow dragon dust woman ooh pale shadow woman black widow ooh pale shadow dragon gold dust woman</t>
+  </si>
+  <si>
+    <t>let girls come going tonight feeling alright gonna let hang want make noise really raise voice yeah want scream shout inhibitions make conditions get little outta line gonna act politically correct want good time best thing woman prerogative little fun totally crazy forget lady men shirts short skirts really wild yeah style get action feel attraction color hair dare want free yeah feel way feel man feel like woman girls need break tonight gonna take chance get town need romance want dance gonna let hair hang best thing woman prerogative little fun totally crazy forget lady men shirts short skirts really wild yeah style get action feel attraction color hair dare want free yeah feel way feel man feel like woman best thing woman prerogative little fun fun fun totally crazy forget lady men shirts short skirts really wild yeah style get action feel attraction color hair dare want free yeah feel way feel man feel like woman get totally crazy feel come come come baby feel like woman need shrink tell think missing link love life alright uptight need psychic really like someone tries tell future holds already know love keeps alive need survive got side holding feeling strong baby one life yeah holding doubt live without life holding love save life need get caught net already set understand already got man need proof show truth even ruth gonna tell feel know love real love keeps alive need survive got side holding feeling strong baby one life yeah holding doubt live without life holding love save life holding love save life love keeps alive need survive got side holding feeling strong baby one life yeah holding doubt live without life holding love save life save save save save life life going great love gonna wait hurry worries staying single plan need steady man covered discovered love gets every time heart changed mind gol darn gone done gone done gone done guess fell love gone done must way walked gone done sweet sweet talk gone done guess gol darn gone done quite content paying rent place needed space free shop around rush settle covered discovered love gets every time heart changed mind gol darn gone done gone done gone done guess fell love gone done must way walked gone done sweet sweet talk gone done guess gol darn gone done love gets every time heart changed mind gol darn gone done gone done gone done guess fell love gone done must way walked gone done sweet sweet talk gone done way calls name gone done know never gone done love gets every time heart changed mind gol darn gone done thought covered life going great well gol darn gone done complicated hang shoulder read mail appreciate talk guys think tail get aggravated get phone get third degree really feeling frustrated take pill put little trust see freak know facts relax stupid know love ridiculous know need absurd know want impossible mad mad live without live without crazy crazy stupid know love stop overreacting even get suspicious paint nails definitely distracting way dramatize every little small detail freak know facts relax max stupid know love ridiculous know need absurd know want impossible mad mad live without live without crazy crazy stupid know love stupid baby mad mad live without live without crazy crazy stupid know love ridiculous know need absurd know want impossible swear always would give anything everything always care weakness strength happiness sorrow better worse love every beat heart moment life begun moment one right beside belong moment moment blessed live happiness love would give last breath moment give hand heart wait live life wait start never apart dreams came true moment long live love promise nothing would give moment reason believe love answer prayers need two dreams came true moment long live love promise nothing would give moment love long live moment get life get grip get away somewhere take trip take break take control take advice someone know come come pull seat take load feet come come unwind take load mind make wish make move make mind choose need laugh come around come come pull seat take load feet come come unwind take load mind winner star happy gotta gotta make plan gotta come come pull seat take load feet come come unwind take load mind get life get grip get away somewhere take trip take break take control take advice someone know come come pull seat take load feet come come unwind take load mind elephants could fly would little optimistic see happening anytime soon mean sound pessimistic think cow really jumped moon wake break make money grows trees people live peace everyone agrees happiness free love guarantee come back would love wake smiling full joys spring hear cnn elvis lives john back beatles going tour first line tickets gotta see show sure wake break make money grows trees people live peace everyone agrees happiness free love guarantee come back wake break make money grows trees people live peace everyone agrees happiness free love guarantee come back deep denialville trying fight way feel jello smile start blushing head rushing stand close might melt heat look way one time gonna mind whatever even think get started dare drive crazy baby stop tracks heart pumping max sucker eyes permanently paralyze whatever even think get started dare drive crazy baby whatever got heart attack give shivers back would walk way get weak watching whatever even think get started dare drive crazy baby let let secret treat woman right looking place heart gonna happen overnight first gotta learn listen understand deepest thoughts needs know friends give got start heart see love gonna play part want get know really get inside mind want move closer take slow yeah take time must start heart want touch really want touch want touch ask little physical attraction romantic old fashioned charm lot love tenderness gonna get arms start heart see love gonna play part want get know really get inside mind want move closer take slow yeah take time must start heart want touch really want touch want touch ask let let secret treat woman right looking place heart gonna happen overnight want get know really get inside mind want move closer take slow yeah take time must start heart want touch really want touch want touch ask first saw saw love first time touched felt love time still one love looks like made look far come baby mighta took long way knew would get someday said bet never make look holding still together still going strong still one still one run one belong still one want life still one still one love one dream still one kiss good night nothing better beat odds together glad listen look would missing said bet never make look holding still together still going strong still one still one run one belong still one want life still one still one love one dream still one kiss good night still one still one still one run one belong still one want life still one still one love one dream still one kiss good night glad made look far come baby car start falling apart late work boss got smart pantyline shows got run hose hair went flat man hate thought things could get worse realized forgot purse stress must confess could worse pms job worth pay wait end day honey way hey hey hey hey honey home hard day pour cold one way rub feet gimme something eat fix favorite treat honey back head killing need relax watch get phone give dog bone hey hey honey home broke nail opening mail cursed loud hurt like hell job pain mundane sure stimulate brain job worth pay wait end day honey way hey hey hey hey honey home hard day pour cold one way rub feet gimme something eat fix favorite treat honey back head killing need relax watch get phone give dog bone hey hey honey home rub neck honey home hard day pour cold one way rub feet gimme something eat fix favorite treat honey back head killing need relax watch get phone give dog bone hey hey honey home home feels much better known guys thought pretty smart got right art think genius drive wall regular original know think special think something else rocket scientist impress much got brain got touch get wrong yeah think alright keep warm middle night impress much never knew guy carried mirror pocket comb sleeve case extra hold gel hair oughtta lock heaven forbid fall outta place think special think something else brad pitt impress much got looks got touch get wrong yeah think alright keep warm middle night impress much one guys likes shine machine make take shoes let get believe kiss car good night come baby tell must joking right think special think something else got car impress much got moves got touch get wrong yeah think alright keep warm middle night impress much think cool got touch get wrong yeah think alright keep warm long cold lonely night impress much think elvis something impress much impress much black eyes need blue tears gimme freedom positively never going back live things whack rolling punches using abusing would rather die standing live knees begging please black eyes need blue tears gimme freedom black eyes behind blue tears never find definitley found self esteem finally forever free dream crying corner excuses bruises would rather die standing live knees begging please black eyes need blue tears gimme freedom black eyes behind blue tears never find would rather die standing live knees begging please black eyes need blue tears gimme freedom black eyes behind blue tears never find behind never find find self esteem forever free dream together midnight summer air much warmer falling love starlight holding tight together leave lonely tonight want hold night gonna alright leave lonely tonight imagine air filled jasmine breeze blows passion dance desire moon fire imagine leave lonely tonight want hold night gonna alright leave lonely tonight love beaucoup mon amour one adore leave lonely tonight want hold night gonna alright lonely tonight amo mucho amor one adore amo woke morning buzz rolling around brain drinking feels pretty good must contagious looks like going around cool catch keep feet ground come come let get something started come come let start something gonna rock country gonna rock country every brown eyed boy every blue eyed girl gotta really psycho give whirl gonna rock country right world utah texas minnesota mississippi nevada matter live buzz come come let get something started come come let start something gonna rock country gonna rock country every brown eyed boy every blue eyed girl gotta really psycho give whirl gonna rock country right world plugging power cranking sound coming direction heading town kicking dust blowing steam let get nuts everybody scream gonna rock country gonna rock country every brown eyed boy every blue eyed girl gotta really psycho give whirl gonna rock country right world got way somehow got believe everything could gotta say really got way got way seems gave faith find dreams never know means see got way way want way hold way show love made way make love got way words get smiling even hurts way measure love worth believe way get way want way hold way show love made way make love adore like one love way way want way hold way show love made way make love way</t>
+  </si>
+  <si>
+    <t>flew miami beach get bed last night way paper bag knee man dreadful flight back know lucky boy back yeah away long hardly knew place gee good back home leave tomorrow unpack case honey disconnect phone back know lucky boy back back back well ukraine girls really knock leave west behind moscow girls make sing shout georgia always mind come yeah yeah yeah yeah yeah yeah back know lucky boys back well ukraine girls really knock leave west behind moscow girls make sing shout georgia always mind show around snow peaked mountains way south take daddy farm let hear balalaikas ringing come keep comrade warm back hey know lucky boys back let tell honey hey back back yes free yeah back dear prudence come play dear prudence greet brand new day sun sky blue beautiful dear prudence come play dear prudence open eyes dear prudence see sunny skies wind low birds sing part everything dear prudence open eyes look around round look around round round look around dear prudence let see smile dear prudence like little child clouds daisy chain let see smile dear prudence let see smile dear prudence come play dear prudence greet brand new day sun sky blue beautiful dear prudence come play told strawberry fields know place nothing real well another place everything flows looking bent backed tulips see half live looking glass onion told walrus man know close man well another clue walrus paul standing cast iron shore yeah lady madonna trying make ends meet yeah looking glass onion yeah yeah yeah looking glass onion told fool hill tell man living still well another place listen fixing hole ocean trying make dove tail joint yeah looking glass onion desmond barrow market place molly singer band desmond says molly girl like face molly says takes hand life goes bra life goes life goes bra life goes desmond takes trolley jeweler stores buys twenty carat golden ring golden ring takes back molly waiting door gives begins sing sing life goes bra life goes life goes bra life goes yeah couple years built home sweet home couple kids running yard desmond molly jones happy ever market place desmond lets children lend hand arm leg molly stays home pretty face evening still sings band yes life goes bra life goes hey life goes bra life goes couple years built home sweet home couple kids running yard desmond molly jones yeah happy ever market place molly lets children lend hand foot desmond stays home pretty face evening singer band yeah life goes bra life goes yeah life goes bra life goes want fun take thank honey pie honey pie honey pie honey pie honey pie honey pie honey pie honey pie love honey pie hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill went tiger hunting elephant gun case accidents always took mum american bullet headed saxon mother son children sing hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill deep jungle mighty tiger lies bill elephants taken surprise captain marvel zapped right eyes zap children sing hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill children asked kill sin looked fierce mummy butted looks could kill would instead children sing hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill look see love sleeping guitar gently weeps look floor see needs sweeping still guitar gently weeps know nobody told unfold love know someone controlled bought sold look world notice turning guitar gently weeps every mistake must surely learning still guitar gently weeps well know diverted perverted know inverted one alerted look see love sleeping look wings play staging guitar gently weeps look sitting nothing aging still guitar gently weeps yeah yeah yeah yeah yeah yeah yeah yeah yeah ooh girl misses much yeah well acquainted touch velvet hand like lizard window pane man crowd multicoloured mirrors hobnail boots lying eyes hands busy working overtime soap impression wife ate donated national trust need fix going bits left uptown need fix going mother superior jump gun mother superior jump gun mother superior jump gun mother superior jump gun mother superior jump gun mother superior jump gun happiness warm gun happiness bang bang shoot shoot happiness warm gun mama happiness bang bang shoot shoot hold arms yeah feel finger trigger yeah know nobody harm yeah happiness warm gun mama happiness bang bang shoot shoot happiness warm gun yes happiness bang bang shoot shoot happiness warm yes gun happiness bang bang shoot shoot well know happiness warm gun mama happiness warm gun yeah martha dear though spend days conversation please remember martha love forget martha dear hold head silly girl look done find thick help bit around silly girl take good look around take good look bound see meant silly girl hold hand silly girl see done find thick help bit around silly girl martha dear always inspiration please good martha love forget martha dear tired slept wink tired mind blink wonder get fix drink tired know tired mind set wonder call know would would say putting joke harm know sleep stop brain know three weeks going insane know would give everything got little peace mind tired feeling upset although tired another cigarette curse sir walter raleigh stupid git would say putting joke harm know sleep stop brain know three weeks going insane know would give everything got little peace mind would give everything got little peace mind would give everything got little peace mind monsieur monsieur monsieur another one blackbird singing dead night take broken wings learn fly life waiting moment arise blackbird singing dead night take sunken eyes learn see life waiting moment free black bird fly black bird fly light dark black night black bird fly black bird fly light dark black night blackbird singing dead night take broken wings learn fly life waiting moment arise waiting moment arise waiting moment arise seen little piggies crawling dirt little piggies life getting worse always dirt play around seen bigger piggies starched white shirts find bigger piggies stirring dirt always clean shirts play around styes backing care goes around eyes something lacking need damn good whacking everywhere lots piggies living piggy lives see dinner piggy wives clutching forks knives eat bacon one time somewhere black mountain hills dakota lived young boy named rocky raccoon one day woman ran another guy hit young rocky eye rocky like said gonna get boy one day walked town booked room local saloon rocky raccoon checked room find gideon bible rocky come equipped gun shoot legs rival rival seems broken dreams stealing girl fancy name magill called lil everyone knew nancy man called dan next room hoedown rocky burst grinning grin said danny boy showdown daniel hot drew first shot rocky collapsed corner doctor came stinking gin proceeded lie table said rocky met match rocky said doc scratch better better doc soon able rocky raccoon fell back room find gideon bible gideon checked left doubt help good rocky revival yeah yeah come rocky boy come rocky boy story rocky listen footsteps coming drive listen footsteps arrive waiting knock dear old front door hear mean love hear clock ticking mantel shelf see hands moving wonder tonight see mean love pass make cry make blue cause know darling love never know hurt hate see pass make cry sorry doubted unfair car crash lost hair said would late hour two said alright waiting waiting hear pass make cry make blue cause know darling love never know hurt hate see pass make cry road road road road one watching road road road road road one watching road ooh road road road road one watching road knows long loved know love still wait lonely lifetime want ever saw catch name never really mattered always feel love forever forever love heart love whenever together love apart last find song fill air sing loud hear make easy near things endear know half say meaningless say reach julia julia julia oceanchild calls sing song love julia julia seashell eyes windy smile calls sing song love julia hair floating sky shimmering glimmering sun julia julia morning moon touch sing song love julia cannot sing heart speak mind julia julia sleeping sand silent cloud touch sing song love julia hum hum hum hum calls sing song love julia julia julia say birthday birthday yeah say birthday gonna good time glad birthday happy birthday come come yes going party party yes going party party yes going party party would like dance birthday take cha cha cha chance birthday would like dance birthday dance yeah come would like dance birthday take cha cha cha chance birthday would like dance birthday dance dance say birthday well birthday yeah say birthday gonna good time glad birthday happy birthday two three yes lonely want die yes lonely want die dead already ooh girl know reason morning want die evening want die dead already ooh girl know reason mother sky father earth universe know worth lonely want die dead already ooh girl know reason eagle picks eye worm licks bone feel suicidal like dylan jones lonely want die dead already ooh girl know reason black cloud crossed mind blue mist around soul feel suicidal even hate rock roll want die yeah want die dead already ooh girl know reason want die yes lonely want die reason want die born poor young country boy mother nature son day long sitting singing songs everyone sit beside mountain stream see waters rise listen pretty sound music flies doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo find field grass mother nature son swaying daisies sing lazy song beneath sun doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo yeah yeah yeah ooh ooh ooh wah wah wah wah mother nature son come come come come come joy come joy come let take easy come let take easy take easy take easy everybody got something hide except monkey ooh deeper higher fly higher fly deeper come come come come joy come joy come let make easy come let take easy take easy yeh yeh yeh take easy hoo everybody got something hide except monkey yeah inside outside outside inside come come come joy come joy come let make easy come let make easy make easy hoo make easy hoo everybody got something hide except monkey hey come come come come come come come come come come come come come come come come sexy sadie done made fool everyone made fool everyone sexy sadie ooh done sexy sadie broke rules layed see layed see sexy sadie oooh broke rules one sunny day world waiting lover came along turn everyone sexy sadie greatest sexy sadie know world waiting world waiting sexy sadie oooh know sexy sadie get yet however big think however big think sexy sadie oooh get yet gave everything owned sit table smile would lighten everything sexy sadie latest greatest made fool everyone sexy sadie however big think sexy sadie get bottom back top slide stop turn ride till get bottom see yeah yeah yeah hey want love coming fast miles tell tell tell come tell answer well may lover dancer helter skelter helter skelter helter skelter yeah ooh want make coming fast let break tell tell tell answer may lover dancer look helter skelter helter skelter helter skelter ooh look cos comes get bottom back top slide stop turn ride get bottom see yeah yeah yeah well want make coming fast let break tell tell tell answer may lover dancer look helter skelter helter skelter helter skelter look helter skelter coming fast yes yes coming fast head spinning ooh alright got blisters fingers long long long time could ever lost loved took long long long time happy found love many tears searching many tears wasting see ever misplace want love know need ooh love take say want revolution well know want change world tell evolution well know want change world talk destruction know count know gonna alright know gonna alright know gonna alright say got real solution well know would love see plan ask contribution well know want money people minds hate tell brother wait know gonna alright know gonna alright know gonna alright say change constitution well know would love change head tell institution well know better free mind instead carrying pictures chairman mao going make anyone anyhow know gonna alright know gonna alright know gonna alright alright alright alright alright alright alright alright alright alright alright alright alright alright alright alright working girl north england way hit big time usa could hear would say honey pie making crazy love lazy please come home honey pie position tragic come show magic hollywood song became legend silver screen thought meeting makes weak knee honey pie driving frantic sail across atlantic belong honey pie come back yeah like like like kind hot kind music hot kind music play play honey blues wind blew boat across sea kindly send sailing back honey pie making crazy love lazy please come home come come back honey pie oooooooooooh honey pie honey pie creme tangerine montelimar ginger sling pineapple heart coffee dessert yes know good news pulled savoy truffle cool cherry cream nice apple tart feel taste time apart coconut fudge really blows blues pulled savoy truffle might feel pain cuts going know sweat going fill head becomes much shout aloud pulled savoy truffle know eat sweet turns sour know obla dibla show creme tangerine montelimar ginger sling pineapple heart coffee dessert yes know good news pulled savoy truffle yes pulled savoy truffle cry baby cry make mother sigh old enough know better king marigold kitchen cooking breakfast queen queen parlour playing piano children king cry baby cry make mother sigh old enough know better cry baby cry king garden picking flowers friend came play queen playroom painting pictures childrens holiday cry baby cry make mother sigh old enough know better cry baby cry duchess kircaldy always smiling arriving late tea duke problems message local bird bee cry baby cry make mother sigh old enough know better cry baby cry twelve clock meeting round table seance dark voices nowhere put specially children lark cry baby cry make mother sigh old enough know better cry baby cry cry cry cry baby make mother sigh old enough know better cry baby cry cry cry cry make mother sigh old enough know better cry baby cry bottle claret realised well next time forgot george sorry forgive yes cheeky bitch number number number number number number number number number number number number number number number welsh rarebit wearing brown underpants shortage grain hertfordshire everyone knew time went would get little bit older little bit slower thing case manufactured someone always umpteen father giving diddly dee district leaving intended pay number number know know number number number number number number number number number number number number sustained nothing worse also example whatever business deal falls informed third night fortune gives number number number people right people right right right right right right right right number number number missed makes days late compared like wow weird stuff like taking sides sometimes floral bark rouge doctors brought specimen nobody short cuts aha number situation standing still plan telegram ooh ooh number number ooh man without terrors beard false headmaster reported son really try find function tell saying voice low hive high eyes low alright head fire glasses saved enables move number number number number number number number number number number number wife called would better see surgeon whatever price yellow underclothes road went see dentist instead gave pair teeth good instead joined fucking navy went sea broken chair wings broken hair mood whirling aaah gathered france dogs dogging hands clapping birds birding fish fishing themming whimming find night watchman unaware presence building onion soup number number number number number number industrial output financial imbalance thrusting shoulder blades watusi twist eldorado take brother may serve well maybe nothing aaah maybe nothing maybe even impervious london could difficult thing hold line hold line hold line hold line quick like rush peace much like naked alright alright alright become naked block kick block kick block kick block kick block kick block kick block kick block kick block kick block kick time say good night good night sleep tight sun turns light good night sleep tight dream sweet dreams dream sweet dream sweet dreams close eyes close mine good night sleep tight moon begins shine good night sleep tight dream sweet dreams dream sweet dream sweet dreams mmmmmm mmmmmm mmmmmmmmmm close eyes close mine good night sleep tight sun turns light good night sleep tight dream sweet dreams dream sweet dream sweet dreams good night good night everybody everybody everywhere good night</t>
+  </si>
+  <si>
+    <t>stay would way know think every step way always love ooh always love darling mmm bittersweet memories taking good bye please cry know need always love always love ooh hope life treats kind hope dreamed wish joy happiness wish love always love always love always love always love always love always love darling love always always love ooh ooh share life take never change colours take love never ask much everything really need look much want follow hold back passion inside run nowhere hide make close one door want hurt anymore stay arms dare must imagine walk away nothing nothing nothing see right heart break walls strength love never knew love like known memory survive one hold really need look much want follow hold back passion inside run nowhere hide love remember forever make close one door want hurt anymore stay arms dare must imagine walk away nothing nothing nothing make close one door want hurt anymore stay arms dare must imagine walk away walk away dare walk away nothing nothing nothing ooh ooh whatever want whatever need anything want done baby naturally every woman every woman yeah every woman anything want done baby naturally every woman read thoughts right every one whoa whoa whoa whoa whoa whoa cast spell secrets tell mix special brew put fire inside anytime feel danger fear instantly appear yeah every woman anything want done baby naturally whoa whoa whoa whoa whoa whoa sense needs like rain unto seeds make rhyme confusion mind comes good old fashioned love got got got got baby baby every woman anything want done baby naturally every woman read thoughts right every one whoa whoa whoa whoa whoa whoa bragging one ask shall done bother compare got whoa whoa whoa whoa whoa whoa whoa whoa whoa every woman every woman every woman chaka khan every woman chaka khan every woman every woman girl ooh know look much see would take time know heart would find girl scared sometimes always strong see hurt feel alone want run want run hold arms keep safe harm want run come tell stay run away day day play role someone always control night come home turn key nobody one cares woah sense trying hard find dreams without someone share tell mean want run want run hold arms keep safe harm want run come tell stay run away run away need need wipe away tears kiss away fears knew much want run know want run hold arms keep safe harm want run come tell stay run away got stuff want got thing need got enough make drop knees queen night queen night yeah yeah yeah yeah make difference wrong right got feeling willing tonight well nobody angel say well way hey got stuff want stuff want got thing need thing need got enough make drop knees queen night queen night queen night yeah say say say queen night queen night queen night queen night yeah yeah yeah yeah queen night got problem way say trouble give damn bad know better want get turn got stuff want stuff want got thing need thing need got enough make drop knees enough woo queen night queen night queen night yeah say say queen night queen night queen night queen night yeah yeah yeah yeah play guitar yeah yeah ooh ohh yeah got stuff want stuff want got thing need thing need got enough make drop knees enough make drop queen night queen night queen night yeah say queen night queen night queen night queen night yeah yeah yeah yeah queen night queen night queen night queen night yeah yeah yeah yeah yeah yes jesus loves bible tells jesus loves know bible tells little ones belong weak strong yes jesus loves yes jesus loves yes jesus loves bible tells pressing upper away always guide lord pray undeserving stubborn willed never fail love still yes jesus loves yes jesus loves yes jesus loves bible tells yes jesus loves love yes jesus loves bible tells bible tells feels good know never alone see sometimes lonely never alone bible tells bible tells bible tells see know loves whether right whether wrong</t>
+  </si>
+  <si>
+    <t>looked morning sun gone turned music start day lost familiar song closed eyes slipped away feeling feeling hear old song used play feeling begin dreaming feeling see marianne walk away see marianne walking away many people come gone faces fade years yet still recall wander clear sun summer sky feeling feeling hear old song used play feeling begin dreaming feeling see marianne walk away see marianne walking away tired thinking cold hide music forget day dream girl used know closed eyes slipped away slipped away feeling feeling hear old song used play feeling begin dreaming feeling see marianne walk away feeling kinda low dues paying future coming much slow want run somehow keep staying decide way yeah yeah yeah understand indecision care get behind people living competition want peace mind climbing top company ladder hope take long tcha see come day matter come day gone understand indecision care get behind people living competition want peace mind take look ahead take look ahead yeah yeah yeah yeah everybody got advice keep giving mean much lot people make believe living decide understand indecision care get behind people living competition want peace mind take look ahead take look ahead look ahead long time think going yeah time wait keeps rolling sail distant highway got keep chasing dream gotta way wish something could say well taking time moving forget gone take find want outside front door long time long time well get lonely without mind deep mind forget good times faces remind trying forget name leave behind coming back find well taking time moving forget gone take find want outside front door long time long time yeah long time think going yeah time wait keeps rolling long road gotta stay time got keep chasing dream though may never find always behind well taking time moving along taking time moving along taking time taking time well another band boston road try make ends meet playing bars sleeping cars practiced right street much money barely made enough survive got stage got ready play people came alive rock roll band everybody waiting getting crazy anticipating love music play play play yeah yeah yeah yeah dancing streets hyannis getting pretty good game people stood line seem mind know everybody knew name living rock roll music never worry things missing got stage got ready play everybody would listen rock roll band everybody waiting getting crazy anticipating love music play play play yeah yeah yeah yeah playing week rhode island man came stage one night smoked big cigar drove cadillac car said boys think bands outta sight sign record company contract know got great expectations hear car radio going sensation rock roll band everybody waiting getting crazy anticipating love music play play play yeah yeah yeah yeah gonna play song little bit rock roll gotta let band gonna take control getting today pick take away get tonight smoking smoking cooking tonight keep toking smoking smoking feel alright mamma joking yeah get feet floor everybody rock roll got nothing lose rhythm blues yeah gonna feel pick take away get tonight smoking smoking cooking tonight keep toking smoking smoking feel alright mamma joking yeah everybody jumping dancing boogie tonight clap hands move feet know seem right getting today pick take away get tonight getting today pick take away get tonight well alright day night new york city smoke like water runs inside steel idle trees pity every living things died gonna hitch ride head side leave behind never change mind gonna sail away sun lights another day freedom mind carry away last time yeah life like coldest winter people freeze tears cry words hail minds got crack ice fly gonna hitch ride head side leave behind never change mind gonna sail away sun lights another day freedom mind carry away last time gonna hitch ride head side leave behind never change mind gonna sail away sun lights another day freedom mind carry away last time younger thought could stand easy stood like man made stone something want know brought change starting show got feeling inside gotta good hide easy show feeling inside girl easy know believe man like get angry say things want say really mean want leave way could help reaction want know lose control wantcha know got feeling inside gotta good hide easy show feeling inside girl easy believe man like something want know brought change starting show got feeling inside gotta good hide easy show feeling inside girl easy know believe man like like tch see gotta gotta something yeah something like really kind shy get feeling whenever walk want want make high could see way come let try let take home tonight mamma alright let take home tonight show sweet delight must understand watched long feel known know wrong get together want make see dreaming sweet love tonight mamma let let take home tonight mamma alright let take home tonight show sweet delight want make excuses want lie got get loose tonight let take home tonight mamma alright let take home tonight show sweet delight want make excuses want lie got get loose tonight want want make high get feeling whenever walk get together want make see dreaming sweet love tonight mamma let let take home tonight mamma alright let take home tonight show sweet delight want show sweet delight show sweet delight pretty mamma want show sweet delight let take home tonight know want take home let take home tonight want alone let take home tonight let take home tonight let take home tonight</t>
+  </si>
+  <si>
+    <t>three thirty morning soul sight city looking like ghost town moonless summer night raindrops windshield storm moving heading back somewhere never thunder rolls thunder rolls every light burning house across town pacing telephone faded flannel gown asking miracle hoping right praying weather kept night thunder rolls thunder rolls thunder rolls lightning strikes another love grows cold sleepless night storm blows control deep heart thunder rolls waiting window pulls drive rushes hold thankful alive wind rain strange new perfume blows lightning flashes eyes knows knows thunder rolls thunder rolls thunder rolls lightning strikes another love grows cold sleepless night storm blows control deep heart thunder rolls like birds high line line night time bar lovebirds bluebirds landed hell minute fell love sky hope wine tht find new way fly new way fly far away goodbye clouds rain memories pain tears cry lessons learned crashed burned leve behind could find new way fly end night high kite seem mind time money spend high price pay find way get worth every dime find new way fly new way fly far away goodbye clouds rain memories pain tears cry lessons learned crashed burned leve behind could find new way fly leave behind soon find new way fly yes lady luck hey wild card man together building real hot hand live country hey little queen south yea two kind working full house wakes every morning smile kiss strong country loving hard resist easy loving woman hard working man doubt yea two kind working full house yea pickup truck limousine favorite dress faded blue jeans loves tender going gets tough somtimes fight make lord need little woman like crops need rain honeycomb sugar cane really fit together know talking yea two kind working full house time found keeper made mind lord perfect combination heart mine sky limit hill steep playing fun playing keeps draw curtain honey turn lights low find country music radio mine hey yea two kind working full house lordy mama two kind working full house well took little time guess finally learned promises get broken bridges get burned sifting ashes trying find flame holding nothing victim game standing way close see fall apart things could hear listening heart say warn one else blame one quite blind victim game matter treats everyone need heart victim game know really getting take telling lies try fool friends look eye standing tall shadow shame everybody knows victim game matter treats everyone need heart victim game know look eyes really feel pain staring mirror victim game blame roots showed boots ruined black tie affair last one know last one show last one thought would see saw surprise fear eyes took glass champagne toasted said honey may never hear complain got friends low places whiskey drowns beer chases blues away okay big social graces think slip oasis got friends low places well guess wrong belong everything right say goodnight show door hey mean cause big scene give hour well high ivory tower living got friends low places whiskey drowns beer chases blues away okay big social graces think slip oasis got friends low places got friends low places whiskey drowns beer chases blues away okay big social graces think slip oasis got friends low places got friends low places whiskey drowns beer chases blues away okay big social graces think slip oasis got friends low places got friends low places whiskey drowns beer chases blues away okay phone booth cheyenne made promise diane rodeos would gone last around promise made san antone santa tonight saddled let wild horses keep dragging away lose gonna win someday wild horses stay wild heart break wild horses keep dragging away watch drive around block getting courage stop make one promise keep way love rodeo guess let hurt loves wild horses keep dragging away lose gonna win someday wild horses stay wild heart break wild horses keep dragging away night hometown football game wife ran old high school flame introduced past came back could help think way things used one would wanted times night would spend praying god would make mine would grant wish wished back would never ask anything sometimes thank god unanswered prayers remember talking man upstairs answer mean care god greatest gifts unanswered prayers quite angel remembered dreams could tell time changed eyes seemed tried talk old days much could recall guess lord knows walked away looked wife thanked good lord gifts life sometimes thank god unanswered prayers remember talking man upstairs may answer mean care god greatest gifts unanswered god greatest gifts often unanswered god greatest gifts unanswered prayers dance holds pulls close loves dreams another counts days lets old story everybody knows one heart holding one letting ride lord tells two settle hears highway voice town harder holds slips away old story everybody knows one heart holding one letting guardian star lost glow day lost lost glitter day said grey skies turned blue like doubtful love true decide call ask blue blue say love prove going sly proving love untrue call blue blue say sorry turn around headed lights town hurting call blue sleep alone night wait phone night call hurt pride call mister tell paint town bright red turn upside painting painting blue sleep alone night wait phone night call hurt pride call mister tell paint town bright red turn upside painting painting blue call blue call mister january always bitter lord one beats wind quit weeks drifts ten feet tall night driving heifers closer lower ground spent morning thinking ones wolves pulled charlie barton family stopped today say goodbye said bank taking last years dry promised would visit found place town spent long time thinking ones wolves pull lord please shine light hope fall behind stumble snow could help still time well mean complaining lord always seen know got reasons every thing tonight outside window lonesome mournful sound keep thinking ones wolves pull lord keep one wolves pull big estate wrought iron gates palm trees standing tall fancy mirrors chandeliers comfort wall wall ocean air crisp clear rave view mountain breeze hickory trees tennessee bedroom suite comes fingers touch face close eyes fantasize another time place feels warm real know love true tries hard please still think sometimes sees tennessee good enough man enough something easy going love tennessee made mind learn lines try play part part tennessee deep heart miss smoky mountain home miss loving deep inside always gonna tennessee</t>
+  </si>
+  <si>
+    <t>well tell way use walk woman man time talk music loud women warm kicked around since born right may look way try understand new york times effect man whether brother whether mother staying alive staying alive feel city breaking everybody shaking staying alive staying alive staying alive staying alive staying alive well get low get high get either really try got wings heaven shoes dancing man lose know right live see another day try understand new york times effect man whether brother whether mother staying alive staying alive feel city breaking everybody shaking staying alive staying alive staying alive staying alive staying alive life going nowhere somebody help somebody help yeah life going nowhere somebody help yeah staying alive well tell way use walk woman man time talk music loud women warm kicked around since born right may look way try understand new york times effect man whether brother whether mother staying alive staying alive feel city breaking everybody shaking staying alive staying alive staying alive staying alive staying alive life going nowhere somebody help somebody help yeah life going nowhere somebody help yeah staying alive life going nowhere somebody help somebody help yeah life going nowhere somebody help yeah staying alive life going nowhere somebody help somebody help yeah life going nowhere somebody help yeah staying alive life going nowhere somebody help somebody help yeah life going nowhere somebody help yeah staying alive know eyes morning sun feel touch pouring rain moment wander far want feel arms come summer breeze keep warm love softly leave need show deep love deep love deep love really mean learn living world fools breaking let belong believe know door soul light deepest darkest hour saviour fall may think care know inside really need show deep love deep love deep love really mean learn living world fools breaking let belong come summer breeze keep warm love softly leave need show deep love deep love deep love really mean learn living world fools breaking let belong listen ground movement around something going feel waves air dancing something share steal sweet city woman moves light controlling mind soul reach yeah feeling right get night fever night fever know gimme night fever night fever know show praying moment last living music fine borne wind making mine night fever night fever know gimme night fever night fever know show heat love need help make gimme enough take morning got fire mind get higher walking glowing dark give warning sweet city woman moves light controlling mind soul reach yeah feeling right get night fever night fever know gimme night fever night fever know show praying moment last living music fine borne wind making mine night fever night fever know feels like forever baby know gimme night fever night fever know show leave never baby know night fever night fever know feels like forever baby know gimme night fever night fever know show leave never baby know night fever night fever know feels like forever baby know girl known well seen growing everyday never really looked take breath away suddenly life part everything got working day night trying keep hold arms found paradise chance happiness lose think would die say always baby make shine take forever minute time woman woman woman woman woman stories old true people love like see let history repeat reflecting feel thinking people know thousand years would fall love way fly way lose love know would die say always baby make shine take forever minute time woman woman woman woman woman know surviving every lonely day got chance life would end matter cry tears love waste time turn away strong enough see crazy want nobody baby want nobody baby let matter try gave easily love dreams never come true strong enough see crazy want nobody baby want nobody baby jive talking telling lies yeah jive talking wear disguise jive talking misunderstood yeah jive talking really good child never know mean child got much gonna take away energy jive talking telling lies yeah good loving still gets eyes nobody believes say jive talking gets way love good treating cruel fancy lies leaving looking like dumbstruck fool jive talking telling lies yeah jive talking wear disguise jive talking misunderstood yeah jive talking good love talking fine yeah jive talking crime somebody love till die jive talking gets eye jive talking telling lies yeah good loving still gets eyes nobody believes say jive talking gets way love talking fine yeah jive talking crime somebody love till die jive talking gets eye jive talking baby moves midnight goes right till dawn woman takes higher woman keeps warm back aah back aah dancing yeah dancing yeah juicy trouble gets good woman gives power goes right blood back aah back aah dancing yeah dancing yeah baby moves midnight goes right till dawn woman takes higher woman keeps warm back aah back aah dancing yeah dancing yeah dancing yeah dancing yeah dancing yeah dancing yeah dancing yeah</t>
+  </si>
+  <si>
+    <t>drop baby let daddy see drop lady dream well mama allow fool around night long well may look like crazy know right wrong see coming throw man outdoor stranger done way see coming mama throw man outdoor stranger way put night shirt morning gown know night gonna shake put night shirt mama morning gown well know night sure gonna shake shake shake ooh custard pie yeah sweet nice cut mama save slice custard pie yeah declare sweet nice like custard pie cut mama mama please save slice chew piece custard pie drop chew piece custard pie london seen seven wonders know trip fall used rock sometimes would roll always knew denying wind shake flat world flying new plague land join hands could join hands could join hands traversed planet heaven sent saw kings rule still firelight purple moonlight hear rested rivers call wind crying love grow cold lover lying dark side globe join hands could join hands could join hands got rocking ought rolling darling tell darling way keep rocking baby keep stolen tell darling way right wonder worry would dearly like know wonder earthly plunder leave anything show time flying see candle burning low new world rising shambles old could join hands could join hands could could could could could join hands takes takes takes takes time dying want nobody mourn want take body home well well well die easy well well well die easy jesus gotta make know jesus gotta make jesus gonna make dying bed meet jesus meet meet middle air wings fail lord please meet another pair well well well die easy well well well die easy jesus gonna make somebody somebody jesus gonna make jesus gonna make dying bed saint peter gates heaven let never harm never wrong gabriel let blow horn let blow horn never harm harm young never thought would anybody wrong somebody good somebody good somebody good must somebody good believe see smiling faces know must left traces see streets see field hear shouting feet know got real lord deliver wrong done deliver lord wanted fun hear angels marching hear marching hear marching hear marching marching jesus know got jesus got jesus got got jesus got got jesus take home come come hear angels singing come come come bye bye bye bye bye bye bye bye feels pretty good pretty good georgina georgina georgina georgina ooh let see come take yes come make dying dying dying cough gonna one come listen yes thank let take movies take show let ever truly make garden grow houses holy watch white doves door comes satan daughter goes show know angel shoulder hand sword gold let wander garden seeds love sow know world spinning faster dizzy stall let music master heed master call satan man said use crying drive mad hurt hear lying world let take take movie take baby show let ever truly make garden grow know right greasy slicked body groovy leather trim like way hold road mama sin talking love trouble free transmission helps oil flow mama let pump gas mama let talking love dig heavy metal underneath hood baby could work night believe got perfect tools talking love model built comfort really built style specialist tradition mama let feast eyes talking love factory air conditioned heat begins rise guaranteed run hours mama perfect size talking love grooving freeway gauge red gun gasoline believe gonna crack head talking love stop talking come service every hundred miles baby let check points fix overdrive talking love fully automatic comes size makes wonder synchronized talking love feather light suspension koni could hold glad took look inside showroom doors talking love stop talking love let sun beat upon face stars fill dream traveler time space sit elders gentle race world seldom seen talk days sit wait revealed talk song tongues lilting grace sounds caress ear word heard could relate story quite clear ooh baby flying yeah mama denying ooh yeah flying mama mama denying denying see turns brown sun burns ground eyes fill sand scan wasted land trying find trying find pilot storm leaves trace like thoughts inside dream heed path led place yellow desert stream shangri beneath summer moon return sure dust floats high june moving kashmir father four winds fill sails across sea years provision open face along straits fear way see see way stay ooh baby ooh baby let take come come let take let take feel sinking low believe wrong light find road find road ever believe could leave standing cold know feels slipped depths soul baby want show clear view every bend road listen whoa whoa really would honey would would share load let share load ooh let share share load feel light find road though winds change may blow around always love pain devour never alone would share load would share load baby let let light everybody needs light light light light light light light light light light light light ooh yeah light light light light seaside see boats sailing people hear little fish saying people turned away people turned away city streets see folk racing racing time left pass time day people turned away people turned away far away far away see run see run see run see run still twist find remember things well want tell twisting every day though sometimes awful hard tell country hear people singing singing progress knowing going people turned away yes people turned away sing loud sunshine pray hard rain show love lady nature come back people turned away people turned away though course may change sometimes rivers always reach sea blind stars fortune several rays wings maybe downy birds prey kind makes feel sometimes grow eagle leaves nest got far changes fill time baby alright midst think used ever really need somebody really need bad ever really want somebody best love ever ever remember baby feel good first time knew would dewy eyes sparkle senses growing keen taste love along way see feathers preen kind makes feel sometimes grow eagles one nest nest soul vixen dreams great surprise never thought would see face way used darling darling darling darling never gonna leave never gonna leave holding ten years gone holding ten years gone ten years gone holding ten years gone never never never received message brother across water sat laughing wrote end sight said goodbye friends packed hopes inside matchbox know time fly come meet morning meet middle night morning light coming make want feel alright jumped train never stops somehow know never finished paying ride someone pushed gun hand tell type man fight fight require come meet morning meet middle night morning light coming make want feel alright mama well think time leaving nothing make stay whoa mama well must time going knocking doors trying take away please brakeman ring bell ring loud clear please fireman ring bell tell people got fly away saw picture lady baby southern lady special smile middle change destination train stops together smile meet morning meet middle night night night everybody know morning time coming make want feel alright yeah make feel alright fly baby get fly yeah fly baby silent woman night came took seed shaking frame old fire another flame wheel rolls silent woman flames come deep behind sun seems nightmares begun left barely holding blazing eyes see trembling hand know time come lose senses lose command feel healing rivers run every time fall think one darkness hear call another day begun silent woman face changed know ways come feel fire needs brand new flame wheels rolls rolls town baby got rock yeah darling got home want tutti frutti lollipop come baby rock rock rock yeah yeah yeah yeah honey shaking night darling got roll right ooh head rock hey babe hey babe want tutti frutti lollipop come baby rock rock rock shall roll jimmy rolling one one airplane heard flying overhead got get airplane naw leave yeah hey hey mama matter tell love love mama let hey hey mama matter make total disgrace leave beer face hey hey mama matter alright awful dog gone clear hey hey baby treat mean crucify like tell kid hey hey mama would treat mean say would always side tell would blushing bride hey hey mama treat mean alright know sisters tell love leave mama let hey hey mama wrong leave like total disgrace leave beer face hey hey mama wrong alright would way crucify like tell kid hey hey mama matter tell would tell baby let hey hey mama wrong alright know sister matter mama window rented limousine saw pretty blue eyes one day soon gonna reach sixteen painted lady city lies know name look know one want must one need yeah clutching pages teenage dream lobby hotel paradise circus queens fast learn downhill side know name look know one want must one need lips like cherries brow queen come flash eyes said dug since thirteen giggle heave sigh know name look know one want must one need hours hours moments baby could count times fun coming pain leaving baby dry silver eyes know name look know one want must one need ooh right</t>
+  </si>
+  <si>
+    <t>born dead man town first kick took hit ground end like dog beat much till spend half life covering born born born born got little hometown jam put rifle hand sent foreign land kill yellow man born born born born born come back home refinery hiring man says son went see man said son understand brother khe sanh fighting viet cong still gone woman loved saigon got picture arms shadow penitentiary gas fires refinery ten years burning road nowhere run got nowhere born born born long gone daddy born born born cool rocking daddy times tough getting tougher old world rough getting rougher cover come baby cover well looking lover come cover promise baby let find hold arms let let love blind cover shut door cover well looking lover come cover outside rain driving snow hear wild wind blowing turn light bolt door going whole world trying score seen enough want see cover come cover looking lover come cover looking lover come cover driving darlington county wayne fourth july driving darlington county looking work county line drove new york city girls pretty want know name driving darlington city got union connection uncle wayne drove miles without seeing cop got rock roll music blasting top singing sha sha sha sha sha sha hey little girl standing corner today lucky day sure right buddy new york city got want rock night girl looking two big spenders world know wayne might one world trade centers kiss smile give mine come baby take seat fender long night tell else gonna could little girl sitting window seen buddy seven days county man tells thing work get paid little girl young pretty walk way leave darlington city ride dixie highway driving darlington county eyes seen glory coming lord driving darlington county seen wayne handcuffed bumper state trooper ford friday night pay night guys fresh work talking weekend scrubbing dirt heading home families looking get hurt going stovell wearing trouble shirts work county day hold red flag watch traffic pass head keep picture pretty little miss someday mister gonna lead better life working highway laying blacktop working highway day long stop working highway blasting bedrock working highway working highway met dance union hall standing brothers back wall sometimes would walking union tracks one day looked straight looked straight back saved money put away went see daddy much say son see little girl know nothing cruel cruel world lit florida got along right one day brothers came got took black white prosecutor kept promise made day judge got mad put straight away wake every morning work bell clang warden swinging charlotte county road gang job girl something going mister world got laid lumber yard love went bad times got hard work carwash ever rain feel like rider downbound train said joe gotta got packed bags left behind bought ticket central line nights sleep hear whistle whining feel kiss misty rain feel like rider downbound train last night heard voice crying crying alone said love never died waiting home put jacket ran woods ran till thought chest would explode clearing beyond highway moonlight wedding house shone rushed yard burst front door head pounding hard stairs climbed room dark bed empty heard long whistle whine dropped knees hung head cried swing sledge hammer railroad gang knocking cross ties working rain feel like rider downbound train hey little girl daddy home leave alone got bad desire fire tell baby good things take higher fire sometimes like someone took knife baby edgy dull cut six inch valley middle skull night wake sheets soaking wet freight train running middle head cool desire fire fire fire well busted class get away fools learned three minute record baby ever learned school tonight hear neighborhood drummer sound feel heart begin pound say tired want close eyes follow dreams well made promise swore would always remember retreat baby surrender like soldiers winter night vow defend retreat baby surrender young faces grow sad old hearts fire grow cold swore blood brothers wind ready grow young hear sister voice calling home across open yards well maybe could cut someplace drums guitars made promise swore would always remember retreat baby surrender blood brothers stormy night vow defend retreat baby surrender street tonight lights grow dim walls room closing war outside still raging say anymore win want sleep beneath peaceful skies lover bed wide open country eyes romantic dreams head made promise swore would always remember retreat baby surrender blood brothers stormy night vow defend retreat baby surrender retreat baby surrender well came house day mother said went away said nothing could done nothing nobody could say known ever since sixteen wished would known wished could called say goodbye bobby jean hung others turned away turned nose liked music liked bands liked clothes told wildest wildest things would ever seen wished would told wished could talked say goodbye bobby jean went walking rain talking pain world hid nobody nowhere nohow gonna ever understand way maybe road somewhere bus train traveling along motel room radio playing hear sing song well know thinking miles calling one last time change mind say miss baby good luck goodbye bobby jean sit car outside house quiet feel heat coming around put arm around give look like way bounds well let one bored sighs well lately look eyes going going going going get dressed baby night come home early burning burning fire fight sick tired setting setting knock knock knock going going going pull close baby kiss feel doubt remember back started kisses used turn inside used drive work morning friday night would drive around used love drive wild lately girl get kicks driving friend big baseball player back high school could throw speedball make look like fool boy saw night roadside bar walking walking went back inside sat drinks kept talking glory days well pass glory days wink young girl eye glory days glory days well girl lives block back school could turn boys heads sometimes friday stop drinks put kids bed husband bobby well split guess two years gone sit around talking old times says feels like crying starts laughing thinking glory days well pass glory days wink young girl eye glory days glory days think going well tonight going drink till get fill hope get old sit around thinking probably yeah sitting back trying recapture little glory well time slips away leaves nothing mister boring stories glory days well pass glory days wink young girl eye glory days glory days well pass glory days wink young girl eye glory days glory days get evening got nothing say come home morning bed feeling way nothing tired man tired bored hey baby could use little help start fire start fire without spark gun hire even dancing dark messages keep getting clearer radio moving around place check look mirror want change clothes hair face man getting nowhere living dump like something happening somewhere baby know start fire start fire without spark gun hire even dancing dark sit around getting older joke somewhere shake world shoulders come baby laugh stay streets town carving alright say gotta stay hungry hey baby starving tonight dying action sick sitting around trying write book need love reaction come baby gimme one look start fire sitting around crying broken heart gun hire even dancing dark start fire worrying little world falling apart gun hire even dancing dark even dancing dark even dancing dark even dancing dark hey baby eight years old running dime hand bus stop pick paper old man would sit lap big old buick steer drove town would tousle hair say son take good look around hometown hometown hometown hometown tension running high high school lot fights black white nothing could two cars light saturday night back seat gun words passed shotgun blast troubled times come hometown hometown hometown hometown main street whitewashed windows vacant stores seems like nobody wants come closing textile mill across railroad tracks foreman says jobs going boys coming back hometown hometown hometown hometown last night kate laid bed talking getting packing bags maybe heading south thirty five got boy last night sat behind wheel said son take good look around hometown</t>
+  </si>
+  <si>
+    <t>deja migo sin ella somos tika gai simba gai yaya cantando paris ella quiso estar junto sorprendi quando dijo yaleo vamos caminando ise tomando vino partiendo pan ella dijo dame dame yaleo yaleo yaleo tika gai simba gai yaya pudieras decirme creo que pasa aqui ella mia amor ahora tengo ninos que dicen yaleo yaleo yaleo tika gai simba gai yaya yaleo tika gai simba gai yaya got called carlos santana want eyes things want see night dream everything love life breath prayers take hand lead need forget taste mouth lips heavens pour forget one alone free everyday every night alone love life alright alright everyday every night alone love life dancing moonlight starlight eyes dancing sunrise gonna dance dance dance hey sinners put lights put lights hey lovers put lights put lights hey killers put lights put lights hey children leave lights better leave lights monster living bed whispering ear angel hand head say got nothing fear darkness living deep soul still got purpose serve let light shine deep home god let lose nerve let lose nerve hey hey hey hey hey hey hey hey hey sinners put lights put lights hey children leave lights better leave lights monster living bed whispering ear angel hand head say got nothing fear says illaha illa allah shine like stars illaha illa allah shine like stars fade away ella baila portugueza estoy llamando todas las morenas llamada viene luz con calma baila esta danza con amor canto esta cancion africa bamba hace lado tristeza otra mas dulce podras encontrar oye eso sentir feliz ella baila portugueza estoy llamando todas las morenas llamada viene luz con calma baila esta danza con amor canto esta cancion africa bamba hace lado tristeza otra mas dulce podras encontrar oye eso sentir feliz ella africa estoy llamando oye puerto rico adonde estas levanta las manos colombia oye donde estas peruanos venezuela quiero china china quiero tambien japon japon japon que rico japon japon baila con santana olviden mexico mexico mexico mexico man hot one like seven inches midday sun well hear whisper words melt everyone stay cool equita spanish harlem mona lisa reason reason step groove yeah said life good enough would give world lift could change life better suit mood smooth like ocean moon emotion get got kind loving smooth yeah gimme heart make real else forget well tell one thing would leave would crying shame every breath every word hear name calling well barrio hear rhythm radio feel turning world soft slow turning around around said life good enough would give world lift could change life better suit mood smooth like ocean moon emotion get got kind loving smooth yeah gimme heart make real else forget like ocean moon emotion get got kind loving smooth yeah gimme heart make real else forget else forget else forget let forget gimme heart make real let forget let forget let forget let forget let forget watch master plan pastures span streets flipped beat move sheep like shepherd new day crew stay forever striving give thanks alive gutter see horizon clear used confused took lot years see moving planets take average mind expand take granted like always gonna disadvantaged soon come soon come soon done start run stumble catch one rhythm santana lick guits precision accidental intentional conscious decision zion marching african mayans conquering babylon heart lion hold watch yesterday come back around walls jericho come tumbling tell long everything everything alright friend see time passing people asking come none lasting money make people deal like even feel real real like way going like way going ooh like way long long wait sit communicate see everything relative want get give build live like way going ladies gents turn sound systems sound carlos santana product get away blues refugee camp maria maria remind west side story growing spanish harlem living life like movie star maria maria fell love east sounds guitar yeah yeah played carlos santana stop looting stop shooting pick pocking corner see rich getting richer poor getting poorer mira maria corner thinking ways make better mailbox eviction letter signed judge said see later ahora vengo mama chola mama chola ahora vengo mama chola east coast ahora vengo mama chola mama chola ahora vengo mama chola west coast maria maria remind west side story growing spanish harlem living life like movie star maria maria fell love east said sounds guitar yeah yeah played carlos santana said favella los colores streets getting hotter water put fire gota esperanza mira maria corner thinking ways make better looked sky hoping days paradise ahora vengo mama chola mama chola ahora vengo mama chola north side ahora vengo mama chola mama chola ahora vengo mama chola south side ahora vengo mama chola mama chola ahora vengo mama chola world wide ahora vengo mama chola mama chola ahora vengo mama chola open eyes maria know lover wind blows feel weather even apart still feels like together maria remind west side story growing spanish harlem living life like movie star maria maria fell love east sounds guitar played carlos santana put carlos santana refugee camp wyclef jerry wonda santana carlos man making guitar cry migra migra pinche migra dejame paz migra migra pinche migra dejame paz malicia veo tus ojos desprecio corazon malicia veo tus ojos desprecio corazon hora reconocer que todos somas una voz abrasa concepto venimos misma voz necesitas mas mas que necesitas mas mas que necesitas mas mas que necesitas mas mas que people people let start together let right people people let love one another know know necesitas mas mas que necesitas mas mas que necesitas mas mas que necesitas mas mas que migra migra pinche migra dejame paz people people let love one another know know vamonos esa mujer est matando espinado coraz por que trato olvidarla alma raz coraz aplastado dolido abandonado ver ver sabes dime amor nto amor dolor nos qued coraz espinado duele duele mam duele amor duele duele coraz cuando uno bien entregado pero olvides mujer que alg dir duele amor coraz espinado duele duele mam duele amor coraz espinado duele amor chale carlitos duele olvido duele coraz duele estar vivo sin tenerte lado amor coraz espinado coraz espinado beauty grace touches good times put fear always feel safe things bad cannot let come near seems thrive dark side things always feel alive death bell rings come bring tears pain never makes cry happiness strange watch life walk wishing wishing like fantasy every day surprises wishing wishing wishing feeling last cannot survive tell moving fast matter time one walks door seems thrive dark side things always feel alive death bell rings come bring tears pain never makes cry happiness strange watch life walk wishing wishing like fantasy every day surprises wishing wishing wishing give thought sure know way must emotions rise emotions flow bring tears pain never makes cry happiness strange watch life walk wishing wishing like fantasy every day surprises wishing wishing wishing lluvia sol como una bendicion vida renace con luz primavera llego todo asi regreso raiz tiempo inquieta juventud primavera tierra negra vuelve verde las montanas desierto bello jardin como semilla lleva nueva vida hay esta primavera una nueva era aire este nuevo universo hoy respira libertad primavera tierra negra vuelve verde las montanas desierto bello jardin como semilla lleva nueva vida hay esta primavera una nueva era tierra negra vuelve verde las montanas desierto bello jardin como semilla lleva nueva vida hay esta primavera una nueva era people people people people people people people people calling calling people people people people people people people people calling calling one love one love lord got nobody one love people people people people people people people people calling calling people people people people people people people people calling calling one love one love lord got nobody one love one love one love one love lord got nobody one love one love one love one love lord got nobody one love freedom freedom freedom get stand let celebrate freedom freedom talking freedom time redemption freedom freedom want freedom everybody time liberation freedom freedom want freedom children day celebration let celebrate said let celebrate gonna celebrate celebrate</t>
+  </si>
+  <si>
+    <t>fire starting heart reaching fever pitch bringing dark finally see crystal clear head sell lay ship bare head sell lay shit bare see leave every piece underestimate things fire starting heart reaching fever pitch bringing dark scars love remind keep thinking almost scars love leave breathless help feeling could gonna wish never met rolling deep tears gonna fall rolling deep heart inside hand gonna wish never met played beat tears gonna fall rolling deep baby story told heard one gonna make head burn think depths despair make home mine sure shared gonna wish never met scars love remind tears gonna fall rolling deep keep thinking almost gonna wish never met scars love leave breathless tears gonna fall rolling deep help feeling could gonna wish never met rolling deep tears gonna fall rolling deep heart inside hand gonna wish never met played beat tears gonna fall rolling deep could rolling deep heart inside hand played beating throw soul every open door woah count blessings find look woah turn sorrow treasured gold woah pay back kind reap sow woah gonna wish never met could tears gonna fall rolling deep could gonna wish never met tears gonna fall rolling deep could gonna wish never met rolling deep tears gonna fall rolling deep heart inside hand gonna wish never met played beat tears gonna fall rolling deep could gonna wish never met rolling deep tears gonna fall rolling deep heart inside hand gonna wish never met played played played played beat ooh ooh ooh ooh real gonna able love like stranger history remember sure got baby really want bless soul got head clouds made fool boy bringing made heart melt cold core rumour got love anymore rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour half age guessing reason stayed heard missing telling people things like creep around heard rumours bless soul bless soul got head clouds made fool boy bringing made heart melt yet cold core rumour one leaving rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour words whispered ear tell story cannot bear hear said mean meant people say crazy things said mean meant heard rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour one leaving close enough start war floor god knows fighting say always say keep turning tables thumb breathe let close enough hurt rescue desert give heart think gave time say goodbye turning tables turning tables haunted skies see ooh love lost ghost found braved hundred storms leave hard try never knocked whoa keep turning tables thumb breathe let close enough hurt rescue desert give heart think gave time say goodbye turning tables turning tables next time braver savior thunder calls next time braver savior standing two feet let close enough hurt rescue desert give heart think gave time say goodbye turning tables turning tables turning tables yeah turning see left goodbye single word said final kiss seal sins idea state know fickle heart bitterness wandering eye heaviness head remember remember reason loved baby please remember last time thought completely erased memory often think went wrong less know know fickle heart bitterness wandering eye heaviness head remember remember reason loved baby please remember gave space could breathe kept distance would free hoped would find missing piece bring back remember remember reason loved baby please remember see let fall heart fell rose claim dark kissed lips saved hands strong knees far weak stand arms without falling feet side never knew never knew things would say never true never true games would play would always win always win set fire rain watched pour touched face well burned cried heard screaming name name lay could stay close eyes feel forever together nothing better side never knew never knew things would say never true never true games would play would always win always win set fire rain watched pour touched face well burned cried heard screaming name name set fire rain threw flames fell something died knew last time last time sometimes wake door heart caught must waiting even already help looking set fire rain watched pour touched face well burned cried heard screaming name name set fire rain threw flames fell something died knew last time last time let burn let burn let burn say better without know like least sides thought knew bear time drags lose mind reminded things find like notes clothes left behind wake wake done rise battle dignity become undone love willing take risk love willing take risk petrified scared step ride lose heart fail climb forgive give trying heard voice today know single word said one resemblance man met vague broken boy instead love willing take risk love willing take risk times try give bursting seams doubt almost fall apart burn pieces watch turn dust nothing ever taint love willing take risk love willing take risk still remember still love even free back place would choose poison spoke yesterday said hold breath sit wait home soon late love willing take risk love willing take risk love willing take risk love willing take risk give tried best gave everything everything less right let maybe got used well around still walk away tears gonna empty road without right take take take look back look back crumbling fool take love take love maybe leave help see nothing better everything need really given easily thought loved take take take look back look back crumbling fool take love take love change must slow bring home adjust knew everything take take take look back look back crumbling fool take take take look back look back crumbling fool take love take love take love hold closer one time say love last goodbye please forgive sins yes swam dirty waters pushed seen face every sky every border every line know heart greatest time miles heavens cried know left speechless sky cleared blue see future waiting ready love put hands everything different better waiting ready love put hands somebody different better let stay one night build world around pull light tell wrong child willing learn time miles heavens cried know left speechless sky cleared blue see future waiting ready love put hands everything different better waiting ready love put hands somebody different better time time miles miles heavens cried know left speechless time time miles miles heavens cried know left speechless know left speechless waiting waiting ready love put hands everything different better waiting ready love put hands somebody different better mind grow fonder every day lose time thinking face god knows taken long let doubts one want know scared every feeling every word imagined never know never try forgive past simply mine dare let one promise worthy hold arms come give chance prove one walk mile end starts mind hang every word say lose time mention name ever know feels hold close tell whichever road choose know scared every feeling every word imagined never know never try forgive past simply mine dare let one promise worthy hold arms come give chance prove one walk mile end starts know easy giving heart know easy giving heart nobody perfect trust learned know easy giving heart nobody perfect trust learned know easy giving heart nobody perfect trust learned know easy giving heart nobody perfect trust learned know easy giving heart dare let one promise worthy hold arms come give chance prove one walk mile end starts come give chance prove one walk mile end starts whenever alone make feel like home whenever alone make feel like whole whenever alone make feel like young whenever alone make feel like fun however far away always love however long stay always love whatever words say always love always love whenever alone make feel like free whenever alone make feel like clean however far away always love however long stay always love whatever words say always love always love however far away always love however long stay always love whatever words say always love always love always love love love love love heard settled found girl married heard dreams came true guess gave things give old friend shy like hold back hide light hate turn blue uninvited could stay away could fight hoped would see face would reminded never mind find someone like wish nothing best forget beg remember said sometimes lasts love sometimes hurts instead sometimes lasts love sometimes hurts instead know time flies yesterday time lives born raised summer haze bound surprise glory days hate turn blue uninvited could stay away could fight would hoped would see face would reminded never mind find someone like wish nothing best forget beg remember said sometimes lasts love sometimes hurts instead nothing compares worries cares regrets mistakes memories made would known bittersweet would taste never mind find someone like wish nothing best forget beg remember said sometimes lasts love sometimes hurts instead never mind find someone like wish nothing best forget beg remember said sometimes lasts love sometimes hurts instead sometimes lasts love sometimes hurts instead thought told would home soon could help good true fall short time every time charm creep closer closer near like fool fire fall pride like bomb explosion ticking call wiser one disguised greed child belongs knees found boy love ever stand beside river cried lay look want need thought would crumble knees first sight crawling back whisper leave man swear time stand stand found boy love ever stand beside river cried lay look want need taking must mistaken could never look eyes settle wrong ignore right found boy loves ever stand beside river cried lay look want need never woulda hitch hiked birmingham love never woulda caught train louisiana love never woulda run blinding rain without one dollar name love never woulda seen trouble love woulda gone like wayward wind love nobody knows better would wishing free love four cold walls least know lying still four cold walls without parole lord mercy soul never woulda gone side town love never woulda took mind track love never woulda loaded forty four put behind jail house door love four cold walls least know lying still four cold walls without parole lord mercy soul never woulda hitch hiked birmingham love never woulda caught train louisiana love never woulda loaded forty four put behind jail house door love love love story went met someone accident blew away blew away darkest days took sorrow took pain buried away buried away wish could lay beside day done wake face morning sun like everything ever known disappear one day spend whole life hiding heart away dropped train station put kiss top head watched wave watched wave went home skyscrapers neon lights waiting papers call home call home wish could lay beside day done wake face morning sun like everything ever known disappear one day spend whole life hiding heart away away yeah woke feeling heavy hearted going back started morning rain morning rain though wish old road brought calling home calling home wish could lay beside day done wake face morning sun like everything ever known disappear one day spend whole life hiding heart away spend whole life hiding heart away picture perfect memories scattered around floor reaching phone cause fight anymore wonder ever cross mind happens time quarter one alone need said would call lost control need know without need another shot whiskey stop looking door wishing would come sweeping way wonder ever cross mind happens time quarter one little drunk need said would call lost control need know without need yes would rather hurt feel nothing quarter one alone need said would call little drunk need know without need need baby need</t>
+  </si>
+  <si>
+    <t>baby baby baby baby baby baby supposed know something right baby baby let sight yeah show want tell baby need know loneliness killing must confess still believe still believe lose mind give sign hit baby one time baby baby reason breathe boy got blinded pretty baby nothing would way planned show want tell baby need know loneliness killing must confess still believe still believe lose mind give sign hit baby one time baby baby baby baby yeah yeah baby baby supposed know pretty baby let must confess loneliness killing know still believe give sign hit baby one time loneliness killing must confess still believe still believe lose mind give sign hit baby one time must confess loneliness killing know still believe give sign hit baby one time baby got something baby spin around earth moving feel ground every time look heart jumping easy see loving means much anything ever felt drive crazy sleep excited deep crazy feels alright baby thinking keeps night tell one see tell blue wasting feelings loving means much anything ever felt crazy sleep excited deep crazy feels alright every day every night drive crazy drive crazy baby excited deep crazy make feel alright baby thinking keeps night drive crazy drive crazy baby crazy make feel alright feels alright baby thinking keeps night baby thinking keeps night tell love like take pretty eyes away want stay every time come close move away want believe everything say sounds good really want move slow things know sometimes run sometimes hide sometimes scared really want hold tight treat right day night baby need time want shy every time alone wonder hope wait see one want believe everything say sounds good really want move slow things know sometimes run sometimes sometimes hide sometimes scared really want hold tight treat right day night really want hold tight treat right day night baby need time hang around see nowhere would rather love trust way trust sometimes run sometimes sometimes hide sometimes scared really want hold tight hold tight treat right day night day night sometimes run sometimes sometimes hide sometimes scared really want hold tight treat right day night day night really want hold tight day night sometimes run sometimes sometimes hide sometimes scared really want hold tight ooh ooh like great boy women insoles thinkin great exphidition popped chose come throwing throwing scene though come come follow britney yeah hmm soda pop watch fizz pop clock ticking stop stop hmm soda pop bop shu bop clock tickin stop might start riding music tonight clever way get pops keep flowing like fire ice give little blind ooh hmm soda pop watch fizz pop hmm clock tickin stop hmm soda bop bop shu bop shu bop clock tickinand stop ooh ooh plan definite plan level vibes vibes level vibes agian ooh yeah see superlative self yeah wicked time end yaeh hmm soda pop watch fizz pop ooh clock tickin stop stop hmm soda pop bop shu bop shu bop clock tickin stop much pop losing sittin watchin clock turn tables baby let top take top one else waiting cha got take pop shot never stop shu bop shu bop yeah hmm clock tickin stop hmm soda pop bop shu bop shu bop clockis tickin stop stop like never lovin til drop drop drop yeah flex tonight break door yeah party ever stop hmm soda pop watch fizz pop yeah clock tickinand stop stop hmm soda pop bop shu bop shu bop hmm soda pop watch fizz pop clock tickin stop stop bet pop like never popped keep commin back fdor sure sure cool britney wee get floor yeah break dawn hmm soda pop watch fizz pop clock tickin stop stop hmm soda pop bop shu bop shu bop ooh yeah clock tickinand stop gotta hmm soda pop watch fizz pop yeah clock tickin stop bend mmm love yeah yeah yeah sitting alone room thinking times love looking picture hand trying best understand really want know wrong love felt strong tonight know could make right know live without love born make happy one heart born make happy always forever way life know live without love born make happy know fool since gone would better give carry love living dream way life want cry tear forgive ooh tonight know could make right know live without love born make happy one heart born make happy always forever way life know live without love born make happy yeah yeah would anything would give world would wait forever girl call name call name ooh show much care alright ooh born make happy yeah ooh yeah know live without love born make happy one heart born make happy always forever way life know live without love born make happy born make happy yeah yeah always forever way life know live without love born make happy never look back said know would miss loneliness ahead emptiness behind hear joy tears hopes fears know still miss somehow bottom broken heart thing two would like know first love true love first kisses last rose bottom broken heart even though time may find somebody new real love never knew love bottom broken heart baby said please stay give love chance one day could worked things taking time love put dart dreams heart back started never thought would end promised somebody else made perfectly clear still wish never look back said know would miss yeah say mind know give leave behind let begin come let show things make alright let make clear put trust yes need someone turn around feeling low baby let know let make know nothin would love come let show things make alright let make clear put trust yes take stand forever give one chance show much care need someone turn around sorrow let know time may take apart still love promise stars stars falling keep calling promise one everything never untrue promise back love anything give stars buy moon even longest nights even darkest days love find away stars falling keep calling still love dreams fading waiting still love summer breeze winter sun springtime soul autumn touch gold sky rain way love flows cuz smile heart breathe soul even find apart hold hopes dreams forever hearts tell feel finally know feel tell real heart tells real real real time take apart true always heart dreams matter many miles promise forget day kissed day met sky may fall stars still still love friends say away every day say break away missing fun games smile words tell quickly disappear speak voice hear spend days ooh ooh spend days spend nights nights thinking thinking babe spend days day night spend nights nights thinking stay mind think time time day night feels right end sight ooh day spend around passes fast night spend without longer last spend days spend days thinking babe spend nights nights thinking day night spend days days thinking spend nights nights thinking thinking babe ooh know get enough get enough yeah know hours ever ever yeah yeah spend days spend nights thinking spend days baby spend nights day night thinking day night spend days thinking thinking spend nights spend days yeah thinking spend days thinking spend nights thinking baby thinking spend days day night day night hours seems like days since went away check screen see answer phone guess want left alone sending heart soul say sorry sorry give one chance make mail heart say love never die know know still care email back say love stay alive forever email heart whoa see mind coming line opening letter sent hundred times picture two look good please forgive hurt put sorry sorry give one chance make mail heart say love never die know know still care know still care email back say love stay alive forever say say forever forever email heart drums keep pounding rhythm brain dee dee dee dee dee wait till reached age blah blah history turned page blah blah still want hear brand new thing huh still need song sing huh beat goes beat goes beat goes beat goes beat goes beat goes drums keep pounding rhythm brain dee dee dee dee dee love first last thing minds tomorrow end time beat goes beat goes beat goes beat goes beat goes beat goes beat goes drums keep pounding rhythm brain dee dee dee dee dee still move rhythm like still dream sharing first kiss beat goes beat goes beat goes beat goes drums keep pounding rhythm brain dee dee dee dee dee world keeps turning faster everyday everyday still want dance night away beat goes beat goes beat goes beat goes yeah say world nothing lasts forever believe true cause way feel together know way always feel forever thats long true make vow promise forever never stop loving come day world stops turning stars fall sky feeling last suns start burning want love end time gonna take lifetime give love love feels tonight forever never stop loving never promised happy ending never said would make cry summer love keep warm long autumn goodbye autumn goodbye autumn goodbye thinking love lives sweet summertime sad true true true must leave behind hearts minds april september bittersweet love share forget remember memories fade heart place smile face maybe someday friends love find red leaves blue tomorrows time give back love shared time borrowed april september bittersweet love share forget remember baby leave behind summertime hearts minds remind forget day met day cried autumn goodbye never promised happy ending never said would make cry summer love keep warm long autumn goodbye autumn goodbye autumn goodbye walking time looking answer way done help wonder everything could change turned world around since came along love found seems like wrong deep heart know right start always knew never let love ohhoohh want rest life people search seems lifetime find love like everything wished never felt bliss comes chance everyones life beleive happen twice since felt glory love want spend forever ever deep heart deep heart want rest life want rest life</t>
+  </si>
+  <si>
+    <t>folks call maverick guess diplomatic never kind along avoiding confrontation sake conformation admit tend sing different song sometimes afraid wear different hat columbus complied old world might still flat nothing ventured nothing gained sometimes got grain well accused making rules must rebel blood running veins hypocrite see get way know play game old noah took much ridicule building great ark forty days forty nights looking pretty smart sometimes best brave wind rain strength grain well folks share point view worried gonna sink swiim would like buck system deck stacked little scared limb gonna make difference gonna leave mark follow like bunch sheep got listen heart busting like old john wayne sometimes got grain nothing ventured nothing gained sometimes got grain eyes cold restless wounds almost healed would give half texas change way feels knows love tulsa knows gonna well woman flesh blood damned old rodeo well bulls blood dust mud roar sunday crowd white knuckles gold buckle win next around boots chaps cowboy hats spurs latigo ropes reins joy pain call thing rodeo best hold love comes call need controls back wall long girl see time know woman wants cowboy like wants rodeo well bulls blood dust mud roar sunday crowd white knuckles gold buckle win next around boots chaps cowboy hats spurs latigo ropes reins joy pain call thing rodeo drive cowboy crazy drive man insane sell everything owns pay play game broken home broken bones show years spent chasing dream call rodeo well bulls blood dust mud roar sunday crowd white knuckles gold buckle win next around boots chaps cowboy hats spurs latigo ropes reins joy pain call thing rodeo broncs blood steers mud call thing rodeo last time saw turning colder years ago last heard moved boulder know something time year spins head around takes back makes wonder tearing apart filling mind emptying heart hear call time cold wind blows wonder knows laughs dialed old number one knew name hung phone sat wondered would ever done took walk evening wind clear head somehow tonight lie thinking tearing apart filling mind emptying heart hear call time cold wind blows wonder knows tearing apart filling mind emptying heart hear call time cold wind blows wonder knows yesterday thanked oiling front door morning wakes thankful anymore never know much cared could stay never know reason always run away burning bridges one one undone always hoping someday gonna stop running around every time chance comes another bridge goes last night talked old times families home towns whe wondered would agree would settle told would cross bridge whenever arrived flames see standing side burning bridges one one undone always hoping someday gonna stop running around every time chance comes another bridge goes like ashes water drift away sorrow knowing day lesson finally learned standing river staring across tomorrow bridge need get bridge burned burning bridges one one undone always hoping someday gonna stop running around every time chance comes another bridge goes another bridge goes papa drove truck nearly life know drove mama crazy trucker wife part could handle alone guess needed hold telephone papa called mama every night ask kids alright mama would wait call come daddy would hang gone mama looker lord shined papa good jealous kind papa loved mama mama loved men mama graveyard papa pen well bound happen one night papa came home kids dozen roses bottle wine looking surprise fine heard cry mama hall heard bottle break bedroom wall old diesel engine made eerie sound papa fired headed town well picture paper showed scene real well papa rig buried local motel desk clerk said saw real clear never hit brakes shifting gears mama looker lord shined papa good jealous kind papa loved mama mama loved men mama graveyard papa pen well shamemeless comes loving anything want anything standing world see baby left far fall know man ever insecure world living break easy pride need satisfied shameless honey prayer every time see standing upon knees changing swore would never compromise convinced otherwise anything please see life never found could resist could turn could walk away anyone ever knew walk away never let anything much control work hard call life made world worked perfectly world refuse never much lose shameless know easy man strong say sorry admit wrong never lost anything ever missed never love like hands shameless power want anyhow got let shameless shameless man make total fool wanted know shameless wanted know shameless knees shameless fire burning bright house tonight slow music playing soft candlelight lips keep tasting warm red wine arms mind snow piled high highway tonight ship lost sea ocean white eighteen wheels anchored somewhere dover wish could hold instead hugging old cold shoulder old highway like woman sometimes best friend real jealous kind lady leads life dream mistress keeps ones love snow piled high highway tonight ship lost sea ocean white eighteen wheels anchored somewhere dover wish could hold instead hugging old cold shoulder god wish could hold instead hugging old cold shoulder hey neighbors lights came last night like every time little fight getting point get along always fighting things dead gone bury hatchet leave handle sticking always digging things forget comes forgetting baby doubt bury hatchet leave handle sticking well kissing cindy hey deny long time ago let dead dog lie want cut deep joe caught creek ten years ago bury hatchet leave handle sticking always digging things forget comes forgetting baby doubt bury hatchet leave handle sticking hey got enough wage full scale war could ever remember fighting bury hatchet leave handle sticking always digging things forget comes forgetting baby doubt bury hatchet leave handle sticking bury hatchet leave handle sticking girl wagon train headed west across plains train got lost summer storm could move west could home saw riding rain took charge wagons saved train looked heart gone train went west stayed lonesome dove farmer daughter gentle hand blooming rose bed sand loved man wore star texas ranger known near far got married child times tough west wild surprise day learned texas man would return lonesome dove back back rio grande christian woman devil land learned language learned fight never learned beat lonely nights lonesome dove lonesome dove watched boy grow man angel heart devil hand wore star see texas lawman legacy one day word blew town seemed men shot father robbed bank jerico thing mexico lonesome dove shadows stretched across land shots rang rio grande smoke finally cleared street men lay ranger feet legend tells day shots coming alleyway though one knows held gun doubt ask someone lonesome dove back back rio grande christian woman devil land learned language learned fight never learned beat lonely nights lonesome dove lonesome dove know dream like river ever changing flows dreamer vessel must follow goes trying learn behind never knowing store makes day constant battle stay shores sail vessel river runs dry like bird upon wind waters sky never reach destination never try sail vessel river runs dry many times stand aside let waters slip away put tomorrow become today sit upon shoreline say satisfied choose chance rapids dare dance tide yes sail vessel river runs dry like bird upon wind waters sky never reach destination never try sail vessel river runs dry bound rough waters know take falls good lord captain make yes sail vessel river runs dry like bird upon wind waters sky never reach destination never try sail vessel river runs dry yes sail vessel river runs dry river runs dry girl bar bought beer would like know new around gal danced says alone friends left needs ride home others gave eye knew wasting time one lover give heart want broke two tell one tonight one hold arms tight forgotten wrong given right tell one tonight smile pretend never know holding close want girl need close eyes honey see tell one tonight one hold arms tight forgotten wrong given right tell one tonight</t>
+  </si>
+  <si>
+    <t>dearly beloved gathered today get thing called life electric word life means forever mighty long time tell something else afterworld world never ending happiness always see sun day night call shrink beverly hills know one everything alright instead asking much time left ask much mind baby life things much harder afterworld life elevator tries bring crazy punch higher floor like world living take look around least got friends see called old lady friendly word picked phone dropped floor heard gonna let elevator bring let let crazy let get nuts let look purple banana put truck let excited know maybe cause gonna die better live grim reaper come knocking door tell gonna let elevator bring let let crazy let get nuts look purple banana put truck let come baby let get nuts yeah gonna let elevator bring let crazy said let crazy crazy let let let everything alright make everything wrong pills thrills dafodills kill hang tough children coming coming coming take away disguise pounding heart beats strong eyes say turn care care care pretty baby take come touch place calling name want much must play game care care care pretty baby take care spend night mansion care spend night town want spend night together want spend night arms around right sheer perfection thank drive crazy drive night break connection care care care pretty baby take care care care pretty baby take take take honey take baby baby baby gonna baby baby baby make waste time make lose mind baby baby baby baby stay tonight baby baby baby kisses please right hard find beautiful ones hurt everytime paint perfect picture bring life vision one mind beautiful ones always smash picture always everytime told baby love baby baby baby got married would cool make confused beautiful ones always seem lose baby baby baby baby baby baby baby gonna baby want want cause want said want tell babe want gotta know gotta know want baby baby baby listen may know going babe said may know need one thing one thing certain baby know want yeah please baby please baby begging knees want yes baby baby baby baby want yes wendy yes lisa water warm enough yes lisa shall begin yes lisa love life must something wrong machinery love life tell tell gone somebody please please tell hell wrong find righteous computer blue find righteous computer blue knew girl named nikki guess could say sex fiend met hotel lobby masturbating magazine said would like waste time could resist saw little nikki grind took castle could believe eyes many devices everything money could buy said sign name dotted line lights went nikki started grind nikki castle started spinning maybe brain tell body never loving kick behind show mercy sho nuff sho nuff show grind darling nikki woke next morning nikki looked found phone number stairs said thank funky time call whenever want grind nikki ohhhh come back nikki come back dirty little prince want grind grind grind grind grind grind grind grind grind hello fine know lord coming soon coming coming soon dig picture engaged kiss sweat body covers darling picture dream courtyard ocean violets bloom animals strike curious poses feel heat heat leave standing alone world cold cold maybe demanding maybe like father bold maybe like mother never satisfied never satisfied scream sounds like doves cry touch stomach feel trembles inside got butterflies tied make chase even doves pride leave standing alone world cold world cold maybe demanding maybe like father bold maybe like mother never satisfied never satisfied scream sounds like doves cry leave standing alone world cold world cold maybe demanding maybe maybe like father maybe like father bold know bold maybe like mother maybe like mother never satisfied never never satisfied scream scream sounds like doves cry doves cry doves cry doves cry doves cry doves cry doves cry cry cry doves cry doves cry doves cry doves cry doves cry doves cry doves cry cry darling cry cry cry cry woman man something never understand never beat never lie evil forgive would die yeah darling want would die lover friend something never comprehend need worry need cry messiah reason would die yeah darling want would die sinner told fire cold make happy sad make good bad human dove conscious love really need know believe yeah would die yeah darling want would die yeah say one time would die darling want would die would die would die would die would die hey look tell like see hey got money honey rich personality hey check baby know night see point view even scream shout baby star might know baby star want stop reach top sing star hey take listen tell like hear turn say word gone honey know nothing wrong ears hey check better look might late might late lucks gonna change tonight gotta better life take picture sweetie got time waste baby star might know baby star want stop reach top sing star everybody say nothing come easy got baby nothing come hard see see gotta scream shout gotta scream shout baby baby baby baby baby baby baby yeah yeah yeah yeah yeah yeah star might know baby star want stop reach top sing star baby baby baby baby star baby baby baby somebody star baby star star star doctor baby baby baby baby baby baby baby baby star like fuck know taste mouth really fuck know come baby let crazy never meant cause sorrow never meant cause pain wanted one time see laughing want see laughing purple rain purple rain purple rain purple rain purple rain purple rain purple rain want see bathing purple rain never wanted weekend lover wanted kind friend baby could never steal another shame friendship end purple rain purple rain purple rain purple rain purple rain purple rain want see underneath purple rain honey know know know times changing time reach something new means say want leader seem make mind think better close let guide purple rain purple rain purple rain purple rain purple rain know singing come raise hand purple rain purple rain want see want see purple rain good morning children take look window world falling almost time dance dance dance electric rhythm love love blind love enemies much time much time look world falling rhythmless house blinded prophecy hear master calling wanted got dance dance electric listen rhythm soul come dance dance electric better love almost time make happy give another someone smile dance dance electric never mind hatred try brand new style dance dance electric listen rhythm soul come dance dance electric better love almost time love enemies look living babylon making feeling love youth gone comes dawn light truth shine fall got dance dance electric listen rhythm soul come dance dance electric better love almost time see light inside darkened live life bad whatever let light dark love light ever dance dance electric listen rhythm soul come dance dance electric better love almost time almost time dance dance electric listen rhythm soul come dance dance electric better love almost time one two three four yeah come baby hurt die heaven still desire make fire let hurt upper room let say sha sha boom come baby hurt upper room sha sha boom love sex upper room alright hit huh two cry want still resist come kiss supposed sleep without arms keep singing sha sha boom come baby hurt upper room sha sha boom love sex upper room photos get low boom boom sha boom sad sad happy happy one single sexy glance two kind party cool sha boom put sunday best clothes sharp sha boom die heaven let fantasize new cool surprise let try come together keep singing sha sha boom come baby hurt upper room sha sha boom love sex upper room yeah upper room keep singing sha sha boom come baby hurt upper room sha sha boom love sex upper room upper room feel alright yeah feel alright yeah feel alright let hear say let let hear say yeah yeah yeah let hear say yeah yeah whoo yeah alright yeah let hear say yeah ooh lord huh sha sha boom whoo come baby hurt upper room sha sha sha boom yeah love sex upper room yeah keep singing sha sha boom come baby come baby hurt upper room hurt baby yeah sha sha boom alright love sex upper room yeah right wendy yes lisa water warm enough yes lisa shall begin yes lisa love life must something wrong machinery love life tell gone somebody please please tell hell wrong till find righteous one computer blue till find righteous one computer blue baby somebody please please tell wrong baby tell gone somebody please please tell hell wrong ooh till find righteous one computer blue till find righteous one computer blue computer verge breakdown come baby make poor lonely computer time someone programmed time learned love lust four letters entirely different words poor lonely computer poor poor lonely computer really know love wave hands air everybody sing everybody work work work everybody work work work everybody work like living home alone house lived many hallways long walk bedroom hallway represented emotion every one vastly different next one day decided name one side one hand thigh wait sort half step behind yeah grip thigh intensified walked slowly corridor named hallway lust passed thru next one named fear grip loosened walked faster hands trembling let drop side wrote word insecurity looked eyes smiled demon smile quickly walked next corridor corridor named almost suddenly stopped picked word hate gone picked last one pain verge breakdown life without love hell computer blue father father sun gone father father dawn dawn father father dawn dawn father shall church sundays shall stay home pray shall try make happy shall try make stay narrow minded computer somebody please please tell time someone programmed somebody please please tell wrong time learned women butterflies computers like computer blue baby chauvinistic computer time someone programmed fall love fast hate soon take granted feeling mutual feeling mutual computers like computer blue feel kind love even know name kind love takes two want ashamed baby shock wild sexual electricity extraordinaire come take advantage undress even know even care feel kind sexual current tell feel bodies want together girl want electric body baby shock lips darling know technicolor climax fingertips electric intercourse electric intercourse want electric intercourse electric intercourse want make love love love electric body baby shock lips darling know technicolor climax fingertips electric intercourse want electric intercourse electric intercourse want make love want make electric intercourse electric intercourse want electric intercourse electric intercourse want make love yeah yeah moment came town life sings around twenty quarters name five george washingtons one blame look written sky destiny fall love fight stronger destiny fall love fell love knew saw walk talk know say wanted love anyways look written sky destiny fall love fight stronger destiny fall love fell love look saying ket get married nothing ready settle want baby gotta finest specimen ever seen destiny fall love fell love fell love fell love smitten kiss steal babe would never treat like passions tingle let find room want want want want want road leads live see house open door alright alright house used play open nights open days alright alright garden emotions grow twenty four feelings row alright yeah alright talking roadhouse garden roadhouse garden place evil died see door come inside alright alright house life play let color scare away alright alright garden emotions grow give love open soul alright yeah alright talking roadhouse garden yeah roadhouse garden come let groove talking roadhouse garden road road roadhouse garden roadhouse garden garden roadhouse garden yeah mmmm mmm something matter baby going insane something inside keeps talking brain stop satanic lust know hold body says must possessed ooh know ooh possessed yes ooh stone crazy love something matter baby see voice hear begging wish need wish care got make love cuz much much bare possessed yes know ooh possessed stone crazy love possessed know possessed stone crazy ooh something matter baby mind daze tripping love hard lay stop yearning lord knows tried free dispair much young die possessed ooh know gonna possessed ooh stone crazy love possessed ooh yes know gonna possessed yeah stone crazy love ooh yeah ooh yeah ooh yeah ooh yeah possessed stoned head baby said possessed mmm mmm want lay bed possessed yes knowing possessed yes yeah stone crazy love yeah yeah pussy sugar yeah yeah possessed well going insane hey possessed want things baby want things growing inside negro brain yeah yeah yeah yeah leaving choice gonna hit guitar baby yes mmm yes bobby step step mmm step mmm step step head baby yeah possessed possessed baby fucked head want use bed yeah possessed well got lust baby know got lust yeah want hold want hold want hold body says must must yeah baby must mean yeah yeah baby baby baby know pussy puts quite awful fuss yes puts fuss yeah know means gonna get wet pussy get wet mmm mmm something matter baby going insane something inside keeps talking brain stop satanic lust want hold body says must possessd yeah possessed stone love stone love baby stone love baby stone crazy love baby boys like jam possessed understand quirky ways crazy logic leaves daze think neurosis phase got wonderful ass wonderful wonderful wonderful got wonderful ass think friends bedmates true love sex relate sensibilities aggravate got wonderful ass wonderful wonderful wonderful got wonderful ass listen educate tolerate negotiate communicate litigate graduate appreciate separate interrogate violate fluctuate perpetrate masturbate stimulate stimulate stimulate say love good want trust wish could cannot build house plastic wood got wonderful ass wonderful wonderful wonderful got wonderful ass got wonderful wonderful ass guess hate ideas fun yeah baby rate ass number one usually time drink glass always find time ass know talking baby yeah talkin ass sexy yeah revolution heard revolution heard wonderful wonderful got wonderful ass got wonderful ass understand quirky ways girl got wonderful got wonderful got wonderful wonderful ass understand quirky ways yeah understand quirky ways crazy logic leaves daze daze like ass got wonderful ass baby think friends bedmates yeah well sleep around time hey baby true love sex relate yeah true true love got wonderful ass babe sensibilities aggravate understand try fuck love relate yeah got wonderful ass like like said like said like wonderful know like ass really want rock want roll velvet kitty cat man best friend furry cuddly fat take swing bat velvet kitty cat every day night velvet kitty cat wish boyfriend rats mmm nothing underneath hats sad kitty cat mmm want money fancy cars want body eat cookies till gets fat mmm want true love velvet kitty cat ahead play cat want rock want roll velvet kitty cat man best friend furry cuddly fat would let pet gotta skat velvet kitty cat mmm mmm would let pet gotta skat velvet kitty cat want true love velvet kitty cat mmm pet gotta skat velvet kitty cat mmm velvet kitty cat mmm katrina makes paper dolls one doll every day one doll every day old man gone katrina makes paper dolls every time told every time told love strong way tell real baby much harder body hot says love game seems many circles maybe makes world round katrina makes paper dolls look play games katrina makes paper dolls better lonely love make lonely eyes dame ooh way tell real baby much harder body hot says love game seems many circles maybe makes world round katrina makes paper dolls better lonely love make lonely eyes dame paper dolls ooh katrina paper dolls love make horny ooh katrina paper dolls ooh katrina paper dolls katrina paper dolls katrina paper dolls could tell stories get tired could play mind would probably say liar waste time scared though met energy let somewhere fuck could say sorry life would true say things love scared though met want bad baby want come fuck ooh fuck ooh fuck something said many times difference make see room electric okay well maybe know smell desire honey could tell things get excited things never heard know kama sutra could write half many words scared kiss going mad baby take clothes fuck ooh fuck ooh fuck wait minute let turn lights fuck better come blow candle baby turn candle ever one choose alright going night long want undress babe shall undress leave clothes want still want sex two people alright whether love long trying hurt nobody long hot baby want make love two times maybe three yeah want four five baby alright let tell little baby yeah big strong man girl boy toy alright let dance fuck baby fuck fuck one another whatever want got electric ass baby got electric thighs baby wait longer child getting stronger baby open eyes see gold chain around waist yeah want give people tell got taste blow candle let see true baby excellent really like sorry know never felt way really happy really well guess met deserve special like perfect really many things want many things want listen ever love anybody else reason feel insecure best would believe one ever ever hurt yes love know sounds strange knew loved split second kissed darling kiss wait please fuck</t>
+  </si>
+  <si>
+    <t>found missing always run looking someone like know need took time see give good love baby good take heart mine hands give good love never much baby give good love never stopping always searching perfect love kind girls like dream stop looking around loves love stay stay get mind matter wishing makes difference think living fantasy late night rendezvous love sick fool might pouring rain still nothings changed feel shame fool fool keep thinking baby tell gonna keep thinking want like river wine intoxicate mind thinking want pick let thinking thinking got thinking thinking maybe weeping game hard face need like need reason heart makes feel way hope feel way might pouring rain like fool insane run love sick fool got thing love sick fool words music kashif lala someone someone alone friday night waiting beside phone radio really getting along wish could find way party break day would sure meet guy would special momma comes asks dreaming sitting alone fun way ever find someone young seventeen someone someone got find someone someone someone got find someone party angie house people packed walls sitting corner trying make sense least expect meeting guy see dreams walking asking would like come dance think found someone need somebody need somebody someone finding dreams believe come looking find joy happiness come actually found someone stolen moments share got family need though tried resist last list man gonna saving love easy living alone friends try tell find man time try break cry would rather home feeling blue saving love used tell would run away together love gives right free said patient wait little longer old fantasy got get ready minutes gonna get old feeling walk door tonight night feeling alright making love whole night saving love yes saving love yes saving love woman gonna love tonight night feeling alright making love whole night saving love yeah saving loving yes saving love like candle burning bright love glowing eyes flame light way burns brighter everyday nobody loves like like leaf upon wind could find place land dreamed hours away wondered everyday dreams come true nobody loves like would never met would right funny life falls place somehow touched heart places never even knew nobody loves like words without tune song still unsung poem rhyme dancer time baby nobody loves like would never met would right funny life falls place somehow touched heart places never even knew nobody loves nobody loves nobody loves nobody loves like nobody loves like nobody loves like boy know one dream looks eyes takes clouds ooh lose control seem get enough wake dreaming tell really love know trust feelings know know love deceiving know know really loves say prayer every heart beat fall love whenever meet asking know things know thinking try phone shy speak falling love bitter sweet love strong feel weak wake shaking wish near said mistaking feel really love tell know trust feelings know know love deceiving know know really loves say prayer every heart beat fall love whenever meet asking know things know thinking try phone shy speak falling love bitter sweet love strong feel weak loves loves loves loves loves loves know know know know know really loves say prayer every heart beat fall love whenever meet asking know things know thinking try phone shy speak falling love bitter sweet love strong feel weak know know know know say prayer know know fall love know hey know asking finally took moment realizing coming back finally hit started counting teardrops least million fell eyes began swell dreams shattered ever since met love known forget though must face alone drifting lonely sea wishing would come back matters drifting lonely sea holding memories hurts know much shows looked around found another love someone else arms dreams shattered smile used greet brightened someone else day took smile away left memories time pass slowly feel alone love strike like lightning find heart home seen movies read book never thought would feel touch took take good care heart take good care heart baby first take one break love keeps feeling good waited love forever one take good care heart come make magic hypnotized get closer drowning eyes one needed love line glad gave gave mine take good care heart take good care heart baby first take one break love keeps feeling good waited love forever one take good care heart love keeps feeling good waited love forever one take good care heart take good care heart take good care heart take good care baby first take one break love keeps feeling good waited love forever one take good care heart take good care heart take good care heart please baby first take one break love believe children future teach well let lead way show beauty possess inside give sense pride make easier let children laughter remind used everybody searching hero people need someone look never found anyone fulfilled needs lonely place learned depend decided long ago never walk anyone shadows fail succeed least live believe matter take take away dignity greatest love happening found greatest love inside greatest love easy achieve learning love greatest love believe children future teach well let lead way show beauty possess inside give sense pride make easier let children laughter remind used decided long ago never walk anyone shadows fail succeed least live believe matter take take away dignity greatest love happening found greatest love inside greatest love easy achieve learning love greatest love chance special place dreaming leads lonely place find strength love hold touch make woman give love sweet surrender tonight hearts beat one hold touch make woman tonight something eyes see pure simple honesty hold arms tonight fill life pleasure let waste precious time moment treasure hold arms tonight make last forever morning sun appears find way together believe say love know take granted tonight magic begun hold touch make woman tonight something eyes see betray trust hold touch make woman make woman tonight</t>
+  </si>
+  <si>
+    <t>weekend comes town seven days soon ones make break rules well saw captain kidd sunset tell boys command chino danced tango broomstick hand said alright alright good time alright alright want cross line break side let rock let stop fire burning control let rock let night loose got let rock broadway everybody goes get rocking horse blast radio well saw roxie table girlfriend give king swing time said alright alright good time alright alright want cross line break side shot heart blame darling give love bad name angel smile sell promise heaven put hell chains love got hold passion prison break free loaded gun nowhere run one save damage done shot heart blame give love bad name bad name play part play game give love bad name bad name give love bad name paint smile lips blood red nails fingertips school boy dream act shy first kiss first kiss goodbye loaded gun nowhere run one save damage done shot heart blame give love bad name bad name play part play game give love bad name bad name give love shot heart blame give love bad name play part play game give love bad name bad name shot heart blame give love bad name bad name play part play game give love bad name bad name give love give love bad name give love give love bad name give love give love bad name give love give love bad name upon time long ago tommy used work docks union strike luck tough tough gina works diner day working man brings home pay love love says gotta hold got make difference make got lot love give shot whoa half way whoa living prayer take hand make swear whoa living prayer tommy got six string hock holding used make talk tough tough gina dreams running away cries night tommy whispers baby okay someday gotta hold got make difference make got lot love give shot whoa half way whoa living prayer take hand make swear whoa living prayer living prayer gotta hold ready live fight got whoa half way whoa living prayer take hand make swear whoa living prayer whoa half way whoa living prayer take hand make swear whoa living prayer read papers places comes thirty two flavors would tell one favorite could white house alleys president long tall sally live die without yes would senorita kitchen fistful dynamite call stop fun tonite alright start fire without spark something guarantee hide infection starts love social disease look find try run always behind play hide seek like blind kid till caught yeah caught say took held ransom tall dark skinny handsome talk telephone doctor see pill take know prescription gonna wipe one away full high grade octane could run bullet train double know sure know cure make blind man see names change every day seems wasting away another place faces cold would drive night get back home cowboy steel horse ride wanted dead alive wanted dead alive sometimes sleep sometimes days people meet always separate ways sometimes tell day bottle drink times alone think cowboy steel horse ride wanted wanted dead alive wanted wanted dead alive ride cowboy steel horse ride wanted wanted dead alive walk streets loaded six string back play keeps might make back everywhere still standing tall seen million faces rocked cowboy steel horse ride wanted dead alive cowboy got night side wanted dead alive ride dead alive still drive dead alive dead alive dead alive dead alive dead alive got nasty reputation sticky situation tell true say nobody better well together show gun run gonna set night fire run gun playing win raise hands want let raise hands want let feeling show raise hands new york chicago raise hands new jersey tokyo raise hands front line waste time walk looking surrender raise flag defend gun run gonna set night fire run gun playing win young still child still innocence painted smiles called passed lady night looked eyes said changes one thing always stays without love nothing without love nothing else get night nothing else feels right without love saw man lonely street broken man looked like one knows pain living lost love still forgiven said changes one thing always stays nothing without love nothing else love burn bright nothing would mean nothing without love see life things took granted love passed many second chances afraid afraid nothing without love nothing else love burn bright nothing would mean nothing without love could see inside heart would understand would never mean hurt baby kind man might say sorry yeah might talk tough sometimes might forget little things keep hanging line world know romeo juliet boy meets girl promises forget cast eden gate regrets fire cry would die would cry would anything would lie know true baby would die would die would cry came right know true baby would die might savior never king might send roses buy diamond rings could see inside maybe would know love like hunger without would starve world know romeo juliet boy meets girl promises forget cast eden gate regrets fire cry sit smokey room night end pass time strangers bottle friend remember used park butler street dark remember lost keys lost backseat baby remember used talk busting would break hearts together forever never say goodbye never say goodbye old friends hoping would never end say goodbye never say goodbye holding gotta try holding never say goodbye remember days skipping school racing cars cool six pack radio need place remember prom night fight band played favorite song held arms strong danced close danced slow swore would never let together forever never say goodbye never say goodbye old friends hoping would never end say goodbye never say goodbye holding gotta try holding never say goodbye guess would say used talk busting would break hearts together forever never say goodbye never say goodbye old friends hoping would never end say goodbye never say goodbye holding gotta try holding never say goodbye joey comes sacred part town sometimes talk tough feet touch ground sidewalk soldiers sing midnite blues old men recite story lines young like say yeah cruising backbeat yeah making love backseats wild wild streets member boy brigade date girl next door know made daddy crazy made want looking trouble know boy want fight tonight headed thru bathroom window daddy know gonna alright said yeah cruising backbeat yeah making love backseats wild wild streets wild wild streets wild wild streets wild wild streets sometimes town pretty know bad like girl looks happy whe inside sad got code honor nobody going walk vain trough kid parade hometown</t>
   </si>
   <si>
     <t>https://jamesclear.com/great-speeches/the-danger-of-a-single-story-by-chimamanda-ngozi-adichie</t>
@@ -238,6 +472,48 @@
     <t>https://jamesclear.com/great-speeches/your-elusive-creative-genius-by-elizabeth-gilbert</t>
   </si>
   <si>
+    <t>https://jamesclear.com/great-speeches/the-common-denominator-of-success-by-albert-e-n-gray</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/runnin-down-a-dream-by-bill-gurley</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/learning-to-learn-by-richard-hamming</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/2005-stanford-commencement-address-by-steve-jobs</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/the-multidisciplinary-approach-to-thinking-by-peter-kaufman</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/make-your-bed-by-admiral-william-h-mcraven</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/finding-your-own-vision-by-arno-rafael-minkkinen</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/2007-usc-law-school-commencement-address-by-charlie-munger</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/roadkill-on-the-information-highway-by-nathan-myhrvold</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/achieving-your-childhood-dreams-by-randy-pausch</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/1999-mount-holyoke-commencement-speech-by-anna-quindlen</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/i-wish-you-bad-luck-by-john-roberts</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/do-schools-kill-creativity-by-ken-robinson</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/great-speeches/the-fringe-benefits-of-failure-and-the-importance-of-imagination-by-j-k-rowling</t>
+  </si>
+  <si>
     <t>https://www.azlyrics.com/j/jackson.html</t>
   </si>
   <si>
@@ -266,6 +542,39 @@
   </si>
   <si>
     <t>https://www.azlyrics.com/b/beatles.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/h/houston.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/b/boston.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/b/beegees.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/s/springsteen.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/s/santana.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/a/adele.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/s/spears.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/p/prince.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/b/bonjovi.html</t>
+  </si>
+  <si>
+    <t>speech</t>
+  </si>
+  <si>
+    <t>song</t>
   </si>
 </sst>
 </file>
@@ -636,13 +945,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,285 +964,807 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>83</v>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -958,6 +1789,33 @@
     <hyperlink ref="D19" r:id="rId18"/>
     <hyperlink ref="D20" r:id="rId19"/>
     <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/communication_data_bow.xlsx
+++ b/communication_data_bow.xlsx
@@ -301,145 +301,145 @@
     <t>"Slippery When Wet"</t>
   </si>
   <si>
-    <t>storyteller would like tell personal stories like call danger single story grew university campus eastern nigeria mother says started reading age two although think four probably close truth early reader read british american children books also early writer began write age seven stories pencil crayon illustrations poor mother obligated read wrote exactly kinds stories reading characters white blue eyed played snow ate apples talked lot weather lovely sun come despite fact lived nigeria never outside nigeria snow ate mangoes never talked weather need characters also drank lot ginger beer characters british books read drank ginger beer never mind idea ginger beer many years afterwards would desperate desire taste ginger beer another story demonstrates think impressionable vulnerable face story particularly children read books characters foreign become convinced books nature foreigners things could personally identify things changed discovered african books many available quite easy find foreign books writers like chinua achebe camara laye went mental shift perception literature realized people like girls skin color chocolate whose kinky hair could form ponytails could also exist literature started write things recognized loved american british books read stirred imagination opened new worlds unintended consequence know people like could exist literature discovery african writers saved single story books come conventional middle class nigerian family father professor mother administrator norm live domestic help would often come nearby rural villages year turned eight got new house boy name fide thing mother told family poor mother sent yams rice old clothes family finish dinner mother would say finish food know people like fide family nothing felt enormous pity fide family one saturday went village visit mother showed beautifully patterned basket made dyed raffia brother made startled occurred anybody family could actually make something heard poor become impossible see anything else poor poverty single story years later thought left nigeria university united states american roommate shocked asked learned speak english well confused said nigeria happened english official language asked could listen called tribal music consequently disappointed produced tape mariah carey assumed know use stove struck felt sorry even saw default position toward african kind patronizing well meaning pity roommate single story africa single story catastrophe single story possibility africans similar way possibility feelings complex pity possibility connection human equals must say went consciously identify african whenever africa came people turned never mind knew nothing places like namibia come embrace new identity many ways think african although still get quite irritable africa referred country recent example otherwise wonderful flight lagos two days ago announcement virgin flight charity work india africa countries spent years african began understand roommate response grown nigeria knew africa popular images would think africa place beautiful landscapes beautiful animals incomprehensible people fighting senseless wars dying poverty aids unable speak waiting saved kind white foreigner would see africans way child seen fide family single story africa ultimately comes think western literature quote writing london merchant called john lok sailed west africa kept fascinating account voyage referring black africans beasts houses writes also people without heads mouth eyes breasts laughed every time read one must admire imagination john lok important writing represents beginning tradition telling african stories west tradition sub saharan africa place negatives difference darkness people words wonderful poet rudyard kipling half devil half child began realize american roommate must throughout life seen heard different versions single story professor told novel authentically african quite willing contend number things wrong novel failed number places quite imagined failed achieving something called african authenticity fact know african authenticity professor told characters much like educated middle class man characters drove cars starving therefore authentically african must quickly add guilty question single story years ago visited mexico political climate time tense debates going immigration often happens america immigration became synonymous mexicans endless stories mexicans people fleecing healthcare system sneaking across border arrested border sort thing remember walking around first day guadalajara watching people going work rolling tortillas marketplace smoking laughing remember first feeling slight surprise overwhelmed shame realized immersed media coverage mexicans become one thing mind abject immigrant bought single story mexicans could ashamed create single story show people one thing one thing become impossible talk single story without talking power word igbo word think whenever think power structures world nkali noun loosely translates greater another like economic political worlds stories defined principle nkali told tells told many stories told really dependent power power ability tell story another person make definitive story person palestinian poet mourid barghouti writes want dispossess people simplest way tell story start secondly start story arrows native americans arrival british entirely different story start story failure african state colonial creation african state entirely different story recently spoke university student told shame nigerian men physical abusers like father character novel told read novel called american psycho shame young americans serial murderers obviously said fit mild irritation would never occurred think read novel character serial killer somehow representative americans better person student america cultural economic power many stories america read tyler updike steinbeck gaitskill single story america learned years ago writers expected really unhappy childhoods successful began think could invent horrible things parents done truth happy childhood full laughter love close knit family also grandfathers died refugee camps cousin polle died could get adequate healthcare one closest friends okoloma died plane crash fire trucks water grew repressive military governments devalued education sometimes parents paid salaries child saw jam disappear breakfast table margarine disappeared bread became expensive milk became rationed kind normalized political fear invaded lives stories make insist negative stories flatten experience overlook many stories formed single story creates stereotypes problem stereotypes untrue incomplete make one story become story course africa continent full catastrophes immense ones horrific rapes congo depressing ones fact people apply one job vacancy nigeria stories catastrophe important important talk always felt impossible engage properly place person without engaging stories place person consequence single story robs people dignity makes recognition equal humanity difficult emphasizes different rather similar mexican trip followed immigration debate sides mexican mother told fide family poor hardworking african television network broadcast diverse african stories world nigerian writer chinua achebe calls balance stories roommate knew nigerian publisher muhtar bakare remarkable man left job bank follow dream start publishing house conventional wisdom nigerians read literature disagreed felt people could read would read made literature affordable available shortly published first novel went station lagos interview woman worked messenger came said really liked novel like ending must write sequel happen went tell write sequel charmed moved woman part ordinary masses nigerians supposed readers read book taken ownership felt justified telling write sequel roommate knew friend funmi iyanda fearless woman hosts show lagos determined tell stories prefer forget roommate knew heart procedure performed lagos hospital last week roommate knew contemporary nigerian music talented people singing english pidgin igbo yoruba ijo mixing influences jay fela bob marley grandfathers roommate knew female lawyer recently went court nigeria challenge ridiculous law required women get husband consent renewing passports roommate knew nollywood full innovative people making films despite great technical odds films popular really best example nigerians consuming produce roommate knew wonderfully ambitious hair braider started business selling hair extensions millions nigerians start businesses sometimes fail continue nurse ambition every time home confronted usual sources irritation nigerians failed infrastructure failed government also incredible resilience people thrive despite government rather teach writing workshops lagos every summer amazing many people apply many people eager write tell stories nigerian publisher started non profit called farafina trust big dreams building libraries refurbishing libraries already exist providing books state schools anything libraries also organizing lots lots workshops reading writing people eager tell many stories stories matter many stories matter stories used dispossess malign stories also used empower humanize stories break dignity people stories also repair broken dignity american writer alice walker wrote southern relatives moved north introduced book southern life left behind sat around reading book listening read book kind paradise regained would like end thought reject single story realize never single story place regain kind paradise thank</t>
-  </si>
-  <si>
-    <t>kid spent summers grandparents ranch texas helped fix windmills vaccinate cattle chores also watched soap operas every afternoon especially days lives grandparents belonged caravan club group airstream trailer owners travel together around canada every summers would join caravan would hitch airstream trailer grandfather car would line airstream adventurers loved worshipped grandparents really looked forward trips one particular trip years old rolling around big bench seat back car grandfather driving grandmother passenger seat smoked throughout trips hated smell age would take excuse make estimates minor arithmetic would calculate gas mileage figure useless statistics things like grocery spending would hearing campaign smoking remember details basically said every puff cigarette takes number minutes life think might two minutes per puff rate decided math grandmother estimated number cigarettes per days estimated number puffs per cigarette satisfied would come reasonable number poked head front car tapped grandmother shoulder proudly proclaimed two minutes per puff taken nine years life vivid memory happened expected expected applauded cleverness arithmetic skills jeff smart made tricky estimates figure number minutes year division happened instead grandmother burst tears sat backseat know grandmother sat crying grandfather driving silence pulled onto shoulder highway got car came around opened door waited follow trouble grandfather highly intelligent quiet man never said harsh word maybe first time maybe would ask get back car apologize grandmother experience realm grandparents way gauge consequences might stopped beside trailer grandfather looked bit silence gently calmly said jeff one day understand harder kind clever want talk today difference gifts choices cleverness gift kindness choice gifts easy given choices hard seduce gifts careful probably detriment choices group many gifts sure one gifts gift smart capable brain confident case admission competitive signs clever dean admission would let smarts come handy travel land marvels humans plodding astonish invent ways generate clean energy lot atom atom assemble tiny machines enter cell walls make repairs month comes extraordinary also inevitable news synthesized life coming years synthesize engineer specifications believe even see understand human brain jules verne mark twain galileo newton curious ages would wanted alive right civilization many gifts individuals many individual gifts sit use gifts take pride gifts pride choices got idea start amazon years ago came across fact web usage growing percent per year would never seen heard anything grew fast idea building online bookstore millions titles something simply could exist physical world exciting turned years old would married year told wife mackenzie wanted quit job crazy thing probably would work since startups sure would happen mackenzie also princeton grad sitting second row told young boy would garage inventor would invented automatic gate closer cement filled tires solar cooker work well umbrella tinfoil baking pan alarms entrap siblings would always wanted inventor wanted follow passion working financial firm new york city bunch smart people brilliant boss much admired went boss told wanted start company selling books internet took long walk central park listened carefully finally said sounds like really good idea would even better idea someone already good job logic made sense convinced think hours making final decision seen light really difficult choice ultimately decided give shot think would regret trying failing suspected would always haunted decision try much consideration took less safe path follow passion proud choice tomorrow real sense life life author scratch begins use gifts choices make inertia guide follow passions follow dogma original choose life ease life service adventure wilt criticism follow convictions bluff wrong apologize guard heart rejection act fall love play safe little bit swashbuckling tough give relentless cynic builder clever expense others kind hazard prediction years old quiet moment reflection narrating personal version life story telling compact meaningful series choices made end choices build great story thank good luck</t>
-  </si>
-  <si>
-    <t>recall wonderful story sets theme remarks today party given billionaire shelter island late kurt vonnegut informs pal author joseph heller host hedge fund manager made money single day heller earned wildly popular novel catch whole history heller responds yes something never enough enough stunned simple eloquence say nothing relevance vital issues arising american society today many revolve around money yes money increasingly bottom line society great god prestige great measure man woman morning temerity ask soon minted mba graduates enter world commerce consider role enough business entrepreneurship society enough dominant role financial system economy enough values bring fields choose careers kurt vonnegut loved speak college students believed may paraphrase catch young people become ceos investment bankers consultants money managers especially hedge fund managers best poison minds humanity remarks morning try poison minds little bit humanity past two centuries nation moved agricultural economy manufacturing economy service economy predominantly financial economy financial economy definition subtracts value created productive businesses think owners business enjoy dividend yields earnings growth capitalistic system creates play financial markets capture investment gains costs financial intermediation deducted thus investing american business winner game beating stock market costs zero sum game intermediation costs deducted beating market group becomes loser game yes financial system takes less investors make yet financial field money made modern day america breeding ground wealthiest citizens made less million dollars last year make enough rank among highest paid hedge fund managers add hedge fund fees mutual fund management fees operating expenses commissions brokerage firms fees financial advisors investment banking legal fees mergers ipos enormous marketing advertising expenses entailed distribution financial products talking billion dollars per year sum extracted whatever returns stock bond markets generous enough deliver investors surely enough seriously undermine odds favor success citizens accumulating savings retirement yet fact finance sector become far nation largest generator corporate profits larger even combined profits huge energy health care sectors almost three times much either manufacturing information technology twenty five years ago financials accounted percent earnings giant corporations compose standard poor stock index ten years ago financial sector share risen percent last year financial sector profits soared time high percent add earnings financial affiliates giant manufacturers think general electric capital example auto financing arms general motors ford total financial earnings likely exceed percent earnings share may may enough seems likely continue grow least moving seems world longer making anything country merely trading pieces paper swapping stocks bonds back forth one another paying financial croupiers veritable fortune also adding even costs creating ever complex financial derivatives huge unfathomable risks built financial system enterprise becomes mere bubble whirlpool speculation great british economist john maynard keynes warned years ago consequences may dire capital development country becomes product activities casino job capitalism likely ill done profession business subservient field money management wall street become business profession subservient harvard business school professor rakesh khurana right defined conduct true professional words create value society rather extract yet money management definition extracts value returns earned business enterprises warren buffett wise partner charlie munger lays line money making activity contains profoundly antisocial effects high cost modalities become ever popular activity exacerbates current harmful trend ever nation ethical young brain power attracted lucrative money management attendant modern frictions distinguished work providing much value others telling highly profitable field managing money rather present three caveats commencement speakers like sum citing eminent philosopher endorse message exception offer new masters business administration words socrates spoken years ago challenged citizens athens honor love citizens great mighty nation care much laying greatest amount money honor reputation little wisdom truth greatest improvement soul ashamed nothing persuading take thought persons properties first chiefly care greatest improvement soul tell virtue given money virtue comes money every good man close returning kurt vonnegut story finally tracked turned poem delightful even better words long true story word honor joseph heller important funny writer dead party given billionaire shelter island said joe make feel know host yesterday may made money novel catch earned entire history joe said got something never said earth could joe joe said knowledge got enough bad rest peace time rest peace rest way bright futures lie world work done never enough citizens determined hearts courageous character intelligent minds idealistic souls yes world already quite enough guns political platitudes arrogance disingenuousness self interest snobbishness superficiality war certainty god one side never enough conscience enough tolerance idealism justice compassion wisdom humility self sacrifice greater good integrity courtesy poetry laughter generosity substance spirit elements urge carry careers remember great game life money best build world anew enough least today</t>
-  </si>
-  <si>
-    <t>feels like incredible understatement say grateful feel like relationship many social media like minus two days like coming going together grateful going talk trust going start saying one favorite parts job get research topics mean something one least favorite parts job normally come findings kicked butt make change entire life hard part get dig stuff think matters life life people around topic trust something think probably would eventually started look closely study shame vulnerability personal reason jumped trust early research career personal experience one day daughter ellen came home school third grade minute closed front door literally started sobbing slid door kind heap crying floor course scared said wrong ellen happened happened pulled together enough say something really hard happened today school shared couple friends recess time got back classroom everyone class knew happened laughing pointing calling names bad kids disruptive teacher even take marbles marble jar marble jar classroom jar kids making great choices together teacher adds marbles making great choices teacher takes marbles jar gets filled celebration class said one worst moments life laughing pointing miss bacchum teacher kept saying going take marbles know happening looked face seared mind said never trust anyone first reaction really honest damn straight tell anybody anything mama yeah right mean tell grow school mama get little apartment thing thinking quite honest find kids going beat nine year old know mamas know place like going explain trust third grader front took deep breath said ellen trust like marble jar said mean said share hard stories hard things happening friends time filled marble jar done thing thing thing like know share person make sense yes ellen said yes makes sense said marble jar friends said yeah totally hannah lorna marble jar friends said things got interesting said tell mean earn marbles like well lorna seat lunch cafeteria scoot give half heinie seat like like yeah sit like sit said big deal expecting hear said know hannah sunday soccer game waiting story said got hit ball laying field hannah picked ran first aid like yeah said hannah looked saw oma opa parents grandparents said look oma opa like like boy got marble goes well know friends eight grandparents parents divorced remarried husband parents divorced remarried said nice remembered names like hmm said marble jar friends said yeah couple marble jar friends said well kind things get marbles feeling came thought first thing could think talking soccer game game good friend eileen walked parents said diane david good see remember felt like like certainly trust cannot built small insignificant moments lives gotta grander gesture researcher start looking data gather doctoral students worked start looking crystal clear trust built small moments started looking examples people talked trust research said things like yeah really trust boss even asked mom chemotherapy going trust neighbor something going kid matter come help figure know one number one things emerged around trust small things people attend funerals someone showed sister funeral another huge marble jar moment people trust ask help needs many better giving help asking help right asking help one moments one ways work grounded theory researcher look data first see researchers talking saying believe best theories built existing theories lived experiences looked said let see research says went john gottman studying relationship years amazing work trust betrayal first thing read trust built smallest moments calls sliding door moments sliding doors movie gwyneth paltrow seen movie really tough movie happens follows life seemingly unimportant moment trying get train makes train movie stops splits two parts makes train make train follows radically different endings would argue trust sliding door moment example gives powerful said lying bed one night pages left murder mystery feeling knew killer dying finish book said even want want get brush teeth bathroom get back get know feeling want get situated read end book gets walks past wife bathroom brushing hair looks really sad said first thought keep walking keep walking many moment walk past someone like god look avert eyes look caller cell phone like yeah know big mess right time pick phone right yes looks like guilty laughter said sliding door moment struck story said opportunity build trust opportunity betray small moments trust moments betrayal well choose connect opportunity betrayal took brush hand started brushing hair said going right babe moment trust right fast forward five years clear trust talk trust marble jar got really share stories hard stuff people whose jars full people time really done small things helped believe worth story new question marbles trust talk talk trust trust big word right hear trust trust even know means wanted know anatomy trust mean started looking research found definition charles feldman think beautiful definition ever heard simply trust choosing make something important vulnerable actions someone else choosing make something important vulnerable actions someone else feldman says distrust shared important safe thought true feldman really calls let understand trust went back data find figure trust know trust data think know trust put together acronym braving braving trust braving connection someone parts trust boundaries trust boundaries hold clear boundaries respect trust without boundaries reliability trust say going reliability let tell reliability research terms always looking things valid reliable researchers research kind geeks okay would say scale weigh valid get accurate weight okay would valid scale would pay lot money scale actually valid scale pretend sake valid scale reliable scale scale got hundred times gonna say thing every time reliability say going cannot gain earn trust reliable definition reliability working lives reliability means clear limitations take much come short deliver commitments personal life means thing say someone god great seeing going give call lunch yes really great seeing moment discomfort goodbye right honest boundaries reliability huge accountability trust make mistake willing apologize make amends trust make mistake allowed apologize make amends accountability trust one shook core vault vault share hold confidence share hold confidence know understand came research understand side vault one door vault lose trust people good friend comes says god hear caroline getting divorce ugly pretty sure partner cheating shared something share trust even though gossiping giving juice trust completely diminished make sense vault fact hold confidences relationship see acknowledge confidentiality tricky thing vault lot times share things share way hot wire connection friend right anything nice say come sit next know yes closeness built talking bad people know call common enemy intimacy real intimacy built hating people counterfeit counterfeit trust real vault means respect story respect people story integrity cannot trust trusting relationship act place integrity encourage integrity came definition like ones like look data say integrity think integrity three pieces choosing courage comfort choosing right fun fast easy practicing values professing values right mean integrity non judgment fall apart ask help struggle without judged fall apart struggle ask help without judged really hard better helping asking help think set trusting relationships people really trust always help let tell ask help cannot reciprocate trusting relationship period assign value needing help think less needing help whether conscious offer help someone think less cannot judge needing help judge others needing help somewhere like getting value helper relationship think worth real trust exist unless help reciprocal non judgment last one generosity relationship trusting relationship assume generous thing words intentions behaviors check screw say something forget something make generous assumption say yesterday mom one year anniversary death really tough talked last month really hoping would called know care know think big deal wanted let know thinking opposed returning calls returning emails waiting moment spring well forgot call important know make generous assumption check make sense got boundaries reliability accountability vault integrity non judgment generosity anatomy trust complex need break simple reason many ever struggled trust relationship professional personal everybody statistically right end saying someone trust mean trust love dependable mean trust talk trust break understanding trust gives words say struggle reliable say going something count maybe issue non judgment break talk ask need specifically instead using huge word tons weight value around say specifically working working got boundaries issue one things interesting think one biggest casualties heartbreak disappointment failure struggle loss trust people loss self trust something hard happens lives first thing say trust stupid naive braving acronym works self trust something happens recently went really tough failure ask honor boundaries reliable count hold accountable really protective stories stay integrity judgmental toward give benefit doubt generous toward braving relationships people braving connection self trust braving self love self respect wildest adventure ever take whole lives would invite think think trust marble jar full count ask people give start self trust great quote maya angelou says trust people love say love right quotes african proverb said said wary naked man offering shirt lot times find struggle trust thing examine first marble jar treat ask people give something believe worthy receiving know worthy receiving trust everyone else thank much honored thank thank</t>
-  </si>
-  <si>
-    <t>know video arts asked would like talk creativity said problem problem telling people creative easy difficult knew would particularly easy spent last years watching various creative people produce stuff fascinating see could figure makes folk including creative couple years ago got excited friend mine runs psychology department sussex university brian bates showed research creativity done berkley brilliant psychologist called donald mackinnon seemed confirm impressively scientific way vague observations intuitions would years prospect settling quite serious study creativity purpose tonight gossip delightful spent several weeks state categorically tell tonight become creative complete waste time think would much better told jokes instead know lightbulb jokes many poles take screw lightbulb one hold bulb four turn table many folksingers take change lightbulb answer five one change bulb four sing much better old one many socialists take change lightbulb answer going change think works many creative art reason futile talk creativity simply cannot explained like mozart music van gogh painting saddam hussein propaganda literally inexplicable freud analyzed practically everything else repeatedly denied psychoanalysis could shed light whatsoever mysteries creativity brian bates wrote recently best research creativity done quite dramatic drop quantity largely suspect researchers began feel reached limits science could discover fact thing research could tell creative sort childhood limited help point lives however one negative thing say negative easier say creativity bit like sculptor asked sculpted fine elephant explained would taken big block marble knocked away bits look like elephant negative thing creativity talent talent way operating many actors take screw lightbulb answer thousands one thousands say could done many jewish mothers take screw lightbulb answer mind sit dark nobody cares many surgeons see say way operating mean creativity ability either example may surprise absolutely unrelated provided intelligent certain minimal level mackinnon showed investigating scientists architects engineers writers regarded peers creative way whatsoever different less creative colleagues way different mackinnon showed creative simply acquired facility getting particular mood way operating allowed natural creativity function fact mackinnon described particular facility ability play indeed described creative mood childlike able play ideas explore immediate practical purpose enjoyment play sake mood working moment robin skynner successor psychiatry book families survive comparing ways psychologically healthy families function ways families function ways successful corporations organizations function become fascinated fact usually describe way people function work terms two modes open closed add creativity possible closed mode many american network executives take screw lightbulb answer lightbulb many doorke let explain little closed mode mean mode time work inside feeling lots done get going get active probably slightly anxious mode although anxiety exciting pleasurable mode probably little impatient little tension much humor mode purposeful mode get stressed even bit manic creative contrast open mode relaxed expansive less purposeful mode probably contemplative inclined humor always accompanies wider perspective consequently playful mood curiosity sake operate pressure get specific thing done quickly play allows natural creativity surface let give example mean alexander fleming thought led discovery penicillin must open mode previous day would arranged number dishes culture would grow upon day question glanced dishes discovered one culture appeared would closed mode would focused upon need dishes cultures grown upon saw one dish use purpose would quite simply thrown away thank goodness open mode became curious culture grown particular dish curiosity world knows led lightbulb sorry penicillin closed mode uncultured dish irrelevance open mode clue one example one alfred hitchcock regular writers described working screenplays says came block discussions became heated intense hitchcock would suddenly stop tell story nothing work hand first almost outraged discovered intentionally mistrusted working pressure would say pressing pressing working hard relax come says writer course finally always let make one thing quite clear need open mode pondering problem come solution must switch closed mode implement made decision efficient decisively undistracted doubts correctness example decide leap ravine moment take bad time start reviewing alternative strategies attacking machine gun post make particular effort see funny side humor natural concomitant open mode luxury closed taken decision narrow focus implementing carried switch back open mode review feedback rising action order decide whether course taken successful whether continue next stage plan whether create alternative plan correct error perceive back closed mode implement next stage words efficient need able switch backwards forwards two modes problem often get stuck closed mode pressures familiar tend maintain tunnel vision times really need step back contemplate wider view particularly true example politicians main complaint non political colleagues become addicted adrenaline get reacting events hour hour basis almost completely lose desire ability ponder problems open mode well minutes many women libbers take change lightbulb answer one screw make documentary many psychiatrists take change lightbulb answer one lightbulb really got want change one one thing say creativity certain conditions make likely get open mode something creative occur likely guarantee anything occur might sit around hours last tuesday nothing zilch bupkis sausage nevertheless least tell get open mode need five things sorry mind wondering getting open mode quickly instead inch waist need humor beg pardon let take space first become playful therefore creative usual pressures cope got closed mode create space away demands means sealing must make quiet space undisturbed next time enough create space create space specific period time know space last exactly moment normal life start specific moment space starts equally specific moment space stops seal every day closed mode habitually operate would never realized vital read historical study play dutch historian called johan huizinga says play distinct ordinary life locality duration main characteristic secludedness limitedness play begins certain moment otherwise play combining first two factors create oasis quiet setting boundaries space time creativity happen play possible separate everyday life arranged take calls closed door sat somewhere comfortable take couple deep breaths anything like pondered problem want turn opportunity seconds find thinking forgot got call jim must tell tina need report wednesday thursday means must move lunch joe damn called paul getting joe daughter interview must pop afternoon get birthday present plants need watering none pencils sharpened right got much going start sorting paper clips shall make phone calls thinking tomorrow got everything way know easier trivial things urgent important things urgent like thinking also easier little things know start big things sure say create oasis quiet know mind pretty soon start racing going take seriously sit bit tolerating racing slight anxiety comes time mind quiet takes time mind quiet absolutely use arranging space time oasis lasting minutes getting quieter getting open mode stop deeply frustrating must allow good chunk time would suggest hour half gotten open mode hour left something happen lucky put whole morning aside experience hour half need break far better hour half hour half next thursday maybe hour half week fix one four half hour session another reason factor number three time yes know done time half creating oasis going tell use oasis created still need time well let tell story always intrigued one monty python colleagues seemed talented never produce scripts original mine watched time began see faced problem fairly soon saw solution inclined take even though think knew solution original whereas situation although sorely tempted take easy way finish clock could would sit problem another hour quarter sticking would end almost always come something original simple work creative simply prepared stick problem longer imagine excitement found exactly mackinnon found research discovered creative professionals always played problem much longer tried resolve prepared tolerate slight discomfort anxiety experience solved problem know mean problem need solve feel inside kind internal agitation tension uncertainty makes plain uncomfortable want get rid discomfort order take decision sure best decision taking make feel better well creative people learned tolerate discomfort much longer put pondering time solutions creative people find hardest creative people need time project image decisive feel create image need decide everything quickly great show confidence well behavior suggest sincerely effective way strangling creativity birth please note arguing real decisiveness favor taking decision taken sticking implemented suggesting take decision always ask question decision taken answered defer decision order give maximum pondering time lead creative solution pondering somebody accuses indecision say look babycakes decide tuesday chickening creative discomfort taking snap decision easy summarize third factor facilitates creativity time giving mind long possible come something original next factor number confidence space time oasis getting open mode nothing stop creative effectively fear making mistake think play see play experiment happens would happen essence playfulness openness anything may happen feeling whatever happens cannot playful frightened moving direction wrong something done well either free play alan watts puts spontaneous within reason got risk saying things silly illogical wrong best way get confidence know creative nothing wrong thing mistake drivel may lead break last factor fifth humor well happen think main evolutionary significance humor gets closed mode open mode quicker anything else think know laughter brings relaxation humor makes playful yet many times important discussions held really original creative ideas desperately needed solve important problems humor taboo subject discussed air quotes serious attitude seems stem basic misunderstanding difference serious solemn suggest group could sitting around dinner discussing matters extremely serious like education children marriages meaning life talking film could laughing would make discussing one bit less serious solemnity hand know mean point two beautiful memorial services ever attended lot humor somehow freed made services inspiring cathartic solemnity serves pomposity self important always know level consciousness egotism going punctured humor see threat dishonestly pretend deficiency makes views substantial makes feel bigger humor essential part spontaneity essential part playfulness essential part creativity need solve problems matter serious may set space time oasis giggle want ladies gentlemen five factors arrange make lives creative space time time confidence lord jeffrey archer know get open mode requirement keep mind gently around subject pondering daydream course keep bringing mind back like meditation extraordinary thing creativity keep mind resting subject friendly persistent way sooner later get reward unconscious probably shower later breakfast next morning suddenly rewarded blue new thought mysteriously appears put pondering time first many cecil parkinsons take change lightbulb answer two one screw one screw many account executives take screw lightbulb answer get back many norwei sorry many yugoslav many malt many dutch jokes one thing looking reminds think easy creative got people play always find two throw ideas backwards forwards get interesting original places could ever gotten danger real danger one person around makes feel defensive lose confidence play goodbye creativity always make sure play friends people like trust never say anything squash either never say wrong like always positive build said would even better quite understand explain let pretend try establish free atmosphere possible sometimes wonder success japanese partly due instinctive understanding use groups creatively westerners often amazed unstructured nature japanese meetings maybe lack structure absence time pressure frees solve problems creatively clever japanese sometimes plan structured ness example insisting first people give views junior speak freely without possibility contradicting already said somebody important four minutes left many irish sorry sorry well look last thing say creativity like humor joke laugh comes moment connect two different frameworks reference new way example old story woman survey sexual attitudes stops airline pilot asks amongst things last sexual intercourse replies nineteen fifty eight knowing airline pilots researcher surprised queries well says pilot twenty one ten laugh eventually moment contact two frameworks reference way express year hour clock idea new idea exactly thing connecting two hitherto separate ideas way generates new meaning connecting different ideas difficult connect cheese motorcycles moral courage light green bananas international cooperation get computer make billion random connection new connections juxtapositions significant generate new meaning play deliberately try inventing random juxtapositions use intuition tell whether seem significance bit computer produce millions new connections tell one smells interesting course produce juxtapositions absolutely ridiculous absurd good edward bono invented notion lateral thinking specifically suggests book beyond yes try loosening assumptions playing deliberately crazy connections calls absurd ideas intermediate impossibles points use intermediate impossible completely contrary ordinary logical thinking right stage matter intermediate impossible right absurd nevertheless used stepping stone another idea right another example playing nothing wrong summarize really know start got stuck start generating random connections allow intuition tell one might lead somewhere interesting well really tell help creative everything two minutes left come important part stop subordinates becoming creative real threat believe one appreciates better trouble creative people stop decisive hard nosed bastards like running businesses efficiently mean know encourage someone creative next thing rocking boat coming ideas asking questions nip kind thing bud start justifying decisions reasoned argument sharing information concealment gives considerable advantages power struggles stamp creativity rest organization get bit respect going one allow subordinates humor threatens self importance especially omniscience treat humor frivolous subversive subversive course humor setup way people express opposition since express openly like ton bricks let get clear blame humor resistance way working creates blame way working important mean solemnly dignity laughing matter second keeping feeling irreplaceable involves cutting everybody else size miss opportunity undermine employees confidence perfect opportunity comes reviewing work done use authority zero immediately things find wrong never never balance negatives positives criticize school teachers always remember praise makes people uppity third demand people always actively things catch anyone pondering accuse laziness indecision starve employees thinking time leads creativity insurrection demand urgency times use lots fighting talk war analogies establish permanent atmosphere stress breathless anxiety crisis phrase keep mode closed way nonsense types sure tiny tiny microscopic quantity creativity organization let vigilance slip one moment could find surrounded happy enthusiastic creative people might never able completely control ever careful thank good night thank</t>
-  </si>
-  <si>
-    <t>title must seem like contradiction solitude leadership solitude means alone leadership necessitates presence others people leading think leadership american history likely think washington head army lincoln head nation king head movement people multitudes behind looking direction think solitude apt think thoreau man alone woods keeping journal communing nature silence leadership learn qualities character mind make fit command platoon beyond perhaps company battalion leave military corporation foundation department government solitude least especially plebes even privacy opportunity simply physically alone never mind solitude ability alone thoughts yet submit solitude one important necessities true leadership lecture attempt explain need begin talking leadership really means spent years teaching another institution like west point liked talk lot leadership yale university school might gone come friends might going yale harvard stanford mit forth institutions like west point also see role training leaders constantly encourage students like west point regard leaders among peers future leaders society indeed look around american elite people charge government business academia major institutions senators judges ceos college presidents forth find come overwhelmingly either ivy league peer institutions service academies especially west point began wonder taught yale leadership really consists students like energetic accomplished smart often ferociously ambitious enough make leaders much liked even admired certainly seem like leaders leader wondered mean accomplished successful getting straight make leader think great heart surgeons great novelists great shortstops may terrific mean leaders leadership aptitude leadership achievement leadership even cellence different things otherwise concept leadership meaning seemed especially true kind excellence saw students around see things changed since went college everything gotten much intense much get top school like yale west point start lot earlier begin thinking college juniors maybe couple extracurriculars know like guys endless series hoops jump starting way back maybe early junior high school classes standardized tests extracurriculars school extracurriculars outside school test prep courses admissions coaches private tutors sat yale college admissions committee couple years ago first thing admissions officer would presenting case rest committee read call brag admissions lingo list student extracurriculars well turned student six seven extracurriculars already trouble students got addition perfect grades top scores usually saw around great kids trained world class hoop jumpers goal set could achieve test gave could pass flying colors one put excellent sheep doubt would continue jump hoops ace tests harvard business school michigan law school johns hopkins medical school goldman sachs mckinsey consulting whatever approach would indeed take far life would come back reunion partner white case attending physician mass general assistant secretary department state exactly places like yale mean talk training leaders educating people make big name world people impressive titles people university brag people make top people climb greasy pole whatever hierarchy decide attach think something desperately wrong even dangerous idea explain want spend minutes talking novel many may read heart darkness read probably seen apocalypse based marlow novel becomes captain willard played martin sheen kurtz novel becomes colonel kurtz played marlon brando novel vietnam colonialism belgian congo three generations vietnam marlow military officer merchant marine civilian ship captain sent company running country charter belgian crown sail deep upriver congo river retrieve manager ensconced jungle gone rogue like colonel kurtz movie everyone knows novel imperialism colonialism race relations darkness lies human heart became clear certain point taught novel also bureaucracy called minute ago hierarchy company company rules procedures ranks people power people scrambling power like bureaucracy like big law firm governmental department matter university like telling like bureaucracy join word bureaucracy tends negative connotations say way criticism merely description army bureaucracy one largest famously bureaucratic bureaucracies world army gave among things indispensable bureaucratic acronym snafu situation normal fucked fouled cleaned version comes army world war need know get commission joining bureaucracy however long stay army operating within bureaucracy different armed forces many ways every institution society respect need know bureaucracies operate kind behavior kind character reward kind punish back novel marlow proceeds upriver stages like captain willard movie first gets outer station kurtz inner station central station marlow spends time get best look bureaucracy action kind people succeed marlow description manager central station big boss commonplace complexion features manners voice middle size ordinary build eyes usual blue perhaps remarkably cold otherwise indefinable faint expression lips something stealthy smile smile remember explain common trader youth employed parts nothing obeyed yet inspired neither love fear even respect inspired uneasiness uneasiness definite mistrust uneasiness nothing idea effective faculty genius organizing initiative order even learning intelligence position come originated nothing could keep routine going great great little thing impossible tell could control man never gave secret away perhaps nothing within suspicion made one pause note adjectives commonplace ordinary usual common nothing distinguished person time read passage realized perfect description kind person tends prosper bureaucratic environment reason suddenly struck perfect description head bureaucracy part chairman academic department exact smile like shark exact ability make uneasy like something wrong ever going tell like manager sorry say like many people meet negotiate bureaucracy army matter whatever institution end giving talents army whether microsoft world bank whatever head department genius organizing initiative even order particular learning intelligence distinguishing characteristics ability keep routine going beyond marlow says position come really great mystery bureaucracies often best people stuck middle people running things leaders mediocrities excellence usually gets greasy pole gets talent maneuvering kissing people kicking people pleasing teachers pleasing superiors picking powerful mentor riding coattails time stab back jumping hoops getting along going along whatever people want finally comes seem like manager central station nothing inside taking stupid risks like trying change things done question done keeping routine going tell forewarn promise meet people find environments rewarded conformity tell decide different kind leader tell one reason thought things put pieces together kind students kind leadership trained kind leaders saw institution realized national problem crisis leadership country every institution government look happened american corporations recent decades old dinosaurs like general motors twa steel fell apart look happened wall street last couple years finally know sensitive ground look happened first four years iraq war stuck fault enlisted ranks noncoms junior officers fault senior leadership whether military civilian winning even changing direction crisis leadership america overwhelming power wealth earned earlier generations leaders made complacent long training leaders know keep routine going answer questions know ask fulfill goals know set think get things done whether worth first place greatest technocrats world ever seen people trained incredibly good one specific thing interest anything beyond area exper tise leaders words thinkers people think people formulate new direction country corporation college army new way things new way looking things people words vision people would say great tell kids yale bother telling ones west point people think institution assume last place anyone would want talk thinking creatively cultivating independence mind army accident word regiment root word regimentation surely come must ultimate conformists must people bought way things interest changing kind young people think world ponder big issues question authority would gone amherst pomona west point told think know true know otherwise would never invited talk even convinced spent days campus quote colonel scott krawczyk course director lecture gave last year english earliest days country model officers built model citizenry reflective democratic ideals different possessed democratic spirit marked independent judgment freedom measure action express disagreement crucial responsibility never tolerate tyranny anyone paying attention last years understands changing nature warfare means officers including junior officers required ever able think independently creatively flexibly deploy whole range skills fluid complex situation lieutenant colonels essentially functioning provincial governors iraq captains find charge remote town somewhere afghanistan people know follow orders execute routines look successful acclaimed perhaps finest soldier generation general david petraeus one rare people rises bureaucracy right reasons thinker intellectual fact prospect magazine named public intellectual year world princeton makes thinker went princeton even taught west point assure personal experience lot highly educated people know think makes thinker leader precisely able think things confidence courage argue ideas even popular even please superiors courage physical courage possess abundance another kind courage moral courage courage stand believe always easy path straight one running mosul commander airborne developing strategy would later formulate counterinsurgency field manual ultimately apply throughout iraq pissed lot people way ahead leadership baghdad washington bureaucracies like sort thing another two star saying implicitly loudly leadership wrong way running war indeed rewarded first put charge training iraqi army considered blow career dead end job stuck guns ultimately vindicated ironically one central elements counterinsurgency strategy precisely idea officers need think flexibly creatively independently first half lecture idea true leadership means able think act convictions learn learn think let start learn think study team researchers stanford came couple months ago investigators wanted figure today college students able multitask much effectively adults manage researchers asked answer discovered means expected enhanced cognitive abilities investigators expected find mental faculties enable people multitask effectively simply words people multitask effectively really surprising finding people multitask worse mental abilities multitasking one thing made study different others researchers test people cognitive functions multitasking separated subject group high multitaskers low multitaskers used different set tests measure kinds cognitive abilities involved multitasking found every case high multitaskers scored worse worse distinguishing relevant irrelevant information ignoring latter words distractible worse might call mental filing keeping information right conceptual boxes able retrieve quickly words minds disorganized even worse thing defines multitasking switching tasks multitasking short thinking impairs ability think thinking means concentrating one thing long enough develop idea learning people ideas memorizing body information however much may sometimes useful developing ideas short thinking simply cannot bursts seconds time constantly interrupted facebook messages twitter tweets fiddling ipod watching something youtube find first thought never best thought first thought always someone else always already heard subject always conventional wisdom concentrating sticking question patient letting parts mind come play arrive original idea giving brain chance make associations draw connections take surprise often even idea turn good need time think make mistakes recognize make false starts correct outlast impulses defeat desire declare job done move next thing used students bragged fast wrote papers would tell great german novelist thomas mann said writer someone writing difficult people best writers write much slowly everyone else better slower write james joyce wrote ulysses greatest novel century rate hundred words day half length selection read earlier heart darkness seven years eliot one greatest poets country ever produced wrote pages poetry course entire year career half page month form thought best thinking slowing concentrating third time used word concentrating concentrating focusing easily consider lecture concentration solitude think word means means gathering together single point rather letting dispersed everywhere cloud electronic social input seems facebook twitter youtube think generational thing radio magazines even newspapers ultimately elaborate excuse run away avoid difficult troubling questions human throws way right thing life believe things taught child words live words like duty honor country really mean happy members service academies unique position among college students especially today know going job graduate even know employer going happens fulfill commitment army unless know figure want rest life unless able listen quiet voice inside tells really care really believe indeed things might evolving pressure experiences students everywhere else agonize questions may postponing years maybe agonizing everyone starts decides finish wonder cause shame put demanding training anyone ask people age committing work awesome responsibility mortal danger rigor regimentation quite properly subject naturally tendency make lose touch passion brought first place saw exactly kind thing yale students robots quite reverse tensely idealistic overwhelming weight practical responsibilities hoops jump often made lose sight ideals first place perfectly natural doubts questions even difficulties question suppress distract pretend exist confront directly honestly courageously decide find answers dilemmas found twitter comedy central even new york times found within without distractions without peer pressure solitude let clear solitude always mean introspection let back heart darkness solitude concentration saves marlow amidst madness central station gets finds steamboat supposed sail upriver giant hole one going help fix let run says papier mephistopheles talking manager assistant even worse since still trying kiss way hierarchy raving away think internet ever present social buzz chattering away let run papier mephistopheles seemed tried could poke forefinger would find nothing inside little loose dirt great comfort turn chap battered twisted ruined tin pot steamboat expended enough hard work make love influential friend would served better given chance come bit find could like work rather laze think fine things done like work man like work chance find reality others man ever know chance find phrase finding acquired bad reputation suggests aimless liberal arts college graduate english major doubt someone went place like amherst pomona spoiled get job spends time staring space marlow mariner ship captain practical hardheaded person could find say marlow creator conrad spent years merchant marine eight ship captain became writer artist idea sailor marlow believes need find much anyone way says work solitary work concentration climbing steamboat spending uninterrupted hours hammering shape building house cooking meal even writing college paper really put reality others thinking means finding finding reality problem facebook twitter even new york times expose things especially constant way people older people well younger people continuously bombarding stream people thoughts marinating conventional wisdom people reality others creating cacophony impossible hear voice whether thinking anything else emerson meant said inspire lead race must defended travelling souls men living breathing reading writing daily time worn yoke opinions notice uses word lead leadership means finding new direction simply putting front herd heading toward cliff reading books better reading tweets wall posts well sometimes sometimes need put book think reading think reading book two advantages tweet first person wrote thought lot carefully book result solitude attempt think second books old disadvantage precisely makes valuable stand conventional wisdom today simply today even merely reflect conventional wisdom day say something different hear time great books ones find syllabus ones people continued read reflect conventional wisdom day say things permanent power disrupt habits thought revolutionary time still revolutionary today say revolutionary deliberately evoking american revolution result precisely kind independent thinking without solitude solitude adams jefferson hamilton madison thomas paine would america solitude mean introspection mean concentration focused work mean sustained reading help know better one thing going include form solitude seem counterintuitive friendship course friendship opposite solitude means people talking one kind friendship particular deep friendship intimate conversation long uninterrupted talk one person skyping three people texting two others time hang friend room listening music studying emerson meant said soul environs friends may enter grander self acquaintance solitude introspection means talking one best ways talking talking another person one person trust one person unfold soul one person feel safe enough allow acknowledge things acknowledge things otherwise doubts supposed questions supposed ask feelings opinions would get laughed group reprimanded authorities call thinking loud discovering believe course articulating takes much time much patience solitude strict sense new electronic world disrupted violently instead one two true friends sit talk three hours time friends never actually talk instead bounce one line messages hundred times day friendship distraction know none easy even threw away cell phones unplugged computers rigors training keep busy make solitude forms anything less difficult find highest reason need try precisely job training demand probably heard hazing scandal naval base bahrain news recently terrible abusive stuff involved entire unit orchestrated allegedly head unit senior noncommissioned officer going confronted situation like going unit courage right even know right thing easy read code conduct easy put practice especially risk losing loyalty people serving trust peer officers approval superiors commanding officer see superiors condoning something think wrong find strength wisdom challenge unwise order question wrongheaded policy first time write letter mother slain soldier find words comfort empty formulas truly formidable dilemmas people ever face lives let alone time start preparing way thinking issues morality mortality honor strength deal arise waiting confront practice would like waiting first firefight learn shoot weapon situation</t>
-  </si>
-  <si>
-    <t>want talk tonight strictly speaking character physical laws one might imagine least one talking nature one talking character physical laws want talk nature rather stand relative nature want tell think know guess one goes guessing someone suggested would ideal went along would slowly explain guess laws create new law right went along know whether able first want tell present situation know physics think told everything already lectures told great principles known principles must principles something principles spoke conservation energy energy something quantum mechanical laws quantum mechanical principles something principles added together still tell content nature talking tell little bit stuff principles supposed working first matter remarkably enough matter matter stars made known matter earth character light emitted stars give kind fingerprint tell kind atoms stars earth kind atoms appear living creatures non living creatures frogs made goop different arrangement rocks makes problem simpler nothing atoms everywhere atoms seem made general constitution nucleus around nucleus electrons begin list parts world think know one electrons particles outside atoms nuclei understood today made two things called neutrons protons two particles incidentally see stars see atoms emit light light described particles called photons beginning spoke gravitation quantum theory right gravitation kind waves behave like particles call gravitons believe read gravity finally mention called beta decay neutron disintegrate proton electron neutrino alien anti neutrino another particle neutrino addition particles listing course anti particles quick statement takes care doubling number particles immediately complications particles listed low energy phenomena fact ordinary phenomena happen everywhere universe far know exception high energy particle something laboratory able peculiar things leave special cases ordinary phenomena presumably explained action emotions kinds things example life supposedly made understood mean understandable principle action movements atoms atoms made neutrons protons electrons must immediately say say understand principle mean think would could figure everything find nothing new physics discovered order understand phenomena light instance fact stars emit energy solar energy stellar energy presumably also understood terms nuclear reactions among particles kinds details way atoms behave accurately described kind model least far know present fact say range phenomena today far know phenomena sure cannot explained way even deep mystery always possible instance phenomenon called super conductivity still phenomenon metals conduct electricity without resistance low temperatures first obvious consequence known laws particles turns thought carefully enough seen fact consequence known laws phenomena extrasensory perception cannot explained known knowledge physics interesting however phenomena well established cannot guarantee could demonstrated course would prove physics incomplete therefore extremely interesting physicists whether right wrong many many experiments exist show work goes astrological influences true stars could affect day good dentist america kind astrology would wrong physics theory would wrong mechanism understandable principle things would make reason skepticism among scientists regard ideas hand case hypnotism first looked like also would impossible described incompletely known better realized absolutely impossible hypnosis could occur normal physiological unknown processes require special new kind course today although knowledge theory goes outside nucleus atom seems precise complete enough sense given enough time calculate anything accurately measured turns forces neutrons protons constitute nucleus completely known understood well mean cannot today today understand forces neutrons protons extent wanted give enough time computers could calculate exactly energy levels carbon something like know enough although corresponding thing energy levels outside electrons atom cannot nuclei nuclear forces still understood well order find experimenters gone study phenomena high energy hit neutrons protons together high energy produced peculiar things studying peculiar things hope understand better forces neutrons protons well pandora box opened experiments although really wanted get better idea forces neutrons protons hit things together hard discover particles world matter fact column plus four dozen particles dredged attempt understand four dozen put column relevant neutron proton problem interact much neutrons protons got something force neutrons protons got little bit much addition dredge digging mud picked couple pieces wanted irrelevant problem nuclear forces one called meson muon neutrino goes two kinds neutrinos one goes electron one goes meson incidentally amazingly laws muon neutrino known far tell experimentally law behave precisely electron neutrino except mass meson times heavier electron difference known objects rather curious say anymore nobody knows anymore four dozen particles frightening array plus anti particles frightening array things turns various names mesons pions kaons lambda sigma four dozen particles going lot names turns particles come families helps little bit actually called particles last short time debates whether fact possible define existence whether particle enter debate order illustrate family idea take two part cases neutron proton neutron proton mass within one times heavy electron roughly remember numbers thing remarkable nuclear forces strong forces inside nucleus force pair protons two protons proton neutron neutron neutron words strong nuclear forces tell proton neutron symmetry law neutrons may substituted protons without changing anything provided talking strong forces talking electrical forces change neutron proton terrible difference proton carries electrical charge neutron electric measurement immediately see difference proton neutron symmetry replace neutrons protons call approximate symmetry right strong interactions nuclear forces right deep sense nature work electricity called partial symmetry struggle partial symmetries families extended turns substitution neutron proton extended substitution wider range particles accuracy still lower see neutrons always substituted protons approximate true electricity wider substitutions discovered legitimate still poor poor symmetry accurate helped gather particles families thus locate places particles missing help discover new ones kind game roughly guessing family relations illustrative kind preliminary sparring one nature really discovering deep fundamental law get deeper discoveries examples important previous history science instance mendeleev discovery periodic table elements analogous game first step complete description reason periodic table came much later atomic theory way organization knowledge nuclear levels characteristics made maria mayer jensen call shell model nuclei years ago analogous game reduction complexity made approximate guesses way stands today addition things principles talking principle relativity things must behave quantum mechanically combining relativity conservation laws must local put principles together discover many inconsistent seems add quantum mechanics plus relativity plus proposition everything local plus number tacit assumptions really find prejudiced see hard say adding together get inconsistency really get infinity various things calculate well get infinity ever agree agrees nature turns possible sweep infinities rug certain crude skill temporarily able keep calculating fact matter principles told till put together plus tacit assumptions know gives trouble cannot mutually consistent nice problem example tacit assumptions know significance propositions following calculate chance every possibility probably happen happen add one add alternatives get probability seems reasonable reasonable things trouble always another proposition energy something must always positive negative another proposition probably added order get inconsistency called causality something like idea effects cannot proceed causes actually one made model disregard proposition probability disregard causality also consistent quantum mechanics relativity locality really know exactly assuming gives difficulty producing infinities present situation going discuss would look new law general look new law following process first guess compute well laugh really true compute consequences guess see right law guessed right see would imply compare computation results nature say compare experiment experience compare directly observation see works disagrees experiment wrong simple statement key science make difference beautiful guess make difference smart made guess name disagrees experiment wrong true however one check little bit make sure wrong someone experiment may reported incorrectly may feature experiment noticed like kind dirt obviously check furthermore man computed consequences may one made guesses may made mistake analysis obvious remarks say disagrees experiment wrong mean experiment checked calculations checked thing rubbed back forth times make sure consequences logical consequences guess fact disagrees carefully checked experiment give somewhat wrong impression science means keep guessing possibilities comparing experiments put experiment little bit weak position turns experimenters certain individual character like experiments even nobody guessed yet often true experiments region people know theorist know anything nobody guessed yet instance may guessed laws know whether really work high energy good guess work high energy experimenters say let try higher energy therefore experiment produces trouble every produces discovery one things thought wrong experiment produce unexpected results starts guessing instance unexpected result meson neutrino guessed anybody whatever discovered still nobody method guessing natural thing see course method disprove definite theory definite theory real guess really compute consequences could compared experiment principle get rid theory always prove definite theory wrong notice however never prove right suppose invent good guess calculate consequences discover every consequence calculate agrees experiment theory right simply proved wrong future could wider range experiments compute wider range consequences may discover thing wrong laws like newton laws motion planets lasts long time guessed law gravitation tackling kinds consequences solar system compared experiment took several years slight error motion mercury developed time theory failed proved wrong could taken temporarily right never proved right tomorrow experiment may succeed proving thought right wrong never right sure wrong however rather remarkable last long mean idea last long incidentally people one ways stopping science would experiments region know laws experimenters search diligently greatest effort exactly places seems likely prove theories wrong words trying prove wrong quickly possible way find workers progress example today among ordinary low energy phenomena know look trouble think everything right particular big program looking trouble nuclear reactions superconductivity must say concentrating discovering fundamental laws whole range physics interesting understanding another level phenomena like super conductivity nuclear reactions talking discovering trouble something wrong fundamental law nobody knows look therefore experiments today field finding new law high energy must also point cannot prove vague theory wrong guess make poorly expressed rather vague method used figuring consequences rather vague sure say think everything due moogles moogles less sort explain works say theory good proved wrong process computing consequences indefinite little skill experimental result made look like expected consequence probably familiar fields example hates mother reason course caress love enough child actually investigate find matter fact love much everything right well overindulgent young vague theory possible get either result wait cure one following would possible say possible state ahead time much love enough much love overindulgent exactly would perfectly legitimate theory could make tests usually said pointed much love dealing psychological matters things defined precisely yes claim know anything examples horrified hear physics exactly kind approximate symmetries works something like approximate symmetry suppose perfect calculate consequences easy suppose perfect compare experiment course agree symmetry supposed expect approximate agreement pretty good say nice agreement poor say well particular thing must especially sensitive failure symmetry laugh make progress way beginning subject first new particles new jockeying around feeling way guessing result beginning science thing true psychology symmetry propositions physics laugh hard necessary beginning careful easy fall deep end kind vague theory hard prove wrong takes certain skill experience walk plank game process guessing computing consequences comparing experiment get stuck various stages example may guess stage get stuck ideas guess idea may get computing stage stuck example yukawa guessed idea nuclear forces nobody could compute consequences mathematics difficult therefore could compare experiments successfully theory remained long time discovered junk junk contemplated yukawa therefore undoubtedly simple least way yukawa another place get stuck experimental end example quantum theory gravitation going slowly use experiments never involve quantum mechanics gravitation time gravity force weak compared electrical forces want concentrate theoretical physicist delighted end problem make guesses strictly said importance guess comes important agree experiment definite possible say simple set machine great computing machine random wheel makes succession guesses time guesses hypothesis nature work computes immediately consequences makes comparison list experimental results end words guessing dumb man job actually quite opposite try explain first problem start say start known principles principles known inconsistent something removed get lot letters people always getting letters people insisting ought make holes guesses make hole make room new guess somebody says know people always say space continuous know get small enough dimension really enough points lot dots separated little distances say know quantum mechanical amplitudes told complicated absurd makes think right maybe right get lot letters content must say remarks perfectly obvious perfectly clear anybody working problem good point problem might wrong might substituted precisely place say anything precise example case continuous space suppose precise proposition space really consists series dots space mean anything dots cubic array prove immediately wrong work see problem change say something might wrong replace something easy soon real definite idea substituted becomes almost immediately apparent work secondly infinite number possibilities simple types something like sitting working hard work long time trying open safe joe comes along know anything anything except trying open safe says know try combination busy trying lot things maybe already tried maybe know middle number already maybe know matter fact five digit combination letters good please send letters trying tell thing going work read make sure already thought takes long answer usually class try usual nature imagination far surpasses seen theories really quite subtle deep get subtle deep guess easy one must really clever guess possible blindly machine wanted discuss art guessing nature laws art done one way might think well look history guys look history let first start newton situation incomplete knowledge able get laws putting together ideas relatively close experiment great distance observations test first work good next guy something well another man something great maxwell obtained laws electricity magnetism put together laws electricity due faraday people came looked realized mutually inconsistent mathematically inconsistent order straighten add one term equation way inventing model idle wheels gears space found new law nobody paid much attention believe idle wheels believe idle wheels today equations obtained correct logic may wrong answer right case relativity discovery relativity completely different accumulation paradoxes known laws gave inconsistent results new kind thinking thinking terms discussing possible symmetries laws especially difficult first time realized long something like newton laws could right still ultimately wrong second ordinary ideas time space seems instinctive could wrong quantum mechanics discovered two independent ways lesson even enormous number paradoxes discovered experimentally things absolutely could explained way known knowledge incomplete knowledge complete prediction happen two different roots one schrodinger guessed equations another heisenberg argued must analyze measurable two different philosophical methods reduced discovery end recently discovery laws interaction still partly known quite somewhat different situation time case incomplete knowledge equation guessed special difficulty time experiments wrong experiments wrong guess right answer calculate results disagrees experiment courage say experiments must wrong explain courage comes minute today paradoxes maybe infinity comes put laws together rug sweeping people clever one sometimes thinks serious paradox fact particles tell anything except knowledge incomplete sure history repeat physics see list reason scheme like think symmetry laws put equations mathematical form schemes guess equations known everybody tried time place get stuck try right away try looking symmetries try things tried stuck must another way next time time get log jam many problems methods using like ones used try right away new scheme new discovery going made completely different way history help much would like talk little bit heisenberg idea talk measure lot people talk without understanding well say physics talk measure mean interpret sense constructs inventions make talk must kind consequences compute must comparable experiment compute consequence like moo must three goos nobody knows moo goo good consequences compared experiment necessary necessary moos goos appear guess perfectly right much junk guess want provided compare experiment fully appreciated usually said example people usually complain unwarranted extension ideas particles pat</t>
-  </si>
-  <si>
-    <t>never really expected find giving advice people graduating establishment higher education never graduated establishment never even started one escaped school soon could prospect four years enforced learning would become writer wanted stifling got world wrote became better writer wrote wrote nobody ever seemed mind making went along read wrote paid often commissioned write something else left healthy respect fondness higher education friends family attended universities cured long ago looking back remarkable ride sure call career career implies kind career plan never nearest thing list made everything wanted write adult novel children book comic movie record audiobook write episode doctor career next thing list thought would tell everything wish would known starting things looking back suppose know would also give best piece advice would ever got completely failed follow first start career arts idea great people know know rules know possible impossible rules possible impossible arts made people tested bounds possible going beyond know impossible easier nobody done made rules stop anyone yet secondly idea want make put much harder sounds sometimes end much easier might imagine normally things get place want wanted write comics novels stories films became journalist journalists allowed ask questions simply find world works besides things needed write write well paid learn write economically crisply sometimes adverse conditions time sometimes way hope clear cut sometimes almost impossible decide whether correct thing balance goals hopes feeding paying debts finding work settling get something worked imagining wanted author primarily fiction making good books making good comics supporting words mountain distant mountain goal knew long kept walking towards mountain would right truly sure could stop think whether taking towards away mountain said editorial jobs magazines proper jobs would paid proper money knew attractive though would walking away mountain job offers come along earlier might taken still would closer mountain time learned write writing tended anything long felt like adventure stop felt like work meant life feel like work thirdly start deal problems failure need thickskinned learn every project survive freelance life life arts sometimes like putting messages bottles desert island hoping someone find one bottles open read put something bottle wash way back appreciation commission money love accept may put hundred things every bottle winds coming back problems failure problems discouragement hopelessness hunger want everything happen want things wrong first book piece journalism done money already bought electric typewriter advance bestseller paid lot money publisher gone involuntary liquidation first print run selling second printing royalties could paid would done shrugged still electric typewriter enough money pay rent couple months decided would best future write books money get money anything work proud get money least would work every forget rule whenever universe kicks hard reminds know issue anybody true nothing reason money ever worth except bitter experience usually wind getting money either things excited wanted see exist reality never let never regretted time spent problems failure hard problems success harder nobody warns first problem kind even limited success unshakable conviction getting away something moment discover imposter syndrome something wife amanda christened fraud police case convinced would knock door man clipboard know carried clipboard head would tell caught would get real job one consist making things writing reading books wanted read would away quietly get kind job make things problems success real luck experience point stop saying yes everything bottles threw ocean coming back learn say watched peers friends ones older watch miserable would listen telling could envisage world always wanted earn certain amount every month keep could things mattered really wanted seemed big tragedy problem failure biggest problem success world conspires stop thing successful day looked realised become someone professionally replied email wrote hobby started answering fewer emails relieved find writing much fourthly hope make mistakes making mistakes means something mistakes useful misspelled caroline letter transposing thought coraline looks like real name remember whatever discipline whether musician photographer fine artist cartoonist writer dancer designer whatever one thing unique ability make art many people known lifesaver ultimate lifesaver gets good times gets ones life sometimes hard things wrong life love business friendship health ways life wrong things get tough make good art serious husband runs politician make good art leg crushed eaten mutated boa constrictor make good art irs trail make good art cat exploded make good art somebody internet thinks stupid evil done make good art probably things work somehow eventually time take sting away matter best make good art make good days fifthly make art stuff urge starting copy bad thing find voices sounded like lot people one thing nobody else voice mind story vision write draw build play dance live moment feel possibly walking street naked exposing much heart mind exists inside showing much moment may starting get right things done worked best things least certain stories sure would either work likely kinds embarrassing failures people would gather together talk end time always common looking back people explain inevitable successes idea still would fun making something knew going work sometimes things really work stories mine never reprinted never even left house learned much things worked sixthly pass secret freelancer knowledge secret knowledge always good useful anyone ever plans create art people enter freelance world kind learned comics applies fields people get hired somehow get hired case something days would easy check would get trouble started pre internet days seemed like sensible career strategy asked editors would worked lied listed handful magazines sounded likely sounded confident got jobs made point honour written something magazines would listed get first job actually lied would chronologically challenged get work however get work people keep working freelance world today world freelance work good easy get along deliver work time even need three two three fine people tolerate unpleasant work good deliver time forgive lateness work good like good others time always pleasure hear agreed give address started trying think best advice would given years came stephen king twenty years ago height success sandman writing comic people loved taking seriously king liked sandman novel terry pratchett good omens saw madness long signing lines advice really great enjoy best advice got ignored instead worried worried next deadline next idea next story moment next fourteen fifteen years writing something head wondering stop look around really fun wish would enjoyed amazing ride parts ride missed worried things going wrong came next enjoy bit hardest lesson think let enjoy ride ride takes remarkable unexpected places platform today one places enjoying immensely today graduates wish luck luck useful often discover harder work wisely work luckier get luck helps transitional world right kind artistic field nature distribution changing models creators got work world got keep roof heads buy sandwiches changing talked people top food chain publishing bookselling areas nobody knows landscape look like two years let alone decade away distribution channels people built last century flux print visual artists musicians creative people kinds one hand intimidating immensely liberating rules assumptions supposed get work seen breaking gatekeepers leaving gates creative need get work seen youtube web whatever comes youtube web give people watching television ever old rules crumbling nobody knows new rules make rules someone asked recently something thought going difficult case recording audio book suggested pretend someone could pretend pretend someone could put notice effect studio wall said helped wise world needs wisdom cannot wise pretend someone wise behave like would make interesting mistakes make amazing mistakes make glorious fantastic mistakes break rules leave world interesting make good art</t>
-  </si>
-  <si>
-    <t>going talk self renewal one fundamental tasks renewal organizations serve usually includes persuading top officers accomplish certain amount self renewal help think others primary mission morning want help think take mission seriously written say want every sentence hit target know good deal kind work know demanding going talk special problems kind career going talk basic problems life cycle surely hit ready wrote book called self renewal deals decay renewal societies organizations individuals explored question civilizations die sometimes renew puzzle men women seed others remain vital lives latter question shall deal time know individual going seed person seated right may fairly serious danger long ago read splendid article barnacles want give wrong impression focus reading interests sometimes days without reading barnacles much less remembering read article unforgettable opening paragraph barnacle author explained confronted existential decision going live decides spends rest life head cemented rock end quote good many comes seen men women even ones fortunate circumstances responsible positions seem run steam midcareer one must compassionate assessing reasons perhaps life presented tougher problems could solve happens perhaps something inflicted major wound confidence self esteem perhaps pulled hidden resentments grievances grow adult life sometimes luxuriantly like tangled vines immobilize victim known people feeling secretly defeated maybe somewhat sour cynical perhaps vaguely dispirited maybe ran hard long somewhere along line forgot running talking people fail get top achievement get top point life anyway talking people matter busy seem stopped learning growing many going motions deride life hard keep keeping sometimes act courage worry men women functioning far level potential face fact men women world work stale know bored would care admit boredom secret ailment large scale organizations someone said day bored busy said let count ways logan pearsall smith said boredom rise level mystical experience true know busy middle level executives among great mystics time write danger complacency growing rigidity imprisonment comfortable habits opinions look around many people know well people even younger already trapped fixed attitudes habits famous french writer said people whose clocks stop certain point lives could without trouble name half dozen national figures resident washington would recognize could tell roughly year clock stopped still deal periodically watched lot mid career people yogi berra says observe lot watching concluded people enjoy learning growing many dearly troubled self assessments mid career self assessments great problem age young moving drama rise enough reach middle age energies used begin wonder added begin look figure carpet life simple advice begin process hard look ahead someone said life art drawing without eraser imagine story life lot chapters conscious danger going seed resort countervailing measures almost age need run like unwound clock clock unwound wind stay alive every sense word fail physically know pretty successful people feel possible life trapped really know life takes unexpected turns said book self renewal build prisons serve jail keepers longer completely agree still think jailkeepers concluded parents society large hand building prisons create roles self images hold captive long time individual intent self renewal deal ghosts past memory earlier failures remnants childhood dramas rebellions accumulated grievances resentments long outlived cause sometimes people cling ghosts something almost approaching pleasure hampering effect growth inescapable jim whitaker climbed mount everest said never conquer mountain conquer see human lives believe business growing much longer drawn pretend achieve even well parents teenagers say sorry myth learning young people proverb says learn know counts middle years great great learning years even years past middle years took new job birthday still learning learn life learn failures learn successes hit spell trouble ask trying teach lessons always happy ones keep coming bad idea pause occasionally inward look midlife accomplished fugitives learn jobs friends families learn accepting commitments life playing roles life hands necessarily roles would chosen learn growing older suffering loving bearing things change taking risks things learn maturity simple things acquiring information skills learn engage self destructive behavior leant burn energy anxiety discover manage tensions learn self pity resentment among toxic drugs find world loves talent pays character come understand people neither thinking learn matter hard try please people world going love lesson first troubling really quite relaxing things hard learn early life rule picked mileage dents fenders understand norman douglas said things learn others pass fire come terms finally grasp behrman meant said end every road meet may get rid hang ups learn control point function productively hurt others learn arts mutual dependence meeting needs loved ones letting need even unaffected quality often takes years acquire achieve simplicity lies beyond sophistication come understand impact others interesting even first year life learn impact variety others late middle age many people imperfect understanding impact others hostile person keeps asking people hard get along measure create environment may yet grasp power truth change life course failures part story everyone fails joe louis said everyone figure get beat time question fail pick move ahead one little question collaborate defeat lot people learn one enemies sound lifelong motivation rather childish conception kind concrete describable goal toward efforts drive want believe point feel arrived want scoring system tells piled enough points count successful scramble sweat climb reach thought goal get top stand look around chances feel little empty maybe little empty wonder whether climbed wrong mountain life mountain summit suppose riddle answer game final score life endless unfolding wish endless process self discovery endless unpredictable dialogue potentialities life situations find potentialities mean intellectual gifts full range one capacities learning sensing wondering understanding loving aspiring perhaps imagine age even explored potentialities pretty fully kid thing understand capacities actually develop full come result interplay life challenges challenges keep changing life pulls things something know may may know within resources energy ever tapped talent ever exploited strength ever tested give ever given know gifts left undeveloped would believe gifts possibilities even know true beginning recognize even every advantage opportunity unconsciously put ceiling growth underestimate potentialities hide risk growth involves discussed renewal length possible talk renewal without touching subject motivation someone defined horse sense good judgment horses prevents betting people bet people place bets often high motivation quality except judgment perfection techniques substitute lift spirit heightened performance comes strong motivation world moved highly motivated people enthusiasts men women want something much believe much talking anything narrow ambition ambition eventually wears probably keep zest day die may offer simple maxim interesting everyone wants interesting vitalizing thing interested keep sense curiosity discover new things care risk failure reach nature one personal commitments powerful element renewal let say word subject lived house could look window worked desk observe small herd cattle browsing neighboring field struck thought must occurred earliest herdsmen tens thousands years ago never get impression cow nervous breakdown puzzling meaning life humans never mastered kind complacency worriers puzzlers want meaning lives speaking idealistically stating plainly observable fact men women rare person life like homeless alley cat living day day taking pleasures dying unnoticed say known alley cats norm way built robert louis stevenson said old young last cruise want mean something many life vale tears one free pain designed cope live context meaning given powerful help draw deep springs human spirit see suffering framework human suffering accept gifts life thanks endure life indignities dignity stable periods history meaning supplied context coherent communities traditionally prescribed patterns culture today count heritage build meaning life build commitments whether religion ethical order conceive life work loved ones fellow humans young people run around searching identity handed free transient rootless pluralistic society identity committed may mean better job whatever men women make world better kind people kind commitment gift kindness courage loyalty integrity matters little whether behind wheel truck running country store bringing family must pause say word statement men women make world better kind people first wrote sentence years ago widely quoted one day looking mail order gift catalogue included small ornamental bronze plaques brief sayings one sayings one read name author well overcome idea sentence mine cast bronze ordered could figure world finally sent friend tend think youth active middle years years commitment get little older told earned right think deadly prescription people every age need commitments beyond self need meaning commitments provide self preoccupation prison every self absorbed person finally knows commitments larger purposes get prison another significant ingredient motivation one attitude toward future optimism unfashionable today particularly among intellectuals everyone makes fun someone said pessimists got way financing optimists pessimistic advise fellow said would pessimist would never work tell renewal tough minded optimism best future shaped people really believe future men women vitality always prepared bet futures even lives ventures unknown outcome looked leaped would still crouched caves sketching animal pictures wall say tough minded optimism high hopes dashed first failure precisely need believe must suppose path easy tough life painful rain falls churchill pessimist said nothing offer blood toil tears sweat great deal offer good leader saying going easy also saying something great leaders say constantly failure simply reason strengthen resolve cannot dream utopia arrangements ideal everyone flawless life tumultuous endless losing regaining balance continuous struggle never assured victory nothing ever finally safe every important battle fought fought need develop resilient indomitable morale enables face realities still strive every ounce energy prevail may wonder struggle endless uncertain outcome humans bear history suggests human spirit well fitted cope kind world remember mentioned earlier myth learning young people want give examples piece wrote reader digest long ago gave seemed particularly interesting true example renewal man question years old adult life losing struggle debt misfortune military service received battlefield injury denied use left arm seized held captivity five years later held two government jobs succeeding neither prison first time prison decided write book driven heaven knows motive boredom hope gain emotional release creative impulse say book turned one greatest ever written book enthralled world ever years prisoner cervantes book quixote another example pope john xxiii serious man found lot laugh son peasant farmers said italy three roads poverty drinking gambling fanning family chose slowest three someone asked many people worked vatican said half years old elected pope lifetime bureaucracy spark spirit imagination remained undimmed reached top launched vigorous renewal church known century still another example winston churchill age correspondent boer war became prisoner war dramatic escape made national hero elected parliament performed brilliantly held high cabinet posts distinction became first lord admiralty discredited unjustly believe dardanelles expedition defeat gallipoli lost admiralty post followed years ups downs often verdict brilliant erratic steady dependable blame friend described man jaywalked life moment flowering came someone said right late bloomer miss flower show churchill miss well give examples given hope clear door opportunity really close long reasonably healthy mean opportunity high status opportunity grow enrich life every dimension know ahead remember words bronze plaque men women make world better kind people kind person would worth years living learning many years ago concluded speech paragraph meaning life speech reprinted years years later final paragraph came back rather dramatic way really heartbreaking way man wrote colorado saying year old daughter killed auto accident weeks carrying billfold paragraph speech mine said grateful paragraph fact kept close told something might otherwise known values concerns imagine came across paragraph meaning something stumble across like answer riddle prize treasure hunt meaning something build life build past affections loyalties experience humankind passed talent understanding things believe things people love values willing sacrifice something ingredients one put together unique pattern life let life dignity meaning particular balance success failure less account</t>
-  </si>
-  <si>
-    <t>writer writing books profession course also great lifelong love fascination expect ever going change said something kind peculiar happened recently life career caused recalibrate whole relationship work peculiar thing recently wrote book memoir called eat pray love decidedly unlike previous books went world reason became big mega sensation international bestseller thing result everywhere people treat like doomed seriously doomed doomed like come worried say afraid never going able top afraid going keep writing whole life never going create book anybody world cares ever reassuring know would worse except happen remember years ago teenager first started telling people wanted writer met sort fear based reaction people would say afraid never going success afraid humiliation rejection kill afraid going work whole life craft nothing ever going come going die scrap heap broken dreams mouth filled bitter ash failure answer short answer questions yes yes afraid things always afraid many many things besides people even guess like seaweed things scary comes writing thing sort thinking lately wondering lately know rational logical anybody expected afraid work feel put earth specifically creative ventures seems make really nervous mental health way careers kind know like dad example chemical engineer recall years chemical engineering anybody asking afraid chemical engineer know chemical engineering block john going come like know fair chemical engineers group really earned reputation centuries alcoholic manic depressives writers kind reputation writers creative people across genres seems reputation enormously mentally unstable look grim death count century alone really magnificent creative minds died young often hands know even ones literally commit suicide seem really undone gifts know norman mailer died last interview said every one books killed little extraordinary statement make life work even blink hear somebody say heard kind stuff long somehow completely internalized accepted collectively notion creativity suffering somehow inherently linked artistry end always ultimately lead anguish question want ask everybody today guys cool idea comfortable look even inch away know comfortable assumption think odious also think dangerous want see perpetuated next century think better encourage great creative minds live definitely know case situation would dangerous start sort leaking dark path assumption particularly given circumstance right career pretty young years old still maybe another four decades work left exceedingly likely anything write point forward going judged world work came freakish success last book right put bluntly sort friends exceedingly likely greatest success behind jesus thought kind thought could lead person start drinking gin nine clock morning want would prefer keep work love question becomes seems upon lot reflection way work order continue writing create sort protective psychological construct sort find way safe distance writing natural anxiety reaction writing going looking last year models sort looking across time trying find societies see might better saner ideas help creative people sort manage inherent emotional risks creativity search led ancient greece ancient rome stay circle around back ancient greece ancient rome people happen believe creativity came human beings people believed creativity divine attendant spirit came human beings distant unknowable source distant unknowable reasons greeks famously called divine attendant spirits creativity daemons socrates famously believed daemon spoke wisdom afar romans idea called sort disembodied creative spirit genius great romans actually think genius particularly clever individual believed genius sort magical divine entity believed literally live walls artist studio kind like dobby house elf would come sort invisibly assist artist work would shape outcome work brilliant right distance talking psychological construct protect results work everyone knew functioned right ancient artist protected certain things like example much narcissism right work brilliant could take credit everybody knew disembodied genius helped work bombed entirely fault know everyone knew genius kind lame people thought creativity west really long time renaissance came everything changed big idea big idea let put individual human center universe gods mysteries room mystical creatures take dictation divine beginning rational humanism people started believe creativity came completely self individual first time history start hear people referring artist genius rather genius got tell think huge error think allowing somebody one mere person believe like vessel know like font essence source divine creative unknowable eternal mystery smidge much responsibility put one fragile human psyche like asking somebody swallow sun completely warps distorts egos creates unmanageable expectations performance think pressure killing artists last years true think true question becomes differently maybe back ancient understanding relationship humans creative mystery maybe maybe erase years rational humanistic thought one minute speech probably people audience would raise really legitimate scientific suspicions notion basically fairies follow people around rubbing fairy juice projects stuff probably going bring along question kind want pose know think way makes much sense anything else ever heard terms explaining utter maddening capriciousness creative process process anybody ever tried make something say basically everyone knows always behave rationally fact sometimes feel downright paranormal encounter recently met extraordinary american poet ruth stone poet entire life told growing rural virginia would working fields said would feel hear poem coming landscape said like thunderous train air would come barreling landscape felt coming would shake earth feet knew one thing point words run like hell would run like hell house would getting chased poem whole deal get piece paper pencil fast enough thundered could collect grab page times would fast enough would running running would get house poem would barrel would miss said would continue across landscape looking put another poet times piece never forgot said moments would almost miss right running house looking paper poem passes grabs pencil going said like would reach hand would catch would catch poem tail would pull backwards body transcribing page instances poem would come page perfect intact backwards last word first creative process pipeline mule way work get time every day sweat labor barrel really awkwardly even mulishness even brushed thing times would imagine lot know even work ideas come source honestly cannot identify thing relate way make lose minds fact might actually keep sane best contemporary example musician tom waits got interview several years ago magazine assignment talking know tom life pretty much embodiment tormented contemporary modern artist trying control manage dominate sort uncontrollable creative impulses totally internalized got older got calmer one day driving freeway los angeles changed speeding along sudden hears little fragment melody comes head inspiration often comes elusive tantalizing wants gorgeous longs way get piece paper pencil tape recorder starts feel old anxiety start rise like going lose thing haunted song forever good enough instead panicking stopped stopped whole mental process something completely novel looked sky said excuse see driving look like write song right really want exist come back opportune moment take care otherwise bother somebody else today bother leonard cohen whole work process changed work work still oftentimes dark ever process heavy anxiety around released took genie genius causing nothing trouble released back came realized internalized tormented thing could peculiar wondrous bizarre collaboration kind conversation tom strange external thing quite tom heard story started shift little bit way worked idea already saved saved middle writing eat pray love fell one sort pits despair fall working something coming start think going disaster worst book ever written bad worst book ever written started think dump project remembered tom talking open air tried lifted face manuscript directed comments empty corner room said aloud listen thing know book brilliant entirely fault right see putting everything want better got show part deal know hell going keep writing anyway job would please like record reflect today showed part job end like centuries ago deserts north africa people used gather moonlight dances sacred dance music would hours hours dawn always magnificent dancers professionals terrific right every rarely something would happen one performers would actually become transcendent know know talking know seen point life performance like like time would stop dancer would sort step kind portal anything different ever done nights everything would align sudden would longer appear merely human would lit within lit lit fire divinity happened back people knew know called name would put hands together would start chant allah allah allah god god god god know curious historical footnote moors invaded southern spain took custom pronunciation changed centuries allah allah allah still hear bullfights flamenco dances spain performer done something impossible magic allah allah magnificent bravo incomprehensible glimpse god great need tricky bit comes next morning dancer wakes discovers tuesday longer glimpse god aging mortal really bad knees maybe never going ascend height maybe nobody ever chant god name spins rest life hard one painful reconciliations make creative life maybe quite full anguish never happened believe first place extraordinary aspects came maybe believed loan unimaginable source exquisite portion life passed along finished somebody else know think way starts change everything started think certainly thinking last months working book soon published dangerously frighteningly anticipated follow freakish success sort keep telling get really psyched afraid daunted job continue show piece whatever might job dance dance divine cockeyed genius assigned case decides let sort wonderment glimpsed one moment efforts dance anyhow nonetheless believe feel must teach nonetheless sheer human love stubbornness keep showing thank</t>
-  </si>
-  <si>
-    <t>several years ago brought face face disturbing realization trying supervise direct efforts large number men women trying achieve success without knowing secret success really naturally brought face face realization regardless knowledge might brought job definitely lacking important knowledge course like brought popular belief secret success hard work seen many people work hard without succeeding many people succeed without working hard become convinced hard work real secret even though cases might one requirements set voyage discovery carried biographies autobiographies sorts dissertations success lives successful individuals finally reached point realized secret trying discover lay individuals also made realized secret searching must apply every definition success since must apply everyone offered must also apply everyone ever successful short looking common denominator success exactly looking exactly found common denominator success big powerful vitally important future mine going make speech going lay line words one syllable simple everyone understand common denominator success secret success every individual ever successful lies fact formed habit things failures like true sounds simple seems hold light put acid test kick around worn still common denominator success whether like still explain individuals come business every apparent qualification success given disappointing failures others come achieved outstanding success spite many obvious handicaps since also explain future would seem mighty good idea use determining sort future going words let take big embracing secret boil fit individual secret success lies forming habit things failures like let start boiling process determining things failures like things failures like things human beings including successful people naturally like words got realize right start success something achieved minority people therefore unnatural achieved following natural likes dislikes guided natural preferences prejudices things failures like general many obvious discuss since success achieved sale life insurance let move discussion things life insurance agents like things like many permit specific discussion think disposed saying emanate one basic dislike peculiar type selling like call people want see talk something want talk reluctance follow prospecting program use prepared sales talks organize time organize effort caused one basic dislike perhaps wondered behind peculiar lack welcome pan prospective buyers due fact prospects human true average human beings big enough buy life insurance accord therefore prone escape efforts make bigger persuade something want striking important weakness possess namely desire appreciated perhaps discouraged feeling born subject certain dislikes peculiar successful agents business afflicted perhaps wondered biggest producers seem like things like think encouraging statement ever offered group life insurance agents like things things like accomplish things want accomplish successful people influenced desire pleasing results failures influenced desire pleasing methods included satis results obtained things like successful people able things like failures successful people purpose strong enough make form habit things like order accomplish purpose want accomplish sometimes even best producers get slump people slump simply means reached point time things like become important reasons may pause suggest managers agents one good producers goes slump less talk production talk purpose sooner pull agent slump many people discussed common denominator success said point family support make living family enough purpose sufficiently strong purpose make form habit things like simple reason easier adjust hardships poor living adjust hardships making better one doubt think things willing without order avoid things like seems prove strength holds purpose strength strength purpose let see habit belongs importantly common denominator success people creatures habit machines creatures momentum habit nothing less momentum translated concrete abstract picture problem would face mechanical engineers things momentum speed would impossible highest speed vehicle could moved would first speed could broken away standstill elevators could made rise airplanes could made fly entire world mechanics would find total state helplessness think human nature finest engineers world could finest machinery ever built every single qualification success acquired habit people form habits habits form futures deliberately form good habits unconsciously form bad ones kind person formed habit kind person way change habit success habits life insurance selling divided four main groups prospecting habits calling habits selling habits working habits let discuss habit groups order successful life insurance agent tell easier sell life insurance people want find people want deliberately formed habit prospecting needs regardless wants unconsciously formed habit limiting prospecting people want life insurance therein lies one real reason lack prospects calling habits unless deliberately formed habit calling people able buy unwilling listen unconsciously formed habit calling people willing listen unable buy selling habits unless deliberately formed habit calling prospects determined make see reasons buying life insurance unconsciously formed habit calling prospects state mind willing let make see reasons buying working habits take care three groups working habits generally take care working habits included study preparation organization time efforts records analyses etc certainly going take trouble learn interest arousing approaches sales talks unless going use going plan day work know heart going carry plans certainly going keep honest record things done results achieved let worry much fourth group success habits taking care first three groups working habits take care able afford secretary take care rest decide adopt success habits let warn importance habit decision attended many sales meetings sales congresses past ten years often wondered spite fact much good many people seem get little lasting good perhaps attended sales meetings past left meetings determined things would make successful successful find decision determination waning time put effect practice answer resolution decision make simply promise worth tinker damn formed habit making keeping form habit making keeping unless right start link definite purpose accomplished keeping words resolution decision make today made tomorrow next day next next made day kept day miss one day making keeping got back begin continue process making morning keeping day finally wake morning different person different world wonder happened world used live happened resolution decision become habit make particular morning reason seeming like different person living different world lies fact first time life control control likes dislikes surrendering purpose life behind every success must purpose makes purpose important future last analysis future going depend economic conditions outside influences circumstances control future going depend purpose life let talk purpose first purpose must practical visionary time ago talked woman thought purpose important income interested people suffering wanted placed position alleviate suffering analyzed real feelings discovered admitted really wanted real nice job dispensing charity people money well paid along appreciation feeling importance would naturally job making purpose practical careful make logical make purpose sentimental emotional type remember needs logical wants desires sentimental emotional needs push far needs satis stop pushing however purpose terms wants desires wants desires fulfilled recently talking young man long ago discovered common denominator success without identifying discovery definite purpose life definitely sentimental emotional purpose wanted children college without work way done wanted wife mother children enjoy luxuries comforts even necessities denied mother willing form habit things like order accomplish purpose discourage rather encourage said going little far thing logical reason children willing able work way college father course miss many things missed college life probably heartaches disappointments good come end logical reason slave order wife enjoy comforts luxuries mother never looked rather pitying look said gray inspiration logic courage logic even happiness logic satisfaction place logic life realization willing family shall able imagine hearing story told find purpose identify surrender big purpose big accomplishment unselfish purpose unselfish accomplishing honest purpose honest honorable accomplishment long live ever forget may succeed beyond fondest hopes greatest expectations never succeed beyond purpose willing surrender furthermore surrender complete formed habit things failures like</t>
-  </si>
-  <si>
-    <t>thanks believe thinking giving particular presentation decade talking administration inspired studying stories three people might call luminaries probably heroes mine read noticed overlap pattern amongst talk many people room heard phrase dream job raise hand right everybody heard phrase know means means chasing career immense passion partner kevin harvey phrase love says life use lose proposition humans take one career path got one shot makes happy way one reasons audience want thank audience wanted presentation first think coming mba program amazingly unique opportunity undergrad degree worked little bit chance whatever want amazing pivot point opportune audience obviously wanted come back texas thanks going first going start telling three stories luminaries going walk five guidelines inferred special stories end well going start orville ohio anyone know company founded orville give bucks anybody knows smucker nothing presentation first gentleman talking guy named robert montgomery grew orville town looked like attended orville high school three sport letter man baseball football basketball lucky enough one neighbors knew coach fred taylor ohio state able get spot really good basketball team robert number point guard peering huddle fred taylor coach ohio state time robert starter came bench get ton minutes team john havlicek john cuzzie sophomore year national championship played national championship junior senior year two players mentioned went onto nba robert went coaching spent first year coach high school finagled way onto staff army assistant army black knights played gillis field house head coach retired begged job signing contract became head coach school ended making robert successful point view happened inside four walls gym practiced every day outside first five years coaching career befriended five top basketball minds east coast red auerbach havlicek went boston red coach time able build relationship joe lapchick clair bee coached long island university best record coach basketball hall fame robert met clair robert drove clair clair induction basketball hall fame sat next next one henry iba coached years oklahoma state time probably one successful basketball coaches time evert dean indiana met became friends two lapchick iba went coaches luncheon knew going begged said sit next met kept following hanging year later met pete newell pete greatest basketball mind west coast time became fast friends years later pete would induct robert basketball hall fame limit peer network basketball coaches met football coaches well coach cincinnati bengals schembechler would coach michigan assistant basketball team army met bill parcells around time way bill became star national league doc counsilman long time swimming coach indiana also someone robert became friends using name robert obscure things little bit talking bobby knight age bobby knight became head coach indiana university five years later went undefeated regular season post season national championship never repeated since four decades indiana would win three national championships four coach year awards big titles retired victories coach time said pete newell inducted bobby hall fame going move onto next story circle back see going going start hibbing minnesota two three hours north minnesota another robert robert zimmerman grew hibbing hibbing looked like young even though pretty far north minnesota bit urban environment robert loved music early photo got drum got guitar years old high school playing band regularly used cover elvis little richard yearbook says likely join little richard happen happened went university minnesota class hanging place called dinky town photo right time late early lot new stuff happening even though grew playing rock roll fell love folk music would say eight nine months studied every folk album possibly could lot money back time could walk record store listen booth would hours hours hours became friends people also liked folk music money would house listen record collection even accused borrowed records returned point controversy even still today next thing happened think one ambitious actions anyone know taken pursue dream job hitch hiked minneapolis new york city guitar suitcase miles ask today talk little bit chasing performers dave van ronk peggy seeger new lost city ramblers people listening minnesota people new york city wanted see really one person wanted see woody guthrie woody guthrie become hero wikipedia find know already went new york find woody guthrie pursuit come affection love way woody played wanted know everything possibly could went new york found woody guthrie used perform started hanging three venues caf wha gaslight caf gerde folk city epicenter folk music time would sit venues hours upon hours study artists years later liam clancy would say could perform one songs like including tonality tempo everything mimic studying studying studying got big break asked open john lee hooker gerde one day career got started gentleman joe hammond producer aretha franklin billie holiday count basie one day walked found gentleman think something like next year robert zimmerman changes name bob dylan john releases first album album okay released freewheeling bob dylan album goes number number one everything races performed march washington joan baez martin luther king spoke famous speech year later performed first time johnny cash another one heroes johnny gave guitar asked could record several song johnny asked bob could record songs rest history say million albums sold grammys oscar emmy introduced rock roll hall fame took whole new level kennedy center award clinton barack obama gave medal freedom topped something never done nobel prize literature musician ever given award happened two years ago amazing story right one know well equally inspiring saint louis missouri person time named daniel grew saint louis father intelligence officer military moved around europe quite bit war ended father became travel agent mother worked traveled quite bit travel agents mom told journal everything forced vacation take notes interested travel loved food went back looked journal notes always taken always food eating wherever started associate different places food went went john boroughs high school saint louis ended trinity college connecticut would spend every weekend new york city eating food passionate got poly sci major went work campaign year interesting went back new york robert zimmerman chasing folk music danny chasing food personal life could going different restaurants exploring went work check point make things attach clothes store walk beeper goes early check point life incredibly well within year making year salesman spent food new york city one night eat uncle aunt grandmother elio restaurant open told studying lsat going take lsat next year career ladder become lawyer uncle replied stop open restaurant know supposed caught little guard woke next day took lsat never sent scores single school never applied single school quit job salesman went work restaurant called pesca front office year took salary reduction reason chose pesca chef coming chef called michael romano wanted around gentleman would work day front office night would beg slop work kitchen could get exposure happening also taking wine class night met gentleman happened head one top restaurant critics new york times started hanging together going different restaurants talking learning something really interesting made list icons restaurant industry new people innovative things around opening new high end restaurants wolfgang puck first one different lot people celebrity chef shows today started studying created notebook every one makes special unique started looking recipes got even bolder decided europe took every single one connections restaurant industry travel industry parents plus trinity would tours europe parents lot connections look presentation stagiaire think fancy french word work restaurant free one restaurants worked pay month ran math equal negative thousand year salary gone making upside think would studies every one places every one restaurants watching chef watching recipes goes sourcing trips see pick food markets different fish markets takes tons notes looks cor looks wine list way home nine month journey said took entire eight half hour flight organize notes gets back new york spend another six seven months searching hundred locations find best location launch first restaurant years old opened union square caf danny meyer might know love quote proud studying studying trinity college viewed best work ever done student union square caf still open today times zagat said best restaurant new york danny meyer would launch high end restaurants new york city four michelin stars undisputed king high end restaurants new york city done lot restaurants danny would open areas needed gentrification philosophy could build restaurant could become bespoke place people community would evolve would get lift alongside typically would look areas rise needed help one area needed lot help madison square park far union square bunch business people helped launch madison square conservancy rebuilt park years happened started improving park decision made allow restaurant center park applied got bid location first shake shack later going something see work went launching first shake shack first shake shack look like want eat looks like open always line got know danny open table board worked together decade used tell keep secret single venue made way profit white table cloth restaurants owned course fast forward today shake shacks around world took shake shack public nysc worth billion think one austin correct three stories read independently noticed similar strain running every one stories organized want talk first one one provide least amount help know passions first piece advice would find passion pick profession deep personal interest nothing going make successful love going work harder anybody else going feel like work going feel like fun think important decision possibly make career make sure immense passion personal passion parents sister family generation expectation needs something might passionate thing parents run need know something also mention status compensation lot high profile careers make lot money generally perceived areas successful people run things passion going burn eventually going want last point fake somebody else sitting mba program deep passion whatever career path going going smoke one favorite quotes bobby knight says everybody win people practice think test whether actually pursuing dream job essence would considered studying work practice enjoy part enjoy preparation everybody enjoys winning enjoy preparation second five guidelines would hone craft constantly extremely important obsessive understanding everything possibly craft consider obligation hold accountable requires keep learning time study history know pioneers bedrock foundation going build upon help networking able talk language people came strive know everyone else particular craft subgroup mean let say love sports let say decided multiplayer gaming sports like grew gaming love right within first six months program knowledgeable person mccombs sports doable able end first year top five mba students hopefully exit second year number one mba student mean best sports person world separated everyone else make smartest brightest quite doable knowledgeable possible gather information somebody else especially today lastly bit caveat depending chasing might want epicenter reason networking available great people next two bullet points tie interesting story bobby knight biography second time met pete newell walked room guy like pete newell one famous basketball coaches ever walks room plays diagrammed three five cards sits middle floor says hey pete come know audacious brilliant people would consider top get number one mentor possibly find make amount tedious work pete learned interesting quotes movie direction home martin scorsese dylan really highlight point trying drive home people would think bob dylan folk singer probably dna got lucky something studying used word musical expeditionary looked expeditionary expedition travel scientific research exploration dylan one knew folk music broke knew anybody another guy minneapolis knew called sponge ruthlessness way dylan finds sources uses moves constantly gathering information putting repertoire going read danny book want drive home point studying see huge fan danny got markers one genuine humans ever met restaurant new york called blue smoke actually barbecue place thinking launching says barbecue within mile radius austin texas hill country lie five towns revere distinctly different style barbecue elements barbecue limited ribs brisket pulled pork chop mince pork sausage chicken coleslaw beans handful sides become american culinary language thousands dialects accents tried understand variation one hour road trip north carolina tasted variations chopped pork defined subtle dramatic differences texture degree type smoke used amount tomato vinegar sauce much heat applied meat well much little crackling got chopped tossed level detail thinks food really like one shake shack soon bid richard corrine enthusiastic researcher road food set study burger shake stands country started course ted drew steak shake saint lewis grew eating continued kansas city individually made stops michigan culver los angeles burger napa taylor automatic refreshers chicago gold coast dogs plus eight establishments connecticut names three four always search best breed research shake shack think drives home point like understand anybody else bit aside anybody know painting painting called first communion painted pablo picasso years old people think brought told picasso first art class look cubism pictures someone say seven year old could know picasso trained classic artist mastered time spent time studying way would set greatest painter world made statement greatness random earned going research something lucky day information freely available internet good news bad news zero excuse knowledgeable subject want right fingertip free excellent three develop mentors field know ever dare aggressive dylan hitch hiking miles find mentor might type attitude want think back mind pursue mentors take every chance find somebody teach field want excel work way stack jump straight top day one treat respect debate things learn document hear share others try get mentors interested development send notes tell use advice successful send gifts accomplishments get bought one reason american idol works start voting cheering somebody sudden feel like part process right get feel way success mentor thing never stop got keep pursuing remarkable fortune year year investor meet stan druckenmiller howard marks two people admired long time read everything write time speak got sit couple hours talk investing awesome things pushed changed actions taking today work would already walked examples every one three luminaries mentor important funny story last week preparing presentation rereading danny book went back notion made list people considered icons industry texted said danny many icons ended establishing relationship sent emoji back thrilled knew use emojis went tell four become close personal friends think documents point making searching mentors leaning mentors never ending task four embrace peers field develop relationship discussions arguments way learn way ideas get shared way hone innovate ideas one thing wish someone told got mba school everybody said network network network thought social activity thought telling need develop social skills want randomly talk people similar interests come realize connecting people overlap able help along way along journey always share best practices worry giving proprietary knowledge good trade smart get caught worrying going fail advance activity sharing mentors peers lead many positive things help whatever negative costs going come anywhere close celebrate peers accomplishments cheer send notes happy come back spades lastly peers need exact field bobby knight sat swimming coach got knowledge entrepreneurs work ceos find interesting conference topic little bit far away get innovative ideas bring back field close spread know way supposed network online certainly linkedin profile certainly connect people give one piece advice would little stingy link rule want link people would call trust advice searching candidate want reference something get random answers get people know going use think people proliferate linkedin account yesterday think much incredible resource alternative twitter twitter amazing networking learning network ever built someone pursuing dream job chasing group mentors peers remarkable given field top experts field twitter sharing ideas connect follow personal feed get lucky enough say something find interesting might follow reason becomes super interesting unlocks direct message sudden communicate directly electronically whenever want individual powerful using twitter missing even shares anymore last one obvious people always give majority credit people helped along way one right thing two keep asshole successful find greats right thing send letters send gifts anytime accomplish something career take time send messages back people helped tell personal story quite serious help reinforce favorite professor jim fredrickson many know passed away year along way along journey three four times took time write letter send note send gift tell impact passed anxiety like get chance tell took chances tell would encourage guys type stuff along way lastly eventually got pay back become mentor people start reaching make sure take time examples bobby knight shortly one sessions pete newell next year indiana playing one pete teams end tournament together bobby uses stuff pete taught beats pete field recalled notion book said know pete willing got everybody else let show statistically little bit impact bobby later career wikipedia bobby former players coaching either nba former coaches coaching nba immense legacy people developed went successful deep deep basketball fans room know point guard army none mike krzyzewski one two people passed career wins krzyzewski asked bobby knight induct hall fame moving video watch youtube interested danny probably wonderful human certainly one wonderful humans ever met life talks graciousness evident every single thing talks people treats staff book worth reading get chance see huge fan going tell two stories time reason wanted talk mba class bec</t>
-  </si>
-  <si>
-    <t>first lecture orientation trying purpose course prepare technical future really course technical content although going talk digital fillers kinds things things presumably know concerned style studied great scientists ever since los alamos war different significant things mainly manner style many person known worked hard others much show problem instill something called style amount something navy paying large sum money wants money back later performance examine criticize talk various people style mainly people use many things going tell wish somebody told find course normal technical course topics never told class course taught way large amount falls trying pick style cannot put words approach particular examples let infer belief probably anything talked goes back socrates plato aristotle early greek times thought could talk gods truth beauty justice love things time saying things mystery cults greece said must experience cannot talk remember middle ages various saints said talk god got experience way mohammedans allah portray put pictures must sense long minuscule says cannot put everything words one style really cannot say mean give examples struggle hopefully get idea effective course like found talk make abstract remarks sounds like many pious words talk done maybe penetrate gives course attitude bragging always talking tell several mistakes made sort thing similarly get quit modesty get individually respond challenge going great say yes guy hammond become great scientist become great person get say want worth effort going try something average person speak teachers really coaches cannot run mile four minute mile comment upon style know must work way cannot make great scientist criticize style things cannot mere words make great scientist running four minute mile must work means take hear read think carefully discuss friends see adapt one style successful painters paint many different styles find style fits means take fragments people use adapt become copy directly get away use analogy painting example painting learned color mixing form sketching study master temporarily accept knowing talking well limits done know copy master style exactly great painter know also paint style late future wants different style thus tell style used past style cope future must manufacturer style make significant person future easy talk past ones make references possible future ones problem face would make successful starting predecessor got successful things could get successful another practice difficult went build laboratories looked around since already interested made great scientists looked looked become famous look difficult tend easy problems found course time couple holes left fundamentally easy problems generation somewhat harder ones left others harder still every generation difficulty stand shoulders extent yet task harder got man moon next real good feet space gonna lot harder therefore difficulty definite came bell labs four time came time age within year probably called four young turks many many years later discovered top management called troublemakers things way previous generation new things previous generation like things right example boss henry boda network theory made reputation network complex variable knew things made famous guy hamming comes keeps using computing machines way eyes thing needed done lesson want get across regularly supposing successful rise top would please remember made great appropriate next generation know get great great things may appropriate next generation often troubled bosses know god way got top must right often wrong want think seriously rise top method success appropriate world changed want talk education education things training year courses training trying talk education part easy school allowed great deal latitude putting course together concentrating education one without much good able technical people reporting apply technology methods wrong problem undone people kinds theory could anything use either need theory guide skill technique one without good certain sense engaged meta education talking education constantly going going educate constantly future says going constantly try project forward world gonna like let look back first history modern era science engineering began sir isaac newton roughly born christmas day year galileo died lived say around newton time double knowledge every years doubling period science roughly bell laboratories trying shrink war size people watched years management putting hiring freeze everything else like double every years small wiggles hire two people keep expanding knowledge publications books journals example think numbers guess going make digression thing situation scientists ever lived alive common statement going turn back envelope calculation learned watching family people shockley people used get lunch going suppose first exponential growth number scientists comes differential equation rate change proportional much solution know exponential growth assume amount knowledge generated proportional number scientists amount rate years ago much generated put minus infinity matter lower limit put small matter exponential small cares well would simply work would integration come statement half stuff done doubling every years years ago doubled says ratio half got farm formula take statement scientists ever lived alive back years going take lifetime scientist probably mean living scientist two years old probably mean science alive become beginning scientist decay somewhere deserve sign years reasonable number put whole scientists ever lived come using come close enough let see happened got clear idea talking answer question thought mean lifetime scientist see two statements compatible double every years scientists ever lived alive seen enormous growth science newton time well let project well let say good estimate number various branches science developed newton time one thing called natural philosophy lots specialties something like specialties certainly almost certainly less good number could check forward doubling every years years million fold would make million fields especially believe believe years billion fields specialty consequently science cannot way next years doubling growth cannot one things done got exponential number people field either everyone would scientist know past good guide future reason want put back envelope widely used observed fairmi shockley use eat lunch back envelope saw also two things puts thing firmer mind shown calculation may retain little longer plus gives practice quick modeling nobody pretends really accurate pretend exactly number somewhere around back envelope calculations useful find useful hear things something else radio read newspapers quick modeling ask numbers possible frequently two things emerge either possible even know talking make model father failed tell talking gave spectacular answer back envelope modeling big help doubling business serious one lived life fact put table double years triple four five six seven eight nine ten times years something like hey read one way ask time retirement look column much knowledge much times way face rather horrendous future another way look suppose child born child goes college four times much knowledge mathematical theorems recording beethoven ninth skiing channels read listen going four times much knowledge poor child face remember hit college much seemed surprised children somewhat disoriented god knows sometimes disoriented means furthermore doubling doubling occurs worst last period almost half half episodes occur last doubling period causes saturation saturation comes quite rapidly another way looking doubling simply table disconcerting think chief staff say years say years five times much knowledge needed run navy needed face answer answer learning learn thing could things become obsolete something like half taught loving courses obsolete years either longer replaced something else consider lived came bell laboratories running back due important part started mathematical background studying light engineering back tubes song years began eating physics department ate guy perfecting started developing engineering side transistors great deal calculation transistors absolutely needed knowledge knew see could long walks friends office keeps going around show suits vacuum tube see often say well original transistor roll tin cans three legs minimalist ship sides los alamos calculate bomb designs really calculus probably averaged maybe operation second maybe second half round clock six half days week month sometimes three months typically month get one solution punch modern machine boop boop answer live tremendous change furthermore educated mathematician certainly course numerical analysis never knew computer knew little physics los alamos taught fundamentally went bell labs believe computing understand nature problem learn something breadth physical sciences chemistry well lot physics social science little bit biological science laboratories departments sub social science spent lifetime getting background knowledge something background knowledge enough penetrate jargon talk extensively later date one thing could try claim fundamentals glib ask mean fundamentals well two criteria adequate one fundamental derive rest field secondly around time fundamentals application vacuum tubes count true formula gain trouble names frequently come pretty soon nyquist formulas still good game form used back tubes still useful although apply things feedback still lot things need discuss science versus engineering science know know science science supposed exploration know engineering unless know well nothing pure science involves great deal engineering engineering involves great deal new material great blend painful going worse two fields growing together simple fact going back first candy bell labs suddenly discovered physics telephone company greater hurry get developed field pretty much monopoly hurry know willing wait scientific principles develop want field tomorrow two fields come together like leisure use long ago still using extent develop ideas first apply going less less acceptable ideas first around want apply read last night one presidents museum one world fair shot boat back right back doctors refused operate know bullet booth thing ray demonstrated use new technique right ready available kind wheeled kind picture conservative allow much anymore pushing hard going pushed much idea develop item get market rapidly read different methods predicting future engaged extent one predict tomorrow like today whatever temperature today predict tomorrow pretty good prediction somewhat better one note linear trend predict linear trend good long furthermore depends variable pick linear pick coefficient linear one thing pick exponent something else work well made many predictions much computing pretty soon need know much capacity would need regularly raw low side one time said predict high got form predicted real high couple years later paper turned desk looked low growth computing unbelievable hand side take artificial intelligence predictions made almost experts years ago realized always things none less saying short term predictions optimistic long term predictions pessimistic reason simple long term pessimistic nobody believe geometric regression say got transistors going nobody right mind would predicted million transistors ship big nobody beyond belief know predict future hard business history important people believe history repeats people believe exactly opposite one thing sure regard past people future think future past time history books yes live long enough enough end history books think future become past another thing history henry ford senior remark history bunk think said two reasons one history rarely reported correctly great main description happened last almost war two agree agree think happened indeed one time math teacher wrote experience matter publisher guy came last almost regular summer visit said friend read william book remembered said remember either going say remember suddenly realized two people remember familiar accident several witnesses see report different things reliable report happened past come accepted secondly think affords mine fact past rapidly disconnected future invention computer tells much world different computers appear change way things engineering great extent getting computer job writing program putting terminal equipment around defect real world heart much engineering computer historians read give impression inevitable going happen inevitable rome would fall hand tell future open ended many things possible true past determined future open seems unlikely left saying maybe past determined example individual lives alexander great napoleon hitler died childhood would world different intellectual side pythagoras aristotle newton maxwell einstein examples people died youth world would rather different individuals matter suggest past less determine historians like make future less open ended would like believe great many possibilities future got great possibilities one thing history unforeseen technological inventions ruin anything like told transistors development vacuum tubes practically cut technological invention change completely history something one could hardly foresee technological inventions also social inventions important people trained mainly physical side got make sensitive fact life takes place social society restraints thus claim future technology less determined technology social legal restraints stop think highway controlled computer control highway traffic sounds good ask sue accident begin decide know going difficult thing get going difficult social conventions going stop great things happening want talk another thing story use several times story drunken sailor staggered couple steps way staggers way staggers way staggers way steps typically get square root distance steps get steps times may right started maybe way typical hand pretty girl talking like back like like going disproportional end create vision headed make progress proportional end vision wander like drunken sailor get little one major purposes get form reasonable vision going future kind person going gonna say hannick know future gonna say matter much examine life goal set want march way way way goal get somewhere near goal drunken sailor problem make form goals except try achieve make something important rather drifting comfortable drift life great many people one question closely assert perfectly content drift life think good idea whole thing none business goal take business force one way another set reasonably decent goals try achieve something life society paying great deal money education entitled something something generally kind goals see headed lives add bunch isolated events nothing nothing added promise get choose goals even want mary great guitar player mind long set goal struggling essential part really course extent forcing somehow rather would done otherwise standard method teaching departments departments break things something better like calculus linear linear programming much falls course attempt one way plug holes engineering courses lot engineering courses taught mean vast holes optimizing combos individual courses optimizing total education come system engineering another goal show spite different departments essential unity knowledge face difficult problem unknown type matter whether comes chemistry physics anything else find answer knowledge pretty homogeneous longer divided courses longer divided apartments although bell labs math department almost time fact great many things statistics computing physics lot chemistry observed tied division purpose organization structure want get new minds sort homogeneous body specialized certain names reconnected together course center around computing like think prejudiced life computing rather fact going dominate science engineering reasons powerful reasons economics example computers far cheaper human beings far cheaper getting cheaper year humans getting expensive year speed far far faster nervous system drop something toe signals head meters per second like kilometers per second walk league even touch electronic speeds way come near speed overwhelmingly side machine accuracy number ditches arithmetic carry yes quite precise double precision necessary trouble double precision take probably tried work would trouble reliability far far ahead god nature however want make reliable thing walking years still every trip stumble anything really reliable man ended top heap flexibility built ever try get humans something reliable take example bowling throw ball alley exactly way every time perfect game perfect games rare even among skill experts precision flying things hard recognize precise drill teams something remarkable human animal really designed designed something else repeated repetitive control machines got rapid control building airplanes basically unstable computer every millisecond correcting usability get better performance pilot could computer goes pilot pilot left large scale abroad planning millisecond millisecond left better computer human act act fast another one tried well much freedom boarding sounds trivial cannot put human job look something three years happens respond properly put computer job put computer job watch rare event episode happens atomic pile happened four years human going well guys know looking think last two half years even get humans freed boredom machines know word bandwidth rapidly changing situation person charge get much information general belief really process bits per second maybe something like process bits per second machines got enormous bandwidth visual auditory pull inputs together match modern machine bandwidth coming getting orders central control humans simply cannot complicated situation compete machine merely bandwidth bandwidth making judgments sell story machines simply cannot cope longer crew aiming gun airplane self contained human slow much good need much rapid things humans cope bandwidth speed getting information fundamental computers got ease retraining training old ways learn something changed equipment gotta unlearn old habits learn new ones got repeat many many times learn computer changed program done elaborate training endless hours constant practice put new progra</t>
-  </si>
-  <si>
-    <t>honored today commencement one finest universities world never graduated college truth told closest ever gotten college graduation today want tell three stories life big deal three stories first story connecting dots dropped reed college first months stayed around drop another months really quit drop started born biological mother young unwed college graduate student decided put adoption felt strongly adopted college graduates everything set adopted birth lawyer wife except popped decided last minute really wanted girl parents waiting list got call middle night asking unexpected baby boy want said course biological mother later found mother never graduated college father never graduated high school refused sign final adoption papers relented months later parents promised would someday college years later college naively chose college almost expensive stanford working class parents savings spent college tuition six months could see value idea wanted life idea college going help figure spending money parents saved entire life decided drop trust would work pretty scary time looking back one best decisions ever made minute dropped could stop taking required classes interest begin dropping ones looked interesting romantic dorm room slept floor friends rooms returned coke bottles deposits buy food would walk miles across town every sunday night get one good meal week hare krishna temple loved much stumbled following curiosity intuition turned priceless later let give one example reed college time offered perhaps best calligraphy instruction country throughout campus every poster every label every drawer beautifully hand calligraphed dropped take normal classes decided take calligraphy class learn learned serif sans serif typefaces varying amount space different letter combinations makes great typography great beautiful historical artistically subtle way science capture found fascinating none even hope practical application life years later designing first macintosh computer came back designed mac first computer beautiful typography never dropped single course college mac would never multiple typefaces proportionally spaced fonts since windows copied mac likely personal computer would never dropped would never dropped calligraphy class personal computers might wonderful typography course impossible connect dots looking forward college clear looking backward years later connect dots looking forward connect looking backward trust dots somehow connect future trust something gut destiny life karma whatever approach never let made difference life second story love loss lucky found loved early life woz started apple parents garage worked hard years apple grown two garage billion company employees released finest creation macintosh year earlier turned got fired get fired company started well apple grew hired someone thought talented run company first year things went well visions future began diverge eventually falling board directors sided publicly focus entire adult life gone devastating really know months felt let previous generation entrepreneurs dropped baton passed met david packard bob noyce tried apologize screwing badly public failure even thought running away valley something slowly began dawn still loved turn events apple changed one bit rejected still love decided start see turned getting fired apple best thing could ever happened heaviness successful replaced lightness beginner less sure everything freed enter one creative periods life next five years started company named next another company named pixar fell love amazing woman would become wife pixar went create world first computer animated feature film toy story successful animation studio world remarkable turn events apple bought next returned apple technology developed next heart apple current renaissance laurene wonderful family together pretty sure none would happened fired apple awful tasting medicine guess patient needed sometimes life hits head brick lose faith convinced thing kept going loved got find love true work lovers work going fill large part life way truly satisfied believe great work way great work love found yet keep looking settle matters heart know find like great relationship gets better better years roll keep looking find settle third story death read quote went something like live day last someday certainly right made impression since past years looked mirror every morning asked today last day life would want today whenever answer many days row know need change something remembering dead soon important tool ever encountered help make big choices life almost everything external expectations pride fear embarrassment failure things fall away face death leaving truly important remembering going die best way know avoid trap thinking something lose already naked reason follow heart year ago diagnosed cancer scan morning clearly showed tumor pancreas even know pancreas doctors told almost certainly type cancer incurable expect live longer three six months doctor advised home get affairs order doctor code prepare die means try tell kids everything thought would next years tell months means make sure everything buttoned easy possible family means say goodbyes lived diagnosis day later evening biopsy stuck endoscope throat stomach intestines put needle pancreas got cells tumor sedated wife told viewed cells microscope doctors started crying turned rare form pancreatic cancer curable surgery surgery fine closest facing death hope closest get decades lived say bit certainty death useful purely intellectual concept one wants die even people want heaven want die get yet death destination share one ever escaped death likely single best invention life life change agent clears old make way new right new someday long gradually become old cleared away sorry dramatic quite true time limited waste living someone else life trapped dogma living results people thinking let noise others opinions drown inner voice important courage follow heart intuition somehow already know truly want become everything else secondary young amazing publication called whole earth catalog one bibles generation created fellow named stewart brand far menlo park brought life poetic touch late personal computers desktop publishing made typewriters scissors polaroid cameras sort like google paperback form years google came along idealistic overflowing neat tools great notions stewart team put several issues whole earth catalog run course put final issue mid age back cover final issue photograph early morning country road kind might find hitchhiking adventurous beneath words stay hungry stay foolish farewell message signed stay hungry stay foolish always wished graduate begin anew wish stay hungry stay foolish thank much</t>
-  </si>
-  <si>
-    <t>asked talk multidisciplinary approach thinking start guys get bored something say well thought supposed fun listening today raise hand say could talk leadership team building business strategy ethics something else gave talk recently google fact given three talks google first talk gave said going talk said well want talk said whatever want usually talk well usually talk leadership culture team building strategy ethics said want hear team building crap get time want hear self improvement mix multidisciplinary topic little bit self improvement well important multidisciplinary thinker answer comes austrian philosopher ludwig wittgenstein said understand know could anything sounds simpler yet genius line understand know many mistakes make understand something make mistakes mistakes come come blind spots lack understanding need multidisciplinary thinking japanese proverb says frog well knows nothing mighty ocean may know everything know specialty silo well going make good decisions life complex systems life dynamic system life know one well tried learn munger calls big ideas different disciplines right front want tell trick try way enough time life impossible fields big books thick trick learn big ideas science biology etc found science magazine called discover magazine show hands anybody ever heard discover magazine people found magazine every month really good interview somebody aspect science every month six seven pages long layperson terms person trying get ideas across would using good stories clear language would never fail get big ideas interview mean given chance interviewed discover magazine field nanoparticles something going try best get good ideas interview best stories discovered internet years discover magazine articles available archives printed years times months interviews interviews put big three ring binders filled three big binders next six months went coffee shop hour two every morning read read index fund style means read pick choose universe going whole universe read every single one tell articles would selecting reading material probably would read would never million years read six pages nanoparticles guess end six months inside head every single big idea every single domain science biology took months hard written layperson terms really really get like index fund captured parabolic ideas one else anybody else ideas world would read interview nanoparticles yet got best ideas would read arcane subject god saw exactly works biology exactly works human nature know big ideas alternative find somebody get ideas age school thought asymmetry unfair work every time back meet group students change asymmetry around work multiple examples models derived call three buckets let see got three buckets three buckets use ideas one else world uses yet comfortable right statistician best friend large relevant sample size principle derived large relevant sample size wrong way could wrong sample size small sample relevant want tell three buckets derive models multidisciplinary models number one billion years large sample largest one whole universe larger sample inorganic universe physics geology anything living goes bucket number billion years bucket number billion years biology planet earth big sample size relevant biological creatures let ask inorganic bucket number one relevant live bucket number one live billion years bucket number two part biology billion years number three years recorded human history relevant story going take couple examples multidisciplinary thinking ask question simple two word description accurately describes everything world works would useful would know everything works two words bucket number one everything work newton third law motion getting multidisciplinary anybody room know newton third law motion says answer every action always equal opposite reaction beautiful wins one pens answering question correctly always give rewards like operant conditioning psychology right yes put bottle water table newton third law motion says bottle pushes table force also strangely says table pushes back equal force strange know long true billion years true push twice hard table well push twenty one half times hard table twenty one half good word catchall word describe talking pushes thing pushes back yeah reciprocation mere reciprocation perfectly mirrored reciprocation harder push harder pushes back everybody buy bucket number one world works mirrored reciprocation everything inorganic universe works way bucket number going introduce little humor even though dog pretend cat cat time mark twain said man picks cat tail learn lesson learn way cat going try going answer attack yeah going try scratch sharp claws find picked tail agreeable start swinging cat around tail cat trying scratch eyes said escalated pal going escalate back sound lot like mirrored reciprocation instead something disagreeable cat something agreeable cat cat sitting come gently pick tummy put crook elbow gently stroke cat try scratch licks hands long sit stroke going continue try lick hand wants show like agreeable good guy keep man mirrored reciprocation act disagreeable way cat cat acts disagreeable way back mirrored act agreeable way think going find bucket number three exactly thing entire life every interaction another human merely mirrored reciprocation going say simple simple simple mean sophisticated sophisticated model derived multidisciplinary fashion looked three largest sample sizes exist three relevant said exactly thing think bank percent bank think things complex sophisticated like people think complex sophisticated want remember best say important albert einstein listed said five ascending levels cognitive prowess nobody room want level number one right want level number five want level number one wait hear levels going blow mind number said bottom smart lowest level cognitive prowess smart next level level intelligent level next brilliant next level level said genius higher genius must backward wait hear number one according albert einstein demonstrated number one simple simple transcends genius simple right kind simple better genius understand bought book usually take giving talk like ethics spinoza spinoza ethics book written true genius guess understand anything understand walked mirrored reciprocation economics club right everybody interested economics let give example model derived multidisciplinary way pure economic model find going ask question powerful force human beings individuals groups potentially harness towards achieving ends life bucket number one ask powerful force bucket number one going quote albert einstein said powerful force universe compound interest said compound interest said powerful force universe said greatest mathematical discovery time said eighth wonder world said understand get paid pay said things albert einstein compound interest good working definition compound interest propose one mine say compound interest dogged incremental constant progress long time frame fair definition alright think answer bucket number powerful force could potentially harnessed dogged incremental constant progress long time frame bucket number billion years biology powerful force three half billion years biology machine evolution work dogged incremental constant progress long time frame beauty deriving things multidisciplinary wrong see things lined like three bars slot machine boy hit jackpot think going find bucket number three years human experience earth want win gold medal olympics want learn musical instrument want learn foreign language want build berkshire hathaway formula dogged incremental constant progress long time frame look simple genius absolutely genius understand somebody drawing formulas things know numbers multiply amplify time problem human beings like constant think one terms dogged incremental constant progress long time frame nobody wants constant functional equivalent sisyphus pushing boulder mountain push half way come back another time goes back got great idea going really work hard push half way know get back next month human condition geometric terms called variance drain whenever interrupt constant increase certain level threshold lose compounding longer log curve fall back onto linear curve god forbid step curve constant many people know constant know couple warren buffett charlie munger everybody wants rich like warren buffett charlie munger telling got rich constant intermittent let give example intermittency perhaps important thing lives whether realize begin example bringing home puppy pet shop brand spanking new puppy pet shop kids excited excited goal bringing home puppy household say engaged contributing new member household night number one disaster thing corner shaking like leaf anything engaged anything contributing anything shaking like leaf human beings really good solving problem know need create calm reassuring secure safe environment know even though puppy understand saying need communicate soothing tones also know need provide food water puppy underlying things stitching together really know constant feed puppy one day happens well puppy freaks puppy becomes neurotic puppy know whether trust trust puppy needs dependent upon constant behaviors everybody accept constant usually seven days less constant little puppy trot side attach rest life willing die puppy went idea want engaged contributing new member household even know idea puppy idea let tie lives google really could figure afterwards said know really good eight dollar crystal ball really good trick eight dollar crystal ball trick told rows bigger one full smartest people world said guess going eight dollar crystal ball said going psychic reading anybody room anybody said google think got stooge room got prearranged corridor bring somebody psychic reading eight dollars spent amazon best money ever spent going select name answer emily going take emily going psychic reading emily right front going believe going nail going guy nutcase spencer going man invite guy patient spencer good stuff pull going tell emily looking whole life anybody thinks well wait hear answer rest life going know everybody world looking emily entire life quest odyssey search individual percent absolutely completely trust trustworthy principled courageous competent kind loyal understanding forgiving unselfish right answer dead know else eight dollar crystal ball tells ever think may encountered person going probe probe test test make sure real fooled paradox looks like probing weakness probing strength worst day life instead strength get back weakness feel betrayed know got start search worst thing whole world everybody agree look simple second course leadership takes business school need books need guest speakers take list emily head every single person room every single person whole world list head trustworthy principled courageous competent loyal kind understanding forgiving unselfish every single one interactions others list remember puppy went human beings encounter life going idea people spend day long trying get people like wrong list able keep people away everybody going want attach willing like puppy would willing die looking whole lives pretty profound look picture love picture woman look like good time helped teach high school class los angeles first class semester brand new group like guys make following exercise believe like eight dollar crystal ball afterwards going really glad heard really understand things level understand understand know clear blind spots human beings asked group show hands many think human beings alike answer basic needs express differently tremendous diversity meeting ultimately needs get two pens beautiful answer going identify needs name answer craig craig nailed show hands many want paid attention mean really anybody want paid attention different kind human many want listened many want respected many want meaning satisfaction fulfillment life sense matter tell high school kids number five put number five even though important five put last put first would raise hands awkward going think weird raise hand soften many want loved everybody exactly difference craig said strategy employing try get fulfill needs going tell strategy dogs use dog going unhappy telling ratting dog backyard goes fence house next house talks dog next door going tell says one ever divulged first group hear dog says dog next door believe easy manipulate human beings get whatever want dog next door goes know piece cake dog says yeah every single time come home greet door biggest unconditional show attention ever gotten whole life like seconds back whatever completely ignore rest evening however every single time come home person take care anything dog think woman feels paid attention listened respected think getting meaning satisfaction fulfillment think matters dog think thinks dog loves dog get return everything want everything life everybody else first pay attention listen show respect give meaning satisfaction fulfillment convey matter show love first going get back mirrored reciprocation right see tie together world damn simple complicated every single person planet looking thing act simple things example use class elevator example famous elevator story standing front elevator doors open inside elevator one solitary stranger never met person whole life walk elevator three choices going behave walk elevator choice number one smile say good morning say least california percent time person smile say good morning back test guess going find percent time people say good morning choice number two walk scowl hiss stranger elevator idea scowling hissing say percent time may hiss back scowl back option number three wisdom comes walk elevator nothing get percent time walk elevator nothing stranger elevator nothing mirrored reciprocation first going get back whatever put bars full people drowning sorrows knocking drinks world going give something man going get mine well ever ever get morning smile world either nothing scowled hissed world getting back exactly would expect get back understood world really works study multidisciplinary things right wrong mirrored reciprocation want want positive want first obstacle big obstacle economics club certainly heard daniel kahneman nobel prize winner economics behavioral economics win nobel prize answering question would people positive first percent chance going benefit percent chance person going tell screw going feel horrible lose face rest real said huge asymmetry standard human desire gain standard human desire avoid loss one think powerful percent versus gave talk fairfax toronto prem watsa outfit berkshire hathaway canada said people whole world guys making mistake insurance business insurance work supposed spend percent protect percent right look spending percent protect percent probability somebody makes look foolish lou brock set major league record stolen bases louis cardinals many years ago said show man afraid appearing foolish show man beat every time getting beat life chances afraid appearing foolish life risk two percent proud day reading bono bono bono lead singer person ever encountered entire life asked cronies anybody else ever encountered elevator model peter said know said guess got exact model bono well got numbers wrong guy really squared away hope day squared away incredible think figured guy great life goes know know percent people going screw willing vulnerable expose going miss make sense charlie munger one day know turned whole life upside house one day said peter hearing going around giving talks around country telling people make money said well charlie nimble feet said catch tell make money way things get people whatnot make money made really give second half message good person name answer albert albert many lifetimes albert answer one correct get pen see albert lucked got easy question lifetime important albert answer one important absolutely know economics economics model know need use decision making prism whenever something finite like one important like life make decisions mankiw right talk opportunity cost heard opportunity cost classic illustration opportunity cost finite number something important means means evaluate different alternatives pick one optimal fair got one lifetime want spend one lifetime want spend one lifetime like people fighting everybody around told avoid exchange celebratory life instead antagonistic fighting life positive first patient enough know patient week puppy know long usually takes human probing testing emily going find real takes six months nobody takes long compared look plan everybody uses terrible work spend whole lives fighting everybody three hallmarks great investment superior returns low risk long duration whole world concentrates category leader merit treating three priorities get low risk long duration win win biggest blind spot business people actually proud win lose relationship yeah really beat crap suppliers know got employees know got visa work anywhere else three years proud total win lose take game theory insert word lose scenario game theory suboptimal outcome happens insert win win game theory scenario get optimal every time must necessarily interested achieving win win frameworks important counterparties life must understand basic axiom clinical psychology know multidisciplinary also learned psychology basic axiom clinical psychology reads could see world way see would understand behave way pretty good two corollaries axiom say buy axiom must buy two corollaries well logical extensions undeniable corollary number one axiom true want understand way someone behaving must see world see corollary number two want change human behavior accept axiom must necessarily get change change see world sounds impossible really hard take business employees business see world</t>
-  </si>
-  <si>
-    <t>president powers provost fenves deans members faculty family friends importantly class congratulations achievement almost years day graduated remember lot things day remember throbbing headache party night remember serious girlfriend later married important remember way remember getting commissioned navy day things remember clue commencement speaker evening certainly remember anything said acknowledging fact make commencement speech memorable least try make short university slogan starts changes world admit kinda like starts changes world tonight almost students graduating great paragon analytical rigor ask com says average american meet people lifetime lot folks every one changed lives people one folks changed lives another people five generations years class changed lives million people million people think twice population united states one generation change entire population world eight billion people think hard change lives people change lives forever wrong saw happen every day iraq afghanistan young army officer makes decision left instead right road baghdad soldiers squad saved close ambush kandahar province afghanistan non commissioned officer female engagement team senses something right directs infantry platoon away pound ied saving lives dozen soldiers think soldiers saved decisions one person children yet unborn also saved children children saved generations saved one decision one person changing world happen anywhere anyone starts indeed change world question world look like change well confident look much much better humor old sailor moment suggestions may help way better world lessons learned time military assure matters whether ever served day uniform matters gender ethnic religious background orientation social status struggles world similar lessons overcome struggles move forward changing world around apply equally navy seal years began left basic seal training coronado california basic seal training six months long torturous runs soft sand midnight swims cold water san diego obstacles courses unending calisthenics days without sleep always cold wet miserable six months constantly harrassed professionally trained warriors seek find weak mind body eliminate ever becoming navy seal training also seeks find students lead environment constant stress chaos failure hardships basic seal training lifetime challenges crammed six months lessons learned basic seal training hopefully value move forward life every morning basic seal training instructors time vietnam veterans would show barracks room first thing would inspect bed right corners would square covers pulled tight pillow centered headboard extra blanket folded neatly foot rack navy talk bed simple task mundane best every morning required make bed perfection seemed little ridiculous time particularly light fact aspiring real warriors tough battle hardened seals wisdom simple act proven many times make bed every morning accomplished first task day give small sense pride encourage another task another another end day one task completed turned many tasks completed making bed also reinforce fact little things life matter little things right never big things right chance miserable day come home bed made made made bed gives encouragement tomorrow better want change world start making bed seal training students broken boat crews crew seven students three side small rubber boat one coxswain help guide dingy every day boat crew forms beach instructed get surfzone paddle several miles coast winter surf san diego get feet high exceedingly difficult paddle plunging surf unless everyone digs every paddle must synchronized stroke count coxswain everyone must exert equal effort boat turn wave unceremoniously tossed back beach boat make destination everyone must paddle change world alone need help truly get starting point destination takes friends colleagues good strangers strong coxswain guide want change world find someone help paddle weeks difficult training seal class started men six boat crews seven men boat tall guys best boat crew made little guys munchkin crew called one five foot five munchkin boat crew one american indian one african american one polish american one greek american one italian american two tough kids midwest paddled ran swam boat crews big men boat crews would always make good natured fun tiny little flippers munchkins put tiny little feet prior every swim somehow little guys every corner nation world always last laugh swimming faster everyone reaching shore long rest seal training great equalizer nothing mattered succeed color ethnic background education social status want change world measure person size heart size flippers several times week instructors would line class uniform inspection exceptionally thorough hat perfectly starched uniform immaculately pressed belt buckle shiny void smudges seemed matter much effort put starching hat pressing uniform polishing belt buckle good enough instructors would find something wrong failing uniform inspection student run fully clothed surfzone wet head toe roll around beach every part body covered sand effect known sugar cookie stayed uniform rest day cold wet sandy many student could accept fact effort vain matter hard tried get uniform right unappreciated students make training students understand purpose drill never going succeed never going perfect uniform sometimes matter well prepare well perform still end sugar cookie way life sometimes want change world get sugar cookie keep moving forward every day training challenged multiple physical events long runs long swims obstacle courses hours calisthenics something designed test mettle every event standards times meet failed meet standards name posted list end day list invited circus circus two hours additional calisthenics designed wear break spirit force quit one wanted circus circus meant day measure circus meant fatigue fatigue meant following day would difficult circuses likely time seal training everyone everyone made circus list interesting thing happened constantly list time students two hours extra calisthenics got stronger stronger pain circuses built inner strength built physical resiliency life filled circuses fail likely fail often painful discouraging times test core want change world afraid circuses least twice week trainees required run obstacle course obstacle course contained obstacles including foot high wall foot cargo net barbed wire crawl name challenging obstacle slide life three level foot tower one end one level tower foot long rope climb three tiered tower top grabbed rope swung underneath rope pulled hand hand got end record obstacle course stood years class began training record seemed unbeatable one day student decided slide life head first instead swinging body underneath rope inching way bravely mounted top rope thrust forward dangerous move seemingly foolish fraught risk failure could mean injury dropped training without hesitation student slid rope perilously fast instead several minutes took half time end course broken record want change world sometimes slide obstacle head first land warfare phase training students flown san clemente island lies coast san diego waters san clemente breeding ground great white sharks pass seal training series long swims must completed one night swim swim instructors joyfully brief trainees species sharks inhabit waters san clemente assure however student ever eaten shark least recently also taught shark begins circle position stand ground swim away act afraid shark hungry midnight snack darts towards summon strength punch snout turn swim away lot sharks world hope complete swim deal want change world back sharks navy seals one jobs conduct underwater attacks enemy shipping practiced technique extensively basic training ship attack mission pair seal divers dropped outside enemy harbor swims well two miles underwater using nothing depth gauge compass get target entire swim even well surface light comes comforting know open water approach ship tied pier light begins fade steel structure ship blocks moonlight blocks surrounding street lamps blocks ambient light successful mission swim ship find keel centerline deepest part ship objective keel also darkest part ship cannot see hand front face noise ship machinery deafening easy get disoriented fail every seal knows keel darkest moment mission time must calm composed tactical skills physical power inner strength must brought bear want change world must best darkest moment ninth week training referred hell week six days sleep constant physical mental harassment one special day mud flats mud flats area san diego tijuana water runs creates tijuana slues swampy patch terrain mud engulf wednesday hell week paddle mud flats spend next hours trying survive freezing cold mud howling wind incessant pressure quit instructors sun began set wednesday evening training class committed egregious infraction rules ordered mud mud consumed man till nothing visible heads instructors told could leave mud five men would quit five men could get oppressive cold looking around mud flat apparent students give still eight hours till sun came eight hours bone chilling cold chattering teeth shivering moans trainees loud hard hear anything one voice began echo night one voice raised song song terribly tune sung great enthusiasm one voice became two two became three long everyone class singing knew one man could rise misery others could well instructors threatened time mud kept singingbut singing persisted somehow mud seemed little warmer wind little tamer dawn far away learned anything time traveling world power hope power one person washington lincoln king mandela even young girl pakistan malala one person change world giving people hope want change world start singing neck mud finally seal training bell brass bell hangs center compound students see quit ring bell ring bell longer wake clock ring bell longer freezing cold swims ring bell longer runs obstacle course longer endure hardships training ring bell want change world ever ever ring bell graduating class moments away graduating moments away beginning journey life moments away starting change world better easy class class affect lives million people next century start day task completed find someone help life respect everyone know life fair fail often take take risks step times toughest face bullies lift downtrodden never ever give things next generation generations follow live world far better one today started indeed changed world better thank much hook horns</t>
-  </si>
-  <si>
-    <t>midst sea change tidal wave might accurate medium photography lens still firmly fixed camera body body appears imploded inner workings guts camera talbot days cameras called mousetraps wife always tripping changed faster anyone expected digital camera slr become new tool lens based professionals artists almost overnight everywhere pictures changed ground rules making need pictures make mark lives give meaning experience park deep consciousness way new music always never greater appetite lens based visual culture stands mediums communication hands art world photography stepped forward important art medium times roberta smith writing new york times years back put way paraphrasing last years medium profound effect art medium photography mind comes one america foremost critics sculpture bus station helsinki want introduce bus station next eliel saarinen famous train station surrounded jugenstil architectural gems like national theater national art museum bus station makes cool backdrop magnum wannabees armed slrs vintage leica might find sometime getting back bus station makes famous least among students teach umass lowell university art design helsinki cole art appliqu lausanne many workshops give tuscany maine santa metaphor offers students professionals alike creative continuity life long journey photography metaphor provides young artists seeking discover unique vision one day helsinki bus station let describe happens two dozen platforms laid square heart city head platform sign posting numbers buses leave particular platform bus numbers might read follows bus takes route city least kilometer stopping bus stop intervals along way numbers repeated let say metaphorically speaking bus stop represents one year life photographer meaning third bus stop would represent three years photographic activity working three years making platinum studies nudes call bus take three years work nude museum fine arts boston curator asks familiar nudes irving penn bus line take gallery paris reminded check bill brandt bus shocked realize three years others already done hop bus grab cab life short head straight back bus station looking another platform time going make view camera color snapshots people lying beach cherry picker crane spend three years three grand produce series works elicit comment seen work richard misrach steamy black white camera view palm trees swaying beachfront seen work sally mann get bus grab cab race back find new platform goes creative life always showing new work always compared others simple stay bus stay cking bus time begin see difference buses move helsinki stay line maybe kilometer two begin separate number heading unique destination bus suddenly goes north bus southwest time maybe dovetail one another soon split well irving penn headed elsewhere separation makes difference start see difference work work admire chose platform time look breakthrough suddenly work starts get noticed working making difference work influenced vision takes years mount work takes begins pile long critics become intrigued separates work sally mann ralph gibson first got started regain whole bus route fact vintage prints made twenty years ago suddenly evaluated worth start selling premium end line bus comes rest driver get smoke better yet cup coffee work done could end career artist end life matter total output early called imitations breakthroughs peaks valleys closing masterpieces stamp unique vision stayed bus began photography enamored work ralph gibson duane michals jerry uelsmann platforms told possible use mind make pictures copywriter minolta account became photographer wrote happens inside mind happen inside camera took credo made multiple images like uelsmann sequences like michals ralph gibson images haunted one picture particular hands coming prow boat made loved picture foot coming prow finnish rowboat way made sure image inspired mine even though thinking made picture show antibes called three masters surreal eikoh hosoe great japanese master ralph gibson humbly party vernissage told ralph trepidations first began photography nodded head said first saw work thereabouts feeling something familiar quick add know take long find way found difference ralph went photograph women walls color surreal light continued bus route less haunted assured best chance making voice vision heard find common attribute work recognized audiences made curious happen early teacher harry callahan stated never get much better first important works come soon auction london sotheby years back one pieces came bidding shows upside face mouth wide open boardwalk narragansett rhode island auctioneer announced piece certainly describe student work fact made harry class teach teachers say student work maybe think twice teaching georges braque said limited means new forms emerge say find knowing heart set platinum landscapes misty southern terrains work way inspire ride bus route damn would say merely repeating done wait months years pass soon differences begin appear clarity intelligence originality become visible even works first years trepidation everything seemed done whole lot things art become ten different artists great danger communicate little end say ride bus dreams stay course closing want take switzerland also teach stand back stand back far enough see mountain top head straight knowing disappear sight life meander hidden forest trails lift ever higher even many sections force drop mountainside pockets disappointment even despair climbing soon enough always headed towards goal special occasions may many fruits labors suddenly made visible celebrated see peak closer giving confidence step forward ever briskly bravely one point tree line thin way hair top old man begins bald away air clear path sure top delight accomplished much become aware peaks far higher ever dreamed peaks distance first saw hard judge heights see way climbing days done look lofty peaks raging jealousy end days sadness regret look path came become proud even arrogant like every step took skim horizon eyes take gorgeous sweep panorama know peace rare humility number one world number one special peace comes humility one showers respect peers reach peak life reached highest peak god bless sides football field bless one country another number one without number deux tres quatro funf lesson back classrooms america learning think hope see bumper stickers read son made dean list see sons daughters tracey moffatt poignant series works dedicated athletes come fourth place gold silver even bronze number uno stardom dream chase need good make good work caretaker vision make famous remember art risk made visible good luck see going great</t>
-  </si>
-  <si>
-    <t>well doubt many wondering speaker old well answer obviously died yet speaker chosen well know either like think development department nothing whatever reason think fitting sitting see one crowd faces rear wearing robes know educated army descendants really deserves lot honors given people upfront sacrifice wisdom value transfer comes one generation next never underrated gives enormous pleasure look sea asian faces left life admired confucius like idea filial piety idea values taught duties come naturally passed next generation people think anything idea please note fast asian faces rising american life think something right scratched notes going try give account ideas attitudes worked well claim perfect everybody although think many pretty close universal values many fail ideas core ideas helped well luckily got early age idea safest way try get want try deserve want simple idea golden rule speak want deliver world would buy end ethos opinion better lawyer person large people ethos win life win money honors emoluments win respect deserved trust people deal huge pleasure life obtained getting deserved trust way get deliver would want buy circumstances reversed occasionally find perfect rogue person dies rich widely known mostly people fully understood surrounding civilization cathedral full people funeral ceremony celebrate fact person dead reminds story time one people died minister said time someone say something nice deceased nobody came forward nobody came forward nobody came forward finally one man came said well brother worse want kind funeral want leave entirely wrong example second idea got early love right admiration based love love include instructive dead somehow got idea lived life useful love like celebrated somerset maugham book human bondage sick kind love disease find disease like advice turn around fix eliminate another idea got may remind confucius wisdom acquisition moral duty something advance life wisdom acquisition moral duty corollary proposition important means hooked lifetime learning without lifetime learning people going well going get far life based already know going advance life going learn leave take berkshire hathaway certainly one best regarded corporations world may best long term investment record entire history civilization skill got berkshire one decade would sufficed get next decade achievements made without warren buffett learning machine continuous learning machine record would absolutely impossible true lower walks life constantly see people rise life smartest sometimes even diligent learning machines bed every night little wiser got boy help particularly long run ahead alfred north whitehead said one time rapid advance civilization came man invented method invention course referring huge growth gdp per capita good things take granted started hundred years ago stasis civilization progress invents method invention progress learn method learning lucky came law school learned method learning nothing served better long life continuous learning take warren buffett watched time clock would say half time spends sitting ass reading big chunk rest time spent talking one one either telephone personally highly gifted people trusts trust words looks quite academic worldly success academia many wonderful values came across value long ago several years ago capacity hospital board chairman dealing medical school academic man years hard work made know bone tumor pathology almost anybody else world wanted pass knowledge rest going well decided write textbook would useful people think textbook like sells two thousand copies two thousand copies major cancer centers world took year sabbatical sat front computer slides saved organized filed worked hours day days week year sabbatical end year one great bone tumor pathology textbooks world around values like want pick much another idea hugely useful listened law school wag said legal mind mind two things twisted together interacting feasible think responsibly one thing well could see one sentence perfectly ridiculous pushed natural drift learning big ideas big disciplines would perfect damn fool trying think one aspect something could removed totality situation constructive fashion noted since really big ideas carry percent freight hard pick big ideas big disciplines make standard part mental routines ideas course good practice practice lose went life constantly practicing model disciplinary approach well tell done made life fun made constructive made helpful others made enormously rich name attitude really helps dangers works well frequently find sitting presence expert maybe even expert superior supervising know specialty lot see correct answer missed dangerous position cause enormous offense helpfully right way causes somebody else lose face never found perfect way solve problem great poker player young good enough poker player people failed sense thought knew subjects gave lot offense regarded eccentric difficult period advice learn sometimes keep light bushel one colleagues also number one class law school great success life worked supreme court etc knew lot tended show young lawyer one day senior partner called said listen chuck want explain something duty circumstances behave way client thinks smartest person world little energy insight available use make senior partner look like smartest person world satisfied two obligations want light shine well may good advice rising large firm always obeyed drift nature people like need adored everybody another idea way talk multidisciplinary attitude really following key idea greatest lawyer antiquity marcus tullius cicero cicero famous saying man know happened born goes life like child correct idea cicero right ridicule somebody foolish know happened born generalize cicero think one things know addition history things big ideas disciplines help know enough prattle back exam get learn things way mental latticework head automatically use rest life solemnly promise one day walking street look right left think heavenly days one competent people whole age forward many brightest live middle ranks shallows another idea got encapsulated story dean recounted man wanted know going die would rustic let idea profound truth hand way complex adaptive systems work way mental constructs work problems frequently get easier would even say usually easier solve turn around reverse words want help india question ask help india think worst damage india would automatically worst damage avoid would think logically thing mastered algebra know inversion frequently solve problems nothing else solve life unless gifted einstein inversion help solve problems solve ways use little inversion really fail life want avoid easy answer sloth unreliability unreliable matter virtues going crater immediately faithfully engaged automatic part conduct want avoid sloth unreliability another thing think avoided extremely intense ideology cabbages one mind seen see lot know preachers instance know got different ideas theology lot minds made cabbage happen political ideology young easy drift loyalties announce loyal member start shouting orthodox ideology pounding pounding gradually ruining mind want careful ideology big danger mind got little example use whenever think ideology scandinavian canoeists succeeded taming rapids scandinavia thought would tackle whirlpools aaron rapids united states death rate percent big whirlpool something want think true really deep ideology call iron prescription helps keep sane naturally drift toward preferring one ideology another say entitled opinion subject unless state arguments position better people supporting think reach stage qualified speak say much iron discipline much iron discipline even hard sounds lot like iron prescription ferdinand great necessary hope order persevere probably tough people think tough tough people business drifting extreme ideology important thing life want correct knowledge wiser people heavy ideology likely another thing course one self serving bias subject think little entitled wants instance true little overspend income well man became famous composer world utterly miserable time one reasons always overspent income mozart mozart get kind asinine conduct think try generally speaking envy resentment revenge self pity disastrous modes thought self pity gets pretty close paranoia paranoia one hardest things reverse want drift self pity friend carried big stack linen cards thick somebody would make comment reflected self pity would take one cards take top one stack hand person card said story touched heart never heard anyone many misfortunes well say waggery suggest every time find drifting self pity care cause child could dying cancer self pity going improve situation give one cards ridiculous way behave avoid get great advantage everybody else almost everybody else self pity standard condition yet train course self serving bias want get thinking good good wider civilization rationalizing ridiculous conclusions based subconscious tendency serve one self terribly inaccurate way think course want drive want wise foolish also allow self serving bias everybody else people gonna remove successfully condition allow self serving bias conduct fool watched brilliant harvard law review trained general counsel salomon lose career ceo aware underling done something wrong general counsel said gee legal duty report think moral duty course general counsel totally correct course work unpleasant thing ceo put put course everything eroded major scandal went ceo general counsel correct answer situations like given ben franklin said want persuade appeal interest reason self serving bias extreme general counsel said look going erupt something destroy take away money take away status perfect disaster would worked want appeal interest want lofty motives avoid appealing interest another thing perverse incentives want perverse incentive system causing behave foolishly worse worse incentives powerful controller human cognition human behavior one things going find modern law firms billable hour quotas could lived billable hour quota hours year would caused serious problems would done solution figure significant problem particularly want avoid working directly somebody really admire want like dangerous subject control extent authority figures particularly authority figures rewarding requires talent way solved figured people admire maneuvered cleverly without criticizing anybody working entirely people admired lot law firms permit shrewd enough work outcome life way satisfactory way better work people really admire alternative good idea objectivity maintenance well remember darwin paid special attention disconfirming evidence particularly disconfirm something believed loved well objectivity maintenance routines totally required life going correct thinker talking darwin attitude special attention disconfirming evidence also checklist routines checklist routines avoid lot errors elementary wisdom checklist order use procedure work well last idea found important realized early non egality would work better parts world wanted inhabit mean non egality mean john wooden number one basketball coach world said bottom five players get play sparring partners top seven playing well top seven learned remember learning machine playing got system wooden would ever think game life many respects getting lot practice hands people aptitude learn tendency learning machines want highest reaches human civilization want choose brain surgeon child among fifty applicants take turns procedure want airplanes designed way want berkshire hathaway run way want get power right people frequently tell story max planck nobel prize went around germany giving lectures quantum mechanics chauffeur gradually memorized lecture said would mind professor planck boring staying routines would mind gave lecture time sat front chauffeur hat planck said sure chauffeur got gave long lecture quantum mechanics physics professor stood rear asked perfectly ghastly question chauffeur said well surprised advanced city like munich get elementary question going ask chauffeur reply well reason tell story entirely celebrate quick wittiness protagonist world two kinds knowledge one planck knowledge people really know paid dues aptitude got chauffeur knowledge learned prattle talk big head hair may fine timbre voice really make hell impression end got chauffeur knowledge think described practically every politician united states going problem life getting responsibility people planck knowledge away people chauffeur knowledge huge forces working generation failed extent delivering california legislature certified nuts left certified nuts right allowed serve none removable generation done would like easy would another thing found intense interest subject indispensable really going excel could force fairly good lot things could really good anything intense interest extent going follow feasible want drift something really natural interest another thing course lot assiduity like word means sit ass marvelous partners life think got partly tried deserve partly wise enough select partly maybe luck two partners chose one little phase life following rule created little design build construction team sat said two man partnership divide everything equally rule whenever behind commitments people work hours day caught well needless say firm fail people died rich simple idea another thing course life terrible blows horrible blows unfair blows matter people recover others think attitude epictetus best thought every mischance life opportunity behave well every mischance life opportunity learn something duty submerged self pity utilize terrible blow constructive fashion good idea may remember epitaph epictetus left lies epictetus slave maimed body ultimate poverty favored gods well way epictetus remembered said big consequences favorite gods favored became wise became manly good idea got final little idea prudence well opportunism grandfather federal judge city nearly forty years really admired namesake confucian enough even sit saying well judge munger would pleased see confucian enough years grandfather dead carry torch grandfather values grandfather munger federal judge time pensions widows federal judges save income grandmother would penury kind man underspent income life left comfortable circumstances along way thirties uncle bank failed could reopen grandfather saved bank taking third assets good assets putting bank taking horrible assets exchange course save bank grandfather took loss got money back eventually always remembered example got college came across houseman remember little poem houseman went something like thoughts others light fleeting lovers meeting luck fame mine trouble mine steady ready trouble came say wants life anticipating trouble well life gone life anticipating trouble well along eighty fourth year like epictetus favored life make unhappy anticipate trouble time ready perform adequately trouble came hurt fact helped quick claim houseman judge munger last idea want give profession frequently puts lot procedure lot precautions lot mumbo jumbo highest form civilization reach highest form civilization reach seamless web deserved trust much procedure totally reliable people correctly trusting one another way operating room works mayo clinic bunch lawyers introduce lot process patients would die never forget lawyer may rewarded selling stuff buy life want seamless web deserved trust proposed marriage contract forty seven pages suggestion enter well enough one graduation hope ruminations old man useful end like old valiant truth pilgrim progress sword leave wear</t>
-  </si>
-  <si>
-    <t>nathan myhrvold gonna talk today roadkill information highway sufficiently complex interesting topic always reduced series silly cliches set technology winds referred press information highway presented choice either completely choose silly clich wallow see probably wallow little bit today serious issue computing communication come together change world change landscape people involved competitively change technology ultimately change society foundations information highway phenomena really rest two fundamental technologies vlsi chip technology gives raw power computing software harnesses raw power end users needs primarily software guy talk bunch hardware today important understand capabilities hardware gonna provide last years explosion price performance ratio meaning constant price performance computers gone enormously constant level performance price dropped precipitously factor million increase last years tell next years another factor million luck years thereafter another factor million tossing factors million around hard get grasp really means reference factor million takes year seconds says computer years seconds today computers would take year years hence computers seconds one today machines comparable cost would take million years realm increase performance large stretches credulity almost ridiculous people eyes glaze say could something gonna happen basically today say think something unusual happen think get factors changed computing world today microprocessors digital electronics computers increasingly lives next years going change even ability store information also gone ram memory semiconductor memory increases density every months happened historically long time price ram drops per year steady fashion hard disks magnetic storage decreases well per year general rule thumb size hard disk may computer today computer user much ram years size hard disk expand accordingly rule true long computer involved technologies moving direction remain true even without breakthroughs optical storage technology could revolutionize fast main memory storage things like holographic memory mass storage new kinds rom writeable optical media able compute able store gonna fundamental piece happens information highway chart shows talking shows number bytes get dynamic ram memory per dollar semi log chart logarithmic scale see nice straight line line goes back almost years remarkably steady exponential decreases price per bit memory last data points chart extrapolated year think every reason believe phenomena gonna continue fact look solid state physics involved find people already good idea gonna continue improve density ram continue improve price performance ratio processors fundamental physics people need learn make cost effective manufacture volume make reliable cheap people good fundamental capability real lesson behind importance exponential know anything exponential growth know asymptotic scaling matters anything fixed threshold performance fixed amount computing power rapidly overwhelmed even things grow grow exponentially overwhelmed growth rate winds slower mainframe computers lost microprocessors exponential increase performance growth rate microprocessor based systems leads fascinating phenomena unimaginable performance going blow fixed thresholds hand still problems gonna hard amount computing power years years years hence able solve example class problems called hard problems computer science consider simple example objects take combinations objects different orderings well number three objects number six grows rapidly number take objects put possible combinations really many objects little larger number cards deck playing cards total number combinations cosmologists estimate number baryons heavy particles protons neutrons things like entire universe manage calculate number could print unless used matter energy universe actually make printout clearly problem gonna solved anywhere near finite period time make number larger gets worse trick going forward gonna figure problems fall exponential rise computing communications remain real challenge coming decades another interesting chart chart microsoft stock price like chart semi log chart exponential growth arithmetic version showing well whenever talk stock market analysts people say gee microsoft stock going lot come unusual circumstance well really unusual take first principle perspective recognize surfing wave wave computing created increase performance semiconductors price performance basically every time new processor comes twice fast opportunity add value creating new products every time ram gets larger opportunity develop larger programs sell people show effect took microsoft stock price divided previous graph memory price get almost flat takes price dynamic rams account also took cpu price hard disk price made overall index curve would absolutely flat conclusion draw software gas expands fit container case container vlsi technology cpu cycles software gets burn memory get store things god bless guys making containers long keep making larger gonna keep ability add value software used cosmologist actually another way viewing like selling real estate inflationary universe keep selling stuff universe keeps expanding exponentially specific business strategy follow want keep surfing wave exponential growth measure success traditional means revenue profit market share measure success percentage cpu cycles consume percentage ram occupy strategy microsoft say let follow microprocessor change mix products move company first wrote programming language basic developing operating systems dos windows developing graphical applications recently seen announcements may seen announcements multimedia titles encyclopedias titles baseball dinosaurs variety things finally group working variety new platforms intelligent televisions servers sit broadband networks talk little bit tiny computers fit pocket wherever microprocessors memory job software want maintain share world cycles change software product mix order follow vlsi wherever goes bottlenecks talked enormous exponential growth turns key network gonna grow fast enough become major bottleneck things bottleneck others network talking phone network cable network human nervous system see input output limited growing capabilities exponentially human beings take certain amount information certain amount information fixed number one fixed thresholds computing gonna blow know build peripherals used system get touch sense things built estimate would peripherals hard pure computing task far away ultimate data types complete perfect human interface mimics reality much possible unreality manages saturate bus gets maximum amount information interesting actually look couple senses figure hard would sort limits might come let take look taste smell appropriate many programs using means computer program gonna somewhat specialized know earth gonna connect computer manage whether jack central nervous system weird peripheral puts little drops chemicals tongues calculate fundamental data type estimate much would take compute synthesize manipulate turns people done variety physiological experiments see many unique tastes actually taste dropped little drops stuff people tongues asked fill questionnaires forth turns range taste also smell quite limited something order unique different tastes smell elements people actually break smaller conservatively let say different elements turns time resolution smell taste low thousands tastes smells per second order tastes smells per second compare say audio audio two bit samples times second talking one bit sample get different tastes smells got bits amplitude top probably sample times times second total bandwidth far less audio presumably far easier synthesize calculate store day jack get taste smell discover really hard computing power necessary today require great breakthroughs terms computing aspect problem touch another great one obviously video something quite common computers days video screen tend divide screen bunch pixels picture elements well let estimate many touch elements touchels need assume little discreet elements well physiological tests done people try estimate touch resolution people various parts bodies poke people rods various sizes shapes surprising conclusion poor touch resolution everywhere except hands lips couple places otherwise resolution quite low replicating experiments poking various rods see could tell difference somebody walked room explain really research work turns total size body high resolution stuff also quite limited fact experiment took paper towels covered size monitor use computer got dots per inch resolution decent quality computer monitor days also resolution high sensitivity parts body touchels per inch would maximum density question screen greater area body course cutting paper towel applying sensitive parts body really want get caught experiment turns fact assume somewhere bits resolution per touchel total number touchels high res computer screen bandwidth video maybe wrong maybe additional factors suppose video remember double every year factor takes three half years story although know get touch sensitivity computers total data feed big deal gonna harder synthesize harder ship around store video put together taste already know video reasonably well making stereo completely saturating humans ability input output gonna within years means computing gonna move challenges providing ultimate user interface temporary desirable hardly final state talked bunch computing storing information calculating stuff communicating well world communication one followed laws exponential growth fact make strong analogy central office telephone switch mainframe giant systems similar kind culture similar sorts margins costs cetera make analogy pbx people inside company smaller scale switch lot like minicomputer literally based minicomputer technology aspects industry similar aspects minicomputer world well minicomputers mainframes ruled world computing wise microprocessor based systems came starting personal computers workstations large servers microprocessor decimated ranks mainframe minicomputer world think similar thing gonna happening communications two key technologies first atm switching fiber optics many years fiber optics ability pipe huge amounts information long distances modulate lasers used fiber well getting information one point another via fiber commonplace essentially long distance phone calls way today problem could get high speed switched delivered right place could move bits point point okay could actually network would get information one point another atm switches come believe atm switches whole technology area equivalent communications world microprocessor computing atm switches follow vsli price performance curves based small number large number replicated cheap pieces vlsi atm switching allows new entrants come market variety start companies came revolutionized world personal computing gonna find dozens start companies coming atm switch area think variety existing switch people gonna also making great switches mean limited gonna see change people happy get isdn lines today high tech wide area networking whereas gonna ridiculous years industry gonna restructure completely result technology level also interesting service aspects call communications rollercoaster phone bill followed exponential price curve dropped factor two every year amount data send expanded factor two cost basically static well atm technology fiber optics third factor competition coming three things gonna combine make communications world change overnight overnight may take five years may take years historical context gonna voice expensive sort service voice essentially free fact calculate numbers lot people communications world gearing video demand service say offer pay per view movie home charge nobody knows exactly charge charge something like charged would competitive existing blockbuster store pay tom cruise guys hollywood whoever stars guys get money distributors get money raw communications cost probably cents per hour cents per hour megabits per second compare today voice get vod service costs long distance calls cents minute factor different price believe see time voice calls even long distance voice calls free free someone say hey sign video demand service video telephone service sign let voice side free betting move across one factors consider economics communications business gonna turned head way public utility commissions networking companies today think terms enormous value installed equipment well valuable remember new equipment probably factor two better price every year whoever operating networks intense schedule upgrading also worry schedule upgrading also worry upgrade new guy going come pay fraction paid put things originally much better service going hell ride ultimately think companies business consumers going real thrill sort network talking sort talked around edges think overall system foresee switched digital network offers point point high bandwidth digital communications hang wide variety different devices interesting analogy electrical system thomas edison invented light bulb became killer app key thing focused people minds electrification electricity first installed american homes installed dedicated lighting system fact large cities replaced earlier dedicated lighting system based gas gas lights think electricity dedicated lighting system anymore sure lights also plug cuisinart stereo computer electric razor general utility thing happened communications world today two dedicated networks cable network dedicated notion deliver video telephone network dedicated notion delivers point point communications going evolve look forward general information utility bit socket like jack today bit socket plug personal computer plug camcorder want send pictures kids grandma smart smart cable box dumb cable boxes wireless phones smart phones wide variety servers systems set order supply information telephone taking world set top box taking world personal computer taking world talking general information utility people like talk win win water heater connected every electrical device ultimately connected information utility offer ability demand side power management security wide variety different kinds information usage fact think information fundamentally utility think electricity today looking world going evolve variety aspects information mean information kinds information alter think one interesting ways look divide things two sides pure information addressing aspects sending something one person many people point point one one one many also look temporal aspects time synchronous like telephone call parties line time asynchronous offline two parties completely decoupled time well make list things examples online one many service would include things like television radio simpsons start start without synced telephones computer networks examples point point communications sending something one place another place telephone certainly synchronous example online example offline side book magazine classic one many offline thing care book written could written hundred years born fundamentally written wide audience finally point point line electronic mail fax ordinary postal service decoupling time point point address within categories described variety different information utilities different characteristics today going away kind information transmittal means storage means hand wind finding everything within box winds becoming quite similar difference say record album one kind one many offline thing book well different kinds data storing digitally matter fundamentally see world collapsing two kinds services digital data online digital phone call digital video call cetera digital data offline either via store forward system perhaps optical storage disc think see lot things move online category offline wait simpsons come particular time made slaves machines slaves system able watch show movie anytime like mean everything offline course still late breaking news stories come going want watch point time large many things multicast online move offline similarly many things long time constant going able get instantaneously ultimately look forward kinds information discover factors survive best generic addressing capabilities temporal aspects get information going happen look analogies hard find something characteristics information highway explosion unless far back back first information revolution johann gutenberg invented printing press completely changed way people thought information got analysis based call document demographics consider total number documents say published year versus total number readers information dedicated zero column notes people take notes intended reader author kind distribution really memory aid well got letters personal letters person business letters cetera exist one small number copies get higher volume hundred probably sending letters probably things like ads brochures newsletters finally get books magazines newspapers things sort estimate shape curve figuring much notebook paper sold many post notes sold combined circulation newspapers magazines books cetera got schematic curve sort illustrating thing fascinating curve print media basically talking mature print media driven fundamental desire people using technology although technology played important role gives interesting way looking might happen believe happen online digital information within different ranges documents characteristic technology used reproduction making copies actually getting copies people zero case pen pencil document gets distribution author written one copy hundred copies another realm realm photocopier xerox machine revolutionized area copies really realm desktop publishing laser printers important smaller range laser printers small offset presses desktop publishing really come copies finally get say copies realm commercial printing say around minimum number really serious commercial printing books regardless whether popular book obscure scientific tome printed less copies worth starting presses addition reproduction characteristic distribution technology take copies made people physically get people need see well distribution problem zero case zero hundred probably either using hand physically handing people interoffice mail taking perhaps mailing copies kind awkward phase send copies something small number commercial distribution instead pretty much use mail good way getting documents either given free ads sold usually fairly expensive subscribe industry newsletter usually cost year quite expensive compared say popular magazine get copies commercial world distribution retail cetera people either use mail case magazines use newsstands bookstores paperboys specialty distribution system set domain fundamental lesson learn technology characteristic economics economics shapes whole field may think terms fact price per copy enormous barrier people making photocopies one time changed enormously xerox addition direct economic costs convenience ability machine press button changed things enormously fact back look effects kinds information delivery would technology changed economics fact lesson change economics information distribution change world chart superimposed original one used xerox desktop publishing gutenberg well xerox could make photostat mimeograph ways making copies could use carbon paper hit keys awful hard make two copies fact hugely fewer number copies made estimate looking sales copiers copier paper people basically without large numbers copies soon xerox made feasible exploded people found need hard imagine see use xerox machines today</t>
-  </si>
-  <si>
-    <t>wonderful tell lecture series used called last lecture one last lecture give died would thought damn finally nailed venue renamed case anybody wandered know back story dad always taught elephant room introduce look cat scans approximately tumors liver doctors told three six months good health left month ago math best doctors world change decide going respond change cards dealt play hand seem depressed morose sorry disappoint assure denial like aware going family three kids wife decamped bought lovely house chesapeake virginia near norfolk better place family road thing phenomenally good health right mean greatest thing cognitive dissonance ever see fact really good shape fact better shape anybody wants cry pity come may pity right talking today talking cancer spend lot time talking really interested herbal supplements remedies please stay away going talk things even important achieving childhood dreams going talk wife gonna talk kids good good enough talk without tearing gonna take table much important gonna talk spirituality religion although tell experienced death bed conversion bought macintosh knew would get nine percent audience right today talk childhood dreams achieved fortunate way believe able enable dreams others degree lessons learned professor lessons learned use stuff hear today achieve dreams enable dreams others get older may find enable dreams others thing even fun childhood dreams well know really good childhood mean kidding around going back family archives really amazing could find pictures kid smiling right gratifying thing dog awe thank actually picture dreaming lot know lot wake know easy time dream born right eight nine years old look set men landing moon anything possible something lose sight inspiration permission dream huge childhood dreams may agree list zero gravity playing national football league authoring article world book encyclopedia guess tell nerds early captain kirk anybody childhood dream cmu wanted become one guys big stuffed animals amusement park wanted imagineer disney sorted particular order although think get harder except maybe first one okay zero gravity important specific dreams dream astronaut little kid wore glasses told astronauts glasses like really want whole astronaut gig wanted floating child prototype zero point zero work well turns nasa something called vomit comet use train astronauts thing parabolic arcs top arc get seconds ballistic get rough equivalent weightlessness seconds program college students submit proposals win competition get fly thought really cool team put team together got fly excited gonna hit first brick wall made clear circumstances faculty members allowed fly teams know heartbroken right like worked hard read literature carefully turns nasa part outreach publicity program turns students allowed bring local media journalist hometown randy pausch web journalist really easy get press pass call guys nasa said need know fax documents said documents going fax said resignation faculty advisor application journalist said little transparent think said yeah project virtual reality gonna bring whole bunch headsets students teams going experience real journalists going get film jim foley going bastard yes guy said fax number indeed kept end bargain one themes hear later talk something bring table right make welcomed right let talk football dream play national football league know actually make national football league probably got dream accomplishing got ones accomplish coach signed nine years old smallest kid league far coach jim graham six foot four played linebacker penn state hulk guy old school mean really old school like thought forward pass trick play showed practice first day know big hulking guy scared death brought footballs gonna practice without footballs one kids said excuse coach cut football coach graham said right many men football field time said team coach graham said right many people touching football given time one said right gonna work guys really good story fundamentals fundamentals fundamentals fundamentals gotta get fundamentals otherwise fancy stuff gonna work jim graham story one practice rode practice wrong wrong back owe pushups practice one assistant coaches came said yeah coach graham rode pretty hard said yeah said good thing said screwing nobody saying anything anymore means gave lesson stuck whole life see something badly nobody bothering tell anymore bad place critics ones telling still love care coach graham another coach coach setliff taught lot power enthusiasm one thing one play time would put people like horrifically wrong position like short guys would become receivers right laughable went one play right boy team never knew hit one play supposed freedom another word nothing left lose boy gonna clean somebody clock one play kind enthusiasm great day comfortable football field mean one things working hard problem people see wandering halls one things know something young enough train becomes part glad football part life get dream playing nfl okay probably got stuff valuable looking going nfl sure guys great right okay one expressions learned electronic arts love pertains experience get get wanted think absolutely lovely thing football send kids play football soccer swimming whatever first example gonna call head fake indirect learning actually want kids learn football mean yeah really nice wonderful three point stance know chop block kind stuff send kids learn much important things team work sportsmanship perseverance cetera cetera kinds head fake learnings absolutely important keep eye everywhere right simple one author world book encyclopedia kid world book encyclopedia shelf freshman paper used things called books become somewhat authority virtual reality like really important one level people world book would badger called wrote article katelyn kellaher article local library still copies world book look virtual reality say selected author world book encyclopedia know believe wikipedia perfectly fine source information know quality control real encyclopedias let right next one certain point realize things gonna maybe want stand close people mean god role model young people mean everything want learned carried forward leadership later know smartest guy ship mean spock pretty smart mccoy doctor scottie engineer sort skill set get damn thing run clearly skill set called leadership whether like series doubt lot learned lead people watching guy action coolest damn toys right mean god thought fascinating kid thing could talk ship thought spectacular course one smaller kind cool got achieve dream james kirk alter ego william shatner wrote book think actually pretty cool book chip walter pittsburgh based author quite good wrote book basically science star trek come true went around top places around country looked various things came study virtual reality set built virtual reality looks something like put put red alert good sport like saw one coming really cool meet boyhood idol even cooler comes see cool stuff lab great moment right winning stuffed animals may seems mundane little kid see big buff guys walking around amusement park got big stuffed animals right lovely wife lot pictures stuffed animals dad posing one lot animals dad win one credit big part life family life know hear cynics know age digitally manipulated things maybe bears really picture maybe paid somebody five bucks take picture theme park next bear said age cynicism convince people said know show bears bring put right put back wall bears quite enough room moving truck chesapeake anybody would like little piece end feel free come first come first serve right next one imagineer hard one believe getting zero gravity easier becoming imagineer kid eight years old family took trip cross country see disneyland ever seen movie national lampoon vacation lot like quest real vintage photographs front castle foreshadowing alice ride thought coolest environment would ever instead saying gee want experience said want make stuff like bided time graduated phd carnegie mellon thinking meant infinitely qualified anything dashed letters application walt disney imagineering sent damn nicest hell letters ever gotten mean carefully reviewed application presently positions available require particular qualifications think fact getting place famous guys sweep street bit set back remember brick walls reason right brick walls keep brick walls give chance show badly want something brick walls stop people want badly enough stop people right fast forward system back university virginia called virtual reality five dollars day one unbelievable spectacular things scared back days junior academic jim foley love tell story knew undergraduate advisor andy vandamm first conference scared death icon user interface community walks nowhere gives huge bear hug says andy thought okay maybe make maybe belong similar story unbelievable hit time everybody needed half million dollars virtual reality everybody felt frustrated literally hacked together system parts made working system people like god like hewlett packard garage thing awesome giving talk room gone wild guy named tom ferness one big names virtual reality time goes microphone introduces know looked like sure hell knew name asked question like sorry say tom ferness said yes said would love answer question first lunch tomorrow lot little moment lot humility also asking person possibly say imagineering couple years later working virtual reality project top secret denying existence virtual reality attraction time publicity department running commercials imagineering really nailed one tight aladdin attraction would fly magic carpet head mounted display sometimes known gator vision soon project know started running commercials asked brief secretary defense state virtual reality okay fred brooks asked brief secretary defense gave excuse called called imagineering said look briefing secretary defense would like materials best systems world kind pushed back said look patriotism stuff parks farce like okay said new department footage gonna connect straight team work jackpot find phone guy named john snoddy one impressive guys ever met guy running team surprising done impressive things sent stuff talked briefly sent stuff said hey gonna area conference shortly would like get together lunch translation going lie say excuse area look anxious would neptune lunch john said sure spent something like hours talking experts world saying access one unbelievable project would ask compiled memorize anybody knows knows memory cause could looking like dweeb question went like two hour lunch john must thought talking phenomenal person channeling fred brooks ivan sutherland andy vandamm people like henry fooks pretty easy smart parodying smart people end lunch john sort say business made ask said know sabbatical coming said beginnings culture clash talked possibility coming working said really good except know business telling people stuff business keeping secrets made john snoddy john snoddy said work really loved thing learned john snoddy could easily hour long talk learned john snoddy one things told wait long enough people surprise impress said pissed somebody angry given enough time give little time almost always impress really stuck think absolutely right one make long story short negotiated legal contract going first people referred first last paper ever published imagineering deal provide funding six months work project publish paper meet villain sweetness light credibility somebody head gonna stick turns person gets head stick dean back university virginia name important let call dean wormer dena wormer meeting say want sabbatical thing actually gotten imagineering guys let academic insane mean john gone nuts would never possibility secretive organization dean wormer looks paperwork says well says gonna intellectual property said yeah got agreement publish paper patentable stuff says yeah might deal get change little clause come back like excuse said want understand important work going take unpaid leave absence gonna gonna thing said hey know might even let mean got head already maybe gonna suck gonna fly either important know pissing match important get quickly possible said well let back think good idea said idea good idea like okay well got common ground said well really call call dean sponsored research issue said yeah true said happy happy yeah would fine like wile coyote find gene block office fantastic man world start talking gene block say let start high level since want back said let start high level think good idea said well asking good idea much information know one start faculty members office really excited tell lesson everybody administration said thing think said thing think said right know well much information one star faculty members excited want learn ways saying know boy good way bad way anyway got worked went imagineering sweetness light well ends well brick walls made flesh worked aladdin project absolutely spectacular mean unbelievable nephew christopher apparatus would sit sort motorcycle type thing would steer magic carpet would put head mounted display head mounted display interesting two parts clever design get throughput part touched guests head little cap everything else clicked onto expensive hardware could replicate caps basically free manufacture really cap cleaner loved imagineering spectacular place spectacular everything dreamed love model shop people crawling around things size room big physical models incredible place walk around inspired always reminded went people said think expectations high said ever see movie charlie chocolate factory willie wonka chocolate factory gene wilder says little boy charlie give chocolate factory says well charlie anybody ever tell story little boy suddenly got everything ever wanted charlie eyes get like saucers says happened gene wilder says lived happily ever okay working aladdin describe every five years opportunity stand assessment forever changed good work got part got place working real people real hci user interface issues hci people live fantasy world white collar laborers phds masters degrees know got ice cream spilled field work right anything else jon snoddy learned put artists engineers together real legacy published paper nice academic cultural scandal wrote paper guys imagineering said well let nice big picture like would magazine siggraph committee accepted paper like big scandal allowed rule published paper amazingly since tradition siggraph papers color figures first page changed world small way end six months came said want real stay said one times life surprised father like said since know wanted got like huh bottle maalox desk drawer careful wish particularly stressful place imagineering general actually maalox laden lab jon left middle lot like soviet union little dicey worked okay said stay never walk building would done would walked away tenure would done made easy said cake eat basically become day week consultant imagineering ten years one reasons become professors cake eat okay went consulted things like disneyquest virtual jungle cruise best interactive experience think ever done jesse schell gets credit pirates caribbean wonderful disneyquest childhood dreams know pretty good felt good question becomes enable childhood dreams others boy glad became professor better place enable childhood dreams maybe working know would probably good close second started concrete realization could young man named tommy burnett university virginia came interested joining research group talked said childhood dream gets pretty easy recognize tell said yes tommy childhood dream said want work next star wars film gotta remember timing tommy tommy today year would sophomore year tommy around randy pausch breaking anything back young man okay right said tommy know probably going make next movies said tommy worked number years undergraduate staff member moved carnegie mellon every single member team came virginia carnegie mellon except tommy got better offer indeed work three films said well nice know one time kind inefficient people know know efficiency freak said masse get people turned way turned onto childhood dreams created course came carnegie mellon created course called building virtual worlds simple course many people ever shows okay idea course simple students drawn different departments university randomly chosen randomly chosen teams four people per team change every project project lasts two weeks something make something show something shuffle teams get three new playmates every two weeks five projects semester first year taught course impossible describe much tiger tail running course wanted see could learned texture mapping graphics could make stuff looked half decent know running really weak computers current standards said give try new university made couple phone calls said want cross list course get people within hours cross listed five departments love university mean amazing place said kids said well content make said hell know make whatever want two rules shooting violence pornography opposed particular know done right would amazed many year old boys completely ideas take table anyway taught course first assignment gave came back two weeks blew away mean work beyond literally imagination copied process imagineering lab idea could could undergraduates tools weaker came back first assignment something spectacular literally ten years professor idea next called mentor called andy van dam said andy</t>
-  </si>
-  <si>
-    <t>look today cannot help see twenty five years ago barnard commencement sometimes seem mind much common girl stranger might pass doorway starbucks aisle airplane cannot remember wore felt day tell without question perfect let clear mean mean got every day tried perfect every possible way test studied paper written done smiled everyone dorm hallways important friendly made fun behind backs important witty worked residence counselor sat housing council anyone ever stopped asked things well sure would said tell today perfect every possible way perfect hard work hell rules changed arrived college trunk full perfect pleated kilts perfect monogrammed sweaters christmas vacation another perfect uniform overalls turtlenecks doc martens perfect new york city barnard college affect part hyperintellectual part ennui hard work indeed read neither sartre sappho closest ever came bored falling asleep finally harder become perfect realized barnard smartest girl world eventually perfect day day year year became like always carrying backpack filled bricks back secretly longed lay burden want say today sounds way familiar trying perfect one way another make today moment grades gotten classmates met terrain scouted positioning arranged make today day put backpack trying perfect may sort inevitable people like smart ambitious interested world good opinion one level hard another cheap easy really requires mainly read zeitgeist wherever whenever happen assume masks necessary best whatever zeitgeist dictates requires requirements shapeshift sure clever read imitation required nothing important meaningful beautiful interesting great ever came imitations thing really hard really amazing giving perfect beginning work becoming difficult zeitgeist read template follow mask wear set aside friends expect parents demand acquaintances require set aside messages culture sends advertising entertainment disdain disapproval behave set aside old traditional notion female nurturer male leader set aside new traditional notions female superwoman male oppressor begin terrifying things clean slate look every day choices making ask making find answer mean hard work life world make along acknowledge introvert clown artist reserved distraught goofball thinker bend march music great theys pipe flutes want professional school wear khakis pierce navel bare soul fashionable ways music tinny listen close enough look inside way lies dancing melodies spun heart symphony rest jingles always struggle whether twenty one fifty one know experience quit new york timesto full time mother voices world said nuts quit full time novelist said nuts nuts happy successful terms success terms looks good world feel good heart success remember words lily tomlin win rat race still rat look fingers hold front face one crowned abstract design completely different anyone crowd country world metaphor different fingerprints world march lockstep lockstep easier cannot march nothing great even good ever came young writers write following footsteps string together nouns verbs living tell every story already told read anna karenina bleak house sound fury kill mockingbirdand wrinkle time understand really reason ever write another novel except writer brings table let something one else history time ever personality voice faulkner imitations stay home giving readers thinks want instead stop typing books reflect character really giving new wonderful gift giving true music art teaching medicine someone sent shirt long ago read well behaved women make history make good lawyers either doctors businesswomen imitations redundant wanted already know need remind think back think back first second grade could still hear sound voice head young unformed fantastic understand supposed take protective coloration expectations around think writer catherine drinker bowen wrote half century ago many man known ten forgets utterly ten thirty many woman alone parents forgotten way sometimes say deeply committed often flawed mother three first born great glory thinking absolutely distinct every baby ever born miracle singularity knew every fiber human parent difficult job difficult requires shaping people act extraordinary hubris years learned want things want learned want lead play acceptance college straight narrow path often leads absolutely nowhere sometimes wanted things convinced would make life better least easier sometimes hard time distinguishing ended began another reason must give perfect take hold sometime distant future may want parents bring children self truly opposed amalgam manners mannerisms expectations fears acquired carapace along way give great gift teach example terrorized narrow parsimonious expectations world world often likes color within lines spray paint scrawl crayon truly wanted remember days younger rougher wilder scrawl straight line remember flaws faults well many strengths carl jung said people educated see lowly side natures may hoped also learn understand love fellow men better little less hypocrisy little tolerance toward oneself good results respect neighbors prone transfer fellows injustice violence inflict upon natures commencement speeches suggest take something challenge future vision twenty first century instead would like give give backpack give nonsensical punishing quest perfection dogs many much lives quest causes doubt denigrate true selves quirks foibles great leaps unknown bad enough worse someday sometime somewhere maybe day like today berm overlooking pond vermont lip grand canyon sunset maybe something bad happened lost someone loved failed something wanted succeed much sitting fall center look core sustain perfect life managed meet expectations family friends community society chances excellent black hole core ought take chance begin say greek chorus thinks knows parameters happy life knows homogenization human experience listen small voice inside tells another way george eliot wrote never late might never early either make difference world take someone left backpack full bricks far behind every day feels light feather</t>
-  </si>
-  <si>
-    <t>rain somebody said like confetti heaven even heavens celebrating morning joining rest wonderful commencement ceremony graduates important task perform behind parents guardians two three four years ago drove cardigan dropped helped get settled turned around drove back gates extraordinary sacrifice drove trail tears back emptier lonelier house decision education knew sacrifice others made brought point morning also hope stand turn around give great round applause please somebody asks remarks cardigan went able say interrupted applause congratulations class reached important milestone important stage life behind sorry one tell easiest stage life books cardigan part important international community well think needs particularly recognized time roberts gave brief remarks languages around country today colleges high schools middle schools commencement speakers standing impatient graduates almost always saying things say today commencement exercise beginning end look forward think true enough however think going look forward figure going good know look back well think look back first afternoon cardigan perhaps recall lonely perhaps recall little scared little anxious look surrounded friends call brothers confident facing next step education worth trying think think may appreciate support classmates classroom athletic field dorms far confidence goes think appreciate succeeded everything help friends afraid fail fail got tried failed got tried failed might time think something else success afraid fail brought point commencement speakers typically also wish good luck extend good wishes tell time time years come hope treated unfairly come know value justice hope suffer betrayal teach importance loyalty sorry say hope lonely time time take friends granted wish bad luck time time conscious role chance life understand success completely deserved failure others completely deserved either lose time time hope every opponent gloat failure way understand importance sportsmanship hope ignored know importance listening others hope enough pain learn compassion whether wish things going happen whether benefit depend upon ability see message misfortunes commencement speakers also expected give advice give grand advice give useful tips common grand advice give odd piece advice give people dressed identically understand means unless perfect mean make changes certain sense try become something better people say want resist impulse conform others want learn learn unless think greek philosopher socrates said unexamined life worth living might good motto things good motto trying figure live life one important clue living good life try live good life best way lose values central frankly think deep advice tips get ready new school last couple years gotten know many young men pretty well know good guys also privileged young men privileged came privileged advice act like get new school walk introduce person raking leaves shoveling snow emptying trash learn name call name time school another piece advice pass people recognize walks smile look eye say hello worst thing happen become known young man smiles says hello bad thing start school boys going school girls advice last bit advice give simple think could make big difference life week write note someone email note piece paper take exactly minutes talk adult let tell stamp put stamp envelope minutes week help right dictate first note write say dear say started new school reading english football soccer practice hard enjoying thank teaching put envelope put stamp send mean great deal people reasons cannot contemplate dedicated teaching middle school boys said take exactly minutes week end school year sent notes people forty people feel little special think special one else going carry dividend time school enough advice would like end reading important lyrics cited greek philosopher socrates earlier lyrics great american philosopher bob dylan almost years old wrote son jesse missing tour lists hopes parent might son daughter also good goals son daughter wishes beautiful timeless universal good true except one wish gives song title refrain wish parent lament good wish lyrics forever young bob dylan may god bless keep always may wishes come true may always others let others may build ladder stars climb every rung may stay forever young may grow righteous may grow true may always know truth see lights surrounding may always courageous stand upright strong may stay forever young may hands always busy may feet always swift may strong foundation winds changes shift may heart always joyful may song always sung may stay forever young thank</t>
-  </si>
-  <si>
-    <t>good morning great blown away whole thing fact leaving three themes running conference relevant want talk one extraordinary evidence human creativity presentations people variety range second put place idea going happen terms future idea may play interest education actually find everybody interest education find interesting dinner party say work education actually often dinner parties frankly work education asked never asked back curiously strange say somebody know say say work education see blood run face like god know one night week ask education pin wall one things goes deep people right like religion money things big interest education think huge vested interest partly education meant take future grasp think children starting school year retiring nobody clue despite expertise parade past four days world look like five years time yet meant educating unpredictability think extraordinary third part agreed nonetheless really extraordinary capacities children capacities innovation mean sirena last night marvel seeing could exceptional think speak exceptional whole childhood person extraordinary dedication found talent contention kids tremendous talents squander pretty ruthlessly want talk education want talk creativity contention creativity important education literacy treat status applause thank way thank much minutes left well born heard great story recently love telling little girl drawing lesson six back drawing teacher said girl hardly ever paid attention drawing lesson teacher fascinated went said drawing girl said drawing picture god teacher said nobody knows god looks like girl said minute son four england actually four everywhere honest strict wherever went four year nativity play remember story big big story mel gibson sequel may seen nativity james got part joseph thrilled considered one lead parts place crammed full agents shirts james robinson joseph laughter speak know bit three kings come come bearing gifts gold frankincense myrrh really happened sitting think went sequence talked little boy afterward said said yeah wrong switched three boys came four year olds tea towels heads put boxes first boy said bring gold second boy said bring myrrh third boy said frank sent things common kids take chance know right frightened wrong mean say wrong thing creative know prepared wrong never come anything original prepared wrong time get adults kids lost capacity become frightened wrong run companies like stigmatize mistakes running national education systems mistakes worst thing make result educating people creative capacities picasso said said children born artists problem remain artist grow believe passionately grow creativity grow rather get educated lived stratford avon five years ago fact moved stratford los angeles imagine seamless transition actually lived place called snitterfield outside stratford shakespeare father born struck new thought think shakespeare father think shakespeare child shakespeare seven never thought mean seven point somebody english class annoying would must try harder sent bed dad know shakespeare bed put pencil stop speaking like confusing everybody anyway moved stratford los angeles want say word transition son want come got two kids daughter want come los angeles loved girlfriend england love life sarah would known month mind would fourth anniversary long time really upset plane said never find another girl like sarah rather pleased frankly main reason leaving country something strikes move america travel around world every education system earth hierarchy subjects every one matter would think would otherwise top mathematics languages humanities bottom arts everywhere earth pretty much every system hierarchy within arts art music normally given higher status schools drama dance education system planet teaches dance everyday children way teach mathematics think rather important think math important dance children dance time allowed bodies miss meeting truthfully happens children grow start educate progressively waist focus heads slightly one side visit education alien say public education think would conclude look output really succeeds everything gets brownie points winners think would conclude whole purpose public education throughout world produce university professors people come top used one like university professors know hold high water mark human achievement form life another form life rather curious say affection something curious professors experience typically live heads live slightly one side disembodied know kind literal way look upon body form transport heads way getting head meetings want real evidence body experiences get along residential conference senior academics pop discotheque final night see grown men women writhing uncontrollably beat waiting ends home write paper education system predicated idea academic ability reason around world public systems education really century came meet needs industrialism hierarchy rooted two ideas number one useful subjects work top probably steered benignly away things school kid things liked grounds would never get job right music going musician art artist benign advice profoundly mistaken whole world engulfed revolution second academic ability really come dominate view intelligence universities designed system image think whole system public education around world protracted process university entrance consequence many highly talented brilliant creative people think thing good school valued actually stigmatized think afford way next years according unesco people worldwide graduating education since beginning history people combination things talked technology transformation effect work demography huge explosion population suddenly degrees worth anything true student degree job job want one want one frankly laughter kids degrees often heading home carry playing video games need previous job required need phd process academic inflation indicates whole structure education shifting beneath feet need radically rethink view intelligence know three things intelligence one diverse think world ways experience think visually think sound think kinesthetically think abstract terms think movement secondly intelligence dynamic look interactions human brain heard yesterday number presentations intelligence wonderfully interactive brain divided compartments fact creativity define process original ideas value often comes interaction different disciplinary ways seeing things way shaft nerves joins two halves brain called corpus callosum thicker women following helen yesterday probably women better multi tasking raft research know personal life wife cooking meal home often thankfully good things cooking dealing people phone talking kids painting ceiling open heart surgery cooking door shut kids phone hook comes get annoyed say terry please trying fry egg give break actually know old philosophical thing tree falls forest nobody hears happen remember old chestnut saw great shirt recently said man speaks mind forest woman hears still wrong third thing intelligence distinct new book moment called epiphany based series interviews people discovered talent fascinated people got really prompted conversation wonderful woman maybe people never heard gillian lynne heard choreographer everybody knows work cats phantom opera wonderful used board royal ballet see anyway gillian lunch one day said get dancer interesting school really hopeless school wrote parents said think gillian learning disorder could concentrate fidgeting think would say adhd would adhd invented point available condition people aware could anyway went see specialist oak paneled room mother led sat chair end sat hands minutes man talked mother problems gillian school disturbing people homework always late little kid eight end doctor went sat next gillian said listened things mother told need speak privately wait back long went left went room turned radio sitting desk got said mother stand watch minute left room feet moving music watched minutes turned mother said mrs lynne gillian sick dancer take dance school said happened said tell wonderful walked room full people like people could sit still people move think move think ballet tap jazz modern contemporary eventually auditioned royal ballet school became soloist wonderful career royal ballet eventually graduated royal ballet school founded gillian lynne dance company met andrew lloyd webber responsible successful musical theater productions history given pleasure millions multi millionaire somebody else might put medication told calm think comes gore spoke night ecology revolution triggered rachel carson believe hope future adopt new conception human ecology one start reconstitute conception richness human capacity education system mined minds way strip mine earth particular commodity future serve rethink fundamental principles educating children wonderful quote jonas salk said insects disappear earth within years life earth would end human beings disappeared earth within years forms life would flourish right ted celebrates gift human imagination careful use gift wisely avert scenarios talked way seeing creative capacities richness seeing children hope task educate whole face future way may see future job help make something thank much</t>
-  </si>
-  <si>
-    <t>president faust members harvard corporation board overseers members faculty proud parents graduates first thing would like say thank harvard given extraordinary honour weeks fear nausea endured thought giving commencement address made lose weight win win situation take deep breaths squint red banners convince world largest gryffindor reunion delivering commencement address great responsibility thought cast mind back graduation commencement speaker day distinguished british philosopher baroness mary warnock reflecting speech helped enormously writing one turns remember single word said liberating discovery enables proceed without fear might inadvertently influence abandon promising careers business law politics giddy delights becoming gay wizard see remember years come gay wizard joke come ahead baroness mary warnock achievable goals first step self improvement actually wracked mind heart ought say today asked wish known graduation important lessons learned years expired day come two answers wonderful day gathered together celebrate academic success decided talk benefits failure stand threshold sometimes called real life want extol crucial importance imagination may seem quixotic paradoxical choices please bear looking back year old graduation slightly uncomfortable experience year old become half lifetime ago striking uneasy balance ambition closest expected convinced thing wanted ever write novels however parents came impoverished backgrounds neither college took view overactive imagination amusing personal quirk would never pay mortgage secure pension know irony strikes force cartoon anvil hoped would take vocational degree wanted study english literature compromise reached retrospect satisfied nobody went study modern languages hardly parents car rounded corner end road ditched german scuttled classics corridor cannot remember telling parents studying classics might well found first time graduation day subjects planet think would hard put name one less useful greek mythology came securing keys executive bathroom would like make clear parenthesis blame parents point view expiry date blaming parents steering wrong direction moment old enough take wheel responsibility lies cannot criticise parents hoping would never experience poverty poor since poor quite agree ennobling experience poverty entails fear stress sometimes depression means thousand petty humiliations hardships climbing poverty efforts indeed something pride poverty romanticised fools feared age poverty failure age spite distinct lack motivation university spent far long coffee bar writing stories far little time lectures knack passing examinations years measure success life peers dull enough suppose young gifted well educated never known hardship heartbreak talent intelligence never yet inoculated anyone caprice fates moment suppose everyone enjoyed existence unruffled privilege contentment however fact graduating harvard suggests well acquainted failure might driven fear failure quite much desire success indeed conception failure might far average person idea success high already flown ultimately decide constitutes failure world quite eager give set criteria let think fair say conventional measure mere seven years graduation day failed epic scale exceptionally short lived marriage imploded jobless lone parent poor possible modern britain without homeless fears parents come pass every usual standard biggest failure knew going stand tell failure fun period life dark one idea going press since represented kind fairy tale resolution idea far tunnel extended long time light end hope rather reality talk benefits failure simply failure meant stripping away inessential stopped pretending anything began direct energy finishing work mattered really succeeded anything else might never found determination succeed one arena believed truly belonged set free greatest fear realised still alive still daughter adored old typewriter big idea rock bottom became solid foundation rebuilt life might never fail scale failure life inevitable impossible live without failing something unless live cautiously might well lived case fail default failure gave inner security never attained passing examinations failure taught things could learned way discovered strong discipline suspected also found friends whose value truly price rubies knowledge emerged wiser stronger setbacks means ever secure ability survive never truly know strength relationships tested adversity knowledge true gift painfully worth qualification ever earned given time turner would tell year old self personal happiness lies knowing life check list acquisition achievement qualifications life though meet many people age older confuse two life difficult complicated beyond anyone total control humility know enable survive vicissitudes might think chose second theme importance imagination part played rebuilding life wholly though personally defend value bedtime stories last gasp learned value imagination much broader sense imagination uniquely human capacity envision therefore fount invention innovation arguably transformative revelatory capacity power enables empathise humans whose experiences never shared one greatest formative experiences life preceded harry potter though informed much subsequently wrote books revelation came form one earliest day jobs though sloping write stories lunch hours paid rent early working african research department amnesty international headquarters london little office read hastily scribbled letters smuggled totalitarian regimes men women risking imprisonment inform outside world happening saw photographs disappeared without trace sent amnesty desperate families friends read testimony torture victims saw pictures injuries opened handwritten eye witness accounts summary trials executions kidnappings rapes many workers political prisoners people displaced homes fled exile temerity speak governments visitors offices included come give information try find happened left behind shall never forget african torture victim young man older time become mentally ill endured homeland trembled uncontrollably spoke video camera brutality inflicted upon foot taller seemed fragile child given job escorting back underground station afterwards man whose life shattered cruelty took hand exquisite courtesy wished future happiness long live shall remember walking along empty corridor suddenly hearing behind closed door scream pain horror never heard since door opened researcher poked head told run make hot drink young man sitting give news retaliation outspokenness country regime mother seized executed every day working week early reminded incredibly fortunate live country democratically elected government legal representation public trial rights everyone every day saw evidence evils humankind inflict fellow humans gain maintain power began nightmares literal nightmares things saw heard read yet also learned human goodness amnesty international ever known amnesty mobilises thousands people never tortured imprisoned beliefs act behalf power human empathy leading collective action saves lives frees prisoners ordinary people whose personal well security assured join together huge numbers save people know never meet small participation process one humbling inspiring experiences life unlike creature planet humans learn understand without experienced think people places course power like brand fictional magic morally neutral one might use ability manipulate control much understand sympathise many prefer exercise imaginations choose remain comfortably within bounds experience never troubling wonder would feel born refuse hear screams peer inside cages close minds hearts suffering touch personally refuse know might tempted envy people live way except think fewer nightmares choosing live narrow spaces leads form mental agoraphobia brings terrors think wilfully unimaginative see monsters often afraid choose empathise enable real monsters without ever committing act outright evil collude apathy one many things learned end classics corridor ventured age search something could define written greek author plutarch achieve inwardly change outer reality astonishing statement yet proven thousand times every day lives expresses part inescapable connection outside world fact touch people lives simply existing much harvard graduates likely touch people lives intelligence capacity hard work education earned received give unique status unique responsibilities even nationality sets apart great majority belong world remaining superpower way vote way live way protest pressure bring bear government impact way beyond borders privilege burden choose use status influence raise voice behalf voice choose identify powerful powerless retain ability imagine lives advantages proud families celebrate existence thousands millions people whose reality helped change need magic change world carry power need inside already power imagine better nearly finished one last hope something already friends sat graduation day friends life children godparents people able turn times trouble people kind enough sue took names death eaters graduation bound enormous affection shared experience time could never come course knowledge held certain photographic evidence would exceptionally valuable ran prime minister today wish nothing better similar friendships tomorrow hope even remember single word mine remember seneca another old romans met fled classics corridor retreat career ladders search ancient wisdom tale life long good matters wish good lives thank much</t>
-  </si>
-  <si>
-    <t>said want starting something got starting something said want starting something got starting something high get yeah yeah low get yeah yeah stuck middle yeah yeah pain thunder yeah yeah high get yeah yeah low get yeah yeah stuck middle yeah yeah pain thunder yeah yeah took baby doctor fever nothing found time hit street said breakdown someone always trying start baby crying talking squealing lying saying want starting something said want starting something got starting something said want starting something got starting something high get yeah yeah low get yeah yeah stuck middle yeah yeah pain thunder yeah yeah high get yeah yeah low get yeah yeah stuck middle yeah yeah pain thunder yeah yeah love pretend good always good really make hate tongue became razor someone always trying keep baby crying treacherous cunning declining got baby crying said want starting something got starting something said want starting something got starting something high get yeah yeah low get yeah yeah stuck middle yeah yeah pain thunder yeah yeah high get yeah yeah low get yeah yeah stuck middle yeah yeah pain thunder yeah yeah vegetable vegetable still hate vegetable buffet vegetable eat vegetable billie jean always talking nobody else talking telling lies rubbing shoulders called mouth motor someone always trying start baby crying talking squealing spying saying want starting something said want starting something got starting something said want starting something got starting something high get yeah yeah low get yeah yeah stuck middle yeah yeah pain thunder yeah yeah high get yeah yeah low get yeah yeah stuck middle yeah yeah pain thunder yeah yeah vegetable vegetable still hate vegetable buffet vegetable eat vegetable feed baby yeah yeah baby yeah yeah think maybe yeah yeah feed baby yeah yeah always trying stop child crying hustling stealing lying baby slowly dying said want starting something got starting something said want starting something got starting something high get yeah yeah low get yeah yeah stuck middle yeah yeah pain thunder yeah yeah high get yeah yeah low get yeah yeah stuck middle yeah yeah pain thunder yeah yeah lift head high scream world know someone let truth unfurl one hurt know true yes believe believe help sing coo coo help sing sing world sing loud help sing coo coo woo hoo help sing woo hoo sing world coo coo woo hoo help sing baby sing world sing loud need dreams side every moment takes paradise darling let hold warm arms melt fears away show magic perfect love make need night day baby mine baby gotta mine girl give got give baby girl time share ecstasy long believe love give reason change mind guess still thrill baby mine future desire girl need hold share feelings heat love embrace show passion burning heart today never gonna fade baby mine baby gotta mine girl give got give baby girl time everything world could reason live stay morning sun promise dawn different lady see heaven begun living inside hearts mountains climb still thrill baby mine love lasting time girl got hold touch sky light darkest day hold make sweet love way say baby mine baby gotta mine tell love girl give got give say thinking baby mine time show everything world could reason live every night feels alright baby girl tell love girl give got give say thinking baby mine baby mine show everything world could every night feels alright come girl come girl tell love say thinking baby mine show everything world could every night feels alright every night walks right dreams since met start proud one special heart girl mine doggone girl mine know mine doggone girl mine understand way think saying mine sending roses silly dreams really waste time mine doggone girl mine waste time doggone girl mine love take anywhere love endlessly loving share come two town cannot one one day discover girl forever ever build hopes let really feel time know tell one said blow mind girl mine doggone girl mine waste time doggone girl mine mine mine mine girl mine girl mine girl mine girl mine girl mine mine mine yep mine mine mine girl mine mine mine yep mine mine mine waste time doggone girl mine girl mine girl mine michael gonna fight okay paul think told lover fighter heard michael told forever lover know remember well loving said could love another said yes said keep dreaming believe mine mine girl mine mine mine mine mine mine mine mine mine mine mine mine mine mine mine girl mine mine mine girl mine mine mine close midnight something evil lurking dark moonlight see sight almost stops heart try scream terror takes sound make start freeze horror looks right eyes paralyzed thriller thriller night one gonna save beast strike know thriller thriller night fighting life inside killer thriller tonight hear door slam realize nowhere left run feel cold hand wonder ever see sun close eyes hope imagination girl hear creature creeping behind outta time thriller thriller night second chance thing forty eyes girl thriller thriller night fighting life inside killer thriller tonight night creatures call dead start walk masquerade escaping jaws alien time open wide end life get demons closing every side possess unless change number dial time cuddle close together night save terror screen make see thriller thriller night thrill ghoul could ever dare try thriller thriller night let hold tight share killer thriller chiller thriller tonight thriller thriller night girl thrill ghoul could ever dare try thriller thriller night let hold tight share killer thriller gonna thrill tonight darkness falls across land midnight hour close hand creatures crawl search blood terrorize neighborhood whomsoever shall found without soul getting must stand face hounds hell rot inside corpse shell gonna thrill tonight foulest stench air funk forty thousand years grisly ghouls every tomb closing seal doom though fight stay alive body starts shiver mere mortal resist evil thriller told ever come around want see face better disappear fire eyes words really clear beat beat better run better want see blood macho man want tough better beat want bad beat beat beat beat one wants defeated showing funky strong fight matter wrong right beat beat get better leave want boy want man want stay alive better beat beat show really scared playing life truth dare kick beat tell fair beat want bad beat beat beat beat one wants defeated showing funky strong fight matter wrong right beat beat beat beat beat beat beat beat beat one wants defeated showing funky strong fight matter wrong right beat beat beat beat one wants defeated showing funky strong fight matter wrong right beat beat beat beat beat like beauty queen movie scene said mind mean one dance floor round said one dance floor round told name billie jean caused scene every head turned eyes dreamed one dance floor round people always told careful around breaking young girls hearts mother always told careful love careful lie becomes truth billie jean lover girl claims one kid son says one kid son forty days forty nights law side stand demand schemes plans danced floor round take strong advice remember always think twice think twice think twice told baby would danced three looked showed photo baby cry eyes looked like mine dance floor round baby people always told careful around breaking young girls hearts break heart came stood right smell sweet perfume happened much soon called room billie jean lover girl claims one kid son billie jean lover girl claims one kid son says one kid son says one kid son billie jean lover girl claims one baby kid son says one babe kid son says one know says son breaking heart babe says one billie jean lover billie jean lover billie jean lover one billie jean lover one call billie jean billie jean lover one stumbled onto scene billie jean lover billie jean lover looking across night time city winks sleepless eye hear voice shake window sweet seducing sighs get night time four walls hold tonight town apple let take bite say tell human nature way say tell human nature way reaching touch stranger electric eyes everywhere see girl knows watching likes way stare say tell human nature way say really like around tell human nature way like living way like loving way way way way way looking across morning city heart begins beat reaching touch shoulder dreaming street say tell human nature way say tell like around ooh tell way say way say tell like around ooh tell way say ooh tell way say tell like around way like living way way way know make feel good inside always wanted girl like pretty young thing come baby ooh take right away baby tenderoni got spark nature sugar fly know perfect time make right hit city lights tonight ease love pain let take max want love pretty young thing need loving tender love care take want love pretty young thing need loving tender love care take anywhere want yes nothing stop burning desire gotta get baby come emergency cool fire yearning honey come set free know perfect time dim lights make right night hit loving spot give got want love pretty young thing need loving tender love care take yes want love pretty young thing need loving tender love care take yes pretty young thing make say pretty young thing make say pretty young things repeat say say take take want love pretty young thing need loving tender love care take take take want love pretty young thing need loving tender love care take take want love pretty young thing baby need loving pretty young thing darling know think really really nice could could put together pretty young thing want love know would give darkness tonight lady love shine lighting night put trust heart meet paradise time girl every wonder world treasure time steal away listen heart lay body close mine let fill dreams make feel alright baby years gonna love day promise tonight always lady life lay back tenderness let make night forget girl need sweet caress reach fantasy two hearts beat ecstasy come girl keep warm shadows night let touch love make feel right baby years even old gray love day always lady life stay want stay need side nowhere ooh girl let keep warm let keep warm lady life lady fill sweetest love sweetest love always lady life want touch baby lay back tenderness lady life doo doo doo rock sweet caress always lady life lady love girl ooh girl let keep warm lady life nowhere fill sweetest love love love always lady life need want baby lay back tenderness stay lady life rock sweet caress love baby always lady life woo ooh baby nowhere lady night ooh girl let keep warm want give lady life life fill sweetest love let fill baby always lady life lay back tenderness lay back lady life let touch girl rock sweet caress lay back always lady life ooh girl let keep warm baby lady life woo fill sweetest love always lady life lady lay back tenderness lady baby world popcorn candy pony rides dime little children laughing world disappointments confusions want mine started talking kept walking disappeared crowd lost heart carousel circus girl left heart pieces lost heart carousel circus girl ran away clown dancer knew would work took chances recall girl imagination still remember faces memories lost heart carousel circus girl left heart pieces lost heart carousel circus girl ran away two different people love instant see circus came today sometimes hear calliope hear calling know lost heart carousel circus girl left heart pieces lost heart carousel circus girl ran away</t>
-  </si>
-  <si>
-    <t>dark desert highway cool wind hair warm smell colitas rising air ahead distance saw shimmering light head grew heavy sight grew dim stop night stood doorway heard mission bell thinking could heaven could hell lit candle showed way voices corridor thought heard say welcome hotel california lovely place lovely place lovely face plenty room hotel california time year time year find mind tiffany twisted got mercedes bends got lot pretty pretty boys calls friends dance courtyard sweet summer sweat dance remember dance forget called captain please bring wine said spirit since nineteen sixty nine still voices calling far away wake middle night hear say welcome hotel california lovely place lovely place lovely face living hotel california nice surprise nice surprise bring alibis mirrors ceiling pink champagne ice said prisoners device master chambers gathered feast stab steely knives kill beast last thing remember running door find passage back place relax said night man programmed receive check time like never leave talk street sounds familiar great expectations everybody watching people meet seem know even old friends treat like something new johnny come lately new kid town everybody loves let look eyes music begins play hopeless romantics awhile looking way restless hearts never mend johnny come lately new kid town still love around many things told night night willing hold hold tears shoulder talk street remind really matter side walking away talking behind never forget somebody new comes along lately new kid town everybody loves holding still around new kid town another new kid town everybody talking new kid town everybody walking like new kid town new kid town want hear new kid town want hear new kid town new kid town new kid town everybody talking new kid town people started walking new kid town new kid town hard headed man brutally handsome terminally pretty held held ransom heart cold cold city nasty reputation cruel dude said ruthless said crude one thing common good bed would say faster faster lights turning red life fast lane surely make lose mind life fast lane far eager action hot game coming attraction drop name knew right people took right pills threw outrageous parties paid heavenly bills lines mirror lines face pretended notice caught race every evening light tired make tired fight life fast lane surely make lose mind life fast lane life fast lane everything time life fast lane blowing burning blinded thirst see stop sign took turn worst said listen baby hear engine ring highway seen goddamn thing said call doctor think gonna crash doctor say coming gotta pay cash went rushing freeway messed around got lost care dying get life fast lane surely make lose mind life fast lane life fast lane everything time life fast lane life fast lane life fast lane well baby stand little head hand god believe happening baby gone alone looks like end back street trying remember start know care much stranger touch hold man never thought would alone far line know mind afraid wasted time autumn leaves got thinking first time fell love boy much loved boy well well well live day day dream tomorrow hours like minutes shadows come stay take little something make away could done many things baby could stop mind wondering left behind worrying wasted time another love come gone years keep rushing remember told went sometimes keep together got leave alone get search baby get mine maybe someday find really wasted time kind love got home room full noise dangerous boys still makes thirsty hot heard man one thing understand say liar put fire come still got gun hand victim love see broken heart got stories tell victim love easy part know play well people never come clean think know mean walking wire pain desire looking love tell secrets tell mine time cool tell girlfriends around world friends talk losers fools victim love see broken heart could wrong victim love far apart show kind love got victim love see broken heart could wrong victim love far apart kind love got victim love victim love could wrong victim love victim love kind love got kind love got kind love got long time seems like come long way learn slow heroes come leave behind supposed know give hearts past must grow fast wishing well fools fortunes someone send rose love friend nice hear storybook comes close gone ribbons bows things remember places pretty maids row memories find like circle goes around lost found comes one one lonely feelings come day day slowly fade away look eyes never know might found dancing right time moves made fine like music surrounds stay really want know would lose win try love gonna try love gonna try love gonna try love right wrong done done moments borrow thoughts linger lady song sun comes tomorrow well might take years see tears let find know gonna try love gonna try love gonna try love sometimes lose sometimes win sometimes need friend gonna try gonna try gonna try gonna try came providence one rhode island old world shadows hang heavy air packed hopes dreams like refugee father came across sea heard place people smiling spoke red man way loved land came everywhere great divide seeking place stand place hide crowded bars good time wait tell like called paradise know somebody laid mountains low town got high chilly winds blew across desert canyons coast malibu pretty people play hungry power light neon way give things rich men came raped land nobody caught put bunch ugly boxes jesus people bought called paradise place watched hazy sun sinking sea leave behind sail lahaina like missionaries many years ago even brought neon sign jesus coming brought white man burden brought white man reign provide grand design mine new frontier got make satisfy endless needs justify bloody deeds name destiny name god see sunday morning stand sing like call paradise know call someplace paradise kiss goodbye</t>
-  </si>
-  <si>
-    <t>hey hey mama said way move gonna make sweat gonna make groove child way shake thing gonna make burn gonna make sting hey hey baby walk way watch honey drip keep away yeah yeah yeah yeah gotta roll stand still got flaming heart get fill eyes shine burning red dreams head hey hey baby baby pretty baby darling hey baby baby pretty baby move take long found people mean spent money took car started telling friends gonna star know told big legged woman got soul yeah yeah yeah yeah yeah ask pray steady loaded woman gonna come way need woman gonna hold hand tell lies make happy man yes yes really really baby baby baby really huh ooh wow baby push baby push baby push baby push baby push baby push babe babe ooh ooh aah ooh ooh would really like would really like long time since rock rolled long time since stroll ooh let get back let get back let get back baby come long time long time long lonely lonely lonely lonely lonely time yes long time since book love count tears life love carry back carry back carry back baby come long time long time long lonely lonely lonely lonely lonely time seems long since walked moonlight making vows work right open arms open arms open arms baby let love come running long time long time long lonely lonely lonely lonely lonely time long time long time long lonely lonely lonely lonely lonely time queen light took bow turned prince peace embraced gloom walked night alone dance dark night sing morning light dark lord rides force tonight time tell throw plow hoe rest lock homes side side wait might darkest hear horses thunder valley waiting angels avalon waiting eastern glow apples valley hold seeds happiness ground rich tender care repay forget dance dark night sing morning light apples turn brown black tyrant face red war common cry pick swords fly sky filled good bad mortals never know well night long beads time pass slow tired eyes sunrise waiting eastern glow pain war cannot exceed woe aftermath drums shake castle wall ringwraiths ride black ride sing raise bow ride shoot straighter comfort fire night lights face cold dance dark night sing morning light magic runes writ gold bring balance back bring back last sun shining clouds blue roll flames dragon darkness sunlight blinds eyes bring back bring back bring back bring back bring back bring back bring back bring back bring back bring back bring back bring back bring bring bring bring bring lady sure glitters gold buying stairway heaven gets knows stores closed word get came ooh ooh buying stairway heaven sign wall wants sure know sometimes words two meanings tree brook songbird sings sometimes thoughts misgiven ooh makes wonder ooh makes wonder feeling get look west spirit crying leaving thoughts seen rings smoke trees voices stand looking ooh makes wonder ooh really makes wonder whispered soon call tune piper lead reason new day dawn stand long forests echo laughter bustle hedgerow alarmed spring clean may queen yes two paths long run still time change road makes wonder head humming case know piper calling join dear lady hear wind blow know stairway lies whispering wind wind road shadows taller soul walks lady know shines white light wants show everything still turns gold listen hard tune come last one one rock roll buying stairway heaven walking park day baby think saw crowds people sitting grass flowers hair said hey boy want score know really know time woh asked could stay awhile notice got dark really really mind policeman stepped asked said please hey would care get line get line well know asked stay tea fun said friends would drop ooh take good look describe see baby baby baby like sit sitting spare like book shelf rusting trying fight really care coming know state mind ooh streets today baby better better open eyes folk really care really care care really way pressure lies decided gonna packing bags misty mountains spirits hills spirits fly ooh really know one two three four five six one two three one baby crying time baby got fly got try find way got try get away know gotta get away babe baby river red baby head funny feeling going think hold long owls cry night baby baby pines begin cry baby baby baby feel rivers run dry baby would feel craze baby rainbow end baby den hide hide love depths life ruin dreams knew babe owls cry night baby baby pines begin cry baby baby baby feel rivers run dry baby feel baby feel ooh yeah brave endure ooh yeah strong shields lore hold wrath walk boots march baby roads time long ago spent days woman unkind smoked stuff drank wine made mind make new start going california aching heart someone told girl love eyes flowers hair took chances big jet plane never let tell sea red sky grey wondered tomorrow could ever follow today mountains canyons start tremble shake children sun begin awake watch seems wrath gods got punch nose started flow think might sinking throw line reach time meet path runs straight high find queen without king say plays guitar cries sings ride white mare footsteps dawn trying find woman never never never born standing hill mountain dreams telling hard hard hard seems keeps raining levee going break keeps raining levee going break levee breaks place stay mean old levee taught weep moan mean old levee taught weep moan got takes make mountain man leave home well well well make feel bad trying find way home know way going south work going north chicago crying help praying good crying help praying good levee breaks mama got move last night sat levee moaned last night sat levee moaned thinking baby happy home going going chicago going chicago sorry take going going going going going going going going going going going going going going going</t>
-  </si>
-  <si>
-    <t>came thought might like show feel warm thrill confusion space cadet glow tell something eluding sunshine expected see want find behind cold eyes claw way disguise momma loves baby daddy loves sea may look warm babe sky may look blue ooh babe ooh baby blue ooh babe skating thin ice modern life dragging behind silent reproach million tear stained eyes surprised crack ice appears feet slip depth mind fear flowing behind claw thin ice daddy flown across ocean leaving memory snap shot family album daddy else leave daddy would leave behind brick wall bricks wall yes stand still laddy grew went school certain teachers would hurt children way could pouring derision upon anything exposing every weakness however carefully hidden kids town well known got home night fat psychopathic wives would thrash within inches lives need education need thought control dark sarcasm classroom teacher leave kids alone hey teacher leave kids alone another brick wall another brick wall need education need thought control dark sarcasm classroom teachers leave kids alone hey teacher leave kids alone another brick wall another brick wall wrong wrong eat meat pudding pudding eat meat yes behind bike sheds stand still laddy mother think drop bomb mother think like song mother think try break balls ooh aah mother build wall mother run president mother trust government mother put firing line ooh aah waste time hush baby baby cry mama gonna make nightmares come true mama gonna put fears mama gonna keep right wing let fly might let sing mama gonna keep baby cozy warm ooh babe ooh babe ooh babe course mama gonna help build wall mother think good enough mother think dangerous mother tear little boy apart ooh aah mother break heart hush baby baby cry mama gonna check girlfriends mama let anyone dirty get mama gonna wait get mama always find mamma gonna keep baby healthy clean ooh babe ooh babe ooh babe always baby mother need high look mummy airplane sky see frightened ones hear falling bombs ever wonder run shelter promise brave new world unfurled beneath clear blue sky see frightened ones hear falling bombs flames long gone pain lingers goodbye blue sky goodbye blue sky goodbye goodbye hello luka congratulations discovered secret message please send answer old pink care funny farm chalfont roger carolyne phone okay shall use fill empty spaces used talk shall fill final places complete wall new boy stranger town good times gonna show stranger around ooooooooh need dirty woman ooooooooh need dirty girl woman desert land make feel like real man take rock roll refugee oooh babe set free ooooooooh need dirty woman ooooooooh need dirty girl ooooooooh need dirty woman ooooooooh need dirty girl hello yes collect call mrs floyd floyd accept charges united states hung residence right wonder hung supposed someone else besides wife answer hello united states calling reaching see keeps hanging man answering god fabulous room guitars sorry sir mean startle god place bigger apartment let know entering room yes sir get drink water wondering dinner sir want huh yes guests want dine inform kitchen staff wow look tub want take bath yes aware duties dobbs yes sir find mrs bancroft time wants eat maid needless say meal kitchen help watching good sir let know soon mrs bancroft want eat mrs bancroft dining alone hello understand sir staying dinner feeling okay surprised hear sir since arrived yes little surprised day day love turns grey like skin dying man night night pretend right grown older grown colder nothing much fun feel one turns coming feel cold razor blade tight tourniquet dry funeral drum run bedroom suitcase left find favourite axe look frightened passing phase one bad days would like watch get sheets contemplate silent freeway would like something eat would like learn fly would would like see try would like call cops think time stopped running away ooh babe leave say end road remember flowers sent need babe put shredder front friends ooh babe leave could know need beat pulp saturday night ooh babe leave treat way running away ooh babe running away ooh babe need arms around need drugs calm seen writing wall think need anything think need anything bricks wall bricks wall goodbye cruel world leaving today goodbye goodbye goodbye goodbye people nothing say make change mind goodbye hey cold getting lonely getting old feel hey standing aisles itchy feet fading smiles feel hey help bury light give without fight hey sitting naked phone would touch hey ear wall waiting someone call would touch hey would help carry stone open heart coming home fantasy wall high see matter tried could break free worms ate brain hey road always told help hey beyond wall breaking bottles hall help hey tell hope together stand divided fall anybody anybody anybody anybody got little black book poems got bag toothbrush comb good dog sometimes throw bone got elastic bands keeping shoes got swollen hand blues got thirteen channels shit choose got electric light got second sight got amazing powers observation know try get telephone nobody home got obligatory hendrix perm inevitable pinhole burns front favourite satin shirt got nicotine stains fingers got silver spoon chain got grand piano prop mortal remains got wild staring eyes got strong urge fly got nowhere fly ooh babe pick phone still nobody home got pair gohills boots got fading roots anybody remember vera lynn remember said would meet sunny day vera vera become anybody else feel way bring boys back home bring boys back home leave children bring boys back home hello anybody nod hear anyone home come hear feeling well ease pain get feet relax need information first basic facts show hurts pain receding distant ship smoke horizon coming waves lips move hear saying child fever hands felt like two balloons got feeling explain would understand become comfortably numb become comfortably numb little pin prick aaaaaaaah may feel little sick stand believe working good keep going show come time pain receding distant ship smoke horizon coming waves lips move hear saying child caught fleeting glimpse corner eye turned look gone cannot put finger child grown dream gone become comfortably numb ooh ooh must show ooh take home ooh let must mistake mean let take away soul old late ooh ooh feeling gone ooh ooh remember songs ooh show must thought might like show feel warm thrill confusion space cadet glow got bad news sunshine pink well stayed back hotel sent along surrogate band gonna find fans really stand queers theatre tonight get wall wall one spotlight look right get wall one looks jewish one coon let riff raff room one smoking joint another spots way would shot run run run run better make face favourite disguise button lips roller blind eyes empty smile hungry heart feel bile rising guilty past nerves tatters cockleshell shatters hammers batter door better run run run run run better run day run night keep dirty feelings deep inside taking girlfriend tonight better park car well sight catch back seat trying pick locks gonna send back mother cardboard box better run eins zwei drei alle ooh ooh cannot reach ooh ooh matter try goodbye cruel world walk sitting bunker behind wall waiting worms come worms come perfect isolation behind wall waiting worms come waiting cut deadwood waiting clean city waiting follow worms waiting put black shirt waiting weed weaklings waiting smash windows kick doors waiting final solution strengthen strain waiting follow worms waiting turn showers fire ovens waiting queens coons reds jews waiting follow worms would like see britannia rule friend follow worms would like send coloured cousins home friend need follow worms stop want home take uniform leave show waiting cell know guilty time good morning worm honour crown plainly show prisoner stands caught red handed showing feelings showing feelings almost human nature call schoolmaster always said would come good end honour would let way could flayed shape hands tied bleeding hearts artists let get away murder let hammer today crazy toys attic crazy truly gone fishing must taken marbles away crazy toys attic crazy little shit hope throw away key talked often way broken homes lately five minutes worm honour alone babe come mother baby let hold arms lord never wanted get trouble would ever leave worm honour let take home crazy rainbow crazy bars window must door wall came crazy rainbow crazy evidence court incontrovertible need jury retire years judging never heard someone deserving full penalty law way made suffer exquisite wife mother fills urge defecate judge shit since friend revealed deepest fear sentence exposed peers tear wall tear wall alone twos ones really love walk outside wall hand hand gathered together bands bleeding hearts artists make stand given stagger fall easy banging heart mad bugger wall</t>
-  </si>
-  <si>
-    <t>rolling thunder pouring rain coming like hurricane lightning flashing across sky young gonna die take prisoners spare lives nobody putting fight got bell gonna take hell gonna get satan get hells bells hells bells got ringing hells bells temperature high hells bells give black sensations spine evil friend mine see white light flashing split night cause good left sticking right take prisoners spare lives nobody putting fight got bell gonna take hell gonna get satan get hells bells hells bells got ringing hells bells temperature high hells bells hells bells satan coming hells bells ringing hells bells temperature high hells bells across sky hells bells taking hells bells dragging hells bells gonna split night hells bells way fight hells bells women want man street know way want turn keep coming put hand cause one gonna make burn gonna take fool around gonna pull pull pull trigger shoot thrill play kill many women many pills yeah shoot thrill play kill got gun ready gonna fire like evil get skin like bomb ready blow cause illegal got everything women might need know gonna take yeah fool around gonna pull pull pull trigger shoot thrill play kill many women many pills shoot thrill play kill got gun ready gonna fire cause shoot thrill ready kill get enough get fill shoot thrill play kill pull trigger pull pull pull pull trigger shoot thrill play kill many women many pills said shoot thrill play kill got gun ready gonna fire cause shoot thrill ready kill get enough get fill cause shoot thrill play kill yeah shoot yeah gonna get bottom girl shoot gonna shoot yeah yeah yeah yeah gonna shoot yeah yeah gonna get shoot shoot shoot shoot shoot shoot shoot gonna shoot thrill play kill shoot thrill working bars riding cars never gonna give free apartment view finest avenue looking beat street always pushing shoving satisfied nothing bitch must getting old stop life road digging gold make wonder yes wonder wonder honey money honey money get kicks loving take always make squeezing blood outta men standing queue spend night business usual always grabbing stabbing trying get back girl must getting slow stop life road digging gold make wonder yes wonder yes wonder honey money honey money money honey get kicks money honey get licks honey money said honey money yeah honey money honey gotta money honey money gotta gotta take easy going knees going devil ninety degrees blowing crazy blowing crazy ammunition dry using head using head using head giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone mona lisa playboy star send heaven explode mars using head using head using head giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone got power union hits hot likes give lot give everything got giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog bone giving dog giving dog giving dog bone flying free flight driving night machinery cause got power hour show man got reputations blown pieces artillery well guiding riding giving got struggle fight worry cause turn tonight let put love babe let put love line let put love babe let cut cake knife like fever burning faster spark fire crazy feelings got reeling got raising steam struggle fight worry cause turn tonight yeah let put love babe let put love line let put love babe let cut cake knife come let let let put love babe let put love line let put love babe let cut cake knife let put love babe let put love line let put love babe let give let give give back black hit sack long glad back yes let loose noose kept hanging kept looking sky cause getting high forget hearse cause never die got nine lives cat eyes abusing every one running wild cause back yes back well back yes back well back back well back black yes back black back back cadillac number one bullet power pack yes bang gang got catch want hang cause back track beating flack nobody gonna get another rap look making play try push luck get way cause back yes back well back yes back well back back well back black yes back black well back yes back well back yes back well back back well back black yes back black yeah yeah yes yeah yeah yeah back well back back back back back back back back back back back back black yes back black outta sight fast machine kept motor clean best damn woman ever seen sightless eyes telling lies knocking american thighs taking share fighting air told come already cause walls start shaking earth quaking mind aching making shook night long yeah shook night long working double time seduction line one kind mine mine wanted applause another course made meal outta come back cool take another round back ring take another swing cause walls shaking earth quaking mind aching making shook night long yeah shook night long knocked said shook night long shaking shook night long yeah shook took really took shook night long shook night long yeah yeah shook night long really got shook night long yeah shook yeah shook night long whiskey gin brandy glass pretty handy trying walk straight line sour mash cheap wine join drink boys gonna make big noise worry tomorrow take today forget check get hell pay drink yeah drink yeah drink drink dizzy drunk fightin tequila white lightnin glass getting shorter whiskey ice water come good time get blinded outta mind worry tomorrow take today forget check get hell pay drink yeah drink yeah drink drink get stoned drink drink drink come gonna roll around gonna hit ground take another swig another drink gonna drink dry gonna get high come boys make noise drink drink drink drink drink drink drink idle juvenile street street kicking everything feet feet fighting wrong side law law kick fight sleep night shake leg shake leg shake leg shake keeping outta trouble eyes back face kicking ass class tell damn disgrace tell think stink really care got mind move get outta hair shake leg shake head shake leg wake dead shake leg get stuck shake leg shake leg mob scenes wet dreams dirty women machines big licks skin flicks tricky dicks chemistry going grain tryin keep sane stop grinning drop linen shake leg shake head shake leg wake dead shake leg get stuck shake leg shake leg shake idle juvenile street street kicking everything feet feet fighting wrong side law law spitting biting kicking fighting shake leg shake head shake leg wake dead shake leg get stuck shake leg play win shake leg shake head shake leg wake dead shake leg get stuck shake leg shake leg shake hey middle men throw away fancy clothes sitting fence get arse come cause rock roll riddle man makes good good sense good sense yeah let heavy decibels playing guitar got vibrations coming floor listening rock giving much noise deaf want hear talking future forget past always never gonna die never gonna die rock roll noise pollution rock roll gonna die rock roll noise pollution rock roll survive yes took look inside bedroom door looked good lying bed well asked wanted rhythm love said want rock roll instead talking future forget past always never gonna die never gonna die rock roll noise pollution rock roll gonna die rock roll noise pollution rock roll rock roll rock roll noise pollution rock roll gonna die rock roll noise pollution rock rolling survive rock roll noise pollution rock roll never die rock roll noise pollution rock roll rock roll rock roll</t>
-  </si>
-  <si>
-    <t>came party tonight gonna get left get right child forget troubles forget news gonna pull plug black blues tie tight adjust noose gonna hang tight cut loose tearing buring hey daddy hide daughters sun come back around came party came come unwound tell everybody boys back town tear burn love hear stomp sing swamp little southeast western swing thing grab unto let make little midnight moonlight magic happens let hang want join fun shout tearing buring hey daddy hide daughters sun come back around came party came come unwound tell everybody boys back town tear burn tearing buring hey daddy hide daughters sun come back around came party came come unwound tell everybody boys back town tear burn know like party know like throw tell everybody let get around gonna tear burn johnny grew dark side law living shadow light never saw rosie came around way true love looking elsewhere thing never wild wind wild wind wild wind love wild wind wild wind wild wind love team traveled thier way looking forever every yesterday brings hope way angels taking heaven ways never knew wild wind wild wind wild wind love wild wind wild wind wild wind love wild wind every often gets stray look eye knows hold without ever asking wild wind wild wind wild wind love wild wind wild wind wild wind love wild wind wild wind wild wind love wild wind wild wind wild wind love standing spotlight perfect night knowing listening remember one time afraid think courage stand stage reached heart found melody ever somebody made believe song made sing voice gave wings light shined guiding heart find place belong song every night pray music starts play best let times stood feeling feels brand new time doubt think song made sing voice gave wings light shined guiding heart find place belong song dreams come true god great angels like song made sing voice gave wings light shined guiding heart find place belong song song always song</t>
-  </si>
-  <si>
-    <t>got big girl got young one wondering day could way remember crazy remarks would get drunk dark searching someone could take home want alone want see sun want open door see one step tomorrow comes two steps someone three steps know gone gone gonna one else friend hold strong let never one take place want reach take hand little love tenderness walk upon water rise mess little peace harmony take world together take hand got hand want run yesterday saw standing head eyes red comb touched hair said get let see smile take walk together walk road awhile got hand got hand want run let run yeah hold hand want hold hand hold hand take place hold hand anything want want love best best see wasted wasting time thought problems thought crimes stood screamed aloud want part problems want part crowd got hand got hand want run let run hold hand want hold hand hold hand take promised land hold hand maybe change world want love best best yeah hold hand want hold hand hold hand take place hold hand anything want hold hand want hold hand hold hand take promised land hold hand maybe change world want love best best best sits alone lamp post trying find thought escaped mind says dar one love stipe far behind never lets tell much drink say care run hands dark hair pray god gotta help fly away let cry tears fall like rain let sing eases pain let let walk right sun comes tomorrow let let morning woke alone found note standing phone saying maybe maybe back day wanted look walked know sat back beer felt sorry saying let cry tears fall like rain let sing eases pain let let walk right sun comes tomorrow let let let cry tears fall like rain let sing eases pain let let walk right sun comes tomorrow let last night tried leave cried much could believe girl fell love long ago went back get high sat couch cried yelling mama please help hold hand let cry tears fall like rain let sing eases pain let let walk right sun comes tomorrow let let cry tears fall like rain let sing eases pain let let walk right sun comes tomorrow let let come different worlds like laugh look girls sometimes crazy wonder baby dolphins make cry well nothing looking girl like look got nothing left say gonna pout get way dance sing want love want wear ring well nothing want call fool want put little dylan sitting fence say line great ask meant said shot man named gray took wife italy inherited million bucks died came help lucky want bobby cool want yeah tangled blue want call fool want sometimes wonder ever end get mad friends sometimes crazy wonder baby yeah dolphins make cry well nothing want call fool want yeah tangled blue want want want want look gift horse mouth come try tell talkin things dealing living lie every time see makes want cry sometimes would laugh talk seems like yesterday let white horse come take away came get cold black wheels motion turning back running angel runnin devil looked long time ago something want know lying cheating really tore apart please come home gonna break momma heart mama please stay one day boy long much still say sky rips open hold heart hand like soldier last day cried sleep night listened heard angels sing sha sha going home sha sha going home something inside makes scream could god take little boy alright side little boy pride joy summer radio phone rings jeanette said boy let begged yet left six fend guess part someone master plan see laughing best friend light lamb cried angels sing trouble world busy think right rebel flag hanging state house walls tired hearing shit heritage hate time make world better place must hate one another well matter gotta live together look like tell see pass street want see coming gotta say want turn run away telling see right wrong care wish would quit drowning sea tears hatred trying hide fears living hating everybody else cause look like nanci singing hard life wherever fat racist living chicago trying teach kids hate everyone well tell something want teach son must hate one another people church tell brother walk like talk like saying back africa understand trying someone could look walk street tell see man man man like hate know know know hating everybody else cause look like time punish like wave crashing shore wash away dreams time walk away like friend somewhere left crying teach tomorrow pain sorrow running free tomorrow another day believe time time understand children killing street dying color rag time take red blue wash ocean make clean maybe mothers cry tonight teach tomorrow pain sorrow running free tomorrow another day believe time wasting time walking friend mine know going think mind thinking time die tomorrow yeah lay sleep time wasting time walking friend mine know going think mind thinking time time left standing like tree growing alone wind stripped bare stripped bare time past come gone future far away lasts one second one second teach tomorrow pain sorrow running free tomorrow another day believe time time friend mine know going think outta mind walking wasting friend mine know going time without courage power without faith wasted wasted wasted time time punish saw standing tears upon cheek told something wrong asked looked away said daddy home knew meant meant could never see seen want deal anymore look away said turned tried hold could let let let said make cry said love look away want know saw standing tears upon cheek told something wrong said baby looked away said daddy home look away said turned darling loved could let let let look away said love look away alone sit watch trees tell scream bend listen makes wonder know words come laugh run little boy says going son said know going boy know makes wonder stars shine eyes close brothers heart cry know stranger home everybody gone someone please talk cause feel cry sitting know never see lying charleston carolina sky see tired feeling pain tired living little lie makes wonder see dreams mean anything trying talk stranger home tell feeling alone someone tell feeling strong wonder feel realize pain real see dreams wonder looking smiling right want know true looks tell realize came took soon days short nights long lay memories keep keep going going makes wonder sit stare see face tell care stranger home living life right see feeling weak sould begins bleed one listening even trees tomorrow used day away love gone someone far away never thought day would come would see hand mine holding onto could find time deny nothing lasts forever want leave see tear drops eyes want live see day say goodbye comes another part life call alone sitting bar chris leave house home want touch girl want feel close without love would give walk away easily maybe young figure together even pain remedy right want live see day say goodbye first met could love anyone stole dreams made see walk sun still deny nothing lasts forever want leave see teardrops eyes baby young let figure together even pain remedy right want live see day say goodbye say goodbye goodbye goodbye</t>
-  </si>
-  <si>
-    <t>know nothing say someone taken place times bad times rough lay tall grass let stuff know got nothing know nothing times bad get enough lay tall grass let stuff one thing think know gonna miss long tossed around enough could let stuff know hoping find someone gonna give peace mind times bad times rough lay tall grass let stuff second hand news second hand news say want freedom well keep right play way feel listen carefully sound loneliness like heartbeat drives mad stillness remembering lost lost thunder happens raining players love playing say women come rain washes clean know know see crystal visions keep visions wants wrap around dreams dreams would like sell dreams loneliness like heartbeat drives mad stillness remembering lost lost thunder happens raining players love playing women come rain washes clean know thunder happens raining players love playing say women come rain washes clean know know know know broke let made see one time two times never going back know means win come see one time two times never going back wake want smile takes little open eyes look day see things different way stop thinking tomorrow stop soon better yesterday gone yesterday gone think times come things done life bad think tomorrow stop thinking tomorrow stop soon better yesterday gone yesterday gone want see smile takes little know believe true never meant harm stop thinking tomorrow stop soon better yesterday gone yesterday gone stop thinking tomorrow stop soon better yesterday gone yesterday gone look back look back look back look back loving right thing ever change things feel could baby would give world take way way call another lonely day way way tell everything turned around packing shacking want could baby would give world open everything waiting way way call another lonely day way way crying sun shining feel alright know right give world never cold feel alright know right songbirds singing like know score love love love like never wish love world wish songbirds keep singing like know score love love love like never like never like never listen wind blow watch sun rise run shadows damn love damn lies love never love still hear saying would never break chain listen wind blow comes night run shadows damn love damn lies break silence damn dark damn light love never love still hear saying would never break chain chain keep together running shadows sweet wonderful make happy things feeling follows wherever never believe miracles feeling time try never believe ways magic beginning wonder never believe miracles feeling time try never believe ways magic beginning wonder break spell would different know make loving fun tell one make loving fun want make loving fun want make loving fun want make loving fun want want know reasons love keeps right walking line want stand love honey want feel fine want know reasons love keeps right walking line want stand love honey want feel fine finally baby truth come take listen spirit crying loud try believe say love know got rocking reeling want know reasons love keeps right walking line want stand love honey want feel fine want know reasons love keeps right walking line want stand love honey want feel fine finally baby truth told tell crazy nothing know trying survive say love know got rocking reeling hanging onto want know reasons love keeps right walking line want stand love honey take little time want know daddy know make cry love understand daddy make see fool around got daddy soothe smile letting know best thing life daddy make see fool around got right wrong weak strong everything alright walk away baby tried rock gold dust woman take silver spoon dig grave heartless challenge pick path pray wake morning see sunrise loves lousy lovers pick prey never cry loud cry well make cry make break shatter illusions love know pick pieces home rock ancient queen follow pale shadow rulers make bad lovers better put kingdom sale sale well make cry make break shatter illusions love know pick pieces home well make cry make break shatter illusions love tell know pick pieces home home home ooh pale shadow woman black widow pale shadow dragon dust woman ooh pale shadow woman black widow ooh pale shadow dragon gold dust woman</t>
-  </si>
-  <si>
-    <t>let girls come going tonight feeling alright gonna let hang want make noise really raise voice yeah want scream shout inhibitions make conditions get little outta line gonna act politically correct want good time best thing woman prerogative little fun totally crazy forget lady men shirts short skirts really wild yeah style get action feel attraction color hair dare want free yeah feel way feel man feel like woman girls need break tonight gonna take chance get town need romance want dance gonna let hair hang best thing woman prerogative little fun totally crazy forget lady men shirts short skirts really wild yeah style get action feel attraction color hair dare want free yeah feel way feel man feel like woman best thing woman prerogative little fun fun fun totally crazy forget lady men shirts short skirts really wild yeah style get action feel attraction color hair dare want free yeah feel way feel man feel like woman get totally crazy feel come come come baby feel like woman need shrink tell think missing link love life alright uptight need psychic really like someone tries tell future holds already know love keeps alive need survive got side holding feeling strong baby one life yeah holding doubt live without life holding love save life need get caught net already set understand already got man need proof show truth even ruth gonna tell feel know love real love keeps alive need survive got side holding feeling strong baby one life yeah holding doubt live without life holding love save life holding love save life love keeps alive need survive got side holding feeling strong baby one life yeah holding doubt live without life holding love save life save save save save life life going great love gonna wait hurry worries staying single plan need steady man covered discovered love gets every time heart changed mind gol darn gone done gone done gone done guess fell love gone done must way walked gone done sweet sweet talk gone done guess gol darn gone done quite content paying rent place needed space free shop around rush settle covered discovered love gets every time heart changed mind gol darn gone done gone done gone done guess fell love gone done must way walked gone done sweet sweet talk gone done guess gol darn gone done love gets every time heart changed mind gol darn gone done gone done gone done guess fell love gone done must way walked gone done sweet sweet talk gone done way calls name gone done know never gone done love gets every time heart changed mind gol darn gone done thought covered life going great well gol darn gone done complicated hang shoulder read mail appreciate talk guys think tail get aggravated get phone get third degree really feeling frustrated take pill put little trust see freak know facts relax stupid know love ridiculous know need absurd know want impossible mad mad live without live without crazy crazy stupid know love stop overreacting even get suspicious paint nails definitely distracting way dramatize every little small detail freak know facts relax max stupid know love ridiculous know need absurd know want impossible mad mad live without live without crazy crazy stupid know love stupid baby mad mad live without live without crazy crazy stupid know love ridiculous know need absurd know want impossible swear always would give anything everything always care weakness strength happiness sorrow better worse love every beat heart moment life begun moment one right beside belong moment moment blessed live happiness love would give last breath moment give hand heart wait live life wait start never apart dreams came true moment long live love promise nothing would give moment reason believe love answer prayers need two dreams came true moment long live love promise nothing would give moment love long live moment get life get grip get away somewhere take trip take break take control take advice someone know come come pull seat take load feet come come unwind take load mind make wish make move make mind choose need laugh come around come come pull seat take load feet come come unwind take load mind winner star happy gotta gotta make plan gotta come come pull seat take load feet come come unwind take load mind get life get grip get away somewhere take trip take break take control take advice someone know come come pull seat take load feet come come unwind take load mind elephants could fly would little optimistic see happening anytime soon mean sound pessimistic think cow really jumped moon wake break make money grows trees people live peace everyone agrees happiness free love guarantee come back would love wake smiling full joys spring hear cnn elvis lives john back beatles going tour first line tickets gotta see show sure wake break make money grows trees people live peace everyone agrees happiness free love guarantee come back wake break make money grows trees people live peace everyone agrees happiness free love guarantee come back deep denialville trying fight way feel jello smile start blushing head rushing stand close might melt heat look way one time gonna mind whatever even think get started dare drive crazy baby stop tracks heart pumping max sucker eyes permanently paralyze whatever even think get started dare drive crazy baby whatever got heart attack give shivers back would walk way get weak watching whatever even think get started dare drive crazy baby let let secret treat woman right looking place heart gonna happen overnight first gotta learn listen understand deepest thoughts needs know friends give got start heart see love gonna play part want get know really get inside mind want move closer take slow yeah take time must start heart want touch really want touch want touch ask little physical attraction romantic old fashioned charm lot love tenderness gonna get arms start heart see love gonna play part want get know really get inside mind want move closer take slow yeah take time must start heart want touch really want touch want touch ask let let secret treat woman right looking place heart gonna happen overnight want get know really get inside mind want move closer take slow yeah take time must start heart want touch really want touch want touch ask first saw saw love first time touched felt love time still one love looks like made look far come baby mighta took long way knew would get someday said bet never make look holding still together still going strong still one still one run one belong still one want life still one still one love one dream still one kiss good night nothing better beat odds together glad listen look would missing said bet never make look holding still together still going strong still one still one run one belong still one want life still one still one love one dream still one kiss good night still one still one still one run one belong still one want life still one still one love one dream still one kiss good night glad made look far come baby car start falling apart late work boss got smart pantyline shows got run hose hair went flat man hate thought things could get worse realized forgot purse stress must confess could worse pms job worth pay wait end day honey way hey hey hey hey honey home hard day pour cold one way rub feet gimme something eat fix favorite treat honey back head killing need relax watch get phone give dog bone hey hey honey home broke nail opening mail cursed loud hurt like hell job pain mundane sure stimulate brain job worth pay wait end day honey way hey hey hey hey honey home hard day pour cold one way rub feet gimme something eat fix favorite treat honey back head killing need relax watch get phone give dog bone hey hey honey home rub neck honey home hard day pour cold one way rub feet gimme something eat fix favorite treat honey back head killing need relax watch get phone give dog bone hey hey honey home home feels much better known guys thought pretty smart got right art think genius drive wall regular original know think special think something else rocket scientist impress much got brain got touch get wrong yeah think alright keep warm middle night impress much never knew guy carried mirror pocket comb sleeve case extra hold gel hair oughtta lock heaven forbid fall outta place think special think something else brad pitt impress much got looks got touch get wrong yeah think alright keep warm middle night impress much one guys likes shine machine make take shoes let get believe kiss car good night come baby tell must joking right think special think something else got car impress much got moves got touch get wrong yeah think alright keep warm middle night impress much think cool got touch get wrong yeah think alright keep warm long cold lonely night impress much think elvis something impress much impress much black eyes need blue tears gimme freedom positively never going back live things whack rolling punches using abusing would rather die standing live knees begging please black eyes need blue tears gimme freedom black eyes behind blue tears never find definitley found self esteem finally forever free dream crying corner excuses bruises would rather die standing live knees begging please black eyes need blue tears gimme freedom black eyes behind blue tears never find would rather die standing live knees begging please black eyes need blue tears gimme freedom black eyes behind blue tears never find behind never find find self esteem forever free dream together midnight summer air much warmer falling love starlight holding tight together leave lonely tonight want hold night gonna alright leave lonely tonight imagine air filled jasmine breeze blows passion dance desire moon fire imagine leave lonely tonight want hold night gonna alright leave lonely tonight love beaucoup mon amour one adore leave lonely tonight want hold night gonna alright lonely tonight amo mucho amor one adore amo woke morning buzz rolling around brain drinking feels pretty good must contagious looks like going around cool catch keep feet ground come come let get something started come come let start something gonna rock country gonna rock country every brown eyed boy every blue eyed girl gotta really psycho give whirl gonna rock country right world utah texas minnesota mississippi nevada matter live buzz come come let get something started come come let start something gonna rock country gonna rock country every brown eyed boy every blue eyed girl gotta really psycho give whirl gonna rock country right world plugging power cranking sound coming direction heading town kicking dust blowing steam let get nuts everybody scream gonna rock country gonna rock country every brown eyed boy every blue eyed girl gotta really psycho give whirl gonna rock country right world got way somehow got believe everything could gotta say really got way got way seems gave faith find dreams never know means see got way way want way hold way show love made way make love got way words get smiling even hurts way measure love worth believe way get way want way hold way show love made way make love adore like one love way way want way hold way show love made way make love way</t>
-  </si>
-  <si>
-    <t>flew miami beach get bed last night way paper bag knee man dreadful flight back know lucky boy back yeah away long hardly knew place gee good back home leave tomorrow unpack case honey disconnect phone back know lucky boy back back back well ukraine girls really knock leave west behind moscow girls make sing shout georgia always mind come yeah yeah yeah yeah yeah yeah back know lucky boys back well ukraine girls really knock leave west behind moscow girls make sing shout georgia always mind show around snow peaked mountains way south take daddy farm let hear balalaikas ringing come keep comrade warm back hey know lucky boys back let tell honey hey back back yes free yeah back dear prudence come play dear prudence greet brand new day sun sky blue beautiful dear prudence come play dear prudence open eyes dear prudence see sunny skies wind low birds sing part everything dear prudence open eyes look around round look around round round look around dear prudence let see smile dear prudence like little child clouds daisy chain let see smile dear prudence let see smile dear prudence come play dear prudence greet brand new day sun sky blue beautiful dear prudence come play told strawberry fields know place nothing real well another place everything flows looking bent backed tulips see half live looking glass onion told walrus man know close man well another clue walrus paul standing cast iron shore yeah lady madonna trying make ends meet yeah looking glass onion yeah yeah yeah looking glass onion told fool hill tell man living still well another place listen fixing hole ocean trying make dove tail joint yeah looking glass onion desmond barrow market place molly singer band desmond says molly girl like face molly says takes hand life goes bra life goes life goes bra life goes desmond takes trolley jeweler stores buys twenty carat golden ring golden ring takes back molly waiting door gives begins sing sing life goes bra life goes life goes bra life goes yeah couple years built home sweet home couple kids running yard desmond molly jones happy ever market place desmond lets children lend hand arm leg molly stays home pretty face evening still sings band yes life goes bra life goes hey life goes bra life goes couple years built home sweet home couple kids running yard desmond molly jones yeah happy ever market place molly lets children lend hand foot desmond stays home pretty face evening singer band yeah life goes bra life goes yeah life goes bra life goes want fun take thank honey pie honey pie honey pie honey pie honey pie honey pie honey pie honey pie love honey pie hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill went tiger hunting elephant gun case accidents always took mum american bullet headed saxon mother son children sing hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill deep jungle mighty tiger lies bill elephants taken surprise captain marvel zapped right eyes zap children sing hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill children asked kill sin looked fierce mummy butted looks could kill would instead children sing hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill look see love sleeping guitar gently weeps look floor see needs sweeping still guitar gently weeps know nobody told unfold love know someone controlled bought sold look world notice turning guitar gently weeps every mistake must surely learning still guitar gently weeps well know diverted perverted know inverted one alerted look see love sleeping look wings play staging guitar gently weeps look sitting nothing aging still guitar gently weeps yeah yeah yeah yeah yeah yeah yeah yeah yeah ooh girl misses much yeah well acquainted touch velvet hand like lizard window pane man crowd multicoloured mirrors hobnail boots lying eyes hands busy working overtime soap impression wife ate donated national trust need fix going bits left uptown need fix going mother superior jump gun mother superior jump gun mother superior jump gun mother superior jump gun mother superior jump gun mother superior jump gun happiness warm gun happiness bang bang shoot shoot happiness warm gun mama happiness bang bang shoot shoot hold arms yeah feel finger trigger yeah know nobody harm yeah happiness warm gun mama happiness bang bang shoot shoot happiness warm gun yes happiness bang bang shoot shoot happiness warm yes gun happiness bang bang shoot shoot well know happiness warm gun mama happiness warm gun yeah martha dear though spend days conversation please remember martha love forget martha dear hold head silly girl look done find thick help bit around silly girl take good look around take good look bound see meant silly girl hold hand silly girl see done find thick help bit around silly girl martha dear always inspiration please good martha love forget martha dear tired slept wink tired mind blink wonder get fix drink tired know tired mind set wonder call know would would say putting joke harm know sleep stop brain know three weeks going insane know would give everything got little peace mind tired feeling upset although tired another cigarette curse sir walter raleigh stupid git would say putting joke harm know sleep stop brain know three weeks going insane know would give everything got little peace mind would give everything got little peace mind would give everything got little peace mind monsieur monsieur monsieur another one blackbird singing dead night take broken wings learn fly life waiting moment arise blackbird singing dead night take sunken eyes learn see life waiting moment free black bird fly black bird fly light dark black night black bird fly black bird fly light dark black night blackbird singing dead night take broken wings learn fly life waiting moment arise waiting moment arise waiting moment arise seen little piggies crawling dirt little piggies life getting worse always dirt play around seen bigger piggies starched white shirts find bigger piggies stirring dirt always clean shirts play around styes backing care goes around eyes something lacking need damn good whacking everywhere lots piggies living piggy lives see dinner piggy wives clutching forks knives eat bacon one time somewhere black mountain hills dakota lived young boy named rocky raccoon one day woman ran another guy hit young rocky eye rocky like said gonna get boy one day walked town booked room local saloon rocky raccoon checked room find gideon bible rocky come equipped gun shoot legs rival rival seems broken dreams stealing girl fancy name magill called lil everyone knew nancy man called dan next room hoedown rocky burst grinning grin said danny boy showdown daniel hot drew first shot rocky collapsed corner doctor came stinking gin proceeded lie table said rocky met match rocky said doc scratch better better doc soon able rocky raccoon fell back room find gideon bible gideon checked left doubt help good rocky revival yeah yeah come rocky boy come rocky boy story rocky listen footsteps coming drive listen footsteps arrive waiting knock dear old front door hear mean love hear clock ticking mantel shelf see hands moving wonder tonight see mean love pass make cry make blue cause know darling love never know hurt hate see pass make cry sorry doubted unfair car crash lost hair said would late hour two said alright waiting waiting hear pass make cry make blue cause know darling love never know hurt hate see pass make cry road road road road one watching road road road road road one watching road ooh road road road road one watching road knows long loved know love still wait lonely lifetime want ever saw catch name never really mattered always feel love forever forever love heart love whenever together love apart last find song fill air sing loud hear make easy near things endear know half say meaningless say reach julia julia julia oceanchild calls sing song love julia julia seashell eyes windy smile calls sing song love julia hair floating sky shimmering glimmering sun julia julia morning moon touch sing song love julia cannot sing heart speak mind julia julia sleeping sand silent cloud touch sing song love julia hum hum hum hum calls sing song love julia julia julia say birthday birthday yeah say birthday gonna good time glad birthday happy birthday come come yes going party party yes going party party yes going party party would like dance birthday take cha cha cha chance birthday would like dance birthday dance yeah come would like dance birthday take cha cha cha chance birthday would like dance birthday dance dance say birthday well birthday yeah say birthday gonna good time glad birthday happy birthday two three yes lonely want die yes lonely want die dead already ooh girl know reason morning want die evening want die dead already ooh girl know reason mother sky father earth universe know worth lonely want die dead already ooh girl know reason eagle picks eye worm licks bone feel suicidal like dylan jones lonely want die dead already ooh girl know reason black cloud crossed mind blue mist around soul feel suicidal even hate rock roll want die yeah want die dead already ooh girl know reason want die yes lonely want die reason want die born poor young country boy mother nature son day long sitting singing songs everyone sit beside mountain stream see waters rise listen pretty sound music flies doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo find field grass mother nature son swaying daisies sing lazy song beneath sun doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo yeah yeah yeah ooh ooh ooh wah wah wah wah mother nature son come come come come come joy come joy come let take easy come let take easy take easy take easy everybody got something hide except monkey ooh deeper higher fly higher fly deeper come come come come joy come joy come let make easy come let take easy take easy yeh yeh yeh take easy hoo everybody got something hide except monkey yeah inside outside outside inside come come come joy come joy come let make easy come let make easy make easy hoo make easy hoo everybody got something hide except monkey hey come come come come come come come come come come come come come come come come sexy sadie done made fool everyone made fool everyone sexy sadie ooh done sexy sadie broke rules layed see layed see sexy sadie oooh broke rules one sunny day world waiting lover came along turn everyone sexy sadie greatest sexy sadie know world waiting world waiting sexy sadie oooh know sexy sadie get yet however big think however big think sexy sadie oooh get yet gave everything owned sit table smile would lighten everything sexy sadie latest greatest made fool everyone sexy sadie however big think sexy sadie get bottom back top slide stop turn ride till get bottom see yeah yeah yeah hey want love coming fast miles tell tell tell come tell answer well may lover dancer helter skelter helter skelter helter skelter yeah ooh want make coming fast let break tell tell tell answer may lover dancer look helter skelter helter skelter helter skelter ooh look cos comes get bottom back top slide stop turn ride get bottom see yeah yeah yeah well want make coming fast let break tell tell tell answer may lover dancer look helter skelter helter skelter helter skelter look helter skelter coming fast yes yes coming fast head spinning ooh alright got blisters fingers long long long time could ever lost loved took long long long time happy found love many tears searching many tears wasting see ever misplace want love know need ooh love take say want revolution well know want change world tell evolution well know want change world talk destruction know count know gonna alright know gonna alright know gonna alright say got real solution well know would love see plan ask contribution well know want money people minds hate tell brother wait know gonna alright know gonna alright know gonna alright say change constitution well know would love change head tell institution well know better free mind instead carrying pictures chairman mao going make anyone anyhow know gonna alright know gonna alright know gonna alright alright alright alright alright alright alright alright alright alright alright alright alright alright alright alright working girl north england way hit big time usa could hear would say honey pie making crazy love lazy please come home honey pie position tragic come show magic hollywood song became legend silver screen thought meeting makes weak knee honey pie driving frantic sail across atlantic belong honey pie come back yeah like like like kind hot kind music hot kind music play play honey blues wind blew boat across sea kindly send sailing back honey pie making crazy love lazy please come home come come back honey pie oooooooooooh honey pie honey pie creme tangerine montelimar ginger sling pineapple heart coffee dessert yes know good news pulled savoy truffle cool cherry cream nice apple tart feel taste time apart coconut fudge really blows blues pulled savoy truffle might feel pain cuts going know sweat going fill head becomes much shout aloud pulled savoy truffle know eat sweet turns sour know obla dibla show creme tangerine montelimar ginger sling pineapple heart coffee dessert yes know good news pulled savoy truffle yes pulled savoy truffle cry baby cry make mother sigh old enough know better king marigold kitchen cooking breakfast queen queen parlour playing piano children king cry baby cry make mother sigh old enough know better cry baby cry king garden picking flowers friend came play queen playroom painting pictures childrens holiday cry baby cry make mother sigh old enough know better cry baby cry duchess kircaldy always smiling arriving late tea duke problems message local bird bee cry baby cry make mother sigh old enough know better cry baby cry twelve clock meeting round table seance dark voices nowhere put specially children lark cry baby cry make mother sigh old enough know better cry baby cry cry cry cry baby make mother sigh old enough know better cry baby cry cry cry cry make mother sigh old enough know better cry baby cry bottle claret realised well next time forgot george sorry forgive yes cheeky bitch number number number number number number number number number number number number number number number welsh rarebit wearing brown underpants shortage grain hertfordshire everyone knew time went would get little bit older little bit slower thing case manufactured someone always umpteen father giving diddly dee district leaving intended pay number number know know number number number number number number number number number number number number sustained nothing worse also example whatever business deal falls informed third night fortune gives number number number people right people right right right right right right right right number number number missed makes days late compared like wow weird stuff like taking sides sometimes floral bark rouge doctors brought specimen nobody short cuts aha number situation standing still plan telegram ooh ooh number number ooh man without terrors beard false headmaster reported son really try find function tell saying voice low hive high eyes low alright head fire glasses saved enables move number number number number number number number number number number number wife called would better see surgeon whatever price yellow underclothes road went see dentist instead gave pair teeth good instead joined fucking navy went sea broken chair wings broken hair mood whirling aaah gathered france dogs dogging hands clapping birds birding fish fishing themming whimming find night watchman unaware presence building onion soup number number number number number number industrial output financial imbalance thrusting shoulder blades watusi twist eldorado take brother may serve well maybe nothing aaah maybe nothing maybe even impervious london could difficult thing hold line hold line hold line hold line quick like rush peace much like naked alright alright alright become naked block kick block kick block kick block kick block kick block kick block kick block kick block kick block kick time say good night good night sleep tight sun turns light good night sleep tight dream sweet dreams dream sweet dream sweet dreams close eyes close mine good night sleep tight moon begins shine good night sleep tight dream sweet dreams dream sweet dream sweet dreams mmmmmm mmmmmm mmmmmmmmmm close eyes close mine good night sleep tight sun turns light good night sleep tight dream sweet dreams dream sweet dream sweet dreams good night good night everybody everybody everywhere good night</t>
-  </si>
-  <si>
-    <t>stay would way know think every step way always love ooh always love darling mmm bittersweet memories taking good bye please cry know need always love always love ooh hope life treats kind hope dreamed wish joy happiness wish love always love always love always love always love always love always love darling love always always love ooh ooh share life take never change colours take love never ask much everything really need look much want follow hold back passion inside run nowhere hide make close one door want hurt anymore stay arms dare must imagine walk away nothing nothing nothing see right heart break walls strength love never knew love like known memory survive one hold really need look much want follow hold back passion inside run nowhere hide love remember forever make close one door want hurt anymore stay arms dare must imagine walk away nothing nothing nothing make close one door want hurt anymore stay arms dare must imagine walk away walk away dare walk away nothing nothing nothing ooh ooh whatever want whatever need anything want done baby naturally every woman every woman yeah every woman anything want done baby naturally every woman read thoughts right every one whoa whoa whoa whoa whoa whoa cast spell secrets tell mix special brew put fire inside anytime feel danger fear instantly appear yeah every woman anything want done baby naturally whoa whoa whoa whoa whoa whoa sense needs like rain unto seeds make rhyme confusion mind comes good old fashioned love got got got got baby baby every woman anything want done baby naturally every woman read thoughts right every one whoa whoa whoa whoa whoa whoa bragging one ask shall done bother compare got whoa whoa whoa whoa whoa whoa whoa whoa whoa every woman every woman every woman chaka khan every woman chaka khan every woman every woman girl ooh know look much see would take time know heart would find girl scared sometimes always strong see hurt feel alone want run want run hold arms keep safe harm want run come tell stay run away day day play role someone always control night come home turn key nobody one cares woah sense trying hard find dreams without someone share tell mean want run want run hold arms keep safe harm want run come tell stay run away run away need need wipe away tears kiss away fears knew much want run know want run hold arms keep safe harm want run come tell stay run away got stuff want got thing need got enough make drop knees queen night queen night yeah yeah yeah yeah make difference wrong right got feeling willing tonight well nobody angel say well way hey got stuff want stuff want got thing need thing need got enough make drop knees queen night queen night queen night yeah say say say queen night queen night queen night queen night yeah yeah yeah yeah queen night got problem way say trouble give damn bad know better want get turn got stuff want stuff want got thing need thing need got enough make drop knees enough woo queen night queen night queen night yeah say say queen night queen night queen night queen night yeah yeah yeah yeah play guitar yeah yeah ooh ohh yeah got stuff want stuff want got thing need thing need got enough make drop knees enough make drop queen night queen night queen night yeah say queen night queen night queen night queen night yeah yeah yeah yeah queen night queen night queen night queen night yeah yeah yeah yeah yeah yes jesus loves bible tells jesus loves know bible tells little ones belong weak strong yes jesus loves yes jesus loves yes jesus loves bible tells pressing upper away always guide lord pray undeserving stubborn willed never fail love still yes jesus loves yes jesus loves yes jesus loves bible tells yes jesus loves love yes jesus loves bible tells bible tells feels good know never alone see sometimes lonely never alone bible tells bible tells bible tells see know loves whether right whether wrong</t>
-  </si>
-  <si>
-    <t>looked morning sun gone turned music start day lost familiar song closed eyes slipped away feeling feeling hear old song used play feeling begin dreaming feeling see marianne walk away see marianne walking away many people come gone faces fade years yet still recall wander clear sun summer sky feeling feeling hear old song used play feeling begin dreaming feeling see marianne walk away see marianne walking away tired thinking cold hide music forget day dream girl used know closed eyes slipped away slipped away feeling feeling hear old song used play feeling begin dreaming feeling see marianne walk away feeling kinda low dues paying future coming much slow want run somehow keep staying decide way yeah yeah yeah understand indecision care get behind people living competition want peace mind climbing top company ladder hope take long tcha see come day matter come day gone understand indecision care get behind people living competition want peace mind take look ahead take look ahead yeah yeah yeah yeah everybody got advice keep giving mean much lot people make believe living decide understand indecision care get behind people living competition want peace mind take look ahead take look ahead look ahead long time think going yeah time wait keeps rolling sail distant highway got keep chasing dream gotta way wish something could say well taking time moving forget gone take find want outside front door long time long time well get lonely without mind deep mind forget good times faces remind trying forget name leave behind coming back find well taking time moving forget gone take find want outside front door long time long time yeah long time think going yeah time wait keeps rolling long road gotta stay time got keep chasing dream though may never find always behind well taking time moving along taking time moving along taking time taking time well another band boston road try make ends meet playing bars sleeping cars practiced right street much money barely made enough survive got stage got ready play people came alive rock roll band everybody waiting getting crazy anticipating love music play play play yeah yeah yeah yeah dancing streets hyannis getting pretty good game people stood line seem mind know everybody knew name living rock roll music never worry things missing got stage got ready play everybody would listen rock roll band everybody waiting getting crazy anticipating love music play play play yeah yeah yeah yeah playing week rhode island man came stage one night smoked big cigar drove cadillac car said boys think bands outta sight sign record company contract know got great expectations hear car radio going sensation rock roll band everybody waiting getting crazy anticipating love music play play play yeah yeah yeah yeah gonna play song little bit rock roll gotta let band gonna take control getting today pick take away get tonight smoking smoking cooking tonight keep toking smoking smoking feel alright mamma joking yeah get feet floor everybody rock roll got nothing lose rhythm blues yeah gonna feel pick take away get tonight smoking smoking cooking tonight keep toking smoking smoking feel alright mamma joking yeah everybody jumping dancing boogie tonight clap hands move feet know seem right getting today pick take away get tonight getting today pick take away get tonight well alright day night new york city smoke like water runs inside steel idle trees pity every living things died gonna hitch ride head side leave behind never change mind gonna sail away sun lights another day freedom mind carry away last time yeah life like coldest winter people freeze tears cry words hail minds got crack ice fly gonna hitch ride head side leave behind never change mind gonna sail away sun lights another day freedom mind carry away last time gonna hitch ride head side leave behind never change mind gonna sail away sun lights another day freedom mind carry away last time younger thought could stand easy stood like man made stone something want know brought change starting show got feeling inside gotta good hide easy show feeling inside girl easy know believe man like get angry say things want say really mean want leave way could help reaction want know lose control wantcha know got feeling inside gotta good hide easy show feeling inside girl easy believe man like something want know brought change starting show got feeling inside gotta good hide easy show feeling inside girl easy know believe man like like tch see gotta gotta something yeah something like really kind shy get feeling whenever walk want want make high could see way come let try let take home tonight mamma alright let take home tonight show sweet delight must understand watched long feel known know wrong get together want make see dreaming sweet love tonight mamma let let take home tonight mamma alright let take home tonight show sweet delight want make excuses want lie got get loose tonight let take home tonight mamma alright let take home tonight show sweet delight want make excuses want lie got get loose tonight want want make high get feeling whenever walk get together want make see dreaming sweet love tonight mamma let let take home tonight mamma alright let take home tonight show sweet delight want show sweet delight show sweet delight pretty mamma want show sweet delight let take home tonight know want take home let take home tonight want alone let take home tonight let take home tonight let take home tonight</t>
-  </si>
-  <si>
-    <t>three thirty morning soul sight city looking like ghost town moonless summer night raindrops windshield storm moving heading back somewhere never thunder rolls thunder rolls every light burning house across town pacing telephone faded flannel gown asking miracle hoping right praying weather kept night thunder rolls thunder rolls thunder rolls lightning strikes another love grows cold sleepless night storm blows control deep heart thunder rolls waiting window pulls drive rushes hold thankful alive wind rain strange new perfume blows lightning flashes eyes knows knows thunder rolls thunder rolls thunder rolls lightning strikes another love grows cold sleepless night storm blows control deep heart thunder rolls like birds high line line night time bar lovebirds bluebirds landed hell minute fell love sky hope wine tht find new way fly new way fly far away goodbye clouds rain memories pain tears cry lessons learned crashed burned leve behind could find new way fly end night high kite seem mind time money spend high price pay find way get worth every dime find new way fly new way fly far away goodbye clouds rain memories pain tears cry lessons learned crashed burned leve behind could find new way fly leave behind soon find new way fly yes lady luck hey wild card man together building real hot hand live country hey little queen south yea two kind working full house wakes every morning smile kiss strong country loving hard resist easy loving woman hard working man doubt yea two kind working full house yea pickup truck limousine favorite dress faded blue jeans loves tender going gets tough somtimes fight make lord need little woman like crops need rain honeycomb sugar cane really fit together know talking yea two kind working full house time found keeper made mind lord perfect combination heart mine sky limit hill steep playing fun playing keeps draw curtain honey turn lights low find country music radio mine hey yea two kind working full house lordy mama two kind working full house well took little time guess finally learned promises get broken bridges get burned sifting ashes trying find flame holding nothing victim game standing way close see fall apart things could hear listening heart say warn one else blame one quite blind victim game matter treats everyone need heart victim game know really getting take telling lies try fool friends look eye standing tall shadow shame everybody knows victim game matter treats everyone need heart victim game know look eyes really feel pain staring mirror victim game blame roots showed boots ruined black tie affair last one know last one show last one thought would see saw surprise fear eyes took glass champagne toasted said honey may never hear complain got friends low places whiskey drowns beer chases blues away okay big social graces think slip oasis got friends low places well guess wrong belong everything right say goodnight show door hey mean cause big scene give hour well high ivory tower living got friends low places whiskey drowns beer chases blues away okay big social graces think slip oasis got friends low places got friends low places whiskey drowns beer chases blues away okay big social graces think slip oasis got friends low places got friends low places whiskey drowns beer chases blues away okay big social graces think slip oasis got friends low places got friends low places whiskey drowns beer chases blues away okay phone booth cheyenne made promise diane rodeos would gone last around promise made san antone santa tonight saddled let wild horses keep dragging away lose gonna win someday wild horses stay wild heart break wild horses keep dragging away watch drive around block getting courage stop make one promise keep way love rodeo guess let hurt loves wild horses keep dragging away lose gonna win someday wild horses stay wild heart break wild horses keep dragging away night hometown football game wife ran old high school flame introduced past came back could help think way things used one would wanted times night would spend praying god would make mine would grant wish wished back would never ask anything sometimes thank god unanswered prayers remember talking man upstairs answer mean care god greatest gifts unanswered prayers quite angel remembered dreams could tell time changed eyes seemed tried talk old days much could recall guess lord knows walked away looked wife thanked good lord gifts life sometimes thank god unanswered prayers remember talking man upstairs may answer mean care god greatest gifts unanswered god greatest gifts often unanswered god greatest gifts unanswered prayers dance holds pulls close loves dreams another counts days lets old story everybody knows one heart holding one letting ride lord tells two settle hears highway voice town harder holds slips away old story everybody knows one heart holding one letting guardian star lost glow day lost lost glitter day said grey skies turned blue like doubtful love true decide call ask blue blue say love prove going sly proving love untrue call blue blue say sorry turn around headed lights town hurting call blue sleep alone night wait phone night call hurt pride call mister tell paint town bright red turn upside painting painting blue sleep alone night wait phone night call hurt pride call mister tell paint town bright red turn upside painting painting blue call blue call mister january always bitter lord one beats wind quit weeks drifts ten feet tall night driving heifers closer lower ground spent morning thinking ones wolves pulled charlie barton family stopped today say goodbye said bank taking last years dry promised would visit found place town spent long time thinking ones wolves pull lord please shine light hope fall behind stumble snow could help still time well mean complaining lord always seen know got reasons every thing tonight outside window lonesome mournful sound keep thinking ones wolves pull lord keep one wolves pull big estate wrought iron gates palm trees standing tall fancy mirrors chandeliers comfort wall wall ocean air crisp clear rave view mountain breeze hickory trees tennessee bedroom suite comes fingers touch face close eyes fantasize another time place feels warm real know love true tries hard please still think sometimes sees tennessee good enough man enough something easy going love tennessee made mind learn lines try play part part tennessee deep heart miss smoky mountain home miss loving deep inside always gonna tennessee</t>
-  </si>
-  <si>
-    <t>well tell way use walk woman man time talk music loud women warm kicked around since born right may look way try understand new york times effect man whether brother whether mother staying alive staying alive feel city breaking everybody shaking staying alive staying alive staying alive staying alive staying alive well get low get high get either really try got wings heaven shoes dancing man lose know right live see another day try understand new york times effect man whether brother whether mother staying alive staying alive feel city breaking everybody shaking staying alive staying alive staying alive staying alive staying alive life going nowhere somebody help somebody help yeah life going nowhere somebody help yeah staying alive well tell way use walk woman man time talk music loud women warm kicked around since born right may look way try understand new york times effect man whether brother whether mother staying alive staying alive feel city breaking everybody shaking staying alive staying alive staying alive staying alive staying alive life going nowhere somebody help somebody help yeah life going nowhere somebody help yeah staying alive life going nowhere somebody help somebody help yeah life going nowhere somebody help yeah staying alive life going nowhere somebody help somebody help yeah life going nowhere somebody help yeah staying alive life going nowhere somebody help somebody help yeah life going nowhere somebody help yeah staying alive know eyes morning sun feel touch pouring rain moment wander far want feel arms come summer breeze keep warm love softly leave need show deep love deep love deep love really mean learn living world fools breaking let belong believe know door soul light deepest darkest hour saviour fall may think care know inside really need show deep love deep love deep love really mean learn living world fools breaking let belong come summer breeze keep warm love softly leave need show deep love deep love deep love really mean learn living world fools breaking let belong listen ground movement around something going feel waves air dancing something share steal sweet city woman moves light controlling mind soul reach yeah feeling right get night fever night fever know gimme night fever night fever know show praying moment last living music fine borne wind making mine night fever night fever know gimme night fever night fever know show heat love need help make gimme enough take morning got fire mind get higher walking glowing dark give warning sweet city woman moves light controlling mind soul reach yeah feeling right get night fever night fever know gimme night fever night fever know show praying moment last living music fine borne wind making mine night fever night fever know feels like forever baby know gimme night fever night fever know show leave never baby know night fever night fever know feels like forever baby know gimme night fever night fever know show leave never baby know night fever night fever know feels like forever baby know girl known well seen growing everyday never really looked take breath away suddenly life part everything got working day night trying keep hold arms found paradise chance happiness lose think would die say always baby make shine take forever minute time woman woman woman woman woman stories old true people love like see let history repeat reflecting feel thinking people know thousand years would fall love way fly way lose love know would die say always baby make shine take forever minute time woman woman woman woman woman know surviving every lonely day got chance life would end matter cry tears love waste time turn away strong enough see crazy want nobody baby want nobody baby let matter try gave easily love dreams never come true strong enough see crazy want nobody baby want nobody baby jive talking telling lies yeah jive talking wear disguise jive talking misunderstood yeah jive talking really good child never know mean child got much gonna take away energy jive talking telling lies yeah good loving still gets eyes nobody believes say jive talking gets way love good treating cruel fancy lies leaving looking like dumbstruck fool jive talking telling lies yeah jive talking wear disguise jive talking misunderstood yeah jive talking good love talking fine yeah jive talking crime somebody love till die jive talking gets eye jive talking telling lies yeah good loving still gets eyes nobody believes say jive talking gets way love talking fine yeah jive talking crime somebody love till die jive talking gets eye jive talking baby moves midnight goes right till dawn woman takes higher woman keeps warm back aah back aah dancing yeah dancing yeah juicy trouble gets good woman gives power goes right blood back aah back aah dancing yeah dancing yeah baby moves midnight goes right till dawn woman takes higher woman keeps warm back aah back aah dancing yeah dancing yeah dancing yeah dancing yeah dancing yeah dancing yeah dancing yeah</t>
-  </si>
-  <si>
-    <t>drop baby let daddy see drop lady dream well mama allow fool around night long well may look like crazy know right wrong see coming throw man outdoor stranger done way see coming mama throw man outdoor stranger way put night shirt morning gown know night gonna shake put night shirt mama morning gown well know night sure gonna shake shake shake ooh custard pie yeah sweet nice cut mama save slice custard pie yeah declare sweet nice like custard pie cut mama mama please save slice chew piece custard pie drop chew piece custard pie london seen seven wonders know trip fall used rock sometimes would roll always knew denying wind shake flat world flying new plague land join hands could join hands could join hands traversed planet heaven sent saw kings rule still firelight purple moonlight hear rested rivers call wind crying love grow cold lover lying dark side globe join hands could join hands could join hands got rocking ought rolling darling tell darling way keep rocking baby keep stolen tell darling way right wonder worry would dearly like know wonder earthly plunder leave anything show time flying see candle burning low new world rising shambles old could join hands could join hands could could could could could join hands takes takes takes takes time dying want nobody mourn want take body home well well well die easy well well well die easy jesus gotta make know jesus gotta make jesus gonna make dying bed meet jesus meet meet middle air wings fail lord please meet another pair well well well die easy well well well die easy jesus gonna make somebody somebody jesus gonna make jesus gonna make dying bed saint peter gates heaven let never harm never wrong gabriel let blow horn let blow horn never harm harm young never thought would anybody wrong somebody good somebody good somebody good must somebody good believe see smiling faces know must left traces see streets see field hear shouting feet know got real lord deliver wrong done deliver lord wanted fun hear angels marching hear marching hear marching hear marching marching jesus know got jesus got jesus got got jesus got got jesus take home come come hear angels singing come come come bye bye bye bye bye bye bye bye feels pretty good pretty good georgina georgina georgina georgina ooh let see come take yes come make dying dying dying cough gonna one come listen yes thank let take movies take show let ever truly make garden grow houses holy watch white doves door comes satan daughter goes show know angel shoulder hand sword gold let wander garden seeds love sow know world spinning faster dizzy stall let music master heed master call satan man said use crying drive mad hurt hear lying world let take take movie take baby show let ever truly make garden grow know right greasy slicked body groovy leather trim like way hold road mama sin talking love trouble free transmission helps oil flow mama let pump gas mama let talking love dig heavy metal underneath hood baby could work night believe got perfect tools talking love model built comfort really built style specialist tradition mama let feast eyes talking love factory air conditioned heat begins rise guaranteed run hours mama perfect size talking love grooving freeway gauge red gun gasoline believe gonna crack head talking love stop talking come service every hundred miles baby let check points fix overdrive talking love fully automatic comes size makes wonder synchronized talking love feather light suspension koni could hold glad took look inside showroom doors talking love stop talking love let sun beat upon face stars fill dream traveler time space sit elders gentle race world seldom seen talk days sit wait revealed talk song tongues lilting grace sounds caress ear word heard could relate story quite clear ooh baby flying yeah mama denying ooh yeah flying mama mama denying denying see turns brown sun burns ground eyes fill sand scan wasted land trying find trying find pilot storm leaves trace like thoughts inside dream heed path led place yellow desert stream shangri beneath summer moon return sure dust floats high june moving kashmir father four winds fill sails across sea years provision open face along straits fear way see see way stay ooh baby ooh baby let take come come let take let take feel sinking low believe wrong light find road find road ever believe could leave standing cold know feels slipped depths soul baby want show clear view every bend road listen whoa whoa really would honey would would share load let share load ooh let share share load feel light find road though winds change may blow around always love pain devour never alone would share load would share load baby let let light everybody needs light light light light light light light light light light light light ooh yeah light light light light seaside see boats sailing people hear little fish saying people turned away people turned away city streets see folk racing racing time left pass time day people turned away people turned away far away far away see run see run see run see run still twist find remember things well want tell twisting every day though sometimes awful hard tell country hear people singing singing progress knowing going people turned away yes people turned away sing loud sunshine pray hard rain show love lady nature come back people turned away people turned away though course may change sometimes rivers always reach sea blind stars fortune several rays wings maybe downy birds prey kind makes feel sometimes grow eagle leaves nest got far changes fill time baby alright midst think used ever really need somebody really need bad ever really want somebody best love ever ever remember baby feel good first time knew would dewy eyes sparkle senses growing keen taste love along way see feathers preen kind makes feel sometimes grow eagles one nest nest soul vixen dreams great surprise never thought would see face way used darling darling darling darling never gonna leave never gonna leave holding ten years gone holding ten years gone ten years gone holding ten years gone never never never received message brother across water sat laughing wrote end sight said goodbye friends packed hopes inside matchbox know time fly come meet morning meet middle night morning light coming make want feel alright jumped train never stops somehow know never finished paying ride someone pushed gun hand tell type man fight fight require come meet morning meet middle night morning light coming make want feel alright mama well think time leaving nothing make stay whoa mama well must time going knocking doors trying take away please brakeman ring bell ring loud clear please fireman ring bell tell people got fly away saw picture lady baby southern lady special smile middle change destination train stops together smile meet morning meet middle night night night everybody know morning time coming make want feel alright yeah make feel alright fly baby get fly yeah fly baby silent woman night came took seed shaking frame old fire another flame wheel rolls silent woman flames come deep behind sun seems nightmares begun left barely holding blazing eyes see trembling hand know time come lose senses lose command feel healing rivers run every time fall think one darkness hear call another day begun silent woman face changed know ways come feel fire needs brand new flame wheels rolls rolls town baby got rock yeah darling got home want tutti frutti lollipop come baby rock rock rock yeah yeah yeah yeah honey shaking night darling got roll right ooh head rock hey babe hey babe want tutti frutti lollipop come baby rock rock rock shall roll jimmy rolling one one airplane heard flying overhead got get airplane naw leave yeah hey hey mama matter tell love love mama let hey hey mama matter make total disgrace leave beer face hey hey mama matter alright awful dog gone clear hey hey baby treat mean crucify like tell kid hey hey mama would treat mean say would always side tell would blushing bride hey hey mama treat mean alright know sisters tell love leave mama let hey hey mama wrong leave like total disgrace leave beer face hey hey mama wrong alright would way crucify like tell kid hey hey mama matter tell would tell baby let hey hey mama wrong alright know sister matter mama window rented limousine saw pretty blue eyes one day soon gonna reach sixteen painted lady city lies know name look know one want must one need yeah clutching pages teenage dream lobby hotel paradise circus queens fast learn downhill side know name look know one want must one need lips like cherries brow queen come flash eyes said dug since thirteen giggle heave sigh know name look know one want must one need hours hours moments baby could count times fun coming pain leaving baby dry silver eyes know name look know one want must one need ooh right</t>
-  </si>
-  <si>
-    <t>born dead man town first kick took hit ground end like dog beat much till spend half life covering born born born born got little hometown jam put rifle hand sent foreign land kill yellow man born born born born born come back home refinery hiring man says son went see man said son understand brother khe sanh fighting viet cong still gone woman loved saigon got picture arms shadow penitentiary gas fires refinery ten years burning road nowhere run got nowhere born born born long gone daddy born born born cool rocking daddy times tough getting tougher old world rough getting rougher cover come baby cover well looking lover come cover promise baby let find hold arms let let love blind cover shut door cover well looking lover come cover outside rain driving snow hear wild wind blowing turn light bolt door going whole world trying score seen enough want see cover come cover looking lover come cover looking lover come cover driving darlington county wayne fourth july driving darlington county looking work county line drove new york city girls pretty want know name driving darlington city got union connection uncle wayne drove miles without seeing cop got rock roll music blasting top singing sha sha sha sha sha sha hey little girl standing corner today lucky day sure right buddy new york city got want rock night girl looking two big spenders world know wayne might one world trade centers kiss smile give mine come baby take seat fender long night tell else gonna could little girl sitting window seen buddy seven days county man tells thing work get paid little girl young pretty walk way leave darlington city ride dixie highway driving darlington county eyes seen glory coming lord driving darlington county seen wayne handcuffed bumper state trooper ford friday night pay night guys fresh work talking weekend scrubbing dirt heading home families looking get hurt going stovell wearing trouble shirts work county day hold red flag watch traffic pass head keep picture pretty little miss someday mister gonna lead better life working highway laying blacktop working highway day long stop working highway blasting bedrock working highway working highway met dance union hall standing brothers back wall sometimes would walking union tracks one day looked straight looked straight back saved money put away went see daddy much say son see little girl know nothing cruel cruel world lit florida got along right one day brothers came got took black white prosecutor kept promise made day judge got mad put straight away wake every morning work bell clang warden swinging charlotte county road gang job girl something going mister world got laid lumber yard love went bad times got hard work carwash ever rain feel like rider downbound train said joe gotta got packed bags left behind bought ticket central line nights sleep hear whistle whining feel kiss misty rain feel like rider downbound train last night heard voice crying crying alone said love never died waiting home put jacket ran woods ran till thought chest would explode clearing beyond highway moonlight wedding house shone rushed yard burst front door head pounding hard stairs climbed room dark bed empty heard long whistle whine dropped knees hung head cried swing sledge hammer railroad gang knocking cross ties working rain feel like rider downbound train hey little girl daddy home leave alone got bad desire fire tell baby good things take higher fire sometimes like someone took knife baby edgy dull cut six inch valley middle skull night wake sheets soaking wet freight train running middle head cool desire fire fire fire well busted class get away fools learned three minute record baby ever learned school tonight hear neighborhood drummer sound feel heart begin pound say tired want close eyes follow dreams well made promise swore would always remember retreat baby surrender like soldiers winter night vow defend retreat baby surrender young faces grow sad old hearts fire grow cold swore blood brothers wind ready grow young hear sister voice calling home across open yards well maybe could cut someplace drums guitars made promise swore would always remember retreat baby surrender blood brothers stormy night vow defend retreat baby surrender street tonight lights grow dim walls room closing war outside still raging say anymore win want sleep beneath peaceful skies lover bed wide open country eyes romantic dreams head made promise swore would always remember retreat baby surrender blood brothers stormy night vow defend retreat baby surrender retreat baby surrender well came house day mother said went away said nothing could done nothing nobody could say known ever since sixteen wished would known wished could called say goodbye bobby jean hung others turned away turned nose liked music liked bands liked clothes told wildest wildest things would ever seen wished would told wished could talked say goodbye bobby jean went walking rain talking pain world hid nobody nowhere nohow gonna ever understand way maybe road somewhere bus train traveling along motel room radio playing hear sing song well know thinking miles calling one last time change mind say miss baby good luck goodbye bobby jean sit car outside house quiet feel heat coming around put arm around give look like way bounds well let one bored sighs well lately look eyes going going going going get dressed baby night come home early burning burning fire fight sick tired setting setting knock knock knock going going going pull close baby kiss feel doubt remember back started kisses used turn inside used drive work morning friday night would drive around used love drive wild lately girl get kicks driving friend big baseball player back high school could throw speedball make look like fool boy saw night roadside bar walking walking went back inside sat drinks kept talking glory days well pass glory days wink young girl eye glory days glory days well girl lives block back school could turn boys heads sometimes friday stop drinks put kids bed husband bobby well split guess two years gone sit around talking old times says feels like crying starts laughing thinking glory days well pass glory days wink young girl eye glory days glory days think going well tonight going drink till get fill hope get old sit around thinking probably yeah sitting back trying recapture little glory well time slips away leaves nothing mister boring stories glory days well pass glory days wink young girl eye glory days glory days well pass glory days wink young girl eye glory days glory days get evening got nothing say come home morning bed feeling way nothing tired man tired bored hey baby could use little help start fire start fire without spark gun hire even dancing dark messages keep getting clearer radio moving around place check look mirror want change clothes hair face man getting nowhere living dump like something happening somewhere baby know start fire start fire without spark gun hire even dancing dark sit around getting older joke somewhere shake world shoulders come baby laugh stay streets town carving alright say gotta stay hungry hey baby starving tonight dying action sick sitting around trying write book need love reaction come baby gimme one look start fire sitting around crying broken heart gun hire even dancing dark start fire worrying little world falling apart gun hire even dancing dark even dancing dark even dancing dark even dancing dark hey baby eight years old running dime hand bus stop pick paper old man would sit lap big old buick steer drove town would tousle hair say son take good look around hometown hometown hometown hometown tension running high high school lot fights black white nothing could two cars light saturday night back seat gun words passed shotgun blast troubled times come hometown hometown hometown hometown main street whitewashed windows vacant stores seems like nobody wants come closing textile mill across railroad tracks foreman says jobs going boys coming back hometown hometown hometown hometown last night kate laid bed talking getting packing bags maybe heading south thirty five got boy last night sat behind wheel said son take good look around hometown</t>
-  </si>
-  <si>
-    <t>deja migo sin ella somos tika gai simba gai yaya cantando paris ella quiso estar junto sorprendi quando dijo yaleo vamos caminando ise tomando vino partiendo pan ella dijo dame dame yaleo yaleo yaleo tika gai simba gai yaya pudieras decirme creo que pasa aqui ella mia amor ahora tengo ninos que dicen yaleo yaleo yaleo tika gai simba gai yaya yaleo tika gai simba gai yaya got called carlos santana want eyes things want see night dream everything love life breath prayers take hand lead need forget taste mouth lips heavens pour forget one alone free everyday every night alone love life alright alright everyday every night alone love life dancing moonlight starlight eyes dancing sunrise gonna dance dance dance hey sinners put lights put lights hey lovers put lights put lights hey killers put lights put lights hey children leave lights better leave lights monster living bed whispering ear angel hand head say got nothing fear darkness living deep soul still got purpose serve let light shine deep home god let lose nerve let lose nerve hey hey hey hey hey hey hey hey hey sinners put lights put lights hey children leave lights better leave lights monster living bed whispering ear angel hand head say got nothing fear says illaha illa allah shine like stars illaha illa allah shine like stars fade away ella baila portugueza estoy llamando todas las morenas llamada viene luz con calma baila esta danza con amor canto esta cancion africa bamba hace lado tristeza otra mas dulce podras encontrar oye eso sentir feliz ella baila portugueza estoy llamando todas las morenas llamada viene luz con calma baila esta danza con amor canto esta cancion africa bamba hace lado tristeza otra mas dulce podras encontrar oye eso sentir feliz ella africa estoy llamando oye puerto rico adonde estas levanta las manos colombia oye donde estas peruanos venezuela quiero china china quiero tambien japon japon japon que rico japon japon baila con santana olviden mexico mexico mexico mexico man hot one like seven inches midday sun well hear whisper words melt everyone stay cool equita spanish harlem mona lisa reason reason step groove yeah said life good enough would give world lift could change life better suit mood smooth like ocean moon emotion get got kind loving smooth yeah gimme heart make real else forget well tell one thing would leave would crying shame every breath every word hear name calling well barrio hear rhythm radio feel turning world soft slow turning around around said life good enough would give world lift could change life better suit mood smooth like ocean moon emotion get got kind loving smooth yeah gimme heart make real else forget like ocean moon emotion get got kind loving smooth yeah gimme heart make real else forget else forget else forget let forget gimme heart make real let forget let forget let forget let forget let forget watch master plan pastures span streets flipped beat move sheep like shepherd new day crew stay forever striving give thanks alive gutter see horizon clear used confused took lot years see moving planets take average mind expand take granted like always gonna disadvantaged soon come soon come soon done start run stumble catch one rhythm santana lick guits precision accidental intentional conscious decision zion marching african mayans conquering babylon heart lion hold watch yesterday come back around walls jericho come tumbling tell long everything everything alright friend see time passing people asking come none lasting money make people deal like even feel real real like way going like way going ooh like way long long wait sit communicate see everything relative want get give build live like way going ladies gents turn sound systems sound carlos santana product get away blues refugee camp maria maria remind west side story growing spanish harlem living life like movie star maria maria fell love east sounds guitar yeah yeah played carlos santana stop looting stop shooting pick pocking corner see rich getting richer poor getting poorer mira maria corner thinking ways make better mailbox eviction letter signed judge said see later ahora vengo mama chola mama chola ahora vengo mama chola east coast ahora vengo mama chola mama chola ahora vengo mama chola west coast maria maria remind west side story growing spanish harlem living life like movie star maria maria fell love east said sounds guitar yeah yeah played carlos santana said favella los colores streets getting hotter water put fire gota esperanza mira maria corner thinking ways make better looked sky hoping days paradise ahora vengo mama chola mama chola ahora vengo mama chola north side ahora vengo mama chola mama chola ahora vengo mama chola south side ahora vengo mama chola mama chola ahora vengo mama chola world wide ahora vengo mama chola mama chola ahora vengo mama chola open eyes maria know lover wind blows feel weather even apart still feels like together maria remind west side story growing spanish harlem living life like movie star maria maria fell love east sounds guitar played carlos santana put carlos santana refugee camp wyclef jerry wonda santana carlos man making guitar cry migra migra pinche migra dejame paz migra migra pinche migra dejame paz malicia veo tus ojos desprecio corazon malicia veo tus ojos desprecio corazon hora reconocer que todos somas una voz abrasa concepto venimos misma voz necesitas mas mas que necesitas mas mas que necesitas mas mas que necesitas mas mas que people people let start together let right people people let love one another know know necesitas mas mas que necesitas mas mas que necesitas mas mas que necesitas mas mas que migra migra pinche migra dejame paz people people let love one another know know vamonos esa mujer est matando espinado coraz por que trato olvidarla alma raz coraz aplastado dolido abandonado ver ver sabes dime amor nto amor dolor nos qued coraz espinado duele duele mam duele amor duele duele coraz cuando uno bien entregado pero olvides mujer que alg dir duele amor coraz espinado duele duele mam duele amor coraz espinado duele amor chale carlitos duele olvido duele coraz duele estar vivo sin tenerte lado amor coraz espinado coraz espinado beauty grace touches good times put fear always feel safe things bad cannot let come near seems thrive dark side things always feel alive death bell rings come bring tears pain never makes cry happiness strange watch life walk wishing wishing like fantasy every day surprises wishing wishing wishing feeling last cannot survive tell moving fast matter time one walks door seems thrive dark side things always feel alive death bell rings come bring tears pain never makes cry happiness strange watch life walk wishing wishing like fantasy every day surprises wishing wishing wishing give thought sure know way must emotions rise emotions flow bring tears pain never makes cry happiness strange watch life walk wishing wishing like fantasy every day surprises wishing wishing wishing lluvia sol como una bendicion vida renace con luz primavera llego todo asi regreso raiz tiempo inquieta juventud primavera tierra negra vuelve verde las montanas desierto bello jardin como semilla lleva nueva vida hay esta primavera una nueva era aire este nuevo universo hoy respira libertad primavera tierra negra vuelve verde las montanas desierto bello jardin como semilla lleva nueva vida hay esta primavera una nueva era tierra negra vuelve verde las montanas desierto bello jardin como semilla lleva nueva vida hay esta primavera una nueva era people people people people people people people people calling calling people people people people people people people people calling calling one love one love lord got nobody one love people people people people people people people people calling calling people people people people people people people people calling calling one love one love lord got nobody one love one love one love one love lord got nobody one love one love one love one love lord got nobody one love freedom freedom freedom get stand let celebrate freedom freedom talking freedom time redemption freedom freedom want freedom everybody time liberation freedom freedom want freedom children day celebration let celebrate said let celebrate gonna celebrate celebrate</t>
-  </si>
-  <si>
-    <t>fire starting heart reaching fever pitch bringing dark finally see crystal clear head sell lay ship bare head sell lay shit bare see leave every piece underestimate things fire starting heart reaching fever pitch bringing dark scars love remind keep thinking almost scars love leave breathless help feeling could gonna wish never met rolling deep tears gonna fall rolling deep heart inside hand gonna wish never met played beat tears gonna fall rolling deep baby story told heard one gonna make head burn think depths despair make home mine sure shared gonna wish never met scars love remind tears gonna fall rolling deep keep thinking almost gonna wish never met scars love leave breathless tears gonna fall rolling deep help feeling could gonna wish never met rolling deep tears gonna fall rolling deep heart inside hand gonna wish never met played beat tears gonna fall rolling deep could rolling deep heart inside hand played beating throw soul every open door woah count blessings find look woah turn sorrow treasured gold woah pay back kind reap sow woah gonna wish never met could tears gonna fall rolling deep could gonna wish never met tears gonna fall rolling deep could gonna wish never met rolling deep tears gonna fall rolling deep heart inside hand gonna wish never met played beat tears gonna fall rolling deep could gonna wish never met rolling deep tears gonna fall rolling deep heart inside hand gonna wish never met played played played played beat ooh ooh ooh ooh real gonna able love like stranger history remember sure got baby really want bless soul got head clouds made fool boy bringing made heart melt cold core rumour got love anymore rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour half age guessing reason stayed heard missing telling people things like creep around heard rumours bless soul bless soul got head clouds made fool boy bringing made heart melt yet cold core rumour one leaving rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour words whispered ear tell story cannot bear hear said mean meant people say crazy things said mean meant heard rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour one leaving close enough start war floor god knows fighting say always say keep turning tables thumb breathe let close enough hurt rescue desert give heart think gave time say goodbye turning tables turning tables haunted skies see ooh love lost ghost found braved hundred storms leave hard try never knocked whoa keep turning tables thumb breathe let close enough hurt rescue desert give heart think gave time say goodbye turning tables turning tables next time braver savior thunder calls next time braver savior standing two feet let close enough hurt rescue desert give heart think gave time say goodbye turning tables turning tables turning tables yeah turning see left goodbye single word said final kiss seal sins idea state know fickle heart bitterness wandering eye heaviness head remember remember reason loved baby please remember last time thought completely erased memory often think went wrong less know know fickle heart bitterness wandering eye heaviness head remember remember reason loved baby please remember gave space could breathe kept distance would free hoped would find missing piece bring back remember remember reason loved baby please remember see let fall heart fell rose claim dark kissed lips saved hands strong knees far weak stand arms without falling feet side never knew never knew things would say never true never true games would play would always win always win set fire rain watched pour touched face well burned cried heard screaming name name lay could stay close eyes feel forever together nothing better side never knew never knew things would say never true never true games would play would always win always win set fire rain watched pour touched face well burned cried heard screaming name name set fire rain threw flames fell something died knew last time last time sometimes wake door heart caught must waiting even already help looking set fire rain watched pour touched face well burned cried heard screaming name name set fire rain threw flames fell something died knew last time last time let burn let burn let burn say better without know like least sides thought knew bear time drags lose mind reminded things find like notes clothes left behind wake wake done rise battle dignity become undone love willing take risk love willing take risk petrified scared step ride lose heart fail climb forgive give trying heard voice today know single word said one resemblance man met vague broken boy instead love willing take risk love willing take risk times try give bursting seams doubt almost fall apart burn pieces watch turn dust nothing ever taint love willing take risk love willing take risk still remember still love even free back place would choose poison spoke yesterday said hold breath sit wait home soon late love willing take risk love willing take risk love willing take risk love willing take risk give tried best gave everything everything less right let maybe got used well around still walk away tears gonna empty road without right take take take look back look back crumbling fool take love take love maybe leave help see nothing better everything need really given easily thought loved take take take look back look back crumbling fool take love take love change must slow bring home adjust knew everything take take take look back look back crumbling fool take take take look back look back crumbling fool take love take love take love hold closer one time say love last goodbye please forgive sins yes swam dirty waters pushed seen face every sky every border every line know heart greatest time miles heavens cried know left speechless sky cleared blue see future waiting ready love put hands everything different better waiting ready love put hands somebody different better let stay one night build world around pull light tell wrong child willing learn time miles heavens cried know left speechless sky cleared blue see future waiting ready love put hands everything different better waiting ready love put hands somebody different better time time miles miles heavens cried know left speechless time time miles miles heavens cried know left speechless know left speechless waiting waiting ready love put hands everything different better waiting ready love put hands somebody different better mind grow fonder every day lose time thinking face god knows taken long let doubts one want know scared every feeling every word imagined never know never try forgive past simply mine dare let one promise worthy hold arms come give chance prove one walk mile end starts mind hang every word say lose time mention name ever know feels hold close tell whichever road choose know scared every feeling every word imagined never know never try forgive past simply mine dare let one promise worthy hold arms come give chance prove one walk mile end starts know easy giving heart know easy giving heart nobody perfect trust learned know easy giving heart nobody perfect trust learned know easy giving heart nobody perfect trust learned know easy giving heart nobody perfect trust learned know easy giving heart dare let one promise worthy hold arms come give chance prove one walk mile end starts come give chance prove one walk mile end starts whenever alone make feel like home whenever alone make feel like whole whenever alone make feel like young whenever alone make feel like fun however far away always love however long stay always love whatever words say always love always love whenever alone make feel like free whenever alone make feel like clean however far away always love however long stay always love whatever words say always love always love however far away always love however long stay always love whatever words say always love always love always love love love love love heard settled found girl married heard dreams came true guess gave things give old friend shy like hold back hide light hate turn blue uninvited could stay away could fight hoped would see face would reminded never mind find someone like wish nothing best forget beg remember said sometimes lasts love sometimes hurts instead sometimes lasts love sometimes hurts instead know time flies yesterday time lives born raised summer haze bound surprise glory days hate turn blue uninvited could stay away could fight would hoped would see face would reminded never mind find someone like wish nothing best forget beg remember said sometimes lasts love sometimes hurts instead nothing compares worries cares regrets mistakes memories made would known bittersweet would taste never mind find someone like wish nothing best forget beg remember said sometimes lasts love sometimes hurts instead never mind find someone like wish nothing best forget beg remember said sometimes lasts love sometimes hurts instead sometimes lasts love sometimes hurts instead thought told would home soon could help good true fall short time every time charm creep closer closer near like fool fire fall pride like bomb explosion ticking call wiser one disguised greed child belongs knees found boy love ever stand beside river cried lay look want need thought would crumble knees first sight crawling back whisper leave man swear time stand stand found boy love ever stand beside river cried lay look want need taking must mistaken could never look eyes settle wrong ignore right found boy loves ever stand beside river cried lay look want need never woulda hitch hiked birmingham love never woulda caught train louisiana love never woulda run blinding rain without one dollar name love never woulda seen trouble love woulda gone like wayward wind love nobody knows better would wishing free love four cold walls least know lying still four cold walls without parole lord mercy soul never woulda gone side town love never woulda took mind track love never woulda loaded forty four put behind jail house door love four cold walls least know lying still four cold walls without parole lord mercy soul never woulda hitch hiked birmingham love never woulda caught train louisiana love never woulda loaded forty four put behind jail house door love love love story went met someone accident blew away blew away darkest days took sorrow took pain buried away buried away wish could lay beside day done wake face morning sun like everything ever known disappear one day spend whole life hiding heart away dropped train station put kiss top head watched wave watched wave went home skyscrapers neon lights waiting papers call home call home wish could lay beside day done wake face morning sun like everything ever known disappear one day spend whole life hiding heart away away yeah woke feeling heavy hearted going back started morning rain morning rain though wish old road brought calling home calling home wish could lay beside day done wake face morning sun like everything ever known disappear one day spend whole life hiding heart away spend whole life hiding heart away picture perfect memories scattered around floor reaching phone cause fight anymore wonder ever cross mind happens time quarter one alone need said would call lost control need know without need another shot whiskey stop looking door wishing would come sweeping way wonder ever cross mind happens time quarter one little drunk need said would call lost control need know without need yes would rather hurt feel nothing quarter one alone need said would call little drunk need know without need need baby need</t>
-  </si>
-  <si>
-    <t>baby baby baby baby baby baby supposed know something right baby baby let sight yeah show want tell baby need know loneliness killing must confess still believe still believe lose mind give sign hit baby one time baby baby reason breathe boy got blinded pretty baby nothing would way planned show want tell baby need know loneliness killing must confess still believe still believe lose mind give sign hit baby one time baby baby baby baby yeah yeah baby baby supposed know pretty baby let must confess loneliness killing know still believe give sign hit baby one time loneliness killing must confess still believe still believe lose mind give sign hit baby one time must confess loneliness killing know still believe give sign hit baby one time baby got something baby spin around earth moving feel ground every time look heart jumping easy see loving means much anything ever felt drive crazy sleep excited deep crazy feels alright baby thinking keeps night tell one see tell blue wasting feelings loving means much anything ever felt crazy sleep excited deep crazy feels alright every day every night drive crazy drive crazy baby excited deep crazy make feel alright baby thinking keeps night drive crazy drive crazy baby crazy make feel alright feels alright baby thinking keeps night baby thinking keeps night tell love like take pretty eyes away want stay every time come close move away want believe everything say sounds good really want move slow things know sometimes run sometimes hide sometimes scared really want hold tight treat right day night baby need time want shy every time alone wonder hope wait see one want believe everything say sounds good really want move slow things know sometimes run sometimes sometimes hide sometimes scared really want hold tight treat right day night really want hold tight treat right day night baby need time hang around see nowhere would rather love trust way trust sometimes run sometimes sometimes hide sometimes scared really want hold tight hold tight treat right day night day night sometimes run sometimes sometimes hide sometimes scared really want hold tight treat right day night day night really want hold tight day night sometimes run sometimes sometimes hide sometimes scared really want hold tight ooh ooh like great boy women insoles thinkin great exphidition popped chose come throwing throwing scene though come come follow britney yeah hmm soda pop watch fizz pop clock ticking stop stop hmm soda pop bop shu bop clock tickin stop might start riding music tonight clever way get pops keep flowing like fire ice give little blind ooh hmm soda pop watch fizz pop hmm clock tickin stop hmm soda bop bop shu bop shu bop clock tickinand stop ooh ooh plan definite plan level vibes vibes level vibes agian ooh yeah see superlative self yeah wicked time end yaeh hmm soda pop watch fizz pop ooh clock tickin stop stop hmm soda pop bop shu bop shu bop clock tickin stop much pop losing sittin watchin clock turn tables baby let top take top one else waiting cha got take pop shot never stop shu bop shu bop yeah hmm clock tickin stop hmm soda pop bop shu bop shu bop clockis tickin stop stop like never lovin til drop drop drop yeah flex tonight break door yeah party ever stop hmm soda pop watch fizz pop yeah clock tickinand stop stop hmm soda pop bop shu bop shu bop hmm soda pop watch fizz pop clock tickin stop stop bet pop like never popped keep commin back fdor sure sure cool britney wee get floor yeah break dawn hmm soda pop watch fizz pop clock tickin stop stop hmm soda pop bop shu bop shu bop ooh yeah clock tickinand stop gotta hmm soda pop watch fizz pop yeah clock tickin stop bend mmm love yeah yeah yeah sitting alone room thinking times love looking picture hand trying best understand really want know wrong love felt strong tonight know could make right know live without love born make happy one heart born make happy always forever way life know live without love born make happy know fool since gone would better give carry love living dream way life want cry tear forgive ooh tonight know could make right know live without love born make happy one heart born make happy always forever way life know live without love born make happy yeah yeah would anything would give world would wait forever girl call name call name ooh show much care alright ooh born make happy yeah ooh yeah know live without love born make happy one heart born make happy always forever way life know live without love born make happy born make happy yeah yeah always forever way life know live without love born make happy never look back said know would miss loneliness ahead emptiness behind hear joy tears hopes fears know still miss somehow bottom broken heart thing two would like know first love true love first kisses last rose bottom broken heart even though time may find somebody new real love never knew love bottom broken heart baby said please stay give love chance one day could worked things taking time love put dart dreams heart back started never thought would end promised somebody else made perfectly clear still wish never look back said know would miss yeah say mind know give leave behind let begin come let show things make alright let make clear put trust yes need someone turn around feeling low baby let know let make know nothin would love come let show things make alright let make clear put trust yes take stand forever give one chance show much care need someone turn around sorrow let know time may take apart still love promise stars stars falling keep calling promise one everything never untrue promise back love anything give stars buy moon even longest nights even darkest days love find away stars falling keep calling still love dreams fading waiting still love summer breeze winter sun springtime soul autumn touch gold sky rain way love flows cuz smile heart breathe soul even find apart hold hopes dreams forever hearts tell feel finally know feel tell real heart tells real real real time take apart true always heart dreams matter many miles promise forget day kissed day met sky may fall stars still still love friends say away every day say break away missing fun games smile words tell quickly disappear speak voice hear spend days ooh ooh spend days spend nights nights thinking thinking babe spend days day night spend nights nights thinking stay mind think time time day night feels right end sight ooh day spend around passes fast night spend without longer last spend days spend days thinking babe spend nights nights thinking day night spend days days thinking spend nights nights thinking thinking babe ooh know get enough get enough yeah know hours ever ever yeah yeah spend days spend nights thinking spend days baby spend nights day night thinking day night spend days thinking thinking spend nights spend days yeah thinking spend days thinking spend nights thinking baby thinking spend days day night day night hours seems like days since went away check screen see answer phone guess want left alone sending heart soul say sorry sorry give one chance make mail heart say love never die know know still care email back say love stay alive forever email heart whoa see mind coming line opening letter sent hundred times picture two look good please forgive hurt put sorry sorry give one chance make mail heart say love never die know know still care know still care email back say love stay alive forever say say forever forever email heart drums keep pounding rhythm brain dee dee dee dee dee wait till reached age blah blah history turned page blah blah still want hear brand new thing huh still need song sing huh beat goes beat goes beat goes beat goes beat goes beat goes drums keep pounding rhythm brain dee dee dee dee dee love first last thing minds tomorrow end time beat goes beat goes beat goes beat goes beat goes beat goes beat goes drums keep pounding rhythm brain dee dee dee dee dee still move rhythm like still dream sharing first kiss beat goes beat goes beat goes beat goes drums keep pounding rhythm brain dee dee dee dee dee world keeps turning faster everyday everyday still want dance night away beat goes beat goes beat goes beat goes yeah say world nothing lasts forever believe true cause way feel together know way always feel forever thats long true make vow promise forever never stop loving come day world stops turning stars fall sky feeling last suns start burning want love end time gonna take lifetime give love love feels tonight forever never stop loving never promised happy ending never said would make cry summer love keep warm long autumn goodbye autumn goodbye autumn goodbye thinking love lives sweet summertime sad true true true must leave behind hearts minds april september bittersweet love share forget remember memories fade heart place smile face maybe someday friends love find red leaves blue tomorrows time give back love shared time borrowed april september bittersweet love share forget remember baby leave behind summertime hearts minds remind forget day met day cried autumn goodbye never promised happy ending never said would make cry summer love keep warm long autumn goodbye autumn goodbye autumn goodbye walking time looking answer way done help wonder everything could change turned world around since came along love found seems like wrong deep heart know right start always knew never let love ohhoohh want rest life people search seems lifetime find love like everything wished never felt bliss comes chance everyones life beleive happen twice since felt glory love want spend forever ever deep heart deep heart want rest life want rest life</t>
-  </si>
-  <si>
-    <t>folks call maverick guess diplomatic never kind along avoiding confrontation sake conformation admit tend sing different song sometimes afraid wear different hat columbus complied old world might still flat nothing ventured nothing gained sometimes got grain well accused making rules must rebel blood running veins hypocrite see get way know play game old noah took much ridicule building great ark forty days forty nights looking pretty smart sometimes best brave wind rain strength grain well folks share point view worried gonna sink swiim would like buck system deck stacked little scared limb gonna make difference gonna leave mark follow like bunch sheep got listen heart busting like old john wayne sometimes got grain nothing ventured nothing gained sometimes got grain eyes cold restless wounds almost healed would give half texas change way feels knows love tulsa knows gonna well woman flesh blood damned old rodeo well bulls blood dust mud roar sunday crowd white knuckles gold buckle win next around boots chaps cowboy hats spurs latigo ropes reins joy pain call thing rodeo best hold love comes call need controls back wall long girl see time know woman wants cowboy like wants rodeo well bulls blood dust mud roar sunday crowd white knuckles gold buckle win next around boots chaps cowboy hats spurs latigo ropes reins joy pain call thing rodeo drive cowboy crazy drive man insane sell everything owns pay play game broken home broken bones show years spent chasing dream call rodeo well bulls blood dust mud roar sunday crowd white knuckles gold buckle win next around boots chaps cowboy hats spurs latigo ropes reins joy pain call thing rodeo broncs blood steers mud call thing rodeo last time saw turning colder years ago last heard moved boulder know something time year spins head around takes back makes wonder tearing apart filling mind emptying heart hear call time cold wind blows wonder knows laughs dialed old number one knew name hung phone sat wondered would ever done took walk evening wind clear head somehow tonight lie thinking tearing apart filling mind emptying heart hear call time cold wind blows wonder knows tearing apart filling mind emptying heart hear call time cold wind blows wonder knows yesterday thanked oiling front door morning wakes thankful anymore never know much cared could stay never know reason always run away burning bridges one one undone always hoping someday gonna stop running around every time chance comes another bridge goes last night talked old times families home towns whe wondered would agree would settle told would cross bridge whenever arrived flames see standing side burning bridges one one undone always hoping someday gonna stop running around every time chance comes another bridge goes like ashes water drift away sorrow knowing day lesson finally learned standing river staring across tomorrow bridge need get bridge burned burning bridges one one undone always hoping someday gonna stop running around every time chance comes another bridge goes another bridge goes papa drove truck nearly life know drove mama crazy trucker wife part could handle alone guess needed hold telephone papa called mama every night ask kids alright mama would wait call come daddy would hang gone mama looker lord shined papa good jealous kind papa loved mama mama loved men mama graveyard papa pen well bound happen one night papa came home kids dozen roses bottle wine looking surprise fine heard cry mama hall heard bottle break bedroom wall old diesel engine made eerie sound papa fired headed town well picture paper showed scene real well papa rig buried local motel desk clerk said saw real clear never hit brakes shifting gears mama looker lord shined papa good jealous kind papa loved mama mama loved men mama graveyard papa pen well shamemeless comes loving anything want anything standing world see baby left far fall know man ever insecure world living break easy pride need satisfied shameless honey prayer every time see standing upon knees changing swore would never compromise convinced otherwise anything please see life never found could resist could turn could walk away anyone ever knew walk away never let anything much control work hard call life made world worked perfectly world refuse never much lose shameless know easy man strong say sorry admit wrong never lost anything ever missed never love like hands shameless power want anyhow got let shameless shameless man make total fool wanted know shameless wanted know shameless knees shameless fire burning bright house tonight slow music playing soft candlelight lips keep tasting warm red wine arms mind snow piled high highway tonight ship lost sea ocean white eighteen wheels anchored somewhere dover wish could hold instead hugging old cold shoulder old highway like woman sometimes best friend real jealous kind lady leads life dream mistress keeps ones love snow piled high highway tonight ship lost sea ocean white eighteen wheels anchored somewhere dover wish could hold instead hugging old cold shoulder god wish could hold instead hugging old cold shoulder hey neighbors lights came last night like every time little fight getting point get along always fighting things dead gone bury hatchet leave handle sticking always digging things forget comes forgetting baby doubt bury hatchet leave handle sticking well kissing cindy hey deny long time ago let dead dog lie want cut deep joe caught creek ten years ago bury hatchet leave handle sticking always digging things forget comes forgetting baby doubt bury hatchet leave handle sticking hey got enough wage full scale war could ever remember fighting bury hatchet leave handle sticking always digging things forget comes forgetting baby doubt bury hatchet leave handle sticking bury hatchet leave handle sticking girl wagon train headed west across plains train got lost summer storm could move west could home saw riding rain took charge wagons saved train looked heart gone train went west stayed lonesome dove farmer daughter gentle hand blooming rose bed sand loved man wore star texas ranger known near far got married child times tough west wild surprise day learned texas man would return lonesome dove back back rio grande christian woman devil land learned language learned fight never learned beat lonely nights lonesome dove lonesome dove watched boy grow man angel heart devil hand wore star see texas lawman legacy one day word blew town seemed men shot father robbed bank jerico thing mexico lonesome dove shadows stretched across land shots rang rio grande smoke finally cleared street men lay ranger feet legend tells day shots coming alleyway though one knows held gun doubt ask someone lonesome dove back back rio grande christian woman devil land learned language learned fight never learned beat lonely nights lonesome dove lonesome dove know dream like river ever changing flows dreamer vessel must follow goes trying learn behind never knowing store makes day constant battle stay shores sail vessel river runs dry like bird upon wind waters sky never reach destination never try sail vessel river runs dry many times stand aside let waters slip away put tomorrow become today sit upon shoreline say satisfied choose chance rapids dare dance tide yes sail vessel river runs dry like bird upon wind waters sky never reach destination never try sail vessel river runs dry bound rough waters know take falls good lord captain make yes sail vessel river runs dry like bird upon wind waters sky never reach destination never try sail vessel river runs dry yes sail vessel river runs dry river runs dry girl bar bought beer would like know new around gal danced says alone friends left needs ride home others gave eye knew wasting time one lover give heart want broke two tell one tonight one hold arms tight forgotten wrong given right tell one tonight smile pretend never know holding close want girl need close eyes honey see tell one tonight one hold arms tight forgotten wrong given right tell one tonight</t>
-  </si>
-  <si>
-    <t>dearly beloved gathered today get thing called life electric word life means forever mighty long time tell something else afterworld world never ending happiness always see sun day night call shrink beverly hills know one everything alright instead asking much time left ask much mind baby life things much harder afterworld life elevator tries bring crazy punch higher floor like world living take look around least got friends see called old lady friendly word picked phone dropped floor heard gonna let elevator bring let let crazy let get nuts let look purple banana put truck let excited know maybe cause gonna die better live grim reaper come knocking door tell gonna let elevator bring let let crazy let get nuts look purple banana put truck let come baby let get nuts yeah gonna let elevator bring let crazy said let crazy crazy let let let everything alright make everything wrong pills thrills dafodills kill hang tough children coming coming coming take away disguise pounding heart beats strong eyes say turn care care care pretty baby take come touch place calling name want much must play game care care care pretty baby take care spend night mansion care spend night town want spend night together want spend night arms around right sheer perfection thank drive crazy drive night break connection care care care pretty baby take care care care pretty baby take take take honey take baby baby baby gonna baby baby baby make waste time make lose mind baby baby baby baby stay tonight baby baby baby kisses please right hard find beautiful ones hurt everytime paint perfect picture bring life vision one mind beautiful ones always smash picture always everytime told baby love baby baby baby got married would cool make confused beautiful ones always seem lose baby baby baby baby baby baby baby gonna baby want want cause want said want tell babe want gotta know gotta know want baby baby baby listen may know going babe said may know need one thing one thing certain baby know want yeah please baby please baby begging knees want yes baby baby baby baby want yes wendy yes lisa water warm enough yes lisa shall begin yes lisa love life must something wrong machinery love life tell tell gone somebody please please tell hell wrong find righteous computer blue find righteous computer blue knew girl named nikki guess could say sex fiend met hotel lobby masturbating magazine said would like waste time could resist saw little nikki grind took castle could believe eyes many devices everything money could buy said sign name dotted line lights went nikki started grind nikki castle started spinning maybe brain tell body never loving kick behind show mercy sho nuff sho nuff show grind darling nikki woke next morning nikki looked found phone number stairs said thank funky time call whenever want grind nikki ohhhh come back nikki come back dirty little prince want grind grind grind grind grind grind grind grind grind hello fine know lord coming soon coming coming soon dig picture engaged kiss sweat body covers darling picture dream courtyard ocean violets bloom animals strike curious poses feel heat heat leave standing alone world cold cold maybe demanding maybe like father bold maybe like mother never satisfied never satisfied scream sounds like doves cry touch stomach feel trembles inside got butterflies tied make chase even doves pride leave standing alone world cold world cold maybe demanding maybe like father bold maybe like mother never satisfied never satisfied scream sounds like doves cry leave standing alone world cold world cold maybe demanding maybe maybe like father maybe like father bold know bold maybe like mother maybe like mother never satisfied never never satisfied scream scream sounds like doves cry doves cry doves cry doves cry doves cry doves cry doves cry cry cry doves cry doves cry doves cry doves cry doves cry doves cry doves cry cry darling cry cry cry cry woman man something never understand never beat never lie evil forgive would die yeah darling want would die lover friend something never comprehend need worry need cry messiah reason would die yeah darling want would die sinner told fire cold make happy sad make good bad human dove conscious love really need know believe yeah would die yeah darling want would die yeah say one time would die darling want would die would die would die would die would die hey look tell like see hey got money honey rich personality hey check baby know night see point view even scream shout baby star might know baby star want stop reach top sing star hey take listen tell like hear turn say word gone honey know nothing wrong ears hey check better look might late might late lucks gonna change tonight gotta better life take picture sweetie got time waste baby star might know baby star want stop reach top sing star everybody say nothing come easy got baby nothing come hard see see gotta scream shout gotta scream shout baby baby baby baby baby baby baby yeah yeah yeah yeah yeah yeah star might know baby star want stop reach top sing star baby baby baby baby star baby baby baby somebody star baby star star star doctor baby baby baby baby baby baby baby baby star like fuck know taste mouth really fuck know come baby let crazy never meant cause sorrow never meant cause pain wanted one time see laughing want see laughing purple rain purple rain purple rain purple rain purple rain purple rain purple rain want see bathing purple rain never wanted weekend lover wanted kind friend baby could never steal another shame friendship end purple rain purple rain purple rain purple rain purple rain purple rain want see underneath purple rain honey know know know times changing time reach something new means say want leader seem make mind think better close let guide purple rain purple rain purple rain purple rain purple rain know singing come raise hand purple rain purple rain want see want see purple rain good morning children take look window world falling almost time dance dance dance electric rhythm love love blind love enemies much time much time look world falling rhythmless house blinded prophecy hear master calling wanted got dance dance electric listen rhythm soul come dance dance electric better love almost time make happy give another someone smile dance dance electric never mind hatred try brand new style dance dance electric listen rhythm soul come dance dance electric better love almost time love enemies look living babylon making feeling love youth gone comes dawn light truth shine fall got dance dance electric listen rhythm soul come dance dance electric better love almost time see light inside darkened live life bad whatever let light dark love light ever dance dance electric listen rhythm soul come dance dance electric better love almost time almost time dance dance electric listen rhythm soul come dance dance electric better love almost time one two three four yeah come baby hurt die heaven still desire make fire let hurt upper room let say sha sha boom come baby hurt upper room sha sha boom love sex upper room alright hit huh two cry want still resist come kiss supposed sleep without arms keep singing sha sha boom come baby hurt upper room sha sha boom love sex upper room photos get low boom boom sha boom sad sad happy happy one single sexy glance two kind party cool sha boom put sunday best clothes sharp sha boom die heaven let fantasize new cool surprise let try come together keep singing sha sha boom come baby hurt upper room sha sha boom love sex upper room yeah upper room keep singing sha sha boom come baby hurt upper room sha sha boom love sex upper room upper room feel alright yeah feel alright yeah feel alright let hear say let let hear say yeah yeah yeah let hear say yeah yeah whoo yeah alright yeah let hear say yeah ooh lord huh sha sha boom whoo come baby hurt upper room sha sha sha boom yeah love sex upper room yeah keep singing sha sha boom come baby come baby hurt upper room hurt baby yeah sha sha boom alright love sex upper room yeah right wendy yes lisa water warm enough yes lisa shall begin yes lisa love life must something wrong machinery love life tell gone somebody please please tell hell wrong till find righteous one computer blue till find righteous one computer blue baby somebody please please tell wrong baby tell gone somebody please please tell hell wrong ooh till find righteous one computer blue till find righteous one computer blue computer verge breakdown come baby make poor lonely computer time someone programmed time learned love lust four letters entirely different words poor lonely computer poor poor lonely computer really know love wave hands air everybody sing everybody work work work everybody work work work everybody work like living home alone house lived many hallways long walk bedroom hallway represented emotion every one vastly different next one day decided name one side one hand thigh wait sort half step behind yeah grip thigh intensified walked slowly corridor named hallway lust passed thru next one named fear grip loosened walked faster hands trembling let drop side wrote word insecurity looked eyes smiled demon smile quickly walked next corridor corridor named almost suddenly stopped picked word hate gone picked last one pain verge breakdown life without love hell computer blue father father sun gone father father dawn dawn father father dawn dawn father shall church sundays shall stay home pray shall try make happy shall try make stay narrow minded computer somebody please please tell time someone programmed somebody please please tell wrong time learned women butterflies computers like computer blue baby chauvinistic computer time someone programmed fall love fast hate soon take granted feeling mutual feeling mutual computers like computer blue feel kind love even know name kind love takes two want ashamed baby shock wild sexual electricity extraordinaire come take advantage undress even know even care feel kind sexual current tell feel bodies want together girl want electric body baby shock lips darling know technicolor climax fingertips electric intercourse electric intercourse want electric intercourse electric intercourse want make love love love electric body baby shock lips darling know technicolor climax fingertips electric intercourse want electric intercourse electric intercourse want make love want make electric intercourse electric intercourse want electric intercourse electric intercourse want make love yeah yeah moment came town life sings around twenty quarters name five george washingtons one blame look written sky destiny fall love fight stronger destiny fall love fell love knew saw walk talk know say wanted love anyways look written sky destiny fall love fight stronger destiny fall love fell love look saying ket get married nothing ready settle want baby gotta finest specimen ever seen destiny fall love fell love fell love fell love smitten kiss steal babe would never treat like passions tingle let find room want want want want want road leads live see house open door alright alright house used play open nights open days alright alright garden emotions grow twenty four feelings row alright yeah alright talking roadhouse garden roadhouse garden place evil died see door come inside alright alright house life play let color scare away alright alright garden emotions grow give love open soul alright yeah alright talking roadhouse garden yeah roadhouse garden come let groove talking roadhouse garden road road roadhouse garden roadhouse garden garden roadhouse garden yeah mmmm mmm something matter baby going insane something inside keeps talking brain stop satanic lust know hold body says must possessed ooh know ooh possessed yes ooh stone crazy love something matter baby see voice hear begging wish need wish care got make love cuz much much bare possessed yes know ooh possessed stone crazy love possessed know possessed stone crazy ooh something matter baby mind daze tripping love hard lay stop yearning lord knows tried free dispair much young die possessed ooh know gonna possessed ooh stone crazy love possessed ooh yes know gonna possessed yeah stone crazy love ooh yeah ooh yeah ooh yeah ooh yeah possessed stoned head baby said possessed mmm mmm want lay bed possessed yes knowing possessed yes yeah stone crazy love yeah yeah pussy sugar yeah yeah possessed well going insane hey possessed want things baby want things growing inside negro brain yeah yeah yeah yeah leaving choice gonna hit guitar baby yes mmm yes bobby step step mmm step mmm step step head baby yeah possessed possessed baby fucked head want use bed yeah possessed well got lust baby know got lust yeah want hold want hold want hold body says must must yeah baby must mean yeah yeah baby baby baby know pussy puts quite awful fuss yes puts fuss yeah know means gonna get wet pussy get wet mmm mmm something matter baby going insane something inside keeps talking brain stop satanic lust want hold body says must possessd yeah possessed stone love stone love baby stone love baby stone crazy love baby boys like jam possessed understand quirky ways crazy logic leaves daze think neurosis phase got wonderful ass wonderful wonderful wonderful got wonderful ass think friends bedmates true love sex relate sensibilities aggravate got wonderful ass wonderful wonderful wonderful got wonderful ass listen educate tolerate negotiate communicate litigate graduate appreciate separate interrogate violate fluctuate perpetrate masturbate stimulate stimulate stimulate say love good want trust wish could cannot build house plastic wood got wonderful ass wonderful wonderful wonderful got wonderful ass got wonderful wonderful ass guess hate ideas fun yeah baby rate ass number one usually time drink glass always find time ass know talking baby yeah talkin ass sexy yeah revolution heard revolution heard wonderful wonderful got wonderful ass got wonderful ass understand quirky ways girl got wonderful got wonderful got wonderful wonderful ass understand quirky ways yeah understand quirky ways crazy logic leaves daze daze like ass got wonderful ass baby think friends bedmates yeah well sleep around time hey baby true love sex relate yeah true true love got wonderful ass babe sensibilities aggravate understand try fuck love relate yeah got wonderful ass like like said like said like wonderful know like ass really want rock want roll velvet kitty cat man best friend furry cuddly fat take swing bat velvet kitty cat every day night velvet kitty cat wish boyfriend rats mmm nothing underneath hats sad kitty cat mmm want money fancy cars want body eat cookies till gets fat mmm want true love velvet kitty cat ahead play cat want rock want roll velvet kitty cat man best friend furry cuddly fat would let pet gotta skat velvet kitty cat mmm mmm would let pet gotta skat velvet kitty cat want true love velvet kitty cat mmm pet gotta skat velvet kitty cat mmm velvet kitty cat mmm katrina makes paper dolls one doll every day one doll every day old man gone katrina makes paper dolls every time told every time told love strong way tell real baby much harder body hot says love game seems many circles maybe makes world round katrina makes paper dolls look play games katrina makes paper dolls better lonely love make lonely eyes dame ooh way tell real baby much harder body hot says love game seems many circles maybe makes world round katrina makes paper dolls better lonely love make lonely eyes dame paper dolls ooh katrina paper dolls love make horny ooh katrina paper dolls ooh katrina paper dolls katrina paper dolls katrina paper dolls could tell stories get tired could play mind would probably say liar waste time scared though met energy let somewhere fuck could say sorry life would true say things love scared though met want bad baby want come fuck ooh fuck ooh fuck something said many times difference make see room electric okay well maybe know smell desire honey could tell things get excited things never heard know kama sutra could write half many words scared kiss going mad baby take clothes fuck ooh fuck ooh fuck wait minute let turn lights fuck better come blow candle baby turn candle ever one choose alright going night long want undress babe shall undress leave clothes want still want sex two people alright whether love long trying hurt nobody long hot baby want make love two times maybe three yeah want four five baby alright let tell little baby yeah big strong man girl boy toy alright let dance fuck baby fuck fuck one another whatever want got electric ass baby got electric thighs baby wait longer child getting stronger baby open eyes see gold chain around waist yeah want give people tell got taste blow candle let see true baby excellent really like sorry know never felt way really happy really well guess met deserve special like perfect really many things want many things want listen ever love anybody else reason feel insecure best would believe one ever ever hurt yes love know sounds strange knew loved split second kissed darling kiss wait please fuck</t>
-  </si>
-  <si>
-    <t>found missing always run looking someone like know need took time see give good love baby good take heart mine hands give good love never much baby give good love never stopping always searching perfect love kind girls like dream stop looking around loves love stay stay get mind matter wishing makes difference think living fantasy late night rendezvous love sick fool might pouring rain still nothings changed feel shame fool fool keep thinking baby tell gonna keep thinking want like river wine intoxicate mind thinking want pick let thinking thinking got thinking thinking maybe weeping game hard face need like need reason heart makes feel way hope feel way might pouring rain like fool insane run love sick fool got thing love sick fool words music kashif lala someone someone alone friday night waiting beside phone radio really getting along wish could find way party break day would sure meet guy would special momma comes asks dreaming sitting alone fun way ever find someone young seventeen someone someone got find someone someone someone got find someone party angie house people packed walls sitting corner trying make sense least expect meeting guy see dreams walking asking would like come dance think found someone need somebody need somebody someone finding dreams believe come looking find joy happiness come actually found someone stolen moments share got family need though tried resist last list man gonna saving love easy living alone friends try tell find man time try break cry would rather home feeling blue saving love used tell would run away together love gives right free said patient wait little longer old fantasy got get ready minutes gonna get old feeling walk door tonight night feeling alright making love whole night saving love yes saving love yes saving love woman gonna love tonight night feeling alright making love whole night saving love yeah saving loving yes saving love like candle burning bright love glowing eyes flame light way burns brighter everyday nobody loves like like leaf upon wind could find place land dreamed hours away wondered everyday dreams come true nobody loves like would never met would right funny life falls place somehow touched heart places never even knew nobody loves like words without tune song still unsung poem rhyme dancer time baby nobody loves like would never met would right funny life falls place somehow touched heart places never even knew nobody loves nobody loves nobody loves nobody loves like nobody loves like nobody loves like boy know one dream looks eyes takes clouds ooh lose control seem get enough wake dreaming tell really love know trust feelings know know love deceiving know know really loves say prayer every heart beat fall love whenever meet asking know things know thinking try phone shy speak falling love bitter sweet love strong feel weak wake shaking wish near said mistaking feel really love tell know trust feelings know know love deceiving know know really loves say prayer every heart beat fall love whenever meet asking know things know thinking try phone shy speak falling love bitter sweet love strong feel weak loves loves loves loves loves loves know know know know know really loves say prayer every heart beat fall love whenever meet asking know things know thinking try phone shy speak falling love bitter sweet love strong feel weak know know know know say prayer know know fall love know hey know asking finally took moment realizing coming back finally hit started counting teardrops least million fell eyes began swell dreams shattered ever since met love known forget though must face alone drifting lonely sea wishing would come back matters drifting lonely sea holding memories hurts know much shows looked around found another love someone else arms dreams shattered smile used greet brightened someone else day took smile away left memories time pass slowly feel alone love strike like lightning find heart home seen movies read book never thought would feel touch took take good care heart take good care heart baby first take one break love keeps feeling good waited love forever one take good care heart come make magic hypnotized get closer drowning eyes one needed love line glad gave gave mine take good care heart take good care heart baby first take one break love keeps feeling good waited love forever one take good care heart love keeps feeling good waited love forever one take good care heart take good care heart take good care heart take good care baby first take one break love keeps feeling good waited love forever one take good care heart take good care heart take good care heart please baby first take one break love believe children future teach well let lead way show beauty possess inside give sense pride make easier let children laughter remind used everybody searching hero people need someone look never found anyone fulfilled needs lonely place learned depend decided long ago never walk anyone shadows fail succeed least live believe matter take take away dignity greatest love happening found greatest love inside greatest love easy achieve learning love greatest love believe children future teach well let lead way show beauty possess inside give sense pride make easier let children laughter remind used decided long ago never walk anyone shadows fail succeed least live believe matter take take away dignity greatest love happening found greatest love inside greatest love easy achieve learning love greatest love chance special place dreaming leads lonely place find strength love hold touch make woman give love sweet surrender tonight hearts beat one hold touch make woman tonight something eyes see pure simple honesty hold arms tonight fill life pleasure let waste precious time moment treasure hold arms tonight make last forever morning sun appears find way together believe say love know take granted tonight magic begun hold touch make woman tonight something eyes see betray trust hold touch make woman make woman tonight</t>
-  </si>
-  <si>
-    <t>weekend comes town seven days soon ones make break rules well saw captain kidd sunset tell boys command chino danced tango broomstick hand said alright alright good time alright alright want cross line break side let rock let stop fire burning control let rock let night loose got let rock broadway everybody goes get rocking horse blast radio well saw roxie table girlfriend give king swing time said alright alright good time alright alright want cross line break side shot heart blame darling give love bad name angel smile sell promise heaven put hell chains love got hold passion prison break free loaded gun nowhere run one save damage done shot heart blame give love bad name bad name play part play game give love bad name bad name give love bad name paint smile lips blood red nails fingertips school boy dream act shy first kiss first kiss goodbye loaded gun nowhere run one save damage done shot heart blame give love bad name bad name play part play game give love bad name bad name give love shot heart blame give love bad name play part play game give love bad name bad name shot heart blame give love bad name bad name play part play game give love bad name bad name give love give love bad name give love give love bad name give love give love bad name give love give love bad name upon time long ago tommy used work docks union strike luck tough tough gina works diner day working man brings home pay love love says gotta hold got make difference make got lot love give shot whoa half way whoa living prayer take hand make swear whoa living prayer tommy got six string hock holding used make talk tough tough gina dreams running away cries night tommy whispers baby okay someday gotta hold got make difference make got lot love give shot whoa half way whoa living prayer take hand make swear whoa living prayer living prayer gotta hold ready live fight got whoa half way whoa living prayer take hand make swear whoa living prayer whoa half way whoa living prayer take hand make swear whoa living prayer read papers places comes thirty two flavors would tell one favorite could white house alleys president long tall sally live die without yes would senorita kitchen fistful dynamite call stop fun tonite alright start fire without spark something guarantee hide infection starts love social disease look find try run always behind play hide seek like blind kid till caught yeah caught say took held ransom tall dark skinny handsome talk telephone doctor see pill take know prescription gonna wipe one away full high grade octane could run bullet train double know sure know cure make blind man see names change every day seems wasting away another place faces cold would drive night get back home cowboy steel horse ride wanted dead alive wanted dead alive sometimes sleep sometimes days people meet always separate ways sometimes tell day bottle drink times alone think cowboy steel horse ride wanted wanted dead alive wanted wanted dead alive ride cowboy steel horse ride wanted wanted dead alive walk streets loaded six string back play keeps might make back everywhere still standing tall seen million faces rocked cowboy steel horse ride wanted dead alive cowboy got night side wanted dead alive ride dead alive still drive dead alive dead alive dead alive dead alive dead alive got nasty reputation sticky situation tell true say nobody better well together show gun run gonna set night fire run gun playing win raise hands want let raise hands want let feeling show raise hands new york chicago raise hands new jersey tokyo raise hands front line waste time walk looking surrender raise flag defend gun run gonna set night fire run gun playing win young still child still innocence painted smiles called passed lady night looked eyes said changes one thing always stays without love nothing without love nothing else get night nothing else feels right without love saw man lonely street broken man looked like one knows pain living lost love still forgiven said changes one thing always stays nothing without love nothing else love burn bright nothing would mean nothing without love see life things took granted love passed many second chances afraid afraid nothing without love nothing else love burn bright nothing would mean nothing without love could see inside heart would understand would never mean hurt baby kind man might say sorry yeah might talk tough sometimes might forget little things keep hanging line world know romeo juliet boy meets girl promises forget cast eden gate regrets fire cry would die would cry would anything would lie know true baby would die would die would cry came right know true baby would die might savior never king might send roses buy diamond rings could see inside maybe would know love like hunger without would starve world know romeo juliet boy meets girl promises forget cast eden gate regrets fire cry sit smokey room night end pass time strangers bottle friend remember used park butler street dark remember lost keys lost backseat baby remember used talk busting would break hearts together forever never say goodbye never say goodbye old friends hoping would never end say goodbye never say goodbye holding gotta try holding never say goodbye remember days skipping school racing cars cool six pack radio need place remember prom night fight band played favorite song held arms strong danced close danced slow swore would never let together forever never say goodbye never say goodbye old friends hoping would never end say goodbye never say goodbye holding gotta try holding never say goodbye guess would say used talk busting would break hearts together forever never say goodbye never say goodbye old friends hoping would never end say goodbye never say goodbye holding gotta try holding never say goodbye joey comes sacred part town sometimes talk tough feet touch ground sidewalk soldiers sing midnite blues old men recite story lines young like say yeah cruising backbeat yeah making love backseats wild wild streets member boy brigade date girl next door know made daddy crazy made want looking trouble know boy want fight tonight headed thru bathroom window daddy know gonna alright said yeah cruising backbeat yeah making love backseats wild wild streets wild wild streets wild wild streets wild wild streets sometimes town pretty know bad like girl looks happy whe inside sad got code honor nobody going walk vain trough kid parade hometown</t>
+    <t>storyteller would like tell personal story like call danger single story grow university campus eastern nigeria mother say start read age two although think four probably close truth early reader read british american child book also early writer begin write age seven story pencil crayon illustration poor mother obligate read write exactly kind story read character white blue eyed play snow eat apple talk lot weather lovely sun come despite fact live nigeria never outside nigeria snow eat mango never talk weather need character also drink lot ginger beer character british book read drank ginger beer never mind idea ginger beer many year afterwards would desperate desire taste ginger beer another story demonstrate think impressionable vulnerable face story particularly child read book character foreign become convinced book nature foreigner thing could personally identify thing change discover african book many available quite easy find foreign book writer like chinua achebe camara laye mental shift perception literature realize people like girl skin color chocolate whose kinky hair could form ponytail could also exist literature start write thing recognize love american british book read stir imagination open new world unintended consequence know people like could exist literature discovery african writer save single story book come conventional middle class nigerian family father professor mother administrator norm live domestic help would often come nearby rural village year turn eight get new house boy name fide thing mother tell family poor mother send yam rice old clothes family finish dinner mother would say finish food know people like fide family nothing felt enormous pity fide family one saturday village visit mother show beautifully pattern basket make dyed raffia brother make startle occur anybody family could actually make something hear poor become impossible see anything else poor poverty single story year later think leave nigeria university united state american roommate shock ask learn speak english well confuse say nigeria happen english official language ask could listen call tribal music consequently disappointed produce tape mariah carey assume know use stove strike felt sorry even saw default position toward african kind patronize well mean pity roommate single story africa single story catastrophe single story possibility african similar way possibility feeling complex pity possibility connection human equal must say consciously identify african whenever africa come people turn never mind know nothing place like namibia come embrace new identity many way think african although still get quite irritable africa refer country recent example otherwise wonderful flight lagos two day ago announcement virgin flight charity work india africa country spend year african begin understand roommate response grow nigeria know africa popular image would think africa place beautiful landscape beautiful animal incomprehensible people fight senseless war die poverty aid unable speak wait save kind white foreigner would see african way child see fide family single story africa ultimately come think western literature quote writing london merchant call john lok sail west africa keep fascinating account voyage refer black african beast house write also people without head mouth eye breast laugh every time read one must admire imagination john lok important writing represent beginning tradition tell african story west tradition sub saharan africa place negative difference darkness people word wonderful poet rudyard kipling half devil half child begin realize american roommate must throughout life see hear different version single story professor tell novel authentically african quite willing contend number thing wrong novel fail number place quite imagine fail achieve something call african authenticity fact know african authenticity professor tell character much like educate middle class man character drive car starve therefore authentically african must quickly add guilty question single story year ago visit mexico political climate time tense debate immigration often happen america immigration become synonymous mexican endless story mexican people fleece healthcare system sneak across border arrest border sort thing remember walk around first day guadalajara watch people work roll tortilla marketplace smoke laugh remember first feeling slight surprise overwhelm shame realize immerse medium coverage mexican become one thing mind abject immigrant buy single story mexican could ashamed create single story show people one thing one thing become impossible talk single story without talk power word igbo word think whenever think power structure world nkali noun loosely translate great another like economic political world story define principle nkali tell tell told many story tell really dependent power power ability tell story another person make definitive story person palestinian poet mourid barghouti write want dispossess people simple way tell story start secondly start story arrow native american arrival british entirely different story start story failure african state colonial creation african state entirely different story recently speak university student tell shame nigerian men physical abuser like father character novel tell read novel call american psycho shame young american serial murderer obviously say fit mild irritation would never occur think read novel character serial killer somehow representative american good person student america cultural economic power many story america read tyler updike steinbeck gaitskill single story america learn year ago writer expect really unhappy childhood successful begin think could invent horrible thing parent truth happy childhood full laughter love close knit family also grandfather die refugee camp cousin polle die could get adequate healthcare one close friend okoloma die plane crash fire truck water grow repressive military government devalue education sometimes parent pay salary child saw jam disappear breakfast table margarine disappear bread become expensive milk become ration kind normalized political fear invade life story make insist negative story flatten experience overlook many story form single story create stereotype problem stereotype untrue incomplete make one story become story course africa continent full catastrophe immense one horrific rap congo depress one fact people apply one job vacancy nigeria story catastrophe important important talk always felt impossible engage properly place person without engage story place person consequence single story rob people dignity make recognition equal humanity difficult emphasize different rather similar mexican trip follow immigration debate side mexican mother tell fide family poor hardworking african television network broadcast diverse african story world nigerian writer chinua achebe call balance story roommate know nigerian publisher muhtar bakare remarkable man leave job bank follow dream start publishing house conventional wisdom nigerian read literature disagree felt people could read would read make literature affordable available shortly publish first novel station lagos interview woman work messenger come say really like novel like end must write sequel happen tell write sequel charm move woman part ordinary mass nigerian suppose reader read book take ownership felt justify tell write sequel roommate know friend funmi iyanda fearless woman host show lagos determine tell story prefer forget roommate know heart procedure perform lagos hospital last week roommate know contemporary nigerian music talented people sing english pidgin igbo yoruba ijo mix influence jay fela bob marley grandfather roommate know female lawyer recently court nigeria challenge ridiculous law require woman get husband consent renew passport roommate know nollywood full innovative people make film despite great technical odds film popular really best example nigerian consume produce roommate know wonderfully ambitious hair braider start business sell hair extension million nigerian start business sometimes fail continue nurse ambition every time home confront usual source irritation nigerian failed infrastructure failed government also incredible resilience people thrive despite government rather teach write workshop lagos every summer amaze many people apply many people eager write tell story nigerian publisher start non profit call farafina trust big dream building library refurbish library already exist provide book state school anything library also organize lot lot workshop reading write people eager tell many story story matter many story matter story use dispossess malign story also use empower humanize story break dignity people story also repair broken dignity american writer alice walker write southern relative move north introduce book southern life leave behind sit around read book listen read book kind paradise regain would like end thought reject single story realize never single story place regain kind paradise thank</t>
+  </si>
+  <si>
+    <t>kid spend summer grandparent ranch texas help fix windmill vaccinate cattle chore also watch soap opera every afternoon especially day life grandparent belong caravan club group airstream trailer owner travel together around canada every summer would join caravan would hitch airstream trailer grandfather car would line airstream adventurer love worship grandparent really look forward trip one particular trip year old roll around big bench seat back car grandfather drive grandmother passenger seat smoke throughout trip hat smell age would take excuse make estimate minor arithmetic would calculate gas mileage figure useless statistic thing like grocery spending would hear campaign smoking remember detail basically say every puff cigarette take number minute life think might two minute per puff rate decide math grandmother estimate number cigarette per day estimate number puff per cigarette satisfied would come reasonable number poke head front car tap grandmother shoulder proudly proclaim two minute per puff take nine year life vivid memory happen expect expect applaud cleverness arithmetic skill jeff smart make tricky estimate figure number minute year division happen instead grandmother burst tear sit backseat know grandmother sit cry grandfather drive silence pull onto shoulder highway get car come around open door wait follow trouble grandfather highly intelligent quiet man never say harsh word maybe first time maybe would ask get back car apologize grandmother experience realm grandparent way gauge consequence might stop beside trailer grandfather look bit silence gently calmly say jeff one day understand hard kind clever want talk today difference gift choice cleverness gift kindness choice gift easy give choice hard seduce gift careful probably detriment choice group many gift sure one gift gift smart capable brain confident case admission competitive sign clever dean admission would let smart come handy travel land marvel human plod astonish invent way generate clean energy lot atom atom assemble tiny machine enter cell wall make repair month come extraordinary also inevitable news synthesize life come year synthesize engineer specification believe even see understand human brain jules verne mark twain galileo newton curious age would want alive right civilization many gift individual many individual gift sit use gift take pride gift pride choice get idea start amazon year ago come across fact web usage grow percent per year would never see hear anything grow fast idea build online bookstore million title something simply could exist physical world exciting turn year old would marry year tell wife mackenzie want quit job crazy thing probably would work since startup sure would happen mackenzie also princeton grad sit second row tell young boy would garage inventor would invent automatic gate closer cement fill tire solar cooker work well umbrella tinfoil baking pan alarm entrap sibling would always want inventor want follow passion work financial firm new york city bunch smart people brilliant bos much admire bos tell want start company sell book internet take long walk central park listen carefully finally say sound like really good idea would even good idea someone already good job logic make sense convince think hour make final decision see light really difficult choice ultimately decide give shot think would regret try fail suspect would always haunt decision try much consideration take less safe path follow passion proud choice tomorrow real sense life life author scratch begin use gift choice make inertia guide follow passion follow dogma original choose life ease life service adventure wilt criticism follow conviction bluff wrong apologize guard heart rejection act fall love play safe little bit swashbuckling tough give relentless cynic builder clever expense others kind hazard prediction year old quiet moment reflection narrate personal version life story telling compact meaningful series choice make end choice build great story thank good luck</t>
+  </si>
+  <si>
+    <t>recall wonderful story set theme remark today party give billionaire shelter island late kurt vonnegut inform pal author joseph heller host hedge fund manager make money single day heller earn wildly popular novel catch whole history heller respond yes something never enough enough stun simple eloquence say nothing relevance vital issue arise american society today many revolve around money yes money increasingly bottom line society great god prestige great measure man woman morning temerity ask soon mint mba graduate enter world commerce consider role enough business entrepreneurship society enough dominant role financial system economy enough value bring field choose career kurt vonnegut love speak college student believe may paraphrase catch young people become ceos investment banker consultant money manager especially hedge fund manager best poison mind humanity remark morning try poison mind little bit humanity past two century nation move agricultural economy manufacture economy service economy predominantly financial economy financial economy definition subtracts value create productive business think owner business enjoy dividend yield earnings growth capitalistic system create play financial market capture investment gain cost financial intermediation deduct thus invest american business winner game beat stock market cost zero sum game intermediation cost deduct beat market group become loser game yes financial system take less investor make yet financial field money make modern day america breeding ground wealthy citizen make less million dollar last year make enough rank among high paid hedge fund manager add hedge fund fee mutual fund management fee operating expense commission brokerage firm fee financial advisor investment banking legal fee merger ipo enormous marketing advertising expense entail distribution financial product talk billion dollar per year sum extract whatever return stock bond market generous enough deliver investor surely enough seriously undermine odds favor success citizen accumulate saving retirement yet fact finance sector become far nation large generator corporate profit large even combined profit huge energy health care sector almost three time much either manufacturing information technology twenty five year ago financials account percent earnings giant corporation compose standard poor stock index ten year ago financial sector share rise percent last year financial sector profit soar time high percent add earnings financial affiliate giant manufacturer think general electric capital example auto financing arm general motor ford total financial earnings likely exceed percent earnings share may may enough seem likely continue grow least move seem world longer make anything country merely trade piece paper swap stock bond back forth one another pay financial croupier veritable fortune also add even cost create ever complex financial derivative huge unfathomable risk build financial system enterprise become mere bubble whirlpool speculation great british economist john maynard keynes warn year ago consequence may dire capital development country become product activity casino job capitalism likely ill profession business subservient field money management wall street become business profession subservient harvard business school professor rakesh khurana right define conduct true professional word create value society rather extract yet money management definition extract value return earn business enterprise warren buffett wise partner charlie munger lay line money make activity contains profoundly antisocial effect high cost modality become ever popular activity exacerbate current harmful trend ever nation ethical young brain power attract lucrative money management attendant modern friction distinguish work provide much value others tell highly profitable field manage money rather present three caveat commencement speaker like sum cite eminent philosopher endorse message exception offer new master business administration word socrates spoken year ago challenge citizen athens honor love citizen great mighty nation care much lay great amount money honor reputation little wisdom truth great improvement soul ashamed nothing persuade take thought person property first chiefly care great improvement soul tell virtue give money virtue come money every good man close return kurt vonnegut story finally track turn poem delightful even well word long true story word honor joseph heller important funny writer dead party give billionaire shelter island say joe make feel know host yesterday may make money novel catch earn entire history joe say get something never say earth could joe joe say knowledge get enough bad rest peace time rest peace rest way bright future lie world work never enough citizen determined heart courageous character intelligent mind idealistic soul yes world already quite enough gun political platitude arrogance disingenuousness self interest snobbishness superficiality war certainty god one side never enough conscience enough tolerance idealism justice compassion wisdom humility self sacrifice great good integrity courtesy poetry laughter generosity substance spirit element urge carry career remember great game life money best build world anew enough least today</t>
+  </si>
+  <si>
+    <t>feel like incredible understatement say grateful feel like relationship many social medium like minus two day like come together grateful talk trust start say one favorite part job get research topic mean something one least favorite part job normally come finding kick butt make change entire life hard part get dig stuff think matter life life people around topic trust something think probably would eventually start look closely study shame vulnerability personal reason jump trust early research career personal experience one day daughter ellen come home school third grade minute close front door literally start sob slide door kind heap cry floor course scar say wrong ellen happen happen pull together enough say something really hard happen today school share couple friend recess time get back classroom everyone class know happen laugh point call name bad kid disruptive teacher even take marble marble jar marble jar classroom jar kid make great choice together teacher add marble make great choice teacher take marble jar get fill celebration class say one bad moment life laugh point miss bacchum teacher keep say take marble know happen look face sear mind say never trust anyone first reaction really honest damn straight tell anybody anything mama yeah right mean tell grow school mama get little apartment thing think quite honest find kid beat nine year old know mama know place like explain trust third grader front take deep breath say ellen trust like marble jar say mean say share hard story hard thing happen friend time fill marble jar thing thing thing like know share person make sense yes ellen say yes make sense say marble jar friend say yeah totally hannah lorna marble jar friend say thing get interesting say tell mean earn marble like well lorna seat lunch cafeteria scoot give half heinie seat like like yeah sit like sit say big deal expect hear say know hannah sunday soccer game wait story say get hit ball lay field hannah pick run first aid like yeah say hannah look saw oma opa parent grandparent say look oma opa like like boy get marble well know friend eight grandparent parent divorce remarry husband parent divorce remarry say nice remember name like hmm say marble jar friend say yeah couple marble jar friend say well kind thing get marble feeling come think first thing could think talk soccer game game good friend eileen walk parent say diane david good see remember felt like like certainly trust build small insignificant moment life get grander gesture researcher start look data gather doctoral student work start look crystal clear trust build small moment start look example people talk trust research say thing like yeah really trust bos even ask mom chemotherapy trust neighbor something kid matter come help figure know one number one thing emerge around trust small thing people attend funeral someone show sister funeral another huge marble jar moment people trust ask help need many good give help ask help right ask help one moment one way work grounded theory researcher look data first see researcher talk say believe best theory build exist theory lived experience look say let see research say john gottman study relationship year amazing work trust betrayal first thing read trust build small moment call slide door moment slide door movie gwyneth paltrow see movie really tough movie happen follow life seemingly unimportant moment try get train make train movie stop split two part make train make train follow radically different ending would argue trust slide door moment example give powerful say lie bed one night page leave murder mystery feel know killer die finish book say even want want get brush teeth bathroom get back get know feel want get situate read end book get walk past wife bathroom brush hair look really sad say first think keep walking keep walking many moment walk past someone like god look avert eye look caller cell phone like yeah know big mess right time pick phone right yes look like guilty laughter say slide door moment strike story say opportunity build trust opportunity betray small moment trust moment betrayal well choose connect opportunity betrayal take brush hand start brush hair say right babe moment trust right fast forward five year clear trust talk trust marble jar get really share story hard stuff people whose jar full people time really small thing help believe worth story new question marble trust talk talk trust trust big word right hear trust trust even know mean want know anatomy trust mean start look research find definition charles feldman think beautiful definition ever hear simply trust choose make something important vulnerable action someone else choose make something important vulnerable action someone else feldman say distrust share important safe think true feldman really call let understand trust back data find figure trust know trust data think know trust put together acronym braving braving trust brave connection someone part trust boundary trust boundary hold clear boundary respect trust without boundary reliability trust say reliability let tell reliability research term always look thing valid reliable researcher research kind geek okay would say scale weigh valid get accurate weight okay would valid scale would pay lot money scale actually valid scale pretend sake valid scale reliable scale scale get hundred time gon say thing every time reliability say gain earn trust reliable definition reliability work life reliability mean clear limitation take much come short deliver commitment personal life mean thing say someone god great see give call lunch yes really great see moment discomfort goodbye right honest boundary reliability huge accountability trust make mistake willing apologize make amends trust make mistake allow apologize make amend accountability trust one shook core vault vault share hold confidence share hold confidence know understand come research understand side vault one door vault lose trust people good friend come say god hear caroline get divorce ugly pretty sure partner cheat share something share trust even though gossip give juice trust completely diminish make sense vault fact hold confidence relationship see acknowledge confidentiality tricky thing vault lot time share thing share way hot wire connection friend right anything nice say come sit next know yes closeness build talk bad people know call common enemy intimacy real intimacy build hat people counterfeit counterfeit trust real vault mean respect story respect people story integrity trust trusting relationship act place integrity encourage integrity come definition like one like look data say integrity think integrity three piece choose courage comfort choose right fun fast easy practice value profess value right mean integrity non judgment fall apart ask help struggle without judge fall apart struggle ask help without judge really hard well help ask help think set trust relationship people really trust always help let tell ask help reciprocate trusting relationship period assign value need help think less need help whether conscious offer help someone think less judge need help judge others need help somewhere like get value helper relationship think worth real trust exist unless help reciprocal non judgment last one generosity relationship trusting relationship assume generous thing word intention behavior check screw say something forget something make generous assumption say yesterday mom one year anniversary death really tough talk last month really hop would call know care know think big deal want let know think oppose return call return email wait moment spring well forget call important know make generous assumption check make sense get boundary reliability accountability vault integrity non judgment generosity anatomy trust complex need break simple reason many ever struggle trust relationship professional personal everybody statistically right end say someone trust mean trust love dependable mean trust talk trust break understanding trust give word say struggle reliable say something count maybe issue non judgment break talk ask need specifically instead use huge word ton weight value around say specifically work work get boundary issue one thing interest think one big casualty heartbreak disappointment failure struggle loss trust people loss self trust something hard happen life first thing say trust stupid naive braving acronym work self trust something happen recently really tough failure ask honor boundary reliable count hold accountable really protective story stay integrity judgmental toward give benefit doubt generous toward braving relationship people brave connection self trust brave self love self respect wild adventure ever take whole life would invite think think trust marble jar full count ask people give start self trust great quote maya angelou say trust people love say love right quote african proverb say say wary naked man offering shirt lot time find struggle trust thing examine first marble jar treat ask people give something believe worthy receive know worthy receive trust everyone else thank much honored thank thank</t>
+  </si>
+  <si>
+    <t>know video art ask would like talk creativity say problem problem tell people creative easy difficult know would particularly easy spend last year watch various creative people produce stuff fascinate see could figure make folk include creative couple year ago get excited friend mine run psychology department sussex university brian bat show research creativity berkley brilliant psychologist call donald mackinnon seem confirm impressively scientific way vague observation intuition would year prospect settle quite serious study creativity purpose tonight gossip delightful spent several week state categorically tell tonight become creative complete waste time think would much good tell joke instead know lightbulb joke many pole take screw lightbulb one hold bulb four turn table many folksingers take change lightbulb answer five one change bulb four sing much good old one many socialist take change lightbulb answer change think work many creative art reason futile talk creativity simply explain like mozart music van gogh painting saddam hussein propaganda literally inexplicable freud analyze practically everything else repeatedly deny psychoanalysis could shed light whatsoever mystery creativity brian bates write recently best research creativity quite dramatic drop quantity largely suspect researcher begin feel reach limit science could discover fact thing research could tell creative sort childhood limited help point life however one negative thing say negative easy say creativity bit like sculptor ask sculpt fine elephant explain would take big block marble knock away bit look like elephant negative thing creativity talent talent way operating many actor take screw lightbulb answer thousand one thousand say could many jewish mother take screw lightbulb answer mind sit dark nobody care many surgeon see say way operate mean creativity ability either example may surprise absolutely unrelated provide intelligent certain minimal level mackinnon show investigate scientist architects engineer writer regard peer creative way whatsoever different less creative colleague way different mackinnon show creative simply acquire facility get particular mood way operating allow natural creativity function fact mackinnon describe particular facility ability play indeed describe creative mood childlike able play idea explore immediate practical purpose enjoyment play sake mood work moment robin skynner successor psychiatry book family survive compare way psychologically healthy family function way family function way successful corporation organization function become fascinate fact usually describe way people function work term two mode open close add creativity possible closed mode many american network executive take screw lightbulb answer lightbulb many doorke let explain little closed mode mean mode time work inside feeling lot get get active probably slightly anxious mode although anxiety exciting pleasurable mode probably little impatient little tension much humor mode purposeful mode get stressed even bit manic creative contrast open mode relaxed expansive less purposeful mode probably contemplative inclined humor always accompany wider perspective consequently playful mood curiosity sake operate pressure get specific thing quickly play allow natural creativity surface let give example mean alexander fleming thought lead discovery penicillin must open mode previous day would arrange number dish culture would grow upon day question glance dish discover one culture appear would closed mode would focused upon need dish culture grow upon saw one dish use purpose would quite simply throw away thank goodness open mode become curious culture grow particular dish curiosity world know lead lightbulb sorry penicillin closed mode uncultured dish irrelevance open mode clue one example one alfred hitchcock regular writer describe work screenplay say come block discussion become heat intense hitchcock would suddenly stop tell story nothing work hand first almost outrage discover intentionally mistrust work pressure would say press press work hard relax come say writer course finally always let make one thing quite clear need open mode ponder problem come solution must switch closed mode implement make decision efficient decisively undistracted doubt correctness example decide leap ravine moment take bad time start review alternative strategy attack machine gun post make particular effort see funny side humor natural concomitant open mode luxury closed take decision narrow focus implement carry switch back open mode review feedback rise action order decide whether course take successful whether continue next stage plan whether create alternative plan correct error perceive back closed mode implement next stage word efficient need able switch backwards forward two mode problem often get stick closed mode pressure familiar tend maintain tunnel vision time really need step back contemplate wider view particularly true example politician main complaint non political colleague become addicted adrenaline get react event hour hour basis almost completely lose desire ability ponder problem open mode well minute many woman libber take change lightbulb answer one screw make documentary many psychiatrist take change lightbulb answer one lightbulb really get want change one one thing say creativity certain condition make likely get open mode something creative occur likely guarantee anything occur might sit around hour last tuesday nothing zilch bupkis sausage nevertheless least tell get open mode need five thing sorry mind wonder get open mode quickly instead inch waist need humor beg pardon let take space first become playful therefore creative usual pressure cope get closed mode create space away demand mean seal must make quiet space undisturbed next time enough create space create space specific period time know space last exactly moment normal life start specific moment space start equally specific moment space stop seal every day close mode habitually operate would never realize vital read historical study play dutch historian call johan huizinga say play distinct ordinary life locality duration main characteristic secludedness limitedness play begin certain moment otherwise play combine first two factor create oasis quiet set boundary space time creativity happen play possible separate everyday life arrange take call close door sit somewhere comfortable take couple deep breath anything like ponder problem want turn opportunity second find think forget get call jim must tell tina need report wednesday thursday mean must move lunch joe damn call paul get joe daughter interview must pop afternoon get birthday present plant need water none pencil sharpen right get much start sort paper clip shall make phone call thinking tomorrow get everything way know easy trivial thing urgent important thing urgent like thinking also easier little thing know start big thing sure say create oasis quiet know mind pretty soon start race take seriously sit bit tolerate racing slight anxiety come time mind quiet take time mind quiet absolutely use arrange space time oasis last minute get quieter get open mode stop deeply frustrate must allow good chunk time would suggest hour half get open mode hour leave something happen lucky put whole morning aside experience hour half need break far well hour half hour half next thursday maybe hour half week fix one four half hour session another reason factor number three time yes know time half create oasis tell use oasis create still need time well let tell story always intrigue one monty python colleague seem talented never produce script original mine watch time begin see face problem fairly soon saw solution incline take even though think know solution original whereas situation although sorely tempt take easy way finish clock could would sit problem another hour quarter stick would end almost always come something original simple work creative simply prepare stick problem longer imagine excitement find exactly mackinnon find research discover creative professional always play problem much long try resolve prepare tolerate slight discomfort anxiety experience solve problem know mean problem need solve feel inside kind internal agitation tension uncertainty make plain uncomfortable want get rid discomfort order take decision sure best decision take make feel well well creative people learn tolerate discomfort much long put pondering time solution creative people find hard creative people need time project image decisive feel create image need decide everything quickly great show confidence well behavior suggest sincerely effective way strangle creativity birth please note argue real decisiveness favor take decision take stick implement suggest take decision always ask question decision take answer defer decision order give maximum pondering time lead creative solution ponder somebody accuse indecision say look babycakes decide tuesday chickening creative discomfort take snap decision easy summarize third factor facilitate creativity time give mind long possible come something original next factor number confidence space time oasis get open mode nothing stop creative effectively fear make mistake think play see play experiment happen would happen essence playfulness openness anything may happen feeling whatever happen playful frighten move direction wrong something well either free play alan watt put spontaneous within reason get risk say thing silly illogical wrong best way get confidence know creative nothing wrong thing mistake drivel may lead break last factor fifth humor well happen think main evolutionary significance humor get closed mode open mode quicker anything else think know laughter bring relaxation humor make playful yet many time important discussion hold really original creative idea desperately need solve important problem humor taboo subject discuss air quote serious attitude seem stem basic misunderstanding difference serious solemn suggest group could sit around dinner discuss matter extremely serious like education child marriage meaning life talk film could laugh would make discuss one bit less serious solemnity hand know mean point two beautiful memorial service ever attend lot humor somehow free make service inspiring cathartic solemnity serve pomposity self important always know level consciousness egotism puncture humor see threat dishonestly pretend deficiency make view substantial make feel big humor essential part spontaneity essential part playfulness essential part creativity need solve problem matter serious may set space time oasis giggle want lady gentleman five factor arrange make life creative space time time confidence lord jeffrey archer know get open mode requirement keep mind gently around subject ponder daydream course keep bring mind back like meditation extraordinary thing creativity keep mind rest subject friendly persistent way sooner later get reward unconscious probably shower later breakfast next morning suddenly reward blue new thought mysteriously appear put pondering time first many cecil parkinson take change lightbulb answer two one screw one screw many account executive take screw lightbulb answer get back many norwei sorry many yugoslav many malt many dutch joke one thing look remind think easy creative get people play always find two throw ideas backwards forward get interesting original place could ever get danger real danger one person around make feel defensive lose confidence play goodbye creativity always make sure play friend people like trust never say anything squash either never say wrong like always positive build say would even good quite understand explain let pretend try establish free atmosphere possible sometimes wonder success japanese partly due instinctive understanding use group creatively westerner often amaze unstructured nature japanese meeting maybe lack structure absence time pressure free solve problem creatively clever japanese sometimes plan structure ness example insisting first people give view junior speak freely without possibility contradict already say somebody important four minute leave many irish sorry sorry well look last thing say creativity like humor joke laugh come moment connect two different framework reference new way example old story woman survey sexual attitude stop airline pilot ask amongst thing last sexual intercourse reply nineteen fifty eight know airline pilot researcher surprised query well say pilot twenty one ten laugh eventually moment contact two framework reference way express year hour clock idea new idea exactly thing connect two hitherto separate idea way generate new meaning connect different idea difficult connect cheese motorcycle moral courage light green banana international cooperation get computer make billion random connection new connection juxtaposition significant generate new meaning play deliberately try invent random juxtaposition use intuition tell whether seem significance bit computer produce million new connection tell one smell interesting course produce juxtaposition absolutely ridiculous absurd good edward bono invent notion lateral think specifically suggest book beyond yes try loosen assumption play deliberately crazy connection call absurd idea intermediate impossible point use intermediate impossible completely contrary ordinary logical thinking right stage matter intermediate impossible right absurd nevertheless use step stone another idea right another example play nothing wrong summarize really know start get stuck start generate random connection allow intuition tell one might lead somewhere interest well really tell help creative everything two minute leave come important part stop subordinate become creative real threat believe one appreciate good trouble creative people stop decisive hard nose bastard like run business efficiently mean know encourage someone creative next thing rock boat come idea ask question nip kind thing bud start justify decision reason argument share information concealment give considerable advantage power struggle stamp creativity rest organization get bit respect one allow subordinate humor threaten self importance especially omniscience treat humor frivolous subversive subversive course humor setup way people express opposition since express openly like ton brick let get clear blame humor resistance way work creates blame way work important mean solemnly dignity laugh matter second keep feel irreplaceable involves cut everybody else size miss opportunity undermine employee confidence perfect opportunity come review work use authority zero immediately thing find wrong never never balance negative positive criticize school teacher always remember praise make people uppity third demand people always actively thing catch anyone pondering accuse laziness indecision starve employee thinking time lead creativity insurrection demand urgency time use lot fight talk war analogy establish permanent atmosphere stress breathless anxiety crisis phrase keep mode close way nonsense type sure tiny tiny microscopic quantity creativity organization let vigilance slip one moment could find surround happy enthusiastic creative people might never able completely control ever careful thank good night thank</t>
+  </si>
+  <si>
+    <t>title must seem like contradiction solitude leadership solitude mean alone leadership necessitate presence others people lead think leadership american history likely think washington head army lincoln head nation king head movement people multitude behind look direction think solitude apt think thoreau man alone wood keep journal commune nature silence leadership learn quality character mind make fit command platoon beyond perhaps company battalion leave military corporation foundation department government solitude least especially plebe even privacy opportunity simply physically alone never mind solitude ability alone thought yet submit solitude one important necessity true leadership lecture attempt explain need begin talk leadership really mean spent year teach another institution like west point like talk lot leadership yale university school might come friend might yale harvard stanford mit forth institution like west point also see role training leader constantly encourage student like west point regard leader among peer future leader society indeed look around american elite people charge government business academia major institution senator judge ceos college president forth find come overwhelmingly either ivy league peer institution service academy especially west point begin wonder taught yale leadership really consist student like energetic accomplished smart often ferociously ambitious enough make leader much like even admire certainly seem like leader leader wonder mean accomplish successful get straight make leader think great heart surgeon great novelist great shortstop may terrific mean leader leadership aptitude leadership achievement leadership even cellence different thing otherwise concept leadership meaning seem especially true kind excellence saw student around see thing change since college everything get much intense much get top school like yale west point start lot earlier begin think college junior maybe couple extracurriculars know like guy endless series hoop jump start way back maybe early junior high school class standardize test extracurriculars school extracurriculars outside school test prep course admission coach private tutor sit yale college admission committee couple year ago first thing admission officer would present case rest committee read call brag admission lingo list student extracurriculars well turn student six seven extracurriculars already trouble student get addition perfect grade top score usually saw around great kid train world class hoop jumper goal set could achieve test give could pass fly color one put excellent sheep doubt would continue jump hoop ace test harvard business school michigan law school john hopkins medical school goldman sachs mckinsey consulting whatever approach would indeed take far life would come back reunion partner white case attending physician mass general assistant secretary department state exactly place like yale mean talk training leader educate people make big name world people impressive title people university brag people make top people climb greasy pole whatever hierarchy decide attach think something desperately wrong even dangerous idea explain want spend minute talk novel many may read heart darkness read probably see apocalypse base marlow novel becomes captain willard play martin sheen kurtz novel becomes colonel kurtz play marlon brando novel vietnam colonialism belgian congo three generation vietnam marlow military officer merchant marine civilian ship captain send company run country charter belgian crown sail deep upriver congo river retrieve manager ensconce jungle rogue like colonel kurtz movie everyone know novel imperialism colonialism race relation darkness lie human heart become clear certain point teach novel also bureaucracy call minute ago hierarchy company company rule procedure rank people power people scramble power like bureaucracy like big law firm governmental department matter university like tell like bureaucracy join word bureaucracy tend negative connotation say way criticism merely description army bureaucracy one large famously bureaucratic bureaucracy world army give among thing indispensable bureaucratic acronym snafu situation normal fuck foul clean version come army world war need know get commission join bureaucracy however long stay army operate within bureaucracy different armed force many way every institution society respect need know bureaucracy operate kind behavior kind character reward kind punish back novel marlow proceeds upriver stage like captain willard movie first get outer station kurtz inner station central station marlow spend time get best look bureaucracy action kind people succeed marlow description manager central station big bos commonplace complexion feature manner voice middle size ordinary build eye usual blue perhaps remarkably cold otherwise indefinable faint expression lip something stealthy smile smile remember explain common trader youth employ part nothing obey yet inspire neither love fear even respect inspired uneasiness uneasiness definite mistrust uneasiness nothing idea effective faculty genius organize initiative order even learning intelligence position come originate nothing could keep routine great great little thing impossible tell could control man never give secret away perhaps nothing within suspicion make one pause note adjective commonplace ordinary usual common nothing distinguish person time read passage realize perfect description kind person tend prosper bureaucratic environment reason suddenly strike perfect description head bureaucracy part chairman academic department exact smile like shark exact ability make uneasy like something wrong ever tell like manager sorry say like many people meet negotiate bureaucracy army matter whatever institution end give talent army whether microsoft world bank whatever head department genius organize initiative even order particular learning intelligence distinguish characteristic ability keep routine beyond marlow say position come really great mystery bureaucracy often best people stick middle people run thing leader mediocrity excellence usually get greasy pole get talent maneuver kiss people kick people please teacher please superior pick powerful mentor rid coattail time stab back jumping hoop get along along whatever people want finally come seem like manager central station nothing inside take stupid risk like try change thing question keep routine tell forewarn promise meet people find environment reward conformity tell decide different kind leader tell one reason think thing put piece together kind student kind leadership train kind leader saw institution realize national problem crisis leadership country every institution government look happen american corporation recent decade old dinosaur like general motor twa steel fell apart look happen wall street last couple year finally know sensitive ground look happen first four year iraq war stick fault enlisted rank noncom junior officer fault senior leadership whether military civilian win even change direction crisis leadership america overwhelming power wealth earn early generation leader make complacent long train leader know keep routine answer question know ask fulfill goal know set think get thing whether worth first place great technocrat world ever see people train incredibly good one specific thing interest anything beyond area exper tise leader word thinker people think people formulate new direction country corporation college army new way thing new way look thing people word vision people would say great tell kid yale bother tell one west point people think institution assume last place anyone would want talk thinking creatively cultivate independence mind army accident word regiment root word regimentation surely come must ultimate conformist must people buy way thing interest change kind young people think world ponder big issue question authority would amherst pomona west point tell think know true know otherwise would never invite talk even convinced spend day campus quote colonel scott krawczyk course director lecture give last year english early day country model officer build model citizenry reflective democratic ideal different possess democratic spirit mark independent judgment freedom measure action express disagreement crucial responsibility never tolerate tyranny anyone pay attention last year understand change nature warfare mean officer include junior officer require ever able think independently creatively flexibly deploy whole range skill fluid complex situation lieutenant colonel essentially function provincial governor iraq captain find charge remote town somewhere afghanistan people know follow order execute routine look successful acclaimed perhaps fine soldier generation general david petraeus one rare people rise bureaucracy right reason thinker intellectual fact prospect magazine name public intellectual year world princeton make thinker princeton even teach west point assure personal experience lot highly educate people know think make thinker leader precisely able think thing confidence courage argue idea even popular even please superior courage physical courage possess abundance another kind courage moral courage courage stand believe always easy path straight one run mosul commander airborne develop strategy would later formulate counterinsurgency field manual ultimately apply throughout iraq piss lot people way ahead leadership baghdad washington bureaucracy like sort thing another two star say implicitly loudly leadership wrong way run war indeed reward first put charge train iraqi army consider blow career dead end job stick gun ultimately vindicate ironically one central element counterinsurgency strategy precisely idea officer need think flexibly creatively independently first half lecture idea true leadership mean able think act conviction learn learn think let start learn think study team researcher stanford come couple month ago investigator want figure today college student able multitask much effectively adult manage researcher ask answer discover mean expect enhanced cognitive ability investigator expect find mental faculty enable people multitask effectively simply word people multitask effectively really surprising find people multitask worse mental ability multitasking one thing make study different others researcher test people cognitive function multitasking separate subject group high multitaskers low multitaskers use different set test measure kind cognitive ability involve multitasking find every case high multitaskers score worse bad distinguish relevant irrelevant information ignore latter word distractible bad might call mental file keep information right conceptual box able retrieve quickly word mind disorganized even bad thing define multitasking switch task multitasking short think impair ability think think mean concentrate one thing long enough develop idea learn people idea memorize body information however much may sometimes useful develop idea short thinking simply burst second time constantly interrupt facebook message twitter tweet fiddle ipod watch something youtube find first think never best thought first thought always someone else always already hear subject always conventional wisdom concentrate stick question patient let part mind come play arrive original idea give brain chance make association draw connection take surprise often even idea turn good need time think make mistake recognize make false start correct outlast impulse defeat desire declare job move next thing use student brag fast write paper would tell great german novelist thomas mann say writer someone writing difficult people best writer write much slowly everyone else good slow write james joyce write ulysses great novel century rate hundred word day half length selection read early heart darkness seven year eliot one great poet country ever produce write page poetry course entire year career half page month form thought best thinking slow concentrate third time use word concentrate concentrate focus easily consider lecture concentration solitude think word mean mean gather together single point rather let disperse everywhere cloud electronic social input seem facebook twitter youtube think generational thing radio magazine even newspaper ultimately elaborate excuse run away avoid difficult troubling question human throw way right thing life believe thing teach child word live word like duty honor country really mean happy member service academy unique position among college student especially today know job graduate even know employer happen fulfill commitment army unless know figure want rest life unless able listen quiet voice inside tell really care really believe indeed thing might evolve pressure experience student everywhere else agonize question may postpone year maybe agonize everyone start decides finish wonder cause shame put demanding training anyone ask people age commit work awesome responsibility mortal danger rigor regimentation quite properly subject naturally tendency make lose touch passion bring first place saw exactly kind thing yale student robot quite reverse tensely idealistic overwhelming weight practical responsibility hoop jump often make lose sight ideal first place perfectly natural doubt question even difficulties question suppress distract pretend exist confront directly honestly courageously decide find answer dilemma find twitter comedy central even new york time find within without distraction without peer pressure solitude let clear solitude always mean introspection let back heart darkness solitude concentration save marlow amidst madness central station get find steamboat suppose sail upriver giant hole one help fix let run say papier mephistopheles talk manager assistant even bad since still try kiss way hierarchy rave away think internet ever present social buzz chatter away let run papier mephistopheles seem try could poke forefinger would find nothing inside little loose dirt great comfort turn chap batter twisted ruin tin pot steamboat expend enough hard work make love influential friend would serve good give chance come bit find could like work rather laze think fine thing like work man like work chance find reality others man ever know chance find phrase find acquire bad reputation suggest aimless liberal art college graduate english major doubt someone place like amherst pomona spoil get job spend time star space marlow mariner ship captain practical hardheaded person could find say marlow creator conrad spent year merchant marine eight ship captain become writer artist idea sailor marlow believe need find much anyone way say work solitary work concentration climb steamboat spending uninterrupted hour hammer shape build house cook meal even write college paper really put reality others think mean find find reality problem facebook twitter even new york time expose thing especially constant way people old people well young people continuously bombard stream people thought marinate conventional wisdom people reality others create cacophony impossible hear voice whether think anything else emerson mean say inspire lead race must defend travel soul men live breathe reading writing daily time worn yoke opinion notice use word lead leadership mean find new direction simply put front herd head toward cliff read book good read tweet wall post well sometimes sometimes need put book think read think read book two advantage tweet first person write think lot carefully book result solitude attempt think second book old disadvantage precisely make valuable stand conventional wisdom today simply today even merely reflect conventional wisdom day say something different hear time great book one find syllabus one people continue read reflect conventional wisdom day say thing permanent power disrupt habit thought revolutionary time still revolutionary today say revolutionary deliberately evoke american revolution result precisely kind independent think without solitude solitude adam jefferson hamilton madison thomas paine would america solitude mean introspection mean concentration focused work mean sustained read help know good one thing include form solitude seem counterintuitive friendship course friendship opposite solitude mean people talk one kind friendship particular deep friendship intimate conversation long uninterrupted talk one person skyping three people texting two others time hang friend room listen music study emerson mean say soul environs friend may enter grander self acquaintance solitude introspection mean talk one best way talk talk another person one person trust one person unfold soul one person feel safe enough allow acknowledge thing acknowledge thing otherwise doubt suppose question suppose ask feeling opinion would get laugh group reprimand authority call think loud discover believe course articulate take much time much patience solitude strict sense new electronic world disrupt violently instead one two true friend sit talk three hour time friend never actually talk instead bounce one line message hundred time day friendship distraction know none easy even throw away cell phone unplugged computer rigor training keep busy make solitude form anything less difficult find high reason need try precisely job train demand probably hear hazing scandal naval base bahrain news recently terrible abusive stuff involve entire unit orchestrate allegedly head unit senior noncommissioned officer confront situation like unit courage right even know right thing easy read code conduct easy put practice especially risk lose loyalty people serve trust peer officer approval superior commanding officer see superior condone something think wrong find strength wisdom challenge unwise order question wrongheaded policy first time write letter mother slain soldier find word comfort empty formula truly formidable dilemma people ever face life let alone time start prepare way think issue morality mortality honor strength deal arise wait confront practice would like wait first firefight learn shoot weapon situation</t>
+  </si>
+  <si>
+    <t>want talk tonight strictly speak character physical law one might imagine least one talk nature one talk character physical law want talk nature rather stand relative nature want tell think know guess one guess someone suggest would ideal along would slowly explain guess law create new law right along know whether able first want tell present situation know physic think tell everything already lecture tell great principle know principle must principle something principle spoke conservation energy energy something quantum mechanical law quantum mechanical principle something principle add together still tell content nature talk tell little bit stuff principle suppose work first matter remarkably enough matter matter star make know matter earth character light emit star give kind fingerprint tell kind atom star earth kind atom appear living creature non living creature frog make goop different arrangement rock make problem simpler nothing atoms everywhere atom seem make general constitution nucleus around nucleus electron begin list part world think know one electron particle outside atom nuclei understood today make two thing call neutron proton two particle incidentally see star see atom emit light light describe particle call photon beginning speak gravitation quantum theory right gravitation kind wave behave like particle call graviton believe read gravity finally mention call beta decay neutron disintegrate proton electron neutrino alien anti neutrino another particle neutrino addition particle list course anti particle quick statement take care double number particle immediately complication particle list low energy phenomenon fact ordinary phenomenon happen everywhere universe far know exception high energy particle something laboratory able peculiar thing leave special case ordinary phenomenon presumably explain action emotion kind thing example life supposedly make understood mean understandable principle action movement atom atom make neutron proton electron must immediately say say understand principle mean think would could figure everything find nothing new physic discover order understand phenomenon light instance fact star emit energy solar energy stellar energy presumably also understood term nuclear reaction among particle kind detail way atom behave accurately describe kind model least far know present fact say range phenomenon today far know phenomenon sure explain way even deep mystery always possible instance phenomenon call super conductivity still phenomenon metal conduct electricity without resistance low temperature first obvious consequence know law particle turn think carefully enough see fact consequence know law phenomenon extrasensory perception explain know knowledge physic interest however phenomenon well establish guarantee could demonstrate course would prove physic incomplete therefore extremely interest physicist whether right wrong many many experiment exist show work astrological influence true star could affect day good dentist america kind astrology would wrong physic theory would wrong mechanism understandable principle thing would make reason skepticism among scientist regard idea hand case hypnotism first look like also would impossible describe incompletely know good realize absolutely impossible hypnosis could occur normal physiological unknown process require special new kind course today although knowledge theory outside nucleus atom seem precise complete enough sense give enough time calculate anything accurately measure turn force neutron proton constitute nucleus completely know understand well mean today today understand force neutron proton extent want give enough time computer could calculate exactly energy level carbon something like know enough although corresponding thing energy level outside electron atom nucleus nuclear force still understood well order find experimenter study phenomenon high energy hit neutron proton together high energy produce peculiar thing study peculiar thing hope understand good force neutron proton well pandora box open experiment although really want get good idea force neutron proton hit thing together hard discover particle world matter fact column plus four dozen particle dredge attempt understand four dozen put column relevant neutron proton problem interact much neutron proton get something force neutron proton get little bit much addition dredge dig mud pick couple piece want irrelevant problem nuclear force one call meson muon neutrino two kind neutrino one electron one meson incidentally amazingly law muon neutrino know far tell experimentally law behave precisely electron neutrino except mass meson time heavy electron difference know object rather curious say anymore nobody know anymore four dozen particle frightening array plus anti particle frightening array thing turn various name meson pion kaon lambda sigma four dozen particle lot name turn particle come family help little bit actually call particle last short time debate whether fact possible define existence whether particle enter debate order illustrate family idea take two part case neutron proton neutron proton mass within one time heavy electron roughly remember number thing remarkable nuclear force strong force inside nucleus force pair proton two proton proton neutron neutron neutron word strong nuclear force tell proton neutron symmetry law neutron may substitute proton without change anything provide talk strong force talk electrical force change neutron proton terrible difference proton carry electrical charge neutron electric measurement immediately see difference proton neutron symmetry replace neutron proton call approximate symmetry right strong interaction nuclear force right deep sense nature work electricity call partial symmetry struggle partial symmetry family extend turn substitution neutron proton extend substitution wider range particle accuracy still low see neutron always substitute proton approximate true electricity wider substitution discover legitimate still poor poor symmetry accurate help gather particle family thus locate place particle miss help discover new one kind game roughly guess family relation illustrative kind preliminary sparring one nature really discover deep fundamental law get deep discovery example important previous history science instance mendeleev discovery periodic table element analogous game first step complete description reason periodic table come much later atomic theory way organization knowledge nuclear level characteristic make maria mayer jensen call shell model nuclei year ago analogous game reduction complexity make approximate guess way stand today addition thing principle talk principle relativity thing must behave quantum mechanically combine relativity conservation law must local put principle together discover many inconsistent seem add quantum mechanic plus relativity plus proposition everything local plus number tacit assumption really find prejudice see hard say add together get inconsistency really get infinity various thing calculate well get infinity ever agree agree nature turn possible sweep infinity rug certain crude skill temporarily able keep calculate fact matter principle tell till put together plus tacit assumption know give trouble mutually consistent nice problem example tacit assumption know significance proposition following calculate chance every possibility probably happen happen add one add alternative get probability seem reasonable reasonable thing trouble always another proposition energy something must always positive negative another proposition probably add order get inconsistency call causality something like idea effect proceed cause actually one make model disregard proposition probability disregard causality also consistent quantum mechanic relativity locality really know exactly assume give difficulty produce infinity present situation discuss would look new law general look new law following process first guess compute well laugh really true compute consequence guess see right law guess right see would imply compare computation result nature say compare experiment experience compare directly observation see work disagree experiment wrong simple statement key science make difference beautiful guess make difference smart make guess name disagree experiment wrong true however one check little bit make sure wrong someone experiment may report incorrectly may feature experiment notice like kind dirt obviously check furthermore man compute consequence may one make guess may make mistake analysis obvious remark say disagree experiment wrong mean experiment check calculation check thing rub back forth time make sure consequence logical consequence guess fact disagree carefully check experiment give somewhat wrong impression science mean keep guess possibility compare experiment put experiment little bit weak position turn experimenter certain individual character like experiment even nobody guess yet often true experiment region people know theorist know anything nobody guess yet instance may guess law know whether really work high energy good guess work high energy experimenter say let try high energy therefore experiment produce trouble every produce discovery one thing think wrong experiment produce unexpected result start guess instance unexpected result meson neutrino guess anybody whatever discover still nobody method guessing natural thing see course method disprove definite theory definite theory real guess really compute consequence could compare experiment principle get rid theory always prove definite theory wrong notice however never prove right suppose invent good guess calculate consequence discover every consequence calculate agrees experiment theory right simply prove wrong future could wide range experiment compute wider range consequence may discover thing wrong law like newton law motion planet last long time guess law gravitation tackle kind consequence solar system compare experiment take several year slight error motion mercury develop time theory fail prove wrong could take temporarily right never prove right tomorrow experiment may succeed prove think right wrong never right sure wrong however rather remarkable last long mean idea last long incidentally people one way stop science would experiment region know law experimenter search diligently great effort exactly place seem likely prove theory wrong word try prove wrong quickly possible way find worker progress example today among ordinary low energy phenomenon know look trouble think everything right particular big program look trouble nuclear reaction superconductivity must say concentrate discover fundamental law whole range physic interesting understanding another level phenomenon like super conductivity nuclear reaction talk discover trouble something wrong fundamental law nobody know look therefore experiment today field find new law high energy must also point prove vague theory wrong guess make poorly express rather vague method use figure consequence rather vague sure say think everything due moogles moogles less sort explain work say theory good prove wrong process compute consequence indefinite little skill experimental result make look like expected consequence probably familiar field example hat mother reason course caress love enough child actually investigate find matter fact love much everything right well overindulgent young vague theory possible get either result wait cure one follow would possible say possible state ahead time much love enough much love overindulgent exactly would perfectly legitimate theory could make test usually say point much love deal psychological matter thing define precisely yes claim know anything examples horrify hear physic exactly kind approximate symmetry work something like approximate symmetry suppose perfect calculate consequence easy suppose perfect compare experiment course agree symmetry suppose expect approximate agreement pretty good say nice agreement poor say well particular thing must especially sensitive failure symmetry laugh make progress way beginning subject first new particle new jockey around feeling way guess result beginning science thing true psychology symmetry proposition physic laugh hard necessary begin careful easy fall deep end kind vague theory hard prove wrong take certain skill experience walk plank game process guess compute consequence compare experiment get stick various stage example may guess stage get stick idea guess idea may get computing stage stick example yukawa guess idea nuclear force nobody could compute consequence mathematics difficult therefore could compare experiment successfully theory remain long time discover junk junk contemplate yukawa therefore undoubtedly simple least way yukawa another place get stick experimental end example quantum theory gravitation slowly use experiment never involve quantum mechanic gravitation time gravity force weak compare electrical force want concentrate theoretical physicist delighted end problem make guess strictly say importance guess come important agree experiment definite possible say simple set machine great computing machine random wheel make succession guess time guess hypothesis nature work compute immediately consequence make comparison list experimental result end word guess dumb man job actually quite opposite try explain first problem start say start known principle principle know inconsistent something remove get lot letter people always get letter people insist ought make hole guess make hole make room new guess somebody say know people always say space continuous know get small enough dimension really enough point lot dot separate little distance say know quantum mechanical amplitude tell complicated absurd make think right maybe right get lot letter content must say remark perfectly obvious perfectly clear anybody work problem good point problem might wrong might substitute precisely place say anything precise example case continuous space suppose precise proposition space really consist series dot space mean anything dot cubic array prove immediately wrong work see problem change say something might wrong replace something easy soon real definite idea substitute become almost immediately apparent work secondly infinite number possibility simple type something like sit work hard work long time try open safe joe come along know anything anything except try open safe say know try combination busy try lot thing maybe already try maybe know middle number already maybe know matter fact five digit combination letter good please send letter try tell thing work read make sure already think take long answer usually class try usual nature imagination far surpass see theory really quite subtle deep get subtle deep guess easy one must really clever guess possible blindly machine want discuss art guess nature law art one way might think well look history guy look history let first start newton situation incomplete knowledge able get law put together idea relatively close experiment great distance observation test first work good next guy something well another man something great maxwell obtain law electricity magnetism put together law electricity due faraday people come look realize mutually inconsistent mathematically inconsistent order straighten add one term equation way invent model idle wheel gear space find new law nobody pay much attention believe idle wheel believe idle wheel today equation obtain correct logic may wrong answer right case relativity discovery relativity completely different accumulation paradox know law give inconsistent result new kind think thinking term discuss possible symmetry law especially difficult first time realize long something like newton law could right still ultimately wrong second ordinary idea time space seem instinctive could wrong quantum mechanic discover two independent way lesson even enormous number paradox discover experimentally thing absolutely could explain way know knowledge incomplete knowledge complete prediction happen two different root one schrodinger guess equation another heisenberg argue must analyze measurable two different philosophical method reduce discovery end recently discovery law interaction still partly know quite somewhat different situation time case incomplete knowledge equation guess special difficulty time experiment wrong experiment wrong guess right answer calculate result disagree experiment courage say experiment must wrong explain courage come minute today paradox maybe infinity come put law together rug sweeping people clever one sometimes think serious paradox fact particle tell anything except knowledge incomplete sure history repeat physic see list reason scheme like think symmetry law put equation mathematical form scheme guess equation know everybody try time place get stick try right away try look symmetry try thing try stick must another way next time time get log jam many problem method use like one use try right away new scheme new discovery make completely different way history help much would like talk little bit heisenberg idea talk measure lot people talk without understand well say physic talk measure mean interpret sense construct invention make talk must kind consequence compute must comparable experiment compute consequence like moo must three goo nobody know moo goo good consequence compare experiment necessary necessary moo goo appear guess perfectly right much junk guess want provide compare experiment fully appreciate usually say example people usually complain unwarranted extension idea particle pat</t>
+  </si>
+  <si>
+    <t>never really expect find give advice people graduate establishment high education never graduate establishment never even start one escape school soon could prospect four year enforced learn would become writer want stifle get world write become good writer write write nobody ever seem mind make along read write pay often commission write something else leave healthy respect fondness high education friend family attend university cure long ago look back remarkable ride sure call career career imply kind career plan never near thing list make everything want write adult novel child book comic movie record audiobook write episode doctor career next thing list thought would tell everything wish would know start thing look back suppose know would also give best piece advice would ever get completely fail follow first start career art idea great people know know rule know possible impossible rule possible impossible art make people test bound possible beyond know impossible easy nobody make rule stop anyone yet secondly idea want make put much hard sound sometimes end much easy might imagine normally thing get place want want write comic novel story film become journalist journalist allow ask question simply find world work besides thing need write write well pay learn write economically crisply sometimes adverse condition time sometimes way hope clear cut sometimes almost impossible decide whether correct thing balance goal hop feed pay debt find work settle get something work imagine want author primarily fiction make good book make good comic support word mountain distant mountain goal know long keep walk towards mountain would right truly sure could stop think whether take towards away mountain say editorial job magazine proper job would pay proper money know attractive though would walk away mountain job offer come along early might take still would close mountain time learn write write tend anything long felt like adventure stop felt like work mean life feel like work thirdly start deal problem failure need thickskinned learn every project survive freelance life life art sometimes like put message bottle desert island hop someone find one bottle open read put something bottle wash way back appreciation commission money love accept may put hundred thing every bottle wind come back problem failure problem discouragement hopelessness hunger want everything happen want thing wrong first book piece journalism money already buy electric typewriter advance bestseller pay lot money publisher involuntary liquidation first print run sell second printing royalty could pay would shrug still electric typewriter enough money pay rent couple month decide would best future write book money get money anything work proud get money least would work every forget rule whenever universe kick hard remind know issue anybody true nothing reason money ever worth except bitter experience usually wind get money either thing excite want see exist reality never let never regret time spend problem failure hard problem success hard nobody warn first problem kind even limited success unshakable conviction get away something moment discover imposter syndrome something wife amanda christen fraud police case convince would knock door man clipboard know carry clipboard head would tell catch would get real job one consist make thing write read book want read would away quietly get kind job make thing problem success real luck experience point stop say yes everything bottle throw ocean come back learn say watch peer friend one old watch miserable would listen tell could envisage world always want earn certain amount every month keep could thing matter really want seem big tragedy problem failure big problem success world conspire stop thing successful day look realise become someone professionally reply email write hobby start answer email relieve find write much fourthly hope make mistake make mistake mean something mistake useful misspell caroline letter transpose think coraline look like real name remember whatever discipline whether musician photographer fine artist cartoonist writer dancer designer whatever one thing unique ability make art many people know lifesaver ultimate lifesaver get good time get one life sometimes hard thing wrong life love business friendship health way life wrong thing get tough make good art serious husband run politician make good art leg crush eat mutated boa constrictor make good art irs trail make good art cat explode make good art somebody internet think stupid evil make good art probably thing work somehow eventually time take sting away matter best make good art make good day fifthly make art stuff urge start copy bad thing find voice sound like lot people one thing nobody else voice mind story vision write draw build play dance live moment feel possibly walk street naked expose much heart mind exist inside show much moment may start get right thing work best thing least certain story sure would either work likely kind embarrass failure people would gather together talk end time always common look back people explain inevitable success idea still would fun make something know work sometimes thing really work story mine never reprint never even leave house learn much thing work sixthly pass secret freelancer knowledge secret knowledge always good useful anyone ever plan create art people enter freelance world kind learn comic apply field people get hire somehow get hire case something day would easy check would get trouble start pre internet day seem like sensible career strategy ask editor would work lie list handful magazine sound likely sound confident get job make point honour write something magazine would list get first job actually lie would chronologically challenge get work however get work people keep work freelance world today world freelance work good easy get along deliver work time even need three two three fine people tolerate unpleasant work good deliver time forgive lateness work good like good others time always pleasure hear agree give address start try think best advice would give year come stephen king twenty year ago height success sandman write comic people love take seriously king like sandman novel terry pratchett good omen saw madness long signing line advice really great enjoy best advice get ignore instead worry worry next deadline next idea next story moment next fourteen fifteen year write something head wonder stop look around really fun wish would enjoy amazing ride part ride miss worried thing wrong come next enjoy bit hard lesson think let enjoy ride ride take remarkable unexpected place platform today one place enjoy immensely today graduate wish luck luck useful often discover harder work wisely work lucky get luck help transitional world right kind artistic field nature distribution change model creator get work world get keep roof head buy sandwich change talk people top food chain publishing bookselling area nobody know landscape look like two year let alone decade away distribution channel people build last century flux print visual artist musician creative people kind one hand intimidating immensely liberate rule assumption suppose get work see break gatekeeper leave gate creative need get work see youtube web whatever come youtube web give people watch television ever old rule crumble nobody know new rule make rule someone ask recently something think difficult case record audio book suggest pretend someone could pretend pretend someone could put notice effect studio wall say help wise world need wisdom wise pretend someone wise behave like would make interesting mistake make amazing mistake make glorious fantastic mistake break rule leave world interesting make good art</t>
+  </si>
+  <si>
+    <t>talk self renewal one fundamental task renewal organization serve usually include persuade top officer accomplish certain amount self renewal help think others primary mission morning want help think take mission seriously write say want every sentence hit target know good deal kind work know demand talk special problem kind career talk basic problem life cycle surely hit ready write book call self renewal deal decay renewal society organization individual explore question civilization die sometimes renew puzzle men woman seed others remain vital life latter question shall deal time know individual seed person seat right may fairly serious danger long ago read splendid article barnacle want give wrong impression focus reading interest sometimes day without reading barnacle much less remember read article unforgettable opening paragraph barnacle author explain confront existential decision live decide spend rest life head cement rock end quote good many come see men woman even one fortunate circumstance responsible position seem run steam midcareer one must compassionate assess reason perhaps life present tough problem could solve happen perhaps something inflict major wound confidence self esteem perhaps pull hidden resentment grievance grow adult life sometimes luxuriantly like tangle vine immobilize victim know people feel secretly defeat maybe somewhat sour cynical perhaps vaguely dispirit maybe run hard long somewhere along line forget run talk people fail get top achievement get top point life anyway talk people matter busy seem stop learn grow many motion deride life hard keep keep sometimes act courage worry men woman function far level potential face fact men woman world work stale know bore would care admit boredom secret ailment large scale organization someone say day bored busy say let count way logan pearsall smith say boredom rise level mystical experience true know busy middle level executive among great mystic time write danger complacency grow rigidity imprisonment comfortable habit opinion look around many people know well people even young already trap fixed attitude habit famous french writer say people whose clock stop certain point life could without trouble name half dozen national figure resident washington would recognize could tell roughly year clock stop still deal periodically watch lot mid career people yogi berra say observe lot watch conclude people enjoy learn grow many dearly trouble self assessment mid career self assessment great problem age young move drama rise enough reach middle age energy use begin wonder add begin look figure carpet life simple advice begin process hard look ahead someone say life art draw without eraser imagine story life lot chapter conscious danger seed resort countervail measure almost age need run like unwound clock clock unwound wind stay alive every sense word fail physically know pretty successful people feel possible life trap really know life take unexpected turn say book self renewal build prison serve jail keeper longer completely agree still think jailkeepers conclude parent society large hand build prison create role self image hold captive long time individual intent self renewal deal ghost past memory early failure remnant childhood drama rebellion accumulate grievance resentment long outlive cause sometimes people cling ghost something almost approaching pleasure hampering effect growth inescapable jim whitaker climb mount everest say never conquer mountain conquer see human live believe business grow much longer draw pretend achieve even well parent teenager say sorry myth learning young people proverb say learn know count middle year great great learning year even year past middle year take new job birthday still learn learn life learn failure learn success hit spell trouble ask try teach lesson always happy one keep come bad idea pause occasionally inward look midlife accomplished fugitive learn job friend family learn accept commitment life play role life hand necessarily role would choose learn grow old suffer love bear thing change take risk thing learn maturity simple thing acquire information skill learn engage self destructive behavior lean burn energy anxiety discover manage tension learn self pity resentment among toxic drug find world love talent pay character come understand people neither think learn matter hard try please people world love lesson first troubling really quite relax thing hard learn early life rule pick mileage dent fender understand norman douglas say thing learn others pass fire come term finally grasp behrman mean say end every road meet may get rid hang ups learn control point function productively hurt others learn art mutual dependence meet need loved one let need even unaffected quality often take year acquire achieve simplicity lie beyond sophistication come understand impact others interest even first year life learn impact variety others late middle age many people imperfect understanding impact others hostile person keep ask people hard get along measure create environment may yet grasp power truth change life course failure part story everyone fail joe louis say everyone figure get beat time question fail pick move ahead one little question collaborate defeat lot people learn one enemy sound lifelong motivation rather childish conception kind concrete describable goal toward effort drive want believe point feel arrive want scoring system tell pile enough point count successful scramble sweat climb reach think goal get top stand look around chance feel little empty maybe little empty wonder whether climb wrong mountain life mountain summit suppose riddle answer game final score life endless unfolding wish endless process self discovery endless unpredictable dialogue potentiality life situation find potentiality mean intellectual gift full range one capacity learn sense wonder understanding loving aspire perhaps imagine age even explore potentiality pretty fully kid thing understand capacity actually develop full come result interplay life challenge challenge keep change life pull thing something know may may know within resource energy ever tap talent ever exploit strength ever test give ever give know gift leave undeveloped would believe gift possibility even know true begin recognize even every advantage opportunity unconsciously put ceiling growth underestimate potentiality hide risk growth involve discuss renewal length possible talk renewal without touch subject motivation someone define horse sense good judgment horse prevent bet people bet people place bet often high motivation quality except judgment perfection technique substitute lift spirit heighten performance come strong motivation world move highly motivate people enthusiast men woman want something much believe much talk anything narrow ambition ambition eventually wear probably keep zest day die may offer simple maxim interest everyone want interesting vitalizing thing interested keep sense curiosity discover new thing care risk failure reach nature one personal commitment powerful element renewal let say word subject live house could look window work desk observe small herd cattle browse neighboring field strike thought must occur early herdsman ten thousand year ago never get impression cow nervous breakdown puzzle meaning life human never master kind complacency worrier puzzler want mean life speak idealistically state plainly observable fact men woman rare person life like homeless alley cat live day day take pleasure die unnoticed say know alley cat norm way build robert louis stevenson say old young last cruise want mean something many life vale tear one free pain design cope live context mean give powerful help draw deep spring human spirit see suffer framework human suffering accept gift life thanks endure life indignity dignity stable period history meaning supply context coherent community traditionally prescribed pattern culture today count heritage build mean life build commitment whether religion ethical order conceive life work love one fellow human young people run around search identity hand free transient rootless pluralistic society identity commit may mean good job whatever men woman make world better kind people kind commitment gift kindness courage loyalty integrity matter little whether behind wheel truck run country store bring family must pause say word statement men woman make world better kind people first write sentence year ago widely quote one day look mail order gift catalogue include small ornamental bronze plaque brief saying one saying one read name author well overcome idea sentence mine cast bronze order could figure world finally send friend tend think youth active middle year year commitment get little old tell earn right think deadly prescription people every age need commitment beyond self need meaning commitment provide self preoccupation prison every self absorb person finally know commitment large purpose get prison another significant ingredient motivation one attitude toward future optimism unfashionable today particularly among intellectual everyone make fun someone say pessimist get way financing optimist pessimistic advise fellow say would pessimist would never work tell renewal tough minded optimism best future shape people really believe future men woman vitality always prepare bet future even life venture unknown outcome look leap would still crouch cave sketch animal picture wall say tough mind optimism high hope dash first failure precisely need believe must suppose path easy tough life painful rain fall churchill pessimist say nothing offer blood toil tear sweat great deal offer good leader say easy also say something great leader say constantly failure simply reason strengthen resolve dream utopia arrangement ideal everyone flawless life tumultuous endless losing regaining balance continuous struggle never assured victory nothing ever finally safe every important battle fight fought need develop resilient indomitable morale enable face reality still strive every ounce energy prevail may wonder struggle endless uncertain outcome human bear history suggest human spirit well fit cope kind world remember mention earlier myth learning young people want give example piece write reader digest long ago give seem particularly interesting true example renewal man question year old adult life lose struggle debt misfortune military service receive battlefield injury deny use left arm seize hold captivity five year later hold two government job succeed neither prison first time prison decide write book drive heaven know motive boredom hope gain emotional release creative impulse say book turn one great ever write book enthral world ever year prisoner cervantes book quixote another example pope john xxiii serious man find lot laugh son peasant farmer say italy three road poverty drinking gambling fan family choose slow three someone ask many people work vatican say half year old elect pope lifetime bureaucracy spark spirit imagination remain undimmed reach top launch vigorous renewal church know century still another example winston churchill age correspondent boer war become prisoner war dramatic escape make national hero elect parliament perform brilliantly hold high cabinet post distinction become first lord admiralty discredit unjustly believe dardanelles expedition defeat gallipoli lose admiralty post follow year ups often verdict brilliant erratic steady dependable blame friend describe man jaywalk life moment flower come someone say right late bloomer miss flower show churchill miss well give example give hope clear door opportunity really close long reasonably healthy mean opportunity high status opportunity grow enrich life every dimension know ahead remember word bronze plaque men woman make world better kind people kind person would worth year living learn many year ago conclude speech paragraph meaning life speech reprint year year later final paragraph come back rather dramatic way really heartbreaking way man write colorado say year old daughter kill auto accident week carry billfold paragraph speech mine say grateful paragraph fact keep close tell something might otherwise know value concern imagine come across paragraph mean something stumble across like answer riddle prize treasure hunt meaning something build life build past affection loyalties experience humankind pass talent understand thing believe thing people love value willing sacrifice something ingredient one put together unique pattern life let life dignity meaning particular balance success failure less account</t>
+  </si>
+  <si>
+    <t>writer write book profession course also great lifelong love fascination expect ever change say something kind peculiar happen recently life career cause recalibrate whole relationship work peculiar thing recently write book memoir call eat pray love decidedly unlike previous book world reason become big mega sensation international bestseller thing result everywhere people treat like doom seriously doom doom like come worry say afraid never able top afraid keep write whole life never create book anybody world care ever reassure know would bad except happen remember year ago teenager first start tell people want writer meet sort fear base reaction people would say afraid never success afraid humiliation rejection kill afraid work whole life craft nothing ever come die scrap heap broken dream mouth fill bitter ash failure answer short answer question yes yes afraid thing always afraid many many thing besides people even guess like seaweed thing scary come write thing sort think lately wonder lately know rational logical anybody expect afraid work feel put earth specifically creative venture seem make really nervous mental health way career kind know like dad example chemical engineer recall year chemical engineering anybody ask afraid chemical engineer know chemical engineering block john come like know fair chemical engineer group really earn reputation century alcoholic manic depressive writers kind reputation writer creative people across genre seem reputation enormously mentally unstable look grim death count century alone really magnificent creative mind die young often hand know even one literally commit suicide seem really undone gift know norman mailer die last interview say every one book kill little extraordinary statement make life work even blink hear somebody say hear kind stuff long somehow completely internalize accept collectively notion creativity suffering somehow inherently link artistry end always ultimately lead anguish question want ask everybody today guy cool idea comfortable look even inch away know comfortable assumption think odious also think dangerous want see perpetuate next century think good encourage great creative mind live definitely know case situation would dangerous start sort leak dark path assumption particularly give circumstance right career pretty young year old still maybe another four decade work leave exceedingly likely anything write point forward judge world work come freakish success last book right put bluntly sort friend exceedingly likely great success behind jesus thought kind thought could lead person start drink gin nine clock morning want would prefer keep work love question become seem upon lot reflection way work order continue write create sort protective psychological construct sort find way safe distance write natural anxiety reaction writing look last year model sort look across time try find society see might well sane idea help creative people sort manage inherent emotional risk creativity search lead ancient greece ancient rome stay circle around back ancient greece ancient rome people happen believe creativity come human people believe creativity divine attendant spirit come human distant unknowable source distant unknowable reason greek famously call divine attendant spirit creativity daemon socrates famously believe daemon speak wisdom afar roman idea call sort disembodied creative spirit genius great roman actually think genius particularly clever individual believe genius sort magical divine entity believe literally live wall artist studio kind like dobby house elf would come sort invisibly assist artist work would shape outcome work brilliant right distance talk psychological construct protect result work everyone know function right ancient artist protect certain thing like example much narcissism right work brilliant could take credit everybody know disembody genius help work bomb entirely fault know everyone know genius kind lame people think creativity west really long time renaissance come everything change big idea big idea let put individual human center universe god mystery room mystical creature take dictation divine beginning rational humanism people start believe creativity come completely self individual first time history start hear people refer artist genius rather genius get tell think huge error think allow somebody one mere person believe like vessel know like font essence source divine creative unknowable eternal mystery smidge much responsibility put one fragile human psyche like ask somebody swallow sun completely warps distorts ego create unmanageable expectation performance think pressure kill artist last year true think true question become differently maybe back ancient understand relationship human creative mystery maybe maybe erase year rational humanistic thought one minute speech probably people audience would raise really legitimate scientific suspicion notion basically fairy follow people around rub fairy juice project stuff probably bring along question kind want pose know think way make much sense anything else ever hear term explain utter madden capriciousness creative process process anybody ever try make something say basically everyone know always behave rationally fact sometimes feel downright paranormal encounter recently meet extraordinary american poet ruth stone poet entire life tell grow rural virginia would work field say would feel hear poem come landscape say like thunderous train air would come barrel landscape felt come would shake earth foot know one thing point word run like hell would run like hell house would get chase poem whole deal get piece paper pencil fast enough thunder could collect grab page time would fast enough would run run would get house poem would barrel would miss say would continue across landscape look put another poet time piece never forget say moment would almost miss right run house look paper poem pass grab pencil say like would reach hand would catch would catch poem tail would pull backwards body transcribe page instance poem would come page perfect intact backwards last word first creative process pipeline mule way work get time every day sweat labor barrel really awkwardly even mulishness even brush thing time would imagine lot know even work idea come source honestly identify thing relate way make lose mind fact might actually keep sane best contemporary example musician tom wait get interview several year ago magazine assignment talk know tom life pretty much embodiment tormented contemporary modern artist try control manage dominate sort uncontrollable creative impulse totally internalize get old get calm one day drive freeway los angeles change speed along sudden hear little fragment melody come head inspiration often come elusive tantalizing want gorgeous long way get piece paper pencil tape recorder start feel old anxiety start rise like lose thing haunt song forever good enough instead panic stop stop whole mental process something completely novel look sky say excuse see drive look like write song right really want exist come back opportune moment take care otherwise bother somebody else today bother leonard cohen whole work process change work work still oftentimes dark ever process heavy anxiety around release take genie genius cause nothing trouble release back come realize internalized tormented thing could peculiar wondrous bizarre collaboration kind conversation tom strange external thing quite tom hear story start shift little bit way work idea already save save middle write eat pray love fell one sort pit despair fall work something come start think disaster bad book ever write bad bad book ever write start think dump project remember tom talk open air try lift face manuscript direct comment empty corner room say aloud listen thing know book brilliant entirely fault right see put everything want good get show part deal know hell keep write anyway job would please like record reflect today show part job end like century ago desert north africa people use gather moonlight dance sacred dance music would hour hour dawn always magnificent dancer professional terrific right every rarely something would happen one performer would actually become transcendent know know talk know see point life performance like like time would stop dancer would sort step kind portal anything different ever night everything would align sudden would longer appear merely human would light within light light fire divinity happen back people know know call name would put hand together would start chant allah allah allah god god god god know curious historical footnote moor invade southern spain take custom pronunciation change century allah allah allah still hear bullfight flamenco dance spain performer something impossible magic allah allah magnificent bravo incomprehensible glimpse god great need tricky bit come next morning dancer wake discovers tuesday longer glimpse god age mortal really bad knee maybe never ascend height maybe nobody ever chant god name spin rest life hard one painful reconciliation make creative life maybe quite full anguish never happen believe first place extraordinary aspect come maybe believe loan unimaginable source exquisite portion life pass along finish somebody else know think way start change everything start think certainly think last month work book soon publish dangerously frighteningly anticipate follow freakish success sort keep tell get really psyched afraid daunt job continue show piece whatever might job dance dance divine cockeyed genius assign case decide let sort wonderment glimpse one moment effort dance anyhow nonetheless believe feel must teach nonetheless sheer human love stubbornness keep show thank</t>
+  </si>
+  <si>
+    <t>several year ago bring face face disturbing realization try supervise direct effort large number men woman try achieve success without know secret success really naturally bring face face realization regardless knowledge might bring job definitely lack important knowledge course like bring popular belief secret success hard work see many people work hard without succeed many people succeed without work hard become convinced hard work real secret even though case might one requirement set voyage discovery carry biography autobiography sort dissertation success life successful individual finally reach point realize secret try discover lay individual also make realize far secret search must apply every definition success since must apply everyone offer must also apply everyone ever successful short look common denominator success exactly look exactly find common denominator success big powerful vitally important future mine make speech lay line word one syllable simple everyone understand common denominator success secret success every individual ever successful lie fact form habit thing failure like true sound simple seem hold light put acid test kick around wear still common denominator success whether like still explain individual come business every apparent qualification success give disappointing failure others come achieve outstanding success spite many obvious handicap since also explain future would seem mighty good idea use determine sort future word let take big embrace secret boil fit individual secret success lie form habit thing failure like let start boil process determine thing failure like thing failure like thing human include successful people naturally like word get realize right start success something achieve minority people therefore unnatural achieve follow natural like dislike guide natural preference prejudice thing failure like general many obvious discuss since success achieve sale life insurance let move discussion thing life insurance agent like thing like many permit specific discussion think dispose say emanate one basic dislike peculiar type sell like call people want see talk something want talk reluctance follow prospecting program use prepared sale talk organize time organize effort cause one basic dislike perhaps wonder behind peculiar lack welcome pan prospective buyer due fact prospect human true average human big enough buy life insurance accord therefore prone escape effort make big persuade something want strike important weakness possess namely desire appreciate perhaps discourage feeling bear subject certain dislike peculiar successful agent business afflict perhaps wonder big producer seem like thing like think encouraging statement ever offer group life insurance agent like thing thing like accomplish thing want accomplish successful people influence desire please result failure influence desire please method include satis result obtain thing like successful people able thing like failure successful people purpose strong enough make form habit thing like order accomplish purpose want accomplish sometimes even best producer get slump people slump simply mean reach point time thing like become important reason may pause suggest manager agent one good producer slump less talk production talk purpose sooner pull agent slump many people discuss common denominator success say point family support make living family enough purpose sufficiently strong purpose make form habit thing like simple reason easy adjust hardship poor living adjust hardship make good one doubt think thing willing without order avoid thing like seem prove strength hold purpose strength strength purpose let see habit belongs importantly common denominator success people creature habit machine creature momentum habit nothing less momentum translate concrete abstract picture problem would face mechanical engineer thing momentum speed would impossible high speed vehicle could move would first speed could break away standstill elevator could make rise airplane could make fly entire world mechanic would find total state helplessness think human nature fine engineer world could fine machinery ever build every single qualification success acquire habit people form habit habit form future deliberately form good habit unconsciously form bad one kind person form habit kind person way change habit success habit life insurance selling divide four main group prospect habit call habit sell habit work habit let discuss habit group order successful life insurance agent tell easy sell life insurance people want find people want deliberately form habit prospect need regardless want unconsciously form habit limit prospecting people want life insurance therein lie one real reason lack prospect call habit unless deliberately form habit call people able buy unwilling listen unconsciously form habit call people willing listen unable buy sell habit unless deliberately form habit call prospect determine make see reason buy life insurance unconsciously form habit call prospect state mind willing let make see reason buy work habit take care three group work habit generally take care work habit include study preparation organization time effort record analysis etc certainly take trouble learn interest arouse approach sale talk unless use plan day work know heart carry plan certainly keep honest record thing result achieve let worry much fourth group success habit take care first three group work habit take care able afford secretary take care rest decide adopt success habit let warn importance habit decision attend many sale meeting sale congress past ten year often wonder spite fact much good many people seem get little last good perhaps attend sale meeting past leave meeting determine thing would make successful successful find decision determination waning time put effect practice answer resolution decision make simply promise worth tinker damn form habit make keep form habit make keep unless right start link definite purpose accomplish keep word resolution decision make today make tomorrow next day next next make day kept day miss one day making keep get back begin continue process make morning keep day finally wake morning different person different world wonder happen world use live happen resolution decision become habit make particular morning reason seem like different person living different world lie fact first time life control control like dislike surrender purpose life behind every success must purpose make purpose important future last analysis future depend economic condition outside influence circumstance control future depend purpose life let talk purpose first purpose must practical visionary time ago talk woman think purpose important income interested people suffer want place position alleviate suffer analyze real feeling discover admit really want real nice job dispense charity people money well pay along appreciation feeling importance would naturally job make purpose practical careful make logical make purpose sentimental emotional type remember need logical want desire sentimental emotional need push far need satis stop push however purpose term want desire want desire fulfil recently talk young man long ago discover common denominator success without identify discovery definite purpose life definitely sentimental emotional purpose want child college without work way want wife mother child enjoy luxury comfort even necessity deny mother willing form habit thing like order accomplish purpose discourage rather encourage say little far thing logical reason child willing able work way college father course miss many thing miss college life probably heartache disappointment good come end logical reason slave order wife enjoy comfort luxury mother never look rather pitying look say gray inspiration logic courage logic even happiness logic satisfaction place logic life realization willing family shall able imagine hear story tell find purpose identify surrender big purpose big accomplishment unselfish purpose unselfish accomplish honest purpose honest honorable accomplishment long live ever forget may succeed beyond fond hope great expectation never succeed beyond purpose willing surrender furthermore surrender complete form habit thing failure like</t>
+  </si>
+  <si>
+    <t>thanks believe think give particular presentation decade talk administration inspire study story three people might call luminary probably hero mine read notice overlap pattern amongst talk many people room hear phrase dream job raise hand right everybody hear phrase know mean mean chase career immense passion partner kevin harvey phrase love say life use lose proposition human take one career path get one shot make happy way one reason audience want thank audience want presentation first think come mba program amazingly unique opportunity undergrad degree work little bit chance whatever want amazing pivot point opportune audience obviously want come back texas thank first start tell three story luminary walk five guideline infer special story end well start orville ohio anyone know company found orville give buck anybody know smucker nothing presentation first gentleman talk guy name robert montgomery grow orville town look like attend orville high school three sport letter man baseball football basketball lucky enough one neighbor know coach fred taylor ohio state able get spot really good basketball team robert number point guard peer huddle fred taylor coach ohio state time robert starter come bench get ton minute team john havlicek john cuzzie sophomore year win national championship play national championship junior senior year two player mention onto nba robert coach spend first year coach high school finagle way onto staff army assistant army black knight play gillis field house head coach retire beg job sign contract become head coach school end make robert successful point view happen inside four wall gym practice every day outside first five year coach career befriend five top basketball mind east coast red auerbach havlicek boston red coach time able build relationship joe lapchick clair bee coach long island university best record coach basketball hall fame robert meet clair robert drove clair clair induction basketball hall fame sit next next one henry iba coach year oklahoma state time probably one successful basketball coach time evert dean indiana meet become friend two lapchick iba coach luncheon know beg say sit next meet keep follow hang year later meet pete newell pete great basketball mind west coast time become fast friend year later pete would induct robert basketball hall fame limit peer network basketball coach meet football coach well coach cincinnati bengal schembechler would coach michigan assistant basketball team army meet bill parcells around time way bill become star national league doc counsilman long time swim coach indiana also someone robert become friend use name robert obscure thing little bit talk bobby knight age bobby knight become head coach indiana university five year later undefeated regular season post season win national championship never repeat since four decade indiana would win three national championship four coach year awards big title retire victory coach time say pete newell inducted bobby hall fame move onto next story circle back see start hibbing minnesota two three hour north minnesota another robert robert zimmerman grow hibbing hibbing look like young even though pretty far north minnesota bit urban environment robert love music early photo get drum get guitar year old high school play band regularly use cover elvis little richard yearbook say likely join little richard happen happen university minnesota class hang place call dinky town photo right time late early lot new stuff happen even though grow play rock roll fell love folk music would say eight nine month study every folk album possibly could lot money back time could walk record store listen booth would hour hour hour become friends people also like folk music money would house listen record collection even accuse borrow record return point controversy even still today next thing happen think one ambitious action anyone know take pursue dream job hitch hike minneapolis new york city guitar suitcase mile ask today talk little bit chase performer dave van ronk peggy seeger new lose city rambler people listen minnesota people new york city want see really one person want see woody guthrie woody guthrie become hero wikipedia find know already new york find woody guthrie pursuit come affection love way woody play want know everything possibly could new york find woody guthrie use perform start hang three venue caf wha gaslight caf gerde folk city epicenter folk music time would sit venue hour upon hour study artist year later liam clancy would say could perform one song like include tonality tempo everything mimic study study study get big break ask open john lee hooker gerde one day career get start gentleman joe hammond producer aretha franklin billie holiday count basie one day walk find gentleman think something like next year robert zimmerman change name bob dylan john release first album album okay release freewheeling bob dylan album number number one everything race perform march washington joan baez martin luther king speak famous speech year later perform first time johnny cash another one hero johnny give guitar ask could record several song johnny ask bob could record song rest history say million album sell grammys oscar emmy introduce rock roll hall fame take whole new level kennedy center award clinton barack obama give medal freedom top something never win nobel prize literature musician ever give award happen two year ago amaze story right one know well equally inspire saint louis missouri person time name daniel grow saint louis father intelligence officer military move around europe quite bit war end father become travel agent mother work travel quite bit travel agent mom tell journal everything force vacation take note interested travel love food back look journal note always take always food eat wherever start associate different place food john borough high school saint louis end trinity college connecticut would spend every weekend new york city eat food passionate get poly sci major work campaign year interest back new york robert zimmerman chase folk music danny chase food personal life could different restaurant explore work check point make thing attach clothes store walk beeper early check point life incredibly well within year make year salesman spend food new york city one night eat uncle aunt grandmother elio restaurant open tell study lsat take lsat next year career ladder become lawyer uncle reply stop open restaurant know suppose catch little guard wake next day take lsat never send score single school never apply single school quit job salesman work restaurant call pesca front office year take salary reduction reason choose pesca chef come chef call michael romano want around gentleman would work day front office night would beg slop work kitchen could get exposure happen also take wine class night meet gentleman happen head one top restaurant critic new york time start hang together different restaurant talk learn something really interesting make list icon restaurant industry new people innovative thing around open new high end restaurant wolfgang puck first one different lot people celebrity chef show today start study create notebook every one make special unique start look recipe get even bold decide europe take every single one connection restaurant industry travel industry parent plus trinity would tour europe parent lot connection look presentation stagiaire think fancy french word work restaurant free one restaurant work pay month run math equal negative thousand year salary make upside think would study every one place every one restaurant watch chef watch recipe source trip see pick food market different fish market take ton note look cor look wine list way home nine month journey say take entire eight half hour flight organize note get back new york spend another six seven month search hundred location find best location launch first restaurant year old open union square caf danny meyer might know love quote proud study studying trinity college view best work ever student union square caf still open today time zagat say best restaurant new york danny meyer would launch high end restaurant new york city four win michelin star undisputed king high end restaurant new york city lot restaurant danny would open area need gentrification philosophy could build restaurant could become bespoke place people community would evolve would get lift alongside typically would look area rise need help one area need lot help madison square park far union square bunch business people help launch madison square conservancy rebuild park year happen start improve park decision make allow restaurant center park apply get bid win location first shake shack later something see work launch first shake shack first shake shack look like want eat look like open always line get know danny open table board work together decade use tell keep secret single venue make way profit white table cloth restaurant course fast forward today shake shack around world take shake shack public nysc worth billion think one austin correct three story read independently notice similar strain run every one story organize want talk first one one provide least amount help know passion first piece advice would find passion pick profession deep personal interest nothing make successful love work hard anybody else feel like work feel like fun think important decision possibly make career make sure immense passion personal passion parent sister family generation expectation need something might passionate thing parent run need know something also mention status compensation lot high profile career make lot money generally perceive area successful people run thing passion burn eventually want last point fake somebody else sit mba program deep passion whatever career path smoke one favorite quote bobby knight say everybody win people practice think test whether actually pursue dream job essence would consider study work practice enjoy part enjoy preparation everybody enjoy win enjoy preparation second five guideline would hone craft constantly extremely important obsessive understand everything possibly craft consider obligation hold accountable require keep learning time study history know pioneer bedrock foundation build upon help network able talk language people come strive know everyone else particular craft subgroup mean let say love sport let say decide multiplayer game sport like grow game love right within first six month program knowledgeable person mccombs sport doable able end first year top five mba student hopefully exit second year number one mba student mean best sport person world separate everyone else make smart bright quite doable knowledgeable possible gather information somebody else especially today lastly bit caveat depend chase might want epicenter reason networking available great people next two bullet point tie interesting story bobby knight biography second time meet pete newell walk room guy like pete newell one famous basketball coach ever walk room play diagram three five card sit middle floor say hey pete come know audacious brilliant people would consider top get number one mentor possibly find make amount tedious work pete learn interest quote movie direction home martin scorsese dylan really highlight point try drive home people would think bob dylan folk singer probably dna get lucky something study use word musical expeditionary look expeditionary expedition travel scientific research exploration dylan one know folk music break know anybody another guy minneapolis know call sponge ruthlessness way dylan find source use move constantly gather information put repertoire read danny book want drive home point study see huge fan danny get marker one genuine human ever meet restaurant new york call blue smoke actually barbecue place think launch say barbecue within mile radius austin texas hill country lie five town revere distinctly different style barbecue element barbecue limit ribs brisket pull pork chop mince pork sausage chicken coleslaw bean handful side become american culinary language thousand dialect accent try understand variation one hour road trip north carolina taste variation chopped pork define subtle dramatic difference texture degree type smoke use amount tomato vinegar sauce much heat apply meat well much little crackling get chop toss level detail think food really like one shake shack soon win bid richard corrine enthusiastic researcher road food set study burger shake stand country start course ted drew steak shake saint lewis grow eat continue kansas city individually make stop michigan culver los angeles burger napa taylor automatic refresher chicago gold coast dog plus eight establishment connecticut names three four always search best breed research shake shack think drive home point like understand anybody else bit aside anybody know painting painting call first communion paint pablo picasso year old people think bring tell picasso first art class look cubism picture someone say seven year old could know picasso trained classic artist master time spend time study way would set great painter world make statement greatness random earned research something lucky day information freely available internet good news bad news zero excuse knowledgeable subject want right fingertip free excellent three develop mentor field know ever dare aggressive dylan hitch hike mile find mentor might type attitude want think back mind pursue mentor take every chance find somebody teach field want excel work way stack jump straight top day one treat respect debate thing learn document hear share others try get mentor interest development send note tell use advice successful send gift accomplishment get buy one reason american idol work start vote cheer somebody sudden feel like part process right get feel way success mentor thing never stop get keep pursue remarkable fortune year year investor meet stan druckenmiller howard mark two people admire long time read everything write time speak get sit couple hour talk invest awesome thing push change action take today work would already walk example every one three luminary mentor important funny story last week prepare presentation reread danny book back notion make list people consider icon industry texted say danny many icon end establish relationship send emoji back thrill know use emojis tell four become close personal friend think document point make search mentor lean mentor never end task four embrace peer field develop relationship discussion argument way learn way idea get share way hone innovate idea one thing wish someone tell get mba school everybody say network network network think social activity think tell need develop social skill want randomly talk people similar interest come realize connect people overlap able help along way along journey always share best practice worry give proprietary knowledge good trade smart get catch worry fail advance activity share mentor peer lead many positive thing help whatever negative cost come anywhere close celebrate peer accomplishment cheer send note happy come back spade lastly peer need exact field bobby knight sit swim coach get knowledge entrepreneur work ceos find interesting conference topic little bit far away get innovative idea bring back field close spread know way suppose network online certainly linkedin profile certainly connect people give one piece advice would little stingy link rule want link people would call trust advice search candidate want reference something get random answer get people know use think people proliferate linkedin account yesterday think much incredible resource alternative twitter twitter amazing networking learning network ever build someone pursue dream job chase group mentor peer remarkable give field top expert field twitter share idea connect follow personal feed get lucky enough say something find interest might follow reason become super interesting unlocks direct message sudden communicate directly electronically whenever want individual powerful use twitter miss even share anymore last one obvious people always give majority credit people help along way one right thing two keep asshole successful find great right thing send letter send gift anytime accomplish something career take time send message back people help tell personal story quite serious help reinforce favorite professor jim fredrickson many know pass away year along way along journey three four time take time write letter send note send gift tell impact pass anxiety like get chance tell take chance tell would encourage guy type stuff along way lastly eventually get pay back become mentor people start reach make sure take time example bobby knight shortly one session pete newell next year indiana play one pete team end tournament together bobby use stuff pete teach beat pete field recall notion book say know pete willing get everybody else let show statistically little bit impact bobby later career wikipedia bobby former player coach either nba former coach coach nba immense legacy people develop successful deep deep basketball fan room know point guard army none mike krzyzewski one two people pass career win krzyzewski ask bobby knight induct hall fame move video watch youtube interested danny probably wonderful human certainly one wonderful human ever meet life talk graciousness evident every single thing talk people treat staff book worth read get chance see huge fan tell two story time reason want talk mba class bec</t>
+  </si>
+  <si>
+    <t>first lecture orientation try purpose course prepare technical future really course technical content although talk digital filler kind thing thing presumably know concern style study great scientist ever since los alamo war different significant thing mainly manner style many person know worked hard others much show problem instill something call style amount something navy pay large sum money want money back late performance examine criticize talk various people style mainly people use many thing tell wish somebody tell find course normal technical course topic never tell class course teach way large amount fall try pick style put word approach particular example let infer belief probably anything talk back socrates plato aristotle early greek time think could talk god truth beauty justice love thing time say thing mystery cult greece say must experience talk remember middle age various saint say talk god get experience way mohammedan allah portray put picture must sense long minuscule say put everything word one style really say mean give example struggle hopefully get idea effective course like find talk make abstract remark sound like many pious word talk maybe penetrate give course attitude brag always talk tell several mistake make sort thing similarly get quit modesty get individually respond challenge great say yes guy hammond become great scientist become great person get say want worth effort try something average person speak teacher really coach run mile four minute mile comment upon style know must work way make great scientist criticize style thing mere word make great scientist run four minute mile must work mean take hear read think carefully discuss friend see adapt one style successful painter paint many different style find style fit mean take fragment people use adapt become copy directly get away use analogy paint example paint learn color mixing form sketching study master temporarily accept know talk well limit know copy master style exactly great painter know also paint style late future want different style thus tell style use past style cope future must manufacturer style make significant person future easy talk past one make reference possible future one problem face would make successful start predecessor get successful thing could get successful another practice difficult build laboratory look around since already interested make great scientist look look become famous look difficult tend easy problem find course time couple hole leave fundamentally easy problem generation somewhat hard one leave others harder still every generation difficulty stand shoulder extent yet task hard get man moon next real good foot space gon lot hard therefore difficulty definite come bell lab four time come time age within year probably call four young turk many many year later discover top management call troublemaker thing way previous generation new thing previous generation like thing right example bos henry boda network theory make reputation network complex variable know thing make famous guy ham come keep use compute machine way eye thing need lesson want get across regularly suppose successful rise top would please remember make great appropriate next generation know get great great thing may appropriate next generation often troubled boss know god way get top must right often wrong want think seriously rise top method success appropriate world change want talk education education thing train year course train try talk education part easy school allow great deal latitude put course together concentrate education one without much good able technical people report apply technology method wrong problem undone people kind theory could anything use either need theory guide skill technique one without good certain sense engage meta education talk education constantly educate constantly future say constantly try project forward world gon like let look back first history modern era science engineering begin sir isaac newton roughly bear christmas day year galileo die live say around newton time double knowledge every year double period science roughly bell laboratory try shrink war size people watch year management put hiring freeze everything else like double every year small wiggle hire two people keep expand knowledge publication book journal example think number guess make digression thing situation scientist ever live alive common statement turn back envelope calculation learn watch family people shockley people use get lunch suppose first exponential growth number scientist come differential equation rate change proportional much solution know exponential growth assume amount knowledge generate proportional number scientist amount rate year ago much generate put minus infinity matter low limit put small matter exponential small care well would simply work would integration come statement half stuff double every year year ago double say ratio half get farm formula take statement scientist ever live alive back year take lifetime scientist probably mean living scientist two year old probably mean science alive become begin scientist decay somewhere deserve sign year reasonable number put whole scientist ever live come use come close enough let see happen get clear idea talk answer question think mean lifetime scientist see two statement compatible double every year scientist ever live alive see enormous growth science newton time well let project well let say good estimate number various branch science develop newton time one thing call natural philosophy lot specialty something like specialty certainly almost certainly less good number could check forward double every year year million fold would make million field especially believe believe year billion field specialty consequently science way next year doubling growth one thing get exponential number people field either everyone would scientist know past good guide future reason want put back envelope widely use observe fairmi shockley use eat lunch back envelope saw also two thing put thing firmer mind show calculation may retain little long plus give practice quick modeling nobody pretend really accurate pretend exactly number somewhere around back envelope calculation useful find useful hear thing something else radio read newspaper quick modeling ask number possible frequently two thing emerge either possible even know talk make model father fail tell talk give spectacular answer back envelope modeling big help double business serious one live life fact put table double year triple four five six seven eight nine ten time year something like hey read one way ask time retirement look column much knowledge much time way face rather horrendous future another way look suppose child bear child college four time much knowledge mathematical theorem record beethoven ninth ski channel read listen four time much knowledge poor child face remember hit college much seem surprised child somewhat disoriented god know sometimes disorient mean furthermore double double occurs bad last period almost half half episode occur last doubling period cause saturation saturation come quite rapidly another way look double simply table disconcert think chief staff say year say year five time much knowledge need run navy need face answer answer learn learn thing could thing become obsolete something like half teach love course obsolete year either longer replace something else consider live come bell laboratory run back due important part start mathematical background study light engineering back tube song year begin eat physic department ate guy perfect start develop engineering side transistor great deal calculation transistor absolutely need knowledge know see could long walk friend office keep around show suit vacuum tube see often say well original transistor roll tin three leg minimalist ship side los alamo calculate bomb design really calculus probably average maybe operation second maybe second half round clock six half day week month sometimes three month typically month get one solution punch modern machine boop boop answer live tremendous change furthermore educate mathematician certainly course numerical analysis never know computer know little physic los alamo teach fundamentally bell lab believe compute understand nature problem learn something breadth physical science chemistry well lot physic social science little bit biological science laboratory department sub social science spend lifetime get background knowledge something background knowledge enough penetrate jargon talk extensively late date one thing could try claim fundamental glib ask mean fundamental well two criterion adequate one fundamental derive rest field secondly around time fundamental application vacuum tube count true formula gain trouble name frequently come pretty soon nyquist formula still good game form use back tube still useful although apply thing feedback still lot thing need discuss science versus engineering science know know science science suppose exploration know engineering unless know well nothing pure science involve great deal engineering engineering involve great deal new material great blend painful bad two field grow together simple fact back first candy bell lab suddenly discover physic telephone company great hurry get develop field pretty much monopoly hurry know willing wait scientific principle develop want field tomorrow two field come together like leisure use long ago still use extent develop idea first apply less less acceptable idea first around want apply read last night one president museum one world fair shoot boat back right back doctor refuse operate know bullet booth thing ray demonstrate use new technique right ready available kind wheel kind picture conservative allow much anymore push hard push much idea develop item get market rapidly read different method predict future engage extent one predict tomorrow like today whatever temperature today predict tomorrow pretty good prediction somewhat good one note linear trend predict linear trend good long furthermore depend variable pick linear pick coefficient linear one thing pick exponent something else work well make many prediction much computing pretty soon need know much capacity would need regularly raw low side one time say predict high get form predicted real high couple year later paper turn desk look low growth computing unbelievable hand side take artificial intelligence prediction make almost expert year ago realize always thing none less say short term prediction optimistic long term prediction pessimistic reason simple long term pessimistic nobody believe geometric regression say get transistor nobody right mind would predict million transistor ship big nobody beyond belief know predict future hard business history important people believe history repeat people believe exactly opposite one thing sure regard past people future think future past time history book yes live long enough enough end history book think future become past another thing history henry ford senior remark history bunk think say two reason one history rarely report correctly great main description happen last almost war two agree agree think happen indeed one time math teacher write experience matter publisher guy come last almost regular summer visit say friend read william book remember say remember either say remember suddenly realize two people remember familiar accident several witness see report different thing reliable report happen past come accept secondly think affords mine fact past rapidly disconnect future invention computer tell much world different computer appear change way thing engineering great extent get computer job write program put terminal equipment around defect real world heart much engineering computer historian read give impression inevitable happen inevitable rome would fall hand tell future open end many thing possible true past determine future open seem unlikely left say maybe past determine example individual life alexander great napoleon hitler die childhood would world different intellectual side pythagoras aristotle newton maxwell einstein example people die youth world would rather different individual matter suggest past less determine historian like make future less open end would like believe great many possibility future get great possibility one thing history unforeseen technological invention ruin anything like tell transistors development vacuum tube practically cut technological invention change completely history something one could hardly foresee technological invention also social invention important people train mainly physical side get make sensitive fact life take place social society restraint thus claim future technology less determine technology social legal restraint stop think highway control computer control highway traffic sound good ask sue accident begin decide know difficult thing get difficult social convention stop great thing happen want talk another thing story use several time story drunken sailor stagger couple step way stagger way stagger way stagger way step typically get square root distance step get step time may right start maybe way typical hand pretty girl talk like back like like disproportional end create vision head make progress proportional end vision wander like drunken sailor get little one major purpose get form reasonable vision future kind person gon say hannick know future gon say matter much examine life goal set want march way way way goal get somewhere near goal drunken sailor problem make form goal except try achieve make something important rather drift comfortable drift life great many people one question closely assert perfectly content drift life think good idea whole thing none business goal take business force one way another set reasonably decent goal try achieve something life society pay great deal money education entitle something something generally kind goal see head life add bunch isolated event nothing nothing add promise get choose goal even want mary great guitar player mind long set goal struggle essential part really course extent force somehow rather would otherwise standard method teaching department department break thing something well like calculus linear linear program much fall course attempt one way plug hole engineering course lot engineering course teach mean vast hole optimizing combo individual course optimize total education come system engineering another goal show spite different department essential unity knowledge face difficult problem unknown type matter whether come chemistry physic anything else find answer knowledge pretty homogeneous longer divide course longer divide apartment although bell lab math department almost time fact great many thing statistic compute physic lot chemistry observe tie division purpose organization structure want get new mind sort homogeneous body specialize certain name reconnected together course center around compute like think prejudice life compute rather fact dominate science engineering reason powerful reason economics example computer far cheap human far cheap get cheap year human get expensive year speed far far faster nervous system drop something toe signal head meter per second like kilometer per second walk league even touch electronic speed way come near speed overwhelmingly side machine accuracy number ditch arithmetic carry yes quite precise double precision necessary trouble double precision take probably try work would trouble reliability far far ahead god nature however want make reliable thing walk year still every trip stumble anything really reliable man end top heap flexibility build ever try get human something reliable take example bowling throw ball alley exactly way every time perfect game perfect game rare even among skill expert precision fly thing hard recognize precise drill team something remarkable human animal really design design something else repeat repetitive control machine get rapid control build airplane basically unstable computer every millisecond correct usability get good performance pilot could computer pilot pilot leave large scale abroad plan millisecond millisecond leave well computer human act act fast another one try well much freedom board sound trivial put human job look something three year happen respond properly put computer job put computer job watch rare event episode happen atomic pile happen four year human well guy know look think last two half year even get human free boredom machine know word bandwidth rapidly change situation person charge get much information general belief really process bit per second maybe something like process bit per second machine get enormous bandwidth visual auditory pull input together match modern machine bandwidth come get order central control human simply complicated situation compete machine merely bandwidth bandwidth make judgment sell story machine simply cope longer crew aim gun airplane self contain human slow much good need much rapid thing human cope bandwidth speed get information fundamental computer get ease retrain train old way learn something change equipment get unlearn old habit learn new one get repeat many many time learn computer change program elaborate training endless hour constant practice put new progra</t>
+  </si>
+  <si>
+    <t>honor today commencement one fine university world never graduate college truth tell close ever get college graduation today want tell three story life big deal three story first story connect dot drop reed college first month stay around drop another month really quit drop start bear biological mother young unwed college graduate student decide put adoption felt strongly adopt college graduate everything set adopt birth lawyer wife except pop decide last minute really want girl parent wait list get call middle night ask unexpected baby boy want say course biological mother later find mother never graduate college father never graduate high school refuse sign final adoption paper relent month later parent promise would someday college year later college naively choose college almost expensive stanford work class parent saving spend college tuition six month could see value idea want life idea college help figure spend money parent save entire life decide drop trust would work pretty scary time look back one best decision ever make minute drop could stop take required class interest begin drop one look interest romantic dorm room sleep floor friend room return coke bottle deposit buy food would walk mile across town every sunday night get one good meal week hare krishna temple love much stumble follow curiosity intuition turn priceless later let give one example reed college time offer perhaps best calligraphy instruction country throughout campus every poster every label every drawer beautifully hand calligraph drop take normal class decide take calligraphy class learn learn serif sans serif typeface vary amount space different letter combination make great typography great beautiful historical artistically subtle way science capture find fascinate none even hope practical application life year later design first macintosh computer come back design mac first computer beautiful typography never drop single course college mac would never multiple typeface proportionally spaced font since window copy mac likely personal computer would never drop would never drop calligraphy class personal computer might wonderful typography course impossible connect dot look forward college clear look backward year later connect dot look forward connect look backward trust dot somehow connect future trust something gut destiny life karma whatever approach never let make difference life second story love loss lucky find love early life woz start apple parent garage work hard year apple grow two garage billion company employee release fine creation macintosh year earlier turn get fired get fire company start well apple grow hire someone think talented run company first year thing well vision future begin diverge eventually fall board director side publicly focus entire adult life devastate really know month felt let previous generation entrepreneur drop baton pass meet david packard bob noyce try apologize screw badly public failure even think run away valley something slowly begin dawn still love turn event apple change one bit reject still love decide start see turn get fire apple best thing could ever happen heaviness successful replace lightness beginner less sure everything free enter one creative period life next five year start company name next another company name pixar fell love amazing woman would become wife pixar create world first computer animate feature film toy story successful animation studio world remarkable turn event apple buy next return apple technology develop next heart apple current renaissance laurene wonderful family together pretty sure none would happen fire apple awful tasting medicine guess patient need sometimes life hit head brick lose faith convince thing keep love get find love true work lover work fill large part life way truly satisfied believe great work way great work love find yet keep look settle matter heart know find like great relationship get well well year roll keep look find settle third story death read quote something like live day last someday certainly right make impression since past year look mirror every morning ask today last day life would want today whenever answer many day row know need change something remember dead soon important tool ever encounter help make big choice life almost everything external expectation pride fear embarrassment failure thing fall away face death leave truly important remember die best way know avoid trap think something lose already naked reason follow heart year ago diagnose cancer scan morning clearly show tumor pancreas even know pancreas doctor tell almost certainly type cancer incurable expect live longer three six month doctor advise home get affair order doctor code prepare die mean try tell kid everything think would next year tell month mean make sure everything button easy possible family mean say goodbye live diagnosis day later even biopsy stick endoscope throat stomach intestine put needle pancreas get cell tumor sedate wife tell view cell microscope doctor start cry turn rare form pancreatic cancer curable surgery surgery fine close face death hope close get decade live say bit certainty death useful purely intellectual concept one want die even people want heaven want die get yet death destination share one ever escape death likely single best invention life life change agent clear old make way new right new someday long gradually become old clear away sorry dramatic quite true time limit waste live someone else life trap dogma live result people think let noise others opinion drown inner voice important courage follow heart intuition somehow already know truly want become everything else secondary young amazing publication call whole earth catalog one bible generation create fellow name stewart brand far menlo park bring life poetic touch late personal computer desktop publishing make typewriter scissors polaroid camera sort like google paperback form year google come along idealistic overflow neat tool great notion stewart team put several issue whole earth catalog run course put final issue mid age back cover final issue photograph early morning country road kind might find hitchhike adventurous beneath word stay hungry stay foolish farewell message sign stay hungry stay foolish always wish graduate begin anew wish stay hungry stay foolish thank much</t>
+  </si>
+  <si>
+    <t>ask talk multidisciplinary approach think start guy get bore something say well think suppose fun listen today raise hand say could talk leadership team building business strategy ethic something else give talk recently google fact give three talk google first talk give say talk say well want talk say whatever want usually talk well usually talk leadership culture team building strategy ethic say want hear team build crap get time want hear self improvement mix multidisciplinary topic little bit self improvement well important multidisciplinary thinker answer come austrian philosopher ludwig wittgenstein say understand know could anything sound simple yet genius line understand know many mistake make understand something make mistake mistake come come blind spot lack understand need multidisciplinary thinking japanese proverb say frog well know nothing mighty ocean may know everything know specialty silo well make good decision life complex system life dynamic system life know one well try learn munger call big idea different discipline right front want tell trick try way enough time life impossible field big book thick trick learn big idea science biology etc find science magazine call discover magazine show hand anybody ever hear discover magazine people find magazine every month really good interview somebody aspect science every month six seven page long layperson term person try get idea across would use good story clear language would never fail get big idea interview mean give chance interview discover magazine field nanoparticles something try best get good idea interview best story discover internet year discover magazine article available archive print year times month interview interview put big three ring binder fill three big binder next six month coffee shop hour two every morning read read index fund style mean read pick choose universe whole universe read every single one tell article would select read material probably would read would never million year read six page nanoparticles guess end six month inside head every single big idea every single domain science biology take month hard write layperson term really really get like index fund capture parabolic idea one else anybody else idea world would read interview nanoparticles yet get best idea would read arcane subject god saw exactly work biology exactly work human nature know big idea alternative find somebody get idea age school think asymmetry unfair work every time back meet group student change asymmetry around work multiple example model derive call three bucket let see get three bucket three bucket use idea one else world use yet comfortable right statistician best friend large relevant sample size principle derive large relevant sample size wrong way could wrong sample size small sample relevant want tell three bucket derive model multidisciplinary model number one billion year large sample large one whole universe large sample inorganic universe physic geology anything live bucket number billion year bucket number billion year biology planet earth big sample size relevant biological creature let ask inorganic bucket number one relevant live bucket number one live billion year bucket number two part biology billion year number three year recorded human history relevant story take couple example multidisciplinary thinking ask question simple two word description accurately describe everything world work would useful would know everything work two word bucket number one everything work newton third law motion get multidisciplinary anybody room know newton third law motion say answer every action always equal opposite reaction beautiful win one pen answer question correctly always give reward like operant conditioning psychology right yes put bottle water table newton third law motion say bottle push table force also strangely say table push back equal force strange know long true billion year true push twice hard table well push twenty one half time hard table twenty one half good word catchall word describe talk push thing push back yeah reciprocation mere reciprocation perfectly mirror reciprocation harder push harder push back everybody buy bucket number one world work mirror reciprocation everything inorganic universe work way bucket number introduce little humor even though dog pretend cat cat time mark twain say man pick cat tail learn lesson learn way cat try answer attack yeah try scratch sharp claw find pick tail agreeable start swing cat around tail cat try scratch eye say escalate pal escalate back sound lot like mirror reciprocation instead something disagreeable cat something agreeable cat cat sit come gently pick tummy put crook elbow gently stroke cat try scratch lick hand long sit stroke continue try lick hand want show like agreeable good guy keep man mirror reciprocation act disagreeable way cat cat act disagreeable way back mirror act agreeable way think find bucket number three exactly thing entire life every interaction another human merely mirrored reciprocation say simple simple simple mean sophisticate sophisticated model derive multidisciplinary fashion look three large sample size exist three relevant say exactly thing think bank percent bank think thing complex sophisticate like people think complex sophisticated want remember best say important albert einstein list say five ascending level cognitive prowess nobody room want level number one right want level number five want level number one wait hear level blow mind number say bottom smart low level cognitive prowess smart next level level intelligent level next brilliant next level level say genius high genius must backward wait hear number one accord albert einstein demonstrate number one simple simple transcends genius simple right kind simple well genius understand buy book usually take give talk like ethic spinoza spinoza ethic book write true genius guess understand anything understand walk mirror reciprocation economics club right everybody interested economics let give example model derive multidisciplinary way pure economic model find ask question powerful force human individual group potentially harness towards achieve end life bucket number one ask powerful force bucket number one quote albert einstein say powerful force universe compound interest say compound interest say powerful force universe say great mathematical discovery time say eighth wonder world say understand get pay pay say thing albert einstein compound interest good work definition compound interest propose one mine say compound interest dog incremental constant progress long time frame fair definition alright think answer bucket number powerful force could potentially harness dog incremental constant progress long time frame bucket number billion year biology powerful force three half billion year biology machine evolution work dogged incremental constant progress long time frame beauty derive thing multidisciplinary wrong see thing line like three bar slot machine boy hit jackpot think find bucket number three year human experience earth want win gold medal olympics want learn musical instrument want learn foreign language want build berkshire hathaway formula dog incremental constant progress long time frame look simple genius absolutely genius understand somebody draw formula thing know number multiply amplify time problem human like constant think one term dog incremental constant progress long time frame nobody want constant functional equivalent sisyphus push boulder mountain push half way come back another time back get great idea really work hard push half way know get back next month human condition geometric term call variance drain whenever interrupt constant increase certain level threshold lose compound longer log curve fall back onto linear curve god forbid step curve constant many people know constant know couple warren buffett charlie munger everybody want rich like warren buffett charlie munger tell get rich constant intermittent let give example intermittency perhaps important thing life whether realize begin example bring home puppy pet shop brand spank new puppy pet shop kid excited excited goal bring home puppy household say engage contribute new member household night number one disaster thing corner shake like leaf anything engage anything contribute anything shake like leaf human really good solve problem know need create calm reassuring secure safe environment know even though puppy understand say need communicate soothe tone also know need provide food water puppy underlie thing stitch together really know constant fee puppy one day happen well puppy freak puppy become neurotic puppy know whether trust trust puppy need dependent upon constant behavior everybody accept constant usually seven day less constant little puppy trot side attach rest life willing die puppy idea want engage contribute new member household even know idea puppy idea let tie life google really could figure afterwards say know really good eight dollar crystal ball really good trick eight dollar crystal ball trick tell row big one full smart people world say guess eight dollar crystal ball say psychic reading anybody room anybody say google think get stooge room get prearrange corridor bring somebody psychic reading eight dollar spend amazon best money ever spend select name answer emily take emily psychic reading emily right front believe nail guy nutcase spencer man invite guy patient spencer good stuff pull tell emily look whole life anybody think well wait hear answer rest life know everybody world look emily entire life quest odyssey search individual percent absolutely completely trust trustworthy principled courageous competent kind loyal understanding forgiving unselfish right answer dead know else eight dollar crystal ball tell ever think may encounter person probe probe test test make sure real fool paradox look like probe weakness probe strength bad day life instead strength get back weakness feel betray know get start search bad thing whole world everybody agree look simple second course leadership take business school need book need guest speaker take list emily head every single person room every single person whole world list head trustworthy principled courageous competent loyal kind understand forgive unselfish every single one interaction others list remember puppy human encounter life idea people spend day long try get people like wrong list able keep people away everybody want attach willing like puppy would willing die look whole life pretty profound look picture love picture woman look like good time help teach high school class los angeles first class semester brand new group like guy make following exercise believe like eight dollar crystal ball afterwards really glad hear really understand thing level understand understand know clear blind spot human ask group show hand many think human alike answer basic need express differently tremendous diversity meet ultimately need get two pen beautiful answer identify need name answer craig craig nail show hand many want pay attention mean really anybody want pay attention different kind human many want listen many want respect many want mean satisfaction fulfillment life sense matter tell high school kid number five put number five even though important five put last put first would raise hand awkward think weird raise hand soften many want love everybody exactly difference craig say strategy employ try get fulfill need tell strategy dog use dog unhappy tell rat dog backyard fence house next house talk dog next door tell say one ever divulge first group hear dog say dog next door believe easy manipulate human get whatever want dog next door know piece cake dog say yeah every single time come home greet door big unconditional show attention ever get whole life like second back whatever completely ignore rest evening however every single time come home person take care anything dog think woman feel pay attention listen respect think get mean satisfaction fulfillment think matter dog think think dog love dog get return everything want everything life everybody else first pay attention listen show respect give mean satisfaction fulfillment convey matter show love first get back mirror reciprocation right see tie together world damn simple complicate every single person planet look thing act simple thing example use class elevator example famous elevator story stand front elevator door open inside elevator one solitary stranger never meet person whole life walk elevator three choice behave walk elevator choice number one smile say good morning say least california percent time person smile say good morning back test guess find percent time people say good morning choice number two walk scowl hiss stranger elevator idea scowl hiss say percent time may hiss back scowl back option number three wisdom come walk elevator nothing get percent time walk elevator nothing stranger elevator nothing mirror reciprocation first get back whatever put bar full people drown sorrow knock drink world give something man get mine well ever ever get morning smile world either nothing scowl hiss world get back exactly would expect get back understand world really work study multidisciplinary thing right wrong mirror reciprocation want want positive want first obstacle big obstacle economics club certainly heard daniel kahneman nobel prize winner economics behavioral economics win nobel prize answer question would people positive first percent chance benefit percent chance person tell screw feel horrible lose face rest real say huge asymmetry standard human desire gain standard human desire avoid loss one think powerful percent versus give talk fairfax toronto prem watsa outfit berkshire hathaway canada say people whole world guy make mistake insurance business insurance work suppose spend percent protect percent right look spend percent protect percent probability somebody make look foolish lou brock set major league record steal base louis cardinal many year ago say show man afraid appear foolish show man beat every time get beat life chance afraid appear foolish life risk two percent proud day read bono bono bono lead singer person ever encounter entire life ask crony anybody else ever encounter elevator model peter say know say guess get exact model bono well get number wrong guy really square away hope day squared away incredible think figure guy great life know know percent people screw willing vulnerable expose miss make sense charlie munger one day know turn whole life upside house one day say peter hear around give talk around country tell people make money say well charlie nimble foot say catch tell make money way thing get people whatnot make money make really give second half message good person name answer albert albert many lifetime albert answer one correct get pen see albert lucked get easy question lifetime important albert answer one important absolutely know economics economics model know need use decision make prism whenever something finite like one important like life make decision mankiw right talk opportunity cost heard opportunity cost classic illustration opportunity cost finite number something important mean mean evaluate different alternative pick one optimal fair get one lifetime want spend one lifetime want spend one lifetime like people fight everybody around tell avoid exchange celebratory life instead antagonistic fighting life positive first patient enough know patient week puppy know long usually take human probing test emily find real take six month nobody take long compare look plan everybody use terrible work spend whole life fight everybody three hallmark great investment superior return low risk long duration whole world concentrate category leader merit treat three priorities get low risk long duration win win big blind spot business people actually proud win lose relationship yeah really beat crap supplier know get employee know get visa work anywhere else three year proud total win lose take game theory insert word lose scenario game theory suboptimal outcome happen insert win win game theory scenario get optimal every time must necessarily interested achieve win win framework important counterparties life must understand basic axiom clinical psychology know multidisciplinary also learn psychology basic axiom clinical psychology read could see world way see would understand behave way pretty good two corollary axiom say buy axiom must buy two corollary well logical extension undeniable corollary number one axiom true want understand way someone behave must see world see corollary number two want change human behavior accept axiom must necessarily get change change see world sound impossible really hard take business employee business see world</t>
+  </si>
+  <si>
+    <t>president power provost fenves deans member faculty family friend importantly class congratulation achievement almost year day graduate remember lot thing day remember throb headache party night remember serious girlfriend later marry important remember way remember get commission navy day thing remember clue commencement speaker even certainly remember anything say acknowledge fact make commencement speech memorable least try make short university slogan start change world admit kinda like start change world tonight almost student graduate great paragon analytical rigor ask com say average american meet people lifetime lot folk every one change life people one folk change life another people five generation year class change life million people million people think twice population united state one generation change entire population world eight billion people think hard change life people change life forever wrong saw happen every day iraq afghanistan young army officer make decision left instead right road baghdad soldier squad save close ambush kandahar province afghanistan non commissioned officer female engagement team sens something right direct infantry platoon away pound ied save life dozen soldier think soldier save decision one person child yet unborn also save child child save generation save one decision one person change world happen anywhere anyone start indeed change world question world look like change well confident look much much well humor old sailor moment suggestion may help way good world lesson learn time military assure matter whether ever serve day uniform matter gender ethnic religious background orientation social status struggle world similar lesson overcome struggle move forward change world around apply equally navy seal year begin leave basic seal training coronado california basic seal training six month long torturous run soft sand midnight swim cold water san diego obstacle course unending calisthenics day without sleep always cold wet miserable six month constantly harrassed professionally trained warrior seek find weak mind body eliminate ever become navy seal training also seek find student lead environment constant stress chaos failure hardship basic seal training lifetime challenge cram six month lesson learn basic seal training hopefully value move forward life every morning basic seal training instructor time vietnam veteran would show barrack room first thing would inspect bed right corner would square cover pull tight pillow center headboard extra blanket fold neatly foot rack navy talk bed simple task mundane best every morning require make bed perfection seem little ridiculous time particularly light fact aspire real warrior tough battle harden seal wisdom simple act prove many time make bed every morning accomplish first task day give small sense pride encourage another task another another end day one task complete turn many task complete make bed also reinforce fact little thing life matter little thing right never big thing right chance miserable day come home bed make make make bed give encouragement tomorrow good want change world start make bed seal train student break boat crew crew seven student three side small rubber boat one coxswain help guide dingy every day boat crew form beach instruct get surfzone paddle several mile coast winter surf san diego get foot high exceedingly difficult paddle plunging surf unless everyone dig every paddle must synchronize stroke count coxswain everyone must exert equal effort boat turn wave unceremoniously toss back beach boat make destination everyone must paddle change world alone need help truly get start point destination take friend colleague good stranger strong coxswain guide want change world find someone help paddle week difficult train seal class start men six boat crew seven men boat tall guy best boat crew make little guy munchkin crew call one five foot five munchkin boat crew one american indian one african american one polish american one greek american one italian american two tough kid midwest paddle ran swam boat crew big men boat crew would always make good natured fun tiny little flipper munchkins put tiny little foot prior every swim somehow little guy every corner nation world always last laugh swimming faster everyone reach shore long rest seal train great equalizer nothing matter succeed color ethnic background education social status want change world measure person size heart size flipper several time week instructor would line class uniform inspection exceptionally thorough hat perfectly starch uniform immaculately press belt buckle shiny void smudge seem matter much effort put starch hat press uniform polish belt buckle good enough instructor would find something wrong fail uniform inspection student run fully clothe surfzone wet head toe roll around beach every part body cover sand effect know sugar cookie stay uniform rest day cold wet sandy many student could accept fact effort vain matter hard try get uniform right unappreciated student make train student understand purpose drill never succeed never perfect uniform sometimes matter well prepare well perform still end sugar cookie way life sometimes want change world get sugar cookie keep move forward every day training challenge multiple physical event long run long swim obstacle course hour calisthenics something design test mettle every event standard time meet fail meet standard name post list end day list invite circus circus two hour additional calisthenics design wear break spirit force quit one want circus circus meant day measure circus mean fatigue fatigue meant following day would difficult circus likely time seal train everyone everyone make circus list interesting thing happen constantly list time student two hour extra calisthenics get strong strong pain circus build inner strength build physical resiliency life fill circus fail likely fail often painful discourage time test core want change world afraid circus least twice week trainee require run obstacle course obstacle course contain obstacle include foot high wall foot cargo net barbed wire crawl name challenging obstacle slide life three level foot tower one end one level tower foot long rope climb three tiered tower top grab rope swing underneath rope pull hand hand get end record obstacle course stand year class begin train record seem unbeatable one day student decide slide life head first instead swing body underneath rope inch way bravely mount top rope thrust forward dangerous move seemingly foolish fraught risk failure could mean injury drop training without hesitation student slide rope perilously fast instead several minute take half time end course break record want change world sometimes slide obstacle head first land warfare phase train student fly san clemente island lie coast san diego water san clemente breeding ground great white shark pass seal training series long swim must complete one night swim swim instructor joyfully brief trainee specie shark inhabit water san clemente assure however student ever eat shark least recently also taught shark begin circle position stand ground swim away act afraid shark hungry midnight snack dart towards summon strength punch snout turn swim away lot shark world hope complete swim deal want change world back shark navy seal one job conduct underwater attack enemy shipping practice technique extensively basic train ship attack mission pair seal diver drop outside enemy harbor swim well two mile underwater use nothing depth gauge compass get target entire swim even well surface light come comfort know open water approach ship tie pier light begin fade steel structure ship block moonlight block surround street lamp block ambient light successful mission swim ship find keel centerline deep part ship objective keel also dark part ship see hand front face noise ship machinery deafen easy get disorient fail every seal know keel dark moment mission time must calm compose tactical skill physical power inner strength must bring bear want change world must best dark moment ninth week training refer hell week six day sleep constant physical mental harassment one special day mud flats mud flat area san diego tijuana water run create tijuana slue swampy patch terrain mud engulf wednesday hell week paddle mud flat spend next hour try survive freezing cold mud howling wind incessant pressure quit instructor sun begin set wednesday even training class commit egregious infraction rule order mud mud consume man till nothing visible head instructor tell could leave mud five men would quit five men could get oppressive cold look around mud flat apparent student give still eight hour till sun come eight hour bone chill cold chattering teeth shiver moan trainee loud hard hear anything one voice begin echo night one voice raise song song terribly tune sung great enthusiasm one voice become two two become three long everyone class sing know one man could rise misery others could well instructor threaten time mud keep singingbut singing persist somehow mud seem little warmer wind little tamer dawn far away learn anything time travel world power hope power one person washington lincoln king mandela even young girl pakistan malala one person change world give people hope want change world start sing neck mud finally seal training bell brass bell hang center compound student see quit ring bell ring bell longer wake clock ring bell longer freezing cold swim ring bell longer run obstacle course longer endure hardship training ring bell want change world ever ever ring bell graduate class moment away graduate moment away begin journey life moment away start change world good easy class class affect life million people next century start day task complete find someone help life respect everyone know life fair fail often take take risk step time tough face bully lift downtrodden never ever give thing next generation generation follow live world far well one today start indeed change world good thank much hook horn</t>
+  </si>
+  <si>
+    <t>midst sea change tidal wave might accurate medium photography lens still firmly fix camera body body appear implode inner working gut camera talbot day camera call mousetrap wife always trip change faster anyone expect digital camera slr become new tool lens base professional artists almost overnight everywhere picture change ground rule make need picture make mark life give mean experience park deep consciousness way new music always never great appetite lens base visual culture stand medium communication hand art world photography step forward important art medium time roberta smith writing new york time year back put way paraphrase last year medium profound effect art medium photography mind come one america foremost critic sculpture bus station helsinki want introduce bus station next eliel saarinen famous train station surround jugenstil architectural gem like national theater national art museum bus station make cool backdrop magnum wannabee arm slrs vintage leica might find sometime get back bus station make famous least among student teach uma lowell university art design helsinki cole art appliqu lausanne many workshop give tuscany maine santa metaphor offer student professional alike creative continuity life long journey photography metaphor provide young artist seek discover unique vision one day helsinki bus station let describe happen two dozen platform lay square heart city head platform sign post number bus leave particular platform bus number might read follow bus take route city least kilometer stop bus stop interval along way number repeat let say metaphorically speak bus stop represent one year life photographer mean third bus stop would represent three year photographic activity work three year make platinum study nude call bus take three year work nude museum fine art boston curator ask familiar nude irving penn bus line take gallery paris remind check bill brandt bus shock realize three year others already hop bus grab cab life short head straight back bus station look another platform time make view camera color snapshot people lie beach cherry picker crane spend three year three grand produce series work elicit comment see work richard misrach steamy black white camera view palm tree sway beachfront see work sally mann get bus grab cab race back find new platform creative life always show new work always compare others simple stay bus stay cking bus time begin see difference bus move helsinki stay line maybe kilometer two begin separate number head unique destination bus suddenly north bus southwest time maybe dovetail one another soon split well irving penn head elsewhere separation make difference start see difference work work admire choose platform time look breakthrough suddenly work start get notice work make difference work influence vision take year mount work take begin pile long critic become intrigued separate work sally mann ralph gibson first get start regain whole bus route fact vintage print make twenty year ago suddenly evaluate worth start sell premium end line bus come rest driver get smoke good yet cup coffee work could end career artist end life matter total output early called imitation breakthrough peak valleys closing masterpiece stamp unique vision stay bus begin photography enamor work ralph gibson duane michals jerry uelsmann platform tell possible use mind make picture copywriter minolta account become photographer write happen inside mind happen inside camera take credo make multiple image like uelsmann sequence like michals ralph gibson image haunt one picture particular hand come prow boat make love picture foot come prow finnish rowboat way make sure image inspire mine even though think make picture show antibes call three master surreal eikoh hosoe great japanese master ralph gibson humbly party vernissage tell ralph trepidation first begin photography nod head say first saw work thereabouts feeling something familiar quick add know take long find way find difference ralph photograph woman wall color surreal light continue bus route less haunt assured best chance make voice vision heard find common attribute work recognize audience make curious happen early teacher harry callahan state never get much good first important work come soon auction london sotheby year back one piece come bidding show upside face mouth wide open boardwalk narragansett rhode island auctioneer announce piece certainly describe student work fact make harry class teach teacher say student work maybe think twice teach george braque say limited mean new form emerge say find know heart set platinum landscape misty southern terrain work way inspire ride bus route damn would say merely repeat wait month year pass soon difference begin appear clarity intelligence originality become visible even work first year trepidation everything seem whole lot thing art become ten different artist great danger communicate little end say ride bus dream stay course close want take switzerland also teach stand back stand back far enough see mountain top head straight know disappear sight life meander hidden forest trail lift ever high even many section force drop mountainside pocket disappointment even despair climb soon enough always head towards goal special occasion may many fruit labor suddenly make visible celebrate see peak closer give confidence step forward ever briskly bravely one point tree line thin way hair top old man begin bald away air clear path sure top delight accomplish much become aware peak far high ever dream peak distance first saw hard judge height see way climbing day look lofty peak rag jealousy end day sadness regret look path come become proud even arrogant like every step take skim horizon eye take gorgeous sweep panorama know peace rare humility number one world number one special peace come humility one shower respect peer reach peak life reach high peak god bless side football field bless one country another number one without number deux tres quatro funf lesson back classroom america learn think hope see bumper sticker read son make dean list see son daughter tracey moffatt poignant series work dedicate athlete come fourth place gold silver even bronze number uno stardom dream chase need good make good work caretaker vision make famous remember art risk make visible good luck see great</t>
+  </si>
+  <si>
+    <t>well doubt many wonder speaker old well answer obviously die yet speaker choose well know either like think development department nothing whatever reason think fit sit see one crowd face rear wear robe know educate army descendant really deserve lot honor give people upfront sacrifice wisdom value transfer come one generation next never underrated give enormous pleasure look sea asian face left life admire confucius like idea filial piety idea value teach duty come naturally pass next generation people think anything idea please note fast asian face rise american life think something right scratch note try give account idea attitude work well claim perfect everybody although think many pretty close universal value many fail idea core idea help well luckily get early age idea safe way try get want try deserve want simple idea golden rule speak want deliver world would buy end ethos opinion well lawyer person large people ethos win life win money honor emolument win respect deserved trust people deal huge pleasure life obtain get deserve trust way get deliver would want buy circumstance reverse occasionally find perfect rogue person die rich widely know mostly people fully understand surround civilization cathedral full people funeral ceremony celebrate fact person dead remind story time one people die minister say time someone say something nice deceased nobody come forward nobody come forward nobody come forward finally one man come say well brother bad want kind funeral want leave entirely wrong example second idea get early love right admiration base love love include instructive dead somehow get idea live life useful love like celebrate somerset maugham book human bondage sick kind love disease find disease like advice turn around fix eliminate another idea get may remind confucius wisdom acquisition moral duty something advance life wisdom acquisition moral duty corollary proposition important mean hook lifetime learning without lifetime learn people well get far life base already know advance life learn leave take berkshire hathaway certainly one best regarded corporation world may best long term investment record entire history civilization skill get berkshire one decade would suffice get next decade achievement make without warren buffett learning machine continuous learning machine record would absolutely impossible true low walk life constantly see people rise life smart sometimes even diligent learn machine bed every night little wise get boy help particularly long run ahead alfred north whitehead say one time rapid advance civilization come man invent method invention course refer huge growth gdp per caput good thing take grant start hundred year ago stasis civilization progress invent method invention progress learn method learn lucky come law school learn method learn nothing serve good long life continuous learning take warren buffett watch time clock would say half time spend sit reading big chunk rest time spend talk one one either telephone personally highly gift people trust trust word look quite academic worldly success academia many wonderful value come across value long ago several year ago capacity hospital board chairman deal medical school academic man year hard work make know bone tumor pathology almost anybody else world want pass knowledge rest well decide write textbook would useful people think textbook like sell two thousand copy two thousand copy major cancer center world take year sabbatical sit front computer slide save organize file work hour day day week year sabbatical end year one great bone tumor pathology textbook world around value like want pick much another idea hugely useful listen law school wag say legal mind mind two thing twist together interact feasible think responsibly one thing well could see one sentence perfectly ridiculous push far natural drift learn big idea big discipline would perfect damn fool try think one aspect something could remove totality situation constructive fashion note since really big idea carry percent freight hard pick big idea big discipline make standard part mental routine idea course good practice practice lose life constantly practice model disciplinary approach well tell make life fun make constructive make helpful others make enormously rich name attitude really help danger work well frequently find sit presence expert maybe even expert superior supervise know specialty lot see correct answer miss dangerous position cause enormous offense helpfully right way cause somebody else lose face never find perfect way solve problem great poker player young good enough poker player people fail sense think know subject give lot offense regard eccentric difficult period advice learn sometimes keep light bushel one colleague also number one class law school great success life work supreme court etc know lot tend show young lawyer one day senior partner call say listen chuck want explain something duty circumstance behave way client think smart person world little energy insight available use make senior partner look like smart person world satisfy two obligation want light shine well may good advice rise large firm always obey drift nature people like need adore everybody another idea way talk multidisciplinary attitude really follow key idea great lawyer antiquity marcus tullius cicero cicero famous say man know happen bear life like child correct idea cicero right ridicule somebody foolish know happen bear generalize cicero think one thing know addition history thing big idea discipline help know enough prattle back exam get learn thing way mental latticework head automatically use rest life solemnly promise one day walk street look right leave think heavenly day one competent people whole age forward many bright live middle rank shallow another idea get encapsulate story dean recount man want know die would rustic let idea profound truth hand way complex adaptive system work way mental construct work problem frequently get easy would even say usually easy solve turn around reverse word want help india question ask help india think bad damage india would automatically bad damage avoid would think logically thing master algebra know inversion frequently solve problem nothing else solve life unless gifted einstein inversion help solve problem solve way use little inversion really fail life want avoid easy answer sloth unreliability unreliable matter virtue crater immediately faithfully engage automatic part conduct want avoid sloth unreliability another thing think avoid extremely intense ideology cabbage one mind see see lot know preacher instance know get different idea theology lot mind make cabbage happen political ideology young easy drift loyalty announce loyal member start shout orthodox ideology pound pound gradually ruin mind want careful ideology big danger mind get little example use whenever think ideology scandinavian canoeist succeed tame rapid scandinavia think would tackle whirlpool aaron rapid united state death rate percent big whirlpool something want think true really deep ideology call iron prescription help keep sane naturally drift toward prefer one ideology another say entitle opinion subject unless state argument position well people support think reach stage qualify speak say much iron discipline much iron discipline even hard sound lot like iron prescription ferdinand great necessary hope order persevere probably tough people think tough tough people business drift extreme ideology important thing life want correct knowledge wise people heavy ideology likely another thing course one self serve bias subject think little entitle want instance true little overspend income well man become famous composer world utterly miserable time one reason always overspend income mozart mozart get kind asinine conduct think try generally speak envy resentment revenge self pity disastrous mode thought self pity get pretty close paranoia paranoia one hard thing reverse want drift self pity friend carry big stack linen card thick somebody would make comment reflect self pity would take one card take top one stack hand person card say story touch heart never heard anyone many misfortune well say waggery suggest every time find drift self pity care cause child could die cancer self pity improve situation give one card ridiculous way behave avoid get great advantage everybody else almost everybody else self pity standard condition yet train course self serve bias want get think good good wider civilization rationalize ridiculous conclusion base subconscious tendency serve one self terribly inaccurate way think course want drive want wise foolish also allow self serve bias everybody else people gon remove successfully condition allow self serve bias conduct fool watch brilliant harvard law review train general counsel salomon lose career ceo aware underling something wrong general counsel say gee legal duty report think moral duty course general counsel totally correct course work unpleasant thing ceo put put course everything erode major scandal ceo general counsel correct answer situation like give ben franklin say want persuade appeal interest reason self serve bias extreme general counsel say look erupt something destroy take away money take away status perfect disaster would work want appeal interest want lofty motif avoid appeal interest another thing perverse incentive want perverse incentive system cause behave foolishly bad bad incentive powerful controller human cognition human behavior one thing find modern law firm billable hour quota could live billable hour quota hour year would cause serious problem would solution figure significant problem particularly want avoid work directly somebody really admire want like dangerous subject control extent authority figure particularly authority figure reward require talent way solve figure people admire maneuver cleverly without criticize anybody work entirely people admire lot law firm permit shrewd enough work outcome life way satisfactory way well work people really admire alternative good idea objectivity maintenance well remember darwin pay special attention disconfirming evidence particularly disconfirm something believe love well objectivity maintenance routine totally require life correct thinker talk darwin attitude special attention disconfirming evidence also checklist routine checklist routine avoid lot error elementary wisdom checklist order use procedure work well last idea find important realize early non egality would work well part world want inhabit mean non egality mean john wooden number one basketball coach world say bottom five player get play spar partner top seven playing well top seven learn remember learning machine playing get system wooden win would ever win think game life many respect get lot practice hand people aptitude learn tendency learn machine want high reach human civilization want choose brain surgeon child among fifty applicant take turn procedure want airplane design way want berkshire hathaway run way want get power right people frequently tell story max planck win nobel prize around germany give lecture quantum mechanic chauffeur gradually memorize lecture say would mind professor planck boring staying routine would mind give lecture time sit front chauffeur hat planck say sure chauffeur get give long lecture quantum mechanic physic professor stand rear ask perfectly ghastly question chauffeur say well surprise advanced city like munich get elementary question ask chauffeur reply well reason tell story entirely celebrate quick wittiness protagonist world two kind knowledge one planck knowledge people really know pay due aptitude get chauffeur knowledge learn prattle talk big head hair may fine timbre voice really make hell impression end get chauffeur knowledge think describe practically every politician united state problem life get responsibility people planck knowledge away people chauffeur knowledge huge force work generation fail extent deliver california legislature certify nut left certified nut right allow serve none removable generation would like easy would another thing find intense interest subject indispensable really excel could force fairly good lot thing could really good anything intense interest extent follow feasible want drift something really natural interest another thing course lot assiduity like word mean sit marvelous partner life think get partly try deserve partly wise enough select partly maybe luck two partner choose one little phase life following rule create little design build construction team sit say two man partnership divide everything equally rule whenever behind commitment people work hour day catch well needless say firm fail people die rich simple idea another thing course life terrible blow horrible blow unfair blow matter people recover others think attitude epictetus best think every mischance life opportunity behave well every mischance life opportunity learn something duty submerge self pity utilize terrible blow constructive fashion good idea may remember epitaph epictetus leave lie epictetus slave maim body ultimate poverty favor god well way epictetus remember say big consequence favorite god favor become wise become manly good idea get final little idea prudence well opportunism grandfather federal judge city nearly forty year really admired namesake confucian enough even sit say well judge munger would please see confucian enough year grandfather dead carry torch grandfather value grandfather munger federal judge time pension widow federal judge save income grandmother would penury kind man underspent income life leave comfortable circumstance along way thirty uncle bank fail could reopen grandfather save bank take third asset good asset put bank take horrible asset exchange course save bank grandfather take loss get money back eventually always remember example get college come across houseman remember little poem houseman something like thought others light fleeting lover meet luck fame mine trouble mine steady ready trouble come say want life anticipate trouble well life life anticipate trouble well along eighty fourth year like epictetus favored life make unhappy anticipate trouble time ready perform adequately trouble come hurt fact help quick claim houseman judge munger last idea want give profession frequently put lot procedure lot precaution lot mumbo jumbo high form civilization reach high form civilization reach seamless web deserved trust much procedure totally reliable people correctly trust one another way operating room work mayo clinic bunch lawyer introduce lot process patient would die never forget lawyer may reward sell stuff buy life want seamless web deserved trust propose marriage contract forty seven page suggestion enter well enough one graduation hope rumination old man useful end like old valiant truth pilgrim progress sword leave wear</t>
+  </si>
+  <si>
+    <t>nathan myhrvold gon talk today roadkill information highway sufficiently complex interesting topic always reduce series silly cliche set technology wind refer press information highway present choice either completely choose silly clich wallow see probably wallow little bit today serious issue compute communication come together change world change landscape people involve competitively change technology ultimately change society foundation information highway phenomenon really rest two fundamental technology vlsi chip technology give raw power computing software harness raw power end user need primarily software guy talk bunch hardware today important understand capabilities hardware gon provide last year explosion price performance ratio meaning constant price performance computer enormously constant level performance price drop precipitously factor million increase last year tell next year another factor million luck year thereafter another factor million toss factor million around hard get grasp really mean reference factor million take year second say computer year second today computer would take year year hence computer second one today machine comparable cost would take million year realm increase performance large stretch credulity almost ridiculous people eye glaze say could something gon happen basically today say think something unusual happen think get factor change computing world today microprocessor digital electronics computer increasingly life next year change even ability store information also ram memory semiconductor memory increase density every month happen historically long time price ram drop per year steady fashion hard disk magnetic storage decrease well per year general rule thumb size hard disk may computer today computer user much ram year size hard disk expand accordingly rule true long computer involve technology move direction remain true even without breakthrough optical storage technology could revolutionize fast main memory storage thing like holographic memory mass storage new kind rom writeable optical medium able compute able store gon fundamental piece happen information highway chart show talk show number byte get dynamic ram memory per dollar semi log chart logarithmic scale see nice straight line line back almost year remarkably steady exponential decrease price per bit memory last data point chart extrapolate year think every reason believe phenomenon gon continue fact look solid state physic involve find people already good idea gon continue improve density ram continue improve price performance ratio processor fundamental physic people need learn make cost effective manufacture volume make reliable cheap people good fundamental capability real lesson behind importance exponential know anything exponential growth know asymptotic scaling matter anything fix threshold performance fixed amount compute power rapidly overwhelmed even thing grow grow exponentially overwhelmed growth rate wind slow mainframe computer lose microprocessor exponential increase performance growth rate microprocessor base system lead fascinating phenomenon unimaginable performance blow fixed threshold hand still problem gon hard amount compute power year year year hence able solve example class problem call hard problem computer science consider simple example object take combination object different ordering well number three object number six grow rapidly number take object put possible combination really many object little large number card deck play card total number combination cosmologist estimate number baryon heavy particle proton neutron thing like entire universe manage calculate number could print unless use matter energy universe actually make printout clearly problem gon solve anywhere near finite period time make number large get bad trick forward gon figure problem fall exponential rise computing communication remain real challenge come decade another interesting chart chart microsoft stock price like chart semi log chart exponential growth arithmetic version showing well whenever talk stock market analyst people say gee microsoft stock lot come unusual circumstance well really unusual take first principle perspective recognize surf wave wave compute create increase performance semiconductor price performance basically every time new processor come twice fast opportunity add value create new product every time ram get large opportunity develop large program sell people show effect take microsoft stock price divide previous graph memory price get almost flat take price dynamic ram account also take cpu price hard disk price make overall index curve would absolutely flat conclusion draw software gas expand fit container case container vlsi technology cpu cycle software get burn memory get store thing god bless guy make container long keep make large gon keep ability add value software use cosmologist actually another way view like sell real estate inflationary universe keep sell stuff universe keep expand exponentially specific business strategy follow want keep surf wave exponential growth measure success traditional mean revenue profit market share measure success percentage cpu cycle consume percentage ram occupy strategy microsoft say let follow microprocessor change mix product move company first write programming language basic develop operate system window develop graphical application recently see announcement may see announcement multimedia title encyclopedias title baseball dinosaur variety thing finally group work variety new platform intelligent television server sit broadband network talk little bit tiny computer fit pocket wherever microprocessor memory job software want maintain share world cycle change software product mix order follow vlsi wherever bottleneck talk enormous exponential growth turn key network gon grow fast enough become major bottleneck thing bottleneck others network talk phone network cable network human nervous system see input output limited grow capability exponentially human take certain amount information certain amount information fixed number one fixed threshold compute gon blow know build peripheral use system get touch sense thing build estimate would peripheral hard pure compute task far away ultimate data type complete perfect human interface mimic reality much possible unreality manage saturate bus get maximum amount information interest actually look couple sens figure hard would sort limit might come let take look taste smell appropriate many program use mean computer program gon somewhat specialized know earth gon connect computer manage whether jack central nervous system weird peripheral put little drop chemical tongue calculate fundamental data type estimate much would take compute synthesize manipulate turn people variety physiological experiment see many unique taste actually taste drop little drop stuff people tongue ask fill questionnaire forth turn range taste also smell quite limited something order unique different taste smell element people actually break small conservatively let say different element turn time resolution smell taste low thousand taste smell per second order taste smell per second compare say audio audio two bit sample time second talk one bit sample get different taste smell get bit amplitude top probably sample time time second total bandwidth far less audio presumably far easy synthesize calculate store day jack get taste smell discover really hard compute power necessary today require great breakthrough term compute aspect problem touch another great one obviously video something quite common computer day video screen tend divide screen bunch pixel picture element well let estimate many touch element touchels need assume little discreet element well physiological test people try estimate touch resolution people various part body poke people rod various size shape surprising conclusion poor touch resolution everywhere except hand lip couple place otherwise resolution quite low replicate experiment poke various rod see could tell difference somebody walk room explain really research work turn total size body high resolution stuff also quite limited fact experiment take paper towel cover size monitor use computer get dot per inch resolution decent quality computer monitor day also resolution high sensitivity part body touchels per inch would maximum density question screen great area body course cut paper towel apply sensitive part body really want get caught experiment turn fact assume somewhere bit resolution per touchel total number touchels high computer screen bandwidth video maybe wrong maybe additional factor suppose video remember double every year factor take three half year story although know get touch sensitivity computer total data feed big deal gon hard synthesize hard ship around store video put together taste already know video reasonably well make stereo completely saturate human ability input output gon within year mean computing gon move challenge provide ultimate user interface temporary desirable hardly final state talk bunch compute store information calculate stuff communicate well world communication one follow law exponential growth fact make strong analogy central office telephone switch mainframe giant system similar kind culture similar sort margin cost cetera make analogy pbx people inside company small scale switch lot like minicomputer literally base minicomputer technology aspect industry similar aspect minicomputer world well minicomputer mainframe rule world compute wise microprocessor base system come start personal computer workstation large server microprocessor decimate rank mainframe minicomputer world think similar thing gon happen communication two key technology first atm switch fiber optic many year fiber optic ability pipe huge amount information long distance modulate laser use fiber well get information one point another via fiber commonplace essentially long distance phone call way today problem could get high speed switch deliver right place could move bit point point okay could actually network would get information one point another atm switch come believe atm switch whole technology area equivalent communication world microprocessor compute atm switch follow vsli price performance curve base small number large number replicated cheap piece vlsi atm switch allow new entrant come market variety start company come revolutionize world personal computing gon find dozen start company come atm switch area think variety exist switch people gon also make great switch mean limit gon see change people happy get isdn line today high tech wide area network whereas gon ridiculous year industry gon restructure completely result technology level also interesting service aspect call communication rollercoaster phone bill follow exponential price curve drop factor two every year amount data send expand factor two cost basically static well atm technology fiber optic third factor competition come three thing gon combine make communication world change overnight overnight may take five year may take year historical context gon voice expensive sort service voice essentially free fact calculate number lot people communication world gear video demand service say offer pay per view movie home charge nobody know exactly charge charge something like charge would competitive exist blockbuster store pay tom cruise guy hollywood whoever star guy get money distributor get money raw communication cost probably cent per hour cent per hour megabit per second compare today voice get vod service cost long distance call cent minute factor different price believe see time voice call even long distance voice call free free someone say hey sign video demand service video telephone service sign let voice side free betting move across one factor consider economics communication business gon turn head way public utility commission networking company today think term enormous value installed equipment well valuable remember new equipment probably factor two good price every year whoever operate network intense schedule upgrade also worry schedule upgrade also worry upgrade new guy come pay fraction pay put thing originally much good service hell ride ultimately think company business consumer real thrill sort network talk sort talk around edge think overall system foresee switched digital network offer point point high bandwidth digital communication hang wide variety different device interest analogy electrical system thomas edison invent light bulb become killer app key thing focus people mind electrification electricity first instal american home instal dedicate lighting system fact large city replace early dedicate light system base gas gas light think electricity dedicate lighting system anymore sure light also plug cuisinart stereo computer electric razor general utility thing happen communication world today two dedicate network cable network dedicate notion deliver video telephone network dedicate notion deliver point point communication evolve look forward general information utility bit socket like jack today bit socket plug personal computer plug camcorder want send picture kid grandma smart smart cable box dumb cable box wireless phone smart phone wide variety server system set order supply information telephone taking world set top box take world personal computer take world talk general information utility people like talk win win water heater connect every electrical device ultimately connect information utility offer ability demand side power management security wide variety different kind information usage fact think information fundamentally utility think electricity today look world evolve variety aspect information mean information kinds information alter think one interesting way look divide thing two side pure information address aspect send something one person many people point point one one one many also look temporal aspect time synchronous like telephone call party line time asynchronous offline two party completely decouple time well make list thing example online one many service would include thing like television radio simpson start start without sync telephone computer network example point point communication send something one place another place telephone certainly synchronous example online example offline side book magazine classic one many offline thing care book write could write hundred year bear fundamentally write wide audience finally point point line electronic mail fax ordinary postal service decoupling time point point address within category describe variety different information utility different characteristic today away kind information transmittal mean storage mean hand wind find everything within box wind become quite similar difference say record album one kind one many offline thing book well different kind data store digitally matter fundamentally see world collapse two kind service digital data online digital phone call digital video call cetera digital data offline either via store forward system perhaps optical storage disc think see lot thing move online category offline wait simpson come particular time make slave machine slave system able watch show movie anytime like mean everything offline course still late break news story come want watch point time large many thing multicast online move offline similarly many thing long time constant able get instantaneously ultimately look forward kind information discover factor survive best generic addressing capability temporal aspect get information happen look analogy hard find something characteristic information highway explosion unless far back back first information revolution johann gutenberg invent printing press completely change way people think information get analysis base call document demographic consider total number document say publish year versus total number reader information dedicate zero column note people take note intend reader author kind distribution really memory aid well get letter personal letter person business letter cetera exist one small number copy get high volume hundred probably send letter probably thing like brochure newsletter finally get book magazine newspaper thing sort estimate shape curve figure much notebook paper sell many post note sell combined circulation newspaper magazine book cetera get schematic curve sort illustrate thing fascinate curve print medium basically talk mature print medium drive fundamental desire people use technology although technology play important role give interesting way look might happen believe happen online digital information within different range document characteristic technology use reproduction make copy actually get copy people zero case pen pencil document get distribution author write one copy hundred copy another realm realm photocopier xerox machine revolutionize area copy really realm desktop publishing laser printer important small range laser printer small offset press desktop publishing really come copy finally get say copy realm commercial printing say around minimum number really serious commercial printing book regardless whether popular book obscure scientific tome print less copy worth start press addition reproduction characteristic distribution technology take copy make people physically get people need see well distribution problem zero case zero hundred probably either use hand physically hand people interoffice mail take perhaps mail copy kind awkward phase send copy something small number commercial distribution instead pretty much use mail good way get document either give free sell usually fairly expensive subscribe industry newsletter usually cost year quite expensive compare say popular magazine get copy commercial world distribution retail cetera people either use mail case magazine use newsstands bookstore paperboys specialty distribution system set domain fundamental lesson learn technology characteristic economics economics shape whole field may think term fact price per copy enormous barrier people make photocopy one time change enormously xerox addition direct economic cost convenience ability machine press button change thing enormously fact back look effect kind information delivery would technology change economics fact lesson change economics information distribution change world chart superimpose original one use xerox desktop publishing gutenberg well xerox could make photostat mimeograph way make copy could use carbon paper hit key awful hard make two copy fact hugely number copy make estimate look sale copier copier paper people basically without large number copy soon xerox make feasible explode people find need hard imagine see use xerox machine today</t>
+  </si>
+  <si>
+    <t>wonderful tell lecture series use call last lecture one last lecture give die would think damn finally nail venue rename case anybody wander know back story dad always teach elephant room introduce look cat scan approximately tumor liver doctor tell three six month good health leave month ago math best doctor world change decide respond change card dealt play hand seem depressed morose sorry disappoint assure denial like aware family three kid wife decamp buy lovely house chesapeake virginia near norfolk good place family road thing phenomenally good health right mean great thing cognitive dissonance ever see fact really good shape fact good shape anybody want cry pity come may pity right talk today talk cancer spend lot time talk really interested herbal supplement remedy please stay away talk thing even important achieve childhood dream talk wife gon talk kid good good enough talk without tear gon take table much important gon talk spirituality religion although tell experience death bed conversion buy macintosh know would get nine percent audience right today talk childhood dream achieve fortunate way believe able enable dream others degree lesson learn professor lesson learn use stuff hear today achieve dream enable dream others get old may find enable dream others thing even fun childhood dreams well know really good childhood mean kid around back family archive really amazing could find picture kid smile right gratifying thing dog awe thank actually picture dream lot know lot wake know easy time dream bear right eight nine year old look set men land moon anything possible something lose sight inspiration permission dream huge childhood dream may agree list zero gravity playing national football league author article world book encyclopedia guess tell nerd early captain kirk anybody childhood dream cmu want become one guy win big stuffed animal amusement park want imagineer disney sort particular order although think get hard except maybe first one okay zero gravity important specific dream dream astronaut little kid wear glass tell astronauts glass like really want whole astronaut gig want float child prototype zero point zero work well turn nasa something call vomit comet use train astronaut thing parabolic arc top arc get second ballistic get rough equivalent weightlessness second program college student submit proposal win competition get fly think really cool team put team together win get fly excited gon hit first brick wall make clear circumstance faculty member allow fly team know heartbroken right like work hard read literature carefully turn nasa part outreach publicity program turn student allow bring local medium journalist hometown randy pausch web journalist really easy get press pas call guy nasa say need know fax document say document fax say resignation faculty advisor application journalist say little transparent think say yeah project virtual reality gon bring whole bunch headset student team experience real journalist get film jim foley bastard yes guy say fax number indeed keep end bargain one theme hear later talk something bring table right make welcome right let talk football dream play national football league know actually make national football league probably get dream accomplish get one accomplish coach sign nine year old small kid league far coach jim graham six foot four play linebacker penn state hulk guy old school mean really old school like think forward pas trick play show practice first day know big hulking guy scar death bring football gon practice without football one kid say excuse coach cut football coach graham say right many men football field time say team coach graham say right many people touch football give time one say right gon work guy really good story fundamental fundamental fundamental fundamental get get fundamental otherwise fancy stuff gon work jim graham story one practice ride practice wrong wrong back owe pushup practice one assistant coach come say yeah coach graham rode pretty hard say yeah say good thing say screw nobody say anything anymore mean give lesson stick whole life see something badly nobody bother tell anymore bad place critic one tell still love care coach graham another coach coach setliff teach lot power enthusiasm one thing one play time would put people like horrifically wrong position like short guy would become receiver right laughable one play right boy team never know hit one play suppose freedom another word nothing leave lose boy gon clean somebody clock one play kind enthusiasm great day comfortable football field mean one thing work hard problem people see wander hall one thing know something young enough train become part glad football part life get dream play nfl okay probably get stuff valuable look nfl sure guy great right okay one expression learn electronic art love pertain experience get get want think absolutely lovely thing football send kid play football soccer swimming whatever first example gon call head fake indirect learning actually want kid learn football mean yeah really nice wonderful three point stance know chop block kind stuff send kid learn much important thing team work sportsmanship perseverance cetera cetera kind head fake learning absolutely important keep eye everywhere right simple one author world book encyclopedia kid world book encyclopedia shelf freshman paper use thing call book become somewhat authority virtual reality like really important one level people world book would badger call write article katelyn kellaher article local library still copy world book look virtual reality say select author world book encyclopedia know believe wikipedia perfectly fine source information know quality control real encyclopedia let right next one certain point realize thing gon maybe want stand close people mean god role model young people mean everything want learn carry forward leadership later know smart guy ship mean spock pretty smart mccoy doctor scottie engineer sort skill set get damn thing run clearly skill set call leadership whether like series doubt lot learn lead people watch guy action cool damn toy right mean god think fascinate kid thing could talk ship think spectacular course one small kind cool get achieve dream jam kirk alter ego william shatner write book think actually pretty cool book chip walter pittsburgh base author quite good write book basically science star trek come true around top place around country look various thing come study virtual reality set build virtual reality look something like put put red alert good sport like saw one come really cool meet boyhood idol even cooler come see cool stuff lab great moment right win stuff animal may seem mundane little kid see big buff guy walk around amusement park get big stuffed animal right lovely wife lot picture stuffed animal win dad pose one win win lot animal dad win one credit big part life family life know hear cynic know age digitally manipulate thing maybe bear really picture maybe pay somebody five buck take picture theme park next bear say age cynicism convince people say know show bear bring put right put back wall bear quite enough room move truck chesapeake anybody would like little piece end feel free come first come first serve right next one imagineer hard one believe get zero gravity easy become imagineer kid eight year old family take trip cross country see disneyland ever see movie national lampoon vacation lot like quest real vintage photograph front castle foreshadow alice ride think cool environment would ever instead say gee want experience say want make stuff like bid time graduate phd carnegie mellon thinking mean infinitely qualify anything dash letter application walt disney imagineering send damn nicest hell letter ever get mean carefully review application presently position available require particular qualification think fact get place famous guy sweep street bit set back remember brick wall reason right brick wall keep brick wall give chance show badly want something brick wall stop people want badly enough stop people right fast forward system back university virginia call virtual reality five dollar day one unbelievable spectacular thing scared back day junior academic jim foley love tell story know undergraduate advisor andy vandamm first conference scar death icon user interface community walk nowhere give huge bear hug say andy think okay maybe make maybe belong similar story unbelievable hit time everybody need half million dollar virtual reality everybody felt frustrated literally hack together system part make working system people like god like hewlett packard garage thing awesome give talk room wild guy name tom ferness one big name virtual reality time microphone introduce know look like sure hell know name ask question like sorry say tom ferness say yes say would love answer question first lunch tomorrow lot little moment lot humility also ask person possibly say imagineering couple year later work virtual reality project top secret deny existence virtual reality attraction time publicity department run commercial imagineering really nail one tight aladdin attraction would fly magic carpet head mount display sometimes know gator vision soon project know start run commercial ask brief secretary defense state virtual reality okay fred brook ask brief secretary defense give excuse call call imagineering say look brief secretary defense would like material best system world kind push back say look patriotism stuff park farce like okay say new department footage gon connect straight team work jackpot find phone guy name john snoddy one impressive guy ever meet guy run team surprise impressive thing send stuff talk briefly send stuff say hey gon area conference shortly would like get together lunch translation lie say excuse area look anxious would neptune lunch john say sure spend something like hour talk expert world say access one unbelievable project would ask compile memorize anybody know know memory cause could look like dweeb question like two hour lunch john must think talk phenomenal person channel fred brook ivan sutherland andy vandamm people like henry fooks pretty easy smart parody smart people end lunch john sort say business make ask say know sabbatical come say beginning culture clash talk possibility come work say really good except know business tell people stuff business keep secret make john snoddy john snoddy say work really love thing learn john snoddy could easily hour long talk learn john snoddy one thing tell wait long enough people surprise impress say piss somebody angry give enough time give little time almost always impress really stick think absolutely right one make long story short negotiate legal contract first people refer first last paper ever publish imagineering deal provide funding six month work project publish paper meet villain sweetness light credibility somebody head gon stick turn person get head stick dean back university virginia name important let call dean wormer dena wormer meeting say want sabbatical thing actually get imagineering guy let academic insane mean john nuts would never possibility secretive organization dean wormer look paperwork say well say gon intellectual property say yeah get agreement publish paper patentable stuff say yeah might deal get change little clause come back like excuse say want understand important work take unpaid leave absence gon gon thing say hey know might even let mean get head already maybe gon suck gon fly either important know pissing match important get quickly possible say well let back think good idea say idea good idea like okay well get common ground say well really call call dean sponsor research issue say yeah true say happy happy yeah would fine like wile coyote find gene block office fantastic man world start talk gene block say let start high level since want back say let start high level think good idea say well ask good idea much information know one start faculty member office really excite tell lesson everybody administration say thing think say thing think say right know well much information one star faculty member excite want learn way say know boy good way bad way anyway get work imagineering sweetness light well end well brick wall make flesh work aladdin project absolutely spectacular mean unbelievable nephew christopher apparatus would sit sort motorcycle type thing would steer magic carpet would put head mount display head mount display interesting two part clever design get throughput part touch guest head little cap everything else click onto expensive hardware could replicate cap basically free manufacture really cap cleaner love imagineering spectacular place spectacular everything dream love model shop people crawl around thing size room big physical model incredible place walk around inspire always remind people say think expectation high say ever see movie charlie chocolate factory willie wonka chocolate factory gene wilder say little boy charlie give chocolate factory say well charlie anybody ever tell story little boy suddenly get everything ever want charlie eye get like saucer say happen gene wilder say live happily ever okay work aladdin describe every five year opportunity stand assessment forever change good work get part get place work real people real hci user interface issue hci people live fantasy world white collar laborer phd master degree know get ice cream spill field work right anything else jon snoddy learn put artist engineer together real legacy publish paper nice academic cultural scandal write paper guy imagineering say well let nice big picture like would magazine siggraph committee accept paper like big scandal allow rule publish paper amazingly since tradition siggraph paper color figure first page change world small way end six month come say want real stay say one time life surprise father like say since know want get like huh bottle maalox desk drawer careful wish particularly stressful place imagineering general actually maalox laden lab jon leave middle lot like soviet union little dicey work okay say stay never walk building would would walk away tenure would make easy say cake eat basically become day week consultant imagineering ten year one reason become professor cake eat okay consult thing like disneyquest virtual jungle cruise best interactive experience think ever jesse schell get credit pirate caribbean wonderful disneyquest childhood dream know pretty good felt good question become enable childhood dream others boy glad become professor good place enable childhood dream maybe work know would probably good close second start concrete realization could young man name tommy burnett university virginia come interested join research group talk say childhood dream get pretty easy recognize tell say yes tommy childhood dream say want work next star war film get remember timing tommy tommy today year would sophomore year tommy around randy pausch break anything back young man okay right say tommy know probably make next movie say tommy work number year undergraduate staff member move carnegie mellon every single member team come virginia carnegie mellon except tommy get good offer indeed work three film say well nice know one time kind inefficient people know know efficiency freak say masse get people turn way turn onto childhood dream create course come carnegie mellon create course call building virtual worlds simple course many people ever show okay idea course simple student draw different department university randomly choose randomly choose team four people per team change every project project last two week something make something show something shuffle team get three new playmate every two week five project semester first year teach course impossible describe much tiger tail run course want see could learn texture map graphic could make stuff look half decent know run really weak computer current standard say give try new university make couple phone call say want cross list course get people within hour cross list five department love university mean amazing place say kid say well content make say hell know make whatever want two rule shoot violence pornography oppose particular know right would amaze many year old boy completely idea take table anyway teach course first assignment give come back two week blow away mean work beyond literally imagination copy process imagineering lab idea could could undergraduate tool weak come back first assignment something spectacular literally ten year professor idea next call mentor call andy van dam say andy</t>
+  </si>
+  <si>
+    <t>look today help see twenty five year ago barnard commencement sometimes seem mind much common girl stranger might pass doorway starbucks aisle airplane remember wear felt day tell without question perfect let clear mean mean get every day try perfect every possible way test study paper write smile everyone dorm hallways important friendly make fun behind back important witty work residence counselor sat housing council anyone ever stop ask thing well sure would say tell today perfect every possible way perfect hard work hell rule change arrive college trunk full perfect pleat kilt perfect monogrammed sweater christmas vacation another perfect uniform overall turtlenecks doc marten perfect new york city barnard college affect part hyperintellectual part ennui hard work indeed read neither sartre sappho close ever come bore fall asleep finally hard become perfect realize barnard smart girl world eventually perfect day day year year become like always carry backpack fill brick back secretly long lay burden want say today sound way familiar try perfect one way another make today moment grade get classmate meet terrain scout position arrange make today day put backpack try perfect may sort inevitable people like smart ambitious interested world good opinion one level hard another cheap easy really require mainly read zeitgeist wherever whenever happen assume mask necessary best whatever zeitgeist dictate require requirement shapeshift sure clever read imitation require nothing important meaningful beautiful interesting great ever come imitation thing really hard really amazing give perfect begin work become difficult zeitgeist read template follow mask wear set aside friend expect parent demand acquaintance require set aside message culture send advertising entertainment disdain disapproval behave set aside old traditional notion female nurturer male leader set aside new traditional notion female superwoman male oppressor begin terrifying thing clean slate look every day choice make ask make find answer mean hard work life world make along acknowledge introvert clown artist reserve distraught goofball thinker bend march music great theys pipe flute want professional school wear khaki pierce navel bare soul fashionable way music tinny listen close enough look inside way lie dance melody spin heart symphony rest jingle always struggle whether twenty one fifty one know experience quit new york timesto full time mother voice world say nuts quit full time novelist say nuts nuts happy successful term success term look good world feel good heart success remember word lily tomlin win rat race still rat look finger hold front face one crown abstract design completely different anyone crowd country world metaphor different fingerprint world march lockstep lockstep easy march nothing great even good ever come young writer write follow footstep string together noun verb living tell every story already tell read anna karenina bleak house sound fury kill mockingbirdand wrinkle time understand really reason ever write another novel except writer bring table let something one else history time ever personality voice faulkner imitation stay home give reader think want instead stop typing book reflect character really give new wonderful gift give true music art teaching medicine someone send shirt long ago read well behave woman make history make good lawyer either doctor businesswoman imitation redundant want already know need remind think back think back first second grade could still hear sound voice head young unformed fantastic understand suppose take protective coloration expectation around think writer catherine drinker bowen write half century ago many man know ten forgets utterly ten thirty many woman alone parent forget way sometimes say deeply commit often flaw mother three first born great glory think absolutely distinct every baby ever bear miracle singularity know every fiber human parent difficult job difficult require shaping people act extraordinary hubris year learn want thing want learn want lead play acceptance college straight narrow path often lead absolutely nowhere sometimes want thing convince would make life well least easy sometimes hard time distinguish end begin another reason must give perfect take hold sometime distant future may want parent bring child self truly oppose amalgam manner mannerisms expectation fear acquire carapace along way give great gift teach example terrorize narrow parsimonious expectation world world often like color within line spray paint scrawl crayon truly wanted remember day young rough wilder scrawl straight line remember flaw fault well many strength carl jung say people educate see lowly side nature may hop also learn understand love fellow men well little less hypocrisy little tolerance toward oneself good result respect neighbor prone transfer fellow injustice violence inflict upon nature commencement speech suggest take something challenge future vision twenty first century instead would like give give backpack give nonsensical punish quest perfection dog many much life quest cause doubt denigrate true selves quirk foible great leap unknown bad enough bad someday sometime somewhere maybe day like today berm overlook pond vermont lip grand canyon sunset maybe something bad happen lose someone love fail something want succeed much sit fall center look core sustain perfect life manage meet expectation family friend community society chance excellent black hole core ought take chance begin say greek chorus think know parameter happy life know homogenization human experience listen small voice inside tell another way george eliot write never late might never early either make difference world take someone leave backpack full brick far behind every day feel light feather</t>
+  </si>
+  <si>
+    <t>rain somebody say like confetti heaven even heaven celebrate morning join rest wonderful commencement ceremony far graduate important task perform behind parent guardian two three four year ago drive cardigan drop help get settle turn around drive back gate extraordinary sacrifice drive trail tear back emptier lonely house decision education know sacrifice others make bring point morning also hope stand turn around give great round applause please somebody ask remark cardigan able say interrupt applause congratulation class reach important milestone important stage life behind sorry one tell easy stage life book cardigan part important international community well think need particularly recognize time roberts give brief remark language around country today college high school middle school commencement speaker stand impatient graduate almost always say thing say today commencement exercise begin end look forward think true enough however think look forward figure good know look back well think look back first afternoon cardigan perhaps recall lonely perhaps recall little scar little anxious look surround friend call brother confident face next step education worth try think think may appreciate support classmate classroom athletic field dorm far confidence think appreciate succeed everything help friend afraid fail fail get try fail get try fail might time think something else success afraid fail brought point commencement speaker typically also wish good luck extend good wish tell time time year come hope treat unfairly come know value justice hope suffer betrayal teach importance loyalty sorry say hope lonely time time take friend grant wish bad luck time time conscious role chance life understand success completely deserve failure others completely deserve either lose time time hope every opponent gloat failure way understand importance sportsmanship hope ignore know importance listen others hope enough pain learn compassion whether wish thing happen whether benefit depend upon ability see message misfortune commencement speaker also expect give advice give grand advice give useful tip common grand advice give odd piece advice give people dress identically understand mean unless perfect mean make change certain sense try become something good people say want resist impulse conform others want learn learn unless think greek philosopher socrates say unexamined life worth living might good motto thing good motto try figure live life one important clue live good life try live good life best way lose value central frankly think deep advice tip get ready new school last couple year get know many young men pretty well know good guy also privilege young men privilege come privilege advice act like get new school walk introduce person rake leaf shovel snow empty trash learn name call name time school another piece advice pass people recognize walk smile look eye say hello bad thing happen become know young man smile say hello bad thing start school boys school girl advice last bit advice give simple think could make big difference life week write note someone email note piece paper take exactly minute talk adult let tell stamp put stamp envelope minute week help right dictate first note write say dear say start new school read english football soccer practice hard enjoy thank teach put envelope put stamp send mean great deal people reason contemplate dedicate teach middle school boy say take exactly minute week end school year send note people forty people feel little special think special one else carry dividend time school enough advice would like end read important lyric cite greek philosopher socrates early lyric great american philosopher bob dylan almost year old write son jesse miss tour list hope parent might son daughter also good goal son daughter wish beautiful timeless universal good true except one wish give song title refrain wish parent lament good wish lyric forever young bob dylan may god bless keep always may wish come true may always others let others may build ladder star climb every rung may stay forever young may grow righteous may grow true may always know truth see light surround may always courageous stand upright strong may stay forever young may hand always busy may foot always swift may strong foundation wind change shift may heart always joyful may song always sung may stay forever young thank</t>
+  </si>
+  <si>
+    <t>good morning great blow away whole thing fact leave three theme run conference relevant want talk one extraordinary evidence human creativity presentation people variety range second put place idea happen term future idea may play interest education actually find everybody interest education find interesting dinner party say work education actually often dinner party frankly work education ask never ask back curiously strange say somebody know say say work education see blood run face like god know one night week ask education pin wall one thing deep people right like religion money thing big interest education think huge vested interest partly education mean take future grasp think child start school year retire nobody clue despite expertise parade past four day world look like five year time yet mean educate unpredictability think extraordinary third part agree nonetheless really extraordinary capacity child capacity innovation mean sirena last night marvel see could exceptional think speak exceptional whole childhood person extraordinary dedication find talent contention kid tremendous talent squander pretty ruthlessly want talk education want talk creativity contention creativity important education literacy treat status applause thank way thank much minute leave well bear hear great story recently love tell little girl drawing lesson six back drawing teacher say girl hardly ever pay attention draw lesson teacher fascinate say draw girl say draw picture god teacher say nobody know god look like girl say minute son four england actually four everywhere honest strict wherever four year nativity play remember story big big story mel gibson sequel may see nativity james get part joseph thrill consider one lead part place cram full agent shirt james robinson joseph laughter speak know bit three king come come bear gift gold frankincense myrrh really happen sit think sequence talk little boy afterward say say yeah wrong switch three boy come four year old tea towel head put box first boy say bring gold second boy say bring myrrh third boy say frank send thing common kid take chance know right frighten wrong mean say wrong thing creative know prepare wrong never come anything original prepare wrong time get adult kid lose capacity become frightened wrong run company like stigmatize mistake run national education system mistake bad thing make result educate people creative capacity picasso say say child bear artists problem remain artist grow believe passionately grow creativity grow rather get educate live stratford avon five year ago fact move stratford los angeles imagine seamless transition actually live place call snitterfield outside stratford shakespeare father bear strike new thought think shakespeare father think shakespeare child shakespeare seven never think mean seven point somebody english class annoy would must try harder send bed dad know shakespeare bed put pencil stop speaking like confuse everybody anyway move stratford los angeles want say word transition son want come get two kid daughter want come los angeles love girlfriend england love life sarah would know month mind would fourth anniversary long time really upset plane say never find another girl like sarah rather pleased frankly main reason leave country something strike move america travel around world every education system earth hierarchy subject every one matter would think would otherwise top mathematics language humanity bottom art everywhere earth pretty much every system hierarchy within art art music normally give high status school drama dance education system planet teach dance everyday child way teach mathematics think rather important think math important dance child dance time allow body miss meeting truthfully happen child grow start educate progressively waist focus head slightly one side visit education alien say public education think would conclude look output really succeed everything get brownie point winner think would conclude whole purpose public education throughout world produce university professor people come top use one like university professor know hold high water mark human achievement form life another form life rather curious say affection something curious professor experience typically live head live slightly one side disembody know kind literal way look upon body form transport head way get head meeting want real evidence body experience get along residential conference senior academic pop discotheque final night see grown men woman writhe uncontrollably beat wait end home write paper education system predicate idea academic ability reason around world public system education really century come meet need industrialism hierarchy root two idea number one useful subject work top probably steer benignly away thing school kid thing like ground would never get job right music musician art artist benign advice profoundly mistake whole world engulf revolution second academic ability really come dominate view intelligence university design system image think whole system public education around world protracted process university entrance consequence many highly talented brilliant creative people think thing good school value actually stigmatize think afford way next year accord unesco people worldwide graduate education since beginning history people combination thing talk technology transformation effect work demography huge explosion population suddenly degree worth anything true student degree job job want one want one frankly laughter kid degree often head home carry play video game need previous job require need phd process academic inflation indicate whole structure education shift beneath foot need radically rethink view intelligence know three thing intelligence one diverse think world way experience think visually think sound think kinesthetically think abstract term think movement secondly intelligence dynamic look interaction human brain hear yesterday number presentation intelligence wonderfully interactive brain divide compartment fact creativity define process original idea value often come interaction different disciplinary way see thing way shaft nerve join two half brain call corpus callosum thicker woman follow helen yesterday probably woman well multi tasking raft research know personal life wife cook meal home often thankfully good thing cook deal people phone talk kid paint ceiling open heart surgery cook door shut kid phone hook come get annoy say terry please try fry egg give break actually know old philosophical thing tree fall forest nobody hears happen remember old chestnut saw great shirt recently say man speak mind forest woman hear still wrong third thing intelligence distinct new book moment call epiphany base series interview people discover talent fascinate people get really prompt conversation wonderful woman maybe people never hear gillian lynne heard choreographer everybody know work cat phantom opera wonderful use board royal ballet see anyway gillian lunch one day say get dancer interest school really hopeless school write parent say think gillian learning disorder could concentrate fidget think would say adhd would adhd invent point available condition people aware could anyway see specialist oak panel room mother lead sit chair end sit hand minute man talk mother problem gillian school disturb people homework always late little kid eight end doctor sit next gillian say listen thing mother tell need speak privately wait back long leave room turn radio sit desk get say mother stand watch minute leave room foot move music watch minute turn mother say lynne gillian sick dancer take dance school say happen say tell wonderful walk room full people like people could sit still people move think move think ballet tap jazz modern contemporary eventually audition royal ballet school become soloist wonderful career royal ballet eventually graduate royal ballet school found gillian lynne dance company meet andrew lloyd webber responsible successful musical theater production history give pleasure million multi millionaire somebody else might put medication tell calm think come gore speak night ecology revolution trigger rachel carson believe hope future adopt new conception human ecology one start reconstitute conception richness human capacity education system mine mind way strip mine earth particular commodity future serve rethink fundamental principle educate child wonderful quote jonas salk say insect disappear earth within year life earth would end human disappear earth within year form life would flourish right ted celebrates gift human imagination careful use gift wisely avert scenario talk way see creative capacity richness see child hope task educate whole face future way may see future job help make something thank much</t>
+  </si>
+  <si>
+    <t>president faust member harvard corporation board overseer member faculty proud parent graduate first thing would like say thank harvard give extraordinary honour week fear nausea endure thought give commencement address make lose weight win win situation take deep breath squint red banner convince world large gryffindor reunion deliver commencement address great responsibility think cast mind back graduation commencement speaker day distinguished british philosopher baroness mary warnock reflect speech help enormously write one turn remember single word say liberating discovery enable proceed without fear might inadvertently influence abandon promising career business law politics giddy delight become gay wizard see remember year come gay wizard joke come ahead baroness mary warnock achievable goal first step self improvement actually wrack mind heart ought say today ask wish know graduation important lesson learn year expire day come two answer wonderful day gather together celebrate academic success decide talk benefit failure stand threshold sometimes call real life want extol crucial importance imagination may seem quixotic paradoxical choice please bear look back year old graduation slightly uncomfortable experience year old become half lifetime ago strike uneasy balance ambition close expect convince thing want ever write novel however parent come impoverish background neither college take view overactive imagination amusing personal quirk would never pay mortgage secure pension know irony strike force cartoon anvil hop would take vocational degree want study english literature compromise reach retrospect satisfy nobody study modern language hardly parent car round corner end road ditched german scuttle classic corridor remember tell parent study classic might well find first time graduation day subject planet think would hard put name one less useful greek mythology come secure key executive bathroom would like make clear parenthesis blame parent point view expiry date blame parent steer wrong direction moment old enough take wheel responsibility lie criticise parent hop would never experience poverty poor since poor quite agree ennoble experience poverty entail fear stress sometimes depression mean thousand petty humiliation hardship climb poverty effort indeed something pride poverty romanticise fool fear age poverty failure age spite distinct lack motivation university spend far long coffee bar write story far little time lecture knack pass examination year measure success life peer dull enough suppose young gift well educate never know hardship heartbreak talent intelligence never yet inoculate anyone caprice fate moment suppose everyone enjoy existence unruffled privilege contentment however fact graduate harvard suggest well acquaint failure might drive fear failure quite much desire success indeed conception failure might far average person idea success high already fly ultimately decide constitute failure world quite eager give set criterion let think fair say conventional measure mere seven year graduation day fail epic scale exceptionally short live marriage implode jobless lone parent poor possible modern britain without homeless fear parent come pass every usual standard big failure know stand tell failure fun period life dark one idea press since represent kind fairy tale resolution idea far tunnel extend long time light end hope rather reality talk benefit failure simply failure mean strip away inessential stop pretend anything begin direct energy finish work matter really succeed anything else might never find determination succeed one arena believe truly belong set free great fear realise still alive still daughter adore old typewriter big idea rock bottom become solid foundation rebuild life might never fail scale failure life inevitable impossible live without fail something unless live cautiously might well live case fail default failure give inner security never attain pass examination failure teach thing could learn way discover strong discipline suspect also find friend whose value truly price ruby knowledge emerge wiser strong setback mean ever secure ability survive never truly know strength relationship test adversity knowledge true gift painfully win worth qualification ever earn give time turner would tell year old self personal happiness lie know life check list acquisition achievement qualification life though meet many people age old confuse two life difficult complicate beyond anyone total control humility know enable survive vicissitude might think choose second theme importance imagination part play rebuild life wholly though personally defend value bedtime story last gasp learn value imagination much broad sense imagination uniquely human capacity envision therefore fount invention innovation arguably transformative revelatory capacity power enable empathise human whose experience never share one great formative experience life precede harry potter though inform much subsequently write book revelation come form one early day job though slop write story lunch hour pay rent early work african research department amnesty international headquarters london little office read hastily scribble letter smuggle totalitarian regime men woman risk imprisonment inform outside world happen saw photograph disappear without trace sent amnesty desperate family friend read testimony torture victim saw picture injury open handwritten eye witness account summary trial execution kidnapping rap many worker political prisoner people displace home flee exile temerity speak government visitor office include come give information try find happen leave behind shall never forget african torture victim young man old time become mentally ill endure homeland tremble uncontrollably speak video camera brutality inflict upon foot taller seem fragile child give job escort back underground station afterwards man whose life shatter cruelty take hand exquisite courtesy wish future happiness long live shall remember walk along empty corridor suddenly hear behind closed door scream pain horror never hear since door open researcher poke head tell run make hot drink young man sit give news retaliation outspokenness country regime mother seize execute every day work week early remind incredibly fortunate live country democratically elected government legal representation public trial right everyone every day saw evidence evil humankind inflict fellow human gain maintain power begin nightmare literal nightmare thing saw heard read yet also learn human goodness amnesty international ever know amnesty mobilises thousand people never torture imprison belief act behalf power human empathy lead collective action save life free prisoner ordinary people whose personal well security assure join together huge number save people know never meet small participation process one humbling inspiring experience life unlike creature planet human learn understand without experience think people place course power like brand fictional magic morally neutral one might use ability manipulate control much understand sympathise many prefer exercise imagination choose remain comfortably within bound experience never trouble wonder would feel bear refuse hear scream peer inside cage close mind heart suffering touch personally refuse know might tempt envy people live way except think nightmare choose live narrow space lead form mental agoraphobia bring terror think wilfully unimaginative see monster often afraid choose empathise enable real monster without ever commit act outright evil collude apathy one many thing learn end classic corridor venture age search something could define write greek author plutarch achieve inwardly change outer reality astonishing statement yet prove thousand time every day life express part inescapable connection outside world fact touch people life simply exist much harvard graduate likely touch people live intelligence capacity hard work education earn receive give unique status unique responsibility even nationality set apart great majority belong world remain superpower way vote way live way protest pressure bring bear government impact way beyond border privilege burden choose use status influence raise voice behalf voice choose identify powerful powerless retain ability imagine life advantage proud family celebrate existence thousand million people whose reality help change need magic change world carry power need inside already power imagine good nearly finish one last hope something already friend sit graduation day friend life child godparents people able turn time trouble people kind enough sue take name death eater graduation bind enormous affection shared experience time could never come course knowledge hold certain photographic evidence would exceptionally valuable run prime minister today wish nothing good similar friendship tomorrow hope even remember single word mine remember seneca another old roman meet flee classic corridor retreat career ladder search ancient wisdom tale life long good matter wish good life thank much</t>
+  </si>
+  <si>
+    <t>say want start something get start something say want start something get start something high get yeah yeah low get yeah yeah stick middle yeah yeah pain thunder yeah yeah high get yeah yeah low get yeah yeah stick middle yeah yeah pain thunder yeah yeah take baby doctor fever nothing find time hit street say breakdown someone always try start baby cry talk squeal lie say want start something say want start something get start something say want start something get start something high get yeah yeah low get yeah yeah stick middle yeah yeah pain thunder yeah yeah high get yeah yeah low get yeah yeah stick middle yeah yeah pain thunder yeah yeah love pretend good always good really make hate tongue become razor someone always try keep baby cry treacherous cunning decline get baby cry say want start something get start something say want start something get start something high get yeah yeah low get yeah yeah stick middle yeah yeah pain thunder yeah yeah high get yeah yeah low get yeah yeah stick middle yeah yeah pain thunder yeah yeah vegetable vegetable still hate vegetable buffet vegetable eat vegetable billie jean always talk nobody else talk tell lie rub shoulder call mouth motor someone always try start baby cry talk squeal spy say want start something say want start something get start something say want start something get start something high get yeah yeah low get yeah yeah stick middle yeah yeah pain thunder yeah yeah high get yeah yeah low get yeah yeah stick middle yeah yeah pain thunder yeah yeah vegetable vegetable still hate vegetable buffet vegetable eat vegetable fee baby yeah yeah baby yeah yeah think maybe yeah yeah fee baby yeah yeah always try stop child cry hustle steal lie baby slowly die say want start something get start something say want start something get start something high get yeah yeah low get yeah yeah stick middle yeah yeah pain thunder yeah yeah high get yeah yeah low get yeah yeah stick middle yeah yeah pain thunder yeah yeah lift head high scream world know someone let truth unfurl one hurt know true yes believe believe help sing coo coo help sing sing world sing loud help sing coo coo woo hoo help sing woo hoo sing world coo coo woo hoo help sing baby sing world sing loud need dream side every moment take paradise darling let hold warm arm melt fear away show magic perfect love make need night day baby mine baby get mine girl give get give baby girl time share ecstasy long believe love give reason change mind guess still thrill baby mine future desire girl need hold share feeling heat love embrace show passion burning heart today never gon fade baby mine baby get mine girl give get give baby girl time everything world could reason live stay morning sun promise dawn different lady see heaven begin live inside heart mountain climb still thrill baby mine love lasting time girl get hold touch sky light dark day hold make sweet love way say baby mine baby get mine tell love girl give get give say think baby mine time show everything world could reason live every night feel alright baby girl tell love girl give get give say think baby mine baby mine show everything world could every night feel alright come girl come girl tell love say think baby mine show everything world could every night feel alright every night walk right dream since meet start proud one special heart girl mine doggone girl mine know mine doggone girl mine understand way think say mine sending rose silly dream really waste time mine doggone girl mine waste time doggone girl mine love take anywhere love endlessly love share come two town one one day discover girl forever ever build hope let really feel time know tell one say blow mind girl mine doggone girl mine waste time doggone girl mine mine mine mine girl mine girl mine girl mine girl mine girl mine mine mine yep mine mine mine girl mine mine mine yep mine mine mine waste time doggone girl mine girl mine girl mine michael gon fight okay paul think tell lover fighter hear michael tell forever lover know remember well love say could love another say yes say keep dream believe mine mine girl mine mine mine mine mine mine mine mine mine mine mine mine mine mine mine girl mine mine mine girl mine mine mine close midnight something evil lurking dark moonlight see sight almost stop heart try scream terror take sound make start freeze horror look right eye paralyze thriller thriller night one gon save beast strike know thriller thriller night fight life inside killer thriller tonight hear door slam realize nowhere leave run feel cold hand wonder ever see sun close eye hope imagination girl hear creature creep behind outta time thriller thriller night second chance thing forty eye girl thriller thriller night fight life inside killer thriller tonight night creature call dead start walk masquerade escape jaw alien time open wide end life get demon closing every side possess unless change number dial time cuddle close together night save terror screen make see thriller thriller night thrill ghoul could ever dare try thriller thriller night let hold tight share killer thriller chiller thriller tonight thriller thriller night girl thrill ghoul could ever dare try thriller thriller night let hold tight share killer thriller gon thrill tonight darkness fall across land midnight hour close hand creature crawl search blood terrorize neighborhood whomsoever shall find without soul get must stand face hound hell rot inside corpse shell gon thrill tonight foul stench air funk forty thousand year grisly ghoul every tomb close seal doom though fight stay alive body start shiver mere mortal resist evil thriller tell ever come around want see face good disappear fire eye word really clear beat beat good run good want see blood macho man want tough good beat want bad beat beat beat beat one want defeat show funky strong fight matter wrong right beat beat get good leave want boy want man want stay alive good beat beat show really scar play life truth dare kick beat tell fair beat want bad beat beat beat beat one want defeat show funky strong fight matter wrong right beat beat beat beat beat beat beat beat beat one want defeat show funky strong fight matter wrong right beat beat beat beat one want defeat show funky strong fight matter wrong right beat beat beat beat beat like beauty queen movie scene say mind mean one dance floor round say one dance floor round tell name billie jean cause scene every head turn eye dream one dance floor round people always tell careful around break young girl heart mother always tell careful love careful lie become truth billie jean lover girl claim one kid son say one kid son forty day forty night law side stand demand scheme plan dance floor round take strong advice remember always think twice think twice think twice tell baby would dance three look show photo baby cry eye look like mine dance floor round baby people always tell careful around break young girl heart break heart come stand right smell sweet perfume happen much soon call room billie jean lover girl claim one kid son billie jean lover girl claim one kid son say one kid son say one kid son billie jean lover girl claim one baby kid son say one babe kid son say one know say son break heart babe say one billie jean lover billie jean lover billie jean lover one billie jean lover one call billie jean billie jean lover one stumble onto scene billie jean lover billie jean lover look across night time city wink sleepless eye hear voice shake window sweet seduce sigh get night time four wall hold tonight town apple let take bite say tell human nature way say tell human nature way reach touch stranger electric eye everywhere see girl know watch like way stare say tell human nature way say really like around tell human nature way like live way like love way way way way way look across morning city heart begin beat reach touch shoulder dream street say tell human nature way say tell like around ooh tell way say way say tell like around ooh tell way say ooh tell way say tell like around way like live way way way know make feel good inside always want girl like pretty young thing come baby ooh take right away baby tenderoni get spark nature sugar fly know perfect time make right hit city light tonight ease love pain let take max want love pretty young thing need love tender love care take want love pretty young thing need love tender love care take anywhere want yes nothing stop burning desire get get baby come emergency cool fire yearn honey come set free know perfect time dim light make right night hit love spot give get want love pretty young thing need love tender love care take yes want love pretty young thing need love tender love care take yes pretty young thing make say pretty young thing make say pretty young thing repeat say say take take want love pretty young thing need love tender love care take take take want love pretty young thing need love tender love care take take want love pretty young thing baby need love pretty young thing darling know think really really nice could could put together pretty young thing want love know would give darkness tonight lady love shine light night put trust heart meet paradise time girl every wonder world treasure time steal away listen heart lay body close mine let fill dream make feel alright baby year gon love day promise tonight always lady life lay back tenderness let make night forget girl need sweet caress reach fantasy two heart beat ecstasy come girl keep warm shadow night let touch love make feel right baby year even old gray love day always lady life stay want stay need side nowhere ooh girl let keep warm let keep warm lady life lady fill sweet love sweet love always lady life want touch baby lay back tenderness lady life doo doo doo rock sweet caress always lady life lady love girl ooh girl let keep warm lady life nowhere fill sweet love love love always lady life need want baby lay back tenderness stay lady life rock sweet caress love baby always lady life woo ooh baby nowhere lady night ooh girl let keep warm want give lady life life fill sweet love let fill baby always lady life lay back tenderness lay back lady life let touch girl rock sweet caress lay back always lady life ooh girl let keep warm baby lady life woo fill sweet love always lady life lady lay back tenderness lady baby world popcorn candy pony ride dime little child laugh world disappointment confusion want mine start talk keep walk disappear crowd lose heart carousel circus girl leave heart piece lose heart carousel circus girl run away clown dancer know would work take chance recall girl imagination still remember face memory lose heart carousel circus girl leave heart piece lose heart carousel circus girl run away two different people love instant see circus come today sometimes hear calliope hear call know lose heart carousel circus girl leave heart piece lose heart carousel circus girl run away</t>
+  </si>
+  <si>
+    <t>dark desert highway cool wind hair warm smell colitas rise air ahead distance saw shimmering light head grow heavy sight grow dim stop night stand doorway hear mission bell think could heaven could hell light candle show way voice corridor think hear say welcome hotel california lovely place lovely place lovely face plenty room hotel california time year time year find mind tiffany twisted get mercedes bend get lot pretty pretty boys call friends dance courtyard sweet summer sweat dance remember dance forget call captain please bring wine say spirit since nineteen sixty nine still voice call far away wake middle night hear say welcome hotel california lovely place lovely place lovely face live hotel california nice surprise nice surprise bring alibis mirror ceiling pink champagne ice say prisoner device master chamber gather feast stab steely knife kill beast last thing remember run door find passage back place relax say night man program receive check time like never leave talk street sound familiar great expectation everybody watch people meet seem know even old friend treat like something new johnny come lately new kid town everybody love let look eye music begin play hopeless romantic awhile look way restless heart never mend johnny come lately new kid town still love around many thing tell night night willing hold hold tear shoulder talk street remind really matter side walk away talk behind never forget somebody new come along lately new kid town everybody love hold still around new kid town another new kid town everybody talk new kid town everybody walk like new kid town new kid town want hear new kid town want hear new kid town new kid town new kid town everybody talk new kid town people start walk new kid town new kid town hard head man brutally handsome terminally pretty hold hold ransom heart cold cold city nasty reputation cruel dude say ruthless say crude one thing common good bed would say faster faster light turn red life fast lane surely make lose mind life fast lane far eager action hot game come attraction drop name know right people take right pill throw outrageous party pay heavenly bill line mirror line face pretend notice catch race every evening light tired make tired fight life fast lane surely make lose mind life fast lane life fast lane everything time life fast lane blowing burning blind thirst see stop sign take turn bad say listen baby hear engine ring highway see goddamn thing say call doctor think gon crash doctor say come get pay cash rush freeway mess around get lose care die get life fast lane surely make lose mind life fast lane life fast lane everything time life fast lane life fast lane life fast lane well baby stand little head hand god believe happen baby alone look like end back street try remember start know care much stranger touch hold man never think would alone far line know mind afraid waste time autumn leave get think first time fell love boy much love boy well well well live day day dream tomorrow hour like minute shadow come stay take little something make away could many thing baby could stop mind wonder leave behind worry wasted time another love come year keep rush remember tell sometimes keep together get leave alone get search baby get mine maybe someday find really wasted time kind love get home room full noise dangerous boy still make thirsty hot hear man one thing understand say liar put fire come still get gun hand victim love see broken heart get story tell victim love easy part know play well people never come clean think know mean walk wire pain desire look love tell secret tell mine time cool tell girlfriend around world friends talk loser fool victim love see broken heart could wrong victim love far apart show kind love get victim love see broken heart could wrong victim love far apart kind love get victim love victim love could wrong victim love victim love kind love get kind love get kind love get long time seem like come long way learn slow hero come leave behind suppose know give heart past must grow fast wish well fool fortune someone send rise love friend nice hear storybook come close ribbon bow thing remember place pretty maids row memory find like circle around lose find come one one lonely feeling come day day slowly fade away look eye never know might find dance right time move make fine like music surround stay really want know would lose win try love gon try love gon try love gon try love right wrong moments borrow thought linger lady song sun come tomorrow well might take year see tear let find know gon try love gon try love gon try love sometimes lose sometimes win sometimes need friend gon try gon try gon try gon try come providence one rhode island old world shadow hang heavy air pack hope dream like refugee father come across sea hear place people smile speak red man way love land come everywhere great divide seek place stand place hide crowded bar good time wait tell like call paradise know somebody lay mountain low town get high chilly wind blow across desert canyon coast malibu pretty people play hungry power light neon way give thing rich men come rap land nobody catch put bunch ugly box jesus people buy call paradise place watch hazy sun sinking sea leave behind sail lahaina like missionary many year ago even bring neon sign jesus come bring white man burden bring white man reign provide grand design mine new frontier get make satisfy endless need justify bloody deeds name destiny name god see sunday morning stand sing like call paradise know call someplace paradise kiss goodbye</t>
+  </si>
+  <si>
+    <t>hey hey mama say way move gon make sweat gon make groove child way shake thing gon make burn gon make sting hey hey baby walk way watch honey drip keep away yeah yeah yeah yeah get roll stand still get flaming heart get fill eye shine burn red dream head hey hey baby baby pretty baby darling hey baby baby pretty baby move take long find people mean spent money take car start tell friend gon star know told big legged woman get soul yeah yeah yeah yeah yeah ask pray steady load woman gon come way need woman gon hold hand tell lie make happy man yes yes really really baby baby baby really huh ooh wow baby push baby push baby push baby push baby push baby push babe babe ooh ooh aah ooh ooh would really like would really like long time since rock roll long time since stroll ooh let get back let get back let get back baby come long time long time long lonely lonely lonely lonely lonely time yes long time since book love count tear life love carry back carry back carry back baby come long time long time long lonely lonely lonely lonely lonely time seem long since walk moonlight making vow work right open arm open arm open arm baby let love come run long time long time long lonely lonely lonely lonely lonely time long time long time long lonely lonely lonely lonely lonely time queen light take bow turn prince peace embrace gloom walk night alone dance dark night sing morning light dark lord rid force tonight time tell throw plow hoe rest lock home side side wait might dark hear horse thunder valley wait angel avalon wait eastern glow apple valley hold seed happiness ground rich tender care repay forget dance dark night sing morning light apple turn brown black tyrant face red war common cry pick sword fly sky fill good bad mortal never know well night long bead time pas slow tire eye sunrise wait eastern glow pain war exceed woe aftermath drum shake castle wall ringwraiths ride black ride sing raise bow ride shoot straighter comfort fire night light face cold dance dark night sing morning light magic rune writ gold bring balance back bring back last sun shin cloud blue roll flame dragon darkness sunlight blind eye bring back bring back bring back bring back bring back bring back bring back bring back bring back bring back bring back bring back bring bring bring bring bring lady sure glitter gold buy stairway heaven get know store close word get come ooh ooh buy stairway heaven sign wall want sure know sometimes word two meaning tree brook songbird sing sometimes thought misgiven ooh make wonder ooh make wonder feeling get look west spirit cry leave thought see ring smoke tree voice stand look ooh make wonder ooh really make wonder whisper soon call tune piper lead reason new day dawn stand long forest echo laughter bustle hedgerow alarm spring clean may queen yes two path long run still time change road make wonder head hum case know piper call join dear lady hear wind blow know stairway lie whispering wind wind road shadow taller soul walk lady know shin white light want show everything still turn gold listen hard tune come last one one rock roll buy stairway heaven walk park day baby think saw crowd people sit grass flower hair say hey boy want score know really know time woh ask could stay awhile notice get dark really really mind policeman step ask say please hey would care get line get line well know ask stay tea fun say friend would drop ooh take good look describe see baby baby baby like sit sit spare like book shelf rust try fight really care come know state mind ooh street today baby good good open eye folk really care really care care really way pressure lie decide gon pack bag misty mountains spirit hill spirit fly ooh really know one two three four five six one two three one baby cry time baby get fly got try find way get try get away know get get away babe baby river red baby head funny feeling think hold long owl cry night baby baby pine begin cry baby baby baby feel river run dry baby would feel craze baby rainbow end baby den hide hide love depth life ruin dream know babe owl cry night baby baby pine begin cry baby baby baby feel river run dry baby feel baby feel ooh yeah brave endure ooh yeah strong shield lore hold wrath walk boot march baby road time long ago spent day woman unkind smoke stuff drank wine make mind make new start california aching heart someone tell girl love eye flower hair take chance big jet plane never let tell sea red sky grey wondered tomorrow could ever follow today mountain canyon start tremble shake child sun begin awake watch seem wrath god get punch nose start flow think might sink throw line reach time meet path run straight high find queen without king say play guitar cry sings ride white mare footstep dawn try find woman never never never bear stand hill mountain dream tell hard hard hard seem keep rain levee break keep rain levee break levee break place stay mean old levee teach weep moan mean old levee teach weep moan get take make mountain man leave home well well well make feel bad try find way home know way south work north chicago cry help pray good cry help pray good levee break mama get move last night sit levee moan last night sit levee moan think baby happy home chicago chicago sorry take</t>
+  </si>
+  <si>
+    <t>come think might like show feel warm thrill confusion space cadet glow tell something elude sunshine expect see want find behind cold eye claw way disguise momma love baby daddy love sea may look warm babe sky may look blue ooh babe ooh baby blue ooh babe skate thin ice modern life drag behind silent reproach million tear stain eye surprise crack ice appear foot slip depth mind fear flow behind claw thin ice daddy fly across ocean leave memory snap shot family album daddy else leave daddy would leave behind brick wall brick wall yes stand still laddy grow school certain teacher would hurt child way could pour derision upon anything expose every weakness however carefully hide kid town well know get home night fat psychopathic wife would thrash within inch life need education need thought control dark sarcasm classroom teacher leave kid alone hey teacher leave kid alone another brick wall another brick wall need education need thought control dark sarcasm classroom teacher leave kid alone hey teacher leave kid alone another brick wall another brick wall wrong wrong eat meat pudding pudding eat meat yes behind bike shed stand still laddy mother think drop bomb mother think like song mother think try break ball ooh aah mother build wall mother run president mother trust government mother put firing line ooh aah waste time hush baby baby cry mama gon make nightmare come true mama gon put fear mama gon keep right wing let fly might let sing mama gon keep baby cozy warm ooh babe ooh babe ooh babe course mama gon help build wall mother think good enough mother think dangerous mother tear little boy apart ooh aah mother break heart hush baby baby cry mama gon check girlfriend mama let anyone dirty get mama gon wait get mama always find mamma gon keep baby healthy clean ooh babe ooh babe ooh babe always baby mother need high look mummy airplane sky see frightened one hear fall bomb ever wonder run shelter promise brave new world unfurl beneath clear blue sky see frightened one hear fall bombs flame long pain lingers goodbye blue sky goodbye blue sky goodbye goodbye hello luka congratulation discover secret message please send answer old pink care funny farm chalfont roger carolyne phone okay shall use fill empty space use talk shall fill final place complete wall new boy stranger town good time gon show stranger around ooooooooh need dirty woman ooooooooh need dirty girl woman desert land make feel like real man take rock roll refugee oooh babe set free ooooooooh need dirty woman ooooooooh need dirty girl ooooooooh need dirty woman ooooooooh need dirty girl hello yes collect call floyd floyd accept charge united state hang residence right wonder hang suppose someone else besides wife answer hello united state call reach see keep hang man answer god fabulous room guitar sorry sir mean startle god place big apartment let know enter room yes sir get drink water wonder dinner sir want huh yes guest want dine inform kitchen staff wow look tub want take bath yes aware duty dobbs yes sir find bancroft time want eat maid needle say meal kitchen help watch good sir let know soon mrs bancroft want eat mrs bancroft din alone hello understand sir stay dinner feel okay surprise hear sir since arrive yes little surprised day day love turn grey like skin die man night night pretend right grow old grow colder nothing much fun feel one turn come feel cold razor blade tight tourniquet dry funeral drum run bedroom suitcase left find favourite axe look frightened passing phase one bad day would like watch get sheet contemplate silent freeway would like something eat would like learn fly would would like see try would like call cop think time stop run away ooh babe leave say end road remember flower send need babe put shredder front friend ooh babe leave could know need beat pulp saturday night ooh babe leave treat way run away ooh babe run away ooh babe need arm around need drug calm see write wall think need anything think need anything brick wall brick wall goodbye cruel world leave today goodbye goodbye goodbye goodbye people nothing say make change mind goodbye hey cold get lonely get old feel hey stand aisle itchy foot fade smile feel hey help bury light give without fight hey sitting naked phone would touch hey ear wall wait someone call would touch hey would help carry stone open heart come home fantasy wall high see matter try could break free worm eat brain hey road always tell help hey beyond wall breaking bottle hall help hey tell hope together stand divide fall anybody anybody anybody anybody get little black book poem get bag toothbrush comb good dog sometimes throw bone get elastic band keep shoe get swollen hand blue get thirteen channel shit choose get electric light get second sight get amazing power observation know try get telephone nobody home get obligatory hendrix perm inevitable pinhole burn front favourite satin shirt get nicotine stain finger get silver spoon chain get grand piano prop mortal remain get wild star eye get strong urge fly get nowhere fly ooh babe pick phone still nobody home get pair gohills boot get fading root anybody remember vera lynn remember say would meet sunny day vera vera become anybody else feel way bring boy back home bring boy back home leave child bring boy back home hello anybody nod hear anyone home come hear feel well ease pain get foot relax need information first basic fact show hurt pain recede distant ship smoke horizon come wave lip move hear say child fever hand felt like two balloon get feel explain would understand become comfortably numb become comfortably numb little pin prick aaaaaaaah may feel little sick stand believe work good keep show come time pain recede distant ship smoke horizon come wave lip move hear say child catch fleeting glimpse corner eye turn look put finger child grow dream become comfortably numb ooh ooh must show ooh take home ooh let must mistake mean let take away soul old late ooh ooh feeling ooh ooh remember song ooh show must think might like show feel warm thrill confusion space cadet glow get bad news sunshine pink well stay back hotel send along surrogate band gon find fan really stand queer theatre tonight get wall wall one spotlight look right get wall one look jewish one coon let riff raff room one smoke joint another spot way would shoot run run run run good make face favourite disguise button lip roller blind eye empty smile hungry heart feel bile rise guilty past nerve tatter cockleshell shatters hammer batter door good run run run run run good run day run night keep dirty feeling deep inside take girlfriend tonight good park car well sight catch back seat try pick lock gon send back mother cardboard box good run eins zwei drei alle ooh ooh reach ooh ooh matter try goodbye cruel world walk sit bunker behind wall wait worm come worm come perfect isolation behind wall wait worm come wait cut deadwood wait clean city wait follow worm wait put black shirt wait weed weakling wait smash window kick door wait final solution strengthen strain wait follow worm wait turn shower fire oven wait queen coon red jew wait follow worm would like see britannia rule friend follow worm would like send coloured cousin home friend need follow worm stop want home take uniform leave show wait cell know guilty time good morning worm honour crown plainly show prisoner stand catch red hand show feeling show feeling almost human nature call schoolmaster always say would come good end honour would let way could flay shape hand tie bleeding heart artist let get away murder let hammer today crazy toy attic crazy truly fishing must take marble away crazy toy attic crazy little shit hope throw away key talk often way break home lately five minute worm honour alone babe come mother baby let hold arm lord never want get trouble would ever leave worm honour let take home crazy rainbow crazy bar window must door wall come crazy rainbow crazy evidence court incontrovertible need jury retire year judge never hear someone deserve full penalty law way make suffer exquisite wife mother fill urge defecate judge shit since friend reveal deep fear sentence expose peer tear wall tear wall alone two one really love walk outside wall hand hand gather together band bleeding heart artist make stand give stagger fall easy bang heart mad bugger wall</t>
+  </si>
+  <si>
+    <t>roll thunder pour rain come like hurricane lightning flash across sky young gon die take prisoner spare life nobody put fight get bell gon take hell gon get satan get hell bell hell bell get ring hell bell temperature high hell bell give black sensation spine evil friend mine see white light flash split night cause good left stick right take prisoner spare life nobody put fight get bell gon take hell gon get satan get hell bell hell bell get ring hell bell temperature high hell bell hell bell satan come hell bell ring hell bell temperature high hell bell across sky hells bell take hell bell drag hell bell gon split night hells bell way fight hell bell woman want man street know way want turn keep coming put hand cause one gon make burn gon take fool around gon pull pull pull trigger shoot thrill play kill many woman many pill yeah shoot thrill play kill get gun ready gon fire like evil get skin like bomb ready blow cause illegal get everything woman might need know gon take yeah fool around gon pull pull pull trigger shoot thrill play kill many woman many pill shoot thrill play kill get gun ready gon fire cause shoot thrill ready kill get enough get fill shoot thrill play kill pull trigger pull pull pull pull trigger shoot thrill play kill many woman many pill say shoot thrill play kill get gun ready gon fire cause shoot thrill ready kill get enough get fill cause shoot thrill play kill yeah shoot yeah gon get bottom girl shoot gon shoot yeah yeah yeah yeah gon shoot yeah yeah gon get shoot shoot shoot shoot shoot shoot shoot gon shoot thrill play kill shoot thrill work bar rid car never gon give free apartment view fine avenue look beat street always push shove satisfy nothing bitch must get old stop life road digging gold make wonder yes wonder wonder honey money honey money get kick love take always make squeeze blood outta men stand queue spend night business usual always grab stab try get back girl must get slow stop life road digging gold make wonder yes wonder yes wonder honey money honey money money honey get kick money honey get lick honey money say honey money yeah honey money honey get money honey money get get take easy knee devil ninety degree blow crazy blow crazy ammunition dry use head use head use head give dog bone give dog bone give dog bone give dog bone give dog bone give dog bone give dog bone give dog bone mona lisa playboy star send heaven explode mar use head use head use head give dog bone give dog bone give dog bone give dog bone give dog bone give dog bone give dog bone give dog bone give dog bone get power union hit hot like give lot give everything get give dog bone give dog bone give dog bone give dog bone give dog bone give dog bone give dog bone give dog bone give dog bone give dog bone give dog bone give dog bone give dog bone give dog bone give dog bone give dog give dog give dog bone fly free flight drive night machinery cause get power hour show man get reputation blow piece artillery well guide rid give get struggle fight worry cause turn tonight let put love babe let put love line let put love babe let cut cake knife like fever burning faster spark fire crazy feeling get reel get raise steam struggle fight worry cause turn tonight yeah let put love babe let put love line let put love babe let cut cake knife come let let let put love babe let put love line let put love babe let cut cake knife let put love babe let put love line let put love babe let give let give give back black hit sack long glad back yes let loose noose keep hang keep look sky cause get high forget hearse cause never die get nine life cat eye abuse every one run wild cause back yes back well back yes back well back back well back black yes back black back back cadillac number one bullet power pack yes bang gang get catch want hang cause back track beat flack nobody gon get another rap look make play try push luck get way cause back yes back well back yes back well back back well back black yes back black well back yes back well back yes back well back back well back black yes back black yeah yeah yes yeah yeah yeah back well back back back back back back back back back back back back black yes back black outta sight fast machine keep motor clean best damn woman ever see sightless eye tell lie knock american thigh take share fight air tell come already cause wall start shake earth quake mind ache make shake night long yeah shake night long work double time seduction line one kind mine mine want applause another course make meal outta come back cool take another round back ring take another swing cause wall shake earth quake mind ache make shake night long yeah shake night long knock say shake night long shake shake night long yeah shake take really take shake night long shake night long yeah yeah shake night long really get shake night long yeah shake yeah shake night long whiskey gin brandy glass pretty handy try walk straight line sour mash cheap wine join drink boy gon make big noise worry tomorrow take today forget check get hell pay drink yeah drink yeah drink drink dizzy drunk fightin tequila white lightnin glass get short whiskey ice water come good time get blind outta mind worry tomorrow take today forget check get hell pay drink yeah drink yeah drink drink get stone drink drink drink come gon roll around gon hit ground take another swig another drink gon drink dry gon get high come boy make noise drink drink drink drink drink drink drink idle juvenile street street kick everything foot foot fight wrong side law law kick fight sleep night shake leg shake leg shake leg shake keep outta trouble eye back face kick class tell damn disgrace tell think stink really care get mind move get outta hair shake leg shake head shake leg wake dead shake leg get stick shake leg shake leg mob scene wet dream dirty woman machine big lick skin flick tricky dick chemistry grain tryin keep sane stop grinning drop linen shake leg shake head shake leg wake dead shake leg get stick shake leg shake leg shake idle juvenile street street kick everything foot foot fight wrong side law law spitting biting kicking fight shake leg shake head shake leg wake dead shake leg get stick shake leg play win shake leg shake head shake leg wake dead shake leg get stick shake leg shake leg shake hey middle men throw away fancy clothes sit fence get arse come cause rock roll riddle man make good good sense good sense yeah let heavy decibel play guitar get vibration come floor listen rock give much noise deaf want hear talk future forget past always never gon die never gon die rock roll noise pollution rock roll gon die rock roll noise pollution rock roll survive yes take look inside bedroom door look good lie bed well ask want rhythm love say want rock roll instead talk future forget past always never gon die never gon die rock roll noise pollution rock roll gon die rock roll noise pollution rock roll rock roll rock roll noise pollution rock roll gon die rock roll noise pollution rock rolling survive rock roll noise pollution rock roll never die rock roll noise pollution rock roll rock roll rock roll</t>
+  </si>
+  <si>
+    <t>come party tonight gon get leave get right child forget trouble forget news gon pull plug black blue tie tight adjust noose gon hang tight cut loose tear bur hey daddy hide daughter sun come back around come party come come unwound tell everybody boy back town tear burn love hear stomp sing swamp little southeast western swing thing grab unto let make little midnight moonlight magic happen let hang want join fun shout tear bur hey daddy hide daughter sun come back around come party come come unwound tell everybody boy back town tear burn tear bur hey daddy hide daughter sun come back around come party come come unwound tell everybody boy back town tear burn know like party know like throw tell everybody let get around gon tear burn johnny grow dark side law living shadow light never saw rosie come around way true love look elsewhere thing never wild wind wild wind wild wind love wild wind wild wind wild wind love team travel thier way look forever every yesterday bring hope way angel take heaven way never know wild wind wild wind wild wind love wild wind wild wind wild wind love wild wind every often get stray look eye know hold without ever ask wild wind wild wind wild wind love wild wind wild wind wild wind love wild wind wild wind wild wind love wild wind wild wind wild wind love stand spotlight perfect night know listen remember one time afraid think courage stand stage reach heart find melody ever somebody make believe song make sing voice give wing light shin guide heart find place belong song every night pray music start play best let time stand feeling feel brand new time doubt think song make sing voice give wing light shin guide heart find place belong song dream come true god great angel like song make sing voice give wing light shin guide heart find place belong song song always song</t>
+  </si>
+  <si>
+    <t>get big girl get young one wonder day could way remember crazy remark would get drunk dark search someone could take home want alone want see sun want open door see one step tomorrow come two step someone three step know gon one else friend hold strong let never one take place want reach take hand little love tenderness walk upon water rise mess little peace harmony take world together take hand get hand want run yesterday saw stand head eye red comb touch hair say get let see smile take walk together walk road awhile get hand get hand want run let run yeah hold hand want hold hand hold hand take place hold hand anything want want love best best see waste waste time think problem think crime stand scream aloud want part problem want part crowd get hand get hand want run let run hold hand want hold hand hold hand take promise land hold hand maybe change world want love best best yeah hold hand want hold hand hold hand take place hold hand anything want hold hand want hold hand hold hand take promise land hold hand maybe change world want love best best best sit alone lamp post try find thought escape mind say dar one love stipe far behind never let tell much drink say care run hand dark hair pray god get help fly away let cry tear fall like rain let sing ease pain let let walk right sun come tomorrow let let morning wake alone find note standing phone say maybe maybe back day want look walk know sit back beer felt sorry say let cry tear fall like rain let sing ease pain let let walk right sun come tomorrow let let let cry tear fall like rain let sing ease pain let let walk right sun come tomorrow let last night try leave cry much could believe girl fell love long ago back get high sit couch cry yell mama please help hold hand let cry tear fall like rain let sing ease pain let let walk right sun come tomorrow let let cry tear fall like rain let sing ease pain let let walk right sun come tomorrow let let come different world like laugh look girl sometimes crazy wonder baby dolphin make cry well nothing look girl like look get nothing left say gon pout get way dance sing want love want wear ring well nothing want call fool want put little dylan sit fence say line great ask meant say shoot man name gray take wife italy inherit million buck die come help lucky want bobby cool want yeah tangle blue want call fool want sometimes wonder ever end get mad friend sometimes crazy wonder baby yeah dolphin make cry well nothing want call fool want yeah tangle blue want want want want look gift horse mouth come try tell talkin thing deal live lie every time see make want cry sometimes would laugh talk seem like yesterday let white horse come take away come get cold black wheel motion turn back run angel runnin devil look long time ago something want know lie cheat really tear apart please come home gon break momma heart mama please stay one day boy long much still say sky rip open hold heart hand like soldier last day cry sleep night listen hear angel sing sha sha home sha sha home something inside make scream could god take little boy alright side little boy pride joy summer radio phone ring jeanette say boy let beg yet leave six fend guess part someone master plan see laugh best friend light lamb cry angel sing trouble world busy think right rebel flag hang state house wall tire hear shit heritage hate time make world good place must hate one another well matter get live together look like tell see pass street want see come get say want turn run away tell see right wrong care wish would quit drown sea tear hatred try hide fear live hat everybody else cause look like nanci sing hard life wherever fat racist living chicago try teach kid hate everyone well tell something want teach son must hate one another people church tell brother walk like talk like say back africa understand try someone could look walk street tell see man man man like hate know know know hat everybody else cause look like time punish like wave crash shore wash away dreams time walk away like friend somewhere leave cry teach tomorrow pain sorrow run free tomorrow another day believe time time understand child kill street die color rag time take red blue wash ocean make clean maybe mother cry tonight teach tomorrow pain sorrow run free tomorrow another day believe time waste time walk friend mine know think mind think time die tomorrow yeah lay sleep time waste time walk friend mine know think mind think time time leave stand like tree grow alone wind strip bare strip bare time past come future far away last one second one second teach tomorrow pain sorrow run free tomorrow another day believe time time friend mine know think outta mind walk waste friend mine know time without courage power without faith waste waste wasted time time punish saw standing tear upon cheek tell something wrong ask look away say daddy home know mean mean could never see see want deal anymore look away say turn try hold could let let let say make cry say love look away want know saw standing tear upon cheek tell something wrong say baby look away say daddy home look away say turn darling love could let let let look away say love look away alone sit watch tree tell scream bend listen make wonder know word come laugh run little boy say son say know boy know make wonder star shine eye close brother heart cry know stranger home everybody someone please talk cause feel cry sit know never see lie charleston carolina sky see tire feel pain tire live little lie make wonder see dream mean anything try talk stranger home tell feel alone someone tell feel strong wonder feel realize pain real see dream wonder look smile right want know true look tell realize come take soon day short night long lay memory keep keep make wonder sit stare see face tell care stranger home live life right see feel weak sould begin bleed one listen even tree tomorrow use day away love someone far away never think day would come would see hand mine hold onto could find time deny nothing last forever want leave see tear drop eye want live see day say goodbye come another part life call alone sit bar chris leave house home want touch girl want feel close without love would give walk away easily maybe young figure together even pain remedy right want live see day say goodbye first meet could love anyone steal dream make see walk sun still deny nothing last forever want leave see teardrop eye baby young let figure together even pain remedy right want live see day say goodbye say goodbye goodbye goodbye</t>
+  </si>
+  <si>
+    <t>know nothing say someone take place time bad time rough lay tall grass let stuff know get nothing know nothing time bad get enough lay tall grass let stuff one thing think know gon miss long toss around enough could let stuff know hop find someone gon give peace mind time bad time rough lay tall grass let stuff second hand news second hand news say want freedom well keep right play way feel listen carefully sound loneliness like heartbeat drive mad stillness remember lose lose thunder happen rain player love play say woman come rain wash clean know know see crystal vision keep vision want wrap around dream dream would like sell dream loneliness like heartbeat drive mad stillness remember lose lose thunder happen rain player love play woman come rain wash clean know thunder happen rain player love play say woman come rain wash clean know know know know break let make see one time two time never back know mean win come see one time two time never back wake want smile take little open eye look day see thing different way stop think tomorrow stop soon good yesterday yesterday think time come thing life bad think tomorrow stop think tomorrow stop soon good yesterday yesterday want see smile take little know believe true never mean harm stop think tomorrow stop soon good yesterday yesterday stop think tomorrow stop soon good yesterday yesterday look back look back look back look back love right thing ever change thing feel could baby would give world take way way call another lonely day way way tell everything turn around pack shack want could baby would give world open everything wait way way call another lonely day way way cry sun shin feel alright know right give world never cold feel alright know right songbird sing like know score love love love like never wish love world wish songbird keep sing like know score love love love like never like never like never listen wind blow watch sun rise run shadow damn love damn lie love never love still hear say would never break chain listen wind blow come night run shadow damn love damn lie break silence damn dark damn light love never love still hear say would never break chain chain keep together run shadow sweet wonderful make happy thing feeling follow wherever never believe miracle feeling time try never believe way magic begin wonder never believe miracle feeling time try never believe way magic begin wonder break spell would different know make love fun tell one make love fun want make love fun want make love fun want make love fun want want know reason love keep right walk line want stand love honey want feel fine want know reason love keep right walk line want stand love honey want feel fine finally baby truth come take listen spirit cry loud try believe say love know get rock reeling want know reason love keep right walk line want stand love honey want feel fine want know reason love keep right walk line want stand love honey want feel fine finally baby truth tell tell crazy nothing know try survive say love know get rock reel hanging onto want know reason love keep right walk line want stand love honey take little time want know daddy know make cry love understand daddy make see fool around get daddy soothe smile let know best thing life daddy make see fool around get right wrong weak strong everything alright walk away baby try rock gold dust woman take silver spoon dig grave heartless challenge pick path pray wake morning see sunrise love lousy lover pick prey never cry loud cry well make cry make break shatter illusion love know pick piece home rock ancient queen follow pale shadow ruler make bad lover good put kingdom sale sale well make cry make break shatter illusion love know pick piece home well make cry make break shatter illusion love tell know pick piece home home home ooh pale shadow woman black widow pale shadow dragon dust woman ooh pale shadow woman black widow ooh pale shadow dragon gold dust woman</t>
+  </si>
+  <si>
+    <t>let girls come tonight feel alright gon let hang want make noise really raise voice yeah want scream shout inhibition make condition get little outta line gon act politically correct want good time best thing woman prerogative little fun totally crazy forget lady men shirt short skirt really wild yeah style get action feel attraction color hair dare want free yeah feel way feel man feel like woman girl need break tonight gon take chance get town need romance want dance gon let hair hang best thing woman prerogative little fun totally crazy forget lady men shirt short skirt really wild yeah style get action feel attraction color hair dare want free yeah feel way feel man feel like woman best thing woman prerogative little fun fun fun totally crazy forget lady men shirt short skirt really wild yeah style get action feel attraction color hair dare want free yeah feel way feel man feel like woman get totally crazy feel come come come baby feel like woman need shrink tell think miss link love life alright uptight need psychic really like someone try tell future hold already know love keep alive need survive get side hold feel strong baby one life yeah hold doubt live without life hold love save life need get catch net already set understand already get man need proof show truth even ruth gon tell feel know love real love keep alive need survive get side hold feel strong baby one life yeah hold doubt live without life hold love save life hold love save life love keep alive need survive get side hold feel strong baby one life yeah hold doubt live without life hold love save life save save save save life life great love gon wait hurry worry stay single plan need steady man cover discover love get every time heart change mind gol darn guess fell love must way walk sweet sweet talk guess gol darn quite content pay rent place need space free shop around rush settle cover discover love get every time heart change mind gol darn guess fell love must way walk sweet sweet talk guess gol darn love get every time heart change mind gol darn guess fell love must way walk sweet sweet talk way call name know never love get every time heart change mind gol darn think cover life great well gol darn complicate hang shoulder read mail appreciate talk guy think tail get aggravated get phone get third degree really feeling frustrate take pill put little trust see freak know fact relax stupid know love ridiculous know need absurd know want impossible mad mad live without live without crazy crazy stupid know love stop overreact even get suspicious paint nail definitely distract way dramatize every little small detail freak know fact relax max stupid know love ridiculous know need absurd know want impossible mad mad live without live without crazy crazy stupid know love stupid baby mad mad live without live without crazy crazy stupid know love ridiculous know need absurd know want impossible swear always would give anything everything always care weakness strength happiness sorrow good bad love every beat heart moment life begin moment one right beside belong moment moment bless live happiness love would give last breath moment give hand heart wait live life wait start never apart dream come true moment long live love promise nothing would give moment reason believe love answer prayer need two dream come true moment long live love promise nothing would give moment love long live moment get life get grip get away somewhere take trip take break take control take advice someone know come come pull seat take load foot come come unwind take load mind make wish make move make mind choose need laugh come around come come pull seat take load foot come come unwind take load mind winner star happy get got make plan get come come pull seat take load foot come come unwind take load mind get life get grip get away somewhere take trip take break take control take advice someone know come come pull seat take load foot come come unwind take load mind elephant could fly would little optimistic see happen anytime soon mean sound pessimistic think cow really jump moon wake break make money grows tree people live peace everyone agree happiness free love guarantee come back would love wake smile full joy spring hear cnn elvis life john back beatles tour first line ticket get see show sure wake break make money grows tree people live peace everyone agree happiness free love guarantee come back wake break make money grows tree people live peace everyone agree happiness free love guarantee come back deep denialville try fight way feel jello smile start blush head rush stand close might melt heat look way one time gon mind whatever even think get start dare drive crazy baby stop track heart pump max sucker eye permanently paralyze whatever even think get start dare drive crazy baby whatever get heart attack give shiver back would walk way get weak watch whatever even think get start dare drive crazy baby let let secret treat woman right look place heart gon happen overnight first get learn listen understand deep thought need know friend give get start heart see love gon play part want get know really get inside mind want move close take slow yeah take time must start heart want touch really want touch want touch ask little physical attraction romantic old fashion charm lot love tenderness gon get arm start heart see love gon play part want get know really get inside mind want move close take slow yeah take time must start heart want touch really want touch want touch ask let let secret treat woman right look place heart gon happen overnight want get know really get inside mind want move close take slow yeah take time must start heart want touch really want touch want touch ask first saw saw love first time touch felt love time still one love look like make look far come baby mighta take long way know would get someday say bet never make look hold still together still strong still one still one run one belong still one want life still one still one love one dream still one kiss good night nothing well beat odds together glad listen look would miss say bet never make look hold still together still strong still one still one run one belong still one want life still one still one love one dream still one kiss good night still one still one still one run one belong still one want life still one still one love one dream still one kiss good night glad make look far come baby car start fall apart late work bos get smart pantyline show get run hose hair flat man hate think thing could get bad realize forget purse stress must confess could bad pms job worth pay wait end day honey way hey hey hey hey honey home hard day pour cold one way rub foot gim something eat fix favorite treat honey back head kill need relax watch get phone give dog bone hey hey honey home break nail open mail curse loud hurt like hell job pain mundane sure stimulate brain job worth pay wait end day honey way hey hey hey hey honey home hard day pour cold one way rub foot gim something eat fix favorite treat honey back head kill need relax watch get phone give dog bone hey hey honey home rub neck honey home hard day pour cold one way rub foot gim something eat fix favorite treat honey back head kill need relax watch get phone give dog bone hey hey honey home home feel much good know guy think pretty smart get right art think genius drive wall regular original know think special think something else rocket scientist impress much get brain get touch get wrong yeah think alright keep warm middle night impress much never know guy carry mirror pocket comb sleeve case extra hold gel hair oughtta lock heaven forbid fall outta place think special think something else brad pitt impress much get look get touch get wrong yeah think alright keep warm middle night impress much one guy like shine machine make take shoe let get believe kiss car good night come baby tell must joke right think special think something else get car impress much get move get touch get wrong yeah think alright keep warm middle night impress much think cool get touch get wrong yeah think alright keep warm long cold lonely night impress much think elvis something impress much impress much black eye need blue tear gim freedom positively never back live thing whack rolling punch use abuse would rather die stand live knee beg please black eye need blue tear gim freedom black eye behind blue tear never find definitley find self esteem finally forever free dream cry corner excuse bruise would rather die stand live knee beg please black eye need blue tear gim freedom black eye behind blue tear never find would rather die stand live knee beg please black eye need blue tear gim freedom black eye behind blue tear never find behind never find find self esteem forever free dream together midnight summer air much warmer fall love starlight hold tight together leave lonely tonight want hold night gon alright leave lonely tonight imagine air fill jasmine breeze blow passion dance desire moon fire imagine leave lonely tonight want hold night gon alright leave lonely tonight love beaucoup mon amour one adore leave lonely tonight want hold night gon alright lonely tonight amo mucho amor one adore amo wake morning buzz roll around brain drink feel pretty good must contagious look like around cool catch keep foot ground come come let get something start come come let start something gon rock country gon rock country every brown eyed boy every blue eye girl get really psycho give whirl gon rock country right world utah texas minnesota mississippi nevada matter live buzz come come let get something start come come let start something gon rock country gon rock country every brown eyed boy every blue eye girl get really psycho give whirl gon rock country right world plug power crank sound come direction head town kick dust blow steam let get nut everybody scream gon rock country gon rock country every brown eyed boy every blue eye girl get really psycho give whirl gon rock country right world get way somehow get believe everything could get say really get way get way seem give faith find dream never know mean see get way way want way hold way show love make way make love get way word get smile even hurt way measure love worth believe way get way want way hold way show love make way make love adore like one love way way want way hold way show love make way make love way</t>
+  </si>
+  <si>
+    <t>flew miami beach get bed last night way paper bag knee man dreadful flight back know lucky boy back yeah away long hardly know place gee good back home leave tomorrow unpack case honey disconnect phone back know lucky boy back back back well ukraine girl really knock leave west behind moscow girl make sing shout georgia always mind come yeah yeah yeah yeah yeah yeah back know lucky boys back well ukraine girl really knock leave west behind moscow girl make sing shout georgia always mind show around snow peak mountain way south take daddy farm let hear balalaika ring come keep comrade warm back hey know lucky boys back let tell honey hey back back yes free yeah back dear prudence come play dear prudence greet brand new day sun sky blue beautiful dear prudence come play dear prudence open eye dear prudence see sunny sky wind low bird sing part everything dear prudence open eye look around round look around round round look around dear prudence let see smile dear prudence like little child cloud daisy chain let see smile dear prudence let see smile dear prudence come play dear prudence greet brand new day sun sky blue beautiful dear prudence come play tell strawberry field know place nothing real well another place everything flow look bent back tulip see half live look glass onion tell walrus man know close man well another clue walrus paul standing cast iron shore yeah lady madonna try make end meet yeah look glass onion yeah yeah yeah look glass onion tell fool hill tell man live still well another place listen fix hole ocean try make dove tail joint yeah look glass onion desmond barrow market place molly singer band desmond say molly girl like face molly say take hand life bra life life bra life desmond take trolley jeweler store buy twenty carat golden ring golden ring take back molly wait door give begin sing sing life bra life life bra life yeah couple year build home sweet home couple kid run yard desmond molly jones happy ever market place desmond let child lend hand arm leg molly stay home pretty face evening still sing band yes life bra life hey life bra life couple year build home sweet home couple kid run yard desmond molly jones yeah happy ever market place molly let child lend hand foot desmond stay home pretty face evening singer band yeah life bra life yeah life bra life want fun take thank honey pie honey pie honey pie honey pie honey pie honey pie honey pie honey pie love honey pie hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill tiger hunt elephant gun case accident always take mum american bullet head saxon mother son child sing hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill deep jungle mighty tiger lie bill elephant take surprise captain marvel zap right eye zap child sing hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill child ask kill sin look fierce mummy butt look could kill would instead child sing hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill hey bungalow bill kill bungalow bill look see love sleep guitar gently weep look floor see need sweep still guitar gently weep know nobody tell unfold love know someone control buy sell look world notice turn guitar gently weep every mistake must surely learn still guitar gently weep well know divert pervert know invert one alert look see love sleep look wing play stag guitar gently weep look sit nothing age still guitar gently weep yeah yeah yeah yeah yeah yeah yeah yeah yeah ooh girl miss much yeah well acquaint touch velvet hand like lizard window pane man crowd multicoloured mirror hobnail boot lie eye hand busy work overtime soap impression wife eat donate national trust need fix bit leave uptown need fix mother superior jump gun mother superior jump gun mother superior jump gun mother superior jump gun mother superior jump gun mother superior jump gun happiness warm gun happiness bang bang shoot shoot happiness warm gun mama happiness bang bang shoot shoot hold arm yeah feel finger trigger yeah know nobody harm yeah happiness warm gun mama happiness bang bang shoot shoot happiness warm gun yes happiness bang bang shoot shoot happiness warm yes gun happiness bang bang shoot shoot well know happiness warm gun mama happiness warm gun yeah martha dear though spend day conversation please remember martha love forget martha dear hold head silly girl look find thick help bit around silly girl take good look around take good look bind see mean silly girl hold hand silly girl see find thick help bit around silly girl martha dear always inspiration please good martha love forget martha dear tired sleep wink tired mind blink wonder get fix drink tired know tired mind set wonder call know would would say put joke harm know sleep stop brain know three week insane know would give everything get little peace mind tired feel upset although tired another cigarette curse sir walter raleigh stupid git would say put joke harm know sleep stop brain know three week insane know would give everything get little peace mind would give everything get little peace mind would give everything get little peace mind monsieur monsieur monsieur another one blackbird singing dead night take broken wing learn fly life wait moment arise blackbird sing dead night take sunken eye learn see life wait moment free black bird fly black bird fly light dark black night black bird fly black bird fly light dark black night blackbird singing dead night take broken wing learn fly life wait moment arise wait moment arise wait moment arise see little piggy crawl dirt little piggies life get bad always dirt play around see big piggy starched white shirt find big piggy stir dirt always clean shirt play around stye backing care around eye something lack need damn good whacking everywhere lot piggy live piggy life see dinner piggy wife clutch fork knife eat bacon one time somewhere black mountain hill dakota live young boy name rocky raccoon one day woman run another guy hit young rocky eye rocky like say gon get boy one day walk town book room local saloon rocky raccoon check room find gideon bible rocky come equip gun shoot leg rival rival seem break dream steal girl fancy name magill call lil everyone know nancy man call dan next room hoedown rocky burst grin grin say danny boy showdown daniel hot draw first shot rocky collapse corner doctor come stinking gin proceed lie table say rocky meet match rocky say doc scratch good well doc soon able rocky raccoon fell back room find gideon bible gideon check leave doubt help good rocky revival yeah yeah come rocky boy come rocky boy story rocky listen footstep come drive listen footstep arrive wait knock dear old front door hear mean love hear clock tick mantel shelf see hand move wonder tonight see mean love pass make cry make blue cause know darling love never know hurt hate see pass make cry sorry doubt unfair car crash lose hair say would late hour two say alright wait wait hear pass make cry make blue cause know darling love never know hurt hate see pass make cry road road road road one watch road road road road road one watch road ooh road road road road one watch road know long love know love still wait lonely lifetime want ever saw catch name never really matter always feel love forever forever love heart love whenever together love apart last find song fill air sing loud hear make easy near thing endear know half say meaningless say reach julia julia julia oceanchild call sing song love julia julia seashell eye windy smile call sing song love julia hair float sky shimmer glimmer sun julia julia morning moon touch sing song love julia sing heart speak mind julia julia sleep sand silent cloud touch sing song love julia hum hum hum hum call sing song love julia julia julia say birthday birthday yeah say birthday gon good time glad birthday happy birthday come come yes party party yes party party yes party party would like dance birthday take cha cha cha chance birthday would like dance birthday dance yeah come would like dance birthday take cha cha cha chance birthday would like dance birthday dance dance say birthday well birthday yeah say birthday gon good time glad birthday happy birthday two three yes lonely want die yes lonely want die dead already ooh girl know reason morning want die evening want die dead already ooh girl know reason mother sky father earth universe know worth lonely want die dead already ooh girl know reason eagle pick eye worm lick bone feel suicidal like dylan jones lonely want die dead already ooh girl know reason black cloud cross mind blue mist around soul feel suicidal even hate rock roll want die yeah want die dead already ooh girl know reason want die yes lonely want die reason want die bear poor young country boy mother nature son day long sit singing song everyone sit beside mountain stream see water rise listen pretty sound music fly doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo find field grass mother nature son sway daisy sing lazy song beneath sun doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo doo yeah yeah yeah ooh ooh ooh wah wah wah wah mother nature son come come come come come joy come joy come let take easy come let take easy take easy take easy everybody get something hide except monkey ooh deeper high fly high fly deeper come come come come joy come joy come let make easy come let take easy take easy yeh yeh yeh take easy hoo everybody get something hide except monkey yeah inside outside outside inside come come come joy come joy come let make easy come let make easy make easy hoo make easy hoo everybody get something hide except monkey hey come come come come come come come come come come come come come come come come sexy sadie make fool everyone make fool everyone sexy sadie ooh sexy sadie break rule lay see lay see sexy sadie oooh break rule one sunny day world wait lover come along turn everyone sexy sadie great sexy sadie know world wait world wait sexy sadie oooh know sexy sadie get yet however big think however big think sexy sadie oooh get yet give everything sit table smile would lighten everything sexy sadie late great make fool everyone sexy sadie however big think sexy sadie get bottom back top slide stop turn ride till get bottom see yeah yeah yeah hey want love come fast mile tell tell tell come tell answer well may lover dancer helter skelter helter skelter helter skelter yeah ooh want make come fast let break tell tell tell answer may lover dancer look helter skelter helter skelter helter skelter ooh look come get bottom back top slide stop turn ride get bottom see yeah yeah yeah well want make come fast let break tell tell tell answer may lover dancer look helter skelter helter skelter helter skelter look helter skelter come fast yes yes come fast head spin ooh alright get blister finger long long long time could ever lose love take long long long time happy find love many tear search many tear waste see ever misplace want love know need ooh love take say want revolution well know want change world tell evolution well know want change world talk destruction know count know gon alright know gon alright know gon alright say get real solution well know would love see plan ask contribution well know want money people mind hate tell brother wait know gon alright know gon alright know gon alright say change constitution well know would love change head tell institution well know good free mind instead carry picture chairman mao make anyone anyhow know gon alright know gon alright know gon alright alright alright alright alright alright alright alright alright alright alright alright alright alright alright alright working girl north england way hit big time usa could hear would say honey pie make crazy love lazy please come home honey pie position tragic come show magic hollywood song become legend silver screen thought meeting make weak knee honey pie drive frantic sail across atlantic belong honey pie come back yeah like like like kind hot kind music hot kind music play play honey blue wind blow boat across sea kindly send sail back honey pie make crazy love lazy please come home come come back honey pie oooooooooooh honey pie honey pie creme tangerine montelimar ginger sling pineapple heart coffee dessert yes know good news pull savoy truffle cool cherry cream nice apple tart feel taste time apart coconut fudge really blow blue pull savoy truffle might feel pain cut know sweat fill head become much shout aloud pull savoy truffle know eat sweet turn sour know obla dibla show creme tangerine montelimar ginger sling pineapple heart coffee dessert yes know good news pull savoy truffle yes pull savoy truffle cry baby cry make mother sigh old enough know good king marigold kitchen cook breakfast queen queen parlour playing piano child king cry baby cry make mother sigh old enough know well cry baby cry king garden picking flower friend come play queen playroom painting picture childrens holiday cry baby cry make mother sigh old enough know well cry baby cry duchess kircaldy always smile arrive late tea duke problem message local bird bee cry baby cry make mother sigh old enough know well cry baby cry twelve clock meeting round table seance dark voice nowhere put specially child lark cry baby cry make mother sigh old enough know well cry baby cry cry cry cry baby make mother sigh old enough know good cry baby cry cry cry cry make mother sigh old enough know well cry baby cry bottle claret realise well next time forget george sorry forgive yes cheeky bitch number number number number number number number number number number number number number number number welsh rarebit wear brown underpants shortage grain hertfordshire everyone know time would get little bit old little bit slow thing case manufacture someone always umpteen father give diddly dee district leave intend pay number number know know number number number number number number number number number number number number sustain nothing worse also example whatever business deal fall inform third night fortune give number number number people right people right right right right right right right right number number number miss make day late compare like wow weird stuff like take side sometimes floral bark rouge doctor bring specimen nobody short cut aha number situation stand still plan telegram ooh ooh number number ooh man without terror beard false headmaster report son really try find function tell say voice low hive high eye low alright head fire glass save enable move number number number number number number number number number number number wife call would well see surgeon whatever price yellow underclothes road see dentist instead give pair teeth good instead join fucking navy sea broken chair wing break hair mood whirl aaah gather france dog dog hand clap bird birding fish fish themming whimming find night watchman unaware presence building onion soup number number number number number number industrial output financial imbalance thrust shoulder blades watusi twist eldorado take brother may serve well maybe nothing aaah maybe nothing maybe even impervious london could difficult thing hold line hold line hold line hold line quick like rush peace much like naked alright alright alright become naked block kick block kick block kick block kick block kick block kick block kick block kick block kick block kick time say good night good night sleep tight sun turn light good night sleep tight dream sweet dream dream sweet dream sweet dream close eye close mine good night sleep tight moon begin shine good night sleep tight dream sweet dream dream sweet dream sweet dream mmmmmm mmmmmm mmmmmmmmmm close eye close mine good night sleep tight sun turn light good night sleep tight dream sweet dream dream sweet dream sweet dream good night good night everybody everybody everywhere good night</t>
+  </si>
+  <si>
+    <t>stay would way know think every step way always love ooh always love darling mmm bittersweet memory take good bye please cry know need always love always love ooh hope life treat kind hope dream wish joy happiness wish love always love always love always love always love always love always love darling love always always love ooh ooh share life take never change colour take love never ask much everything really need look much far want follow hold back passion inside run nowhere hide make close one door want hurt anymore stay arm dare must imagine walk away nothing nothing nothing see right heart break wall strength love never know love like know memory survive one hold really need look much far want follow hold back passion inside run nowhere hide love remember forever make close one door want hurt anymore stay arm dare must imagine walk away nothing nothing nothing make close one door want hurt anymore stay arm dare must imagine walk away walk away dare walk away nothing nothing nothing ooh ooh whatever want whatever need anything want baby naturally every woman every woman yeah every woman anything want baby naturally every woman read thought right every one whoa whoa whoa whoa whoa whoa cast spell secrets tell mix special brew put fire inside anytime feel danger fear instantly appear yeah every woman anything want baby naturally whoa whoa whoa whoa whoa whoa sense need like rain unto seed make rhyme confusion mind come good old fashion love get get get get baby baby every woman anything want baby naturally every woman read thought right every one whoa whoa whoa whoa whoa whoa bragging one ask shall bother compare get whoa whoa whoa whoa whoa whoa whoa whoa whoa every woman every woman every woman chaka khan every woman chaka khan every woman every woman girl ooh know look much see would take time know heart would find girl scar sometimes always strong see hurt feel alone want run want run hold arm keep safe harm want run come tell stay run away day day play role someone always control night come home turn key nobody one care woah sense try hard find dream without someone share tell mean want run want run hold arm keep safe harm want run come tell stay run away run away need need wipe away tear kiss away fear know much want run know want run hold arm keep safe harm want run come tell stay run away get stuff want get thing need get enough make drop knee queen night queen night yeah yeah yeah yeah make difference wrong right get feeling willing tonight well nobody angel say well way hey get stuff want stuff want get thing need thing need get enough make drop knee queen night queen night queen night yeah say say say queen night queen night queen night queen night yeah yeah yeah yeah queen night get problem way say trouble give damn bad know well want get turn get stuff want stuff want get thing need thing need get enough make drop knee enough woo queen night queen night queen night yeah say say queen night queen night queen night queen night yeah yeah yeah yeah play guitar yeah yeah ooh ohh yeah get stuff want stuff want get thing need thing need get enough make drop knee enough make drop queen night queen night queen night yeah say queen night queen night queen night queen night yeah yeah yeah yeah queen night queen night queen night queen night yeah yeah yeah yeah yeah yes jesus love bible tell jesus love know bible tell little one belong weak strong yes jesus love yes jesus love yes jesus love bible tell press upper away always guide lord pray undeserving stubborn never fail love still yes jesus love yes jesus love yes jesus love bible tell yes jesus love love yes jesus love bible tell bible tell feel good know never alone see sometimes lonely never alone bible tell bible tell bible tell see know love whether right whether wrong</t>
+  </si>
+  <si>
+    <t>look morning sun turn music start day lose familiar song close eye slip away feeling feeling hear old song use play feeling begin dream feeling see marianne walk away see marianne walk away many people come face fade year yet still recall wander clear sun summer sky feeling feeling hear old song use play feeling begin dream feeling see marianne walk away see marianne walk away tire think cold hide music forget day dream girl use know close eye slip away slip away feeling feeling hear old song use play feeling begin dream feeling see marianne walk away feel kinda low due pay future come much slow want run somehow keep stay decide way yeah yeah yeah understand indecision care get behind people live competition want peace mind climb top company ladder hope take long tcha see come day matter come day understand indecision care get behind people live competition want peace mind take look ahead take look ahead yeah yeah yeah yeah everybody get advice keep give mean much lot people make believe live decide understand indecision care get behind people live competition want peace mind take look ahead take look ahead look ahead long time think yeah time wait keep roll sail distant highway get keep chase dream get way wish something could say well take time move forget take find want outside front door long time long time well get lonely without mind deep mind forget good time face remind try forget name leave behind come back find well take time move forget take find want outside front door long time long time yeah long time think yeah time wait keep roll long road get stay time get keep chase dream though may never find always behind well take time move along take time move along take time take time well another band boston road try make end meet play bar sleep car practice right street much money barely make enough survive get stage get ready play people come alive rock roll band everybody wait get crazy anticipate love music play play play yeah yeah yeah yeah dance street hyannis get pretty good game people stand line seem mind know everybody know name live rock roll music never worry thing miss get stage get ready play everybody would listen rock roll band everybody wait get crazy anticipate love music play play play yeah yeah yeah yeah play week rhode island man come stage one night smoke big cigar drive cadillac car say boy think band outta sight sign record company contract know get great expectation hear car radio sensation rock roll band everybody wait get crazy anticipate love music play play play yeah yeah yeah yeah gon play song little bit rock roll get let band gon take control get today pick take away get tonight smoke smoking cook tonight keep toking smoke smoking feel alright mamma joke yeah get foot floor everybody rock roll get nothing lose rhythm blue yeah gon feel pick take away get tonight smoke smoking cook tonight keep toking smoke smoking feel alright mamma joke yeah everybody jump dance boogie tonight clap hand move foot know seem right get today pick take away get tonight get today pick take away get tonight well alright day night new york city smoke like water run inside steel idle tree pity every living thing die gon hitch ride head side leave behind never change mind gon sail away sun light another day freedom mind carry away last time yeah life like cold winter people freeze tear cry word hail mind get crack ice fly gon hitch ride head side leave behind never change mind gon sail away sun light another day freedom mind carry away last time gon hitch ride head side leave behind never change mind gon sail away sun light another day freedom mind carry away last time young think could stand easy stand like man make stone something want know bring change start show get feeling inside get good hide easy show feel inside girl easy know believe man like get angry say thing want say really mean want leave way could help reaction want know lose control wantcha know got feeling inside get good hide easy show feel inside girl easy believe man like something want know bring change start show get feeling inside get good hide easy show feel inside girl easy know believe man like like tch see get get something yeah something like really kind shy get feeling whenever walk want want make high could see way come let try let take home tonight mamma alright let take home tonight show sweet delight must understand watch long feel know know wrong get together want make see dream sweet love tonight mamma let let take home tonight mamma alright let take home tonight show sweet delight want make excuse want lie get get loose tonight let take home tonight mamma alright let take home tonight show sweet delight want make excuse want lie get get loose tonight want want make high get feeling whenever walk get together want make see dream sweet love tonight mamma let let take home tonight mamma alright let take home tonight show sweet delight want show sweet delight show sweet delight pretty mamma want show sweet delight let take home tonight know want take home let take home tonight want alone let take home tonight let take home tonight let take home tonight</t>
+  </si>
+  <si>
+    <t>three thirty morning soul sight city look like ghost town moonless summer night raindrop windshield storm move head back somewhere never thunder roll thunder roll every light burn house across town pace telephone faded flannel gown ask miracle hop right pray weather keep night thunder roll thunder roll thunder roll lightning strike another love grow cold sleepless night storm blow control deep heart thunder roll wait window pull drive rush hold thankful alive wind rain strange new perfume blow lightning flash eye know know thunder roll thunder roll thunder roll lightning strike another love grow cold sleepless night storm blow control deep heart thunder roll like bird high line line night time bar lovebird bluebird land hell minute fell love sky hope wine tht find new way fly new way fly far away goodbye cloud rain memory pain tear cry lesson learn crash burn leve behind could find new way fly end night high kite seem mind time money spend high price pay find way get worth every dime find new way fly new way fly far away goodbye cloud rain memory pain tear cry lesson learn crash burn leve behind could find new way fly leave behind soon find new way fly yes lady luck hey wild card man together build real hot hand live country hey little queen south yea two kind work full house wake every morning smile kiss strong country loving hard resist easy loving woman hard work man doubt yea two kind work full house yea pickup truck limousine favorite dress faded blue jean love tender get tough somtimes fight make lord need little woman like crop need rain honeycomb sugar cane really fit together know talk yea two kind work full house time find keeper make mind lord perfect combination heart mine sky limit hill steep play fun play keep draw curtain honey turn light low find country music radio mine hey yea two kind work full house lordy mama two kind work full house well take little time guess finally learn promise get break bridge get burn sift ash try find flame hold nothing victim game stand way close see fall apart thing could hear listen heart say warn one else blame one quite blind victim game matter treat everyone need heart victim game know really get take tell lie try fool friend look eye stand tall shadow shame everybody know victim game matter treat everyone need heart victim game know look eye really feel pain staring mirror victim game blame root show boot ruin black tie affair last one know last one show last one think would see saw surprise fear eye take glass champagne toast say honey may never hear complain get friend low place whiskey drowns beer chase blue away okay big social grace think slip oasis get friend low place well guess wrong belong everything right say goodnight show door hey mean cause big scene give hour well high ivory tower live get friend low place whiskey drowns beer chase blue away okay big social grace think slip oasis get friend low place get friend low place whiskey drowns beer chase blue away okay big social grace think slip oasis get friend low place get friend low place whiskey drowns beer chase blue away okay big social grace think slip oasis get friend low place get friend low place whiskey drowns beer chase blue away okay phone booth cheyenne make promise diane rodeo would last around promise make san antone santa tonight saddle let wild horse keep drag away lose gon win someday wild horse stay wild heart break wild horse keep drag away watch drive around block get courage stop make one promise keep way love rodeo guess let hurt love wild horse keep drag away lose gon win someday wild horse stay wild heart break wild horse keep drag away night hometown football game wife run old high school flame introduce past come back could help think way thing use one would want time night would spend pray god would make mine would grant wish wish back would never ask anything sometimes thank god unanswered prayer remember talk man upstairs answer mean care god great gift unanswered prayer quite angel remember dream could tell time change eye seem try talk old day much could recall guess lord know walk away look wife thank good lord gift life sometimes thank god unanswered prayer remember talk man upstairs may answer mean care god great gift unanswered god great gift often unanswered god great gift unanswered prayer dance hold pull close love dream another count day let old story everybody know one heart hold one let ride lord tell two settle hear highway voice town harder hold slip away old story everybody know one heart hold one let guardian star lose glow day lose lose glitter day say grey sky turn blue like doubtful love true decide call ask blue blue say love prove sly prove love untrue call blue blue say sorry turn around head light town hurt call blue sleep alone night wait phone night call hurt pride call mister tell paint town bright red turn upside paint paint blue sleep alone night wait phone night call hurt pride call mister tell paint town bright red turn upside paint paint blue call blue call mister january always bitter lord one beat wind quit week drift ten foot tall night drive heifer closer lower ground spend morning think one wolf pull charlie barton family stop today say goodbye say bank take last year dry promise would visit find place town spend long time think one wolf pull lord please shine light hope fall behind stumble snow could help still time well mean complain lord always see know get reason every thing tonight outside window lonesome mournful sound keep think one wolf pull lord keep one wolf pull big estate wrought iron gate palm tree stand tall fancy mirror chandelier comfort wall wall ocean air crisp clear rave view mountain breeze hickory tree tennessee bedroom suite come finger touch face close eye fantasize another time place feel warm real know love true try hard please still think sometimes see tennessee good enough man enough something easy love tennessee make mind learn line try play part part tennessee deep heart miss smoky mountain home miss love deep inside always gon tennessee</t>
+  </si>
+  <si>
+    <t>well tell way use walk woman man time talk music loud woman warm kick around since bear right may look way try understand new york time effect man whether brother whether mother stay alive stay alive feel city breaking everybody shaking stay alive stay alive stay alive stay alive stay alive well get low get high get either really try get wing heaven shoe dancing man lose know right live see another day try understand new york time effect man whether brother whether mother stay alive stay alive feel city breaking everybody shaking stay alive stay alive stay alive stay alive stay alive life nowhere somebody help somebody help yeah life nowhere somebody help yeah stay alive well tell way use walk woman man time talk music loud woman warm kick around since bear right may look way try understand new york time effect man whether brother whether mother stay alive stay alive feel city breaking everybody shaking stay alive stay alive stay alive stay alive stay alive life nowhere somebody help somebody help yeah life nowhere somebody help yeah stay alive life nowhere somebody help somebody help yeah life nowhere somebody help yeah stay alive life nowhere somebody help somebody help yeah life nowhere somebody help yeah stay alive life nowhere somebody help somebody help yeah life nowhere somebody help yeah stay alive know eye morning sun feel touch pouring rain moment wander far want feel arm come summer breeze keep warm love softly leave need show deep love deep love deep love really mean learn live world fool break let belong believe know door soul light deep dark hour saviour fall may think care know inside really need show deep love deep love deep love really mean learn live world fool break let belong come summer breeze keep warm love softly leave need show deep love deep love deep love really mean learn live world fool break let belong listen ground movement around something feel wave air dance something share steal sweet city woman move light control mind soul reach yeah feeling right get night fever night fever know gim night fever night fever know show pray moment last living music fine borne wind make mine night fever night fever know gim night fever night fever know show heat love need help make gim enough take morning get fire mind get high walking glow dark give warn sweet city woman move light control mind soul reach yeah feeling right get night fever night fever know gim night fever night fever know show pray moment last living music fine borne wind make mine night fever night fever know feel like forever baby know gim night fever night fever know show leave never baby know night fever night fever know feel like forever baby know gim night fever night fever know show leave never baby know night fever night fever know feel like forever baby know girl know well see grow everyday never really look take breath away suddenly life part everything get work day night try keep hold arm find paradise chance happiness lose think would die say always baby make shine take forever minute time woman woman woman woman woman story old true people love like see let history repeat reflect feel think people know thousand year would fall love way fly way lose love know would die say always baby make shine take forever minute time woman woman woman woman woman know survive every lonely day get chance life would end matter cry tear love waste time turn away strong enough see crazy want nobody baby want nobody baby let matter try give easily love dream never come true strong enough see crazy want nobody baby want nobody baby jive talk tell lie yeah jive talk wear disguise jive talk misunderstood yeah jive talk really good child never know mean child get much gon take away energy jive talk tell lie yeah good loving still get eye nobody believe say jive talk get way love good treat cruel fancy lie leave look like dumbstruck fool jive talk tell lie yeah jive talk wear disguise jive talk misunderstood yeah jive talk good love talk fine yeah jive talk crime somebody love till die jive talk get eye jive talk tell lie yeah good loving still get eye nobody believe say jive talk get way love talk fine yeah jive talk crime somebody love till die jive talk get eye jive talk baby move midnight right till dawn woman take high woman keep warm back aah back aah dance yeah dance yeah juicy trouble get good woman give power right blood back aah back aah dance yeah dance yeah baby move midnight right till dawn woman take high woman keep warm back aah back aah dance yeah dance yeah dance yeah dance yeah dance yeah dance yeah dance yeah</t>
+  </si>
+  <si>
+    <t>drop baby let daddy see drop lady dream well mama allow fool around night long well may look like crazy know right wrong see come throw man outdoor stranger way see come mama throw man outdoor stranger way put night shirt morning gown know night gon shake put night shirt mama morning gown well know night sure gon shake shake shake ooh custard pie yeah sweet nice cut mama save slice custard pie yeah declare sweet nice like custard pie cut mama mama please save slice chew piece custard pie drop chew piece custard pie london see seven wonder know trip fall use rock sometimes would roll always know denying wind shake flat world fly new plague land join hand could join hand could join hand traverse planet heaven send saw king rule still firelight purple moonlight hear rested river call wind cry love grow cold lover lie dark side globe join hand could join hand could join hand get rock ought rolling darling tell darling way keep rock baby keep steal tell darling way right wonder worry would dearly like know wonder earthly plunder leave anything show time fly see candle burning low new world rise shamble old could join hand could join hand could could could could could join hand take take take take time die want nobody mourn want take body home well well well die easy well well well die easy jesus get make know jesus get make jesus gon make die bed meet jesus meet meet middle air wing fail lord please meet another pair well well well die easy well well well die easy jesus gon make somebody somebody jesus gon make jesus gon make die bed saint peter gate heaven let never harm never wrong gabriel let blow horn let blow horn never harm harm young never think would anybody wrong somebody good somebody good somebody good must somebody good believe see smile face know must leave trace see street see field hear shout foot know get real lord deliver wrong deliver lord want fun hear angel march hear marching hear march hear march marching jesus know get jesus get jesus get get jesus get get jesus take home come come hear angel sing come come come bye bye bye bye bye bye bye bye feel pretty good pretty good georgina georgina georgina georgina ooh let see come take yes come make die die die cough gon one come listen yes thank let take movie take show let ever truly make garden grow house holy watch white dove door come satan daughter show know angel shoulder hand sword gold let wander garden seed love sow know world spin faster dizzy stall let music master heed master call satan man say use cry drive mad hurt hear lie world let take take movie take baby show let ever truly make garden grow know right greasy slick body groovy leather trim like way hold road mama sin talk love trouble free transmission help oil flow mama let pump gas mama let talk love dig heavy metal underneath hood baby could work night believe get perfect tool talk love model build comfort really build style specialist tradition mama let feast eye talk love factory air condition heat begin rise guarantee run hour mama perfect size talk love grooving freeway gauge red gun gasoline believe gon crack head talk love stop talk come service every hundred mile baby let check point fix overdrive talk love fully automatic come size make wonder synchronize talk love feather light suspension koni could hold glad take look inside showroom door talk love stop talk love let sun beat upon face star fill dream traveler time space sit elder gentle race world seldom see talk day sit wait reveal talk song tongue lilt grace sound caress ear word heard could relate story quite clear ooh baby fly yeah mama deny ooh yeah fly mama mama deny deny see turn brown sun burn ground eye fill sand scan wasted land try find try find pilot storm leave trace like thought inside dream heed path lead place yellow desert stream shangri beneath summer moon return sure dust float high june move kashmir father four wind fill sail across sea year provision open face along strait fear way see see way stay ooh baby ooh baby let take come come let take let take feel sink low believe wrong light find road find road ever believe could leave stand cold know feel slip depths soul baby want show clear view every bend road listen whoa whoa really would honey would would share load let share load ooh let share share load feel light find road though wind change may blow around always love pain devour never alone would share load would share load baby let let light everybody need light light light light light light light light light light light light ooh yeah light light light light seaside see boat sail people hear little fish say people turn away people turn away city street see folk race race time leave pass time day people turn away people turn away far away far away see run see run see run see run still twist find remember thing well want tell twisting every day though sometimes awful hard tell country hear people sing sing progress know people turn away yes people turn away sing loud sunshine pray hard rain show love lady nature come back people turn away people turn away though course may change sometimes river always reach sea blind star fortune several ray wing maybe downy bird prey kind make feel sometimes grow eagle leave nest get far change fill time baby alright midst think use ever really need somebody really need bad ever really want somebody best love ever ever remember baby feel good first time know would dewy eye sparkle sens grow keen taste love along way see feather preen kind make feel sometimes grow eagle one nest nest soul vixen dream great surprise never think would see face way use darling darling darling darling never gon leave never gon leave hold ten year hold ten year ten year hold ten year never never never receive message brother across water sit laugh write end sight say goodbye friend pack hope inside matchbox know time fly come meet morning meet middle night morning light come make want feel alright jump train never stop somehow know never finish pay ride someone push gun hand tell type man fight fight require come meet morning meet middle night morning light come make want feel alright mama well think time leave nothing make stay whoa mama well must time knock door try take away please brakeman ring bell ring loud clear please fireman ring bell tell people get fly away saw picture lady baby southern lady special smile middle change destination train stop together smile meet morning meet middle night night night everybody know morning time come make want feel alright yeah make feel alright fly baby get fly yeah fly baby silent woman night come take seed shake frame old fire another flame wheel roll silent woman flame come deep behind sun seem nightmare begin leave barely hold blaze eye see tremble hand know time come lose sens lose command feel heal river run every time fall think one darkness hear call another day begin silent woman face change know way come feel fire need brand new flame wheel roll roll town baby get rock yeah darling get home want tutti frutti lollipop come baby rock rock rock yeah yeah yeah yeah honey shake night darling get roll right ooh head rock hey babe hey babe want tutti frutti lollipop come baby rock rock rock shall roll jimmy roll one one airplane heard fly overhead get get airplane naw leave yeah hey hey mama matter tell love love mama let hey hey mama matter make total disgrace leave beer face hey hey mama matter alright awful dog clear hey hey baby treat mean crucify like tell kid hey hey mama would treat mean say would always side tell would blush bride hey hey mama treat mean alright know sister tell love leave mama let hey hey mama wrong leave like total disgrace leave beer face hey hey mama wrong alright would way crucify like tell kid hey hey mama matter tell would tell baby let hey hey mama wrong alright know sister matter mama window rented limousine saw pretty blue eye one day soon gon reach sixteen paint lady city lie know name look know one want must one need yeah clutch page teenage dream lobby hotel paradise circus queen fast learn downhill side know name look know one want must one need lip like cherry brow queen come flash eye say dig since thirteen giggle heave sigh know name look know one want must one need hour hour moment baby could count time fun come pain leave baby dry silver eye know name look know one want must one need ooh right</t>
+  </si>
+  <si>
+    <t>bear dead man town first kick take hit ground end like dog beat much till spend half life cover bear bear bear bear got little hometown jam put rifle hand send foreign land kill yellow man bear bear bear bear bear come back home refinery hire man say son see man say son understand brother khe sanh fight viet cong still woman love saigon get picture arm shadow penitentiary gas fire refinery ten year burn road nowhere run get nowhere bear bear bear long daddy bear bear bear cool rocking daddy time tough get tougher old world rough get rougher cover come baby cover well look lover come cover promise baby let find hold arm let let love blind cover shut door cover well look lover come cover outside rain driving snow hear wild wind blow turn light bolt door whole world try score see enough want see cover come cover look lover come cover look lover come cover drive darlington county wayne fourth july drive darlington county look work county line drive new york city girl pretty want know name drive darlington city get union connection uncle wayne drive mile without see cop get rock roll music blast top singing sha sha sha sha sha sha hey little girl stand corner today lucky day sure right buddy new york city get want rock night girl look two big spender world know wayne might one world trade center kiss smile give mine come baby take seat fender long night tell else gon could little girl sit window see buddy seven day county man tell thing work get pay little girl young pretty walk way leave darlington city ride dixie highway drive darlington county eye see glory come lord drive darlington county see wayne handcuffed bumper state trooper ford friday night pay night guy fresh work talk weekend scrub dirt heading home family look get hurt stovell wear trouble shirt work county day hold red flag watch traffic pas head keep picture pretty little miss someday mister gon lead good life work highway lay blacktop work highway day long stop work highway blast bedrock work highway work highway meet dance union hall stand brother back wall sometimes would walk union track one day look straight look straight back save money put away see daddy much say son see little girl know nothing cruel cruel world light florida get along right one day brother come get take black white prosecutor keep promise make day judge get mad put straight away wake every morning work bell clang warden swing charlotte county road gang job girl something mister world get lay lumber yard love bad time get hard work carwash ever rain feel like rider downbound train say joe get get pack bag leave behind buy ticket central line night sleep hear whistle whine feel kiss misty rain feel like rider downbound train last night hear voice cry cry alone say love never die wait home put jacket run wood run till think chest would explode clearing beyond highway moonlight wedding house shone rush yard burst front door head pound hard stair climb room dark bed empty heard long whistle whine drop knee hang head cry swing sledge hammer railroad gang knock cross tie work rain feel like rider downbound train hey little girl daddy home leave alone get bad desire fire tell baby good thing take high fire sometimes like someone take knife baby edgy dull cut six inch valley middle skull night wake sheet soak wet freight train run middle head cool desire fire fire fire well bust class get away fool learn three minute record baby ever learn school tonight hear neighborhood drummer sound feel heart begin pound say tire want close eye follow dream well make promise swear would always remember retreat baby surrender like soldier winter night vow defend retreat baby surrender young face grow sad old heart fire grow cold swear blood brother wind ready grow young hear sister voice call home across open yard well maybe could cut someplace drum guitar make promise swear would always remember retreat baby surrender blood brother stormy night vow defend retreat baby surrender street tonight light grow dim wall room close war outside still rag say anymore win want sleep beneath peaceful sky lover bed wide open country eye romantic dream head make promise swear would always remember retreat baby surrender blood brother stormy night vow defend retreat baby surrender retreat baby surrender well come house day mother say away say nothing could nothing nobody could say know ever since sixteen wish would know wish could call say goodbye bobby jean hang others turn away turn nose like music like band like clothes tell wild wild thing would ever see wish would tell wish could talk say goodbye bobby jean walk rain talk pain world hide nobody nowhere nohow gon ever understand way maybe road somewhere bus train travel along motel room radio playing hear sing song well know think mile call one last time change mind say miss baby good luck goodbye bobby jean sit car outside house quiet feel heat come around put arm around give look like way bound well let one bored sigh well lately look eye get dress baby night come home early burn burn fire fight sick tired set set knock knock knock pull close baby kiss feel doubt remember back start kiss use turn inside use drive work morning friday night would drive around use love drive wild lately girl get kick drive friend big baseball player back high school could throw speedball make look like fool boy saw night roadside bar walk walk back inside sit drink keep talk glory day well pass glory day wink young girl eye glory day glory day well girl live block back school could turn boy head sometimes friday stop drink put kid bed husband bobby well split guess two year sit around talk old time say feel like cry start laugh think glory day well pass glory day wink young girl eye glory day glory day think well tonight drink till get fill hope get old sit around think probably yeah sit back try recapture little glory well time slip away leave nothing mister bore story glory day well pass glory day wink young girl eye glory day glory day well pass glory day wink young girl eye glory day glory day get evening got nothing say come home morning bed feel way nothing tire man tire bore hey baby could use little help start fire start fire without spark gun hire even dance dark message keep get clearer radio move around place check look mirror want change clothes hair face man get nowhere living dump like something happen somewhere baby know start fire start fire without spark gun hire even dance dark sit around get old joke somewhere shake world shoulder come baby laugh stay street town carve alright say get stay hungry hey baby starve tonight die action sick sit around try write book need love reaction come baby gim one look start fire sit around cry broken heart gun hire even dance dark start fire worry little world fall apart gun hire even dance dark even dance dark even dance dark even dance dark hey baby eight year old run dime hand bus stop pick paper old man would sit lap big old buick steer drive town would tousle hair say son take good look around hometown hometown hometown hometown tension run high high school lot fight black white nothing could two car light saturday night back seat gun word pass shotgun blast trouble time come hometown hometown hometown hometown main street whitewash window vacant store seem like nobody want come close textile mill across railroad track foreman say job boy come back hometown hometown hometown hometown last night kate lay bed talk get pack bag maybe head south thirty five get boy last night sit behind wheel say son take good look around hometown</t>
+  </si>
+  <si>
+    <t>deja migo sin ella somos tika gai simba gai yaya cantando paris ella quiso estar junto sorprendi quando dijo yaleo vamos caminando ise tomando vino partiendo pan ella dijo dame dame yaleo yaleo yaleo tika gai simba gai yaya pudieras decirme creo que pasa aqui ella mia amor ahora tengo ninos que dicen yaleo yaleo yaleo tika gai simba gai yaya yaleo tika gai simba gai yaya get call carlos santana want eye thing want see night dream everything love life breath prayer take hand lead need forget taste mouth lip heaven pour forget one alone free everyday every night alone love life alright alright everyday every night alone love life dance moonlight starlight eye dance sunrise gon dance dance dance hey sinner put light put light hey lover put light put light hey killer put light put light hey child leave light good leave light monster live bed whispering ear angel hand head say get nothing fear darkness live deep soul still get purpose serve let light shine deep home god let lose nerve let lose nerve hey hey hey hey hey hey hey hey hey sinner put light put light hey child leave light good leave light monster live bed whispering ear angel hand head say get nothing fear say illaha illa allah shine like star illaha illa allah shine like star fade away ella baila portugueza estoy llamando todas morenas llamada viene luz con calma baila esta danza con amor canto esta cancion africa bamba hace lado tristeza otra dulce podras encontrar oye eso sentir feliz ella baila portugueza estoy llamando todas morenas llamada viene luz con calma baila esta danza con amor canto esta cancion africa bamba hace lado tristeza otra dulce podras encontrar oye eso sentir feliz ella africa estoy llamando oye puerto rico adonde estas levanta manos colombia oye donde estas peruanos venezuela quiero china china quiero tambien japon japon japon que rico japon japon baila con santana olviden mexico mexico mexico mexico man hot one like seven inch midday sun well hear whisper word melt everyone stay cool equita spanish harlem mona lisa reason reason step groove yeah say life good enough would give world lift could change life good suit mood smooth like ocean moon emotion get get kind love smooth yeah gim heart make real else forget well tell one thing would leave would cry shame every breath every word hear name call well barrio hear rhythm radio feel turning world soft slow turning around around say life good enough would give world lift could change life good suit mood smooth like ocean moon emotion get get kind love smooth yeah gim heart make real else forget like ocean moon emotion get get kind love smooth yeah gim heart make real else forget else forget else forget let forget gim heart make real let forget let forget let forget let forget let forget watch master plan pasture span street flip beat move sheep like shepherd new day crew stay forever strive give thanks alive gutter see horizon clear use confuse take lot year see move planet take average mind expand take grant like always gon disadvantage soon come soon come soon start run stumble catch one rhythm santana lick guits precision accidental intentional conscious decision zion march african mayan conquer babylon heart lion hold watch yesterday come back around wall jericho come tumble tell long everything everything alright friend see time pass people ask come none lasting money make people deal like even feel real real like way like way ooh like way long long wait sit communicate see everything relative want get give build live like way lady gent turn sound system sound carlos santana product get away blue refugee camp maria maria remind west side story grow spanish harlem live life like movie star maria maria fell love east sound guitar yeah yeah play carlos santana stop looting stop shoot pick pock corner see rich get richer poor get poor mira maria corner thinking way make well mailbox eviction letter sign judge say see later ahora vengo mama chola mama chola ahora vengo mama chola east coast ahora vengo mama chola mama chola ahora vengo mama chola west coast maria maria remind west side story grow spanish harlem live life like movie star maria maria fell love east say sound guitar yeah yeah play carlos santana say favella los color street get hotter water put fire gota esperanza mira maria corner thinking way make good look sky hop day paradise ahora vengo mama chola mama chola ahora vengo mama chola north side ahora vengo mama chola mama chola ahora vengo mama chola south side ahora vengo mama chola mama chola ahora vengo mama chola world wide ahora vengo mama chola mama chola ahora vengo mama chola open eye maria know lover wind blow feel weather even apart still feel like together maria remind west side story grow spanish harlem live life like movie star maria maria fell love east sound guitar play carlos santana put carlos santana refugee camp wyclef jerry wonda santana carlos man make guitar cry migra migra pinche migra dejame paz migra migra pinche migra dejame paz malicia veo tus ojos desprecio corazon malicia veo tus ojos desprecio corazon hora reconocer que todos soma una voz abrasa concepto venimos misma voz necesitas que necesitas que necesitas que necesitas que people people let start together let right people people let love one another know know necesitas que necesitas que necesitas que necesitas que migra migra pinche migra dejame paz people people let love one another know know vamonos esa mujer est matando espinado coraz por que trato olvidarla alma raz coraz aplastado dolido abandonado ver ver sabes dime amor nto amor dolor nos qued coraz espinado duele duele mam duele amor duele duele coraz cuando uno bien entregado pero olvides mujer que alg dir duele amor coraz espinado duele duele mam duele amor coraz espinado duele amor chale carlitos duele olvido duele coraz duele estar vivo sin tenerte lado amor coraz espinado coraz espinado beauty grace touch good time put fear always feel safe thing bad let come near seem thrive dark side thing always feel alive death bell ring come bring tear pain never make cry happiness strange watch life walk wish wish like fantasy every day surprise wish wish wish feeling last survive tell move fast matter time one walk door seem thrive dark side thing always feel alive death bell ring come bring tear pain never make cry happiness strange watch life walk wish wish like fantasy every day surprise wish wish wish give think sure know way must emotion rise emotion flow bring tear pain never make cry happiness strange watch life walk wish wish like fantasy every day surprise wish wish wish lluvia sol como una bendicion vida renace con luz primavera llego todo asi regreso raiz tiempo inquieta juventud primavera tierra negra vuelve verde montana desierto bello jardin como semilla lleva nueva vida hay esta primavera una nueva era aire este nuevo universo hoy respira libertad primavera tierra negra vuelve verde montana desierto bello jardin como semilla lleva nueva vida hay esta primavera una nueva era tierra negra vuelve verde montana desierto bello jardin como semilla lleva nueva vida hay esta primavera una nueva era people people people people people people people people call call people people people people people people people people call call one love one love lord get nobody one love people people people people people people people people call call people people people people people people people people call call one love one love lord get nobody one love one love one love one love lord get nobody one love one love one love one love lord get nobody one love freedom freedom freedom get stand let celebrate freedom freedom talk freedom time redemption freedom freedom want freedom everybody time liberation freedom freedom want freedom child day celebration let celebrate say let celebrate gon celebrate celebrate</t>
+  </si>
+  <si>
+    <t>fire starting heart reach fever pitch bring dark finally see crystal clear head sell lay ship bare head sell lay shit bare see leave every piece underestimate thing fire starting heart reach fever pitch bring dark scar love remind keep think almost scar love leave breathless help feeling could gon wish never meet roll deep tear gon fall rolling deep heart inside hand gon wish never meet play beat tear gon fall rolling deep baby story tell hear one gon make head burn think depth despair make home mine sure share gon wish never meet scar love remind tear gon fall rolling deep keep think almost gon wish never meet scar love leave breathless tear gon fall rolling deep help feeling could gon wish never meet roll deep tear gon fall rolling deep heart inside hand gon wish never meet play beat tear gon fall rolling deep could roll deep heart inside hand play beating throw soul every open door woah count blessing find look woah turn sorrow treasured gold woah pay back kind reap sow woah gon wish never meet could tear gon fall rolling deep could gon wish never meet tear gon fall rolling deep could gon wish never meet roll deep tear gon fall rolling deep heart inside hand gon wish never meet play beat tear gon fall rolling deep could gon wish never meet roll deep tear gon fall rolling deep heart inside hand gon wish never meet play play play play beat ooh ooh ooh ooh real gon able love like stranger history remember sure get baby really want bless soul get head cloud make fool boy bring make heart melt cold core rumour get love anymore rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour half age guess reason stay hear miss tell people thing like creep around hear rumour bless soul bless soul get head cloud make fool boy bring make heart melt yet cold core rumour one leave rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour word whisper ear tell story bear hear say mean mean people say crazy thing say mean mean hear rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour rumour one leave close enough start war floor god know fight say always say keep turn table thumb breathe let close enough hurt rescue desert give heart think give time say goodbye turn table turn table haunted sky see ooh love lose ghost find brave hundred storm leave hard try never knock whoa keep turn table thumb breathe let close enough hurt rescue desert give heart think give time say goodbye turn table turn table next time braver savior thunder call next time braver savior stand two foot let close enough hurt rescue desert give heart think give time say goodbye turn table turn table turn table yeah turn see leave goodbye single word say final kiss seal sin idea state know fickle heart bitterness wandering eye heaviness head remember remember reason love baby please remember last time think completely erase memory often think wrong know know fickle heart bitterness wandering eye heaviness head remember remember reason love baby please remember give space could breathe kept distance would free hop would find miss piece bring back remember remember reason love baby please remember see let fall heart fell rise claim dark kiss lip save hand strong knee far weak stand arm without fall foot side never know never know thing would say never true never true game would play would always win always win set fire rain watch pour touch face well burn cry hear scream name name lay could stay close eye feel forever together nothing well side never know never know thing would say never true never true game would play would always win always win set fire rain watch pour touch face well burn cry hear scream name name set fire rain throw flame fell something die know last time last time sometimes wake door heart catch must wait even already help look set fire rain watch pour touch face well burn cry hear scream name name set fire rain throw flame fell something die know last time last time let burn let burn let burn say good without know like least side think know bear time drag lose mind remind thing find like note clothes leave behind wake wake rise battle win dignity become undone love willing take risk love willing take risk petrified scared step ride lose heart fail climb forgive give try hear voice today know single word say one resemblance man meet vague broken boy instead love willing take risk love willing take risk time try give burst seam doubt almost fall apart burn piece watch turn dust nothing ever taint love willing take risk love willing take risk still remember still love even free back place would choose poison speak yesterday say hold breath sit wait home soon late love willing take risk love willing take risk love willing take risk love willing take risk give try best give everything everything less right let maybe get use well around still walk away tear gon empty road without right take take take look back look back crumble fool take love take love maybe leave help see nothing good everything need really give easily thought love take take take look back look back crumble fool take love take love change must slow bring home adjust know everything take take take look back look back crumble fool take take take look back look back crumble fool take love take love take love hold close one time say love last goodbye please forgive sin yes swim dirty water push see face every sky every border every line know heart great time mile heaven cry know leave speechless sky clear blue see future wait ready love put hand everything different good wait ready love put hand somebody different good let stay one night build world around pull light tell wrong child willing learn time mile heaven cry know leave speechless sky clear blue see future wait ready love put hand everything different good wait ready love put hand somebody different good time time mile mile heavens cry know leave speechless time time mile mile heavens cry know leave speechless know leave speechless wait wait ready love put hand everything different good wait ready love put hand somebody different good mind grow fonder every day lose time think face god know take long let doubt one want know scar every feeling every word imagine never know never try forgive past simply mine dare let one promise worthy hold arm come give chance prove one walk mile end start mind hang every word say lose time mention name ever know feel hold close tell whichever road choose know scar every feeling every word imagine never know never try forgive past simply mine dare let one promise worthy hold arm come give chance prove one walk mile end start know easy give heart know easy give heart nobody perfect trust learn know easy give heart nobody perfect trust learn know easy give heart nobody perfect trust learn know easy give heart nobody perfect trust learn know easy give heart dare let one promise worthy hold arm come give chance prove one walk mile end start come give chance prove one walk mile end start whenever alone make feel like home whenever alone make feel like whole whenever alone make feel like young whenever alone make feel like fun however far away always love however long stay always love whatever word say always love always love whenever alone make feel like free whenever alone make feel like clean however far away always love however long stay always love whatever word say always love always love however far away always love however long stay always love whatever word say always love always love always love love love love love hear settle find girl marry hear dream come true guess give thing give old friend shy like hold back hide light hate turn blue uninvited could stay away could fight hop would see face would remind never mind find someone like wish nothing best forget beg remember say sometimes last love sometimes hurt instead sometimes last love sometimes hurt instead know time fly yesterday time life bear raise summer haze bound surprise glory day hate turn blue uninvited could stay away could fight would hop would see face would remind never mind find someone like wish nothing best forget beg remember say sometimes last love sometimes hurt instead nothing compare worry care regret mistake memory make would know bittersweet would taste never mind find someone like wish nothing best forget beg remember say sometimes last love sometimes hurt instead never mind find someone like wish nothing best forget beg remember say sometimes last love sometimes hurt instead sometimes last love sometimes hurt instead think tell would home soon could help good true fall short time every time charm creep closer closer near like fool fire fall pride like bomb explosion ticking call wiser one disguise greed child belong knee find boy love ever stand beside river cry lay look want need think would crumble knee first sight crawl back whisper leave man swear time stand stand find boy love ever stand beside river cry lay look want need take must mistake could never look eye settle wrong ignore right find boy love ever stand beside river cry lay look want need never woulda hitch hike birmingham love never woulda catch train louisiana love never woulda run blinding rain without one dollar name love never woulda see trouble love woulda like wayward wind love nobody know good would wish free love four cold wall least know lie still four cold wall without parole lord mercy soul never woulda side town love never woulda take mind track love never woulda load forty four put behind jail house door love four cold wall least know lie still four cold wall without parole lord mercy soul never woulda hitch hike birmingham love never woulda catch train louisiana love never woulda load forty four put behind jail house door love love love story meet someone accident blow away blew away darkest day take sorrow take pain bury away bury away wish could lay beside day wake face morning sun like everything ever know disappear one day spend whole life hide heart away drop train station put kiss top head watch wave watch wave home skyscraper neon light wait paper call home call home wish could lay beside day wake face morning sun like everything ever know disappear one day spend whole life hide heart away away yeah wake feel heavy hearted back start morning rain morning rain though wish old road bring call home call home wish could lay beside day wake face morning sun like everything ever know disappear one day spend whole life hide heart away spend whole life hide heart away picture perfect memory scatter around floor reach phone cause fight anymore wonder ever cross mind happen time quarter one alone need say would call lose control need know without need another shot whiskey stop look door wishing would come sweeping way wonder ever cross mind happen time quarter one little drunk need say would call lose control need know without need yes would rather hurt feel nothing quarter one alone need say would call little drunk need know without need need baby need</t>
+  </si>
+  <si>
+    <t>baby baby baby baby baby baby suppose know something right baby baby let sight yeah show want tell baby need know loneliness kill must confess still believe still believe lose mind give sign hit baby one time baby baby reason breathe boy get blind pretty baby nothing would way plan show want tell baby need know loneliness kill must confess still believe still believe lose mind give sign hit baby one time baby baby baby baby yeah yeah baby baby suppose know pretty baby let must confess loneliness kill know still believe give sign hit baby one time loneliness kill must confess still believe still believe lose mind give sign hit baby one time must confess loneliness kill know still believe give sign hit baby one time baby get something baby spin around earth move feel ground every time look heart jump easy see love mean much anything ever felt drive crazy sleep excited deep crazy feel alright baby thinking keep night tell one see tell blue waste feeling love mean much anything ever felt crazy sleep excited deep crazy feel alright every day every night drive crazy drive crazy baby excited deep crazy make feel alright baby thinking keep night drive crazy drive crazy baby crazy make feel alright feel alright baby thinking keep night baby thinking keep night tell love like take pretty eye away want stay every time come close move away want believe everything say sound good really want move slow thing know sometimes run sometimes hide sometimes scar really want hold tight treat right day night baby need time want shy every time alone wonder hope wait see one want believe everything say sound good really want move slow thing know sometimes run sometimes sometimes hide sometimes scar really want hold tight treat right day night really want hold tight treat right day night baby need time hang around see nowhere would rather love trust way trust sometimes run sometimes sometimes hide sometimes scar really want hold tight hold tight treat right day night day night sometimes run sometimes sometimes hide sometimes scar really want hold tight treat right day night day night really want hold tight day night sometimes run sometimes sometimes hide sometimes scar really want hold tight ooh ooh like great boy woman insole thinkin great exphidition popped choose come throw throw scene though come come follow britney yeah hmm soda pop watch fizz pop clock tick stop stop hmm soda pop bop shu bop clock tickin stop might start rid music tonight clever way get pops keep flow like fire ice give little blind ooh hmm soda pop watch fizz pop hmm clock tickin stop hmm soda bop bop shu bop shu bop clock tickinand stop ooh ooh plan definite plan level vibe vibes level vibes agian ooh yeah see superlative self yeah wicked time end yaeh hmm soda pop watch fizz pop ooh clock tickin stop stop hmm soda pop bop shu bop shu bop clock tickin stop much pop lose sittin watchin clock turn table baby let top take top one else wait cha get take pop shot never stop shu bop shu bop yeah hmm clock tickin stop hmm soda pop bop shu bop shu bop clockis tickin stop stop like never lovin til drop drop drop yeah flex tonight break door yeah party ever stop hmm soda pop watch fizz pop yeah clock tickinand stop stop hmm soda pop bop shu bop shu bop hmm soda pop watch fizz pop clock tickin stop stop bet pop like never pop keep commin back fdor sure sure cool britney wee get floor yeah break dawn hmm soda pop watch fizz pop clock tickin stop stop hmm soda pop bop shu bop shu bop ooh yeah clock tickinand stop get hmm soda pop watch fizz pop yeah clock tickin stop bend mmm love yeah yeah yeah sit alone room think time love look picture hand try best understand really want know wrong love felt strong tonight know could make right know live without love bear make happy one heart bear make happy always forever way life know live without love bear make happy know fool since would well give carry love living dream way life want cry tear forgive ooh tonight know could make right know live without love bear make happy one heart bear make happy always forever way life know live without love bear make happy yeah yeah would anything would give world would wait forever girl call name call name ooh show much care alright ooh bear make happy yeah ooh yeah know live without love bear make happy one heart bear make happy always forever way life know live without love bear make happy bear make happy yeah yeah always forever way life know live without love bear make happy never look back say know would miss loneliness ahead emptiness behind hear joy tear hope fear know still miss somehow bottom broken heart thing two would like know first love true love first kiss last rise bottom broken heart even though time may find somebody new real love never know love bottom broken heart baby say please stay give love chance one day could work thing take time love put dart dream heart back start never think would end promise somebody else make perfectly clear still wish never look back say know would miss yeah say mind know give leave behind let begin come let show thing make alright let make clear put trust yes need someone turn around feel low baby let know let make know nothin would love come let show thing make alright let make clear put trust yes take stand forever give one chance show much care need someone turn around sorrow let know time may take apart still love promise star star fall keep call promise one everything never untrue promise back love anything give star buy moon even long night even dark day love find away star fall keep call still love dream fade wait still love summer breeze winter sun springtime soul autumn touch gold sky rain way love flow cuz smile heart breathe soul even find apart hold hope dream forever heart tell feel finally know feel tell real heart tell real real real time take apart true always heart dreams matter many mile promise forget day kiss day meet sky may fall star still still love friend say away every day say break away miss fun game smile word tell quickly disappear speak voice hear spend day ooh ooh spend day spend night night think think babe spend day day night spend night night think stay mind think time time day night feel right end sight ooh day spend around pass fast night spend without long last spend day spend day think babe spend night night think day night spend day day think spend night night think think babe ooh know get enough get enough yeah know hour ever ever yeah yeah spend day spend night think spend day baby spend night day night think day night spend day think think spend night spend day yeah think spend day think spend night think baby think spend day day night day night hour seem like day since away check screen see answer phone guess want leave alone send heart soul say sorry sorry give one chance make mail heart say love never die know know still care email back say love stay alive forever email heart whoa see mind come line opening letter send hundred time picture two look good please forgive hurt put sorry sorry give one chance make mail heart say love never die know know still care know still care email back say love stay alive forever say say forever forever email heart drum keep pound rhythm brain dee dee dee dee dee wait till reach age blah blah history turn page blah blah still want hear brand new thing huh still need song sing huh beat beat beat beat beat beat drum keep pound rhythm brain dee dee dee dee dee love first last thing mind tomorrow end time beat beat beat beat beat beat beat drum keep pound rhythm brain dee dee dee dee dee still move rhythm like still dream share first kiss beat beat beat beat drum keep pound rhythm brain dee dee dee dee dee world keep turn faster everyday everyday still want dance night away beat beat beat beat yeah say world nothing last forever believe true cause way feel together know way always feel forever thats long true make vow promise forever never stop love come day world stop turn star fall sky feeling last suns start burn want love end time gon take lifetime give love love feel tonight forever never stop love never promise happy end never say would make cry summer love keep warm long autumn goodbye autumn goodbye autumn goodbye thinking love life sweet summertime sad true true true must leave behind heart mind april september bittersweet love share forget remember memory fade heart place smile face maybe someday friend love find red leaf blue tomorrow time give back love share time borrow april september bittersweet love share forget remember baby leave behind summertime heart mind remind forget day meet day cry autumn goodbye never promise happy end never say would make cry summer love keep warm long autumn goodbye autumn goodbye autumn goodbye walk time look answer way help wonder everything could change turn world around since come along love find seem like wrong deep heart know right start always know never let love ohhoohh want rest life people search seem lifetime find love like everything wish never felt bliss come chance everyones life beleive happen twice since felt glory love want spend forever ever deep heart deep heart want rest life want rest life</t>
+  </si>
+  <si>
+    <t>folk call maverick guess diplomatic never kind along avoid confrontation sake conformation admit tend sing different song sometimes afraid wear different hat columbus comply old world might still flat nothing venture nothing gain sometimes get grain well accuse make rule must rebel blood running vein hypocrite see get way know play game old noah take much ridicule build great ark forty day forty night look pretty smart sometimes best brave wind rain strength grain well folk share point view worried gon sink swiim would like buck system deck stack little scared limb gon make difference gon leave mark follow like bunch sheep get listen heart bust like old john wayne sometimes get grain nothing venture nothing gain sometimes get grain eye cold restless wound almost heal would give half texas change way feel know love tulsa know gon well woman flesh blood damn old rodeo well bull blood dust mud roar sunday crowd white knuckle gold buckle win next around boot chap cowboy hat spur latigo rope rein joy pain call thing rodeo best hold love come call need control back wall long girl see time know woman want cowboy like want rodeo well bull blood dust mud roar sunday crowd white knuckle gold buckle win next around boot chap cowboy hat spur latigo rope rein joy pain call thing rodeo drive cowboy crazy drive man insane sell everything pay play game broken home broken bone show year spend chase dream call rodeo well bull blood dust mud roar sunday crowd white knuckle gold buckle win next around boot chap cowboy hat spur latigo rope rein joy pain call thing rodeo bronc blood steer mud call thing rodeo last time saw turn colder year ago last hear move boulder know something time year spin head around take back make wonder tear apart fill mind empty heart hear call time cold wind blow wonder know laugh dial old number one know name hang phone sit wonder would ever take walk evening wind clear head somehow tonight lie think tear apart fill mind empty heart hear call time cold wind blow wonder know tear apart fill mind empty heart hear call time cold wind blow wonder know yesterday thank oil front door morning wake thankful anymore never know much care could stay never know reason always run away burn bridge one one undone always hop someday gon stop run around every time chance come another bridge last night talk old time family home town whe wonder would agree would settle tell would cross bridge whenever arrive flame see standing side burn bridge one one undone always hop someday gon stop run around every time chance come another bridge like ash water drift away sorrow knowing day lesson finally learn stand river star across tomorrow bridge need get bridge burn burning bridge one one undone always hop someday gon stop run around every time chance come another bridge another bridge papa drive truck nearly life know drive mama crazy trucker wife part could handle alone guess need hold telephone papa call mama every night ask kid alright mama would wait call come daddy would hang mama looker lord shin papa good jealous kind papa love mama mama love men mama graveyard papa pen well bind happen one night papa come home kid dozen rose bottle wine look surprise fine hear cry mama hall hear bottle break bedroom wall old diesel engine make eerie sound papa fire head town well picture paper show scene real well papa rig bury local motel desk clerk say saw real clear never hit brake shift gear mama looker lord shin papa good jealous kind papa love mama mama love men mama graveyard papa pen well shamemeless come love anything want anything stand world see baby leave far fall know man ever insecure world live break easy pride need satisfy shameless honey prayer every time see stand upon knee change swore would never compromise convince otherwise anything please see life never find could resist could turn could walk away anyone ever know walk away never let anything much control work hard call life make world work perfectly world refuse never much lose shameless know easy man strong say sorry admit wrong never lose anything ever miss never love like hand shameless power want anyhow get let shameless shameless man make total fool want know shameless want know shameless knee shameless fire burning bright house tonight slow music playing soft candlelight lip keep taste warm red wine arm mind snow pile high highway tonight ship lose sea ocean white eighteen wheel anchor somewhere dover wish could hold instead hug old cold shoulder old highway like woman sometimes best friend real jealous kind lady lead life dream mistress keep one love snow pile high highway tonight ship lose sea ocean white eighteen wheel anchor somewhere dover wish could hold instead hug old cold shoulder god wish could hold instead hug old cold shoulder hey neighbor light come last night like every time little fight get point get along always fight thing dead bury hatchet leave handle stick always dig thing forget come forget baby doubt bury hatchet leave handle stick well kiss cindy hey deny long time ago let dead dog lie want cut deep joe catch creek ten year ago bury hatchet leave handle stick always dig thing forget come forget baby doubt bury hatchet leave handle stick hey get enough wage full scale war could ever remember fight bury hatchet leave handle stick always dig thing forget come forget baby doubt bury hatchet leave handle stick bury hatchet leave handle stick girl wagon train head west across plain train get lose summer storm could move west could home saw rid rain take charge wagon save train look heart train west stay lonesome dive farmer daughter gentle hand blooming rise bed sand love man wear star texas ranger know near far get marry child time tough west wild surprise day learn texas man would return lonesome dive back back rio grande christian woman devil land learn language learn fight never learn beat lonely night lonesome dove lonesome dove watch boy grow man angel heart devil hand wear star see texas lawman legacy one day word blow town seem men shoot father rob bank jerico thing mexico lonesome dove shadow stretch across land shot ring rio grande smoke finally clear street men lay ranger foot legend tell day shot come alleyway though one know hold gun doubt ask someone lonesome dove back back rio grande christian woman devil land learn language learn fight never learn beat lonely night lonesome dove lonesome dove know dream like river ever change flow dreamer vessel must follow try learn behind never know store make day constant battle stay shore sail vessel river run dry like bird upon wind water sky never reach destination never try sail vessel river run dry many time stand aside let water slip away put tomorrow become today sit upon shoreline say satisfied choose chance rapid dare dance tide yes sail vessel river run dry like bird upon wind water sky never reach destination never try sail vessel river run dry bind rough water know take fall good lord captain make yes sail vessel river run dry like bird upon wind water sky never reach destination never try sail vessel river run dry yes sail vessel river run dry river run dry girl bar buy beer would like know new around gal dance say alone friend leave need ride home others give eye know waste time one lover give heart want break two tell one tonight one hold arm tight forget wrong give right tell one tonight smile pretend never know hold close want girl need close eye honey see tell one tonight one hold arm tight forget wrong give right tell one tonight</t>
+  </si>
+  <si>
+    <t>dearly beloved gather today get thing call life electric word life mean forever mighty long time tell something else afterworld world never end happiness always see sun day night call shrink beverly hill know one everything alright instead ask much time leave ask much mind baby life thing much hard afterworld life elevator try bring crazy punch high floor like world live take look around least get friend see call old lady friendly word pick phone drop floor heard gon let elevator bring let let crazy let get nuts let look purple banana put truck let excited know maybe cause gon die better live grim reaper come knock door tell gon let elevator bring let let crazy let get nuts look purple banana put truck let come baby let get nuts yeah gon let elevator bring let crazy say let crazy crazy let let let everything alright make everything wrong pill thrill dafodills kill hang tough child come come come take away disguise pounding heart beat strong eye say turn care care care pretty baby take come touch place call name want much must play game care care care pretty baby take care spend night mansion care spend night town want spend night together want spend night arm around right sheer perfection thank drive crazy drive night break connection care care care pretty baby take care care care pretty baby take take take honey take baby baby baby gon baby baby baby make waste time make lose mind baby baby baby baby stay tonight baby baby baby kiss please right hard find beautiful one hurt everytime paint perfect picture bring life vision one mind beautiful one always smash picture always everytime tell baby love baby baby baby get marry would cool make confuse beautiful one always seem lose baby baby baby baby baby baby baby gon baby want want cause want say want tell babe want get know get know want baby baby baby listen may know babe say may know need one thing one thing certain baby know want yeah please baby please baby beg knee want yes baby baby baby baby want yes wendy yes lisa water warm enough yes lisa shall begin yes lisa love life must something wrong machinery love life tell tell somebody please please tell hell wrong find righteous computer blue find righteous computer blue know girl name nikki guess could say sex fiend meet hotel lobby masturbate magazine say would like waste time could resist saw little nikki grind take castle could believe eye many device everything money could buy say sign name dotted line light nikki start grind nikki castle start spin maybe brain tell body never loving kick behind show mercy sho nuff sho nuff show grind darling nikki wake next morning nikki look find phone number stair say thank funky time call whenever want grind nikki ohhhh come back nikki come back dirty little prince want grind grind grind grind grind grind grind grind grind hello fine know lord come soon come come soon dig picture engage kiss sweat body cover darling picture dream courtyard ocean violet bloom animal strike curious pose feel heat heat leave stand alone world cold cold maybe demand maybe like father bold maybe like mother never satisfy never satisfy scream sound like dove cry touch stomach feel tremble inside get butterfly tie make chase even dove pride leave stand alone world cold world cold maybe demand maybe like father bold maybe like mother never satisfy never satisfy scream sound like dove cry leave stand alone world cold world cold maybe demand maybe maybe like father maybe like father bold know bold maybe like mother maybe like mother never satisfy never never satisfy scream scream sound like dove cry dove cry dove cry dove cry dove cry dove cry dove cry cry cry dove cry dove cry dove cry dove cry dove cry dove cry dove cry cry darling cry cry cry cry woman man something never understand never beat never lie evil forgive would die yeah darling want would die lover friend something never comprehend need worry need cry messiah reason would die yeah darling want would die sinner told fire cold make happy sad make good bad human dove conscious love really need know believe yeah would die yeah darling want would die yeah say one time would die darling want would die would die would die would die would die hey look tell like see hey get money honey rich personality hey check baby know night see point view even scream shout baby star might know baby star want stop reach top sing star hey take listen tell like hear turn say word honey know nothing wrong ear hey check well look might late might late luck gon change tonight get good life take picture sweetie got time waste baby star might know baby star want stop reach top sing star everybody say nothing come easy get baby nothing come hard see see get scream shout get scream shout baby baby baby baby baby baby baby yeah yeah yeah yeah yeah yeah star might know baby star want stop reach top sing star baby baby baby baby star baby baby baby somebody star baby star star star doctor baby baby baby baby baby baby baby baby star like fuck know taste mouth really fuck know come baby let crazy never mean cause sorrow never mean cause pain want one time see laugh want see laugh purple rain purple rain purple rain purple rain purple rain purple rain purple rain want see bath purple rain never want weekend lover want kind friend baby could never steal another shame friendship end purple rain purple rain purple rain purple rain purple rain purple rain want see underneath purple rain honey know know know time change time reach something new mean say want leader seem make mind think good close let guide purple rain purple rain purple rain purple rain purple rain know sing come raise hand purple rain purple rain want see want see purple rain good morning child take look window world fall almost time dance dance dance electric rhythm love love blind love enemy much time much time look world fall rhythmless house blinded prophecy hear master call want get dance dance electric listen rhythm soul come dance dance electric good love almost time make happy give another someone smile dance dance electric never mind hatred try brand new style dance dance electric listen rhythm soul come dance dance electric good love almost time love enemy look live babylon making feeling love youth come dawn light truth shine fall get dance dance electric listen rhythm soul come dance dance electric good love almost time see light inside darken live life bad whatever let light dark love light ever dance dance electric listen rhythm soul come dance dance electric good love almost time almost time dance dance electric listen rhythm soul come dance dance electric good love almost time one two three four yeah come baby hurt die heaven still desire make fire let hurt upper room let say sha sha boom come baby hurt upper room sha sha boom love sex upper room alright hit huh two cry want still resist come kiss suppose sleep without arm keep sing sha sha boom come baby hurt upper room sha sha boom love sex upper room photo get low boom boom sha boom sad sad happy happy one single sexy glance two kind party cool sha boom put sunday best clothes sharp sha boom die heaven let fantasize new cool surprise let try come together keep singing sha sha boom come baby hurt upper room sha sha boom love sex upper room yeah upper room keep sing sha sha boom come baby hurt upper room sha sha boom love sex upper room upper room feel alright yeah feel alright yeah feel alright let hear say let let hear say yeah yeah yeah let hear say yeah yeah whoo yeah alright yeah let hear say yeah ooh lord huh sha sha boom whoo come baby hurt upper room sha sha sha boom yeah love sex upper room yeah keep singing sha sha boom come baby come baby hurt upper room hurt baby yeah sha sha boom alright love sex upper room yeah right wendy yes lisa water warm enough yes lisa shall begin yes lisa love life must something wrong machinery love life tell somebody please please tell hell wrong till find righteous one computer blue till find righteous one computer blue baby somebody please please tell wrong baby tell somebody please please tell hell wrong ooh till find righteous one computer blue till find righteous one computer blue computer verge breakdown come baby make poor lonely computer time someone program time learn love lust four letter entirely different word poor lonely computer poor poor lonely computer really know love wave hand air everybody sing everybody work work work everybody work work work everybody work like live home alone house live many hallway long walk bedroom hallway represent emotion every one vastly different next one day decide name one side one hand thigh wait sort half step behind yeah grip thigh intensify walk slowly corridor name hallway lust pass thru next one name fear grip loosen walk faster hand tremble let drop side write word insecurity look eye smile demon smile quickly walk next corridor corridor name almost suddenly stop pick word hate pick last one pain verge breakdown life without love hell computer blue father father sun father father dawn dawn father father dawn dawn father shall church sunday shall stay home pray shall try make happy shall try make stay narrow mind computer somebody please please tell time someone program somebody please please tell wrong time learn woman butterfly computer like computer blue baby chauvinistic computer time someone program fall love fast hate soon take grant feel mutual feeling mutual computer like computer blue feel kind love even know name kind love take two want ashamed baby shock wild sexual electricity extraordinaire come take advantage undress even know even care feel kind sexual current tell feel body want together girl want electric body baby shock lip darling know technicolor climax fingertip electric intercourse electric intercourse want electric intercourse electric intercourse want make love love love electric body baby shock lip darling know technicolor climax fingertip electric intercourse want electric intercourse electric intercourse want make love want make electric intercourse electric intercourse want electric intercourse electric intercourse want make love yeah yeah moment come town life sings around twenty quarter name five george washington one blame look write sky destiny fall love fight strong destiny fall love fell love know saw walk talk know say want love anyways look write sky destiny fall love fight strong destiny fall love fell love look say ket get married nothing ready settle want baby get fine specimen ever see destiny fall love fell love fell love fell love smite kiss steal babe would never treat like passion tingle let find room want want want want want road lead live see house open door alright alright house use play open night open day alright alright garden emotion grow twenty four feeling row alright yeah alright talk roadhouse garden roadhouse garden place evil die see door come inside alright alright house life play let color scare away alright alright garden emotion grow give love open soul alright yeah alright talk roadhouse garden yeah roadhouse garden come let groove talk roadhouse garden road road roadhouse garden roadhouse garden garden roadhouse garden yeah mmmm mmm something matter baby insane something inside keep talk brain stop satanic lust know hold body say must possess ooh know ooh possessed yes ooh stone crazy love something matter baby see voice hear beg wish need wish care get make love cuz much much bare possessed yes know ooh possessed stone crazy love possess know possess stone crazy ooh something matter baby mind daze trip love hard lay stop yearning lord know try free dispair much young die possess ooh know gon possessed ooh stone crazy love possessed ooh yes know gon possessed yeah stone crazy love ooh yeah ooh yeah ooh yeah ooh yeah possess stone head baby say possess mmm mmm want lay bed possess yes know possessed yes yeah stone crazy love yeah yeah pussy sugar yeah yeah possess well insane hey possess want thing baby want thing grow inside negro brain yeah yeah yeah yeah leave choice gon hit guitar baby yes mmm yes bobby step step mmm step mmm step step head baby yeah possess possess baby fuck head want use bed yeah possess well get lust baby know get lust yeah want hold want hold want hold body say must must yeah baby must mean yeah yeah baby baby baby know pussy put quite awful fuss yes put fuss yeah know mean gon get wet pussy get wet mmm mmm something matter baby insane something inside keep talk brain stop satanic lust want hold body say must possessd yeah possess stone love stone love baby stone love baby stone crazy love baby boy like jam possess understand quirky way crazy logic leaf daze think neurosis phase get wonderful wonderful wonderful wonderful get wonderful think friend bedmates true love sex relate sensibility aggravate get wonderful wonderful wonderful wonderful get wonderful listen educate tolerate negotiate communicate litigate graduate appreciate separate interrogate violate fluctuate perpetrate masturbate stimulate stimulate stimulate say love good want trust wish could build house plastic wood get wonderful wonderful wonderful wonderful get wonderful get wonderful wonderful guess hate idea fun yeah baby rate number one usually time drink glass always find time know talk baby yeah talkin sexy yeah revolution hear revolution hear wonderful wonderful get wonderful get wonderful understand quirky way girl get wonderful get wonderful get wonderful wonderful understand quirky way yeah understand quirky way crazy logic leaf daze daze like get wonderful baby think friend bedmates yeah well sleep around time hey baby true love sex relate yeah true true love get wonderful babe sensibility aggravate understand try fuck love relate yeah get wonderful like like say like say like wonderful know like really want rock want roll velvet kitty cat man best friend furry cuddly fat take swing bat velvet kitty cat every day night velvet kitty cat wish boyfriend rat mmm nothing underneath hat sad kitty cat mmm want money fancy car want body eat cooky till get fat mmm want true love velvet kitty cat ahead play cat want rock want roll velvet kitty cat man best friend furry cuddly fat would let pet get skat velvet kitty cat mmm mmm would let pet get skat velvet kitty cat want true love velvet kitty cat mmm pet get skat velvet kitty cat mmm velvet kitty cat mmm katrina make paper dolls one doll every day one doll every day old man katrina make paper doll every time tell every time tell love strong way tell real baby much hard body hot say love game seem many circle maybe make world round katrina make paper doll look play game katrina make paper doll good lonely love make lonely eye dame ooh way tell real baby much hard body hot say love game seem many circle maybe make world round katrina make paper doll good lonely love make lonely eye dame paper doll ooh katrina paper doll love make horny ooh katrina paper doll ooh katrina paper dolls katrina paper doll katrina paper doll could tell story get tire could play mind would probably say liar waste time scar though meet energy let somewhere fuck could say sorry life would true say thing love scar though meet want bad baby want come fuck ooh fuck ooh fuck something say many time difference make see room electric okay well maybe know smell desire honey could tell thing get excited thing never hear know kama sutra could write half many word scar kiss mad baby take clothes fuck ooh fuck ooh fuck wait minute let turn light fuck good come blow candle baby turn candle ever one choose alright night long want undress babe shall undress leave clothes want still want sex two people alright whether love long try hurt nobody long hot baby want make love two time maybe three yeah want four five baby alright let tell little baby yeah big strong man girl boy toy alright let dance fuck baby fuck fuck one another whatever want get electric baby get electric thigh baby wait longer child get strong baby open eye see gold chain around waist yeah want give people tell get taste blow candle let see true baby excellent really like sorry know never felt way really happy really well guess meet deserve special like perfect really many thing want many thing want listen ever love anybody else reason feel insecure best would believe one ever ever hurt yes love know sound strange know love split second kiss darling kiss wait please fuck</t>
+  </si>
+  <si>
+    <t>find miss always run look someone like know need take time see give good love baby good take heart mine hand give good love never much baby give good love never stop always search perfect love kind girl like dream stop look around love love stay stay get mind matter wish make difference think live fantasy late night rendezvous love sick fool might pour rain still nothing change feel shame fool fool keep think baby tell gon keep think want like river wine intoxicate mind think want pick let think think get think think maybe weep game hard face need like need reason heart make feel way hope feel way might pour rain like fool insane run love sick fool get thing love sick fool word music kashif lala someone someone alone friday night wait beside phone radio really get along wish could find way party break day would sure meet guy would special momma come ask dream sit alone fun way ever find someone young seventeen someone someone get find someone someone someone get find someone party angie house people pack wall sit corner try make sense least expect meet guy see dream walk ask would like come dance think find someone need somebody need somebody someone find dream believe come look find joy happiness come actually find someone stolen moment share get family need though try resist last list man gon save love easy live alone friend try tell find man time try break cry would rather home feeling blue save love use tell would run away together love give right free say patient wait little long old fantasy get get ready minute gon get old feeling walk door tonight night feeling alright make love whole night save love yes save love yes save love woman gon love tonight night feel alright make love whole night save love yeah save loving yes save love like candle burn bright love glow eye flame light way burn brighter everyday nobody love like like leaf upon wind could find place land dream hour away wonder everyday dream come true nobody love like would never meet would right funny life fall place somehow touch heart place never even know nobody love like word without tune song still unsung poem rhyme dancer time baby nobody love like would never meet would right funny life fall place somehow touch heart place never even know nobody love nobody love nobody love nobody love like nobody love like nobody love like boy know one dream look eye take cloud ooh lose control seem get enough wake dream tell really love know trust feeling know know love deceive know know really love say prayer every heart beat fall love whenever meet ask know thing know think try phone shy speak fall love bitter sweet love strong feel weak wake shake wish near say mistake feel really love tell know trust feeling know know love deceive know know really love say prayer every heart beat fall love whenever meet ask know thing know think try phone shy speak fall love bitter sweet love strong feel weak love love love love love love know know know know know really love say prayer every heart beat fall love whenever meet ask know thing know think try phone shy speak fall love bitter sweet love strong feel weak know know know know say prayer know know fall love know hey know ask finally take moment realize come back finally hit start count teardrop least million fell eye begin swell dream shatter ever since meet love know forget though must face alone drift lonely sea wishing would come back matter drift lonely sea hold memory hurt know much show look around find another love someone else arm dream shatter smile use greet brighten someone else day take smile away leave memory time pass slowly feel alone love strike like lightning find heart home see movie read book never think would feel touch take take good care heart take good care heart baby first take one break love keep feel good wait love forever one take good care heart come make magic hypnotize get close drown eye one need love line glad give give mine take good care heart take good care heart baby first take one break love keep feel good wait love forever one take good care heart love keep feel good wait love forever one take good care heart take good care heart take good care heart take good care baby first take one break love keep feel good wait love forever one take good care heart take good care heart take good care heart please baby first take one break love believe child future teach well let lead way show beauty possess inside give sense pride make easy let child laughter remind use everybody search hero people need someone look never find anyone fulfil need lonely place learn depend decide long ago never walk anyone shadow fail succeed least live believe matter take take away dignity great love happen find great love inside great love easy achieve learn love great love believe child future teach well let lead way show beauty possess inside give sense pride make easy let child laughter remind use decide long ago never walk anyone shadow fail succeed least live believe matter take take away dignity great love happen find great love inside great love easy achieve learn love great love chance special place dream lead lonely place find strength love hold touch make woman give love sweet surrender tonight heart beat one hold touch make woman tonight something eye see pure simple honesty hold arm tonight fill life pleasure let waste precious time moment treasure hold arm tonight make last forever morning sun appear find way together believe say love know take grant tonight magic begin hold touch make woman tonight something eye see betray trust hold touch make woman make woman tonight</t>
+  </si>
+  <si>
+    <t>weekend come town seven day soon one make break rule well saw captain kidd sunset tell boy command chino dance tango broomstick hand say alright alright good time alright alright want cross line break side let rock let stop fire burn control let rock let night loose get let rock broadway everybody get rocking horse blast radio well saw roxie table girlfriend give king swing time say alright alright good time alright alright want cross line break side shot heart blame darling give love bad name angel smile sell promise heaven put hell chain love get hold passion prison break free loaded gun nowhere run one save damage shot heart blame give love bad name bad name play part play game give love bad name bad name give love bad name paint smile lip blood red nail fingertip school boy dream act shy first kiss first kiss goodbye loaded gun nowhere run one save damage shot heart blame give love bad name bad name play part play game give love bad name bad name give love shot heart blame give love bad name play part play game give love bad name bad name shot heart blame give love bad name bad name play part play game give love bad name bad name give love give love bad name give love give love bad name give love give love bad name give love give love bad name upon time long ago tommy use work dock union strike luck tough tough gina work diner day work man bring home pay love love say get hold get make difference make get lot love give shot whoa half way whoa living prayer take hand make swear whoa living prayer tommy get six string hock hold use make talk tough tough gina dream run away cry night tommy whisper baby okay someday get hold get make difference make get lot love give shot whoa half way whoa living prayer take hand make swear whoa living prayer living prayer get hold ready live fight get whoa half way whoa living prayer take hand make swear whoa living prayer whoa half way whoa living prayer take hand make swear whoa living prayer read paper place come thirty two flavor would tell one favorite could white house alley president long tall sally live die without yes would senorita kitchen fistful dynamite call stop fun tonite alright start fire without spark something guarantee hide infection start love social disease look find try run always behind play hide seek like blind kid till catch yeah catch say take hold ransom tall dark skinny handsome talk telephone doctor see pill take know prescription gon wipe one away full high grade octane could run bullet train double know sure know cure make blind man see name change every day seem waste away another place face cold would drive night get back home cowboy steel horse ride want dead alive want dead alive sometimes sleep sometimes day people meet always separate way sometimes tell day bottle drink time alone think cowboy steel horse ride want wanted dead alive want want dead alive ride cowboy steel horse ride want wanted dead alive walk street loaded six string back play keep might make back everywhere still stand tall see million face rock cowboy steel horse ride want dead alive cowboy get night side want dead alive ride dead alive still drive dead alive dead alive dead alive dead alive dead alive get nasty reputation sticky situation tell true say nobody well well together show gun run gon set night fire run gun playing win raise hand want let raise hand want let feeling show raise hand new york chicago raise hand new jersey tokyo raise hand front line waste time walk look surrender raise flag defend gun run gon set night fire run gun playing win young still child still innocence painted smile call pass lady night look eye say change one thing always stay without love nothing without love nothing else get night nothing else feels right without love saw man lonely street broken man look like one know pain live lose love still forgive say change one thing always stay nothing without love nothing else love burn bright nothing would mean nothing without love see life thing take grant love pass many second chance afraid afraid nothing without love nothing else love burn bright nothing would mean nothing without love could see inside heart would understand would never mean hurt baby kind man might say sorry yeah might talk tough sometimes might forget little thing keep hang line world know romeo juliet boy meet girl promise forget cast eden gate regret fire cry would die would cry would anything would lie know true baby would die would die would cry come right know true baby would die might savior never king might send rose buy diamond ring could see inside maybe would know love like hunger without would starve world know romeo juliet boy meet girl promise forget cast eden gate regret fire cry sit smokey room night end pas time stranger bottle friend remember use park butler street dark remember lose key lose backseat baby remember use talk bust would break heart together forever never say goodbye never say goodbye old friend hop would never end say goodbye never say goodbye hold get try hold never say goodbye remember day skip school race car cool six pack radio need place remember prom night fight band play favorite song hold arm strong dance close dance slow swore would never let together forever never say goodbye never say goodbye old friend hop would never end say goodbye never say goodbye hold get try hold never say goodbye guess would say use talk bust would break heart together forever never say goodbye never say goodbye old friend hop would never end say goodbye never say goodbye hold get try hold never say goodbye joey come sacred part town sometimes talk tough foot touch ground sidewalk soldier sing midnite blue old men recite story line young like say yeah cruise backbeat yeah make love backseat wild wild street member boy brigade date girl next door know make daddy crazy make want look trouble know boy want fight tonight head thru bathroom window daddy know gon alright say yeah cruise backbeat yeah make love backseat wild wild street wild wild street wild wild street wild wild street sometimes town pretty know bad like girl look happy whe inside sad get code honor nobody walk vain trough kid parade hometown</t>
   </si>
   <si>
     <t>https://jamesclear.com/great-speeches/the-danger-of-a-single-story-by-chimamanda-ngozi-adichie</t>
